--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7588" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7593" uniqueCount="1906">
   <si>
     <t>INVENTORY_DB</t>
   </si>
@@ -5741,6 +5741,9 @@
   </si>
   <si>
     <t>TRIAL_SIGNUP</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JournalService.exportEcrfJournal</t>
   </si>
 </sst>
 </file>
@@ -8812,10 +8815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I1276"/>
+  <dimension ref="A2:I1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
-      <selection activeCell="A905" sqref="A905"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
+      <selection activeCell="A1091" sqref="A1091"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -25430,42 +25433,19 @@
     </row>
     <row r="1092" spans="1:9">
       <c r="A1092" t="s">
-        <v>1666</v>
+        <v>1905</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1192</v>
       </c>
       <c r="C1092" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1092" t="s">
-        <v>741</v>
+        <v>228</v>
       </c>
       <c r="E1092" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1092" t="s">
-        <v>1667</v>
+        <v>720</v>
       </c>
       <c r="I1092" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:9">
-      <c r="A1093" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C1093" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1093" t="s">
-        <v>742</v>
-      </c>
-      <c r="E1093" t="s">
-        <v>718</v>
-      </c>
-      <c r="F1093" t="s">
-        <v>1667</v>
-      </c>
-      <c r="I1093" s="1" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1094" spans="1:9">
@@ -25476,102 +25456,102 @@
         <v>740</v>
       </c>
       <c r="D1094" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E1094" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F1094" t="s">
         <v>1667</v>
       </c>
       <c r="I1094" t="s">
-        <v>1104</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1095" spans="1:9">
       <c r="A1095" t="s">
         <v>1666</v>
       </c>
-      <c r="B1095" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1095" t="s">
         <v>740</v>
       </c>
       <c r="D1095" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E1095" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F1095" t="s">
         <v>1667</v>
       </c>
-      <c r="I1095" t="s">
-        <v>1077</v>
+      <c r="I1095" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="1096" spans="1:9">
       <c r="A1096" t="s">
         <v>1666</v>
       </c>
-      <c r="B1096" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1096" t="s">
         <v>740</v>
       </c>
       <c r="D1096" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E1096" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F1096" t="s">
         <v>1667</v>
       </c>
       <c r="I1096" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1097" spans="1:9">
       <c r="A1097" t="s">
         <v>1666</v>
       </c>
+      <c r="B1097" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1097" t="s">
         <v>740</v>
       </c>
       <c r="D1097" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E1097" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="F1097" t="s">
         <v>1667</v>
       </c>
       <c r="I1097" t="s">
-        <v>1108</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1098" spans="1:9">
       <c r="A1098" t="s">
         <v>1666</v>
       </c>
+      <c r="B1098" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1098" t="s">
         <v>740</v>
       </c>
       <c r="D1098" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E1098" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F1098" t="s">
         <v>1667</v>
       </c>
       <c r="I1098" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1099" spans="1:9">
@@ -25582,16 +25562,16 @@
         <v>740</v>
       </c>
       <c r="D1099" t="s">
-        <v>783</v>
+        <v>746</v>
       </c>
       <c r="E1099" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
       <c r="F1099" t="s">
         <v>1667</v>
       </c>
       <c r="I1099" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1100" spans="1:9">
@@ -25602,16 +25582,16 @@
         <v>740</v>
       </c>
       <c r="D1100" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="E1100" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="F1100" t="s">
         <v>1667</v>
       </c>
       <c r="I1100" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1101" spans="1:9">
@@ -25625,13 +25605,13 @@
         <v>783</v>
       </c>
       <c r="E1101" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1101" t="s">
         <v>1667</v>
       </c>
       <c r="I1101" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1102" spans="1:9">
@@ -25645,22 +25625,19 @@
         <v>783</v>
       </c>
       <c r="E1102" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1102" t="s">
         <v>1667</v>
       </c>
       <c r="I1102" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1103" spans="1:9">
       <c r="A1103" t="s">
         <v>1666</v>
       </c>
-      <c r="B1103" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1103" t="s">
         <v>740</v>
       </c>
@@ -25668,13 +25645,13 @@
         <v>783</v>
       </c>
       <c r="E1103" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1103" t="s">
         <v>1667</v>
       </c>
       <c r="I1103" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1104" spans="1:9">
@@ -25688,19 +25665,22 @@
         <v>783</v>
       </c>
       <c r="E1104" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1104" t="s">
         <v>1667</v>
       </c>
       <c r="I1104" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1105" spans="1:9">
       <c r="A1105" t="s">
         <v>1666</v>
       </c>
+      <c r="B1105" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1105" t="s">
         <v>740</v>
       </c>
@@ -25708,35 +25688,58 @@
         <v>783</v>
       </c>
       <c r="E1105" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1105" t="s">
         <v>1667</v>
       </c>
       <c r="I1105" t="s">
-        <v>1132</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:9">
+      <c r="A1106" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I1106" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1107" spans="1:9">
       <c r="A1107" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1192</v>
+        <v>1666</v>
       </c>
       <c r="C1107" t="s">
-        <v>703</v>
+        <v>740</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>783</v>
       </c>
       <c r="E1107" t="s">
-        <v>749</v>
+        <v>666</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>1667</v>
       </c>
       <c r="I1107" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1109" spans="1:9">
       <c r="A1109" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B1109" t="s">
         <v>1192</v>
@@ -25748,47 +25751,24 @@
         <v>749</v>
       </c>
       <c r="I1109" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1111" spans="1:9">
       <c r="A1111" t="s">
-        <v>1670</v>
+        <v>1669</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1192</v>
       </c>
       <c r="C1111" t="s">
-        <v>600</v>
-      </c>
-      <c r="D1111" t="s">
-        <v>1167</v>
+        <v>703</v>
       </c>
       <c r="E1111" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1111" t="s">
-        <v>1671</v>
+        <v>749</v>
       </c>
       <c r="I1111" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:9">
-      <c r="A1112" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C1112" t="s">
-        <v>600</v>
-      </c>
-      <c r="D1112" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E1112" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1112" t="s">
-        <v>1671</v>
-      </c>
-      <c r="I1112" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1113" spans="1:9">
@@ -25802,13 +25782,13 @@
         <v>1167</v>
       </c>
       <c r="E1113" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1113" t="s">
         <v>1671</v>
       </c>
       <c r="I1113" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1114" spans="1:9">
@@ -25822,22 +25802,19 @@
         <v>1167</v>
       </c>
       <c r="E1114" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1114" t="s">
         <v>1671</v>
       </c>
       <c r="I1114" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1115" spans="1:9">
       <c r="A1115" t="s">
         <v>1670</v>
       </c>
-      <c r="B1115" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1115" t="s">
         <v>600</v>
       </c>
@@ -25845,13 +25822,13 @@
         <v>1167</v>
       </c>
       <c r="E1115" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1115" t="s">
         <v>1671</v>
       </c>
       <c r="I1115" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1116" spans="1:9">
@@ -25865,19 +25842,22 @@
         <v>1167</v>
       </c>
       <c r="E1116" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1116" t="s">
         <v>1671</v>
       </c>
       <c r="I1116" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1117" spans="1:9">
       <c r="A1117" t="s">
         <v>1670</v>
       </c>
+      <c r="B1117" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1117" t="s">
         <v>600</v>
       </c>
@@ -25885,47 +25865,53 @@
         <v>1167</v>
       </c>
       <c r="E1117" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1117" t="s">
         <v>1671</v>
       </c>
       <c r="I1117" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9">
+      <c r="A1118" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I1118" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9">
+      <c r="A1119" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I1119" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:9">
-      <c r="A1132" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1132" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1132" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I1132" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:9">
-      <c r="A1133" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C1133" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1133" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1133" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I1133" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="1134" spans="1:9">
@@ -25936,13 +25922,13 @@
         <v>657</v>
       </c>
       <c r="E1134" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1134" t="s">
         <v>1673</v>
       </c>
       <c r="I1134" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1135" spans="1:9">
@@ -25953,33 +25939,30 @@
         <v>657</v>
       </c>
       <c r="E1135" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1135" t="s">
         <v>1673</v>
       </c>
       <c r="I1135" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1136" spans="1:9">
       <c r="A1136" t="s">
         <v>1672</v>
       </c>
-      <c r="B1136" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1136" t="s">
         <v>657</v>
       </c>
       <c r="E1136" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1136" t="s">
         <v>1673</v>
       </c>
       <c r="I1136" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1137" spans="1:9">
@@ -25990,67 +25973,67 @@
         <v>657</v>
       </c>
       <c r="E1137" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1137" t="s">
         <v>1673</v>
       </c>
       <c r="I1137" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1138" spans="1:9">
       <c r="A1138" t="s">
         <v>1672</v>
       </c>
+      <c r="B1138" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1138" t="s">
         <v>657</v>
       </c>
       <c r="E1138" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1138" t="s">
         <v>1673</v>
       </c>
       <c r="I1138" t="s">
-        <v>1126</v>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9">
+      <c r="A1139" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I1139" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="1140" spans="1:9">
       <c r="A1140" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C1140" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1140" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="E1140" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1140" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="I1140" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:9">
-      <c r="A1141" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C1141" t="s">
-        <v>671</v>
-      </c>
-      <c r="E1141" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1141" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I1141" t="s">
-        <v>1119</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1142" spans="1:9">
@@ -26064,13 +26047,13 @@
         <v>670</v>
       </c>
       <c r="E1142" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1142" t="s">
         <v>1675</v>
       </c>
       <c r="I1142" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1143" spans="1:9">
@@ -26081,13 +26064,13 @@
         <v>671</v>
       </c>
       <c r="E1143" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1143" t="s">
         <v>1676</v>
       </c>
       <c r="I1143" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1144" spans="1:9">
@@ -26101,13 +26084,13 @@
         <v>670</v>
       </c>
       <c r="E1144" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1144" t="s">
         <v>1675</v>
       </c>
       <c r="I1144" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1145" spans="1:9">
@@ -26118,13 +26101,13 @@
         <v>671</v>
       </c>
       <c r="E1145" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1145" t="s">
         <v>1676</v>
       </c>
       <c r="I1145" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1146" spans="1:9">
@@ -26138,13 +26121,13 @@
         <v>670</v>
       </c>
       <c r="E1146" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1146" t="s">
         <v>1675</v>
       </c>
       <c r="I1146" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1147" spans="1:9">
@@ -26155,22 +26138,19 @@
         <v>671</v>
       </c>
       <c r="E1147" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1147" t="s">
         <v>1676</v>
       </c>
       <c r="I1147" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1148" spans="1:9">
       <c r="A1148" t="s">
         <v>1674</v>
       </c>
-      <c r="B1148" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1148" t="s">
         <v>1153</v>
       </c>
@@ -26178,13 +26158,13 @@
         <v>670</v>
       </c>
       <c r="E1148" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1148" t="s">
         <v>1675</v>
       </c>
       <c r="I1148" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1149" spans="1:9">
@@ -26195,19 +26175,22 @@
         <v>671</v>
       </c>
       <c r="E1149" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1149" t="s">
         <v>1676</v>
       </c>
       <c r="I1149" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1150" spans="1:9">
       <c r="A1150" t="s">
         <v>1674</v>
       </c>
+      <c r="B1150" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1150" t="s">
         <v>1153</v>
       </c>
@@ -26215,13 +26198,13 @@
         <v>670</v>
       </c>
       <c r="E1150" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1150" t="s">
         <v>1675</v>
       </c>
       <c r="I1150" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1151" spans="1:9">
@@ -26232,13 +26215,13 @@
         <v>671</v>
       </c>
       <c r="E1151" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1151" t="s">
         <v>1676</v>
       </c>
       <c r="I1151" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1152" spans="1:9">
@@ -26252,13 +26235,13 @@
         <v>670</v>
       </c>
       <c r="E1152" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1152" t="s">
         <v>1675</v>
       </c>
       <c r="I1152" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1153" spans="1:9">
@@ -26269,53 +26252,50 @@
         <v>671</v>
       </c>
       <c r="E1153" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1153" t="s">
         <v>1676</v>
       </c>
       <c r="I1153" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:9">
+      <c r="A1154" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I1154" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="1155" spans="1:9">
       <c r="A1155" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C1155" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1155" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E1155" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1155" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="I1155" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:9">
-      <c r="A1156" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1156" t="s">
-        <v>670</v>
-      </c>
-      <c r="E1156" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1156" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I1156" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1157" spans="1:9">
@@ -26329,13 +26309,13 @@
         <v>670</v>
       </c>
       <c r="E1157" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1157" t="s">
         <v>1678</v>
       </c>
       <c r="I1157" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1158" spans="1:9">
@@ -26349,22 +26329,19 @@
         <v>670</v>
       </c>
       <c r="E1158" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1158" t="s">
         <v>1678</v>
       </c>
       <c r="I1158" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1159" spans="1:9">
       <c r="A1159" t="s">
         <v>1677</v>
       </c>
-      <c r="B1159" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1159" t="s">
         <v>585</v>
       </c>
@@ -26372,13 +26349,13 @@
         <v>670</v>
       </c>
       <c r="E1159" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1159" t="s">
         <v>1678</v>
       </c>
       <c r="I1159" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1160" spans="1:9">
@@ -26392,19 +26369,22 @@
         <v>670</v>
       </c>
       <c r="E1160" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1160" t="s">
         <v>1678</v>
       </c>
       <c r="I1160" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1161" spans="1:9">
       <c r="A1161" t="s">
         <v>1677</v>
       </c>
+      <c r="B1161" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1161" t="s">
         <v>585</v>
       </c>
@@ -26412,18 +26392,38 @@
         <v>670</v>
       </c>
       <c r="E1161" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1161" t="s">
         <v>1678</v>
       </c>
       <c r="I1161" t="s">
-        <v>1126</v>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:9">
+      <c r="A1162" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I1162" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="1163" spans="1:9">
       <c r="A1163" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C1163" t="s">
         <v>585</v>
@@ -26432,33 +26432,13 @@
         <v>670</v>
       </c>
       <c r="E1163" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1163" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="I1163" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:9">
-      <c r="A1164" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C1164" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>670</v>
-      </c>
-      <c r="E1164" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I1164" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1165" spans="1:9">
@@ -26472,13 +26452,13 @@
         <v>670</v>
       </c>
       <c r="E1165" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1165" t="s">
         <v>1680</v>
       </c>
       <c r="I1165" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1166" spans="1:9">
@@ -26492,22 +26472,19 @@
         <v>670</v>
       </c>
       <c r="E1166" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1166" t="s">
         <v>1680</v>
       </c>
       <c r="I1166" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1167" spans="1:9">
       <c r="A1167" t="s">
         <v>1679</v>
       </c>
-      <c r="B1167" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1167" t="s">
         <v>585</v>
       </c>
@@ -26515,13 +26492,13 @@
         <v>670</v>
       </c>
       <c r="E1167" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1167" t="s">
         <v>1680</v>
       </c>
       <c r="I1167" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1168" spans="1:9">
@@ -26535,19 +26512,22 @@
         <v>670</v>
       </c>
       <c r="E1168" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1168" t="s">
         <v>1680</v>
       </c>
       <c r="I1168" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1169" spans="1:9">
       <c r="A1169" t="s">
         <v>1679</v>
       </c>
+      <c r="B1169" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1169" t="s">
         <v>585</v>
       </c>
@@ -26555,47 +26535,53 @@
         <v>670</v>
       </c>
       <c r="E1169" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1169" t="s">
         <v>1680</v>
       </c>
       <c r="I1169" t="s">
-        <v>1132</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:9">
+      <c r="A1170" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1171" spans="1:9">
       <c r="A1171" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C1171" t="s">
-        <v>600</v>
+        <v>585</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>670</v>
       </c>
       <c r="E1171" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1171" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="I1171" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:9">
-      <c r="A1172" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C1172" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1172" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1172" t="s">
-        <v>1682</v>
-      </c>
-      <c r="I1172" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1173" spans="1:9">
@@ -26606,13 +26592,13 @@
         <v>600</v>
       </c>
       <c r="E1173" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1173" t="s">
         <v>1682</v>
       </c>
       <c r="I1173" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1174" spans="1:9">
@@ -26623,33 +26609,30 @@
         <v>600</v>
       </c>
       <c r="E1174" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1174" t="s">
         <v>1682</v>
       </c>
       <c r="I1174" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1175" spans="1:9">
       <c r="A1175" t="s">
         <v>1681</v>
       </c>
-      <c r="B1175" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1175" t="s">
         <v>600</v>
       </c>
       <c r="E1175" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1175" t="s">
         <v>1682</v>
       </c>
       <c r="I1175" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1176" spans="1:9">
@@ -26660,64 +26643,67 @@
         <v>600</v>
       </c>
       <c r="E1176" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1176" t="s">
         <v>1682</v>
       </c>
       <c r="I1176" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1177" spans="1:9">
       <c r="A1177" t="s">
         <v>1681</v>
       </c>
+      <c r="B1177" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1177" t="s">
         <v>600</v>
       </c>
       <c r="E1177" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1177" t="s">
         <v>1682</v>
       </c>
       <c r="I1177" t="s">
-        <v>1132</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:9">
+      <c r="A1178" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I1178" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1179" spans="1:9">
       <c r="A1179" t="s">
-        <v>1836</v>
+        <v>1681</v>
       </c>
       <c r="C1179" t="s">
         <v>600</v>
       </c>
       <c r="E1179" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1179" t="s">
-        <v>1837</v>
+        <v>1682</v>
       </c>
       <c r="I1179" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:9">
-      <c r="A1180" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C1180" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1180" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1180" t="s">
-        <v>1837</v>
-      </c>
-      <c r="I1180" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1181" spans="1:9">
@@ -26728,13 +26714,13 @@
         <v>600</v>
       </c>
       <c r="E1181" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1181" t="s">
         <v>1837</v>
       </c>
       <c r="I1181" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1182" spans="1:9">
@@ -26745,33 +26731,30 @@
         <v>600</v>
       </c>
       <c r="E1182" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1182" t="s">
         <v>1837</v>
       </c>
       <c r="I1182" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1183" spans="1:9">
       <c r="A1183" t="s">
         <v>1836</v>
       </c>
-      <c r="B1183" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1183" t="s">
         <v>600</v>
       </c>
       <c r="E1183" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1183" t="s">
         <v>1837</v>
       </c>
       <c r="I1183" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1184" spans="1:9">
@@ -26782,70 +26765,67 @@
         <v>600</v>
       </c>
       <c r="E1184" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1184" t="s">
         <v>1837</v>
       </c>
       <c r="I1184" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1185" spans="1:9">
       <c r="A1185" t="s">
         <v>1836</v>
       </c>
+      <c r="B1185" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1185" t="s">
         <v>600</v>
       </c>
       <c r="E1185" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1185" t="s">
         <v>1837</v>
       </c>
       <c r="I1185" t="s">
-        <v>1132</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:9">
+      <c r="A1186" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1187" spans="1:9">
       <c r="A1187" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="C1187" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1187" t="s">
-        <v>670</v>
+        <v>600</v>
       </c>
       <c r="E1187" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1187" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="I1187" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:9">
-      <c r="A1188" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C1188" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1188" t="s">
-        <v>670</v>
-      </c>
-      <c r="E1188" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1188" t="s">
-        <v>1839</v>
-      </c>
-      <c r="I1188" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1189" spans="1:9">
@@ -26859,13 +26839,13 @@
         <v>670</v>
       </c>
       <c r="E1189" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1189" t="s">
         <v>1839</v>
       </c>
       <c r="I1189" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1190" spans="1:9">
@@ -26879,22 +26859,19 @@
         <v>670</v>
       </c>
       <c r="E1190" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1190" t="s">
         <v>1839</v>
       </c>
       <c r="I1190" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1191" spans="1:9">
       <c r="A1191" t="s">
         <v>1838</v>
       </c>
-      <c r="B1191" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1191" t="s">
         <v>585</v>
       </c>
@@ -26902,13 +26879,13 @@
         <v>670</v>
       </c>
       <c r="E1191" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1191" t="s">
         <v>1839</v>
       </c>
       <c r="I1191" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1192" spans="1:9">
@@ -26922,19 +26899,22 @@
         <v>670</v>
       </c>
       <c r="E1192" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1192" t="s">
         <v>1839</v>
       </c>
       <c r="I1192" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1193" spans="1:9">
       <c r="A1193" t="s">
         <v>1838</v>
       </c>
+      <c r="B1193" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1193" t="s">
         <v>585</v>
       </c>
@@ -26942,47 +26922,53 @@
         <v>670</v>
       </c>
       <c r="E1193" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1193" t="s">
         <v>1839</v>
       </c>
       <c r="I1193" t="s">
-        <v>1132</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:9">
+      <c r="A1194" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1195" spans="1:9">
       <c r="A1195" t="s">
-        <v>1683</v>
+        <v>1838</v>
       </c>
       <c r="C1195" t="s">
-        <v>600</v>
+        <v>585</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>670</v>
       </c>
       <c r="E1195" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1195" t="s">
-        <v>1684</v>
+        <v>1839</v>
       </c>
       <c r="I1195" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:9">
-      <c r="A1196" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1196" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1196" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1196" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I1196" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1197" spans="1:9">
@@ -26993,13 +26979,13 @@
         <v>600</v>
       </c>
       <c r="E1197" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1197" t="s">
         <v>1684</v>
       </c>
       <c r="I1197" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1198" spans="1:9">
@@ -27010,33 +26996,30 @@
         <v>600</v>
       </c>
       <c r="E1198" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1198" t="s">
         <v>1684</v>
       </c>
       <c r="I1198" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1199" spans="1:9">
       <c r="A1199" t="s">
         <v>1683</v>
       </c>
-      <c r="B1199" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1199" t="s">
         <v>600</v>
       </c>
       <c r="E1199" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1199" t="s">
         <v>1684</v>
       </c>
       <c r="I1199" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1200" spans="1:9">
@@ -27047,64 +27030,67 @@
         <v>600</v>
       </c>
       <c r="E1200" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1200" t="s">
         <v>1684</v>
       </c>
       <c r="I1200" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1201" spans="1:9">
       <c r="A1201" t="s">
         <v>1683</v>
       </c>
+      <c r="B1201" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1201" t="s">
         <v>600</v>
       </c>
       <c r="E1201" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1201" t="s">
         <v>1684</v>
       </c>
       <c r="I1201" t="s">
-        <v>1132</v>
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:9">
+      <c r="A1202" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I1202" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1203" spans="1:9">
       <c r="A1203" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C1203" t="s">
         <v>600</v>
       </c>
       <c r="E1203" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="F1203" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="I1203" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:9">
-      <c r="A1204" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C1204" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1204" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1204" t="s">
-        <v>1686</v>
-      </c>
-      <c r="I1204" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1205" spans="1:9">
@@ -27115,13 +27101,13 @@
         <v>600</v>
       </c>
       <c r="E1205" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1205" t="s">
         <v>1686</v>
       </c>
       <c r="I1205" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1206" spans="1:9">
@@ -27132,33 +27118,30 @@
         <v>600</v>
       </c>
       <c r="E1206" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1206" t="s">
         <v>1686</v>
       </c>
       <c r="I1206" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1207" spans="1:9">
       <c r="A1207" t="s">
         <v>1685</v>
       </c>
-      <c r="B1207" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1207" t="s">
         <v>600</v>
       </c>
       <c r="E1207" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1207" t="s">
         <v>1686</v>
       </c>
       <c r="I1207" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1208" spans="1:9">
@@ -27169,68 +27152,77 @@
         <v>600</v>
       </c>
       <c r="E1208" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1208" t="s">
         <v>1686</v>
       </c>
       <c r="I1208" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1209" spans="1:9">
       <c r="A1209" t="s">
         <v>1685</v>
       </c>
+      <c r="B1209" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1209" t="s">
         <v>600</v>
       </c>
       <c r="E1209" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1209" t="s">
         <v>1686</v>
       </c>
       <c r="I1209" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1210" spans="1:9">
       <c r="A1210" t="s">
-        <v>1191</v>
+        <v>1685</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I1210" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1211" spans="1:9">
       <c r="A1211" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C1211" t="s">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="E1211" t="s">
-        <v>674</v>
+        <v>666</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>1686</v>
       </c>
       <c r="I1211" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1212" spans="1:9">
       <c r="A1212" t="s">
-        <v>1687</v>
-      </c>
-      <c r="G1212" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1212" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1212" t="s">
-        <v>1068</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1213" spans="1:9">
       <c r="A1213" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C1213" t="s">
         <v>659</v>
@@ -27239,12 +27231,12 @@
         <v>674</v>
       </c>
       <c r="I1213" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1214" spans="1:9">
       <c r="A1214" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="G1214" t="s">
         <v>672</v>
@@ -27252,13 +27244,13 @@
       <c r="H1214" t="s">
         <v>673</v>
       </c>
-      <c r="I1214" s="1" t="s">
-        <v>1074</v>
+      <c r="I1214" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1215" spans="1:9">
       <c r="A1215" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C1215" t="s">
         <v>659</v>
@@ -27267,12 +27259,12 @@
         <v>674</v>
       </c>
       <c r="I1215" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1216" spans="1:9">
       <c r="A1216" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="G1216" t="s">
         <v>672</v>
@@ -27280,13 +27272,13 @@
       <c r="H1216" t="s">
         <v>673</v>
       </c>
-      <c r="I1216" t="s">
-        <v>1105</v>
+      <c r="I1216" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1217" spans="1:9">
       <c r="A1217" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C1217" t="s">
         <v>659</v>
@@ -27295,12 +27287,12 @@
         <v>674</v>
       </c>
       <c r="I1217" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1218" spans="1:9">
       <c r="A1218" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G1218" t="s">
         <v>672</v>
@@ -27309,15 +27301,12 @@
         <v>673</v>
       </c>
       <c r="I1218" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1219" spans="1:9">
       <c r="A1219" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B1219" t="s">
-        <v>1192</v>
+        <v>1690</v>
       </c>
       <c r="C1219" t="s">
         <v>659</v>
@@ -27326,15 +27315,12 @@
         <v>674</v>
       </c>
       <c r="I1219" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1220" spans="1:9">
       <c r="A1220" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B1220" t="s">
-        <v>1192</v>
+        <v>1690</v>
       </c>
       <c r="G1220" t="s">
         <v>672</v>
@@ -27343,12 +27329,15 @@
         <v>673</v>
       </c>
       <c r="I1220" t="s">
-        <v>1833</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1221" spans="1:9">
       <c r="A1221" t="s">
-        <v>1692</v>
+        <v>1691</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>1192</v>
       </c>
       <c r="C1221" t="s">
         <v>659</v>
@@ -27357,12 +27346,15 @@
         <v>674</v>
       </c>
       <c r="I1221" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1222" spans="1:9">
       <c r="A1222" t="s">
-        <v>1692</v>
+        <v>1691</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1192</v>
       </c>
       <c r="G1222" t="s">
         <v>672</v>
@@ -27371,12 +27363,12 @@
         <v>673</v>
       </c>
       <c r="I1222" t="s">
-        <v>1108</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1223" spans="1:9">
       <c r="A1223" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C1223" t="s">
         <v>659</v>
@@ -27385,12 +27377,12 @@
         <v>674</v>
       </c>
       <c r="I1223" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1224" spans="1:9">
       <c r="A1224" t="s">
-        <v>1789</v>
+        <v>1692</v>
       </c>
       <c r="G1224" t="s">
         <v>672</v>
@@ -27398,38 +27390,38 @@
       <c r="H1224" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="1227" spans="1:9">
-      <c r="A1227" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C1227" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1227" t="s">
+      <c r="I1224" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:9">
+      <c r="A1225" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1225" t="s">
         <v>674</v>
       </c>
-      <c r="I1227" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:9">
-      <c r="A1228" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G1228" t="s">
+      <c r="I1225" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:9">
+      <c r="A1226" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G1226" t="s">
         <v>672</v>
       </c>
-      <c r="H1228" t="s">
+      <c r="H1226" t="s">
         <v>673</v>
-      </c>
-      <c r="I1228" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="1229" spans="1:9">
       <c r="A1229" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C1229" t="s">
         <v>585</v>
@@ -27438,12 +27430,12 @@
         <v>674</v>
       </c>
       <c r="I1229" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1230" spans="1:9">
       <c r="A1230" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G1230" t="s">
         <v>672</v>
@@ -27451,13 +27443,13 @@
       <c r="H1230" t="s">
         <v>673</v>
       </c>
-      <c r="I1230" s="1" t="s">
-        <v>1074</v>
+      <c r="I1230" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1231" spans="1:9">
       <c r="A1231" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C1231" t="s">
         <v>585</v>
@@ -27466,12 +27458,12 @@
         <v>674</v>
       </c>
       <c r="I1231" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1232" spans="1:9">
       <c r="A1232" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G1232" t="s">
         <v>672</v>
@@ -27479,13 +27471,13 @@
       <c r="H1232" t="s">
         <v>673</v>
       </c>
-      <c r="I1232" t="s">
-        <v>1105</v>
+      <c r="I1232" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1233" spans="1:9">
       <c r="A1233" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C1233" t="s">
         <v>585</v>
@@ -27494,12 +27486,12 @@
         <v>674</v>
       </c>
       <c r="I1233" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1234" spans="1:9">
       <c r="A1234" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G1234" t="s">
         <v>672</v>
@@ -27508,15 +27500,12 @@
         <v>673</v>
       </c>
       <c r="I1234" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1235" spans="1:9">
       <c r="A1235" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B1235" t="s">
-        <v>1192</v>
+        <v>1697</v>
       </c>
       <c r="C1235" t="s">
         <v>585</v>
@@ -27525,15 +27514,12 @@
         <v>674</v>
       </c>
       <c r="I1235" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1236" spans="1:9">
       <c r="A1236" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B1236" t="s">
-        <v>1192</v>
+        <v>1697</v>
       </c>
       <c r="G1236" t="s">
         <v>672</v>
@@ -27542,12 +27528,15 @@
         <v>673</v>
       </c>
       <c r="I1236" t="s">
-        <v>1833</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1237" spans="1:9">
       <c r="A1237" t="s">
-        <v>1699</v>
+        <v>1698</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>1192</v>
       </c>
       <c r="C1237" t="s">
         <v>585</v>
@@ -27556,12 +27545,15 @@
         <v>674</v>
       </c>
       <c r="I1237" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1238" spans="1:9">
       <c r="A1238" t="s">
-        <v>1699</v>
+        <v>1698</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1192</v>
       </c>
       <c r="G1238" t="s">
         <v>672</v>
@@ -27570,12 +27562,12 @@
         <v>673</v>
       </c>
       <c r="I1238" t="s">
-        <v>1108</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1239" spans="1:9">
       <c r="A1239" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C1239" t="s">
         <v>585</v>
@@ -27584,12 +27576,12 @@
         <v>674</v>
       </c>
       <c r="I1239" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1240" spans="1:9">
       <c r="A1240" t="s">
-        <v>1788</v>
+        <v>1699</v>
       </c>
       <c r="G1240" t="s">
         <v>672</v>
@@ -27597,173 +27589,173 @@
       <c r="H1240" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="1243" spans="1:9">
-      <c r="A1243" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C1243" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1243" t="s">
+      <c r="I1240" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:9">
+      <c r="A1241" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1241" t="s">
         <v>674</v>
       </c>
-      <c r="I1243" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:9">
-      <c r="A1244" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C1244" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1244" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1244" t="s">
-        <v>1147</v>
+      <c r="I1241" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:9">
+      <c r="A1242" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="1245" spans="1:9">
       <c r="A1245" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9">
+      <c r="A1246" t="s">
         <v>1702</v>
       </c>
-      <c r="G1245" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1245" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1245" s="1" t="s">
-        <v>1074</v>
+      <c r="C1246" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="1247" spans="1:9">
       <c r="A1247" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C1247" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1247" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1247" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:9">
-      <c r="A1248" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C1248" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1248" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1248" t="s">
-        <v>1148</v>
+        <v>1702</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1247" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1249" spans="1:9">
       <c r="A1249" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9">
+      <c r="A1250" t="s">
         <v>1704</v>
       </c>
-      <c r="G1249" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1249" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1249" t="s">
-        <v>1105</v>
+      <c r="C1250" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="1251" spans="1:9">
       <c r="A1251" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B1251" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1251" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1251" t="s">
-        <v>674</v>
+        <v>1704</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>673</v>
       </c>
       <c r="I1251" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:9">
-      <c r="A1252" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B1252" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1252" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1252" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1252" t="s">
-        <v>1150</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1253" spans="1:9">
       <c r="A1253" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:9">
+      <c r="A1254" t="s">
         <v>1706</v>
       </c>
-      <c r="B1253" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G1253" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1253" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1253" t="s">
-        <v>1833</v>
+      <c r="B1254" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="1255" spans="1:9">
       <c r="A1255" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C1255" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1255" t="s">
-        <v>674</v>
+        <v>1706</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>673</v>
       </c>
       <c r="I1255" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:9">
-      <c r="A1256" t="s">
-        <v>1707</v>
-      </c>
-      <c r="G1256" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1256" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1256" t="s">
-        <v>1068</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1257" spans="1:9">
       <c r="A1257" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C1257" t="s">
         <v>659</v>
@@ -27772,12 +27764,12 @@
         <v>674</v>
       </c>
       <c r="I1257" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1258" spans="1:9">
       <c r="A1258" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G1258" t="s">
         <v>672</v>
@@ -27785,13 +27777,13 @@
       <c r="H1258" t="s">
         <v>673</v>
       </c>
-      <c r="I1258" s="1" t="s">
-        <v>1074</v>
+      <c r="I1258" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1259" spans="1:9">
       <c r="A1259" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C1259" t="s">
         <v>659</v>
@@ -27800,12 +27792,12 @@
         <v>674</v>
       </c>
       <c r="I1259" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1260" spans="1:9">
       <c r="A1260" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="G1260" t="s">
         <v>672</v>
@@ -27813,13 +27805,13 @@
       <c r="H1260" t="s">
         <v>673</v>
       </c>
-      <c r="I1260" t="s">
-        <v>1105</v>
+      <c r="I1260" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1261" spans="1:9">
       <c r="A1261" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C1261" t="s">
         <v>659</v>
@@ -27828,12 +27820,12 @@
         <v>674</v>
       </c>
       <c r="I1261" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1262" spans="1:9">
       <c r="A1262" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G1262" t="s">
         <v>672</v>
@@ -27842,15 +27834,12 @@
         <v>673</v>
       </c>
       <c r="I1262" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1263" spans="1:9">
       <c r="A1263" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B1263" t="s">
-        <v>1192</v>
+        <v>1710</v>
       </c>
       <c r="C1263" t="s">
         <v>659</v>
@@ -27859,15 +27848,12 @@
         <v>674</v>
       </c>
       <c r="I1263" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1264" spans="1:9">
       <c r="A1264" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B1264" t="s">
-        <v>1192</v>
+        <v>1710</v>
       </c>
       <c r="G1264" t="s">
         <v>672</v>
@@ -27876,12 +27862,15 @@
         <v>673</v>
       </c>
       <c r="I1264" t="s">
-        <v>1833</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1265" spans="1:9">
       <c r="A1265" t="s">
-        <v>1712</v>
+        <v>1711</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1192</v>
       </c>
       <c r="C1265" t="s">
         <v>659</v>
@@ -27890,12 +27879,15 @@
         <v>674</v>
       </c>
       <c r="I1265" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1266" spans="1:9">
       <c r="A1266" t="s">
-        <v>1712</v>
+        <v>1711</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1192</v>
       </c>
       <c r="G1266" t="s">
         <v>672</v>
@@ -27904,12 +27896,12 @@
         <v>673</v>
       </c>
       <c r="I1266" t="s">
-        <v>1108</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1267" spans="1:9">
       <c r="A1267" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C1267" t="s">
         <v>659</v>
@@ -27918,12 +27910,12 @@
         <v>674</v>
       </c>
       <c r="I1267" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1268" spans="1:9">
       <c r="A1268" t="s">
-        <v>1790</v>
+        <v>1712</v>
       </c>
       <c r="G1268" t="s">
         <v>672</v>
@@ -27931,39 +27923,33 @@
       <c r="H1268" t="s">
         <v>673</v>
       </c>
+      <c r="I1268" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:9">
+      <c r="A1269" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="1270" spans="1:9">
       <c r="A1270" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C1270" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1270" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1270" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I1270" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:9">
-      <c r="A1271" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C1271" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1271" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1271" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I1271" t="s">
-        <v>1127</v>
+        <v>1790</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="1272" spans="1:9">
@@ -27974,13 +27960,13 @@
         <v>600</v>
       </c>
       <c r="E1272" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1272" t="s">
         <v>1715</v>
       </c>
       <c r="I1272" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1273" spans="1:9">
@@ -27991,33 +27977,30 @@
         <v>600</v>
       </c>
       <c r="E1273" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F1273" t="s">
         <v>1715</v>
       </c>
       <c r="I1273" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1274" spans="1:9">
       <c r="A1274" t="s">
         <v>1714</v>
       </c>
-      <c r="B1274" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1274" t="s">
         <v>600</v>
       </c>
       <c r="E1274" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F1274" t="s">
         <v>1715</v>
       </c>
       <c r="I1274" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1275" spans="1:9">
@@ -28028,29 +28011,66 @@
         <v>600</v>
       </c>
       <c r="E1275" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F1275" t="s">
         <v>1715</v>
       </c>
       <c r="I1275" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1276" spans="1:9">
       <c r="A1276" t="s">
         <v>1714</v>
       </c>
+      <c r="B1276" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1276" t="s">
         <v>600</v>
       </c>
       <c r="E1276" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F1276" t="s">
         <v>1715</v>
       </c>
       <c r="I1276" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:9">
+      <c r="A1277" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:9">
+      <c r="A1278" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I1278" t="s">
         <v>1132</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7593" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7597" uniqueCount="1907">
   <si>
     <t>INVENTORY_DB</t>
   </si>
@@ -5744,6 +5744,9 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.shared.JournalService.exportEcrfJournal</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.proband.ProbandService.getInquiryTrials</t>
   </si>
 </sst>
 </file>
@@ -8815,10 +8818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I1278"/>
+  <dimension ref="A2:I1279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
-      <selection activeCell="A1091" sqref="A1091"/>
+    <sheetView tabSelected="1" topLeftCell="A707" workbookViewId="0">
+      <selection activeCell="A724" sqref="A724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19776,21 +19779,18 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="725" spans="1:9">
-      <c r="A725" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C725" t="s">
-        <v>228</v>
-      </c>
-      <c r="E725" t="s">
-        <v>535</v>
-      </c>
-      <c r="I725" t="s">
-        <v>1880</v>
+    <row r="724" spans="1:9">
+      <c r="A724" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C724" t="s">
+        <v>380</v>
+      </c>
+      <c r="E724" t="s">
+        <v>72</v>
+      </c>
+      <c r="I724" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="726" spans="1:9">
@@ -19801,30 +19801,30 @@
         <v>1192</v>
       </c>
       <c r="C726" t="s">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="E726" t="s">
-        <v>72</v>
+        <v>535</v>
       </c>
       <c r="I726" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="727" spans="1:9">
       <c r="A727" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B727" t="s">
         <v>1192</v>
       </c>
       <c r="C727" t="s">
-        <v>228</v>
+        <v>380</v>
       </c>
       <c r="E727" t="s">
-        <v>535</v>
+        <v>72</v>
       </c>
       <c r="I727" t="s">
-        <v>1077</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="728" spans="1:9">
@@ -19835,30 +19835,30 @@
         <v>1192</v>
       </c>
       <c r="C728" t="s">
-        <v>380</v>
+        <v>228</v>
       </c>
       <c r="E728" t="s">
-        <v>72</v>
+        <v>535</v>
       </c>
       <c r="I728" t="s">
-        <v>1833</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="729" spans="1:9">
       <c r="A729" t="s">
-        <v>1877</v>
+        <v>1863</v>
       </c>
       <c r="B729" t="s">
         <v>1192</v>
       </c>
-      <c r="G729" t="s">
-        <v>22</v>
-      </c>
-      <c r="H729" t="s">
-        <v>660</v>
+      <c r="C729" t="s">
+        <v>380</v>
+      </c>
+      <c r="E729" t="s">
+        <v>72</v>
       </c>
       <c r="I729" t="s">
-        <v>1883</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="730" spans="1:9">
@@ -19868,39 +19868,36 @@
       <c r="B730" t="s">
         <v>1192</v>
       </c>
-      <c r="C730" t="s">
+      <c r="G730" t="s">
+        <v>22</v>
+      </c>
+      <c r="H730" t="s">
+        <v>660</v>
+      </c>
+      <c r="I730" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9">
+      <c r="A731" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B731" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C731" t="s">
         <v>380</v>
       </c>
-      <c r="E730" t="s">
+      <c r="E731" t="s">
         <v>72</v>
       </c>
-      <c r="I730" t="s">
+      <c r="I731" t="s">
         <v>1882</v>
-      </c>
-    </row>
-    <row r="732" spans="1:9">
-      <c r="A732" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C732" t="s">
-        <v>945</v>
-      </c>
-      <c r="D732" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E732" t="s">
-        <v>72</v>
-      </c>
-      <c r="I732" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="733" spans="1:9">
       <c r="A733" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B733" t="s">
-        <v>1192</v>
+        <v>1571</v>
       </c>
       <c r="C733" t="s">
         <v>945</v>
@@ -19915,18 +19912,24 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="735" spans="1:9">
-      <c r="A735" t="s">
-        <v>1573</v>
-      </c>
-      <c r="G735" t="s">
-        <v>1184</v>
-      </c>
-      <c r="H735" t="s">
-        <v>660</v>
-      </c>
-      <c r="I735" t="s">
-        <v>1102</v>
+    <row r="734" spans="1:9">
+      <c r="A734" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B734" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C734" t="s">
+        <v>945</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E734" t="s">
+        <v>72</v>
+      </c>
+      <c r="I734" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="736" spans="1:9">
@@ -19934,27 +19937,27 @@
         <v>1573</v>
       </c>
       <c r="G736" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="H736" t="s">
         <v>660</v>
       </c>
       <c r="I736" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="737" spans="1:9">
       <c r="A737" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="G737" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
       <c r="H737" t="s">
         <v>660</v>
       </c>
       <c r="I737" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="738" spans="1:9">
@@ -19962,67 +19965,61 @@
         <v>1574</v>
       </c>
       <c r="G738" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="H738" t="s">
         <v>660</v>
       </c>
       <c r="I738" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9">
+      <c r="A739" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G739" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H739" t="s">
+        <v>660</v>
+      </c>
+      <c r="I739" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="740" spans="1:9">
-      <c r="A740" t="s">
+    <row r="741" spans="1:9">
+      <c r="A741" t="s">
         <v>1575</v>
       </c>
-      <c r="B740" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C740" t="s">
+      <c r="B741" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C741" t="s">
         <v>1056</v>
       </c>
-      <c r="E740" t="s">
+      <c r="E741" t="s">
         <v>72</v>
       </c>
-      <c r="I740" t="s">
+      <c r="I741" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="742" spans="1:9">
-      <c r="A742" t="s">
+    <row r="743" spans="1:9">
+      <c r="A743" t="s">
         <v>1576</v>
       </c>
-      <c r="B742" t="s">
-        <v>1192</v>
-      </c>
-      <c r="G742" t="s">
+      <c r="B743" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G743" t="s">
         <v>1196</v>
       </c>
-      <c r="H742" t="s">
+      <c r="H743" t="s">
         <v>660</v>
       </c>
-      <c r="I742" t="s">
+      <c r="I743" t="s">
         <v>1103</v>
-      </c>
-    </row>
-    <row r="744" spans="1:9">
-      <c r="A744" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B744" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C744" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D744" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E744" t="s">
-        <v>72</v>
-      </c>
-      <c r="I744" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="745" spans="1:9">
@@ -20036,16 +20033,13 @@
         <v>1024</v>
       </c>
       <c r="D745" t="s">
-        <v>1201</v>
+        <v>1059</v>
       </c>
       <c r="E745" t="s">
-        <v>720</v>
-      </c>
-      <c r="F745" t="s">
-        <v>1578</v>
+        <v>72</v>
       </c>
       <c r="I745" t="s">
-        <v>1076</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="746" spans="1:9">
@@ -20062,30 +20056,36 @@
         <v>1201</v>
       </c>
       <c r="E746" t="s">
-        <v>1197</v>
+        <v>720</v>
       </c>
       <c r="F746" t="s">
         <v>1578</v>
       </c>
       <c r="I746" t="s">
-        <v>1200</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="747" spans="1:9">
       <c r="A747" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B747" t="s">
         <v>1192</v>
       </c>
       <c r="C747" t="s">
-        <v>380</v>
+        <v>1024</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1201</v>
       </c>
       <c r="E747" t="s">
-        <v>72</v>
+        <v>1197</v>
+      </c>
+      <c r="F747" t="s">
+        <v>1578</v>
       </c>
       <c r="I747" t="s">
-        <v>1834</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="748" spans="1:9">
@@ -20096,35 +20096,35 @@
         <v>1192</v>
       </c>
       <c r="C748" t="s">
+        <v>380</v>
+      </c>
+      <c r="E748" t="s">
+        <v>72</v>
+      </c>
+      <c r="I748" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="749" spans="1:9">
+      <c r="A749" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B749" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C749" t="s">
         <v>228</v>
       </c>
-      <c r="E748" t="s">
+      <c r="E749" t="s">
         <v>535</v>
       </c>
-      <c r="I748" t="s">
+      <c r="I749" t="s">
         <v>1076</v>
-      </c>
-    </row>
-    <row r="750" spans="1:9">
-      <c r="A750" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C750" t="s">
-        <v>380</v>
-      </c>
-      <c r="E750" t="s">
-        <v>72</v>
-      </c>
-      <c r="I750" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="751" spans="1:9">
       <c r="A751" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B751" t="s">
         <v>1192</v>
@@ -20139,35 +20139,35 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="753" spans="1:9">
-      <c r="A753" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B753" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C753" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D753" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E753" t="s">
+    <row r="752" spans="1:9">
+      <c r="A752" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C752" t="s">
+        <v>380</v>
+      </c>
+      <c r="E752" t="s">
         <v>72</v>
       </c>
-      <c r="I753" t="s">
-        <v>1106</v>
+      <c r="I752" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="754" spans="1:9">
       <c r="A754" t="s">
-        <v>1900</v>
+        <v>1582</v>
       </c>
       <c r="B754" t="s">
         <v>1192</v>
       </c>
       <c r="C754" t="s">
-        <v>380</v>
+        <v>1008</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1051</v>
       </c>
       <c r="E754" t="s">
         <v>72</v>
@@ -20176,66 +20176,66 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="756" spans="1:9">
-      <c r="A756" t="s">
+    <row r="755" spans="1:9">
+      <c r="A755" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B755" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C755" t="s">
+        <v>380</v>
+      </c>
+      <c r="E755" t="s">
+        <v>72</v>
+      </c>
+      <c r="I755" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="757" spans="1:9">
+      <c r="A757" t="s">
         <v>1829</v>
       </c>
-      <c r="C756" t="s">
+      <c r="C757" t="s">
         <v>380</v>
       </c>
-      <c r="E756" t="s">
+      <c r="E757" t="s">
         <v>72</v>
       </c>
-      <c r="I756" t="s">
+      <c r="I757" t="s">
         <v>1103</v>
-      </c>
-    </row>
-    <row r="758" spans="1:9">
-      <c r="A758" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B758" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C758" t="s">
-        <v>928</v>
-      </c>
-      <c r="E758" t="s">
-        <v>70</v>
-      </c>
-      <c r="I758" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="759" spans="1:9">
       <c r="A759" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B759" t="s">
         <v>1192</v>
       </c>
       <c r="C759" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D759" t="s">
-        <v>1186</v>
+        <v>928</v>
+      </c>
+      <c r="E759" t="s">
+        <v>70</v>
+      </c>
+      <c r="I759" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="760" spans="1:9">
       <c r="A760" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B760" t="s">
         <v>1192</v>
       </c>
       <c r="C760" t="s">
-        <v>929</v>
-      </c>
-      <c r="E760" t="s">
-        <v>749</v>
-      </c>
-      <c r="I760" t="s">
-        <v>1108</v>
+        <v>1185</v>
+      </c>
+      <c r="D760" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="761" spans="1:9">
@@ -20246,10 +20246,10 @@
         <v>1192</v>
       </c>
       <c r="C761" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E761" t="s">
-        <v>70</v>
+        <v>749</v>
       </c>
       <c r="I761" t="s">
         <v>1108</v>
@@ -20257,16 +20257,16 @@
     </row>
     <row r="762" spans="1:9">
       <c r="A762" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B762" t="s">
         <v>1192</v>
       </c>
       <c r="C762" t="s">
-        <v>877</v>
+        <v>930</v>
       </c>
       <c r="E762" t="s">
-        <v>749</v>
+        <v>70</v>
       </c>
       <c r="I762" t="s">
         <v>1108</v>
@@ -20274,7 +20274,10 @@
     </row>
     <row r="763" spans="1:9">
       <c r="A763" t="s">
-        <v>1587</v>
+        <v>1586</v>
+      </c>
+      <c r="B763" t="s">
+        <v>1192</v>
       </c>
       <c r="C763" t="s">
         <v>877</v>
@@ -20283,73 +20286,79 @@
         <v>749</v>
       </c>
       <c r="I763" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="764" spans="1:9">
+      <c r="A764" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C764" t="s">
+        <v>877</v>
+      </c>
+      <c r="E764" t="s">
+        <v>749</v>
+      </c>
+      <c r="I764" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="765" spans="1:9">
-      <c r="A765" t="s">
+    <row r="766" spans="1:9">
+      <c r="A766" t="s">
         <v>1720</v>
       </c>
-      <c r="G765" t="s">
+      <c r="G766" t="s">
         <v>22</v>
       </c>
-      <c r="H765" t="s">
+      <c r="H766" t="s">
         <v>660</v>
       </c>
-      <c r="I765" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="767" spans="1:9">
-      <c r="A767" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B767" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C767" t="s">
-        <v>877</v>
-      </c>
-      <c r="E767" t="s">
-        <v>749</v>
-      </c>
-      <c r="I767" t="s">
+      <c r="I766" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="768" spans="1:9">
       <c r="A768" t="s">
-        <v>1589</v>
+        <v>1588</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C768" t="s">
+        <v>877</v>
+      </c>
+      <c r="E768" t="s">
+        <v>749</v>
       </c>
       <c r="I768" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="769" spans="1:9">
       <c r="A769" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I769" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="770" spans="1:9">
+      <c r="A770" t="s">
         <v>1590</v>
       </c>
-      <c r="C769" t="s">
+      <c r="C770" t="s">
         <v>877</v>
       </c>
-      <c r="E769" t="s">
+      <c r="E770" t="s">
         <v>749</v>
       </c>
-      <c r="I769" t="s">
+      <c r="I770" t="s">
         <v>1109</v>
-      </c>
-    </row>
-    <row r="771" spans="1:9">
-      <c r="A771" t="s">
-        <v>1591</v>
-      </c>
-      <c r="I771" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="772" spans="1:9">
       <c r="A772" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="I772" t="s">
         <v>1111</v>
@@ -20357,7 +20366,7 @@
     </row>
     <row r="773" spans="1:9">
       <c r="A773" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I773" t="s">
         <v>1111</v>
@@ -20365,38 +20374,26 @@
     </row>
     <row r="774" spans="1:9">
       <c r="A774" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="I774" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="776" spans="1:9">
-      <c r="A776" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C776" t="s">
-        <v>877</v>
-      </c>
-      <c r="E776" t="s">
-        <v>749</v>
-      </c>
-      <c r="I776" t="s">
-        <v>1108</v>
+    <row r="775" spans="1:9">
+      <c r="A775" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I775" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="777" spans="1:9">
       <c r="A777" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1192</v>
+        <v>1595</v>
       </c>
       <c r="C777" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D777" t="s">
-        <v>1137</v>
+        <v>877</v>
       </c>
       <c r="E777" t="s">
         <v>749</v>
@@ -20413,7 +20410,10 @@
         <v>1192</v>
       </c>
       <c r="C778" t="s">
-        <v>1136</v>
+        <v>1135</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1137</v>
       </c>
       <c r="E778" t="s">
         <v>749</v>
@@ -20422,33 +20422,42 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="780" spans="1:9">
-      <c r="A780" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I780" t="s">
-        <v>1111</v>
+    <row r="779" spans="1:9">
+      <c r="A779" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B779" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E779" t="s">
+        <v>749</v>
+      </c>
+      <c r="I779" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="781" spans="1:9">
       <c r="A781" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="I781" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="784" spans="1:9">
-      <c r="A784" t="s">
-        <v>1599</v>
-      </c>
-      <c r="I784" t="s">
-        <v>1112</v>
+    <row r="782" spans="1:9">
+      <c r="A782" t="s">
+        <v>1598</v>
+      </c>
+      <c r="I782" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="785" spans="1:9">
       <c r="A785" t="s">
-        <v>1841</v>
+        <v>1599</v>
       </c>
       <c r="I785" t="s">
         <v>1112</v>
@@ -20456,7 +20465,7 @@
     </row>
     <row r="786" spans="1:9">
       <c r="A786" t="s">
-        <v>1600</v>
+        <v>1841</v>
       </c>
       <c r="I786" t="s">
         <v>1112</v>
@@ -20464,7 +20473,7 @@
     </row>
     <row r="787" spans="1:9">
       <c r="A787" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I787" t="s">
         <v>1112</v>
@@ -20472,23 +20481,23 @@
     </row>
     <row r="788" spans="1:9">
       <c r="A788" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I788" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9">
+      <c r="A789" t="s">
         <v>1602</v>
       </c>
-      <c r="I788" t="s">
+      <c r="I789" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="790" spans="1:9">
-      <c r="A790" t="s">
-        <v>1603</v>
-      </c>
-      <c r="I790" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="791" spans="1:9">
       <c r="A791" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="I791" t="s">
         <v>1112</v>
@@ -20496,7 +20505,7 @@
     </row>
     <row r="792" spans="1:9">
       <c r="A792" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="I792" t="s">
         <v>1112</v>
@@ -20504,15 +20513,15 @@
     </row>
     <row r="793" spans="1:9">
       <c r="A793" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="I793" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="794" spans="1:9">
       <c r="A794" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="I794" t="s">
         <v>1113</v>
@@ -20520,7 +20529,7 @@
     </row>
     <row r="795" spans="1:9">
       <c r="A795" t="s">
-        <v>1803</v>
+        <v>1607</v>
       </c>
       <c r="I795" t="s">
         <v>1113</v>
@@ -20528,31 +20537,31 @@
     </row>
     <row r="796" spans="1:9">
       <c r="A796" t="s">
-        <v>1894</v>
+        <v>1803</v>
       </c>
       <c r="I796" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="798" spans="1:9">
-      <c r="A798" t="s">
+    <row r="797" spans="1:9">
+      <c r="A797" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I797" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9">
+      <c r="A799" t="s">
         <v>1842</v>
       </c>
-      <c r="I798" t="s">
+      <c r="I799" t="s">
         <v>1112</v>
-      </c>
-    </row>
-    <row r="800" spans="1:9">
-      <c r="A800" t="s">
-        <v>1608</v>
-      </c>
-      <c r="I800" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="801" spans="1:9">
       <c r="A801" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="I801" t="s">
         <v>1113</v>
@@ -20560,7 +20569,7 @@
     </row>
     <row r="802" spans="1:9">
       <c r="A802" t="s">
-        <v>1725</v>
+        <v>1609</v>
       </c>
       <c r="I802" t="s">
         <v>1113</v>
@@ -20568,7 +20577,7 @@
     </row>
     <row r="803" spans="1:9">
       <c r="A803" t="s">
-        <v>1610</v>
+        <v>1725</v>
       </c>
       <c r="I803" t="s">
         <v>1113</v>
@@ -20576,7 +20585,7 @@
     </row>
     <row r="804" spans="1:9">
       <c r="A804" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I804" t="s">
         <v>1113</v>
@@ -20584,7 +20593,7 @@
     </row>
     <row r="805" spans="1:9">
       <c r="A805" t="s">
-        <v>1724</v>
+        <v>1611</v>
       </c>
       <c r="I805" t="s">
         <v>1113</v>
@@ -20592,43 +20601,34 @@
     </row>
     <row r="806" spans="1:9">
       <c r="A806" t="s">
-        <v>1612</v>
+        <v>1724</v>
       </c>
       <c r="I806" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="808" spans="1:9">
-      <c r="A808" t="s">
+    <row r="807" spans="1:9">
+      <c r="A807" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I807" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9">
+      <c r="A809" t="s">
         <v>1613</v>
       </c>
-      <c r="I808" t="s">
+      <c r="I809" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="810" spans="1:9">
-      <c r="A810" t="s">
+    <row r="811" spans="1:9">
+      <c r="A811" t="s">
         <v>1721</v>
       </c>
-      <c r="I810" t="s">
+      <c r="I811" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="812" spans="1:9">
-      <c r="A812" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C812" t="s">
-        <v>769</v>
-      </c>
-      <c r="E812" t="s">
-        <v>710</v>
-      </c>
-      <c r="F812" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I812" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="813" spans="1:9">
@@ -20636,16 +20636,16 @@
         <v>1614</v>
       </c>
       <c r="C813" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E813" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F813" t="s">
         <v>1615</v>
       </c>
       <c r="I813" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="814" spans="1:9">
@@ -20653,16 +20653,16 @@
         <v>1614</v>
       </c>
       <c r="C814" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E814" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F814" t="s">
         <v>1615</v>
       </c>
       <c r="I814" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="815" spans="1:9">
@@ -20670,36 +20670,33 @@
         <v>1614</v>
       </c>
       <c r="C815" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E815" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F815" t="s">
         <v>1615</v>
       </c>
       <c r="I815" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9">
+      <c r="A816" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C816" t="s">
+        <v>772</v>
+      </c>
+      <c r="E816" t="s">
+        <v>720</v>
+      </c>
+      <c r="F816" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I816" t="s">
         <v>1076</v>
-      </c>
-    </row>
-    <row r="817" spans="1:9">
-      <c r="A817" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C817" t="s">
-        <v>773</v>
-      </c>
-      <c r="D817" t="s">
-        <v>778</v>
-      </c>
-      <c r="E817" t="s">
-        <v>710</v>
-      </c>
-      <c r="F817" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I817" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="818" spans="1:9">
@@ -20710,16 +20707,16 @@
         <v>773</v>
       </c>
       <c r="D818" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E818" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F818" t="s">
         <v>1617</v>
       </c>
       <c r="I818" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="819" spans="1:9">
@@ -20730,16 +20727,16 @@
         <v>773</v>
       </c>
       <c r="D819" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E819" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F819" t="s">
         <v>1617</v>
       </c>
       <c r="I819" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="820" spans="1:9">
@@ -20750,16 +20747,16 @@
         <v>773</v>
       </c>
       <c r="D820" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E820" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F820" t="s">
         <v>1617</v>
       </c>
       <c r="I820" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="821" spans="1:9">
@@ -20767,16 +20764,19 @@
         <v>1616</v>
       </c>
       <c r="C821" t="s">
-        <v>774</v>
+        <v>773</v>
+      </c>
+      <c r="D821" t="s">
+        <v>781</v>
       </c>
       <c r="E821" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="F821" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="I821" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="822" spans="1:9">
@@ -20784,16 +20784,16 @@
         <v>1616</v>
       </c>
       <c r="C822" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E822" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F822" t="s">
         <v>1618</v>
       </c>
       <c r="I822" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="823" spans="1:9">
@@ -20801,16 +20801,16 @@
         <v>1616</v>
       </c>
       <c r="C823" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E823" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F823" t="s">
         <v>1618</v>
       </c>
       <c r="I823" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="824" spans="1:9">
@@ -20818,36 +20818,33 @@
         <v>1616</v>
       </c>
       <c r="C824" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E824" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F824" t="s">
         <v>1618</v>
       </c>
       <c r="I824" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9">
+      <c r="A825" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C825" t="s">
+        <v>777</v>
+      </c>
+      <c r="E825" t="s">
+        <v>720</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I825" t="s">
         <v>1076</v>
-      </c>
-    </row>
-    <row r="826" spans="1:9">
-      <c r="A826" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C826" t="s">
-        <v>765</v>
-      </c>
-      <c r="D826" t="s">
-        <v>778</v>
-      </c>
-      <c r="E826" t="s">
-        <v>710</v>
-      </c>
-      <c r="F826" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I826" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="827" spans="1:9">
@@ -20858,16 +20855,16 @@
         <v>765</v>
       </c>
       <c r="D827" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E827" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F827" t="s">
         <v>1620</v>
       </c>
       <c r="I827" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="828" spans="1:9">
@@ -20878,16 +20875,16 @@
         <v>765</v>
       </c>
       <c r="D828" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E828" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F828" t="s">
         <v>1620</v>
       </c>
       <c r="I828" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="829" spans="1:9">
@@ -20898,36 +20895,36 @@
         <v>765</v>
       </c>
       <c r="D829" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E829" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F829" t="s">
         <v>1620</v>
       </c>
       <c r="I829" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9">
+      <c r="A830" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C830" t="s">
+        <v>765</v>
+      </c>
+      <c r="D830" t="s">
+        <v>781</v>
+      </c>
+      <c r="E830" t="s">
+        <v>720</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I830" t="s">
         <v>1076</v>
-      </c>
-    </row>
-    <row r="831" spans="1:9">
-      <c r="A831" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C831" t="s">
-        <v>765</v>
-      </c>
-      <c r="D831" t="s">
-        <v>778</v>
-      </c>
-      <c r="E831" t="s">
-        <v>710</v>
-      </c>
-      <c r="F831" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I831" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="832" spans="1:9">
@@ -20938,16 +20935,16 @@
         <v>765</v>
       </c>
       <c r="D832" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E832" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F832" t="s">
         <v>1622</v>
       </c>
-      <c r="I832" s="1" t="s">
-        <v>1071</v>
+      <c r="I832" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="833" spans="1:9">
@@ -20958,16 +20955,16 @@
         <v>765</v>
       </c>
       <c r="D833" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E833" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F833" t="s">
         <v>1622</v>
       </c>
-      <c r="I833" t="s">
-        <v>1104</v>
+      <c r="I833" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="834" spans="1:9">
@@ -20978,36 +20975,36 @@
         <v>765</v>
       </c>
       <c r="D834" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E834" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F834" t="s">
         <v>1622</v>
       </c>
       <c r="I834" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9">
+      <c r="A835" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C835" t="s">
+        <v>765</v>
+      </c>
+      <c r="D835" t="s">
+        <v>781</v>
+      </c>
+      <c r="E835" t="s">
+        <v>720</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1622</v>
+      </c>
+      <c r="I835" t="s">
         <v>1077</v>
-      </c>
-    </row>
-    <row r="836" spans="1:9">
-      <c r="A836" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C836" t="s">
-        <v>740</v>
-      </c>
-      <c r="D836" t="s">
-        <v>782</v>
-      </c>
-      <c r="E836" t="s">
-        <v>710</v>
-      </c>
-      <c r="F836" t="s">
-        <v>1624</v>
-      </c>
-      <c r="I836" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="837" spans="1:9">
@@ -21018,16 +21015,16 @@
         <v>740</v>
       </c>
       <c r="D837" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E837" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F837" t="s">
         <v>1624</v>
       </c>
-      <c r="I837" s="1" t="s">
-        <v>1071</v>
+      <c r="I837" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="838" spans="1:9">
@@ -21038,16 +21035,16 @@
         <v>740</v>
       </c>
       <c r="D838" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E838" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F838" t="s">
         <v>1624</v>
       </c>
-      <c r="I838" t="s">
-        <v>1104</v>
+      <c r="I838" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="839" spans="1:9">
@@ -21058,30 +21055,36 @@
         <v>740</v>
       </c>
       <c r="D839" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E839" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F839" t="s">
         <v>1624</v>
       </c>
       <c r="I839" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="840" spans="1:9">
       <c r="A840" t="s">
         <v>1623</v>
       </c>
-      <c r="G840" t="s">
-        <v>787</v>
-      </c>
-      <c r="H840" t="s">
-        <v>789</v>
+      <c r="C840" t="s">
+        <v>740</v>
+      </c>
+      <c r="D840" t="s">
+        <v>786</v>
+      </c>
+      <c r="E840" t="s">
+        <v>720</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1624</v>
       </c>
       <c r="I840" t="s">
-        <v>1114</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="841" spans="1:9">
@@ -21092,10 +21095,10 @@
         <v>787</v>
       </c>
       <c r="H841" t="s">
-        <v>788</v>
-      </c>
-      <c r="I841" s="1" t="s">
-        <v>1115</v>
+        <v>789</v>
+      </c>
+      <c r="I841" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="842" spans="1:9">
@@ -21106,10 +21109,10 @@
         <v>787</v>
       </c>
       <c r="H842" t="s">
-        <v>790</v>
-      </c>
-      <c r="I842" t="s">
-        <v>1116</v>
+        <v>788</v>
+      </c>
+      <c r="I842" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="843" spans="1:9">
@@ -21120,30 +21123,24 @@
         <v>787</v>
       </c>
       <c r="H843" t="s">
+        <v>790</v>
+      </c>
+      <c r="I843" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9">
+      <c r="A844" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G844" t="s">
+        <v>787</v>
+      </c>
+      <c r="H844" t="s">
         <v>791</v>
       </c>
-      <c r="I843" t="s">
+      <c r="I844" t="s">
         <v>1117</v>
-      </c>
-    </row>
-    <row r="845" spans="1:9">
-      <c r="A845" t="s">
-        <v>1795</v>
-      </c>
-      <c r="C845" t="s">
-        <v>740</v>
-      </c>
-      <c r="D845" t="s">
-        <v>782</v>
-      </c>
-      <c r="E845" t="s">
-        <v>710</v>
-      </c>
-      <c r="F845" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I845" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="846" spans="1:9">
@@ -21154,16 +21151,16 @@
         <v>740</v>
       </c>
       <c r="D846" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E846" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F846" t="s">
         <v>1796</v>
       </c>
-      <c r="I846" s="1" t="s">
-        <v>1071</v>
+      <c r="I846" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="847" spans="1:9">
@@ -21174,16 +21171,16 @@
         <v>740</v>
       </c>
       <c r="D847" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E847" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F847" t="s">
         <v>1796</v>
       </c>
-      <c r="I847" t="s">
-        <v>1104</v>
+      <c r="I847" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="848" spans="1:9">
@@ -21194,30 +21191,36 @@
         <v>740</v>
       </c>
       <c r="D848" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E848" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F848" t="s">
         <v>1796</v>
       </c>
       <c r="I848" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="849" spans="1:9">
       <c r="A849" t="s">
         <v>1795</v>
       </c>
-      <c r="G849" t="s">
-        <v>787</v>
-      </c>
-      <c r="H849" t="s">
-        <v>789</v>
+      <c r="C849" t="s">
+        <v>740</v>
+      </c>
+      <c r="D849" t="s">
+        <v>786</v>
+      </c>
+      <c r="E849" t="s">
+        <v>720</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1796</v>
       </c>
       <c r="I849" t="s">
-        <v>1114</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="850" spans="1:9">
@@ -21228,10 +21231,10 @@
         <v>787</v>
       </c>
       <c r="H850" t="s">
-        <v>788</v>
-      </c>
-      <c r="I850" s="1" t="s">
-        <v>1115</v>
+        <v>789</v>
+      </c>
+      <c r="I850" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -21242,10 +21245,10 @@
         <v>787</v>
       </c>
       <c r="H851" t="s">
-        <v>790</v>
-      </c>
-      <c r="I851" t="s">
-        <v>1116</v>
+        <v>788</v>
+      </c>
+      <c r="I851" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="852" spans="1:9">
@@ -21256,27 +21259,24 @@
         <v>787</v>
       </c>
       <c r="H852" t="s">
+        <v>790</v>
+      </c>
+      <c r="I852" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9">
+      <c r="A853" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G853" t="s">
+        <v>787</v>
+      </c>
+      <c r="H853" t="s">
         <v>791</v>
       </c>
-      <c r="I852" t="s">
+      <c r="I853" t="s">
         <v>1117</v>
-      </c>
-    </row>
-    <row r="855" spans="1:9">
-      <c r="A855" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C855" t="s">
-        <v>827</v>
-      </c>
-      <c r="E855" t="s">
-        <v>710</v>
-      </c>
-      <c r="F855" t="s">
-        <v>1626</v>
-      </c>
-      <c r="I855" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="856" spans="1:9">
@@ -21284,16 +21284,16 @@
         <v>1625</v>
       </c>
       <c r="C856" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E856" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F856" t="s">
         <v>1626</v>
       </c>
       <c r="I856" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="857" spans="1:9">
@@ -21301,16 +21301,16 @@
         <v>1625</v>
       </c>
       <c r="C857" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E857" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F857" t="s">
         <v>1626</v>
       </c>
       <c r="I857" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="858" spans="1:9">
@@ -21318,73 +21318,70 @@
         <v>1625</v>
       </c>
       <c r="C858" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E858" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F858" t="s">
         <v>1626</v>
       </c>
       <c r="I858" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="859" spans="1:9">
       <c r="A859" t="s">
         <v>1625</v>
       </c>
-      <c r="B859" t="s">
-        <v>1192</v>
-      </c>
       <c r="C859" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E859" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F859" t="s">
         <v>1626</v>
       </c>
       <c r="I859" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="860" spans="1:9">
       <c r="A860" t="s">
-        <v>1627</v>
+        <v>1625</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1192</v>
       </c>
       <c r="C860" t="s">
-        <v>1162</v>
+        <v>831</v>
       </c>
       <c r="E860" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F860" t="s">
         <v>1626</v>
       </c>
       <c r="I860" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9">
+      <c r="A861" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E861" t="s">
+        <v>722</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I861" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="862" spans="1:9">
-      <c r="A862" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C862" t="s">
-        <v>832</v>
-      </c>
-      <c r="D862" t="s">
-        <v>834</v>
-      </c>
-      <c r="E862" t="s">
-        <v>710</v>
-      </c>
-      <c r="F862" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I862" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="863" spans="1:9">
@@ -21395,16 +21392,16 @@
         <v>832</v>
       </c>
       <c r="D863" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E863" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F863" t="s">
         <v>1629</v>
       </c>
       <c r="I863" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="864" spans="1:9">
@@ -21415,16 +21412,16 @@
         <v>832</v>
       </c>
       <c r="D864" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E864" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F864" t="s">
         <v>1629</v>
       </c>
       <c r="I864" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="865" spans="1:9">
@@ -21435,76 +21432,79 @@
         <v>832</v>
       </c>
       <c r="D865" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E865" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F865" t="s">
         <v>1629</v>
       </c>
       <c r="I865" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="866" spans="1:9">
       <c r="A866" t="s">
         <v>1628</v>
       </c>
-      <c r="B866" t="s">
-        <v>1192</v>
-      </c>
       <c r="C866" t="s">
         <v>832</v>
       </c>
       <c r="D866" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E866" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F866" t="s">
         <v>1629</v>
       </c>
       <c r="I866" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="867" spans="1:9">
       <c r="A867" t="s">
-        <v>1630</v>
+        <v>1628</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1192</v>
       </c>
       <c r="C867" t="s">
         <v>832</v>
       </c>
       <c r="D867" t="s">
-        <v>1161</v>
+        <v>837</v>
       </c>
       <c r="E867" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F867" t="s">
         <v>1629</v>
       </c>
       <c r="I867" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="868" spans="1:9">
       <c r="A868" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C868" t="s">
-        <v>838</v>
+        <v>832</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1161</v>
       </c>
       <c r="E868" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="F868" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="I868" t="s">
-        <v>1069</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="869" spans="1:9">
@@ -21512,16 +21512,16 @@
         <v>1628</v>
       </c>
       <c r="C869" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E869" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F869" t="s">
         <v>1631</v>
       </c>
       <c r="I869" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="870" spans="1:9">
@@ -21529,16 +21529,16 @@
         <v>1628</v>
       </c>
       <c r="C870" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E870" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F870" t="s">
         <v>1631</v>
       </c>
       <c r="I870" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="871" spans="1:9">
@@ -21546,73 +21546,70 @@
         <v>1628</v>
       </c>
       <c r="C871" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E871" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F871" t="s">
         <v>1631</v>
       </c>
       <c r="I871" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="872" spans="1:9">
       <c r="A872" t="s">
         <v>1628</v>
       </c>
-      <c r="B872" t="s">
-        <v>1192</v>
-      </c>
       <c r="C872" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E872" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F872" t="s">
         <v>1631</v>
       </c>
       <c r="I872" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="873" spans="1:9">
       <c r="A873" t="s">
-        <v>1630</v>
+        <v>1628</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1192</v>
       </c>
       <c r="C873" t="s">
-        <v>1163</v>
+        <v>842</v>
       </c>
       <c r="E873" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F873" t="s">
         <v>1631</v>
       </c>
       <c r="I873" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9">
+      <c r="A874" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E874" t="s">
+        <v>722</v>
+      </c>
+      <c r="F874" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I874" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="875" spans="1:9">
-      <c r="A875" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C875" t="s">
-        <v>796</v>
-      </c>
-      <c r="D875" t="s">
-        <v>834</v>
-      </c>
-      <c r="E875" t="s">
-        <v>710</v>
-      </c>
-      <c r="F875" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I875" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="876" spans="1:9">
@@ -21623,16 +21620,16 @@
         <v>796</v>
       </c>
       <c r="D876" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E876" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F876" t="s">
         <v>1633</v>
       </c>
       <c r="I876" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="877" spans="1:9">
@@ -21643,16 +21640,16 @@
         <v>796</v>
       </c>
       <c r="D877" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E877" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F877" t="s">
         <v>1633</v>
       </c>
       <c r="I877" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="878" spans="1:9">
@@ -21663,79 +21660,79 @@
         <v>796</v>
       </c>
       <c r="D878" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E878" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F878" t="s">
         <v>1633</v>
       </c>
       <c r="I878" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="879" spans="1:9">
       <c r="A879" t="s">
         <v>1632</v>
       </c>
-      <c r="B879" t="s">
-        <v>1192</v>
-      </c>
       <c r="C879" t="s">
         <v>796</v>
       </c>
       <c r="D879" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E879" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F879" t="s">
         <v>1633</v>
       </c>
       <c r="I879" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="880" spans="1:9">
       <c r="A880" t="s">
-        <v>1634</v>
+        <v>1632</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1192</v>
       </c>
       <c r="C880" t="s">
         <v>796</v>
       </c>
       <c r="D880" t="s">
-        <v>1161</v>
+        <v>837</v>
       </c>
       <c r="E880" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F880" t="s">
         <v>1633</v>
       </c>
       <c r="I880" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9">
+      <c r="A881" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C881" t="s">
+        <v>796</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E881" t="s">
+        <v>722</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I881" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="882" spans="1:9">
-      <c r="A882" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C882" t="s">
-        <v>796</v>
-      </c>
-      <c r="D882" t="s">
-        <v>834</v>
-      </c>
-      <c r="E882" t="s">
-        <v>710</v>
-      </c>
-      <c r="F882" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I882" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="883" spans="1:9">
@@ -21746,16 +21743,16 @@
         <v>796</v>
       </c>
       <c r="D883" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E883" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F883" t="s">
         <v>1636</v>
       </c>
-      <c r="I883" s="1" t="s">
-        <v>1071</v>
+      <c r="I883" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="884" spans="1:9">
@@ -21766,16 +21763,16 @@
         <v>796</v>
       </c>
       <c r="D884" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E884" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F884" t="s">
         <v>1636</v>
       </c>
-      <c r="I884" t="s">
-        <v>1104</v>
+      <c r="I884" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="885" spans="1:9">
@@ -21786,16 +21783,16 @@
         <v>796</v>
       </c>
       <c r="D885" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E885" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F885" t="s">
         <v>1636</v>
       </c>
       <c r="I885" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="886" spans="1:9">
@@ -21805,77 +21802,77 @@
       <c r="C886" t="s">
         <v>796</v>
       </c>
+      <c r="D886" t="s">
+        <v>836</v>
+      </c>
       <c r="E886" t="s">
-        <v>1903</v>
+        <v>720</v>
       </c>
       <c r="F886" t="s">
         <v>1636</v>
       </c>
       <c r="I886" t="s">
-        <v>1904</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="887" spans="1:9">
       <c r="A887" t="s">
         <v>1635</v>
       </c>
-      <c r="B887" t="s">
-        <v>1192</v>
-      </c>
       <c r="C887" t="s">
         <v>796</v>
       </c>
-      <c r="D887" t="s">
-        <v>837</v>
-      </c>
       <c r="E887" t="s">
-        <v>721</v>
+        <v>1903</v>
       </c>
       <c r="F887" t="s">
         <v>1636</v>
       </c>
       <c r="I887" t="s">
-        <v>1103</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="888" spans="1:9">
       <c r="A888" t="s">
-        <v>1637</v>
+        <v>1635</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1192</v>
       </c>
       <c r="C888" t="s">
         <v>796</v>
       </c>
       <c r="D888" t="s">
-        <v>1161</v>
+        <v>837</v>
       </c>
       <c r="E888" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F888" t="s">
         <v>1636</v>
       </c>
       <c r="I888" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9">
+      <c r="A889" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C889" t="s">
+        <v>796</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E889" t="s">
+        <v>722</v>
+      </c>
+      <c r="F889" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I889" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="890" spans="1:9">
-      <c r="A890" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C890" t="s">
-        <v>796</v>
-      </c>
-      <c r="D890" t="s">
-        <v>834</v>
-      </c>
-      <c r="E890" t="s">
-        <v>710</v>
-      </c>
-      <c r="F890" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I890" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="891" spans="1:9">
@@ -21886,16 +21883,16 @@
         <v>796</v>
       </c>
       <c r="D891" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E891" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F891" t="s">
         <v>1639</v>
       </c>
-      <c r="I891" s="1" t="s">
-        <v>1071</v>
+      <c r="I891" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="892" spans="1:9">
@@ -21906,16 +21903,16 @@
         <v>796</v>
       </c>
       <c r="D892" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E892" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F892" t="s">
         <v>1639</v>
       </c>
-      <c r="I892" t="s">
-        <v>1104</v>
+      <c r="I892" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="893" spans="1:9">
@@ -21926,16 +21923,16 @@
         <v>796</v>
       </c>
       <c r="D893" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E893" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F893" t="s">
         <v>1639</v>
       </c>
       <c r="I893" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -21945,77 +21942,77 @@
       <c r="C894" t="s">
         <v>796</v>
       </c>
+      <c r="D894" t="s">
+        <v>836</v>
+      </c>
       <c r="E894" t="s">
-        <v>1903</v>
+        <v>720</v>
       </c>
       <c r="F894" t="s">
         <v>1639</v>
       </c>
       <c r="I894" t="s">
-        <v>1904</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="895" spans="1:9">
       <c r="A895" t="s">
         <v>1638</v>
       </c>
-      <c r="B895" t="s">
-        <v>1192</v>
-      </c>
       <c r="C895" t="s">
         <v>796</v>
       </c>
-      <c r="D895" t="s">
-        <v>837</v>
-      </c>
       <c r="E895" t="s">
-        <v>721</v>
+        <v>1903</v>
       </c>
       <c r="F895" t="s">
         <v>1639</v>
       </c>
       <c r="I895" t="s">
-        <v>1103</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="896" spans="1:9">
       <c r="A896" t="s">
-        <v>1640</v>
+        <v>1638</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1192</v>
       </c>
       <c r="C896" t="s">
         <v>796</v>
       </c>
       <c r="D896" t="s">
-        <v>1161</v>
+        <v>837</v>
       </c>
       <c r="E896" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F896" t="s">
         <v>1639</v>
       </c>
       <c r="I896" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9">
+      <c r="A897" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C897" t="s">
+        <v>796</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E897" t="s">
+        <v>722</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I897" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="898" spans="1:9">
-      <c r="A898" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C898" t="s">
-        <v>796</v>
-      </c>
-      <c r="D898" t="s">
-        <v>834</v>
-      </c>
-      <c r="E898" t="s">
-        <v>710</v>
-      </c>
-      <c r="F898" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I898" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="899" spans="1:9">
@@ -22026,16 +22023,16 @@
         <v>796</v>
       </c>
       <c r="D899" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E899" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F899" t="s">
         <v>1642</v>
       </c>
-      <c r="I899" s="1" t="s">
-        <v>1071</v>
+      <c r="I899" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="900" spans="1:9">
@@ -22046,16 +22043,16 @@
         <v>796</v>
       </c>
       <c r="D900" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E900" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F900" t="s">
         <v>1642</v>
       </c>
-      <c r="I900" t="s">
-        <v>1104</v>
+      <c r="I900" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="901" spans="1:9">
@@ -22066,16 +22063,16 @@
         <v>796</v>
       </c>
       <c r="D901" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E901" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F901" t="s">
         <v>1642</v>
       </c>
       <c r="I901" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="902" spans="1:9">
@@ -22085,77 +22082,77 @@
       <c r="C902" t="s">
         <v>796</v>
       </c>
+      <c r="D902" t="s">
+        <v>836</v>
+      </c>
       <c r="E902" t="s">
-        <v>1903</v>
+        <v>720</v>
       </c>
       <c r="F902" t="s">
         <v>1642</v>
       </c>
       <c r="I902" t="s">
-        <v>1904</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="903" spans="1:9">
       <c r="A903" t="s">
         <v>1641</v>
       </c>
-      <c r="B903" t="s">
-        <v>1192</v>
-      </c>
       <c r="C903" t="s">
         <v>796</v>
       </c>
-      <c r="D903" t="s">
-        <v>837</v>
-      </c>
       <c r="E903" t="s">
-        <v>721</v>
+        <v>1903</v>
       </c>
       <c r="F903" t="s">
         <v>1642</v>
       </c>
       <c r="I903" t="s">
-        <v>1103</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="904" spans="1:9">
       <c r="A904" t="s">
-        <v>1643</v>
+        <v>1641</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1192</v>
       </c>
       <c r="C904" t="s">
         <v>796</v>
       </c>
       <c r="D904" t="s">
-        <v>1161</v>
+        <v>837</v>
       </c>
       <c r="E904" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F904" t="s">
         <v>1642</v>
       </c>
       <c r="I904" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9">
+      <c r="A905" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C905" t="s">
+        <v>796</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E905" t="s">
+        <v>722</v>
+      </c>
+      <c r="F905" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I905" t="s">
         <v>1113</v>
-      </c>
-    </row>
-    <row r="906" spans="1:9">
-      <c r="A906" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C906" t="s">
-        <v>740</v>
-      </c>
-      <c r="D906" t="s">
-        <v>843</v>
-      </c>
-      <c r="E906" t="s">
-        <v>710</v>
-      </c>
-      <c r="F906" t="s">
-        <v>1645</v>
-      </c>
-      <c r="I906" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="907" spans="1:9">
@@ -22166,16 +22163,16 @@
         <v>740</v>
       </c>
       <c r="D907" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E907" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F907" t="s">
         <v>1645</v>
       </c>
-      <c r="I907" s="1" t="s">
-        <v>1071</v>
+      <c r="I907" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="908" spans="1:9">
@@ -22186,16 +22183,16 @@
         <v>740</v>
       </c>
       <c r="D908" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E908" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F908" t="s">
         <v>1645</v>
       </c>
-      <c r="I908" t="s">
-        <v>1104</v>
+      <c r="I908" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="909" spans="1:9">
@@ -22206,73 +22203,79 @@
         <v>740</v>
       </c>
       <c r="D909" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E909" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F909" t="s">
         <v>1645</v>
       </c>
       <c r="I909" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="910" spans="1:9">
       <c r="A910" t="s">
         <v>1644</v>
       </c>
-      <c r="B910" t="s">
-        <v>1192</v>
-      </c>
       <c r="C910" t="s">
         <v>740</v>
       </c>
       <c r="D910" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E910" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F910" t="s">
         <v>1645</v>
       </c>
       <c r="I910" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="911" spans="1:9">
       <c r="A911" t="s">
-        <v>1646</v>
+        <v>1644</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1192</v>
       </c>
       <c r="C911" t="s">
         <v>740</v>
       </c>
       <c r="D911" t="s">
-        <v>1160</v>
+        <v>847</v>
       </c>
       <c r="E911" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F911" t="s">
         <v>1645</v>
       </c>
       <c r="I911" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="912" spans="1:9">
       <c r="A912" t="s">
-        <v>1644</v>
-      </c>
-      <c r="G912" t="s">
-        <v>787</v>
-      </c>
-      <c r="H912" t="s">
-        <v>1062</v>
+        <v>1646</v>
+      </c>
+      <c r="C912" t="s">
+        <v>740</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E912" t="s">
+        <v>722</v>
+      </c>
+      <c r="F912" t="s">
+        <v>1645</v>
       </c>
       <c r="I912" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="913" spans="1:9">
@@ -22283,10 +22286,10 @@
         <v>787</v>
       </c>
       <c r="H913" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I913" s="1" t="s">
-        <v>1115</v>
+        <v>1062</v>
+      </c>
+      <c r="I913" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="914" spans="1:9">
@@ -22297,10 +22300,10 @@
         <v>787</v>
       </c>
       <c r="H914" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I914" t="s">
-        <v>1116</v>
+        <v>1063</v>
+      </c>
+      <c r="I914" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="915" spans="1:9">
@@ -22311,10 +22314,10 @@
         <v>787</v>
       </c>
       <c r="H915" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I915" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="916" spans="1:9">
@@ -22325,44 +22328,38 @@
         <v>787</v>
       </c>
       <c r="H916" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I916" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="917" spans="1:9">
       <c r="A917" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G917" t="s">
         <v>787</v>
       </c>
       <c r="H917" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I917" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9">
+      <c r="A918" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G918" t="s">
+        <v>787</v>
+      </c>
+      <c r="H918" t="s">
         <v>1158</v>
       </c>
-      <c r="I917" t="s">
+      <c r="I918" t="s">
         <v>1159</v>
-      </c>
-    </row>
-    <row r="919" spans="1:9">
-      <c r="A919" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C919" t="s">
-        <v>740</v>
-      </c>
-      <c r="D919" t="s">
-        <v>843</v>
-      </c>
-      <c r="E919" t="s">
-        <v>710</v>
-      </c>
-      <c r="F919" t="s">
-        <v>1799</v>
-      </c>
-      <c r="I919" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="920" spans="1:9">
@@ -22373,16 +22370,16 @@
         <v>740</v>
       </c>
       <c r="D920" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E920" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F920" t="s">
         <v>1799</v>
       </c>
-      <c r="I920" s="1" t="s">
-        <v>1071</v>
+      <c r="I920" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="921" spans="1:9">
@@ -22393,16 +22390,16 @@
         <v>740</v>
       </c>
       <c r="D921" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E921" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F921" t="s">
         <v>1799</v>
       </c>
-      <c r="I921" t="s">
-        <v>1104</v>
+      <c r="I921" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="922" spans="1:9">
@@ -22413,16 +22410,16 @@
         <v>740</v>
       </c>
       <c r="D922" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E922" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F922" t="s">
         <v>1799</v>
       </c>
       <c r="I922" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="923" spans="1:9">
@@ -22433,50 +22430,56 @@
         <v>740</v>
       </c>
       <c r="D923" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E923" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F923" t="s">
         <v>1799</v>
       </c>
       <c r="I923" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="924" spans="1:9">
       <c r="A924" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C924" t="s">
         <v>740</v>
       </c>
       <c r="D924" t="s">
-        <v>1160</v>
+        <v>847</v>
       </c>
       <c r="E924" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F924" t="s">
         <v>1799</v>
       </c>
       <c r="I924" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="925" spans="1:9">
       <c r="A925" t="s">
-        <v>1797</v>
-      </c>
-      <c r="G925" t="s">
-        <v>787</v>
-      </c>
-      <c r="H925" t="s">
-        <v>1062</v>
+        <v>1798</v>
+      </c>
+      <c r="C925" t="s">
+        <v>740</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E925" t="s">
+        <v>722</v>
+      </c>
+      <c r="F925" t="s">
+        <v>1799</v>
       </c>
       <c r="I925" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="926" spans="1:9">
@@ -22487,10 +22490,10 @@
         <v>787</v>
       </c>
       <c r="H926" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I926" s="1" t="s">
-        <v>1115</v>
+        <v>1062</v>
+      </c>
+      <c r="I926" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="927" spans="1:9">
@@ -22501,10 +22504,10 @@
         <v>787</v>
       </c>
       <c r="H927" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I927" t="s">
-        <v>1116</v>
+        <v>1063</v>
+      </c>
+      <c r="I927" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="928" spans="1:9">
@@ -22515,10 +22518,10 @@
         <v>787</v>
       </c>
       <c r="H928" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I928" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="929" spans="1:9">
@@ -22529,44 +22532,38 @@
         <v>787</v>
       </c>
       <c r="H929" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I929" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="930" spans="1:9">
       <c r="A930" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G930" t="s">
         <v>787</v>
       </c>
       <c r="H930" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I930" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9">
+      <c r="A931" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G931" t="s">
+        <v>787</v>
+      </c>
+      <c r="H931" t="s">
         <v>1158</v>
       </c>
-      <c r="I930" t="s">
+      <c r="I931" t="s">
         <v>1159</v>
-      </c>
-    </row>
-    <row r="933" spans="1:9">
-      <c r="A933" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C933" t="s">
-        <v>740</v>
-      </c>
-      <c r="D933" t="s">
-        <v>843</v>
-      </c>
-      <c r="E933" t="s">
-        <v>710</v>
-      </c>
-      <c r="F933" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I933" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="934" spans="1:9">
@@ -22577,16 +22574,16 @@
         <v>740</v>
       </c>
       <c r="D934" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E934" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F934" t="s">
         <v>1648</v>
       </c>
-      <c r="I934" s="1" t="s">
-        <v>1071</v>
+      <c r="I934" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -22597,16 +22594,16 @@
         <v>740</v>
       </c>
       <c r="D935" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E935" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F935" t="s">
         <v>1648</v>
       </c>
-      <c r="I935" t="s">
-        <v>1104</v>
+      <c r="I935" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="936" spans="1:9">
@@ -22617,73 +22614,79 @@
         <v>740</v>
       </c>
       <c r="D936" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E936" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F936" t="s">
         <v>1648</v>
       </c>
       <c r="I936" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="937" spans="1:9">
       <c r="A937" t="s">
         <v>1647</v>
       </c>
-      <c r="B937" t="s">
-        <v>1192</v>
-      </c>
       <c r="C937" t="s">
         <v>740</v>
       </c>
       <c r="D937" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E937" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F937" t="s">
         <v>1648</v>
       </c>
       <c r="I937" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="938" spans="1:9">
       <c r="A938" t="s">
-        <v>1649</v>
+        <v>1647</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1192</v>
       </c>
       <c r="C938" t="s">
         <v>740</v>
       </c>
       <c r="D938" t="s">
-        <v>1160</v>
+        <v>847</v>
       </c>
       <c r="E938" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F938" t="s">
         <v>1648</v>
       </c>
       <c r="I938" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="939" spans="1:9">
       <c r="A939" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G939" t="s">
-        <v>787</v>
-      </c>
-      <c r="H939" t="s">
-        <v>1062</v>
+        <v>1649</v>
+      </c>
+      <c r="C939" t="s">
+        <v>740</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E939" t="s">
+        <v>722</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1648</v>
       </c>
       <c r="I939" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="940" spans="1:9">
@@ -22694,10 +22697,10 @@
         <v>787</v>
       </c>
       <c r="H940" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I940" s="1" t="s">
-        <v>1115</v>
+        <v>1062</v>
+      </c>
+      <c r="I940" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="941" spans="1:9">
@@ -22708,10 +22711,10 @@
         <v>787</v>
       </c>
       <c r="H941" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I941" t="s">
-        <v>1116</v>
+        <v>1063</v>
+      </c>
+      <c r="I941" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="942" spans="1:9">
@@ -22722,10 +22725,10 @@
         <v>787</v>
       </c>
       <c r="H942" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I942" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="943" spans="1:9">
@@ -22736,44 +22739,38 @@
         <v>787</v>
       </c>
       <c r="H943" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I943" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="944" spans="1:9">
       <c r="A944" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="G944" t="s">
         <v>787</v>
       </c>
       <c r="H944" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I944" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9">
+      <c r="A945" t="s">
+        <v>1649</v>
+      </c>
+      <c r="G945" t="s">
+        <v>787</v>
+      </c>
+      <c r="H945" t="s">
         <v>1158</v>
       </c>
-      <c r="I944" t="s">
+      <c r="I945" t="s">
         <v>1159</v>
-      </c>
-    </row>
-    <row r="946" spans="1:9">
-      <c r="A946" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C946" t="s">
-        <v>740</v>
-      </c>
-      <c r="D946" t="s">
-        <v>843</v>
-      </c>
-      <c r="E946" t="s">
-        <v>710</v>
-      </c>
-      <c r="F946" t="s">
-        <v>1898</v>
-      </c>
-      <c r="I946" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="947" spans="1:9">
@@ -22784,16 +22781,16 @@
         <v>740</v>
       </c>
       <c r="D947" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E947" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F947" t="s">
         <v>1898</v>
       </c>
       <c r="I947" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="948" spans="1:9">
@@ -22804,16 +22801,16 @@
         <v>740</v>
       </c>
       <c r="D948" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E948" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F948" t="s">
         <v>1898</v>
       </c>
       <c r="I948" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="949" spans="1:9">
@@ -22824,73 +22821,79 @@
         <v>740</v>
       </c>
       <c r="D949" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E949" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F949" t="s">
         <v>1898</v>
       </c>
       <c r="I949" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="950" spans="1:9">
       <c r="A950" t="s">
         <v>1896</v>
       </c>
-      <c r="B950" t="s">
-        <v>1192</v>
-      </c>
       <c r="C950" t="s">
         <v>740</v>
       </c>
       <c r="D950" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E950" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F950" t="s">
         <v>1898</v>
       </c>
       <c r="I950" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="951" spans="1:9">
       <c r="A951" t="s">
-        <v>1897</v>
+        <v>1896</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1192</v>
       </c>
       <c r="C951" t="s">
         <v>740</v>
       </c>
       <c r="D951" t="s">
-        <v>1160</v>
+        <v>847</v>
       </c>
       <c r="E951" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F951" t="s">
         <v>1898</v>
       </c>
       <c r="I951" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="952" spans="1:9">
       <c r="A952" t="s">
         <v>1897</v>
       </c>
-      <c r="G952" t="s">
-        <v>787</v>
-      </c>
-      <c r="H952" t="s">
-        <v>1062</v>
+      <c r="C952" t="s">
+        <v>740</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E952" t="s">
+        <v>722</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1898</v>
       </c>
       <c r="I952" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="953" spans="1:9">
@@ -22901,10 +22904,10 @@
         <v>787</v>
       </c>
       <c r="H953" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I953" s="1" t="s">
-        <v>1115</v>
+        <v>1062</v>
+      </c>
+      <c r="I953" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="954" spans="1:9">
@@ -22915,10 +22918,10 @@
         <v>787</v>
       </c>
       <c r="H954" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I954" t="s">
-        <v>1116</v>
+        <v>1063</v>
+      </c>
+      <c r="I954" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="955" spans="1:9">
@@ -22929,10 +22932,10 @@
         <v>787</v>
       </c>
       <c r="H955" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I955" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="956" spans="1:9">
@@ -22943,44 +22946,38 @@
         <v>787</v>
       </c>
       <c r="H956" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I956" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="957" spans="1:9">
       <c r="A957" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="G957" t="s">
         <v>787</v>
       </c>
       <c r="H957" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I957" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9">
+      <c r="A958" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G958" t="s">
+        <v>787</v>
+      </c>
+      <c r="H958" t="s">
         <v>1158</v>
       </c>
-      <c r="I957" t="s">
+      <c r="I958" t="s">
         <v>1159</v>
-      </c>
-    </row>
-    <row r="959" spans="1:9">
-      <c r="A959" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C959" t="s">
-        <v>740</v>
-      </c>
-      <c r="D959" t="s">
-        <v>843</v>
-      </c>
-      <c r="E959" t="s">
-        <v>710</v>
-      </c>
-      <c r="F959" t="s">
-        <v>1651</v>
-      </c>
-      <c r="I959" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="960" spans="1:9">
@@ -22991,16 +22988,16 @@
         <v>740</v>
       </c>
       <c r="D960" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E960" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F960" t="s">
         <v>1651</v>
       </c>
-      <c r="I960" s="1" t="s">
-        <v>1071</v>
+      <c r="I960" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="961" spans="1:9">
@@ -23011,16 +23008,16 @@
         <v>740</v>
       </c>
       <c r="D961" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E961" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F961" t="s">
         <v>1651</v>
       </c>
-      <c r="I961" t="s">
-        <v>1104</v>
+      <c r="I961" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="962" spans="1:9">
@@ -23031,73 +23028,79 @@
         <v>740</v>
       </c>
       <c r="D962" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E962" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F962" t="s">
         <v>1651</v>
       </c>
       <c r="I962" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="963" spans="1:9">
       <c r="A963" t="s">
         <v>1650</v>
       </c>
-      <c r="B963" t="s">
-        <v>1192</v>
-      </c>
       <c r="C963" t="s">
         <v>740</v>
       </c>
       <c r="D963" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E963" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F963" t="s">
         <v>1651</v>
       </c>
       <c r="I963" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="964" spans="1:9">
       <c r="A964" t="s">
-        <v>1652</v>
+        <v>1650</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1192</v>
       </c>
       <c r="C964" t="s">
         <v>740</v>
       </c>
       <c r="D964" t="s">
-        <v>1160</v>
+        <v>847</v>
       </c>
       <c r="E964" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F964" t="s">
         <v>1651</v>
       </c>
       <c r="I964" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="965" spans="1:9">
       <c r="A965" t="s">
-        <v>1650</v>
-      </c>
-      <c r="G965" t="s">
-        <v>787</v>
-      </c>
-      <c r="H965" t="s">
-        <v>1062</v>
+        <v>1652</v>
+      </c>
+      <c r="C965" t="s">
+        <v>740</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E965" t="s">
+        <v>722</v>
+      </c>
+      <c r="F965" t="s">
+        <v>1651</v>
       </c>
       <c r="I965" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="966" spans="1:9">
@@ -23108,10 +23111,10 @@
         <v>787</v>
       </c>
       <c r="H966" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I966" s="1" t="s">
-        <v>1115</v>
+        <v>1062</v>
+      </c>
+      <c r="I966" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="967" spans="1:9">
@@ -23122,10 +23125,10 @@
         <v>787</v>
       </c>
       <c r="H967" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I967" t="s">
-        <v>1116</v>
+        <v>1063</v>
+      </c>
+      <c r="I967" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="968" spans="1:9">
@@ -23136,10 +23139,10 @@
         <v>787</v>
       </c>
       <c r="H968" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I968" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="969" spans="1:9">
@@ -23150,41 +23153,38 @@
         <v>787</v>
       </c>
       <c r="H969" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I969" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="970" spans="1:9">
       <c r="A970" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="G970" t="s">
         <v>787</v>
       </c>
       <c r="H970" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I970" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9">
+      <c r="A971" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G971" t="s">
+        <v>787</v>
+      </c>
+      <c r="H971" t="s">
         <v>1158</v>
       </c>
-      <c r="I970" t="s">
+      <c r="I971" t="s">
         <v>1159</v>
-      </c>
-    </row>
-    <row r="972" spans="1:9">
-      <c r="A972" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C972" t="s">
-        <v>709</v>
-      </c>
-      <c r="E972" t="s">
-        <v>710</v>
-      </c>
-      <c r="F972" t="s">
-        <v>1654</v>
-      </c>
-      <c r="I972" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="973" spans="1:9">
@@ -23192,16 +23192,16 @@
         <v>1653</v>
       </c>
       <c r="C973" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E973" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F973" t="s">
         <v>1654</v>
       </c>
       <c r="I973" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="974" spans="1:9">
@@ -23209,36 +23209,33 @@
         <v>1653</v>
       </c>
       <c r="C974" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E974" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F974" t="s">
         <v>1654</v>
       </c>
       <c r="I974" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="975" spans="1:9">
       <c r="A975" t="s">
         <v>1653</v>
       </c>
-      <c r="B975" t="s">
-        <v>1192</v>
-      </c>
       <c r="C975" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E975" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F975" t="s">
         <v>1654</v>
       </c>
       <c r="I975" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="976" spans="1:9">
@@ -23249,33 +23246,36 @@
         <v>1192</v>
       </c>
       <c r="C976" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E976" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F976" t="s">
         <v>1654</v>
       </c>
       <c r="I976" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="977" spans="1:9">
       <c r="A977" t="s">
         <v>1653</v>
       </c>
+      <c r="B977" t="s">
+        <v>1192</v>
+      </c>
       <c r="C977" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E977" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F977" t="s">
         <v>1654</v>
       </c>
       <c r="I977" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="978" spans="1:9">
@@ -23283,16 +23283,16 @@
         <v>1653</v>
       </c>
       <c r="C978" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E978" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F978" t="s">
         <v>1654</v>
       </c>
       <c r="I978" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="979" spans="1:9">
@@ -23300,19 +23300,16 @@
         <v>1653</v>
       </c>
       <c r="C979" t="s">
-        <v>717</v>
-      </c>
-      <c r="D979" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="E979" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F979" t="s">
         <v>1654</v>
       </c>
       <c r="I979" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="980" spans="1:9">
@@ -23326,13 +23323,13 @@
         <v>670</v>
       </c>
       <c r="E980" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F980" t="s">
         <v>1654</v>
       </c>
       <c r="I980" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="981" spans="1:9">
@@ -23346,13 +23343,13 @@
         <v>670</v>
       </c>
       <c r="E981" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F981" t="s">
         <v>1654</v>
       </c>
       <c r="I981" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="982" spans="1:9">
@@ -23366,22 +23363,19 @@
         <v>670</v>
       </c>
       <c r="E982" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F982" t="s">
         <v>1654</v>
       </c>
       <c r="I982" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="983" spans="1:9">
       <c r="A983" t="s">
         <v>1653</v>
       </c>
-      <c r="B983" t="s">
-        <v>1192</v>
-      </c>
       <c r="C983" t="s">
         <v>717</v>
       </c>
@@ -23389,19 +23383,22 @@
         <v>670</v>
       </c>
       <c r="E983" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F983" t="s">
         <v>1654</v>
       </c>
       <c r="I983" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="984" spans="1:9">
       <c r="A984" t="s">
         <v>1653</v>
       </c>
+      <c r="B984" t="s">
+        <v>1192</v>
+      </c>
       <c r="C984" t="s">
         <v>717</v>
       </c>
@@ -23409,13 +23406,13 @@
         <v>670</v>
       </c>
       <c r="E984" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F984" t="s">
         <v>1654</v>
       </c>
       <c r="I984" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="985" spans="1:9">
@@ -23429,33 +23426,33 @@
         <v>670</v>
       </c>
       <c r="E985" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F985" t="s">
         <v>1654</v>
       </c>
       <c r="I985" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9">
+      <c r="A986" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C986" t="s">
+        <v>717</v>
+      </c>
+      <c r="D986" t="s">
+        <v>670</v>
+      </c>
+      <c r="E986" t="s">
+        <v>666</v>
+      </c>
+      <c r="F986" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I986" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="987" spans="1:9">
-      <c r="A987" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C987" t="s">
-        <v>723</v>
-      </c>
-      <c r="D987" t="s">
-        <v>724</v>
-      </c>
-      <c r="E987" t="s">
-        <v>710</v>
-      </c>
-      <c r="F987" t="s">
-        <v>1656</v>
-      </c>
-      <c r="I987" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="988" spans="1:9">
@@ -23466,16 +23463,16 @@
         <v>723</v>
       </c>
       <c r="D988" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E988" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F988" t="s">
         <v>1656</v>
       </c>
       <c r="I988" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="989" spans="1:9">
@@ -23486,39 +23483,36 @@
         <v>723</v>
       </c>
       <c r="D989" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E989" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F989" t="s">
         <v>1656</v>
       </c>
       <c r="I989" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="990" spans="1:9">
       <c r="A990" t="s">
         <v>1655</v>
       </c>
-      <c r="B990" t="s">
-        <v>1192</v>
-      </c>
       <c r="C990" t="s">
         <v>723</v>
       </c>
       <c r="D990" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E990" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F990" t="s">
         <v>1656</v>
       </c>
       <c r="I990" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -23532,36 +23526,39 @@
         <v>723</v>
       </c>
       <c r="D991" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E991" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F991" t="s">
         <v>1656</v>
       </c>
       <c r="I991" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" t="s">
         <v>1655</v>
       </c>
+      <c r="B992" t="s">
+        <v>1192</v>
+      </c>
       <c r="C992" t="s">
         <v>723</v>
       </c>
       <c r="D992" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E992" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F992" t="s">
         <v>1656</v>
       </c>
       <c r="I992" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="993" spans="1:9">
@@ -23572,16 +23569,16 @@
         <v>723</v>
       </c>
       <c r="D993" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E993" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F993" t="s">
         <v>1656</v>
       </c>
       <c r="I993" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="994" spans="1:9">
@@ -23592,16 +23589,16 @@
         <v>723</v>
       </c>
       <c r="D994" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="E994" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F994" t="s">
         <v>1656</v>
       </c>
       <c r="I994" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="995" spans="1:9">
@@ -23615,13 +23612,13 @@
         <v>725</v>
       </c>
       <c r="E995" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F995" t="s">
         <v>1656</v>
       </c>
       <c r="I995" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="996" spans="1:9">
@@ -23635,13 +23632,13 @@
         <v>725</v>
       </c>
       <c r="E996" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F996" t="s">
         <v>1656</v>
       </c>
       <c r="I996" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="997" spans="1:9">
@@ -23655,22 +23652,19 @@
         <v>725</v>
       </c>
       <c r="E997" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F997" t="s">
         <v>1656</v>
       </c>
       <c r="I997" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="998" spans="1:9">
       <c r="A998" t="s">
         <v>1655</v>
       </c>
-      <c r="B998" t="s">
-        <v>1192</v>
-      </c>
       <c r="C998" t="s">
         <v>723</v>
       </c>
@@ -23678,19 +23672,22 @@
         <v>725</v>
       </c>
       <c r="E998" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F998" t="s">
         <v>1656</v>
       </c>
       <c r="I998" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" t="s">
         <v>1655</v>
       </c>
+      <c r="B999" t="s">
+        <v>1192</v>
+      </c>
       <c r="C999" t="s">
         <v>723</v>
       </c>
@@ -23698,13 +23695,13 @@
         <v>725</v>
       </c>
       <c r="E999" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F999" t="s">
         <v>1656</v>
       </c>
       <c r="I999" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
@@ -23718,13 +23715,13 @@
         <v>725</v>
       </c>
       <c r="E1000" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1000" t="s">
         <v>1656</v>
       </c>
       <c r="I1000" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
@@ -23732,16 +23729,19 @@
         <v>1655</v>
       </c>
       <c r="C1001" t="s">
-        <v>726</v>
+        <v>723</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>725</v>
       </c>
       <c r="E1001" t="s">
-        <v>710</v>
+        <v>666</v>
       </c>
       <c r="F1001" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I1001" t="s">
-        <v>1069</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
@@ -23749,16 +23749,16 @@
         <v>1655</v>
       </c>
       <c r="C1002" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E1002" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F1002" t="s">
         <v>1657</v>
       </c>
       <c r="I1002" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
@@ -23766,36 +23766,33 @@
         <v>1655</v>
       </c>
       <c r="C1003" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E1003" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1003" t="s">
         <v>1657</v>
       </c>
       <c r="I1003" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" t="s">
         <v>1655</v>
       </c>
-      <c r="B1004" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1004" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E1004" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1004" t="s">
         <v>1657</v>
       </c>
       <c r="I1004" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1005" spans="1:9">
@@ -23806,33 +23803,36 @@
         <v>1192</v>
       </c>
       <c r="C1005" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E1005" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F1005" t="s">
         <v>1657</v>
       </c>
       <c r="I1005" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
       <c r="A1006" t="s">
         <v>1655</v>
       </c>
+      <c r="B1006" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1006" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E1006" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F1006" t="s">
         <v>1657</v>
       </c>
       <c r="I1006" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
@@ -23840,16 +23840,16 @@
         <v>1655</v>
       </c>
       <c r="C1007" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E1007" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F1007" t="s">
         <v>1657</v>
       </c>
       <c r="I1007" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
@@ -23857,19 +23857,16 @@
         <v>1655</v>
       </c>
       <c r="C1008" t="s">
-        <v>733</v>
-      </c>
-      <c r="D1008" t="s">
-        <v>670</v>
+        <v>732</v>
       </c>
       <c r="E1008" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F1008" t="s">
         <v>1657</v>
       </c>
       <c r="I1008" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1009" spans="1:9">
@@ -23883,13 +23880,13 @@
         <v>670</v>
       </c>
       <c r="E1009" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1009" t="s">
         <v>1657</v>
       </c>
       <c r="I1009" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
@@ -23903,13 +23900,13 @@
         <v>670</v>
       </c>
       <c r="E1010" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1010" t="s">
         <v>1657</v>
       </c>
       <c r="I1010" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1011" spans="1:9">
@@ -23923,22 +23920,19 @@
         <v>670</v>
       </c>
       <c r="E1011" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1011" t="s">
         <v>1657</v>
       </c>
       <c r="I1011" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
       <c r="A1012" t="s">
         <v>1655</v>
       </c>
-      <c r="B1012" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1012" t="s">
         <v>733</v>
       </c>
@@ -23946,19 +23940,22 @@
         <v>670</v>
       </c>
       <c r="E1012" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1012" t="s">
         <v>1657</v>
       </c>
       <c r="I1012" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1013" spans="1:9">
       <c r="A1013" t="s">
         <v>1655</v>
       </c>
+      <c r="B1013" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1013" t="s">
         <v>733</v>
       </c>
@@ -23966,13 +23963,13 @@
         <v>670</v>
       </c>
       <c r="E1013" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1013" t="s">
         <v>1657</v>
       </c>
       <c r="I1013" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1014" spans="1:9">
@@ -23986,33 +23983,33 @@
         <v>670</v>
       </c>
       <c r="E1014" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1014" t="s">
         <v>1657</v>
       </c>
       <c r="I1014" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9">
+      <c r="A1015" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>733</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1657</v>
+      </c>
+      <c r="I1015" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:9">
-      <c r="A1016" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C1016" t="s">
-        <v>687</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>724</v>
-      </c>
-      <c r="E1016" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1016" t="s">
-        <v>1659</v>
-      </c>
-      <c r="I1016" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="1017" spans="1:9">
@@ -24023,16 +24020,16 @@
         <v>687</v>
       </c>
       <c r="D1017" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E1017" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F1017" t="s">
         <v>1659</v>
       </c>
       <c r="I1017" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1018" spans="1:9">
@@ -24043,39 +24040,36 @@
         <v>687</v>
       </c>
       <c r="D1018" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E1018" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1018" t="s">
         <v>1659</v>
       </c>
       <c r="I1018" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1019" spans="1:9">
       <c r="A1019" t="s">
         <v>1658</v>
       </c>
-      <c r="B1019" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1019" t="s">
         <v>687</v>
       </c>
       <c r="D1019" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E1019" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1019" t="s">
         <v>1659</v>
       </c>
       <c r="I1019" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1020" spans="1:9">
@@ -24089,36 +24083,39 @@
         <v>687</v>
       </c>
       <c r="D1020" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E1020" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F1020" t="s">
         <v>1659</v>
       </c>
       <c r="I1020" t="s">
-        <v>1106</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1021" spans="1:9">
       <c r="A1021" t="s">
         <v>1658</v>
       </c>
+      <c r="B1021" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1021" t="s">
         <v>687</v>
       </c>
       <c r="D1021" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E1021" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F1021" t="s">
         <v>1659</v>
       </c>
       <c r="I1021" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1022" spans="1:9">
@@ -24129,16 +24126,16 @@
         <v>687</v>
       </c>
       <c r="D1022" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E1022" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F1022" t="s">
         <v>1659</v>
       </c>
       <c r="I1022" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1023" spans="1:9">
@@ -24149,16 +24146,16 @@
         <v>687</v>
       </c>
       <c r="D1023" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="E1023" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F1023" t="s">
         <v>1659</v>
       </c>
       <c r="I1023" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1024" spans="1:9">
@@ -24172,13 +24169,13 @@
         <v>725</v>
       </c>
       <c r="E1024" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1024" t="s">
         <v>1659</v>
       </c>
       <c r="I1024" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1025" spans="1:9">
@@ -24192,13 +24189,13 @@
         <v>725</v>
       </c>
       <c r="E1025" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1025" t="s">
         <v>1659</v>
       </c>
       <c r="I1025" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1026" spans="1:9">
@@ -24212,22 +24209,19 @@
         <v>725</v>
       </c>
       <c r="E1026" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1026" t="s">
         <v>1659</v>
       </c>
       <c r="I1026" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1027" spans="1:9">
       <c r="A1027" t="s">
         <v>1658</v>
       </c>
-      <c r="B1027" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1027" t="s">
         <v>687</v>
       </c>
@@ -24235,19 +24229,22 @@
         <v>725</v>
       </c>
       <c r="E1027" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1027" t="s">
         <v>1659</v>
       </c>
       <c r="I1027" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1028" spans="1:9">
       <c r="A1028" t="s">
         <v>1658</v>
       </c>
+      <c r="B1028" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1028" t="s">
         <v>687</v>
       </c>
@@ -24255,13 +24252,13 @@
         <v>725</v>
       </c>
       <c r="E1028" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1028" t="s">
         <v>1659</v>
       </c>
       <c r="I1028" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1029" spans="1:9">
@@ -24275,33 +24272,33 @@
         <v>725</v>
       </c>
       <c r="E1029" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1029" t="s">
         <v>1659</v>
       </c>
       <c r="I1029" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9">
+      <c r="A1030" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>725</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1659</v>
+      </c>
+      <c r="I1030" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:9">
-      <c r="A1031" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>687</v>
-      </c>
-      <c r="D1031" t="s">
-        <v>724</v>
-      </c>
-      <c r="E1031" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1031" t="s">
-        <v>1661</v>
-      </c>
-      <c r="I1031" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="1032" spans="1:9">
@@ -24312,16 +24309,16 @@
         <v>687</v>
       </c>
       <c r="D1032" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E1032" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F1032" t="s">
         <v>1661</v>
       </c>
-      <c r="I1032" s="1" t="s">
-        <v>1071</v>
+      <c r="I1032" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1033" spans="1:9">
@@ -24332,39 +24329,36 @@
         <v>687</v>
       </c>
       <c r="D1033" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E1033" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1033" t="s">
         <v>1661</v>
       </c>
-      <c r="I1033" t="s">
-        <v>1104</v>
+      <c r="I1033" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="1034" spans="1:9">
       <c r="A1034" t="s">
         <v>1660</v>
       </c>
-      <c r="B1034" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1034" t="s">
         <v>687</v>
       </c>
       <c r="D1034" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E1034" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1034" t="s">
         <v>1661</v>
       </c>
       <c r="I1034" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1035" spans="1:9">
@@ -24378,36 +24372,39 @@
         <v>687</v>
       </c>
       <c r="D1035" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E1035" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F1035" t="s">
         <v>1661</v>
       </c>
       <c r="I1035" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1036" spans="1:9">
       <c r="A1036" t="s">
         <v>1660</v>
       </c>
+      <c r="B1036" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1036" t="s">
         <v>687</v>
       </c>
       <c r="D1036" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E1036" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F1036" t="s">
         <v>1661</v>
       </c>
       <c r="I1036" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1037" spans="1:9">
@@ -24418,16 +24415,16 @@
         <v>687</v>
       </c>
       <c r="D1037" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E1037" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F1037" t="s">
         <v>1661</v>
       </c>
       <c r="I1037" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1038" spans="1:9">
@@ -24438,16 +24435,16 @@
         <v>687</v>
       </c>
       <c r="D1038" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="E1038" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F1038" t="s">
         <v>1661</v>
       </c>
       <c r="I1038" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1039" spans="1:9">
@@ -24461,13 +24458,13 @@
         <v>725</v>
       </c>
       <c r="E1039" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1039" t="s">
         <v>1661</v>
       </c>
       <c r="I1039" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1040" spans="1:9">
@@ -24481,13 +24478,13 @@
         <v>725</v>
       </c>
       <c r="E1040" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1040" t="s">
         <v>1661</v>
       </c>
       <c r="I1040" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
@@ -24501,22 +24498,19 @@
         <v>725</v>
       </c>
       <c r="E1041" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1041" t="s">
         <v>1661</v>
       </c>
       <c r="I1041" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1042" spans="1:9">
       <c r="A1042" t="s">
         <v>1660</v>
       </c>
-      <c r="B1042" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1042" t="s">
         <v>687</v>
       </c>
@@ -24524,19 +24518,22 @@
         <v>725</v>
       </c>
       <c r="E1042" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1042" t="s">
         <v>1661</v>
       </c>
       <c r="I1042" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1043" spans="1:9">
       <c r="A1043" t="s">
         <v>1660</v>
       </c>
+      <c r="B1043" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1043" t="s">
         <v>687</v>
       </c>
@@ -24544,13 +24541,13 @@
         <v>725</v>
       </c>
       <c r="E1043" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1043" t="s">
         <v>1661</v>
       </c>
       <c r="I1043" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1044" spans="1:9">
@@ -24564,33 +24561,33 @@
         <v>725</v>
       </c>
       <c r="E1044" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1044" t="s">
         <v>1661</v>
       </c>
       <c r="I1044" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9">
+      <c r="A1045" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>725</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I1045" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:9">
-      <c r="A1046" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>741</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1046" t="s">
-        <v>1663</v>
-      </c>
-      <c r="I1046" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="1047" spans="1:9">
@@ -24601,16 +24598,16 @@
         <v>740</v>
       </c>
       <c r="D1047" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E1047" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F1047" t="s">
         <v>1663</v>
       </c>
-      <c r="I1047" s="1" t="s">
-        <v>1071</v>
+      <c r="I1047" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1048" spans="1:9">
@@ -24621,39 +24618,36 @@
         <v>740</v>
       </c>
       <c r="D1048" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E1048" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1048" t="s">
         <v>1663</v>
       </c>
-      <c r="I1048" t="s">
-        <v>1104</v>
+      <c r="I1048" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="1049" spans="1:9">
       <c r="A1049" t="s">
         <v>1662</v>
       </c>
-      <c r="B1049" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1049" t="s">
         <v>740</v>
       </c>
       <c r="D1049" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E1049" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1049" t="s">
         <v>1663</v>
       </c>
       <c r="I1049" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1050" spans="1:9">
@@ -24667,36 +24661,39 @@
         <v>740</v>
       </c>
       <c r="D1050" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E1050" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F1050" t="s">
         <v>1663</v>
       </c>
       <c r="I1050" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1051" spans="1:9">
       <c r="A1051" t="s">
         <v>1662</v>
       </c>
+      <c r="B1051" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1051" t="s">
         <v>740</v>
       </c>
       <c r="D1051" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E1051" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F1051" t="s">
         <v>1663</v>
       </c>
       <c r="I1051" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1052" spans="1:9">
@@ -24707,16 +24704,16 @@
         <v>740</v>
       </c>
       <c r="D1052" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E1052" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F1052" t="s">
         <v>1663</v>
       </c>
       <c r="I1052" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1053" spans="1:9">
@@ -24727,16 +24724,16 @@
         <v>740</v>
       </c>
       <c r="D1053" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="E1053" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F1053" t="s">
         <v>1663</v>
       </c>
       <c r="I1053" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1054" spans="1:9">
@@ -24750,13 +24747,13 @@
         <v>783</v>
       </c>
       <c r="E1054" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1054" t="s">
         <v>1663</v>
       </c>
       <c r="I1054" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1055" spans="1:9">
@@ -24770,13 +24767,13 @@
         <v>783</v>
       </c>
       <c r="E1055" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1055" t="s">
         <v>1663</v>
       </c>
       <c r="I1055" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1056" spans="1:9">
@@ -24790,22 +24787,19 @@
         <v>783</v>
       </c>
       <c r="E1056" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1056" t="s">
         <v>1663</v>
       </c>
       <c r="I1056" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1057" spans="1:9">
       <c r="A1057" t="s">
         <v>1662</v>
       </c>
-      <c r="B1057" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1057" t="s">
         <v>740</v>
       </c>
@@ -24813,19 +24807,22 @@
         <v>783</v>
       </c>
       <c r="E1057" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1057" t="s">
         <v>1663</v>
       </c>
       <c r="I1057" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1058" spans="1:9">
       <c r="A1058" t="s">
         <v>1662</v>
       </c>
+      <c r="B1058" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1058" t="s">
         <v>740</v>
       </c>
@@ -24833,13 +24830,13 @@
         <v>783</v>
       </c>
       <c r="E1058" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1058" t="s">
         <v>1663</v>
       </c>
       <c r="I1058" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1059" spans="1:9">
@@ -24853,33 +24850,33 @@
         <v>783</v>
       </c>
       <c r="E1059" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1059" t="s">
         <v>1663</v>
       </c>
       <c r="I1059" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:9">
+      <c r="A1060" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>1663</v>
+      </c>
+      <c r="I1060" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:9">
-      <c r="A1061" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1061" t="s">
-        <v>741</v>
-      </c>
-      <c r="E1061" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1061" t="s">
-        <v>1801</v>
-      </c>
-      <c r="I1061" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="1062" spans="1:9">
@@ -24890,16 +24887,16 @@
         <v>740</v>
       </c>
       <c r="D1062" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E1062" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F1062" t="s">
         <v>1801</v>
       </c>
-      <c r="I1062" s="1" t="s">
-        <v>1071</v>
+      <c r="I1062" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1063" spans="1:9">
@@ -24910,16 +24907,16 @@
         <v>740</v>
       </c>
       <c r="D1063" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E1063" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1063" t="s">
         <v>1801</v>
       </c>
-      <c r="I1063" t="s">
-        <v>1104</v>
+      <c r="I1063" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="1064" spans="1:9">
@@ -24930,16 +24927,16 @@
         <v>740</v>
       </c>
       <c r="D1064" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E1064" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1064" t="s">
         <v>1801</v>
       </c>
       <c r="I1064" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1065" spans="1:9">
@@ -24950,16 +24947,16 @@
         <v>740</v>
       </c>
       <c r="D1065" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E1065" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F1065" t="s">
         <v>1801</v>
       </c>
       <c r="I1065" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1066" spans="1:9">
@@ -24970,16 +24967,16 @@
         <v>740</v>
       </c>
       <c r="D1066" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E1066" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F1066" t="s">
         <v>1801</v>
       </c>
       <c r="I1066" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1067" spans="1:9">
@@ -24990,16 +24987,16 @@
         <v>740</v>
       </c>
       <c r="D1067" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E1067" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F1067" t="s">
         <v>1801</v>
       </c>
       <c r="I1067" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1068" spans="1:9">
@@ -25010,16 +25007,16 @@
         <v>740</v>
       </c>
       <c r="D1068" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="E1068" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F1068" t="s">
         <v>1801</v>
       </c>
       <c r="I1068" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1069" spans="1:9">
@@ -25033,13 +25030,13 @@
         <v>783</v>
       </c>
       <c r="E1069" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1069" t="s">
         <v>1801</v>
       </c>
       <c r="I1069" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1070" spans="1:9">
@@ -25053,13 +25050,13 @@
         <v>783</v>
       </c>
       <c r="E1070" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1070" t="s">
         <v>1801</v>
       </c>
       <c r="I1070" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1071" spans="1:9">
@@ -25073,13 +25070,13 @@
         <v>783</v>
       </c>
       <c r="E1071" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1071" t="s">
         <v>1801</v>
       </c>
       <c r="I1071" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1072" spans="1:9">
@@ -25093,13 +25090,13 @@
         <v>783</v>
       </c>
       <c r="E1072" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1072" t="s">
         <v>1801</v>
       </c>
       <c r="I1072" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1073" spans="1:9">
@@ -25113,13 +25110,13 @@
         <v>783</v>
       </c>
       <c r="E1073" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1073" t="s">
         <v>1801</v>
       </c>
       <c r="I1073" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1074" spans="1:9">
@@ -25133,33 +25130,33 @@
         <v>783</v>
       </c>
       <c r="E1074" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1074" t="s">
         <v>1801</v>
       </c>
       <c r="I1074" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:9">
+      <c r="A1075" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I1075" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:9">
-      <c r="A1077" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1077" t="s">
-        <v>741</v>
-      </c>
-      <c r="E1077" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1077" t="s">
-        <v>1665</v>
-      </c>
-      <c r="I1077" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="1078" spans="1:9">
@@ -25170,16 +25167,16 @@
         <v>740</v>
       </c>
       <c r="D1078" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E1078" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F1078" t="s">
         <v>1665</v>
       </c>
-      <c r="I1078" s="1" t="s">
-        <v>1071</v>
+      <c r="I1078" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1079" spans="1:9">
@@ -25190,39 +25187,36 @@
         <v>740</v>
       </c>
       <c r="D1079" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E1079" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1079" t="s">
         <v>1665</v>
       </c>
-      <c r="I1079" t="s">
-        <v>1104</v>
+      <c r="I1079" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="1080" spans="1:9">
       <c r="A1080" t="s">
         <v>1664</v>
       </c>
-      <c r="B1080" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1080" t="s">
         <v>740</v>
       </c>
       <c r="D1080" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E1080" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1080" t="s">
         <v>1665</v>
       </c>
       <c r="I1080" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1081" spans="1:9">
@@ -25236,36 +25230,39 @@
         <v>740</v>
       </c>
       <c r="D1081" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E1081" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F1081" t="s">
         <v>1665</v>
       </c>
       <c r="I1081" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1082" spans="1:9">
       <c r="A1082" t="s">
         <v>1664</v>
       </c>
+      <c r="B1082" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1082" t="s">
         <v>740</v>
       </c>
       <c r="D1082" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E1082" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F1082" t="s">
         <v>1665</v>
       </c>
       <c r="I1082" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1083" spans="1:9">
@@ -25276,16 +25273,16 @@
         <v>740</v>
       </c>
       <c r="D1083" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E1083" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F1083" t="s">
         <v>1665</v>
       </c>
       <c r="I1083" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1084" spans="1:9">
@@ -25296,16 +25293,16 @@
         <v>740</v>
       </c>
       <c r="D1084" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="E1084" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F1084" t="s">
         <v>1665</v>
       </c>
       <c r="I1084" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1085" spans="1:9">
@@ -25319,13 +25316,13 @@
         <v>783</v>
       </c>
       <c r="E1085" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1085" t="s">
         <v>1665</v>
       </c>
       <c r="I1085" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1086" spans="1:9">
@@ -25339,13 +25336,13 @@
         <v>783</v>
       </c>
       <c r="E1086" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1086" t="s">
         <v>1665</v>
       </c>
       <c r="I1086" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1087" spans="1:9">
@@ -25359,22 +25356,19 @@
         <v>783</v>
       </c>
       <c r="E1087" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1087" t="s">
         <v>1665</v>
       </c>
       <c r="I1087" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1088" spans="1:9">
       <c r="A1088" t="s">
         <v>1664</v>
       </c>
-      <c r="B1088" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1088" t="s">
         <v>740</v>
       </c>
@@ -25382,19 +25376,22 @@
         <v>783</v>
       </c>
       <c r="E1088" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1088" t="s">
         <v>1665</v>
       </c>
       <c r="I1088" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1089" spans="1:9">
       <c r="A1089" t="s">
         <v>1664</v>
       </c>
+      <c r="B1089" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1089" t="s">
         <v>740</v>
       </c>
@@ -25402,13 +25399,13 @@
         <v>783</v>
       </c>
       <c r="E1089" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1089" t="s">
         <v>1665</v>
       </c>
       <c r="I1089" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1090" spans="1:9">
@@ -25422,50 +25419,50 @@
         <v>783</v>
       </c>
       <c r="E1090" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1090" t="s">
         <v>1665</v>
       </c>
       <c r="I1090" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9">
+      <c r="A1091" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1665</v>
+      </c>
+      <c r="I1091" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1092" spans="1:9">
-      <c r="A1092" t="s">
+    <row r="1093" spans="1:9">
+      <c r="A1093" t="s">
         <v>1905</v>
       </c>
-      <c r="B1092" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1092" t="s">
+      <c r="B1093" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1093" t="s">
         <v>228</v>
       </c>
-      <c r="E1092" t="s">
+      <c r="E1093" t="s">
         <v>720</v>
       </c>
-      <c r="I1092" t="s">
+      <c r="I1093" t="s">
         <v>1077</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:9">
-      <c r="A1094" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C1094" t="s">
-        <v>740</v>
-      </c>
-      <c r="D1094" t="s">
-        <v>741</v>
-      </c>
-      <c r="E1094" t="s">
-        <v>710</v>
-      </c>
-      <c r="F1094" t="s">
-        <v>1667</v>
-      </c>
-      <c r="I1094" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="1095" spans="1:9">
@@ -25476,16 +25473,16 @@
         <v>740</v>
       </c>
       <c r="D1095" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E1095" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="F1095" t="s">
         <v>1667</v>
       </c>
-      <c r="I1095" s="1" t="s">
-        <v>1071</v>
+      <c r="I1095" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="1096" spans="1:9">
@@ -25496,39 +25493,36 @@
         <v>740</v>
       </c>
       <c r="D1096" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E1096" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F1096" t="s">
         <v>1667</v>
       </c>
-      <c r="I1096" t="s">
-        <v>1104</v>
+      <c r="I1096" s="1" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="1097" spans="1:9">
       <c r="A1097" t="s">
         <v>1666</v>
       </c>
-      <c r="B1097" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1097" t="s">
         <v>740</v>
       </c>
       <c r="D1097" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E1097" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F1097" t="s">
         <v>1667</v>
       </c>
       <c r="I1097" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1098" spans="1:9">
@@ -25542,36 +25536,39 @@
         <v>740</v>
       </c>
       <c r="D1098" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E1098" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F1098" t="s">
         <v>1667</v>
       </c>
       <c r="I1098" t="s">
-        <v>1103</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1099" spans="1:9">
       <c r="A1099" t="s">
         <v>1666</v>
       </c>
+      <c r="B1099" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1099" t="s">
         <v>740</v>
       </c>
       <c r="D1099" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E1099" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
       <c r="F1099" t="s">
         <v>1667</v>
       </c>
       <c r="I1099" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1100" spans="1:9">
@@ -25582,16 +25579,16 @@
         <v>740</v>
       </c>
       <c r="D1100" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E1100" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="F1100" t="s">
         <v>1667</v>
       </c>
       <c r="I1100" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1101" spans="1:9">
@@ -25602,16 +25599,16 @@
         <v>740</v>
       </c>
       <c r="D1101" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="E1101" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="F1101" t="s">
         <v>1667</v>
       </c>
       <c r="I1101" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1102" spans="1:9">
@@ -25625,13 +25622,13 @@
         <v>783</v>
       </c>
       <c r="E1102" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1102" t="s">
         <v>1667</v>
       </c>
       <c r="I1102" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1103" spans="1:9">
@@ -25645,13 +25642,13 @@
         <v>783</v>
       </c>
       <c r="E1103" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1103" t="s">
         <v>1667</v>
       </c>
       <c r="I1103" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1104" spans="1:9">
@@ -25665,22 +25662,19 @@
         <v>783</v>
       </c>
       <c r="E1104" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1104" t="s">
         <v>1667</v>
       </c>
       <c r="I1104" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1105" spans="1:9">
       <c r="A1105" t="s">
         <v>1666</v>
       </c>
-      <c r="B1105" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1105" t="s">
         <v>740</v>
       </c>
@@ -25688,19 +25682,22 @@
         <v>783</v>
       </c>
       <c r="E1105" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1105" t="s">
         <v>1667</v>
       </c>
       <c r="I1105" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1106" spans="1:9">
       <c r="A1106" t="s">
         <v>1666</v>
       </c>
+      <c r="B1106" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1106" t="s">
         <v>740</v>
       </c>
@@ -25708,13 +25705,13 @@
         <v>783</v>
       </c>
       <c r="E1106" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1106" t="s">
         <v>1667</v>
       </c>
       <c r="I1106" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1107" spans="1:9">
@@ -25728,67 +25725,67 @@
         <v>783</v>
       </c>
       <c r="E1107" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1107" t="s">
         <v>1667</v>
       </c>
       <c r="I1107" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9">
+      <c r="A1108" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>1667</v>
+      </c>
+      <c r="I1108" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="1109" spans="1:9">
-      <c r="A1109" t="s">
+    <row r="1110" spans="1:9">
+      <c r="A1110" t="s">
         <v>1668</v>
       </c>
-      <c r="B1109" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1109" t="s">
+      <c r="B1110" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1110" t="s">
         <v>703</v>
       </c>
-      <c r="E1109" t="s">
+      <c r="E1110" t="s">
         <v>749</v>
       </c>
-      <c r="I1109" t="s">
+      <c r="I1110" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="1111" spans="1:9">
-      <c r="A1111" t="s">
+    <row r="1112" spans="1:9">
+      <c r="A1112" t="s">
         <v>1669</v>
       </c>
-      <c r="B1111" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1111" t="s">
+      <c r="B1112" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1112" t="s">
         <v>703</v>
       </c>
-      <c r="E1111" t="s">
+      <c r="E1112" t="s">
         <v>749</v>
       </c>
-      <c r="I1111" t="s">
+      <c r="I1112" t="s">
         <v>1108</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:9">
-      <c r="A1113" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C1113" t="s">
-        <v>600</v>
-      </c>
-      <c r="D1113" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E1113" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1113" t="s">
-        <v>1671</v>
-      </c>
-      <c r="I1113" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1114" spans="1:9">
@@ -25802,13 +25799,13 @@
         <v>1167</v>
       </c>
       <c r="E1114" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1114" t="s">
         <v>1671</v>
       </c>
       <c r="I1114" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1115" spans="1:9">
@@ -25822,13 +25819,13 @@
         <v>1167</v>
       </c>
       <c r="E1115" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1115" t="s">
         <v>1671</v>
       </c>
       <c r="I1115" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1116" spans="1:9">
@@ -25842,22 +25839,19 @@
         <v>1167</v>
       </c>
       <c r="E1116" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1116" t="s">
         <v>1671</v>
       </c>
       <c r="I1116" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1117" spans="1:9">
       <c r="A1117" t="s">
         <v>1670</v>
       </c>
-      <c r="B1117" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1117" t="s">
         <v>600</v>
       </c>
@@ -25865,19 +25859,22 @@
         <v>1167</v>
       </c>
       <c r="E1117" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1117" t="s">
         <v>1671</v>
       </c>
       <c r="I1117" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1118" spans="1:9">
       <c r="A1118" t="s">
         <v>1670</v>
       </c>
+      <c r="B1118" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1118" t="s">
         <v>600</v>
       </c>
@@ -25885,13 +25882,13 @@
         <v>1167</v>
       </c>
       <c r="E1118" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1118" t="s">
         <v>1671</v>
       </c>
       <c r="I1118" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1119" spans="1:9">
@@ -25905,30 +25902,33 @@
         <v>1167</v>
       </c>
       <c r="E1119" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1119" t="s">
         <v>1671</v>
       </c>
       <c r="I1119" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9">
+      <c r="A1120" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>1671</v>
+      </c>
+      <c r="I1120" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:9">
-      <c r="A1134" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C1134" t="s">
-        <v>657</v>
-      </c>
-      <c r="E1134" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1134" t="s">
-        <v>1673</v>
-      </c>
-      <c r="I1134" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="1135" spans="1:9">
@@ -25939,13 +25939,13 @@
         <v>657</v>
       </c>
       <c r="E1135" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1135" t="s">
         <v>1673</v>
       </c>
       <c r="I1135" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1136" spans="1:9">
@@ -25956,13 +25956,13 @@
         <v>657</v>
       </c>
       <c r="E1136" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1136" t="s">
         <v>1673</v>
       </c>
       <c r="I1136" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1137" spans="1:9">
@@ -25973,50 +25973,50 @@
         <v>657</v>
       </c>
       <c r="E1137" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1137" t="s">
         <v>1673</v>
       </c>
       <c r="I1137" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1138" spans="1:9">
       <c r="A1138" t="s">
         <v>1672</v>
       </c>
-      <c r="B1138" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1138" t="s">
         <v>657</v>
       </c>
       <c r="E1138" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1138" t="s">
         <v>1673</v>
       </c>
       <c r="I1138" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1139" spans="1:9">
       <c r="A1139" t="s">
         <v>1672</v>
       </c>
+      <c r="B1139" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1139" t="s">
         <v>657</v>
       </c>
       <c r="E1139" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1139" t="s">
         <v>1673</v>
       </c>
       <c r="I1139" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1140" spans="1:9">
@@ -26027,33 +26027,30 @@
         <v>657</v>
       </c>
       <c r="E1140" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1140" t="s">
         <v>1673</v>
       </c>
       <c r="I1140" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9">
+      <c r="A1141" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>657</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I1141" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:9">
-      <c r="A1142" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C1142" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1142" t="s">
-        <v>670</v>
-      </c>
-      <c r="E1142" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1142" t="s">
-        <v>1675</v>
-      </c>
-      <c r="I1142" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="1143" spans="1:9">
@@ -26061,13 +26058,16 @@
         <v>1674</v>
       </c>
       <c r="C1143" t="s">
-        <v>671</v>
+        <v>1153</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>670</v>
       </c>
       <c r="E1143" t="s">
         <v>658</v>
       </c>
       <c r="F1143" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I1143" t="s">
         <v>1119</v>
@@ -26078,19 +26078,16 @@
         <v>1674</v>
       </c>
       <c r="C1144" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1144" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E1144" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1144" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I1144" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1145" spans="1:9">
@@ -26098,13 +26095,16 @@
         <v>1674</v>
       </c>
       <c r="C1145" t="s">
-        <v>671</v>
+        <v>1153</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>670</v>
       </c>
       <c r="E1145" t="s">
         <v>661</v>
       </c>
       <c r="F1145" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I1145" t="s">
         <v>1121</v>
@@ -26115,19 +26115,16 @@
         <v>1674</v>
       </c>
       <c r="C1146" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1146" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E1146" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1146" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I1146" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1147" spans="1:9">
@@ -26135,13 +26132,16 @@
         <v>1674</v>
       </c>
       <c r="C1147" t="s">
-        <v>671</v>
+        <v>1153</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>670</v>
       </c>
       <c r="E1147" t="s">
         <v>662</v>
       </c>
       <c r="F1147" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I1147" t="s">
         <v>1122</v>
@@ -26152,19 +26152,16 @@
         <v>1674</v>
       </c>
       <c r="C1148" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1148" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E1148" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1148" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I1148" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1149" spans="1:9">
@@ -26172,13 +26169,16 @@
         <v>1674</v>
       </c>
       <c r="C1149" t="s">
-        <v>671</v>
+        <v>1153</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>670</v>
       </c>
       <c r="E1149" t="s">
         <v>663</v>
       </c>
       <c r="F1149" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I1149" t="s">
         <v>1123</v>
@@ -26188,37 +26188,37 @@
       <c r="A1150" t="s">
         <v>1674</v>
       </c>
-      <c r="B1150" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1150" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1150" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E1150" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1150" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I1150" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1151" spans="1:9">
       <c r="A1151" t="s">
         <v>1674</v>
       </c>
+      <c r="B1151" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1151" t="s">
-        <v>671</v>
+        <v>1153</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>670</v>
       </c>
       <c r="E1151" t="s">
         <v>664</v>
       </c>
       <c r="F1151" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I1151" t="s">
         <v>1124</v>
@@ -26229,19 +26229,16 @@
         <v>1674</v>
       </c>
       <c r="C1152" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1152" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E1152" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1152" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I1152" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1153" spans="1:9">
@@ -26249,13 +26246,16 @@
         <v>1674</v>
       </c>
       <c r="C1153" t="s">
-        <v>671</v>
+        <v>1153</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>670</v>
       </c>
       <c r="E1153" t="s">
         <v>665</v>
       </c>
       <c r="F1153" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I1153" t="s">
         <v>1125</v>
@@ -26266,19 +26266,16 @@
         <v>1674</v>
       </c>
       <c r="C1154" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D1154" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E1154" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1154" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I1154" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1155" spans="1:9">
@@ -26286,36 +26283,36 @@
         <v>1674</v>
       </c>
       <c r="C1155" t="s">
-        <v>671</v>
+        <v>1153</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>670</v>
       </c>
       <c r="E1155" t="s">
         <v>666</v>
       </c>
       <c r="F1155" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="I1155" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1157" spans="1:9">
-      <c r="A1157" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C1157" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1157" t="s">
-        <v>670</v>
-      </c>
-      <c r="E1157" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1157" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I1157" t="s">
-        <v>1119</v>
+    <row r="1156" spans="1:9">
+      <c r="A1156" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>1676</v>
+      </c>
+      <c r="I1156" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="1158" spans="1:9">
@@ -26329,13 +26326,13 @@
         <v>670</v>
       </c>
       <c r="E1158" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1158" t="s">
         <v>1678</v>
       </c>
       <c r="I1158" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1159" spans="1:9">
@@ -26349,13 +26346,13 @@
         <v>670</v>
       </c>
       <c r="E1159" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1159" t="s">
         <v>1678</v>
       </c>
       <c r="I1159" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1160" spans="1:9">
@@ -26369,22 +26366,19 @@
         <v>670</v>
       </c>
       <c r="E1160" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1160" t="s">
         <v>1678</v>
       </c>
       <c r="I1160" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1161" spans="1:9">
       <c r="A1161" t="s">
         <v>1677</v>
       </c>
-      <c r="B1161" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1161" t="s">
         <v>585</v>
       </c>
@@ -26392,19 +26386,22 @@
         <v>670</v>
       </c>
       <c r="E1161" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1161" t="s">
         <v>1678</v>
       </c>
       <c r="I1161" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1162" spans="1:9">
       <c r="A1162" t="s">
         <v>1677</v>
       </c>
+      <c r="B1162" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1162" t="s">
         <v>585</v>
       </c>
@@ -26412,13 +26409,13 @@
         <v>670</v>
       </c>
       <c r="E1162" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1162" t="s">
         <v>1678</v>
       </c>
       <c r="I1162" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1163" spans="1:9">
@@ -26432,33 +26429,33 @@
         <v>670</v>
       </c>
       <c r="E1163" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1163" t="s">
         <v>1678</v>
       </c>
       <c r="I1163" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:9">
+      <c r="A1164" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I1164" t="s">
         <v>1126</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:9">
-      <c r="A1165" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C1165" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1165" t="s">
-        <v>670</v>
-      </c>
-      <c r="E1165" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1165" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I1165" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1166" spans="1:9">
@@ -26472,13 +26469,13 @@
         <v>670</v>
       </c>
       <c r="E1166" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1166" t="s">
         <v>1680</v>
       </c>
       <c r="I1166" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1167" spans="1:9">
@@ -26492,13 +26489,13 @@
         <v>670</v>
       </c>
       <c r="E1167" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1167" t="s">
         <v>1680</v>
       </c>
       <c r="I1167" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1168" spans="1:9">
@@ -26512,22 +26509,19 @@
         <v>670</v>
       </c>
       <c r="E1168" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1168" t="s">
         <v>1680</v>
       </c>
       <c r="I1168" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1169" spans="1:9">
       <c r="A1169" t="s">
         <v>1679</v>
       </c>
-      <c r="B1169" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1169" t="s">
         <v>585</v>
       </c>
@@ -26535,19 +26529,22 @@
         <v>670</v>
       </c>
       <c r="E1169" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1169" t="s">
         <v>1680</v>
       </c>
       <c r="I1169" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1170" spans="1:9">
       <c r="A1170" t="s">
         <v>1679</v>
       </c>
+      <c r="B1170" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1170" t="s">
         <v>585</v>
       </c>
@@ -26555,13 +26552,13 @@
         <v>670</v>
       </c>
       <c r="E1170" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1170" t="s">
         <v>1680</v>
       </c>
       <c r="I1170" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1171" spans="1:9">
@@ -26575,30 +26572,33 @@
         <v>670</v>
       </c>
       <c r="E1171" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1171" t="s">
         <v>1680</v>
       </c>
       <c r="I1171" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:9">
+      <c r="A1172" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>1680</v>
+      </c>
+      <c r="I1172" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:9">
-      <c r="A1173" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C1173" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1173" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1173" t="s">
-        <v>1682</v>
-      </c>
-      <c r="I1173" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1174" spans="1:9">
@@ -26609,13 +26609,13 @@
         <v>600</v>
       </c>
       <c r="E1174" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1174" t="s">
         <v>1682</v>
       </c>
       <c r="I1174" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1175" spans="1:9">
@@ -26626,13 +26626,13 @@
         <v>600</v>
       </c>
       <c r="E1175" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1175" t="s">
         <v>1682</v>
       </c>
       <c r="I1175" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1176" spans="1:9">
@@ -26643,50 +26643,50 @@
         <v>600</v>
       </c>
       <c r="E1176" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1176" t="s">
         <v>1682</v>
       </c>
       <c r="I1176" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1177" spans="1:9">
       <c r="A1177" t="s">
         <v>1681</v>
       </c>
-      <c r="B1177" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1177" t="s">
         <v>600</v>
       </c>
       <c r="E1177" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1177" t="s">
         <v>1682</v>
       </c>
       <c r="I1177" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1178" spans="1:9">
       <c r="A1178" t="s">
         <v>1681</v>
       </c>
+      <c r="B1178" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1178" t="s">
         <v>600</v>
       </c>
       <c r="E1178" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1178" t="s">
         <v>1682</v>
       </c>
       <c r="I1178" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1179" spans="1:9">
@@ -26697,30 +26697,30 @@
         <v>600</v>
       </c>
       <c r="E1179" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1179" t="s">
         <v>1682</v>
       </c>
       <c r="I1179" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:9">
+      <c r="A1180" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I1180" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:9">
-      <c r="A1181" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C1181" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1181" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1181" t="s">
-        <v>1837</v>
-      </c>
-      <c r="I1181" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1182" spans="1:9">
@@ -26731,13 +26731,13 @@
         <v>600</v>
       </c>
       <c r="E1182" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1182" t="s">
         <v>1837</v>
       </c>
       <c r="I1182" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1183" spans="1:9">
@@ -26748,13 +26748,13 @@
         <v>600</v>
       </c>
       <c r="E1183" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1183" t="s">
         <v>1837</v>
       </c>
       <c r="I1183" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1184" spans="1:9">
@@ -26765,50 +26765,50 @@
         <v>600</v>
       </c>
       <c r="E1184" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1184" t="s">
         <v>1837</v>
       </c>
       <c r="I1184" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1185" spans="1:9">
       <c r="A1185" t="s">
         <v>1836</v>
       </c>
-      <c r="B1185" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1185" t="s">
         <v>600</v>
       </c>
       <c r="E1185" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1185" t="s">
         <v>1837</v>
       </c>
       <c r="I1185" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1186" spans="1:9">
       <c r="A1186" t="s">
         <v>1836</v>
       </c>
+      <c r="B1186" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1186" t="s">
         <v>600</v>
       </c>
       <c r="E1186" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1186" t="s">
         <v>1837</v>
       </c>
       <c r="I1186" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1187" spans="1:9">
@@ -26819,33 +26819,30 @@
         <v>600</v>
       </c>
       <c r="E1187" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1187" t="s">
         <v>1837</v>
       </c>
       <c r="I1187" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:9">
+      <c r="A1188" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I1188" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:9">
-      <c r="A1189" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C1189" t="s">
-        <v>585</v>
-      </c>
-      <c r="D1189" t="s">
-        <v>670</v>
-      </c>
-      <c r="E1189" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1189" t="s">
-        <v>1839</v>
-      </c>
-      <c r="I1189" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1190" spans="1:9">
@@ -26859,13 +26856,13 @@
         <v>670</v>
       </c>
       <c r="E1190" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1190" t="s">
         <v>1839</v>
       </c>
       <c r="I1190" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1191" spans="1:9">
@@ -26879,13 +26876,13 @@
         <v>670</v>
       </c>
       <c r="E1191" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1191" t="s">
         <v>1839</v>
       </c>
       <c r="I1191" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1192" spans="1:9">
@@ -26899,22 +26896,19 @@
         <v>670</v>
       </c>
       <c r="E1192" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1192" t="s">
         <v>1839</v>
       </c>
       <c r="I1192" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1193" spans="1:9">
       <c r="A1193" t="s">
         <v>1838</v>
       </c>
-      <c r="B1193" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1193" t="s">
         <v>585</v>
       </c>
@@ -26922,19 +26916,22 @@
         <v>670</v>
       </c>
       <c r="E1193" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1193" t="s">
         <v>1839</v>
       </c>
       <c r="I1193" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1194" spans="1:9">
       <c r="A1194" t="s">
         <v>1838</v>
       </c>
+      <c r="B1194" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1194" t="s">
         <v>585</v>
       </c>
@@ -26942,13 +26939,13 @@
         <v>670</v>
       </c>
       <c r="E1194" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1194" t="s">
         <v>1839</v>
       </c>
       <c r="I1194" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1195" spans="1:9">
@@ -26962,30 +26959,33 @@
         <v>670</v>
       </c>
       <c r="E1195" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1195" t="s">
         <v>1839</v>
       </c>
       <c r="I1195" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:9">
+      <c r="A1196" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>670</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I1196" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:9">
-      <c r="A1197" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C1197" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1197" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1197" t="s">
-        <v>1684</v>
-      </c>
-      <c r="I1197" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1198" spans="1:9">
@@ -26996,13 +26996,13 @@
         <v>600</v>
       </c>
       <c r="E1198" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1198" t="s">
         <v>1684</v>
       </c>
       <c r="I1198" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1199" spans="1:9">
@@ -27013,13 +27013,13 @@
         <v>600</v>
       </c>
       <c r="E1199" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1199" t="s">
         <v>1684</v>
       </c>
       <c r="I1199" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1200" spans="1:9">
@@ -27030,50 +27030,50 @@
         <v>600</v>
       </c>
       <c r="E1200" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1200" t="s">
         <v>1684</v>
       </c>
       <c r="I1200" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1201" spans="1:9">
       <c r="A1201" t="s">
         <v>1683</v>
       </c>
-      <c r="B1201" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1201" t="s">
         <v>600</v>
       </c>
       <c r="E1201" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1201" t="s">
         <v>1684</v>
       </c>
       <c r="I1201" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1202" spans="1:9">
       <c r="A1202" t="s">
         <v>1683</v>
       </c>
+      <c r="B1202" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1202" t="s">
         <v>600</v>
       </c>
       <c r="E1202" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1202" t="s">
         <v>1684</v>
       </c>
       <c r="I1202" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1203" spans="1:9">
@@ -27084,30 +27084,30 @@
         <v>600</v>
       </c>
       <c r="E1203" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1203" t="s">
         <v>1684</v>
       </c>
       <c r="I1203" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:9">
+      <c r="A1204" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I1204" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:9">
-      <c r="A1205" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C1205" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1205" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1205" t="s">
-        <v>1686</v>
-      </c>
-      <c r="I1205" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1206" spans="1:9">
@@ -27118,13 +27118,13 @@
         <v>600</v>
       </c>
       <c r="E1206" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1206" t="s">
         <v>1686</v>
       </c>
       <c r="I1206" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1207" spans="1:9">
@@ -27135,13 +27135,13 @@
         <v>600</v>
       </c>
       <c r="E1207" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1207" t="s">
         <v>1686</v>
       </c>
       <c r="I1207" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1208" spans="1:9">
@@ -27152,50 +27152,50 @@
         <v>600</v>
       </c>
       <c r="E1208" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1208" t="s">
         <v>1686</v>
       </c>
       <c r="I1208" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1209" spans="1:9">
       <c r="A1209" t="s">
         <v>1685</v>
       </c>
-      <c r="B1209" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1209" t="s">
         <v>600</v>
       </c>
       <c r="E1209" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1209" t="s">
         <v>1686</v>
       </c>
       <c r="I1209" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1210" spans="1:9">
       <c r="A1210" t="s">
         <v>1685</v>
       </c>
+      <c r="B1210" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1210" t="s">
         <v>600</v>
       </c>
       <c r="E1210" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1210" t="s">
         <v>1686</v>
       </c>
       <c r="I1210" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1211" spans="1:9">
@@ -27206,147 +27206,147 @@
         <v>600</v>
       </c>
       <c r="E1211" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1211" t="s">
         <v>1686</v>
       </c>
       <c r="I1211" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1212" spans="1:9">
       <c r="A1212" t="s">
-        <v>1191</v>
+        <v>1685</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>1686</v>
+      </c>
+      <c r="I1212" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="1213" spans="1:9">
       <c r="A1213" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C1213" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1213" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1213" t="s">
-        <v>1146</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1214" spans="1:9">
       <c r="A1214" t="s">
         <v>1687</v>
       </c>
-      <c r="G1214" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1214" t="s">
-        <v>673</v>
+      <c r="C1214" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>674</v>
       </c>
       <c r="I1214" t="s">
-        <v>1068</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1215" spans="1:9">
       <c r="A1215" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C1215" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1215" t="s">
-        <v>674</v>
+        <v>1687</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>673</v>
       </c>
       <c r="I1215" t="s">
-        <v>1147</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1216" spans="1:9">
       <c r="A1216" t="s">
         <v>1688</v>
       </c>
-      <c r="G1216" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1216" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1216" s="1" t="s">
-        <v>1074</v>
+      <c r="C1216" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="1217" spans="1:9">
       <c r="A1217" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C1217" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1217" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1217" t="s">
-        <v>1148</v>
+        <v>1688</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1217" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1218" spans="1:9">
       <c r="A1218" t="s">
         <v>1689</v>
       </c>
-      <c r="G1218" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1218" t="s">
-        <v>673</v>
+      <c r="C1218" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>674</v>
       </c>
       <c r="I1218" t="s">
-        <v>1105</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1219" spans="1:9">
       <c r="A1219" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C1219" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1219" t="s">
-        <v>674</v>
+        <v>1689</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>673</v>
       </c>
       <c r="I1219" t="s">
-        <v>1149</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1220" spans="1:9">
       <c r="A1220" t="s">
         <v>1690</v>
       </c>
-      <c r="G1220" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1220" t="s">
-        <v>673</v>
+      <c r="C1220" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>674</v>
       </c>
       <c r="I1220" t="s">
-        <v>1102</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1221" spans="1:9">
       <c r="A1221" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B1221" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1221" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1221" t="s">
-        <v>674</v>
+        <v>1690</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>673</v>
       </c>
       <c r="I1221" t="s">
-        <v>1150</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1222" spans="1:9">
@@ -27356,196 +27356,196 @@
       <c r="B1222" t="s">
         <v>1192</v>
       </c>
-      <c r="G1222" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1222" t="s">
-        <v>673</v>
+      <c r="C1222" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>674</v>
       </c>
       <c r="I1222" t="s">
-        <v>1833</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1223" spans="1:9">
       <c r="A1223" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C1223" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1223" t="s">
-        <v>674</v>
+        <v>1691</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>673</v>
       </c>
       <c r="I1223" t="s">
-        <v>1151</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1224" spans="1:9">
       <c r="A1224" t="s">
         <v>1692</v>
       </c>
-      <c r="G1224" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1224" t="s">
-        <v>673</v>
+      <c r="C1224" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>674</v>
       </c>
       <c r="I1224" t="s">
-        <v>1108</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1225" spans="1:9">
       <c r="A1225" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C1225" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1225" t="s">
-        <v>674</v>
+        <v>1692</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>673</v>
       </c>
       <c r="I1225" t="s">
-        <v>1152</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1226" spans="1:9">
       <c r="A1226" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1226" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:9">
+      <c r="A1227" t="s">
         <v>1789</v>
       </c>
-      <c r="G1226" t="s">
+      <c r="G1227" t="s">
         <v>672</v>
       </c>
-      <c r="H1226" t="s">
+      <c r="H1227" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:9">
-      <c r="A1229" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C1229" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1229" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1229" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="1230" spans="1:9">
       <c r="A1230" t="s">
         <v>1694</v>
       </c>
-      <c r="G1230" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1230" t="s">
-        <v>673</v>
+      <c r="C1230" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>674</v>
       </c>
       <c r="I1230" t="s">
-        <v>1068</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1231" spans="1:9">
       <c r="A1231" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C1231" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1231" t="s">
-        <v>674</v>
+        <v>1694</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>673</v>
       </c>
       <c r="I1231" t="s">
-        <v>1147</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1232" spans="1:9">
       <c r="A1232" t="s">
         <v>1695</v>
       </c>
-      <c r="G1232" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1232" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1232" s="1" t="s">
-        <v>1074</v>
+      <c r="C1232" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="1233" spans="1:9">
       <c r="A1233" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C1233" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1233" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1233" t="s">
-        <v>1148</v>
+        <v>1695</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1233" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1234" spans="1:9">
       <c r="A1234" t="s">
         <v>1696</v>
       </c>
-      <c r="G1234" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1234" t="s">
-        <v>673</v>
+      <c r="C1234" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>674</v>
       </c>
       <c r="I1234" t="s">
-        <v>1105</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1235" spans="1:9">
       <c r="A1235" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C1235" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1235" t="s">
-        <v>674</v>
+        <v>1696</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>673</v>
       </c>
       <c r="I1235" t="s">
-        <v>1149</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1236" spans="1:9">
       <c r="A1236" t="s">
         <v>1697</v>
       </c>
-      <c r="G1236" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1236" t="s">
-        <v>673</v>
+      <c r="C1236" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>674</v>
       </c>
       <c r="I1236" t="s">
-        <v>1102</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1237" spans="1:9">
       <c r="A1237" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B1237" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1237" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1237" t="s">
-        <v>674</v>
+        <v>1697</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>673</v>
       </c>
       <c r="I1237" t="s">
-        <v>1150</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1238" spans="1:9">
@@ -27555,86 +27555,89 @@
       <c r="B1238" t="s">
         <v>1192</v>
       </c>
-      <c r="G1238" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1238" t="s">
-        <v>673</v>
+      <c r="C1238" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>674</v>
       </c>
       <c r="I1238" t="s">
-        <v>1833</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1239" spans="1:9">
       <c r="A1239" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C1239" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1239" t="s">
-        <v>674</v>
+        <v>1698</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>673</v>
       </c>
       <c r="I1239" t="s">
-        <v>1151</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1240" spans="1:9">
       <c r="A1240" t="s">
         <v>1699</v>
       </c>
-      <c r="G1240" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1240" t="s">
-        <v>673</v>
+      <c r="C1240" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>674</v>
       </c>
       <c r="I1240" t="s">
-        <v>1108</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1241" spans="1:9">
       <c r="A1241" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C1241" t="s">
-        <v>585</v>
-      </c>
-      <c r="E1241" t="s">
-        <v>674</v>
+        <v>1699</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>673</v>
       </c>
       <c r="I1241" t="s">
-        <v>1152</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1242" spans="1:9">
       <c r="A1242" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:9">
+      <c r="A1243" t="s">
         <v>1788</v>
       </c>
-      <c r="G1242" t="s">
+      <c r="G1243" t="s">
         <v>672</v>
       </c>
-      <c r="H1242" t="s">
+      <c r="H1243" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:9">
-      <c r="A1245" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C1245" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1245" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1245" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="1246" spans="1:9">
       <c r="A1246" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C1246" t="s">
         <v>659</v>
@@ -27643,40 +27646,40 @@
         <v>674</v>
       </c>
       <c r="I1246" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1247" spans="1:9">
       <c r="A1247" t="s">
         <v>1702</v>
       </c>
-      <c r="G1247" t="s">
+      <c r="C1247" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9">
+      <c r="A1248" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G1248" t="s">
         <v>672</v>
       </c>
-      <c r="H1247" t="s">
+      <c r="H1248" t="s">
         <v>673</v>
       </c>
-      <c r="I1247" s="1" t="s">
+      <c r="I1248" s="1" t="s">
         <v>1074</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:9">
-      <c r="A1249" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C1249" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1249" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1249" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="1250" spans="1:9">
       <c r="A1250" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C1250" t="s">
         <v>659</v>
@@ -27685,43 +27688,40 @@
         <v>674</v>
       </c>
       <c r="I1250" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1251" spans="1:9">
       <c r="A1251" t="s">
         <v>1704</v>
       </c>
-      <c r="G1251" t="s">
+      <c r="C1251" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:9">
+      <c r="A1252" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G1252" t="s">
         <v>672</v>
       </c>
-      <c r="H1251" t="s">
+      <c r="H1252" t="s">
         <v>673</v>
       </c>
-      <c r="I1251" t="s">
+      <c r="I1252" t="s">
         <v>1105</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:9">
-      <c r="A1253" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B1253" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1253" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1253" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1253" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="1254" spans="1:9">
       <c r="A1254" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B1254" t="s">
         <v>1192</v>
@@ -27733,7 +27733,7 @@
         <v>674</v>
       </c>
       <c r="I1254" t="s">
-        <v>1150</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1255" spans="1:9">
@@ -27743,143 +27743,143 @@
       <c r="B1255" t="s">
         <v>1192</v>
       </c>
-      <c r="G1255" t="s">
+      <c r="C1255" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:9">
+      <c r="A1256" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1256" t="s">
         <v>672</v>
       </c>
-      <c r="H1255" t="s">
+      <c r="H1256" t="s">
         <v>673</v>
       </c>
-      <c r="I1255" t="s">
+      <c r="I1256" t="s">
         <v>1833</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:9">
-      <c r="A1257" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C1257" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1257" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1257" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="1258" spans="1:9">
       <c r="A1258" t="s">
         <v>1707</v>
       </c>
-      <c r="G1258" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1258" t="s">
-        <v>673</v>
+      <c r="C1258" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>674</v>
       </c>
       <c r="I1258" t="s">
-        <v>1068</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1259" spans="1:9">
       <c r="A1259" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C1259" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1259" t="s">
-        <v>674</v>
+        <v>1707</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>673</v>
       </c>
       <c r="I1259" t="s">
-        <v>1147</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1260" spans="1:9">
       <c r="A1260" t="s">
         <v>1708</v>
       </c>
-      <c r="G1260" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1260" t="s">
-        <v>673</v>
-      </c>
-      <c r="I1260" s="1" t="s">
-        <v>1074</v>
+      <c r="C1260" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="1261" spans="1:9">
       <c r="A1261" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C1261" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1261" t="s">
-        <v>674</v>
-      </c>
-      <c r="I1261" t="s">
-        <v>1148</v>
+        <v>1708</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1261" s="1" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="1262" spans="1:9">
       <c r="A1262" t="s">
         <v>1709</v>
       </c>
-      <c r="G1262" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1262" t="s">
-        <v>673</v>
+      <c r="C1262" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>674</v>
       </c>
       <c r="I1262" t="s">
-        <v>1105</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1263" spans="1:9">
       <c r="A1263" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C1263" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1263" t="s">
-        <v>674</v>
+        <v>1709</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>673</v>
       </c>
       <c r="I1263" t="s">
-        <v>1149</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1264" spans="1:9">
       <c r="A1264" t="s">
         <v>1710</v>
       </c>
-      <c r="G1264" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1264" t="s">
-        <v>673</v>
+      <c r="C1264" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>674</v>
       </c>
       <c r="I1264" t="s">
-        <v>1102</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1265" spans="1:9">
       <c r="A1265" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B1265" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C1265" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1265" t="s">
-        <v>674</v>
+        <v>1710</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>673</v>
       </c>
       <c r="I1265" t="s">
-        <v>1150</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1266" spans="1:9">
@@ -27889,84 +27889,84 @@
       <c r="B1266" t="s">
         <v>1192</v>
       </c>
-      <c r="G1266" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1266" t="s">
-        <v>673</v>
+      <c r="C1266" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>674</v>
       </c>
       <c r="I1266" t="s">
-        <v>1833</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1267" spans="1:9">
       <c r="A1267" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C1267" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1267" t="s">
-        <v>674</v>
+        <v>1711</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>673</v>
       </c>
       <c r="I1267" t="s">
-        <v>1151</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1268" spans="1:9">
       <c r="A1268" t="s">
         <v>1712</v>
       </c>
-      <c r="G1268" t="s">
-        <v>672</v>
-      </c>
-      <c r="H1268" t="s">
-        <v>673</v>
+      <c r="C1268" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>674</v>
       </c>
       <c r="I1268" t="s">
-        <v>1108</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1269" spans="1:9">
       <c r="A1269" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C1269" t="s">
-        <v>659</v>
-      </c>
-      <c r="E1269" t="s">
-        <v>674</v>
+        <v>1712</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>673</v>
       </c>
       <c r="I1269" t="s">
-        <v>1152</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1270" spans="1:9">
       <c r="A1270" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:9">
+      <c r="A1271" t="s">
         <v>1790</v>
       </c>
-      <c r="G1270" t="s">
+      <c r="G1271" t="s">
         <v>672</v>
       </c>
-      <c r="H1270" t="s">
+      <c r="H1271" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:9">
-      <c r="A1272" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C1272" t="s">
-        <v>600</v>
-      </c>
-      <c r="E1272" t="s">
-        <v>658</v>
-      </c>
-      <c r="F1272" t="s">
-        <v>1715</v>
-      </c>
-      <c r="I1272" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="1273" spans="1:9">
@@ -27977,13 +27977,13 @@
         <v>600</v>
       </c>
       <c r="E1273" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1273" t="s">
         <v>1715</v>
       </c>
       <c r="I1273" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1274" spans="1:9">
@@ -27994,13 +27994,13 @@
         <v>600</v>
       </c>
       <c r="E1274" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F1274" t="s">
         <v>1715</v>
       </c>
       <c r="I1274" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1275" spans="1:9">
@@ -28011,50 +28011,50 @@
         <v>600</v>
       </c>
       <c r="E1275" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F1275" t="s">
         <v>1715</v>
       </c>
       <c r="I1275" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1276" spans="1:9">
       <c r="A1276" t="s">
         <v>1714</v>
       </c>
-      <c r="B1276" t="s">
-        <v>1192</v>
-      </c>
       <c r="C1276" t="s">
         <v>600</v>
       </c>
       <c r="E1276" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F1276" t="s">
         <v>1715</v>
       </c>
       <c r="I1276" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1277" spans="1:9">
       <c r="A1277" t="s">
         <v>1714</v>
       </c>
+      <c r="B1277" t="s">
+        <v>1192</v>
+      </c>
       <c r="C1277" t="s">
         <v>600</v>
       </c>
       <c r="E1277" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F1277" t="s">
         <v>1715</v>
       </c>
       <c r="I1277" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1278" spans="1:9">
@@ -28065,12 +28065,29 @@
         <v>600</v>
       </c>
       <c r="E1278" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1278" t="s">
         <v>1715</v>
       </c>
       <c r="I1278" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:9">
+      <c r="A1279" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>666</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>1715</v>
+      </c>
+      <c r="I1279" t="s">
         <v>1132</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8191" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8191" uniqueCount="1980">
   <si>
     <t>INVENTORY_DB</t>
   </si>
@@ -5960,6 +5960,12 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.massmail.MassMailService.getMassMailCount</t>
+  </si>
+  <si>
+    <t>MASS_MAIL_MASTER_ALL_DEPARTMENTS:MASS_MAIL_DETAIL_ALL_DEPARTMENTS:MASS_MAIL_VIEW_ALL_DEPARTMENTS:MASS_MAIL_SIGNUP, MASS_MAIL_MASTER_USER_DEPARTMENT:MASS_MAIL_DETAIL_USER_DEPARTMENT:MASS_MAIL_VIEW_USER_DEPARTMENT</t>
+  </si>
+  <si>
+    <t>PROBAND_MASTER_ALL_DEPARTMENTS:PROBAND_DETAIL_ALL_DEPARTMENTS:MASS_MAIL_SIGNUP, PROBAND_MASTER_USER_DEPARTMENT:PROBAND_DETAIL_USER_DEPARTMENT</t>
   </si>
 </sst>
 </file>
@@ -9033,8 +9039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A802" workbookViewId="0">
-      <selection activeCell="A839" sqref="A839"/>
+    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
+      <selection activeCell="A819" sqref="A819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -20828,7 +20834,7 @@
         <v>1939</v>
       </c>
       <c r="I796" t="s">
-        <v>1915</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="798" spans="1:9">
@@ -21140,7 +21146,7 @@
         <v>1939</v>
       </c>
       <c r="I818" t="s">
-        <v>1912</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="819" spans="1:9">
@@ -21160,7 +21166,7 @@
         <v>72</v>
       </c>
       <c r="I819" t="s">
-        <v>1106</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="820" spans="1:9">

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="1407">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4223,6 +4223,18 @@
   </si>
   <si>
     <t>#org.phoenixctms.ctsms.service.trial.TrialService.setEcrfFieldValues</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.getDataTableColumns</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.setDataTableColumns</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.clearDataTableColumns</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.getDataTableColumnCount</t>
   </si>
 </sst>
 </file>
@@ -5047,10 +5059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1011"/>
+  <dimension ref="A1:I1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" workbookViewId="0">
-      <selection activeCell="A521" sqref="A521"/>
+    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="A670" sqref="A670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16151,41 +16163,66 @@
         <v>962</v>
       </c>
     </row>
-    <row r="668" spans="1:9">
-      <c r="A668" t="s">
-        <v>990</v>
-      </c>
-      <c r="I668" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="669" spans="1:9">
-      <c r="A669" t="s">
-        <v>992</v>
-      </c>
-      <c r="I669" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="670" spans="1:9">
-      <c r="A670" t="s">
-        <v>993</v>
-      </c>
-      <c r="I670" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="671" spans="1:9">
-      <c r="A671" t="s">
-        <v>994</v>
-      </c>
-      <c r="I671" t="s">
-        <v>995</v>
-      </c>
-    </row>
+    <row r="667" spans="1:9" s="2" customFormat="1">
+      <c r="A667" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E667" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I667" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" s="2" customFormat="1">
+      <c r="A668" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E668" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I668" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" s="2" customFormat="1">
+      <c r="A669" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I669" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" s="2" customFormat="1">
+      <c r="A670" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I670" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" s="2" customFormat="1"/>
     <row r="672" spans="1:9">
       <c r="A672" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="I672" t="s">
         <v>991</v>
@@ -16193,7 +16230,7 @@
     </row>
     <row r="673" spans="1:9">
       <c r="A673" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="I673" t="s">
         <v>991</v>
@@ -16201,7 +16238,7 @@
     </row>
     <row r="674" spans="1:9">
       <c r="A674" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="I674" t="s">
         <v>991</v>
@@ -16209,7 +16246,7 @@
     </row>
     <row r="675" spans="1:9">
       <c r="A675" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="I675" t="s">
         <v>995</v>
@@ -16217,47 +16254,47 @@
     </row>
     <row r="676" spans="1:9">
       <c r="A676" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="I676" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="677" spans="1:9">
       <c r="A677" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="I677" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="678" spans="1:9">
       <c r="A678" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="I678" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="679" spans="1:9">
       <c r="A679" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="I679" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="680" spans="1:9">
       <c r="A680" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="I680" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="681" spans="1:9">
       <c r="A681" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="I681" t="s">
         <v>995</v>
@@ -16265,7 +16302,7 @@
     </row>
     <row r="682" spans="1:9">
       <c r="A682" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="I682" t="s">
         <v>995</v>
@@ -16273,15 +16310,15 @@
     </row>
     <row r="683" spans="1:9">
       <c r="A683" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="I683" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="684" spans="1:9">
       <c r="A684" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="I684" t="s">
         <v>995</v>
@@ -16289,7 +16326,7 @@
     </row>
     <row r="685" spans="1:9">
       <c r="A685" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I685" t="s">
         <v>995</v>
@@ -16297,7 +16334,7 @@
     </row>
     <row r="686" spans="1:9">
       <c r="A686" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="I686" t="s">
         <v>995</v>
@@ -16305,201 +16342,159 @@
     </row>
     <row r="687" spans="1:9">
       <c r="A687" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="I687" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="688" spans="1:9">
       <c r="A688" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="I688" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
     </row>
     <row r="689" spans="1:9">
       <c r="A689" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="I689" t="s">
-        <v>991</v>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9">
+      <c r="A690" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I690" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="691" spans="1:9">
       <c r="A691" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C691" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E691" t="s">
-        <v>11</v>
+        <v>1012</v>
       </c>
       <c r="I691" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="692" spans="1:9">
       <c r="A692" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B692" t="s">
-        <v>20</v>
-      </c>
-      <c r="C692" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E692" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="I692" t="s">
-        <v>1021</v>
+        <v>991</v>
       </c>
     </row>
     <row r="693" spans="1:9">
       <c r="A693" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B693" t="s">
-        <v>20</v>
-      </c>
-      <c r="C693" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E693" t="s">
-        <v>421</v>
+        <v>1014</v>
       </c>
       <c r="I693" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9">
-      <c r="A694" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B694" t="s">
-        <v>20</v>
-      </c>
-      <c r="C694" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E694" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I694" t="s">
-        <v>1025</v>
+        <v>991</v>
       </c>
     </row>
     <row r="695" spans="1:9">
       <c r="A695" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B695" t="s">
-        <v>20</v>
+        <v>1015</v>
       </c>
       <c r="C695" t="s">
-        <v>435</v>
+        <v>1016</v>
       </c>
       <c r="E695" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="I695" t="s">
-        <v>436</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="696" spans="1:9">
       <c r="A696" t="s">
-        <v>1026</v>
+        <v>1018</v>
+      </c>
+      <c r="B696" t="s">
+        <v>20</v>
       </c>
       <c r="C696" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="E696" t="s">
         <v>1020</v>
       </c>
       <c r="I696" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="697" spans="1:9">
       <c r="A697" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="B697" t="s">
         <v>20</v>
       </c>
       <c r="C697" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D697" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="E697" t="s">
-        <v>1020</v>
+        <v>421</v>
       </c>
       <c r="I697" t="s">
-        <v>1025</v>
+        <v>945</v>
       </c>
     </row>
     <row r="698" spans="1:9">
       <c r="A698" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B698" t="s">
         <v>20</v>
       </c>
       <c r="C698" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D698" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="E698" t="s">
-        <v>421</v>
+        <v>1020</v>
       </c>
       <c r="I698" t="s">
-        <v>708</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="699" spans="1:9">
       <c r="A699" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B699" t="s">
         <v>20</v>
       </c>
       <c r="C699" t="s">
-        <v>1024</v>
+        <v>435</v>
       </c>
       <c r="E699" t="s">
-        <v>1020</v>
+        <v>421</v>
       </c>
       <c r="I699" t="s">
-        <v>1025</v>
+        <v>436</v>
       </c>
     </row>
     <row r="700" spans="1:9">
       <c r="A700" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B700" t="s">
-        <v>20</v>
+        <v>1026</v>
       </c>
       <c r="C700" t="s">
-        <v>435</v>
+        <v>1024</v>
       </c>
       <c r="E700" t="s">
-        <v>421</v>
+        <v>1020</v>
       </c>
       <c r="I700" t="s">
-        <v>436</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="701" spans="1:9">
       <c r="A701" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B701" t="s">
         <v>20</v>
@@ -16513,13 +16508,13 @@
       <c r="E701" t="s">
         <v>1020</v>
       </c>
-      <c r="I701" s="1" t="s">
-        <v>1033</v>
+      <c r="I701" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="702" spans="1:9">
       <c r="A702" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="B702" t="s">
         <v>20</v>
@@ -16534,12 +16529,15 @@
         <v>421</v>
       </c>
       <c r="I702" t="s">
-        <v>905</v>
+        <v>708</v>
       </c>
     </row>
     <row r="703" spans="1:9">
       <c r="A703" t="s">
-        <v>1034</v>
+        <v>1031</v>
+      </c>
+      <c r="B703" t="s">
+        <v>20</v>
       </c>
       <c r="C703" t="s">
         <v>1024</v>
@@ -16547,178 +16545,175 @@
       <c r="E703" t="s">
         <v>1020</v>
       </c>
-      <c r="I703" s="1" t="s">
-        <v>1035</v>
+      <c r="I703" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="704" spans="1:9">
       <c r="A704" t="s">
-        <v>1036</v>
+        <v>1031</v>
+      </c>
+      <c r="B704" t="s">
+        <v>20</v>
       </c>
       <c r="C704" t="s">
-        <v>252</v>
+        <v>435</v>
       </c>
       <c r="E704" t="s">
-        <v>253</v>
-      </c>
-      <c r="I704" s="1" t="s">
-        <v>904</v>
+        <v>421</v>
+      </c>
+      <c r="I704" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="705" spans="1:9">
       <c r="A705" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G705" t="s">
-        <v>96</v>
-      </c>
-      <c r="H705" t="s">
-        <v>70</v>
+        <v>1032</v>
+      </c>
+      <c r="B705" t="s">
+        <v>20</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E705" t="s">
+        <v>1020</v>
       </c>
       <c r="I705" s="1" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="706" spans="1:9">
       <c r="A706" t="s">
-        <v>1039</v>
+        <v>1032</v>
+      </c>
+      <c r="B706" t="s">
+        <v>20</v>
       </c>
       <c r="C706" t="s">
-        <v>1024</v>
+        <v>1028</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1030</v>
       </c>
       <c r="E706" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I706" s="1" t="s">
-        <v>1033</v>
+        <v>421</v>
+      </c>
+      <c r="I706" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="707" spans="1:9">
       <c r="A707" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B707" t="s">
-        <v>20</v>
+        <v>1034</v>
       </c>
       <c r="C707" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D707" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="E707" t="s">
         <v>1020</v>
       </c>
       <c r="I707" s="1" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="708" spans="1:9">
       <c r="A708" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B708" t="s">
-        <v>20</v>
+        <v>1036</v>
       </c>
       <c r="C708" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D708" t="s">
-        <v>1030</v>
+        <v>252</v>
       </c>
       <c r="E708" t="s">
-        <v>421</v>
-      </c>
-      <c r="I708" t="s">
-        <v>1042</v>
+        <v>253</v>
+      </c>
+      <c r="I708" s="1" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="709" spans="1:9">
       <c r="A709" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C709" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E709" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F709" t="s">
-        <v>1043</v>
+        <v>1037</v>
+      </c>
+      <c r="G709" t="s">
+        <v>96</v>
+      </c>
+      <c r="H709" t="s">
+        <v>70</v>
       </c>
       <c r="I709" s="1" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="710" spans="1:9">
       <c r="A710" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C710" t="s">
-        <v>533</v>
+        <v>1024</v>
       </c>
       <c r="E710" t="s">
-        <v>421</v>
-      </c>
-      <c r="F710" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I710" t="s">
-        <v>534</v>
+        <v>1020</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="711" spans="1:9">
       <c r="A711" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B711" t="s">
         <v>20</v>
       </c>
       <c r="C711" t="s">
-        <v>1024</v>
+        <v>1028</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1029</v>
       </c>
       <c r="E711" t="s">
         <v>1020</v>
       </c>
-      <c r="F711" t="s">
-        <v>1045</v>
-      </c>
       <c r="I711" s="1" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="712" spans="1:9">
       <c r="A712" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="B712" t="s">
         <v>20</v>
       </c>
       <c r="C712" t="s">
-        <v>533</v>
+        <v>1028</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1030</v>
       </c>
       <c r="E712" t="s">
         <v>421</v>
       </c>
-      <c r="F712" t="s">
-        <v>1045</v>
-      </c>
       <c r="I712" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="713" spans="1:9">
       <c r="A713" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B713" t="s">
-        <v>20</v>
-      </c>
-      <c r="G713" t="s">
-        <v>96</v>
-      </c>
-      <c r="H713" t="s">
-        <v>70</v>
+        <v>1043</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E713" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F713" t="s">
+        <v>1043</v>
       </c>
       <c r="I713" s="1" t="s">
         <v>1044</v>
@@ -16726,10 +16721,7 @@
     </row>
     <row r="714" spans="1:9">
       <c r="A714" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B714" t="s">
-        <v>20</v>
+        <v>1043</v>
       </c>
       <c r="C714" t="s">
         <v>533</v>
@@ -16738,1046 +16730,1043 @@
         <v>421</v>
       </c>
       <c r="F714" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="I714" t="s">
-        <v>1051</v>
+        <v>534</v>
       </c>
     </row>
     <row r="715" spans="1:9">
       <c r="A715" t="s">
-        <v>1049</v>
+        <v>1045</v>
+      </c>
+      <c r="B715" t="s">
+        <v>20</v>
       </c>
       <c r="C715" t="s">
-        <v>533</v>
+        <v>1024</v>
       </c>
       <c r="E715" t="s">
-        <v>463</v>
+        <v>1020</v>
       </c>
       <c r="F715" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I715" t="s">
-        <v>1052</v>
+        <v>1045</v>
+      </c>
+      <c r="I715" s="1" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="716" spans="1:9">
       <c r="A716" t="s">
-        <v>1049</v>
+        <v>1045</v>
+      </c>
+      <c r="B716" t="s">
+        <v>20</v>
       </c>
       <c r="C716" t="s">
-        <v>1053</v>
+        <v>533</v>
       </c>
       <c r="E716" t="s">
-        <v>1054</v>
+        <v>421</v>
       </c>
       <c r="F716" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I716" s="1" t="s">
-        <v>1056</v>
+        <v>1045</v>
+      </c>
+      <c r="I716" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="717" spans="1:9">
       <c r="A717" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="B717" t="s">
         <v>20</v>
       </c>
-      <c r="C717" t="s">
-        <v>533</v>
-      </c>
-      <c r="E717" t="s">
-        <v>421</v>
-      </c>
-      <c r="F717" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I717" t="s">
-        <v>1059</v>
+      <c r="G717" t="s">
+        <v>96</v>
+      </c>
+      <c r="H717" t="s">
+        <v>70</v>
+      </c>
+      <c r="I717" s="1" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="718" spans="1:9">
       <c r="A718" t="s">
-        <v>1057</v>
+        <v>1049</v>
+      </c>
+      <c r="B718" t="s">
+        <v>20</v>
       </c>
       <c r="C718" t="s">
         <v>533</v>
       </c>
       <c r="E718" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="F718" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="I718" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="719" spans="1:9">
       <c r="A719" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="C719" t="s">
-        <v>1053</v>
+        <v>533</v>
       </c>
       <c r="E719" t="s">
-        <v>1054</v>
+        <v>463</v>
       </c>
       <c r="F719" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I719" s="1" t="s">
-        <v>1062</v>
+        <v>1050</v>
+      </c>
+      <c r="I719" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="720" spans="1:9">
       <c r="A720" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B720" t="s">
-        <v>20</v>
-      </c>
-      <c r="G720" t="s">
-        <v>96</v>
-      </c>
-      <c r="H720" t="s">
-        <v>70</v>
+        <v>1049</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F720" t="s">
+        <v>1055</v>
       </c>
       <c r="I720" s="1" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="721" spans="1:9">
       <c r="A721" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="B721" t="s">
         <v>20</v>
       </c>
       <c r="C721" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D721" t="s">
-        <v>1029</v>
+        <v>533</v>
       </c>
       <c r="E721" t="s">
-        <v>1020</v>
+        <v>421</v>
+      </c>
+      <c r="F721" t="s">
+        <v>1058</v>
       </c>
       <c r="I721" t="s">
-        <v>1021</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="722" spans="1:9">
       <c r="A722" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B722" t="s">
-        <v>20</v>
+        <v>1057</v>
       </c>
       <c r="C722" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D722" t="s">
-        <v>1030</v>
+        <v>533</v>
       </c>
       <c r="E722" t="s">
-        <v>421</v>
+        <v>463</v>
+      </c>
+      <c r="F722" t="s">
+        <v>1058</v>
       </c>
       <c r="I722" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="723" spans="1:9">
       <c r="A723" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="C723" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="E723" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I723" t="s">
-        <v>1017</v>
+        <v>1054</v>
+      </c>
+      <c r="F723" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="724" spans="1:9">
       <c r="A724" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C724" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E724" t="s">
-        <v>11</v>
-      </c>
-      <c r="I724" t="s">
-        <v>1017</v>
+        <v>1063</v>
+      </c>
+      <c r="B724" t="s">
+        <v>20</v>
+      </c>
+      <c r="G724" t="s">
+        <v>96</v>
+      </c>
+      <c r="H724" t="s">
+        <v>70</v>
+      </c>
+      <c r="I724" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9">
+      <c r="A725" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B725" t="s">
+        <v>20</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I725" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="726" spans="1:9">
       <c r="A726" t="s">
-        <v>1069</v>
+        <v>1064</v>
+      </c>
+      <c r="B726" t="s">
+        <v>20</v>
       </c>
       <c r="C726" t="s">
-        <v>1070</v>
+        <v>1028</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1030</v>
       </c>
       <c r="E726" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F726" t="s">
-        <v>1072</v>
+        <v>421</v>
       </c>
       <c r="I726" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="727" spans="1:9">
       <c r="A727" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C727" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="E727" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F727" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I727" s="1" t="s">
-        <v>335</v>
+        <v>1020</v>
+      </c>
+      <c r="I727" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="728" spans="1:9">
       <c r="A728" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C728" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="E728" t="s">
-        <v>345</v>
-      </c>
-      <c r="F728" t="s">
-        <v>1072</v>
+        <v>11</v>
       </c>
       <c r="I728" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="729" spans="1:9">
-      <c r="A729" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B729" s="2"/>
-      <c r="C729" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E729" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F729" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I729" t="s">
-        <v>419</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="730" spans="1:9">
       <c r="A730" t="s">
         <v>1069</v>
       </c>
-      <c r="B730" t="s">
-        <v>20</v>
-      </c>
       <c r="C730" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="E730" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F730" t="s">
         <v>1072</v>
       </c>
       <c r="I730" t="s">
-        <v>708</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="731" spans="1:9">
       <c r="A731" t="s">
         <v>1069</v>
       </c>
-      <c r="B731" s="2"/>
       <c r="C731" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="E731" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F731" t="s">
         <v>1072</v>
       </c>
-      <c r="I731" t="s">
-        <v>1083</v>
+      <c r="I731" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="732" spans="1:9">
       <c r="A732" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="C732" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D732" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="E732" t="s">
-        <v>1071</v>
+        <v>345</v>
       </c>
       <c r="F732" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I732" s="1" t="s">
-        <v>1088</v>
+        <v>1072</v>
+      </c>
+      <c r="I732" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="733" spans="1:9">
       <c r="A733" t="s">
-        <v>1084</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="B733" s="2"/>
       <c r="C733" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D733" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
       <c r="E733" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="F733" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I733" s="1" t="s">
-        <v>236</v>
+        <v>1072</v>
+      </c>
+      <c r="I733" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="734" spans="1:9">
       <c r="A734" t="s">
-        <v>1084</v>
+        <v>1069</v>
+      </c>
+      <c r="B734" t="s">
+        <v>20</v>
       </c>
       <c r="C734" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D734" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="E734" t="s">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="F734" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I734" s="1" t="s">
-        <v>1091</v>
+        <v>1072</v>
+      </c>
+      <c r="I734" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="735" spans="1:9">
       <c r="A735" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="B735" s="2"/>
       <c r="C735" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D735" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="E735" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F735" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I735" s="1" t="s">
-        <v>1093</v>
+        <v>1072</v>
+      </c>
+      <c r="I735" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="736" spans="1:9">
       <c r="A736" t="s">
         <v>1084</v>
       </c>
-      <c r="B736" t="s">
-        <v>20</v>
-      </c>
       <c r="C736" t="s">
         <v>1085</v>
       </c>
       <c r="D736" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="E736" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F736" t="s">
         <v>1087</v>
       </c>
-      <c r="I736" t="s">
-        <v>863</v>
+      <c r="I736" s="1" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="737" spans="1:9">
       <c r="A737" t="s">
         <v>1084</v>
       </c>
-      <c r="B737" s="2"/>
       <c r="C737" t="s">
         <v>1085</v>
       </c>
       <c r="D737" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E737" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F737" t="s">
         <v>1087</v>
       </c>
       <c r="I737" s="1" t="s">
-        <v>1046</v>
+        <v>236</v>
       </c>
     </row>
     <row r="738" spans="1:9">
       <c r="A738" t="s">
         <v>1084</v>
       </c>
-      <c r="G738" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H738" t="s">
-        <v>1097</v>
+      <c r="C738" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E738" t="s">
+        <v>345</v>
+      </c>
+      <c r="F738" t="s">
+        <v>1087</v>
       </c>
       <c r="I738" s="1" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="739" spans="1:9">
       <c r="A739" t="s">
-        <v>1099</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="B739" s="2"/>
       <c r="C739" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D739" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="E739" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F739" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I739" t="s">
-        <v>35</v>
+        <v>1087</v>
+      </c>
+      <c r="I739" s="1" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="740" spans="1:9">
       <c r="A740" t="s">
-        <v>1099</v>
+        <v>1084</v>
+      </c>
+      <c r="B740" t="s">
+        <v>20</v>
       </c>
       <c r="C740" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D740" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="E740" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F740" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I740" s="1" t="s">
-        <v>335</v>
+        <v>1087</v>
+      </c>
+      <c r="I740" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="741" spans="1:9">
       <c r="A741" t="s">
-        <v>1099</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="B741" s="2"/>
       <c r="C741" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D741" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="E741" t="s">
-        <v>345</v>
+        <v>1082</v>
       </c>
       <c r="F741" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I741" t="s">
-        <v>352</v>
+        <v>1087</v>
+      </c>
+      <c r="I741" s="1" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="742" spans="1:9">
       <c r="A742" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B742" s="2"/>
-      <c r="C742" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D742" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E742" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F742" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I742" t="s">
-        <v>419</v>
+        <v>1084</v>
+      </c>
+      <c r="G742" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H742" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I742" s="1" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="743" spans="1:9">
       <c r="A743" t="s">
         <v>1099</v>
       </c>
-      <c r="B743" t="s">
-        <v>20</v>
-      </c>
       <c r="C743" t="s">
         <v>1100</v>
       </c>
       <c r="D743" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="E743" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F743" t="s">
         <v>1102</v>
       </c>
       <c r="I743" t="s">
-        <v>422</v>
+        <v>35</v>
       </c>
     </row>
     <row r="744" spans="1:9">
       <c r="A744" t="s">
         <v>1099</v>
       </c>
-      <c r="B744" s="2"/>
       <c r="C744" t="s">
         <v>1100</v>
       </c>
       <c r="D744" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E744" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F744" t="s">
         <v>1102</v>
       </c>
-      <c r="I744" t="s">
-        <v>1025</v>
+      <c r="I744" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="745" spans="1:9">
       <c r="A745" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C745" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D745" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="E745" t="s">
-        <v>1071</v>
+        <v>345</v>
       </c>
       <c r="F745" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="I745" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
     </row>
     <row r="746" spans="1:9">
       <c r="A746" t="s">
-        <v>1108</v>
-      </c>
+        <v>1099</v>
+      </c>
+      <c r="B746" s="2"/>
       <c r="C746" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D746" t="s">
-        <v>1089</v>
+        <v>1105</v>
       </c>
       <c r="E746" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="F746" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I746" s="1" t="s">
-        <v>139</v>
+        <v>1102</v>
+      </c>
+      <c r="I746" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="747" spans="1:9">
       <c r="A747" t="s">
-        <v>1108</v>
+        <v>1099</v>
+      </c>
+      <c r="B747" t="s">
+        <v>20</v>
       </c>
       <c r="C747" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D747" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="E747" t="s">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="F747" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="I747" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
     </row>
     <row r="748" spans="1:9">
       <c r="A748" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="B748" s="2"/>
       <c r="C748" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D748" t="s">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="E748" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F748" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="I748" t="s">
-        <v>427</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="749" spans="1:9">
       <c r="A749" t="s">
         <v>1108</v>
       </c>
-      <c r="B749" t="s">
-        <v>20</v>
-      </c>
       <c r="C749" t="s">
         <v>1085</v>
       </c>
       <c r="D749" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="E749" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F749" t="s">
         <v>1109</v>
       </c>
       <c r="I749" t="s">
-        <v>422</v>
+        <v>35</v>
       </c>
     </row>
     <row r="750" spans="1:9">
       <c r="A750" t="s">
         <v>1108</v>
       </c>
-      <c r="B750" s="2"/>
       <c r="C750" t="s">
         <v>1085</v>
       </c>
       <c r="D750" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E750" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F750" t="s">
         <v>1109</v>
       </c>
-      <c r="I750" t="s">
-        <v>1025</v>
+      <c r="I750" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="751" spans="1:9">
       <c r="A751" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C751" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D751" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="E751" t="s">
-        <v>1071</v>
+        <v>345</v>
       </c>
       <c r="F751" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I751" s="1" t="s">
-        <v>23</v>
+        <v>1109</v>
+      </c>
+      <c r="I751" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="752" spans="1:9">
       <c r="A752" t="s">
-        <v>1110</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="B752" s="2"/>
       <c r="C752" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D752" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="E752" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="F752" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I752" s="1" t="s">
-        <v>223</v>
+        <v>1109</v>
+      </c>
+      <c r="I752" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="753" spans="1:9">
       <c r="A753" t="s">
-        <v>1110</v>
+        <v>1108</v>
+      </c>
+      <c r="B753" t="s">
+        <v>20</v>
       </c>
       <c r="C753" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D753" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="E753" t="s">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="F753" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I753" s="1" t="s">
-        <v>371</v>
+        <v>1109</v>
+      </c>
+      <c r="I753" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="754" spans="1:9">
       <c r="A754" t="s">
-        <v>1110</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="B754" s="2"/>
       <c r="C754" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D754" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="E754" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F754" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I754" s="1" t="s">
-        <v>527</v>
+        <v>1109</v>
+      </c>
+      <c r="I754" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="755" spans="1:9">
       <c r="A755" t="s">
         <v>1110</v>
       </c>
-      <c r="B755" s="2"/>
       <c r="C755" t="s">
         <v>1100</v>
       </c>
+      <c r="D755" t="s">
+        <v>1101</v>
+      </c>
       <c r="E755" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="F755" t="s">
         <v>1111</v>
       </c>
-      <c r="I755" t="s">
-        <v>1113</v>
+      <c r="I755" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="756" spans="1:9">
       <c r="A756" t="s">
         <v>1110</v>
       </c>
-      <c r="B756" t="s">
-        <v>20</v>
-      </c>
       <c r="C756" t="s">
         <v>1100</v>
       </c>
       <c r="D756" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E756" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="F756" t="s">
         <v>1111</v>
       </c>
-      <c r="I756" t="s">
-        <v>788</v>
+      <c r="I756" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="757" spans="1:9">
       <c r="A757" t="s">
         <v>1110</v>
       </c>
-      <c r="B757" s="2"/>
       <c r="C757" t="s">
         <v>1100</v>
       </c>
       <c r="D757" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E757" t="s">
-        <v>1082</v>
+        <v>345</v>
       </c>
       <c r="F757" t="s">
         <v>1111</v>
       </c>
       <c r="I757" s="1" t="s">
-        <v>1033</v>
+        <v>371</v>
       </c>
     </row>
     <row r="758" spans="1:9">
       <c r="A758" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C758" t="s">
         <v>1100</v>
       </c>
       <c r="D758" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="E758" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F758" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I758" s="1" t="s">
-        <v>23</v>
+        <v>527</v>
       </c>
     </row>
     <row r="759" spans="1:9">
       <c r="A759" t="s">
-        <v>1114</v>
-      </c>
+        <v>1110</v>
+      </c>
+      <c r="B759" s="2"/>
       <c r="C759" t="s">
         <v>1100</v>
       </c>
-      <c r="D759" t="s">
-        <v>1103</v>
-      </c>
       <c r="E759" t="s">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="F759" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I759" s="1" t="s">
-        <v>234</v>
+        <v>1111</v>
+      </c>
+      <c r="I759" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="760" spans="1:9">
       <c r="A760" t="s">
-        <v>1114</v>
+        <v>1110</v>
+      </c>
+      <c r="B760" t="s">
+        <v>20</v>
       </c>
       <c r="C760" t="s">
         <v>1100</v>
       </c>
       <c r="D760" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E760" t="s">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="F760" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I760" s="1" t="s">
-        <v>371</v>
+        <v>1111</v>
+      </c>
+      <c r="I760" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="761" spans="1:9">
       <c r="A761" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B761" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>1110</v>
+      </c>
+      <c r="B761" s="2"/>
       <c r="C761" t="s">
         <v>1100</v>
       </c>
       <c r="D761" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E761" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F761" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="I761" s="1" t="s">
-        <v>1116</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="762" spans="1:9">
       <c r="A762" t="s">
         <v>1114</v>
       </c>
-      <c r="B762" s="2"/>
       <c r="C762" t="s">
         <v>1100</v>
       </c>
+      <c r="D762" t="s">
+        <v>1101</v>
+      </c>
       <c r="E762" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="F762" t="s">
         <v>1115</v>
       </c>
-      <c r="I762" t="s">
-        <v>1113</v>
+      <c r="I762" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="763" spans="1:9">
       <c r="A763" t="s">
         <v>1114</v>
       </c>
-      <c r="B763" t="s">
-        <v>20</v>
-      </c>
       <c r="C763" t="s">
         <v>1100</v>
       </c>
       <c r="D763" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E763" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="F763" t="s">
         <v>1115</v>
       </c>
-      <c r="I763" t="s">
-        <v>1117</v>
+      <c r="I763" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="764" spans="1:9">
       <c r="A764" t="s">
         <v>1114</v>
       </c>
-      <c r="B764" s="2"/>
       <c r="C764" t="s">
         <v>1100</v>
       </c>
       <c r="D764" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E764" t="s">
-        <v>1082</v>
+        <v>345</v>
       </c>
       <c r="F764" t="s">
         <v>1115</v>
       </c>
       <c r="I764" s="1" t="s">
-        <v>1033</v>
+        <v>371</v>
       </c>
     </row>
     <row r="765" spans="1:9">
       <c r="A765" t="s">
-        <v>1118</v>
+        <v>1114</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C765" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D765" t="s">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="E765" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F765" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>23</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="766" spans="1:9">
       <c r="A766" t="s">
-        <v>1118</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="B766" s="2"/>
       <c r="C766" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D766" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="E766" t="s">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="F766" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I766" s="1" t="s">
-        <v>223</v>
+        <v>1115</v>
+      </c>
+      <c r="I766" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="767" spans="1:9">
       <c r="A767" t="s">
-        <v>1118</v>
+        <v>1114</v>
+      </c>
+      <c r="B767" t="s">
+        <v>20</v>
       </c>
       <c r="C767" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D767" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="E767" t="s">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="F767" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I767" s="1" t="s">
-        <v>376</v>
+        <v>1115</v>
+      </c>
+      <c r="I767" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="768" spans="1:9">
       <c r="A768" t="s">
-        <v>1118</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="B768" s="2"/>
       <c r="C768" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D768" t="s">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="E768" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F768" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="I768" s="1" t="s">
-        <v>527</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="769" spans="1:9">
@@ -17788,16 +17777,16 @@
         <v>1085</v>
       </c>
       <c r="D769" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="E769" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F769" t="s">
         <v>1119</v>
       </c>
-      <c r="I769" t="s">
-        <v>788</v>
+      <c r="I769" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="770" spans="1:9">
@@ -17808,155 +17797,150 @@
         <v>1085</v>
       </c>
       <c r="D770" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E770" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F770" t="s">
         <v>1119</v>
       </c>
       <c r="I770" s="1" t="s">
-        <v>1033</v>
+        <v>223</v>
       </c>
     </row>
     <row r="771" spans="1:9">
       <c r="A771" t="s">
         <v>1118</v>
       </c>
-      <c r="G771" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H771" t="s">
-        <v>1097</v>
+      <c r="C771" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E771" t="s">
+        <v>345</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1119</v>
       </c>
       <c r="I771" s="1" t="s">
-        <v>1120</v>
+        <v>376</v>
       </c>
     </row>
     <row r="772" spans="1:9">
       <c r="A772" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C772" t="s">
         <v>1085</v>
       </c>
       <c r="D772" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="E772" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F772" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="I772" s="1" t="s">
-        <v>23</v>
+        <v>527</v>
       </c>
     </row>
     <row r="773" spans="1:9">
       <c r="A773" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C773" t="s">
         <v>1085</v>
       </c>
       <c r="D773" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="E773" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F773" t="s">
-        <v>1122</v>
-      </c>
-      <c r="I773" s="1" t="s">
-        <v>223</v>
+        <v>1119</v>
+      </c>
+      <c r="I773" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="774" spans="1:9">
       <c r="A774" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C774" t="s">
         <v>1085</v>
       </c>
       <c r="D774" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="E774" t="s">
-        <v>345</v>
+        <v>1082</v>
       </c>
       <c r="F774" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="I774" s="1" t="s">
-        <v>371</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="775" spans="1:9">
       <c r="A775" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B775" s="2"/>
-      <c r="C775" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D775" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E775" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F775" t="s">
-        <v>1122</v>
+        <v>1118</v>
+      </c>
+      <c r="G775" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H775" t="s">
+        <v>1097</v>
       </c>
       <c r="I775" s="1" t="s">
-        <v>518</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="776" spans="1:9">
       <c r="A776" t="s">
         <v>1121</v>
       </c>
-      <c r="B776" t="s">
-        <v>20</v>
-      </c>
       <c r="C776" t="s">
         <v>1085</v>
       </c>
       <c r="D776" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="E776" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F776" t="s">
         <v>1122</v>
       </c>
-      <c r="I776" t="s">
-        <v>788</v>
+      <c r="I776" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="777" spans="1:9">
       <c r="A777" t="s">
         <v>1121</v>
       </c>
-      <c r="B777" s="2"/>
       <c r="C777" t="s">
         <v>1085</v>
       </c>
       <c r="D777" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E777" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F777" t="s">
         <v>1122</v>
       </c>
       <c r="I777" s="1" t="s">
-        <v>1033</v>
+        <v>223</v>
       </c>
     </row>
     <row r="778" spans="1:9">
@@ -17964,113 +17948,115 @@
         <v>1121</v>
       </c>
       <c r="C778" t="s">
-        <v>1123</v>
+        <v>1085</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1090</v>
       </c>
       <c r="E778" t="s">
-        <v>463</v>
+        <v>345</v>
       </c>
       <c r="F778" t="s">
         <v>1122</v>
       </c>
       <c r="I778" s="1" t="s">
-        <v>1124</v>
+        <v>371</v>
       </c>
     </row>
     <row r="779" spans="1:9">
       <c r="A779" t="s">
         <v>1121</v>
       </c>
-      <c r="G779" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H779" t="s">
-        <v>1097</v>
+      <c r="B779" s="2"/>
+      <c r="C779" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1122</v>
       </c>
       <c r="I779" s="1" t="s">
-        <v>1125</v>
+        <v>518</v>
       </c>
     </row>
     <row r="780" spans="1:9">
       <c r="A780" t="s">
-        <v>1126</v>
+        <v>1121</v>
+      </c>
+      <c r="B780" t="s">
+        <v>20</v>
       </c>
       <c r="C780" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D780" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="E780" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="F780" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I780" s="1" t="s">
-        <v>23</v>
+        <v>1122</v>
+      </c>
+      <c r="I780" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="781" spans="1:9">
       <c r="A781" t="s">
-        <v>1126</v>
-      </c>
+        <v>1121</v>
+      </c>
+      <c r="B781" s="2"/>
       <c r="C781" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D781" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="E781" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="F781" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="I781" s="1" t="s">
-        <v>234</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="782" spans="1:9">
       <c r="A782" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C782" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D782" t="s">
-        <v>1104</v>
+        <v>1123</v>
       </c>
       <c r="E782" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="F782" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>371</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="783" spans="1:9">
       <c r="A783" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B783" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C783" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D783" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E783" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F783" t="s">
-        <v>1127</v>
+        <v>1121</v>
+      </c>
+      <c r="G783" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H783" t="s">
+        <v>1097</v>
       </c>
       <c r="I783" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="784" spans="1:9">
@@ -18080,277 +18066,280 @@
       <c r="C784" t="s">
         <v>1100</v>
       </c>
+      <c r="D784" t="s">
+        <v>1101</v>
+      </c>
       <c r="E784" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="F784" t="s">
         <v>1127</v>
       </c>
-      <c r="I784" t="s">
-        <v>1113</v>
+      <c r="I784" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="785" spans="1:9">
       <c r="A785" t="s">
         <v>1126</v>
       </c>
-      <c r="B785" t="s">
-        <v>20</v>
-      </c>
       <c r="C785" t="s">
         <v>1100</v>
       </c>
       <c r="D785" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="E785" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="F785" t="s">
         <v>1127</v>
       </c>
-      <c r="I785" t="s">
-        <v>892</v>
+      <c r="I785" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="786" spans="1:9">
       <c r="A786" t="s">
         <v>1126</v>
       </c>
-      <c r="B786" s="2"/>
       <c r="C786" t="s">
         <v>1100</v>
       </c>
       <c r="D786" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="E786" t="s">
-        <v>1082</v>
+        <v>345</v>
       </c>
       <c r="F786" t="s">
         <v>1127</v>
       </c>
       <c r="I786" s="1" t="s">
-        <v>1129</v>
+        <v>371</v>
       </c>
     </row>
     <row r="787" spans="1:9">
       <c r="A787" t="s">
-        <v>1130</v>
+        <v>1126</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C787" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D787" t="s">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="E787" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F787" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="I787" s="1" t="s">
-        <v>75</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="788" spans="1:9">
       <c r="A788" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C788" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D788" t="s">
-        <v>1089</v>
+        <v>1100</v>
       </c>
       <c r="E788" t="s">
-        <v>1075</v>
+        <v>1112</v>
       </c>
       <c r="F788" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I788" s="1" t="s">
-        <v>225</v>
+        <v>1127</v>
+      </c>
+      <c r="I788" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="789" spans="1:9">
       <c r="A789" t="s">
-        <v>1130</v>
+        <v>1126</v>
+      </c>
+      <c r="B789" t="s">
+        <v>20</v>
       </c>
       <c r="C789" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D789" t="s">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="E789" t="s">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="F789" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I789" s="1" t="s">
-        <v>371</v>
+        <v>1127</v>
+      </c>
+      <c r="I789" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="790" spans="1:9">
       <c r="A790" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="B790" s="2"/>
       <c r="C790" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="D790" t="s">
-        <v>1092</v>
+        <v>1107</v>
       </c>
       <c r="E790" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F790" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="I790" s="1" t="s">
-        <v>519</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="791" spans="1:9">
       <c r="A791" t="s">
         <v>1130</v>
       </c>
-      <c r="B791" t="s">
-        <v>20</v>
-      </c>
       <c r="C791" t="s">
         <v>1085</v>
       </c>
       <c r="D791" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="E791" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F791" t="s">
         <v>1131</v>
       </c>
-      <c r="I791" t="s">
-        <v>788</v>
+      <c r="I791" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="792" spans="1:9">
       <c r="A792" t="s">
         <v>1130</v>
       </c>
-      <c r="B792" s="2"/>
       <c r="C792" t="s">
         <v>1085</v>
       </c>
       <c r="D792" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E792" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F792" t="s">
         <v>1131</v>
       </c>
       <c r="I792" s="1" t="s">
-        <v>1033</v>
+        <v>225</v>
       </c>
     </row>
     <row r="793" spans="1:9">
       <c r="A793" t="s">
         <v>1130</v>
       </c>
-      <c r="G793" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H793" t="s">
-        <v>1097</v>
+      <c r="C793" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E793" t="s">
+        <v>345</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1131</v>
       </c>
       <c r="I793" s="1" t="s">
-        <v>1132</v>
+        <v>371</v>
       </c>
     </row>
     <row r="794" spans="1:9">
       <c r="A794" t="s">
-        <v>1133</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="B794" s="2"/>
       <c r="C794" t="s">
         <v>1085</v>
       </c>
       <c r="D794" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="E794" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F794" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I794" s="1" t="s">
-        <v>23</v>
+        <v>519</v>
       </c>
     </row>
     <row r="795" spans="1:9">
       <c r="A795" t="s">
-        <v>1133</v>
+        <v>1130</v>
+      </c>
+      <c r="B795" t="s">
+        <v>20</v>
       </c>
       <c r="C795" t="s">
         <v>1085</v>
       </c>
       <c r="D795" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="E795" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F795" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I795" s="1" t="s">
-        <v>240</v>
+        <v>1131</v>
+      </c>
+      <c r="I795" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="796" spans="1:9">
       <c r="A796" t="s">
-        <v>1133</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="B796" s="2"/>
       <c r="C796" t="s">
         <v>1085</v>
       </c>
       <c r="D796" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="E796" t="s">
-        <v>345</v>
+        <v>1082</v>
       </c>
       <c r="F796" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I796" s="1" t="s">
-        <v>371</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="797" spans="1:9">
       <c r="A797" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C797" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D797" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E797" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F797" t="s">
-        <v>1134</v>
+        <v>1130</v>
+      </c>
+      <c r="G797" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H797" t="s">
+        <v>1097</v>
       </c>
       <c r="I797" s="1" t="s">
-        <v>527</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="798" spans="1:9">
@@ -18361,16 +18350,16 @@
         <v>1085</v>
       </c>
       <c r="D798" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="E798" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F798" t="s">
         <v>1134</v>
       </c>
-      <c r="I798" t="s">
-        <v>788</v>
+      <c r="I798" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="799" spans="1:9">
@@ -18381,155 +18370,150 @@
         <v>1085</v>
       </c>
       <c r="D799" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E799" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F799" t="s">
         <v>1134</v>
       </c>
       <c r="I799" s="1" t="s">
-        <v>1033</v>
+        <v>240</v>
       </c>
     </row>
     <row r="800" spans="1:9">
       <c r="A800" t="s">
         <v>1133</v>
       </c>
-      <c r="G800" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H800" t="s">
-        <v>1097</v>
+      <c r="C800" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E800" t="s">
+        <v>345</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1134</v>
       </c>
       <c r="I800" s="1" t="s">
-        <v>1135</v>
+        <v>371</v>
       </c>
     </row>
     <row r="801" spans="1:9">
       <c r="A801" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C801" t="s">
-        <v>1137</v>
+        <v>1085</v>
       </c>
       <c r="D801" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="E801" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F801" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I801" t="s">
-        <v>35</v>
+        <v>1134</v>
+      </c>
+      <c r="I801" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="802" spans="1:9">
       <c r="A802" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C802" t="s">
-        <v>1137</v>
+        <v>1085</v>
       </c>
       <c r="D802" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="E802" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F802" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I802" s="1" t="s">
-        <v>153</v>
+        <v>1134</v>
+      </c>
+      <c r="I802" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="803" spans="1:9">
       <c r="A803" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C803" t="s">
-        <v>1137</v>
+        <v>1085</v>
       </c>
       <c r="D803" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="E803" t="s">
-        <v>345</v>
+        <v>1082</v>
       </c>
       <c r="F803" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I803" t="s">
-        <v>358</v>
+        <v>1134</v>
+      </c>
+      <c r="I803" s="1" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="804" spans="1:9">
       <c r="A804" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B804" s="2"/>
-      <c r="C804" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D804" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E804" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F804" t="s">
-        <v>1138</v>
-      </c>
-      <c r="I804" t="s">
-        <v>434</v>
+        <v>1133</v>
+      </c>
+      <c r="G804" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H804" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I804" s="1" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="805" spans="1:9">
       <c r="A805" t="s">
         <v>1136</v>
       </c>
-      <c r="B805" t="s">
-        <v>20</v>
-      </c>
       <c r="C805" t="s">
         <v>1137</v>
       </c>
       <c r="D805" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="E805" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F805" t="s">
         <v>1138</v>
       </c>
       <c r="I805" t="s">
-        <v>436</v>
+        <v>35</v>
       </c>
     </row>
     <row r="806" spans="1:9">
       <c r="A806" t="s">
         <v>1136</v>
       </c>
-      <c r="B806" s="2"/>
       <c r="C806" t="s">
         <v>1137</v>
       </c>
       <c r="D806" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E806" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F806" t="s">
         <v>1138</v>
       </c>
-      <c r="I806" t="s">
-        <v>1139</v>
+      <c r="I806" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="807" spans="1:9">
@@ -18537,50 +18521,63 @@
         <v>1136</v>
       </c>
       <c r="C807" t="s">
-        <v>1140</v>
+        <v>1137</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1104</v>
       </c>
       <c r="E807" t="s">
-        <v>1071</v>
+        <v>345</v>
       </c>
       <c r="F807" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I807" t="s">
-        <v>35</v>
+        <v>358</v>
       </c>
     </row>
     <row r="808" spans="1:9">
       <c r="A808" t="s">
         <v>1136</v>
       </c>
+      <c r="B808" s="2"/>
       <c r="C808" t="s">
-        <v>1142</v>
+        <v>1137</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1105</v>
       </c>
       <c r="E808" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="F808" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I808" s="1" t="s">
-        <v>304</v>
+        <v>1138</v>
+      </c>
+      <c r="I808" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="809" spans="1:9">
       <c r="A809" t="s">
         <v>1136</v>
       </c>
+      <c r="B809" t="s">
+        <v>20</v>
+      </c>
       <c r="C809" t="s">
-        <v>1143</v>
+        <v>1137</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1106</v>
       </c>
       <c r="E809" t="s">
-        <v>345</v>
+        <v>1080</v>
       </c>
       <c r="F809" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I809" t="s">
-        <v>1144</v>
+        <v>436</v>
       </c>
     </row>
     <row r="810" spans="1:9">
@@ -18589,139 +18586,140 @@
       </c>
       <c r="B810" s="2"/>
       <c r="C810" t="s">
-        <v>1145</v>
+        <v>1137</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1107</v>
       </c>
       <c r="E810" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F810" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="I810" t="s">
-        <v>432</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="811" spans="1:9">
       <c r="A811" t="s">
         <v>1136</v>
       </c>
-      <c r="B811" t="s">
-        <v>20</v>
-      </c>
       <c r="C811" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="E811" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F811" t="s">
         <v>1141</v>
       </c>
       <c r="I811" t="s">
-        <v>422</v>
+        <v>35</v>
       </c>
     </row>
     <row r="812" spans="1:9">
       <c r="A812" t="s">
         <v>1136</v>
       </c>
-      <c r="B812" s="2"/>
       <c r="C812" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E812" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F812" t="s">
         <v>1141</v>
       </c>
-      <c r="I812" t="s">
-        <v>1083</v>
+      <c r="I812" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9">
+      <c r="A813" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E813" t="s">
+        <v>345</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I813" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="814" spans="1:9">
       <c r="A814" t="s">
-        <v>1148</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="B814" s="2"/>
       <c r="C814" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E814" t="s">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="F814" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="I814" t="s">
-        <v>35</v>
+        <v>432</v>
       </c>
     </row>
     <row r="815" spans="1:9">
       <c r="A815" t="s">
-        <v>1148</v>
+        <v>1136</v>
+      </c>
+      <c r="B815" t="s">
+        <v>20</v>
       </c>
       <c r="C815" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E815" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="F815" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I815" s="1" t="s">
-        <v>335</v>
+        <v>1141</v>
+      </c>
+      <c r="I815" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="816" spans="1:9">
       <c r="A816" t="s">
-        <v>1148</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="B816" s="2"/>
       <c r="C816" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="E816" t="s">
-        <v>345</v>
+        <v>1082</v>
       </c>
       <c r="F816" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="I816" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="817" spans="1:9">
-      <c r="A817" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C817" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E817" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F817" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I817" t="s">
-        <v>434</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="818" spans="1:9">
       <c r="A818" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C818" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D818" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="E818" t="s">
         <v>1071</v>
       </c>
       <c r="F818" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="I818" t="s">
         <v>35</v>
@@ -18729,67 +18727,58 @@
     </row>
     <row r="819" spans="1:9">
       <c r="A819" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C819" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D819" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="E819" t="s">
         <v>1075</v>
       </c>
       <c r="F819" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>1160</v>
+        <v>335</v>
       </c>
     </row>
     <row r="820" spans="1:9">
       <c r="A820" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C820" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D820" t="s">
-        <v>1161</v>
+        <v>1152</v>
       </c>
       <c r="E820" t="s">
         <v>345</v>
       </c>
       <c r="F820" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="I820" t="s">
-        <v>1144</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="821" spans="1:9">
       <c r="A821" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C821" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D821" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="E821" t="s">
         <v>1078</v>
       </c>
       <c r="F821" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="I821" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
     </row>
     <row r="822" spans="1:9">
       <c r="A822" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C822" t="s">
         <v>1156</v>
@@ -18801,15 +18790,15 @@
         <v>1071</v>
       </c>
       <c r="F822" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I822" s="1" t="s">
-        <v>92</v>
+        <v>1158</v>
+      </c>
+      <c r="I822" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="823" spans="1:9">
       <c r="A823" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C823" t="s">
         <v>1156</v>
@@ -18821,15 +18810,15 @@
         <v>1075</v>
       </c>
       <c r="F823" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>203</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="824" spans="1:9">
       <c r="A824" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C824" t="s">
         <v>1156</v>
@@ -18841,15 +18830,15 @@
         <v>345</v>
       </c>
       <c r="F824" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I824" s="1" t="s">
-        <v>1165</v>
+        <v>1158</v>
+      </c>
+      <c r="I824" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="825" spans="1:9">
       <c r="A825" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C825" t="s">
         <v>1156</v>
@@ -18861,278 +18850,278 @@
         <v>1078</v>
       </c>
       <c r="F825" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I825" s="1" t="s">
-        <v>572</v>
+        <v>1158</v>
+      </c>
+      <c r="I825" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="826" spans="1:9">
       <c r="A826" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C826" t="s">
-        <v>1085</v>
+        <v>1156</v>
       </c>
       <c r="D826" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="E826" t="s">
         <v>1071</v>
       </c>
       <c r="F826" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>1169</v>
+        <v>92</v>
       </c>
     </row>
     <row r="827" spans="1:9">
       <c r="A827" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C827" t="s">
-        <v>1085</v>
+        <v>1156</v>
       </c>
       <c r="D827" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="E827" t="s">
         <v>1075</v>
       </c>
       <c r="F827" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>1171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="828" spans="1:9">
       <c r="A828" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C828" t="s">
-        <v>1085</v>
+        <v>1156</v>
       </c>
       <c r="D828" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="E828" t="s">
         <v>345</v>
       </c>
       <c r="F828" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="829" spans="1:9">
       <c r="A829" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C829" t="s">
-        <v>1085</v>
+        <v>1156</v>
       </c>
       <c r="D829" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="E829" t="s">
         <v>1078</v>
       </c>
       <c r="F829" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>535</v>
+        <v>572</v>
       </c>
     </row>
     <row r="830" spans="1:9">
       <c r="A830" t="s">
         <v>1166</v>
       </c>
-      <c r="G830" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H830" t="s">
-        <v>1175</v>
+      <c r="C830" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1168</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="831" spans="1:9">
       <c r="A831" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="C831" t="s">
         <v>1085</v>
       </c>
       <c r="D831" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="E831" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="F831" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>23</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="832" spans="1:9">
       <c r="A832" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="C832" t="s">
         <v>1085</v>
       </c>
       <c r="D832" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="E832" t="s">
-        <v>1075</v>
+        <v>345</v>
       </c>
       <c r="F832" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>225</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="833" spans="1:9">
       <c r="A833" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="C833" t="s">
         <v>1085</v>
       </c>
       <c r="D833" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="E833" t="s">
-        <v>345</v>
+        <v>1078</v>
       </c>
       <c r="F833" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>1179</v>
+        <v>535</v>
       </c>
     </row>
     <row r="834" spans="1:9">
       <c r="A834" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C834" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D834" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E834" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F834" t="s">
-        <v>1178</v>
+        <v>1166</v>
+      </c>
+      <c r="G834" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H834" t="s">
+        <v>1175</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>527</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="835" spans="1:9">
       <c r="A835" t="s">
         <v>1177</v>
       </c>
-      <c r="G835" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H835" t="s">
-        <v>1175</v>
+      <c r="C835" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1178</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>1180</v>
+        <v>23</v>
       </c>
     </row>
     <row r="836" spans="1:9">
       <c r="A836" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C836" t="s">
-        <v>1182</v>
+        <v>1085</v>
       </c>
       <c r="D836" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
       <c r="E836" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="F836" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I836" t="s">
-        <v>35</v>
+        <v>1178</v>
+      </c>
+      <c r="I836" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="837" spans="1:9">
       <c r="A837" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C837" t="s">
-        <v>1182</v>
+        <v>1085</v>
       </c>
       <c r="D837" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
       <c r="E837" t="s">
-        <v>1075</v>
+        <v>345</v>
       </c>
       <c r="F837" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>171</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="838" spans="1:9">
       <c r="A838" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C838" t="s">
-        <v>1182</v>
+        <v>1085</v>
       </c>
       <c r="D838" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
       <c r="E838" t="s">
-        <v>345</v>
+        <v>1078</v>
       </c>
       <c r="F838" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I838" t="s">
-        <v>358</v>
+        <v>1178</v>
+      </c>
+      <c r="I838" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="839" spans="1:9">
       <c r="A839" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C839" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D839" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E839" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F839" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I839" t="s">
-        <v>412</v>
+        <v>1177</v>
+      </c>
+      <c r="G839" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I839" s="1" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="840" spans="1:9">
@@ -19140,16 +19129,19 @@
         <v>1181</v>
       </c>
       <c r="C840" t="s">
-        <v>1184</v>
+        <v>1182</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1157</v>
       </c>
       <c r="E840" t="s">
         <v>1071</v>
       </c>
       <c r="F840" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I840" t="s">
-        <v>1073</v>
+        <v>35</v>
       </c>
     </row>
     <row r="841" spans="1:9">
@@ -19157,16 +19149,19 @@
         <v>1181</v>
       </c>
       <c r="C841" t="s">
-        <v>1186</v>
+        <v>1182</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1159</v>
       </c>
       <c r="E841" t="s">
         <v>1075</v>
       </c>
       <c r="F841" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I841" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="842" spans="1:9">
@@ -19174,16 +19169,19 @@
         <v>1181</v>
       </c>
       <c r="C842" t="s">
-        <v>1187</v>
+        <v>1182</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1161</v>
       </c>
       <c r="E842" t="s">
         <v>345</v>
       </c>
       <c r="F842" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I842" t="s">
-        <v>1188</v>
+        <v>358</v>
       </c>
     </row>
     <row r="843" spans="1:9">
@@ -19191,107 +19189,104 @@
         <v>1181</v>
       </c>
       <c r="C843" t="s">
-        <v>1189</v>
+        <v>1182</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1162</v>
       </c>
       <c r="E843" t="s">
         <v>1078</v>
       </c>
       <c r="F843" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I843" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9">
+      <c r="A844" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F844" t="s">
         <v>1185</v>
       </c>
-      <c r="I843" t="s">
-        <v>427</v>
+      <c r="I844" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="845" spans="1:9">
       <c r="A845" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C845" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="E845" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="F845" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I845" t="s">
-        <v>1193</v>
+        <v>1185</v>
+      </c>
+      <c r="I845" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="846" spans="1:9">
       <c r="A846" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C846" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="E846" t="s">
-        <v>1075</v>
+        <v>345</v>
       </c>
       <c r="F846" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I846" s="1" t="s">
-        <v>304</v>
+        <v>1185</v>
+      </c>
+      <c r="I846" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="847" spans="1:9">
       <c r="A847" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C847" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="E847" t="s">
-        <v>345</v>
+        <v>1078</v>
       </c>
       <c r="F847" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I847" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="848" spans="1:9">
-      <c r="A848" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B848" t="s">
-        <v>20</v>
-      </c>
-      <c r="C848" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E848" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F848" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I848" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="849" spans="1:9">
       <c r="A849" t="s">
         <v>1190</v>
       </c>
-      <c r="B849" t="s">
-        <v>20</v>
-      </c>
       <c r="C849" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="E849" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F849" t="s">
         <v>1192</v>
       </c>
       <c r="I849" t="s">
-        <v>436</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="850" spans="1:9">
@@ -19299,16 +19294,16 @@
         <v>1190</v>
       </c>
       <c r="C850" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E850" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F850" t="s">
         <v>1192</v>
       </c>
-      <c r="I850" t="s">
-        <v>962</v>
+      <c r="I850" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -19316,16 +19311,16 @@
         <v>1190</v>
       </c>
       <c r="C851" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E851" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F851" t="s">
         <v>1192</v>
       </c>
       <c r="I851" t="s">
-        <v>991</v>
+        <v>352</v>
       </c>
     </row>
     <row r="852" spans="1:9">
@@ -19336,165 +19331,153 @@
         <v>20</v>
       </c>
       <c r="C852" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="E852" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F852" t="s">
         <v>1192</v>
       </c>
       <c r="I852" t="s">
-        <v>1025</v>
+        <v>432</v>
       </c>
     </row>
     <row r="853" spans="1:9">
       <c r="A853" t="s">
         <v>1190</v>
       </c>
+      <c r="B853" t="s">
+        <v>20</v>
+      </c>
       <c r="C853" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D853" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="E853" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F853" t="s">
         <v>1192</v>
       </c>
       <c r="I853" t="s">
-        <v>1206</v>
+        <v>436</v>
       </c>
     </row>
     <row r="854" spans="1:9">
       <c r="A854" t="s">
         <v>1190</v>
       </c>
-      <c r="B854" t="s">
-        <v>20</v>
-      </c>
       <c r="C854" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D854" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="E854" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F854" t="s">
         <v>1192</v>
       </c>
       <c r="I854" t="s">
-        <v>1208</v>
+        <v>962</v>
       </c>
     </row>
     <row r="855" spans="1:9">
       <c r="A855" t="s">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="C855" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D855" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="E855" t="s">
-        <v>1071</v>
+        <v>1201</v>
       </c>
       <c r="F855" t="s">
-        <v>1212</v>
+        <v>1192</v>
       </c>
       <c r="I855" t="s">
-        <v>1193</v>
+        <v>991</v>
       </c>
     </row>
     <row r="856" spans="1:9">
       <c r="A856" t="s">
-        <v>1209</v>
+        <v>1190</v>
+      </c>
+      <c r="B856" t="s">
+        <v>20</v>
       </c>
       <c r="C856" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D856" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="E856" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="F856" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I856" s="1" t="s">
-        <v>153</v>
+        <v>1192</v>
+      </c>
+      <c r="I856" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="857" spans="1:9">
       <c r="A857" t="s">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="C857" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D857" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="E857" t="s">
-        <v>345</v>
+        <v>1205</v>
       </c>
       <c r="F857" t="s">
-        <v>1212</v>
+        <v>1192</v>
       </c>
       <c r="I857" t="s">
-        <v>1188</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="858" spans="1:9">
       <c r="A858" t="s">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="B858" t="s">
         <v>20</v>
       </c>
       <c r="C858" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D858" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="E858" t="s">
-        <v>1078</v>
+        <v>1207</v>
       </c>
       <c r="F858" t="s">
-        <v>1212</v>
+        <v>1192</v>
       </c>
       <c r="I858" t="s">
-        <v>419</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="859" spans="1:9">
       <c r="A859" t="s">
         <v>1209</v>
       </c>
-      <c r="B859" t="s">
-        <v>20</v>
-      </c>
       <c r="C859" t="s">
         <v>1210</v>
       </c>
       <c r="D859" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E859" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F859" t="s">
         <v>1212</v>
       </c>
       <c r="I859" t="s">
-        <v>708</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="860" spans="1:9">
@@ -19505,16 +19488,16 @@
         <v>1210</v>
       </c>
       <c r="D860" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="E860" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F860" t="s">
         <v>1212</v>
       </c>
-      <c r="I860" t="s">
-        <v>962</v>
+      <c r="I860" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="861" spans="1:9">
@@ -19525,16 +19508,16 @@
         <v>1210</v>
       </c>
       <c r="D861" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E861" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F861" t="s">
         <v>1212</v>
       </c>
       <c r="I861" t="s">
-        <v>991</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="862" spans="1:9">
@@ -19548,182 +19531,182 @@
         <v>1210</v>
       </c>
       <c r="D862" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E862" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F862" t="s">
         <v>1212</v>
       </c>
       <c r="I862" t="s">
-        <v>1083</v>
+        <v>419</v>
       </c>
     </row>
     <row r="863" spans="1:9">
       <c r="A863" t="s">
         <v>1209</v>
       </c>
+      <c r="B863" t="s">
+        <v>20</v>
+      </c>
       <c r="C863" t="s">
         <v>1210</v>
       </c>
       <c r="D863" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E863" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F863" t="s">
         <v>1212</v>
       </c>
       <c r="I863" t="s">
-        <v>1206</v>
+        <v>708</v>
       </c>
     </row>
     <row r="864" spans="1:9">
       <c r="A864" t="s">
         <v>1209</v>
       </c>
-      <c r="B864" t="s">
-        <v>20</v>
-      </c>
       <c r="C864" t="s">
         <v>1210</v>
       </c>
       <c r="D864" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E864" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F864" t="s">
         <v>1212</v>
       </c>
       <c r="I864" t="s">
-        <v>1208</v>
+        <v>962</v>
       </c>
     </row>
     <row r="865" spans="1:9">
       <c r="A865" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B865" t="s">
-        <v>20</v>
+        <v>1209</v>
       </c>
       <c r="C865" t="s">
-        <v>252</v>
+        <v>1210</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1218</v>
       </c>
       <c r="E865" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I865" s="1" t="s">
-        <v>1222</v>
+        <v>1201</v>
+      </c>
+      <c r="F865" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I865" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="866" spans="1:9">
       <c r="A866" t="s">
-        <v>1223</v>
+        <v>1209</v>
+      </c>
+      <c r="B866" t="s">
+        <v>20</v>
       </c>
       <c r="C866" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
       <c r="D866" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="E866" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="F866" t="s">
-        <v>1225</v>
-      </c>
-      <c r="I866" s="1" t="s">
-        <v>1088</v>
+        <v>1212</v>
+      </c>
+      <c r="I866" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="867" spans="1:9">
       <c r="A867" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="C867" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
       <c r="D867" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E867" t="s">
-        <v>1075</v>
+        <v>1205</v>
       </c>
       <c r="F867" t="s">
-        <v>1225</v>
-      </c>
-      <c r="I867" s="1" t="s">
-        <v>1227</v>
+        <v>1212</v>
+      </c>
+      <c r="I867" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="868" spans="1:9">
       <c r="A868" t="s">
-        <v>1223</v>
+        <v>1209</v>
+      </c>
+      <c r="B868" t="s">
+        <v>20</v>
       </c>
       <c r="C868" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
       <c r="D868" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="E868" t="s">
-        <v>345</v>
+        <v>1207</v>
       </c>
       <c r="F868" t="s">
-        <v>1225</v>
-      </c>
-      <c r="I868" s="1" t="s">
-        <v>1229</v>
+        <v>1212</v>
+      </c>
+      <c r="I868" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="869" spans="1:9">
       <c r="A869" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B869" t="s">
         <v>20</v>
       </c>
       <c r="C869" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D869" t="s">
-        <v>1230</v>
+        <v>252</v>
       </c>
       <c r="E869" t="s">
         <v>1078</v>
       </c>
-      <c r="F869" t="s">
-        <v>1225</v>
-      </c>
       <c r="I869" s="1" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="870" spans="1:9">
       <c r="A870" t="s">
         <v>1223</v>
       </c>
-      <c r="B870" t="s">
-        <v>20</v>
-      </c>
       <c r="C870" t="s">
         <v>1085</v>
       </c>
       <c r="D870" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="E870" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F870" t="s">
         <v>1225</v>
       </c>
-      <c r="I870" t="s">
-        <v>855</v>
+      <c r="I870" s="1" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="871" spans="1:9">
@@ -19734,16 +19717,16 @@
         <v>1085</v>
       </c>
       <c r="D871" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="E871" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F871" t="s">
         <v>1225</v>
       </c>
-      <c r="I871" t="s">
-        <v>962</v>
+      <c r="I871" s="1" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="872" spans="1:9">
@@ -19754,16 +19737,16 @@
         <v>1085</v>
       </c>
       <c r="D872" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E872" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F872" t="s">
         <v>1225</v>
       </c>
-      <c r="I872" t="s">
-        <v>1001</v>
+      <c r="I872" s="1" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="873" spans="1:9">
@@ -19777,225 +19760,225 @@
         <v>1085</v>
       </c>
       <c r="D873" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E873" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F873" t="s">
         <v>1225</v>
       </c>
       <c r="I873" s="1" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="874" spans="1:9">
       <c r="A874" t="s">
         <v>1223</v>
       </c>
+      <c r="B874" t="s">
+        <v>20</v>
+      </c>
       <c r="C874" t="s">
         <v>1085</v>
       </c>
       <c r="D874" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="E874" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F874" t="s">
         <v>1225</v>
       </c>
-      <c r="I874" s="1" t="s">
-        <v>1238</v>
+      <c r="I874" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="875" spans="1:9">
       <c r="A875" t="s">
         <v>1223</v>
       </c>
-      <c r="B875" t="s">
-        <v>20</v>
-      </c>
       <c r="C875" t="s">
         <v>1085</v>
       </c>
       <c r="D875" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E875" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F875" t="s">
         <v>1225</v>
       </c>
       <c r="I875" t="s">
-        <v>1239</v>
+        <v>962</v>
       </c>
     </row>
     <row r="876" spans="1:9">
       <c r="A876" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B876" t="s">
-        <v>20</v>
+        <v>1223</v>
       </c>
       <c r="C876" t="s">
-        <v>1241</v>
+        <v>1085</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1234</v>
       </c>
       <c r="E876" t="s">
-        <v>965</v>
+        <v>1201</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1225</v>
       </c>
       <c r="I876" t="s">
-        <v>962</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="877" spans="1:9">
       <c r="A877" t="s">
-        <v>1242</v>
+        <v>1223</v>
+      </c>
+      <c r="B877" t="s">
+        <v>20</v>
       </c>
       <c r="C877" t="s">
-        <v>1243</v>
+        <v>1085</v>
       </c>
       <c r="D877" t="s">
-        <v>1244</v>
+        <v>1235</v>
       </c>
       <c r="E877" t="s">
-        <v>1205</v>
+        <v>1082</v>
       </c>
       <c r="F877" t="s">
-        <v>1245</v>
+        <v>1225</v>
       </c>
       <c r="I877" s="1" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="878" spans="1:9">
       <c r="A878" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B878" t="s">
-        <v>20</v>
+        <v>1223</v>
       </c>
       <c r="C878" t="s">
-        <v>1243</v>
+        <v>1085</v>
       </c>
       <c r="D878" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="E878" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F878" t="s">
-        <v>1245</v>
-      </c>
-      <c r="I878" t="s">
-        <v>1239</v>
+        <v>1225</v>
+      </c>
+      <c r="I878" s="1" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="879" spans="1:9">
       <c r="A879" t="s">
-        <v>1247</v>
+        <v>1223</v>
+      </c>
+      <c r="B879" t="s">
+        <v>20</v>
       </c>
       <c r="C879" t="s">
         <v>1085</v>
       </c>
       <c r="D879" t="s">
-        <v>1224</v>
+        <v>1237</v>
       </c>
       <c r="E879" t="s">
-        <v>1071</v>
+        <v>1207</v>
       </c>
       <c r="F879" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I879" s="1" t="s">
-        <v>1249</v>
+        <v>1225</v>
+      </c>
+      <c r="I879" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="880" spans="1:9">
       <c r="A880" t="s">
-        <v>1247</v>
+        <v>1240</v>
+      </c>
+      <c r="B880" t="s">
+        <v>20</v>
       </c>
       <c r="C880" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D880" t="s">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="E880" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F880" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I880" s="1" t="s">
-        <v>1250</v>
+        <v>965</v>
+      </c>
+      <c r="I880" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="881" spans="1:9">
       <c r="A881" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C881" t="s">
-        <v>1085</v>
+        <v>1243</v>
       </c>
       <c r="D881" t="s">
-        <v>1228</v>
+        <v>1244</v>
       </c>
       <c r="E881" t="s">
-        <v>345</v>
+        <v>1205</v>
       </c>
       <c r="F881" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I881" s="1" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="882" spans="1:9">
       <c r="A882" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="B882" t="s">
         <v>20</v>
       </c>
       <c r="C882" t="s">
-        <v>1085</v>
+        <v>1243</v>
       </c>
       <c r="D882" t="s">
-        <v>1230</v>
+        <v>1244</v>
       </c>
       <c r="E882" t="s">
-        <v>1078</v>
+        <v>1207</v>
       </c>
       <c r="F882" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I882" s="1" t="s">
-        <v>543</v>
+        <v>1245</v>
+      </c>
+      <c r="I882" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="883" spans="1:9">
       <c r="A883" t="s">
         <v>1247</v>
       </c>
-      <c r="B883" t="s">
-        <v>20</v>
-      </c>
       <c r="C883" t="s">
         <v>1085</v>
       </c>
       <c r="D883" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="E883" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F883" t="s">
         <v>1248</v>
       </c>
-      <c r="I883" t="s">
-        <v>841</v>
+      <c r="I883" s="1" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="884" spans="1:9">
@@ -20006,16 +19989,16 @@
         <v>1085</v>
       </c>
       <c r="D884" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="E884" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F884" t="s">
         <v>1248</v>
       </c>
-      <c r="I884" t="s">
-        <v>962</v>
+      <c r="I884" s="1" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="885" spans="1:9">
@@ -20026,16 +20009,16 @@
         <v>1085</v>
       </c>
       <c r="D885" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E885" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F885" t="s">
         <v>1248</v>
       </c>
-      <c r="I885" t="s">
-        <v>995</v>
+      <c r="I885" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="886" spans="1:9">
@@ -20049,139 +20032,145 @@
         <v>1085</v>
       </c>
       <c r="D886" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E886" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F886" t="s">
         <v>1248</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>1236</v>
+        <v>543</v>
       </c>
     </row>
     <row r="887" spans="1:9">
       <c r="A887" t="s">
         <v>1247</v>
       </c>
+      <c r="B887" t="s">
+        <v>20</v>
+      </c>
       <c r="C887" t="s">
         <v>1085</v>
       </c>
       <c r="D887" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="E887" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F887" t="s">
         <v>1248</v>
       </c>
-      <c r="I887" s="1" t="s">
-        <v>1252</v>
+      <c r="I887" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="888" spans="1:9">
       <c r="A888" t="s">
         <v>1247</v>
       </c>
-      <c r="B888" t="s">
-        <v>20</v>
-      </c>
       <c r="C888" t="s">
         <v>1085</v>
       </c>
       <c r="D888" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E888" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F888" t="s">
         <v>1248</v>
       </c>
       <c r="I888" t="s">
-        <v>1253</v>
+        <v>962</v>
       </c>
     </row>
     <row r="889" spans="1:9">
       <c r="A889" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C889" t="s">
         <v>1085</v>
       </c>
       <c r="D889" t="s">
-        <v>1224</v>
+        <v>1234</v>
       </c>
       <c r="E889" t="s">
-        <v>1071</v>
+        <v>1201</v>
       </c>
       <c r="F889" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I889" s="1" t="s">
-        <v>90</v>
+        <v>1248</v>
+      </c>
+      <c r="I889" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="890" spans="1:9">
       <c r="A890" t="s">
-        <v>1254</v>
+        <v>1247</v>
+      </c>
+      <c r="B890" t="s">
+        <v>20</v>
       </c>
       <c r="C890" t="s">
         <v>1085</v>
       </c>
       <c r="D890" t="s">
-        <v>1226</v>
+        <v>1235</v>
       </c>
       <c r="E890" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="F890" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="I890" s="1" t="s">
-        <v>1256</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="891" spans="1:9">
       <c r="A891" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C891" t="s">
         <v>1085</v>
       </c>
       <c r="D891" t="s">
-        <v>1228</v>
+        <v>1237</v>
       </c>
       <c r="E891" t="s">
-        <v>345</v>
+        <v>1205</v>
       </c>
       <c r="F891" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="I891" s="1" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="892" spans="1:9">
       <c r="A892" t="s">
-        <v>1254</v>
+        <v>1247</v>
+      </c>
+      <c r="B892" t="s">
+        <v>20</v>
       </c>
       <c r="C892" t="s">
         <v>1085</v>
       </c>
       <c r="D892" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="E892" t="s">
-        <v>1078</v>
+        <v>1207</v>
       </c>
       <c r="F892" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I892" s="1" t="s">
-        <v>584</v>
+        <v>1248</v>
+      </c>
+      <c r="I892" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="893" spans="1:9">
@@ -20192,16 +20181,16 @@
         <v>1085</v>
       </c>
       <c r="D893" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="E893" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F893" t="s">
         <v>1255</v>
       </c>
-      <c r="I893" t="s">
-        <v>841</v>
+      <c r="I893" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="894" spans="1:9">
@@ -20212,16 +20201,16 @@
         <v>1085</v>
       </c>
       <c r="D894" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="E894" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F894" t="s">
         <v>1255</v>
       </c>
-      <c r="I894" t="s">
-        <v>962</v>
+      <c r="I894" s="1" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="895" spans="1:9">
@@ -20232,16 +20221,16 @@
         <v>1085</v>
       </c>
       <c r="D895" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E895" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F895" t="s">
         <v>1255</v>
       </c>
-      <c r="I895" t="s">
-        <v>995</v>
+      <c r="I895" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="896" spans="1:9">
@@ -20252,16 +20241,16 @@
         <v>1085</v>
       </c>
       <c r="D896" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E896" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F896" t="s">
         <v>1255</v>
       </c>
       <c r="I896" s="1" t="s">
-        <v>1258</v>
+        <v>584</v>
       </c>
     </row>
     <row r="897" spans="1:9">
@@ -20272,122 +20261,116 @@
         <v>1085</v>
       </c>
       <c r="D897" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="E897" t="s">
-        <v>1259</v>
+        <v>1080</v>
       </c>
       <c r="F897" t="s">
         <v>1255</v>
       </c>
-      <c r="I897" s="1" t="s">
-        <v>1260</v>
+      <c r="I897" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="898" spans="1:9">
       <c r="A898" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C898" t="s">
-        <v>1210</v>
+        <v>1085</v>
       </c>
       <c r="D898" t="s">
-        <v>1211</v>
+        <v>1233</v>
       </c>
       <c r="E898" t="s">
-        <v>1071</v>
+        <v>1199</v>
       </c>
       <c r="F898" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I898" s="1" t="s">
-        <v>92</v>
+        <v>1255</v>
+      </c>
+      <c r="I898" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="899" spans="1:9">
       <c r="A899" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C899" t="s">
-        <v>1210</v>
+        <v>1085</v>
       </c>
       <c r="D899" t="s">
-        <v>1213</v>
+        <v>1234</v>
       </c>
       <c r="E899" t="s">
-        <v>1075</v>
+        <v>1201</v>
       </c>
       <c r="F899" t="s">
-        <v>1262</v>
-      </c>
-      <c r="I899" s="1" t="s">
-        <v>270</v>
+        <v>1255</v>
+      </c>
+      <c r="I899" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="900" spans="1:9">
       <c r="A900" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C900" t="s">
-        <v>1210</v>
+        <v>1085</v>
       </c>
       <c r="D900" t="s">
-        <v>1214</v>
+        <v>1235</v>
       </c>
       <c r="E900" t="s">
-        <v>345</v>
+        <v>1082</v>
       </c>
       <c r="F900" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="I900" s="1" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="901" spans="1:9">
       <c r="A901" t="s">
-        <v>1261</v>
-      </c>
-      <c r="B901" t="s">
-        <v>20</v>
+        <v>1254</v>
       </c>
       <c r="C901" t="s">
-        <v>1210</v>
+        <v>1085</v>
       </c>
       <c r="D901" t="s">
-        <v>1215</v>
+        <v>1237</v>
       </c>
       <c r="E901" t="s">
-        <v>1078</v>
+        <v>1259</v>
       </c>
       <c r="F901" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="I901" s="1" t="s">
-        <v>608</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="902" spans="1:9">
       <c r="A902" t="s">
         <v>1261</v>
       </c>
-      <c r="B902" t="s">
-        <v>20</v>
-      </c>
       <c r="C902" t="s">
         <v>1210</v>
       </c>
       <c r="D902" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E902" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F902" t="s">
         <v>1262</v>
       </c>
-      <c r="I902" t="s">
-        <v>862</v>
+      <c r="I902" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="903" spans="1:9">
@@ -20398,16 +20381,16 @@
         <v>1210</v>
       </c>
       <c r="D903" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="E903" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F903" t="s">
         <v>1262</v>
       </c>
-      <c r="I903" t="s">
-        <v>962</v>
+      <c r="I903" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="904" spans="1:9">
@@ -20418,16 +20401,16 @@
         <v>1210</v>
       </c>
       <c r="D904" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E904" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F904" t="s">
         <v>1262</v>
       </c>
-      <c r="I904" t="s">
-        <v>995</v>
+      <c r="I904" s="1" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="905" spans="1:9">
@@ -20441,165 +20424,165 @@
         <v>1210</v>
       </c>
       <c r="D905" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E905" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F905" t="s">
         <v>1262</v>
       </c>
       <c r="I905" s="1" t="s">
-        <v>1129</v>
+        <v>608</v>
       </c>
     </row>
     <row r="906" spans="1:9">
       <c r="A906" t="s">
         <v>1261</v>
       </c>
+      <c r="B906" t="s">
+        <v>20</v>
+      </c>
       <c r="C906" t="s">
         <v>1210</v>
       </c>
       <c r="D906" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E906" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F906" t="s">
         <v>1262</v>
       </c>
-      <c r="I906" s="1" t="s">
-        <v>1264</v>
+      <c r="I906" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="907" spans="1:9">
       <c r="A907" t="s">
         <v>1261</v>
       </c>
-      <c r="B907" t="s">
-        <v>20</v>
-      </c>
       <c r="C907" t="s">
         <v>1210</v>
       </c>
       <c r="D907" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E907" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F907" t="s">
         <v>1262</v>
       </c>
       <c r="I907" t="s">
-        <v>1239</v>
+        <v>962</v>
       </c>
     </row>
     <row r="908" spans="1:9">
       <c r="A908" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C908" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
       <c r="D908" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="E908" t="s">
-        <v>1071</v>
+        <v>1201</v>
       </c>
       <c r="F908" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I908" s="1" t="s">
-        <v>23</v>
+        <v>1262</v>
+      </c>
+      <c r="I908" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="909" spans="1:9">
       <c r="A909" t="s">
-        <v>1265</v>
+        <v>1261</v>
+      </c>
+      <c r="B909" t="s">
+        <v>20</v>
       </c>
       <c r="C909" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
       <c r="D909" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="E909" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="F909" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="I909" s="1" t="s">
-        <v>1267</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="910" spans="1:9">
       <c r="A910" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C910" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
       <c r="D910" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="E910" t="s">
-        <v>345</v>
+        <v>1205</v>
       </c>
       <c r="F910" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="911" spans="1:9">
       <c r="A911" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="B911" t="s">
         <v>20</v>
       </c>
       <c r="C911" t="s">
-        <v>1085</v>
+        <v>1210</v>
       </c>
       <c r="D911" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="E911" t="s">
-        <v>1078</v>
+        <v>1207</v>
       </c>
       <c r="F911" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I911" s="1" t="s">
-        <v>550</v>
+        <v>1262</v>
+      </c>
+      <c r="I911" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="912" spans="1:9">
       <c r="A912" t="s">
         <v>1265</v>
       </c>
-      <c r="B912" t="s">
-        <v>20</v>
-      </c>
       <c r="C912" t="s">
         <v>1085</v>
       </c>
       <c r="D912" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="E912" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F912" t="s">
         <v>1266</v>
       </c>
-      <c r="I912" t="s">
-        <v>841</v>
+      <c r="I912" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="913" spans="1:9">
@@ -20610,16 +20593,16 @@
         <v>1085</v>
       </c>
       <c r="D913" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
       <c r="E913" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F913" t="s">
         <v>1266</v>
       </c>
-      <c r="I913" t="s">
-        <v>962</v>
+      <c r="I913" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="914" spans="1:9">
@@ -20630,16 +20613,16 @@
         <v>1085</v>
       </c>
       <c r="D914" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E914" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F914" t="s">
         <v>1266</v>
       </c>
-      <c r="I914" t="s">
-        <v>995</v>
+      <c r="I914" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="915" spans="1:9">
@@ -20653,182 +20636,182 @@
         <v>1085</v>
       </c>
       <c r="D915" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E915" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F915" t="s">
         <v>1266</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>1258</v>
+        <v>550</v>
       </c>
     </row>
     <row r="916" spans="1:9">
       <c r="A916" t="s">
         <v>1265</v>
       </c>
+      <c r="B916" t="s">
+        <v>20</v>
+      </c>
       <c r="C916" t="s">
         <v>1085</v>
       </c>
       <c r="D916" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="E916" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F916" t="s">
         <v>1266</v>
       </c>
-      <c r="I916" s="1" t="s">
-        <v>1269</v>
+      <c r="I916" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="917" spans="1:9">
       <c r="A917" t="s">
         <v>1265</v>
       </c>
-      <c r="B917" t="s">
-        <v>20</v>
-      </c>
       <c r="C917" t="s">
         <v>1085</v>
       </c>
       <c r="D917" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="E917" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F917" t="s">
         <v>1266</v>
       </c>
       <c r="I917" t="s">
-        <v>1239</v>
+        <v>962</v>
       </c>
     </row>
     <row r="918" spans="1:9">
       <c r="A918" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B918" t="s">
-        <v>20</v>
+        <v>1265</v>
       </c>
       <c r="C918" t="s">
-        <v>1241</v>
+        <v>1085</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1234</v>
       </c>
       <c r="E918" t="s">
-        <v>965</v>
+        <v>1201</v>
+      </c>
+      <c r="F918" t="s">
+        <v>1266</v>
       </c>
       <c r="I918" t="s">
-        <v>972</v>
+        <v>995</v>
       </c>
     </row>
     <row r="919" spans="1:9">
       <c r="A919" t="s">
-        <v>1271</v>
+        <v>1265</v>
+      </c>
+      <c r="B919" t="s">
+        <v>20</v>
       </c>
       <c r="C919" t="s">
-        <v>1272</v>
+        <v>1085</v>
       </c>
       <c r="D919" t="s">
-        <v>1211</v>
+        <v>1235</v>
       </c>
       <c r="E919" t="s">
-        <v>1071</v>
+        <v>1082</v>
       </c>
       <c r="F919" t="s">
-        <v>1273</v>
-      </c>
-      <c r="I919" t="s">
-        <v>35</v>
+        <v>1266</v>
+      </c>
+      <c r="I919" s="1" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="920" spans="1:9">
       <c r="A920" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="C920" t="s">
-        <v>1272</v>
+        <v>1085</v>
       </c>
       <c r="D920" t="s">
-        <v>1213</v>
+        <v>1237</v>
       </c>
       <c r="E920" t="s">
-        <v>1075</v>
+        <v>1205</v>
       </c>
       <c r="F920" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I920" s="1" t="s">
-        <v>139</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="921" spans="1:9">
       <c r="A921" t="s">
-        <v>1271</v>
+        <v>1265</v>
+      </c>
+      <c r="B921" t="s">
+        <v>20</v>
       </c>
       <c r="C921" t="s">
-        <v>1272</v>
+        <v>1085</v>
       </c>
       <c r="D921" t="s">
-        <v>1214</v>
+        <v>1237</v>
       </c>
       <c r="E921" t="s">
-        <v>345</v>
+        <v>1207</v>
       </c>
       <c r="F921" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="I921" t="s">
-        <v>1188</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="922" spans="1:9">
       <c r="A922" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B922" t="s">
         <v>20</v>
       </c>
       <c r="C922" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D922" t="s">
-        <v>1215</v>
+        <v>1241</v>
       </c>
       <c r="E922" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F922" t="s">
-        <v>1273</v>
+        <v>965</v>
       </c>
       <c r="I922" t="s">
-        <v>412</v>
+        <v>972</v>
       </c>
     </row>
     <row r="923" spans="1:9">
       <c r="A923" t="s">
         <v>1271</v>
       </c>
-      <c r="B923" t="s">
-        <v>20</v>
-      </c>
       <c r="C923" t="s">
         <v>1272</v>
       </c>
       <c r="D923" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="E923" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F923" t="s">
         <v>1273</v>
       </c>
       <c r="I923" t="s">
-        <v>422</v>
+        <v>35</v>
       </c>
     </row>
     <row r="924" spans="1:9">
@@ -20839,16 +20822,16 @@
         <v>1272</v>
       </c>
       <c r="D924" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="E924" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F924" t="s">
         <v>1273</v>
       </c>
-      <c r="I924" t="s">
-        <v>962</v>
+      <c r="I924" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="925" spans="1:9">
@@ -20859,16 +20842,16 @@
         <v>1272</v>
       </c>
       <c r="D925" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E925" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F925" t="s">
         <v>1273</v>
       </c>
       <c r="I925" t="s">
-        <v>991</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="926" spans="1:9">
@@ -20882,59 +20865,59 @@
         <v>1272</v>
       </c>
       <c r="D926" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E926" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F926" t="s">
         <v>1273</v>
       </c>
       <c r="I926" t="s">
-        <v>1025</v>
+        <v>412</v>
       </c>
     </row>
     <row r="927" spans="1:9">
       <c r="A927" t="s">
         <v>1271</v>
       </c>
+      <c r="B927" t="s">
+        <v>20</v>
+      </c>
       <c r="C927" t="s">
         <v>1272</v>
       </c>
       <c r="D927" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E927" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F927" t="s">
         <v>1273</v>
       </c>
       <c r="I927" t="s">
-        <v>1206</v>
+        <v>422</v>
       </c>
     </row>
     <row r="928" spans="1:9">
       <c r="A928" t="s">
         <v>1271</v>
       </c>
-      <c r="B928" t="s">
-        <v>20</v>
-      </c>
       <c r="C928" t="s">
         <v>1272</v>
       </c>
       <c r="D928" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E928" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F928" t="s">
         <v>1273</v>
       </c>
       <c r="I928" t="s">
-        <v>1208</v>
+        <v>962</v>
       </c>
     </row>
     <row r="929" spans="1:9">
@@ -20942,33 +20925,42 @@
         <v>1271</v>
       </c>
       <c r="C929" t="s">
-        <v>1274</v>
+        <v>1272</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1218</v>
       </c>
       <c r="E929" t="s">
-        <v>1071</v>
+        <v>1201</v>
       </c>
       <c r="F929" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I929" t="s">
-        <v>1073</v>
+        <v>991</v>
       </c>
     </row>
     <row r="930" spans="1:9">
       <c r="A930" t="s">
         <v>1271</v>
       </c>
+      <c r="B930" t="s">
+        <v>20</v>
+      </c>
       <c r="C930" t="s">
-        <v>1276</v>
+        <v>1272</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1219</v>
       </c>
       <c r="E930" t="s">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="F930" t="s">
-        <v>1275</v>
-      </c>
-      <c r="I930" s="1" t="s">
-        <v>1277</v>
+        <v>1273</v>
+      </c>
+      <c r="I930" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="931" spans="1:9">
@@ -20976,16 +20968,19 @@
         <v>1271</v>
       </c>
       <c r="C931" t="s">
-        <v>1278</v>
+        <v>1272</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1220</v>
       </c>
       <c r="E931" t="s">
-        <v>345</v>
+        <v>1205</v>
       </c>
       <c r="F931" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I931" t="s">
-        <v>352</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="932" spans="1:9">
@@ -20996,36 +20991,36 @@
         <v>20</v>
       </c>
       <c r="C932" t="s">
-        <v>1279</v>
+        <v>1272</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1220</v>
       </c>
       <c r="E932" t="s">
-        <v>1078</v>
+        <v>1207</v>
       </c>
       <c r="F932" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I932" t="s">
-        <v>419</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="933" spans="1:9">
       <c r="A933" t="s">
         <v>1271</v>
       </c>
-      <c r="B933" t="s">
-        <v>20</v>
-      </c>
       <c r="C933" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E933" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="F933" t="s">
         <v>1275</v>
       </c>
       <c r="I933" t="s">
-        <v>436</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="934" spans="1:9">
@@ -21033,16 +21028,16 @@
         <v>1271</v>
       </c>
       <c r="C934" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="E934" t="s">
-        <v>1199</v>
+        <v>1075</v>
       </c>
       <c r="F934" t="s">
         <v>1275</v>
       </c>
-      <c r="I934" t="s">
-        <v>962</v>
+      <c r="I934" s="1" t="s">
+        <v>1277</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -21050,16 +21045,16 @@
         <v>1271</v>
       </c>
       <c r="C935" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="E935" t="s">
-        <v>1201</v>
+        <v>345</v>
       </c>
       <c r="F935" t="s">
         <v>1275</v>
       </c>
       <c r="I935" t="s">
-        <v>991</v>
+        <v>352</v>
       </c>
     </row>
     <row r="936" spans="1:9">
@@ -21070,245 +21065,260 @@
         <v>20</v>
       </c>
       <c r="C936" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="E936" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="F936" t="s">
         <v>1275</v>
       </c>
       <c r="I936" t="s">
-        <v>1083</v>
+        <v>419</v>
       </c>
     </row>
     <row r="937" spans="1:9">
       <c r="A937" t="s">
         <v>1271</v>
       </c>
+      <c r="B937" t="s">
+        <v>20</v>
+      </c>
       <c r="C937" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D937" t="s">
-        <v>1204</v>
+        <v>1280</v>
       </c>
       <c r="E937" t="s">
-        <v>1205</v>
+        <v>1080</v>
       </c>
       <c r="F937" t="s">
         <v>1275</v>
       </c>
       <c r="I937" t="s">
-        <v>1206</v>
+        <v>436</v>
       </c>
     </row>
     <row r="938" spans="1:9">
       <c r="A938" t="s">
         <v>1271</v>
       </c>
-      <c r="B938" t="s">
-        <v>20</v>
-      </c>
       <c r="C938" t="s">
-        <v>1284</v>
-      </c>
-      <c r="D938" t="s">
-        <v>1204</v>
+        <v>1281</v>
       </c>
       <c r="E938" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="F938" t="s">
         <v>1275</v>
       </c>
       <c r="I938" t="s">
-        <v>1208</v>
+        <v>962</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9">
+      <c r="A939" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I939" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="940" spans="1:9">
       <c r="A940" t="s">
-        <v>1285</v>
+        <v>1271</v>
+      </c>
+      <c r="B940" t="s">
+        <v>20</v>
       </c>
       <c r="C940" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E940" t="s">
-        <v>1205</v>
+        <v>1082</v>
       </c>
       <c r="F940" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="I940" t="s">
-        <v>1206</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="941" spans="1:9">
       <c r="A941" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B941" t="s">
-        <v>20</v>
+        <v>1271</v>
       </c>
       <c r="C941" t="s">
-        <v>1286</v>
+        <v>1284</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1204</v>
       </c>
       <c r="E941" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="F941" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="I941" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="942" spans="1:9">
       <c r="A942" t="s">
-        <v>1288</v>
+        <v>1271</v>
+      </c>
+      <c r="B942" t="s">
+        <v>20</v>
       </c>
       <c r="C942" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D942" t="s">
         <v>1204</v>
       </c>
       <c r="E942" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="F942" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="I942" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="943" spans="1:9">
-      <c r="A943" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B943" t="s">
-        <v>20</v>
-      </c>
-      <c r="C943" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E943" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F943" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I943" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="944" spans="1:9">
       <c r="A944" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C944" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E944" t="s">
-        <v>1293</v>
+        <v>1205</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1287</v>
       </c>
       <c r="I944" t="s">
-        <v>1294</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="945" spans="1:9">
       <c r="A945" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G945" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H945" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I945" s="1" t="s">
-        <v>1297</v>
+        <v>1285</v>
+      </c>
+      <c r="B945" t="s">
+        <v>20</v>
+      </c>
+      <c r="C945" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F945" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I945" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="946" spans="1:9">
       <c r="A946" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="C946" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1204</v>
       </c>
       <c r="E946" t="s">
-        <v>1293</v>
+        <v>1205</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1290</v>
       </c>
       <c r="I946" t="s">
-        <v>1299</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="947" spans="1:9">
       <c r="A947" t="s">
-        <v>1300</v>
+        <v>1288</v>
+      </c>
+      <c r="B947" t="s">
+        <v>20</v>
       </c>
       <c r="C947" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1204</v>
       </c>
       <c r="E947" t="s">
-        <v>1293</v>
+        <v>1207</v>
+      </c>
+      <c r="F947" t="s">
+        <v>1290</v>
       </c>
       <c r="I947" t="s">
-        <v>1301</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="948" spans="1:9">
       <c r="A948" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G948" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H948" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I948" s="1" t="s">
-        <v>90</v>
+        <v>1291</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I948" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="949" spans="1:9">
       <c r="A949" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C949" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E949" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I949" t="s">
-        <v>1303</v>
+        <v>1291</v>
+      </c>
+      <c r="G949" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H949" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I949" s="1" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="950" spans="1:9">
       <c r="A950" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G950" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H950" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I950" s="1" t="s">
-        <v>1038</v>
+        <v>1298</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I950" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="951" spans="1:9">
       <c r="A951" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B951" t="s">
-        <v>20</v>
+        <v>1300</v>
       </c>
       <c r="C951" t="s">
         <v>1292</v>
@@ -21317,29 +21327,26 @@
         <v>1293</v>
       </c>
       <c r="I951" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="952" spans="1:9">
       <c r="A952" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B952" t="s">
-        <v>20</v>
+        <v>1300</v>
       </c>
       <c r="G952" t="s">
         <v>1295</v>
       </c>
       <c r="H952" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I952" t="s">
-        <v>1307</v>
+        <v>1296</v>
+      </c>
+      <c r="I952" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="953" spans="1:9">
       <c r="A953" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="C953" t="s">
         <v>1292</v>
@@ -21348,12 +21355,12 @@
         <v>1293</v>
       </c>
       <c r="I953" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="954" spans="1:9">
       <c r="A954" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="G954" t="s">
         <v>1295</v>
@@ -21362,12 +21369,15 @@
         <v>1296</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>1310</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="955" spans="1:9">
       <c r="A955" t="s">
-        <v>1311</v>
+        <v>1304</v>
+      </c>
+      <c r="B955" t="s">
+        <v>20</v>
       </c>
       <c r="C955" t="s">
         <v>1292</v>
@@ -21376,26 +21386,29 @@
         <v>1293</v>
       </c>
       <c r="I955" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="956" spans="1:9">
       <c r="A956" t="s">
-        <v>1311</v>
+        <v>1304</v>
+      </c>
+      <c r="B956" t="s">
+        <v>20</v>
       </c>
       <c r="G956" t="s">
         <v>1295</v>
       </c>
       <c r="H956" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I956" s="1" t="s">
-        <v>1313</v>
+        <v>1306</v>
+      </c>
+      <c r="I956" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="957" spans="1:9">
       <c r="A957" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="C957" t="s">
         <v>1292</v>
@@ -21404,12 +21417,12 @@
         <v>1293</v>
       </c>
       <c r="I957" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="958" spans="1:9">
       <c r="A958" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="G958" t="s">
         <v>1295</v>
@@ -21417,122 +21430,104 @@
       <c r="H958" t="s">
         <v>1296</v>
       </c>
-      <c r="I958" t="s">
-        <v>962</v>
+      <c r="I958" s="1" t="s">
+        <v>1310</v>
       </c>
     </row>
     <row r="959" spans="1:9">
       <c r="A959" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="C959" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D959" t="s">
-        <v>1204</v>
+        <v>1292</v>
       </c>
       <c r="E959" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F959" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I959" s="1" t="s">
-        <v>1318</v>
+        <v>1293</v>
+      </c>
+      <c r="I959" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="960" spans="1:9">
       <c r="A960" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B960" t="s">
-        <v>20</v>
-      </c>
-      <c r="C960" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D960" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E960" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F960" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I960" t="s">
-        <v>1239</v>
+        <v>1311</v>
+      </c>
+      <c r="G960" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H960" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I960" s="1" t="s">
+        <v>1313</v>
       </c>
     </row>
     <row r="961" spans="1:9">
       <c r="A961" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="C961" t="s">
-        <v>1243</v>
+        <v>1292</v>
       </c>
       <c r="E961" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F961" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I961" s="1" t="s">
-        <v>1321</v>
+        <v>1293</v>
+      </c>
+      <c r="I961" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="962" spans="1:9">
       <c r="A962" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B962" t="s">
-        <v>20</v>
-      </c>
-      <c r="C962" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E962" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F962" t="s">
-        <v>1320</v>
+        <v>1314</v>
+      </c>
+      <c r="G962" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H962" t="s">
+        <v>1296</v>
       </c>
       <c r="I962" t="s">
-        <v>1239</v>
+        <v>962</v>
       </c>
     </row>
     <row r="963" spans="1:9">
       <c r="A963" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="C963" t="s">
-        <v>1243</v>
+        <v>1289</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1204</v>
       </c>
       <c r="E963" t="s">
         <v>1205</v>
       </c>
       <c r="F963" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="964" spans="1:9">
       <c r="A964" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B964" t="s">
         <v>20</v>
       </c>
       <c r="C964" t="s">
-        <v>1243</v>
+        <v>1289</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1204</v>
       </c>
       <c r="E964" t="s">
         <v>1207</v>
       </c>
       <c r="F964" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="I964" t="s">
         <v>1239</v>
@@ -21540,7 +21535,7 @@
     </row>
     <row r="965" spans="1:9">
       <c r="A965" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="C965" t="s">
         <v>1243</v>
@@ -21549,15 +21544,15 @@
         <v>1205</v>
       </c>
       <c r="F965" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>1238</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="966" spans="1:9">
       <c r="A966" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="B966" t="s">
         <v>20</v>
@@ -21569,15 +21564,15 @@
         <v>1207</v>
       </c>
       <c r="F966" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="I966" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="967" spans="1:9">
       <c r="A967" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C967" t="s">
         <v>1243</v>
@@ -21586,15 +21581,15 @@
         <v>1205</v>
       </c>
       <c r="F967" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="968" spans="1:9">
       <c r="A968" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="B968" t="s">
         <v>20</v>
@@ -21606,7 +21601,7 @@
         <v>1207</v>
       </c>
       <c r="F968" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="I968" t="s">
         <v>1239</v>
@@ -21614,42 +21609,36 @@
     </row>
     <row r="969" spans="1:9">
       <c r="A969" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="C969" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D969" t="s">
-        <v>1204</v>
+        <v>1243</v>
       </c>
       <c r="E969" t="s">
         <v>1205</v>
       </c>
       <c r="F969" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I969" s="1" t="s">
-        <v>1331</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="970" spans="1:9">
       <c r="A970" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="B970" t="s">
         <v>20</v>
       </c>
       <c r="C970" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D970" t="s">
-        <v>1204</v>
+        <v>1243</v>
       </c>
       <c r="E970" t="s">
         <v>1207</v>
       </c>
       <c r="F970" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="I970" t="s">
         <v>1253</v>
@@ -21657,7 +21646,7 @@
     </row>
     <row r="971" spans="1:9">
       <c r="A971" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="C971" t="s">
         <v>1243</v>
@@ -21666,15 +21655,15 @@
         <v>1205</v>
       </c>
       <c r="F971" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B972" t="s">
         <v>20</v>
@@ -21686,7 +21675,7 @@
         <v>1207</v>
       </c>
       <c r="F972" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="I972" t="s">
         <v>1239</v>
@@ -21694,66 +21683,87 @@
     </row>
     <row r="973" spans="1:9">
       <c r="A973" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C973" t="s">
-        <v>1292</v>
+        <v>1289</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1204</v>
       </c>
       <c r="E973" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I973" t="s">
-        <v>1294</v>
+        <v>1205</v>
+      </c>
+      <c r="F973" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I973" s="1" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="974" spans="1:9">
       <c r="A974" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G974" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H974" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I974" s="1" t="s">
-        <v>1336</v>
+        <v>1329</v>
+      </c>
+      <c r="B974" t="s">
+        <v>20</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E974" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F974" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I974" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="975" spans="1:9">
       <c r="A975" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="C975" t="s">
-        <v>1292</v>
+        <v>1243</v>
       </c>
       <c r="E975" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I975" t="s">
-        <v>1309</v>
+        <v>1205</v>
+      </c>
+      <c r="F975" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I975" s="1" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="976" spans="1:9">
       <c r="A976" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G976" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H976" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I976" s="1" t="s">
-        <v>1338</v>
+        <v>1332</v>
+      </c>
+      <c r="B976" t="s">
+        <v>20</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E976" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F976" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I976" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="977" spans="1:9">
       <c r="A977" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B977" t="s">
-        <v>20</v>
+        <v>1335</v>
       </c>
       <c r="C977" t="s">
         <v>1292</v>
@@ -21762,29 +21772,26 @@
         <v>1293</v>
       </c>
       <c r="I977" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="978" spans="1:9">
       <c r="A978" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B978" t="s">
-        <v>20</v>
+        <v>1335</v>
       </c>
       <c r="G978" t="s">
         <v>1295</v>
       </c>
       <c r="H978" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I978" t="s">
-        <v>563</v>
+        <v>1296</v>
+      </c>
+      <c r="I978" s="1" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="979" spans="1:9">
       <c r="A979" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C979" t="s">
         <v>1292</v>
@@ -21793,12 +21800,12 @@
         <v>1293</v>
       </c>
       <c r="I979" t="s">
-        <v>1294</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="G980" t="s">
         <v>1295</v>
@@ -21807,40 +21814,46 @@
         <v>1296</v>
       </c>
       <c r="I980" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="981" spans="1:9">
       <c r="A981" t="s">
-        <v>1342</v>
+        <v>1339</v>
+      </c>
+      <c r="B981" t="s">
+        <v>20</v>
       </c>
       <c r="C981" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E981" t="s">
         <v>1293</v>
       </c>
       <c r="I981" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" t="s">
-        <v>1342</v>
+        <v>1339</v>
+      </c>
+      <c r="B982" t="s">
+        <v>20</v>
       </c>
       <c r="G982" t="s">
         <v>1295</v>
       </c>
       <c r="H982" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I982" s="1" t="s">
-        <v>1343</v>
+        <v>1306</v>
+      </c>
+      <c r="I982" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="983" spans="1:9">
       <c r="A983" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C983" t="s">
         <v>1292</v>
@@ -21849,40 +21862,40 @@
         <v>1293</v>
       </c>
       <c r="I983" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="984" spans="1:9">
       <c r="A984" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C984" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E984" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I984" t="s">
-        <v>1299</v>
+        <v>1340</v>
+      </c>
+      <c r="G984" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H984" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I984" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="C985" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E985" t="s">
         <v>1293</v>
       </c>
       <c r="I985" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="986" spans="1:9">
       <c r="A986" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="G986" t="s">
         <v>1295</v>
@@ -21891,40 +21904,40 @@
         <v>1296</v>
       </c>
       <c r="I986" s="1" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="987" spans="1:9">
       <c r="A987" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C987" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E987" t="s">
         <v>1293</v>
       </c>
       <c r="I987" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="988" spans="1:9">
       <c r="A988" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G988" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H988" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I988" s="1" t="s">
-        <v>81</v>
+        <v>1345</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E988" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I988" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="989" spans="1:9">
       <c r="A989" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C989" t="s">
         <v>1292</v>
@@ -21933,12 +21946,12 @@
         <v>1293</v>
       </c>
       <c r="I989" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="990" spans="1:9">
       <c r="A990" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="G990" t="s">
         <v>1295</v>
@@ -21947,12 +21960,12 @@
         <v>1296</v>
       </c>
       <c r="I990" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="991" spans="1:9">
       <c r="A991" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C991" t="s">
         <v>1289</v>
@@ -21961,12 +21974,12 @@
         <v>1293</v>
       </c>
       <c r="I991" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G992" t="s">
         <v>1295</v>
@@ -21975,15 +21988,12 @@
         <v>1296</v>
       </c>
       <c r="I992" s="1" t="s">
-        <v>1129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="993" spans="1:9">
       <c r="A993" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B993" t="s">
-        <v>20</v>
+        <v>1349</v>
       </c>
       <c r="C993" t="s">
         <v>1292</v>
@@ -21992,32 +22002,26 @@
         <v>1293</v>
       </c>
       <c r="I993" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="994" spans="1:9">
       <c r="A994" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B994" t="s">
-        <v>20</v>
+        <v>1349</v>
       </c>
       <c r="G994" t="s">
         <v>1295</v>
       </c>
       <c r="H994" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I994" t="s">
-        <v>1353</v>
+        <v>1296</v>
+      </c>
+      <c r="I994" s="1" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="995" spans="1:9">
       <c r="A995" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B995" t="s">
-        <v>20</v>
+        <v>1351</v>
       </c>
       <c r="C995" t="s">
         <v>1289</v>
@@ -22026,29 +22030,29 @@
         <v>1293</v>
       </c>
       <c r="I995" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="996" spans="1:9">
       <c r="A996" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B996" t="s">
-        <v>20</v>
+        <v>1351</v>
       </c>
       <c r="G996" t="s">
         <v>1295</v>
       </c>
       <c r="H996" t="s">
-        <v>1306</v>
-      </c>
-      <c r="I996" t="s">
-        <v>563</v>
+        <v>1296</v>
+      </c>
+      <c r="I996" s="1" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="997" spans="1:9">
       <c r="A997" t="s">
-        <v>1355</v>
+        <v>1352</v>
+      </c>
+      <c r="B997" t="s">
+        <v>20</v>
       </c>
       <c r="C997" t="s">
         <v>1292</v>
@@ -22057,26 +22061,32 @@
         <v>1293</v>
       </c>
       <c r="I997" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="998" spans="1:9">
       <c r="A998" t="s">
-        <v>1355</v>
+        <v>1352</v>
+      </c>
+      <c r="B998" t="s">
+        <v>20</v>
       </c>
       <c r="G998" t="s">
         <v>1295</v>
       </c>
       <c r="H998" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I998" s="1" t="s">
-        <v>1356</v>
+        <v>1306</v>
+      </c>
+      <c r="I998" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" t="s">
-        <v>1357</v>
+        <v>1354</v>
+      </c>
+      <c r="B999" t="s">
+        <v>20</v>
       </c>
       <c r="C999" t="s">
         <v>1289</v>
@@ -22085,26 +22095,29 @@
         <v>1293</v>
       </c>
       <c r="I999" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
       <c r="A1000" t="s">
-        <v>1357</v>
+        <v>1354</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>20</v>
       </c>
       <c r="G1000" t="s">
         <v>1295</v>
       </c>
       <c r="H1000" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I1000" s="1" t="s">
-        <v>1356</v>
+        <v>1306</v>
+      </c>
+      <c r="I1000" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
       <c r="A1001" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C1001" t="s">
         <v>1292</v>
@@ -22113,12 +22126,12 @@
         <v>1293</v>
       </c>
       <c r="I1001" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
       <c r="A1002" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="G1002" t="s">
         <v>1295</v>
@@ -22127,12 +22140,12 @@
         <v>1296</v>
       </c>
       <c r="I1002" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
       <c r="A1003" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C1003" t="s">
         <v>1289</v>
@@ -22141,12 +22154,12 @@
         <v>1293</v>
       </c>
       <c r="I1003" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G1004" t="s">
         <v>1295</v>
@@ -22155,12 +22168,12 @@
         <v>1296</v>
       </c>
       <c r="I1004" s="1" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1005" spans="1:9">
       <c r="A1005" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="C1005" t="s">
         <v>1292</v>
@@ -22169,12 +22182,12 @@
         <v>1293</v>
       </c>
       <c r="I1005" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
       <c r="A1006" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="G1006" t="s">
         <v>1295</v>
@@ -22182,13 +22195,13 @@
       <c r="H1006" t="s">
         <v>1296</v>
       </c>
-      <c r="I1006" t="s">
-        <v>962</v>
+      <c r="I1006" s="1" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
       <c r="A1007" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C1007" t="s">
         <v>1289</v>
@@ -22197,12 +22210,12 @@
         <v>1293</v>
       </c>
       <c r="I1007" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
       <c r="A1008" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G1008" t="s">
         <v>1295</v>
@@ -22210,67 +22223,123 @@
       <c r="H1008" t="s">
         <v>1296</v>
       </c>
-      <c r="I1008" t="s">
-        <v>962</v>
+      <c r="I1008" s="1" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="1009" spans="1:9">
       <c r="A1009" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C1009" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D1009" t="s">
-        <v>1204</v>
+        <v>1292</v>
       </c>
       <c r="E1009" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F1009" t="s">
-        <v>1366</v>
+        <v>1293</v>
       </c>
       <c r="I1009" t="s">
-        <v>1206</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1010" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E1010" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F1010" t="s">
-        <v>1366</v>
+        <v>1362</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>1296</v>
       </c>
       <c r="I1010" t="s">
-        <v>1208</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1011" spans="1:9">
       <c r="A1011" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I1011" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9">
+      <c r="A1012" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I1012" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9">
+      <c r="A1013" t="s">
         <v>1364</v>
       </c>
-      <c r="C1011" t="s">
+      <c r="C1013" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9">
+      <c r="A1014" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9">
+      <c r="A1015" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C1015" t="s">
         <v>1367</v>
       </c>
-      <c r="E1011" t="s">
+      <c r="E1015" t="s">
         <v>1259</v>
       </c>
-      <c r="F1011" t="s">
+      <c r="F1015" t="s">
         <v>1368</v>
       </c>
-      <c r="I1011" t="s">
+      <c r="I1015" t="s">
         <v>1369</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="1410">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4241,6 +4241,9 @@
   </si>
   <si>
     <t>ANY_USER</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.updateUserSettings</t>
   </si>
 </sst>
 </file>
@@ -5068,7 +5071,7 @@
   <dimension ref="A1:I1016"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="A656" sqref="A656"/>
+      <selection activeCell="A671" sqref="A671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16227,7 +16230,7 @@
     </row>
     <row r="671" spans="1:9" s="2" customFormat="1">
       <c r="A671" s="2" t="s">
-        <v>986</v>
+        <v>1409</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>1406</v>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5083" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1412">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4244,6 +4244,12 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.user.UserService.updateUserSettings</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.proband.ProbandService.updateProbandDepartment</t>
+  </si>
+  <si>
+    <t>newDepartmentId</t>
   </si>
 </sst>
 </file>
@@ -5068,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1016"/>
+  <dimension ref="A1:I1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
-      <selection activeCell="A671" sqref="A671"/>
+    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
+      <selection activeCell="A638" sqref="A638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15736,72 +15742,69 @@
         <v>774</v>
       </c>
     </row>
-    <row r="637" spans="1:9">
-      <c r="A637" t="s">
-        <v>942</v>
-      </c>
-      <c r="B637" t="s">
-        <v>20</v>
-      </c>
-      <c r="C637" t="s">
-        <v>943</v>
-      </c>
-      <c r="D637" t="s">
-        <v>808</v>
-      </c>
-      <c r="E637" t="s">
+    <row r="637" spans="1:9" s="2" customFormat="1">
+      <c r="A637" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E637" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I637" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="638" spans="1:9">
-      <c r="A638" t="s">
-        <v>942</v>
-      </c>
-      <c r="B638" t="s">
-        <v>20</v>
-      </c>
-      <c r="C638" t="s">
-        <v>944</v>
-      </c>
-      <c r="E638" t="s">
-        <v>421</v>
-      </c>
-      <c r="I638" t="s">
-        <v>945</v>
+      <c r="I637" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" s="2" customFormat="1">
+      <c r="A638" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I638" s="2" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="639" spans="1:9">
       <c r="A639" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B639" t="s">
         <v>20</v>
       </c>
       <c r="C639" t="s">
-        <v>533</v>
+        <v>943</v>
+      </c>
+      <c r="D639" t="s">
+        <v>808</v>
       </c>
       <c r="E639" t="s">
         <v>421</v>
       </c>
       <c r="I639" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
     </row>
     <row r="640" spans="1:9">
       <c r="A640" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="B640" t="s">
         <v>20</v>
       </c>
       <c r="C640" t="s">
-        <v>948</v>
-      </c>
-      <c r="D640" t="s">
-        <v>811</v>
+        <v>944</v>
       </c>
       <c r="E640" t="s">
         <v>421</v>
@@ -15812,178 +15815,181 @@
     </row>
     <row r="641" spans="1:9">
       <c r="A641" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B641" t="s">
         <v>20</v>
       </c>
       <c r="C641" t="s">
-        <v>949</v>
+        <v>533</v>
       </c>
       <c r="E641" t="s">
         <v>421</v>
       </c>
       <c r="I641" t="s">
-        <v>950</v>
+        <v>805</v>
       </c>
     </row>
     <row r="642" spans="1:9">
       <c r="A642" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B642" t="s">
         <v>20</v>
       </c>
       <c r="C642" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D642" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E642" t="s">
         <v>421</v>
       </c>
       <c r="I642" t="s">
-        <v>436</v>
+        <v>945</v>
       </c>
     </row>
     <row r="643" spans="1:9">
       <c r="A643" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B643" t="s">
         <v>20</v>
       </c>
       <c r="C643" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="E643" t="s">
         <v>421</v>
       </c>
       <c r="I643" t="s">
-        <v>436</v>
+        <v>950</v>
       </c>
     </row>
     <row r="644" spans="1:9">
       <c r="A644" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B644" t="s">
         <v>20</v>
       </c>
       <c r="C644" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D644" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E644" t="s">
         <v>421</v>
       </c>
       <c r="I644" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="645" spans="1:9">
       <c r="A645" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B645" t="s">
         <v>20</v>
       </c>
       <c r="C645" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E645" t="s">
         <v>421</v>
       </c>
       <c r="I645" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="646" spans="1:9">
       <c r="A646" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B646" t="s">
         <v>20</v>
       </c>
       <c r="C646" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D646" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E646" t="s">
         <v>421</v>
       </c>
       <c r="I646" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="647" spans="1:9">
       <c r="A647" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B647" t="s">
         <v>20</v>
       </c>
       <c r="C647" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="E647" t="s">
         <v>421</v>
       </c>
       <c r="I647" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9">
+      <c r="A648" t="s">
+        <v>957</v>
+      </c>
+      <c r="B648" t="s">
+        <v>20</v>
+      </c>
+      <c r="C648" t="s">
+        <v>958</v>
+      </c>
+      <c r="D648" t="s">
+        <v>820</v>
+      </c>
+      <c r="E648" t="s">
+        <v>421</v>
+      </c>
+      <c r="I648" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="649" spans="1:9">
       <c r="A649" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B649" t="s">
         <v>20</v>
       </c>
       <c r="C649" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E649" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="I649" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="650" spans="1:9">
-      <c r="A650" t="s">
-        <v>963</v>
-      </c>
-      <c r="B650" t="s">
-        <v>20</v>
-      </c>
-      <c r="C650" t="s">
-        <v>964</v>
-      </c>
-      <c r="E650" t="s">
-        <v>965</v>
-      </c>
-      <c r="I650" t="s">
-        <v>962</v>
+        <v>436</v>
       </c>
     </row>
     <row r="651" spans="1:9">
       <c r="A651" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B651" t="s">
         <v>20</v>
       </c>
       <c r="C651" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E651" t="s">
-        <v>965</v>
+        <v>11</v>
       </c>
       <c r="I651" t="s">
         <v>962</v>
@@ -15991,71 +15997,77 @@
     </row>
     <row r="652" spans="1:9">
       <c r="A652" t="s">
-        <v>967</v>
+        <v>963</v>
+      </c>
+      <c r="B652" t="s">
+        <v>20</v>
+      </c>
+      <c r="C652" t="s">
+        <v>964</v>
+      </c>
+      <c r="E652" t="s">
+        <v>965</v>
       </c>
       <c r="I652" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="653" spans="1:9">
       <c r="A653" t="s">
-        <v>969</v>
+        <v>966</v>
+      </c>
+      <c r="B653" t="s">
+        <v>20</v>
+      </c>
+      <c r="C653" t="s">
+        <v>964</v>
+      </c>
+      <c r="E653" t="s">
+        <v>965</v>
       </c>
       <c r="I653" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="654" spans="1:9">
       <c r="A654" t="s">
-        <v>971</v>
-      </c>
-      <c r="C654" t="s">
-        <v>964</v>
-      </c>
-      <c r="E654" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="I654" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="655" spans="1:9">
       <c r="A655" t="s">
-        <v>973</v>
-      </c>
-      <c r="C655" t="s">
-        <v>964</v>
-      </c>
-      <c r="E655" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="I655" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
     </row>
     <row r="656" spans="1:9">
       <c r="A656" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C656" t="s">
         <v>964</v>
       </c>
-      <c r="E656" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="I656" s="2" t="s">
-        <v>1407</v>
+      <c r="E656" t="s">
+        <v>965</v>
+      </c>
+      <c r="I656" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="657" spans="1:9">
       <c r="A657" t="s">
-        <v>975</v>
-      </c>
-      <c r="G657" t="s">
-        <v>96</v>
-      </c>
-      <c r="H657" t="s">
-        <v>70</v>
+        <v>973</v>
+      </c>
+      <c r="C657" t="s">
+        <v>964</v>
+      </c>
+      <c r="E657" t="s">
+        <v>965</v>
       </c>
       <c r="I657" t="s">
         <v>962</v>
@@ -16063,27 +16075,27 @@
     </row>
     <row r="658" spans="1:9">
       <c r="A658" t="s">
-        <v>976</v>
-      </c>
-      <c r="I658" t="s">
-        <v>970</v>
+        <v>974</v>
+      </c>
+      <c r="C658" t="s">
+        <v>964</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I658" s="2" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="659" spans="1:9">
       <c r="A659" t="s">
-        <v>977</v>
-      </c>
-      <c r="B659" t="s">
-        <v>20</v>
-      </c>
-      <c r="C659" t="s">
-        <v>978</v>
-      </c>
-      <c r="D659" t="s">
-        <v>979</v>
-      </c>
-      <c r="E659" t="s">
-        <v>965</v>
+        <v>975</v>
+      </c>
+      <c r="G659" t="s">
+        <v>96</v>
+      </c>
+      <c r="H659" t="s">
+        <v>70</v>
       </c>
       <c r="I659" t="s">
         <v>962</v>
@@ -16091,40 +16103,52 @@
     </row>
     <row r="660" spans="1:9">
       <c r="A660" t="s">
-        <v>977</v>
-      </c>
-      <c r="B660" t="s">
-        <v>20</v>
-      </c>
-      <c r="C660" t="s">
-        <v>980</v>
-      </c>
-      <c r="E660" t="s">
-        <v>965</v>
+        <v>976</v>
       </c>
       <c r="I660" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
     </row>
     <row r="661" spans="1:9">
       <c r="A661" t="s">
-        <v>981</v>
+        <v>977</v>
+      </c>
+      <c r="B661" t="s">
+        <v>20</v>
+      </c>
+      <c r="C661" t="s">
+        <v>978</v>
+      </c>
+      <c r="D661" t="s">
+        <v>979</v>
+      </c>
+      <c r="E661" t="s">
+        <v>965</v>
       </c>
       <c r="I661" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
     </row>
     <row r="662" spans="1:9">
       <c r="A662" t="s">
-        <v>983</v>
+        <v>977</v>
+      </c>
+      <c r="B662" t="s">
+        <v>20</v>
+      </c>
+      <c r="C662" t="s">
+        <v>980</v>
+      </c>
+      <c r="E662" t="s">
+        <v>965</v>
       </c>
       <c r="I662" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="663" spans="1:9">
       <c r="A663" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I663" t="s">
         <v>982</v>
@@ -16132,7 +16156,7 @@
     </row>
     <row r="664" spans="1:9">
       <c r="A664" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I664" t="s">
         <v>970</v>
@@ -16140,69 +16164,57 @@
     </row>
     <row r="665" spans="1:9">
       <c r="A665" t="s">
-        <v>986</v>
-      </c>
-      <c r="B665" t="s">
-        <v>20</v>
-      </c>
-      <c r="C665" t="s">
-        <v>987</v>
-      </c>
-      <c r="E665" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="I665" t="s">
-        <v>962</v>
+        <v>982</v>
       </c>
     </row>
     <row r="666" spans="1:9">
       <c r="A666" t="s">
+        <v>985</v>
+      </c>
+      <c r="I666" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9">
+      <c r="A667" t="s">
         <v>986</v>
       </c>
-      <c r="B666" t="s">
-        <v>20</v>
-      </c>
-      <c r="C666" t="s">
+      <c r="B667" t="s">
+        <v>20</v>
+      </c>
+      <c r="C667" t="s">
+        <v>987</v>
+      </c>
+      <c r="E667" t="s">
+        <v>965</v>
+      </c>
+      <c r="I667" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9">
+      <c r="A668" t="s">
+        <v>986</v>
+      </c>
+      <c r="B668" t="s">
+        <v>20</v>
+      </c>
+      <c r="C668" t="s">
         <v>988</v>
       </c>
-      <c r="E666" t="s">
+      <c r="E668" t="s">
         <v>11</v>
       </c>
-      <c r="I666" t="s">
+      <c r="I668" t="s">
         <v>962</v>
-      </c>
-    </row>
-    <row r="667" spans="1:9" s="2" customFormat="1">
-      <c r="A667" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C667" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="E667" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="I667" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="668" spans="1:9" s="2" customFormat="1">
-      <c r="A668" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C668" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="E668" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="I668" s="2" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="669" spans="1:9" s="2" customFormat="1">
       <c r="A669" s="2" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>964</v>
@@ -16216,7 +16228,7 @@
     </row>
     <row r="670" spans="1:9" s="2" customFormat="1">
       <c r="A670" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>964</v>
@@ -16230,10 +16242,10 @@
     </row>
     <row r="671" spans="1:9" s="2" customFormat="1">
       <c r="A671" s="2" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1406</v>
+        <v>964</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>965</v>
@@ -16242,26 +16254,38 @@
         <v>972</v>
       </c>
     </row>
-    <row r="672" spans="1:9" s="2" customFormat="1"/>
-    <row r="673" spans="1:9">
-      <c r="A673" t="s">
-        <v>989</v>
-      </c>
-      <c r="I673" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="674" spans="1:9">
-      <c r="A674" t="s">
-        <v>991</v>
-      </c>
-      <c r="I674" t="s">
-        <v>990</v>
-      </c>
-    </row>
+    <row r="672" spans="1:9" s="2" customFormat="1">
+      <c r="A672" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I672" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" s="2" customFormat="1">
+      <c r="A673" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="I673" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" s="2" customFormat="1"/>
     <row r="675" spans="1:9">
       <c r="A675" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="I675" t="s">
         <v>990</v>
@@ -16269,15 +16293,15 @@
     </row>
     <row r="676" spans="1:9">
       <c r="A676" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I676" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="677" spans="1:9">
       <c r="A677" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I677" t="s">
         <v>990</v>
@@ -16285,15 +16309,15 @@
     </row>
     <row r="678" spans="1:9">
       <c r="A678" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I678" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="679" spans="1:9">
       <c r="A679" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I679" t="s">
         <v>990</v>
@@ -16301,23 +16325,23 @@
     </row>
     <row r="680" spans="1:9">
       <c r="A680" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I680" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="681" spans="1:9">
       <c r="A681" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I681" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="682" spans="1:9">
       <c r="A682" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I682" t="s">
         <v>994</v>
@@ -16325,23 +16349,23 @@
     </row>
     <row r="683" spans="1:9">
       <c r="A683" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I683" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="684" spans="1:9">
       <c r="A684" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I684" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="685" spans="1:9">
       <c r="A685" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I685" t="s">
         <v>994</v>
@@ -16349,15 +16373,15 @@
     </row>
     <row r="686" spans="1:9">
       <c r="A686" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I686" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="687" spans="1:9">
       <c r="A687" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I687" t="s">
         <v>994</v>
@@ -16365,7 +16389,7 @@
     </row>
     <row r="688" spans="1:9">
       <c r="A688" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I688" t="s">
         <v>994</v>
@@ -16373,7 +16397,7 @@
     </row>
     <row r="689" spans="1:9">
       <c r="A689" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I689" t="s">
         <v>994</v>
@@ -16381,7 +16405,7 @@
     </row>
     <row r="690" spans="1:9">
       <c r="A690" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I690" t="s">
         <v>994</v>
@@ -16389,7 +16413,7 @@
     </row>
     <row r="691" spans="1:9">
       <c r="A691" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I691" t="s">
         <v>994</v>
@@ -16397,113 +16421,98 @@
     </row>
     <row r="692" spans="1:9">
       <c r="A692" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I692" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="693" spans="1:9">
       <c r="A693" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I693" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
     </row>
     <row r="694" spans="1:9">
       <c r="A694" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I694" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9">
+      <c r="A695" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I695" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="696" spans="1:9">
       <c r="A696" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C696" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E696" t="s">
-        <v>11</v>
+        <v>1013</v>
       </c>
       <c r="I696" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="697" spans="1:9">
-      <c r="A697" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B697" t="s">
-        <v>20</v>
-      </c>
-      <c r="C697" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E697" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I697" t="s">
-        <v>1020</v>
+        <v>990</v>
       </c>
     </row>
     <row r="698" spans="1:9">
       <c r="A698" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B698" t="s">
-        <v>20</v>
+        <v>1014</v>
       </c>
       <c r="C698" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="E698" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="I698" t="s">
-        <v>945</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="699" spans="1:9">
       <c r="A699" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B699" t="s">
         <v>20</v>
       </c>
       <c r="C699" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E699" t="s">
         <v>1019</v>
       </c>
       <c r="I699" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="700" spans="1:9">
       <c r="A700" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B700" t="s">
         <v>20</v>
       </c>
       <c r="C700" t="s">
-        <v>435</v>
+        <v>1021</v>
       </c>
       <c r="E700" t="s">
         <v>421</v>
       </c>
       <c r="I700" t="s">
-        <v>436</v>
+        <v>945</v>
       </c>
     </row>
     <row r="701" spans="1:9">
       <c r="A701" t="s">
-        <v>1025</v>
+        <v>1022</v>
+      </c>
+      <c r="B701" t="s">
+        <v>20</v>
       </c>
       <c r="C701" t="s">
         <v>1023</v>
@@ -16512,58 +16521,52 @@
         <v>1019</v>
       </c>
       <c r="I701" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="702" spans="1:9">
       <c r="A702" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B702" t="s">
         <v>20</v>
       </c>
       <c r="C702" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D702" t="s">
-        <v>1028</v>
+        <v>435</v>
       </c>
       <c r="E702" t="s">
-        <v>1019</v>
+        <v>421</v>
       </c>
       <c r="I702" t="s">
-        <v>1024</v>
+        <v>436</v>
       </c>
     </row>
     <row r="703" spans="1:9">
       <c r="A703" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B703" t="s">
-        <v>20</v>
+        <v>1025</v>
       </c>
       <c r="C703" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D703" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E703" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="I703" t="s">
-        <v>708</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="704" spans="1:9">
       <c r="A704" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B704" t="s">
         <v>20</v>
       </c>
       <c r="C704" t="s">
-        <v>1023</v>
+        <v>1027</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1028</v>
       </c>
       <c r="E704" t="s">
         <v>1019</v>
@@ -16574,197 +16577,197 @@
     </row>
     <row r="705" spans="1:9">
       <c r="A705" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B705" t="s">
         <v>20</v>
       </c>
       <c r="C705" t="s">
-        <v>435</v>
+        <v>1027</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1029</v>
       </c>
       <c r="E705" t="s">
         <v>421</v>
       </c>
       <c r="I705" t="s">
-        <v>436</v>
+        <v>708</v>
       </c>
     </row>
     <row r="706" spans="1:9">
       <c r="A706" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B706" t="s">
         <v>20</v>
       </c>
       <c r="C706" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D706" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E706" t="s">
         <v>1019</v>
       </c>
-      <c r="I706" s="1" t="s">
-        <v>1032</v>
+      <c r="I706" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="707" spans="1:9">
       <c r="A707" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B707" t="s">
         <v>20</v>
       </c>
       <c r="C707" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D707" t="s">
-        <v>1029</v>
+        <v>435</v>
       </c>
       <c r="E707" t="s">
         <v>421</v>
       </c>
       <c r="I707" t="s">
-        <v>905</v>
+        <v>436</v>
       </c>
     </row>
     <row r="708" spans="1:9">
       <c r="A708" t="s">
-        <v>1033</v>
+        <v>1031</v>
+      </c>
+      <c r="B708" t="s">
+        <v>20</v>
       </c>
       <c r="C708" t="s">
-        <v>1023</v>
+        <v>1027</v>
+      </c>
+      <c r="D708" t="s">
+        <v>1028</v>
       </c>
       <c r="E708" t="s">
         <v>1019</v>
       </c>
       <c r="I708" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="709" spans="1:9">
       <c r="A709" t="s">
-        <v>1035</v>
+        <v>1031</v>
+      </c>
+      <c r="B709" t="s">
+        <v>20</v>
       </c>
       <c r="C709" t="s">
-        <v>252</v>
+        <v>1027</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1029</v>
       </c>
       <c r="E709" t="s">
-        <v>253</v>
-      </c>
-      <c r="I709" s="1" t="s">
-        <v>904</v>
+        <v>421</v>
+      </c>
+      <c r="I709" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="710" spans="1:9">
       <c r="A710" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G710" t="s">
-        <v>96</v>
-      </c>
-      <c r="H710" t="s">
-        <v>70</v>
+        <v>1033</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E710" t="s">
+        <v>1019</v>
       </c>
       <c r="I710" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="711" spans="1:9">
       <c r="A711" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C711" t="s">
-        <v>1023</v>
+        <v>252</v>
       </c>
       <c r="E711" t="s">
-        <v>1019</v>
+        <v>253</v>
       </c>
       <c r="I711" s="1" t="s">
-        <v>1032</v>
+        <v>904</v>
       </c>
     </row>
     <row r="712" spans="1:9">
       <c r="A712" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B712" t="s">
-        <v>20</v>
-      </c>
-      <c r="C712" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D712" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E712" t="s">
-        <v>1019</v>
+        <v>1036</v>
+      </c>
+      <c r="G712" t="s">
+        <v>96</v>
+      </c>
+      <c r="H712" t="s">
+        <v>70</v>
       </c>
       <c r="I712" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="713" spans="1:9">
       <c r="A713" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B713" t="s">
-        <v>20</v>
+        <v>1038</v>
       </c>
       <c r="C713" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D713" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E713" t="s">
-        <v>421</v>
-      </c>
-      <c r="I713" t="s">
-        <v>1041</v>
+        <v>1019</v>
+      </c>
+      <c r="I713" s="1" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="714" spans="1:9">
       <c r="A714" t="s">
-        <v>1042</v>
+        <v>1039</v>
+      </c>
+      <c r="B714" t="s">
+        <v>20</v>
       </c>
       <c r="C714" t="s">
-        <v>1023</v>
+        <v>1027</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1028</v>
       </c>
       <c r="E714" t="s">
         <v>1019</v>
       </c>
-      <c r="F714" t="s">
-        <v>1042</v>
-      </c>
       <c r="I714" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="715" spans="1:9">
       <c r="A715" t="s">
-        <v>1042</v>
+        <v>1039</v>
+      </c>
+      <c r="B715" t="s">
+        <v>20</v>
       </c>
       <c r="C715" t="s">
-        <v>533</v>
+        <v>1027</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1029</v>
       </c>
       <c r="E715" t="s">
         <v>421</v>
       </c>
-      <c r="F715" t="s">
-        <v>1042</v>
-      </c>
       <c r="I715" t="s">
-        <v>534</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="716" spans="1:9">
       <c r="A716" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B716" t="s">
-        <v>20</v>
+        <v>1042</v>
       </c>
       <c r="C716" t="s">
         <v>1023</v>
@@ -16773,18 +16776,15 @@
         <v>1019</v>
       </c>
       <c r="F716" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I716" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="717" spans="1:9">
       <c r="A717" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B717" t="s">
-        <v>20</v>
+        <v>1042</v>
       </c>
       <c r="C717" t="s">
         <v>533</v>
@@ -16793,32 +16793,35 @@
         <v>421</v>
       </c>
       <c r="F717" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="I717" t="s">
-        <v>1046</v>
+        <v>534</v>
       </c>
     </row>
     <row r="718" spans="1:9">
       <c r="A718" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B718" t="s">
         <v>20</v>
       </c>
-      <c r="G718" t="s">
-        <v>96</v>
-      </c>
-      <c r="H718" t="s">
-        <v>70</v>
+      <c r="C718" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F718" t="s">
+        <v>1044</v>
       </c>
       <c r="I718" s="1" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="719" spans="1:9">
       <c r="A719" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B719" t="s">
         <v>20</v>
@@ -16830,217 +16833,220 @@
         <v>421</v>
       </c>
       <c r="F719" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="I719" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="720" spans="1:9">
       <c r="A720" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C720" t="s">
-        <v>533</v>
-      </c>
-      <c r="E720" t="s">
-        <v>463</v>
-      </c>
-      <c r="F720" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I720" t="s">
-        <v>1051</v>
+        <v>1047</v>
+      </c>
+      <c r="B720" t="s">
+        <v>20</v>
+      </c>
+      <c r="G720" t="s">
+        <v>96</v>
+      </c>
+      <c r="H720" t="s">
+        <v>70</v>
+      </c>
+      <c r="I720" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="721" spans="1:9">
       <c r="A721" t="s">
         <v>1048</v>
       </c>
+      <c r="B721" t="s">
+        <v>20</v>
+      </c>
       <c r="C721" t="s">
-        <v>1052</v>
+        <v>533</v>
       </c>
       <c r="E721" t="s">
-        <v>1053</v>
+        <v>421</v>
       </c>
       <c r="F721" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I721" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
+      </c>
+      <c r="I721" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="722" spans="1:9">
       <c r="A722" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B722" t="s">
-        <v>20</v>
+        <v>1048</v>
       </c>
       <c r="C722" t="s">
         <v>533</v>
       </c>
       <c r="E722" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="F722" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="I722" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="723" spans="1:9">
       <c r="A723" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="C723" t="s">
-        <v>533</v>
+        <v>1052</v>
       </c>
       <c r="E723" t="s">
-        <v>463</v>
+        <v>1053</v>
       </c>
       <c r="F723" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I723" t="s">
-        <v>1059</v>
+        <v>1054</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="724" spans="1:9">
       <c r="A724" t="s">
         <v>1056</v>
       </c>
+      <c r="B724" t="s">
+        <v>20</v>
+      </c>
       <c r="C724" t="s">
-        <v>1052</v>
+        <v>533</v>
       </c>
       <c r="E724" t="s">
-        <v>1053</v>
+        <v>421</v>
       </c>
       <c r="F724" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I724" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
+      </c>
+      <c r="I724" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="725" spans="1:9">
       <c r="A725" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B725" t="s">
-        <v>20</v>
-      </c>
-      <c r="G725" t="s">
-        <v>96</v>
-      </c>
-      <c r="H725" t="s">
-        <v>70</v>
-      </c>
-      <c r="I725" s="1" t="s">
-        <v>1043</v>
+        <v>1056</v>
+      </c>
+      <c r="C725" t="s">
+        <v>533</v>
+      </c>
+      <c r="E725" t="s">
+        <v>463</v>
+      </c>
+      <c r="F725" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I725" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="726" spans="1:9">
       <c r="A726" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B726" t="s">
-        <v>20</v>
+        <v>1056</v>
       </c>
       <c r="C726" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D726" t="s">
-        <v>1028</v>
+        <v>1052</v>
       </c>
       <c r="E726" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I726" t="s">
-        <v>1020</v>
+        <v>1053</v>
+      </c>
+      <c r="F726" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I726" s="1" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="727" spans="1:9">
       <c r="A727" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B727" t="s">
         <v>20</v>
       </c>
-      <c r="C727" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D727" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E727" t="s">
-        <v>421</v>
-      </c>
-      <c r="I727" t="s">
-        <v>1064</v>
+      <c r="G727" t="s">
+        <v>96</v>
+      </c>
+      <c r="H727" t="s">
+        <v>70</v>
+      </c>
+      <c r="I727" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="728" spans="1:9">
       <c r="A728" t="s">
-        <v>1065</v>
+        <v>1063</v>
+      </c>
+      <c r="B728" t="s">
+        <v>20</v>
       </c>
       <c r="C728" t="s">
-        <v>1066</v>
+        <v>1027</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1028</v>
       </c>
       <c r="E728" t="s">
         <v>1019</v>
       </c>
       <c r="I728" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="729" spans="1:9">
       <c r="A729" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B729" t="s">
+        <v>20</v>
+      </c>
+      <c r="C729" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E729" t="s">
+        <v>421</v>
+      </c>
+      <c r="I729" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9">
+      <c r="A730" t="s">
         <v>1065</v>
       </c>
-      <c r="C729" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E729" t="s">
-        <v>11</v>
-      </c>
-      <c r="I729" t="s">
+      <c r="C730" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I730" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="731" spans="1:9">
       <c r="A731" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C731" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E731" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F731" t="s">
-        <v>1071</v>
+        <v>11</v>
       </c>
       <c r="I731" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="732" spans="1:9">
-      <c r="A732" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C732" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E732" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F732" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I732" s="1" t="s">
-        <v>335</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="733" spans="1:9">
@@ -17048,54 +17054,50 @@
         <v>1068</v>
       </c>
       <c r="C733" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E733" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F733" t="s">
         <v>1071</v>
       </c>
       <c r="I733" t="s">
-        <v>366</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="734" spans="1:9">
       <c r="A734" t="s">
         <v>1068</v>
       </c>
-      <c r="B734" s="2"/>
       <c r="C734" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E734" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F734" t="s">
         <v>1071</v>
       </c>
-      <c r="I734" t="s">
-        <v>419</v>
+      <c r="I734" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="735" spans="1:9">
       <c r="A735" t="s">
         <v>1068</v>
       </c>
-      <c r="B735" t="s">
-        <v>20</v>
-      </c>
       <c r="C735" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E735" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F735" t="s">
         <v>1071</v>
       </c>
       <c r="I735" t="s">
-        <v>708</v>
+        <v>366</v>
       </c>
     </row>
     <row r="736" spans="1:9">
@@ -17104,56 +17106,54 @@
       </c>
       <c r="B736" s="2"/>
       <c r="C736" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="E736" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F736" t="s">
         <v>1071</v>
       </c>
       <c r="I736" t="s">
-        <v>1082</v>
+        <v>419</v>
       </c>
     </row>
     <row r="737" spans="1:9">
       <c r="A737" t="s">
-        <v>1083</v>
+        <v>1068</v>
+      </c>
+      <c r="B737" t="s">
+        <v>20</v>
       </c>
       <c r="C737" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D737" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="E737" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F737" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I737" s="1" t="s">
-        <v>1087</v>
+        <v>1071</v>
+      </c>
+      <c r="I737" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="738" spans="1:9">
       <c r="A738" t="s">
-        <v>1083</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="B738" s="2"/>
       <c r="C738" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D738" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="E738" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F738" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I738" s="1" t="s">
-        <v>236</v>
+        <v>1071</v>
+      </c>
+      <c r="I738" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="739" spans="1:9">
@@ -17164,60 +17164,56 @@
         <v>1084</v>
       </c>
       <c r="D739" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E739" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F739" t="s">
         <v>1086</v>
       </c>
       <c r="I739" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="740" spans="1:9">
       <c r="A740" t="s">
         <v>1083</v>
       </c>
-      <c r="B740" s="2"/>
       <c r="C740" t="s">
         <v>1084</v>
       </c>
       <c r="D740" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E740" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F740" t="s">
         <v>1086</v>
       </c>
       <c r="I740" s="1" t="s">
-        <v>1092</v>
+        <v>236</v>
       </c>
     </row>
     <row r="741" spans="1:9">
       <c r="A741" t="s">
         <v>1083</v>
       </c>
-      <c r="B741" t="s">
-        <v>20</v>
-      </c>
       <c r="C741" t="s">
         <v>1084</v>
       </c>
       <c r="D741" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E741" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F741" t="s">
         <v>1086</v>
       </c>
-      <c r="I741" t="s">
-        <v>863</v>
+      <c r="I741" s="1" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="742" spans="1:9">
@@ -17229,70 +17225,74 @@
         <v>1084</v>
       </c>
       <c r="D742" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E742" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F742" t="s">
         <v>1086</v>
       </c>
       <c r="I742" s="1" t="s">
-        <v>1045</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="743" spans="1:9">
       <c r="A743" t="s">
         <v>1083</v>
       </c>
-      <c r="G743" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H743" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I743" s="1" t="s">
-        <v>1097</v>
+      <c r="B743" t="s">
+        <v>20</v>
+      </c>
+      <c r="C743" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I743" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="744" spans="1:9">
       <c r="A744" t="s">
-        <v>1098</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="B744" s="2"/>
       <c r="C744" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="D744" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E744" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F744" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I744" t="s">
-        <v>35</v>
+        <v>1086</v>
+      </c>
+      <c r="I744" s="1" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="745" spans="1:9">
       <c r="A745" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C745" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D745" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E745" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F745" t="s">
-        <v>1101</v>
+        <v>1083</v>
+      </c>
+      <c r="G745" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H745" t="s">
+        <v>1096</v>
       </c>
       <c r="I745" s="1" t="s">
-        <v>335</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="746" spans="1:9">
@@ -17303,60 +17303,56 @@
         <v>1099</v>
       </c>
       <c r="D746" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E746" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F746" t="s">
         <v>1101</v>
       </c>
       <c r="I746" t="s">
-        <v>352</v>
+        <v>35</v>
       </c>
     </row>
     <row r="747" spans="1:9">
       <c r="A747" t="s">
         <v>1098</v>
       </c>
-      <c r="B747" s="2"/>
       <c r="C747" t="s">
         <v>1099</v>
       </c>
       <c r="D747" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E747" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F747" t="s">
         <v>1101</v>
       </c>
-      <c r="I747" t="s">
-        <v>419</v>
+      <c r="I747" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="748" spans="1:9">
       <c r="A748" t="s">
         <v>1098</v>
       </c>
-      <c r="B748" t="s">
-        <v>20</v>
-      </c>
       <c r="C748" t="s">
         <v>1099</v>
       </c>
       <c r="D748" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E748" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F748" t="s">
         <v>1101</v>
       </c>
       <c r="I748" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
     </row>
     <row r="749" spans="1:9">
@@ -17368,56 +17364,60 @@
         <v>1099</v>
       </c>
       <c r="D749" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E749" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F749" t="s">
         <v>1101</v>
       </c>
       <c r="I749" t="s">
-        <v>1024</v>
+        <v>419</v>
       </c>
     </row>
     <row r="750" spans="1:9">
       <c r="A750" t="s">
-        <v>1107</v>
+        <v>1098</v>
+      </c>
+      <c r="B750" t="s">
+        <v>20</v>
       </c>
       <c r="C750" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D750" t="s">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="E750" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F750" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="I750" t="s">
-        <v>35</v>
+        <v>422</v>
       </c>
     </row>
     <row r="751" spans="1:9">
       <c r="A751" t="s">
-        <v>1107</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="B751" s="2"/>
       <c r="C751" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D751" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="E751" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F751" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I751" s="1" t="s">
-        <v>139</v>
+        <v>1101</v>
+      </c>
+      <c r="I751" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="752" spans="1:9">
@@ -17428,60 +17428,56 @@
         <v>1084</v>
       </c>
       <c r="D752" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E752" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F752" t="s">
         <v>1108</v>
       </c>
       <c r="I752" t="s">
-        <v>352</v>
+        <v>35</v>
       </c>
     </row>
     <row r="753" spans="1:9">
       <c r="A753" t="s">
         <v>1107</v>
       </c>
-      <c r="B753" s="2"/>
       <c r="C753" t="s">
         <v>1084</v>
       </c>
       <c r="D753" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E753" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F753" t="s">
         <v>1108</v>
       </c>
-      <c r="I753" t="s">
-        <v>427</v>
+      <c r="I753" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="754" spans="1:9">
       <c r="A754" t="s">
         <v>1107</v>
       </c>
-      <c r="B754" t="s">
-        <v>20</v>
-      </c>
       <c r="C754" t="s">
         <v>1084</v>
       </c>
       <c r="D754" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E754" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F754" t="s">
         <v>1108</v>
       </c>
       <c r="I754" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
     </row>
     <row r="755" spans="1:9">
@@ -17493,56 +17489,60 @@
         <v>1084</v>
       </c>
       <c r="D755" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E755" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F755" t="s">
         <v>1108</v>
       </c>
       <c r="I755" t="s">
-        <v>1024</v>
+        <v>427</v>
       </c>
     </row>
     <row r="756" spans="1:9">
       <c r="A756" t="s">
-        <v>1109</v>
+        <v>1107</v>
+      </c>
+      <c r="B756" t="s">
+        <v>20</v>
       </c>
       <c r="C756" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="D756" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="E756" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F756" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I756" s="1" t="s">
-        <v>23</v>
+        <v>1108</v>
+      </c>
+      <c r="I756" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="757" spans="1:9">
       <c r="A757" t="s">
-        <v>1109</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="B757" s="2"/>
       <c r="C757" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="D757" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="E757" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F757" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I757" s="1" t="s">
-        <v>223</v>
+        <v>1108</v>
+      </c>
+      <c r="I757" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="758" spans="1:9">
@@ -17553,16 +17553,16 @@
         <v>1099</v>
       </c>
       <c r="D758" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E758" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F758" t="s">
         <v>1110</v>
       </c>
       <c r="I758" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="759" spans="1:9">
@@ -17573,57 +17573,56 @@
         <v>1099</v>
       </c>
       <c r="D759" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E759" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F759" t="s">
         <v>1110</v>
       </c>
       <c r="I759" s="1" t="s">
-        <v>527</v>
+        <v>223</v>
       </c>
     </row>
     <row r="760" spans="1:9">
       <c r="A760" t="s">
         <v>1109</v>
       </c>
-      <c r="B760" s="2"/>
       <c r="C760" t="s">
         <v>1099</v>
       </c>
+      <c r="D760" t="s">
+        <v>1103</v>
+      </c>
       <c r="E760" t="s">
-        <v>1111</v>
+        <v>345</v>
       </c>
       <c r="F760" t="s">
         <v>1110</v>
       </c>
-      <c r="I760" t="s">
-        <v>1112</v>
+      <c r="I760" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="761" spans="1:9">
       <c r="A761" t="s">
         <v>1109</v>
       </c>
-      <c r="B761" t="s">
-        <v>20</v>
-      </c>
       <c r="C761" t="s">
         <v>1099</v>
       </c>
       <c r="D761" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E761" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F761" t="s">
         <v>1110</v>
       </c>
-      <c r="I761" t="s">
-        <v>788</v>
+      <c r="I761" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="762" spans="1:9">
@@ -17634,57 +17633,58 @@
       <c r="C762" t="s">
         <v>1099</v>
       </c>
-      <c r="D762" t="s">
-        <v>1106</v>
-      </c>
       <c r="E762" t="s">
-        <v>1081</v>
+        <v>1111</v>
       </c>
       <c r="F762" t="s">
         <v>1110</v>
       </c>
-      <c r="I762" s="1" t="s">
-        <v>1032</v>
+      <c r="I762" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="763" spans="1:9">
       <c r="A763" t="s">
-        <v>1113</v>
+        <v>1109</v>
+      </c>
+      <c r="B763" t="s">
+        <v>20</v>
       </c>
       <c r="C763" t="s">
         <v>1099</v>
       </c>
       <c r="D763" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="E763" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F763" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I763" s="1" t="s">
-        <v>23</v>
+        <v>1110</v>
+      </c>
+      <c r="I763" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="764" spans="1:9">
       <c r="A764" t="s">
-        <v>1113</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="B764" s="2"/>
       <c r="C764" t="s">
         <v>1099</v>
       </c>
       <c r="D764" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="E764" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F764" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="I764" s="1" t="s">
-        <v>234</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="765" spans="1:9">
@@ -17695,80 +17695,79 @@
         <v>1099</v>
       </c>
       <c r="D765" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E765" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F765" t="s">
         <v>1114</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="766" spans="1:9">
       <c r="A766" t="s">
         <v>1113</v>
       </c>
-      <c r="B766" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C766" t="s">
         <v>1099</v>
       </c>
       <c r="D766" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E766" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F766" t="s">
         <v>1114</v>
       </c>
       <c r="I766" s="1" t="s">
-        <v>1115</v>
+        <v>234</v>
       </c>
     </row>
     <row r="767" spans="1:9">
       <c r="A767" t="s">
         <v>1113</v>
       </c>
-      <c r="B767" s="2"/>
       <c r="C767" t="s">
         <v>1099</v>
       </c>
+      <c r="D767" t="s">
+        <v>1103</v>
+      </c>
       <c r="E767" t="s">
-        <v>1111</v>
+        <v>345</v>
       </c>
       <c r="F767" t="s">
         <v>1114</v>
       </c>
-      <c r="I767" t="s">
-        <v>1112</v>
+      <c r="I767" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="768" spans="1:9">
       <c r="A768" t="s">
         <v>1113</v>
       </c>
-      <c r="B768" t="s">
+      <c r="B768" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C768" t="s">
         <v>1099</v>
       </c>
       <c r="D768" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E768" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F768" t="s">
         <v>1114</v>
       </c>
-      <c r="I768" t="s">
-        <v>1116</v>
+      <c r="I768" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="769" spans="1:9">
@@ -17779,57 +17778,58 @@
       <c r="C769" t="s">
         <v>1099</v>
       </c>
-      <c r="D769" t="s">
-        <v>1106</v>
-      </c>
       <c r="E769" t="s">
-        <v>1081</v>
+        <v>1111</v>
       </c>
       <c r="F769" t="s">
         <v>1114</v>
       </c>
-      <c r="I769" s="1" t="s">
-        <v>1032</v>
+      <c r="I769" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="770" spans="1:9">
       <c r="A770" t="s">
-        <v>1117</v>
+        <v>1113</v>
+      </c>
+      <c r="B770" t="s">
+        <v>20</v>
       </c>
       <c r="C770" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D770" t="s">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="E770" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F770" t="s">
-        <v>1118</v>
-      </c>
-      <c r="I770" s="1" t="s">
-        <v>23</v>
+        <v>1114</v>
+      </c>
+      <c r="I770" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="771" spans="1:9">
       <c r="A771" t="s">
-        <v>1117</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="B771" s="2"/>
       <c r="C771" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D771" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="E771" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F771" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="I771" s="1" t="s">
-        <v>223</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="772" spans="1:9">
@@ -17840,16 +17840,16 @@
         <v>1084</v>
       </c>
       <c r="D772" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E772" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F772" t="s">
         <v>1118</v>
       </c>
       <c r="I772" s="1" t="s">
-        <v>376</v>
+        <v>23</v>
       </c>
     </row>
     <row r="773" spans="1:9">
@@ -17860,16 +17860,16 @@
         <v>1084</v>
       </c>
       <c r="D773" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E773" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F773" t="s">
         <v>1118</v>
       </c>
       <c r="I773" s="1" t="s">
-        <v>527</v>
+        <v>223</v>
       </c>
     </row>
     <row r="774" spans="1:9">
@@ -17880,16 +17880,16 @@
         <v>1084</v>
       </c>
       <c r="D774" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E774" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F774" t="s">
         <v>1118</v>
       </c>
-      <c r="I774" t="s">
-        <v>788</v>
+      <c r="I774" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="775" spans="1:9">
@@ -17900,70 +17900,70 @@
         <v>1084</v>
       </c>
       <c r="D775" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E775" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F775" t="s">
         <v>1118</v>
       </c>
       <c r="I775" s="1" t="s">
-        <v>1032</v>
+        <v>527</v>
       </c>
     </row>
     <row r="776" spans="1:9">
       <c r="A776" t="s">
         <v>1117</v>
       </c>
-      <c r="G776" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H776" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I776" s="1" t="s">
-        <v>1119</v>
+      <c r="C776" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I776" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="777" spans="1:9">
       <c r="A777" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C777" t="s">
         <v>1084</v>
       </c>
       <c r="D777" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="E777" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F777" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="I777" s="1" t="s">
-        <v>23</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="778" spans="1:9">
       <c r="A778" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C778" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D778" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E778" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F778" t="s">
-        <v>1121</v>
+        <v>1117</v>
+      </c>
+      <c r="G778" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H778" t="s">
+        <v>1096</v>
       </c>
       <c r="I778" s="1" t="s">
-        <v>223</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="779" spans="1:9">
@@ -17974,60 +17974,56 @@
         <v>1084</v>
       </c>
       <c r="D779" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E779" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F779" t="s">
         <v>1121</v>
       </c>
       <c r="I779" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="780" spans="1:9">
       <c r="A780" t="s">
         <v>1120</v>
       </c>
-      <c r="B780" s="2"/>
       <c r="C780" t="s">
         <v>1084</v>
       </c>
       <c r="D780" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E780" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F780" t="s">
         <v>1121</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>518</v>
+        <v>223</v>
       </c>
     </row>
     <row r="781" spans="1:9">
       <c r="A781" t="s">
         <v>1120</v>
       </c>
-      <c r="B781" t="s">
-        <v>20</v>
-      </c>
       <c r="C781" t="s">
         <v>1084</v>
       </c>
       <c r="D781" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E781" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F781" t="s">
         <v>1121</v>
       </c>
-      <c r="I781" t="s">
-        <v>788</v>
+      <c r="I781" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="782" spans="1:9">
@@ -18039,87 +18035,91 @@
         <v>1084</v>
       </c>
       <c r="D782" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E782" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F782" t="s">
         <v>1121</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>1032</v>
+        <v>518</v>
       </c>
     </row>
     <row r="783" spans="1:9">
       <c r="A783" t="s">
         <v>1120</v>
       </c>
+      <c r="B783" t="s">
+        <v>20</v>
+      </c>
       <c r="C783" t="s">
-        <v>1122</v>
+        <v>1084</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1093</v>
       </c>
       <c r="E783" t="s">
-        <v>463</v>
+        <v>1079</v>
       </c>
       <c r="F783" t="s">
         <v>1121</v>
       </c>
-      <c r="I783" s="1" t="s">
-        <v>1123</v>
+      <c r="I783" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="784" spans="1:9">
       <c r="A784" t="s">
         <v>1120</v>
       </c>
-      <c r="G784" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H784" t="s">
-        <v>1096</v>
+      <c r="B784" s="2"/>
+      <c r="C784" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1121</v>
       </c>
       <c r="I784" s="1" t="s">
-        <v>1124</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="785" spans="1:9">
       <c r="A785" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C785" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D785" t="s">
-        <v>1100</v>
+        <v>1122</v>
       </c>
       <c r="E785" t="s">
-        <v>1070</v>
+        <v>463</v>
       </c>
       <c r="F785" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="I785" s="1" t="s">
-        <v>23</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="786" spans="1:9">
       <c r="A786" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C786" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D786" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E786" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F786" t="s">
-        <v>1126</v>
+        <v>1120</v>
+      </c>
+      <c r="G786" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H786" t="s">
+        <v>1096</v>
       </c>
       <c r="I786" s="1" t="s">
-        <v>234</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="787" spans="1:9">
@@ -18130,39 +18130,36 @@
         <v>1099</v>
       </c>
       <c r="D787" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E787" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F787" t="s">
         <v>1126</v>
       </c>
       <c r="I787" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="788" spans="1:9">
       <c r="A788" t="s">
         <v>1125</v>
       </c>
-      <c r="B788" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C788" t="s">
         <v>1099</v>
       </c>
       <c r="D788" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E788" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F788" t="s">
         <v>1126</v>
       </c>
       <c r="I788" s="1" t="s">
-        <v>1127</v>
+        <v>234</v>
       </c>
     </row>
     <row r="789" spans="1:9">
@@ -18172,98 +18169,101 @@
       <c r="C789" t="s">
         <v>1099</v>
       </c>
+      <c r="D789" t="s">
+        <v>1103</v>
+      </c>
       <c r="E789" t="s">
-        <v>1111</v>
+        <v>345</v>
       </c>
       <c r="F789" t="s">
         <v>1126</v>
       </c>
-      <c r="I789" t="s">
-        <v>1112</v>
+      <c r="I789" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="790" spans="1:9">
       <c r="A790" t="s">
         <v>1125</v>
       </c>
-      <c r="B790" t="s">
+      <c r="B790" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C790" t="s">
         <v>1099</v>
       </c>
       <c r="D790" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E790" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F790" t="s">
         <v>1126</v>
       </c>
-      <c r="I790" t="s">
-        <v>892</v>
+      <c r="I790" s="1" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="791" spans="1:9">
       <c r="A791" t="s">
         <v>1125</v>
       </c>
-      <c r="B791" s="2"/>
       <c r="C791" t="s">
         <v>1099</v>
       </c>
-      <c r="D791" t="s">
-        <v>1106</v>
-      </c>
       <c r="E791" t="s">
-        <v>1081</v>
+        <v>1111</v>
       </c>
       <c r="F791" t="s">
         <v>1126</v>
       </c>
-      <c r="I791" s="1" t="s">
-        <v>1128</v>
+      <c r="I791" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="792" spans="1:9">
       <c r="A792" t="s">
-        <v>1129</v>
+        <v>1125</v>
+      </c>
+      <c r="B792" t="s">
+        <v>20</v>
       </c>
       <c r="C792" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D792" t="s">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="E792" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F792" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I792" s="1" t="s">
-        <v>75</v>
+        <v>1126</v>
+      </c>
+      <c r="I792" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="793" spans="1:9">
       <c r="A793" t="s">
-        <v>1129</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="B793" s="2"/>
       <c r="C793" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D793" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="E793" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F793" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="I793" s="1" t="s">
-        <v>225</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="794" spans="1:9">
@@ -18274,60 +18274,56 @@
         <v>1084</v>
       </c>
       <c r="D794" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E794" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F794" t="s">
         <v>1130</v>
       </c>
       <c r="I794" s="1" t="s">
-        <v>371</v>
+        <v>75</v>
       </c>
     </row>
     <row r="795" spans="1:9">
       <c r="A795" t="s">
         <v>1129</v>
       </c>
-      <c r="B795" s="2"/>
       <c r="C795" t="s">
         <v>1084</v>
       </c>
       <c r="D795" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E795" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F795" t="s">
         <v>1130</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>519</v>
+        <v>225</v>
       </c>
     </row>
     <row r="796" spans="1:9">
       <c r="A796" t="s">
         <v>1129</v>
       </c>
-      <c r="B796" t="s">
-        <v>20</v>
-      </c>
       <c r="C796" t="s">
         <v>1084</v>
       </c>
       <c r="D796" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E796" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F796" t="s">
         <v>1130</v>
       </c>
-      <c r="I796" t="s">
-        <v>788</v>
+      <c r="I796" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="797" spans="1:9">
@@ -18339,70 +18335,74 @@
         <v>1084</v>
       </c>
       <c r="D797" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E797" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F797" t="s">
         <v>1130</v>
       </c>
       <c r="I797" s="1" t="s">
-        <v>1032</v>
+        <v>519</v>
       </c>
     </row>
     <row r="798" spans="1:9">
       <c r="A798" t="s">
         <v>1129</v>
       </c>
-      <c r="G798" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H798" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I798" s="1" t="s">
-        <v>1131</v>
+      <c r="B798" t="s">
+        <v>20</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1130</v>
+      </c>
+      <c r="I798" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="799" spans="1:9">
       <c r="A799" t="s">
-        <v>1132</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="B799" s="2"/>
       <c r="C799" t="s">
         <v>1084</v>
       </c>
       <c r="D799" t="s">
-        <v>1085</v>
+        <v>1094</v>
       </c>
       <c r="E799" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F799" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="I799" s="1" t="s">
-        <v>23</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="800" spans="1:9">
       <c r="A800" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C800" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D800" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E800" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F800" t="s">
-        <v>1133</v>
+        <v>1129</v>
+      </c>
+      <c r="G800" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H800" t="s">
+        <v>1096</v>
       </c>
       <c r="I800" s="1" t="s">
-        <v>240</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="801" spans="1:9">
@@ -18413,16 +18413,16 @@
         <v>1084</v>
       </c>
       <c r="D801" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E801" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F801" t="s">
         <v>1133</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="802" spans="1:9">
@@ -18433,16 +18433,16 @@
         <v>1084</v>
       </c>
       <c r="D802" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E802" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F802" t="s">
         <v>1133</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>527</v>
+        <v>240</v>
       </c>
     </row>
     <row r="803" spans="1:9">
@@ -18453,16 +18453,16 @@
         <v>1084</v>
       </c>
       <c r="D803" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="E803" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F803" t="s">
         <v>1133</v>
       </c>
-      <c r="I803" t="s">
-        <v>788</v>
+      <c r="I803" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="804" spans="1:9">
@@ -18473,70 +18473,70 @@
         <v>1084</v>
       </c>
       <c r="D804" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E804" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F804" t="s">
         <v>1133</v>
       </c>
       <c r="I804" s="1" t="s">
-        <v>1032</v>
+        <v>527</v>
       </c>
     </row>
     <row r="805" spans="1:9">
       <c r="A805" t="s">
         <v>1132</v>
       </c>
-      <c r="G805" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H805" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I805" s="1" t="s">
-        <v>1134</v>
+      <c r="C805" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F805" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I805" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="806" spans="1:9">
       <c r="A806" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C806" t="s">
-        <v>1136</v>
+        <v>1084</v>
       </c>
       <c r="D806" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E806" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F806" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I806" t="s">
-        <v>35</v>
+        <v>1133</v>
+      </c>
+      <c r="I806" s="1" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="807" spans="1:9">
       <c r="A807" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C807" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D807" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E807" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F807" t="s">
-        <v>1137</v>
+        <v>1132</v>
+      </c>
+      <c r="G807" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H807" t="s">
+        <v>1096</v>
       </c>
       <c r="I807" s="1" t="s">
-        <v>153</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="808" spans="1:9">
@@ -18547,60 +18547,56 @@
         <v>1136</v>
       </c>
       <c r="D808" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E808" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F808" t="s">
         <v>1137</v>
       </c>
       <c r="I808" t="s">
-        <v>358</v>
+        <v>35</v>
       </c>
     </row>
     <row r="809" spans="1:9">
       <c r="A809" t="s">
         <v>1135</v>
       </c>
-      <c r="B809" s="2"/>
       <c r="C809" t="s">
         <v>1136</v>
       </c>
       <c r="D809" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E809" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F809" t="s">
         <v>1137</v>
       </c>
-      <c r="I809" t="s">
-        <v>434</v>
+      <c r="I809" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="810" spans="1:9">
       <c r="A810" t="s">
         <v>1135</v>
       </c>
-      <c r="B810" t="s">
-        <v>20</v>
-      </c>
       <c r="C810" t="s">
         <v>1136</v>
       </c>
       <c r="D810" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E810" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F810" t="s">
         <v>1137</v>
       </c>
       <c r="I810" t="s">
-        <v>436</v>
+        <v>358</v>
       </c>
     </row>
     <row r="811" spans="1:9">
@@ -18612,50 +18608,60 @@
         <v>1136</v>
       </c>
       <c r="D811" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E811" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F811" t="s">
         <v>1137</v>
       </c>
       <c r="I811" t="s">
-        <v>1138</v>
+        <v>434</v>
       </c>
     </row>
     <row r="812" spans="1:9">
       <c r="A812" t="s">
         <v>1135</v>
       </c>
+      <c r="B812" t="s">
+        <v>20</v>
+      </c>
       <c r="C812" t="s">
-        <v>1139</v>
+        <v>1136</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1105</v>
       </c>
       <c r="E812" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F812" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="I812" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
     </row>
     <row r="813" spans="1:9">
       <c r="A813" t="s">
         <v>1135</v>
       </c>
+      <c r="B813" s="2"/>
       <c r="C813" t="s">
-        <v>1141</v>
+        <v>1136</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1106</v>
       </c>
       <c r="E813" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F813" t="s">
-        <v>1140</v>
-      </c>
-      <c r="I813" s="1" t="s">
-        <v>304</v>
+        <v>1137</v>
+      </c>
+      <c r="I813" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="814" spans="1:9">
@@ -18663,54 +18669,50 @@
         <v>1135</v>
       </c>
       <c r="C814" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="E814" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F814" t="s">
         <v>1140</v>
       </c>
       <c r="I814" t="s">
-        <v>1143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="815" spans="1:9">
       <c r="A815" t="s">
         <v>1135</v>
       </c>
-      <c r="B815" s="2"/>
       <c r="C815" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="E815" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F815" t="s">
         <v>1140</v>
       </c>
-      <c r="I815" t="s">
-        <v>432</v>
+      <c r="I815" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="816" spans="1:9">
       <c r="A816" t="s">
         <v>1135</v>
       </c>
-      <c r="B816" t="s">
-        <v>20</v>
-      </c>
       <c r="C816" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="E816" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F816" t="s">
         <v>1140</v>
       </c>
       <c r="I816" t="s">
-        <v>422</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="817" spans="1:9">
@@ -18719,50 +18721,54 @@
       </c>
       <c r="B817" s="2"/>
       <c r="C817" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E817" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F817" t="s">
         <v>1140</v>
       </c>
       <c r="I817" t="s">
-        <v>1082</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9">
+      <c r="A818" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B818" t="s">
+        <v>20</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F818" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I818" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="819" spans="1:9">
       <c r="A819" t="s">
-        <v>1147</v>
-      </c>
+        <v>1135</v>
+      </c>
+      <c r="B819" s="2"/>
       <c r="C819" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E819" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F819" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="I819" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="820" spans="1:9">
-      <c r="A820" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C820" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E820" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F820" t="s">
-        <v>1149</v>
-      </c>
-      <c r="I820" s="1" t="s">
-        <v>335</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="821" spans="1:9">
@@ -18770,16 +18776,16 @@
         <v>1147</v>
       </c>
       <c r="C821" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E821" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F821" t="s">
         <v>1149</v>
       </c>
       <c r="I821" t="s">
-        <v>1152</v>
+        <v>35</v>
       </c>
     </row>
     <row r="822" spans="1:9">
@@ -18787,56 +18793,50 @@
         <v>1147</v>
       </c>
       <c r="C822" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E822" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F822" t="s">
         <v>1149</v>
       </c>
-      <c r="I822" t="s">
-        <v>434</v>
+      <c r="I822" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="823" spans="1:9">
       <c r="A823" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C823" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D823" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E823" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F823" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="I823" t="s">
-        <v>35</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="824" spans="1:9">
       <c r="A824" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C824" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D824" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="E824" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F824" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I824" s="1" t="s">
-        <v>1159</v>
+        <v>1149</v>
+      </c>
+      <c r="I824" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="825" spans="1:9">
@@ -18847,16 +18847,16 @@
         <v>1155</v>
       </c>
       <c r="D825" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E825" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F825" t="s">
         <v>1157</v>
       </c>
       <c r="I825" t="s">
-        <v>1143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="826" spans="1:9">
@@ -18867,56 +18867,56 @@
         <v>1155</v>
       </c>
       <c r="D826" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E826" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F826" t="s">
         <v>1157</v>
       </c>
-      <c r="I826" t="s">
-        <v>462</v>
+      <c r="I826" s="1" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="827" spans="1:9">
       <c r="A827" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C827" t="s">
         <v>1155</v>
       </c>
       <c r="D827" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="E827" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F827" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I827" s="1" t="s">
-        <v>92</v>
+        <v>1157</v>
+      </c>
+      <c r="I827" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="828" spans="1:9">
       <c r="A828" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C828" t="s">
         <v>1155</v>
       </c>
       <c r="D828" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="E828" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F828" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I828" s="1" t="s">
-        <v>203</v>
+        <v>1157</v>
+      </c>
+      <c r="I828" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="829" spans="1:9">
@@ -18927,16 +18927,16 @@
         <v>1155</v>
       </c>
       <c r="D829" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E829" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F829" t="s">
         <v>1163</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>1164</v>
+        <v>92</v>
       </c>
     </row>
     <row r="830" spans="1:9">
@@ -18947,56 +18947,56 @@
         <v>1155</v>
       </c>
       <c r="D830" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E830" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F830" t="s">
         <v>1163</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>572</v>
+        <v>203</v>
       </c>
     </row>
     <row r="831" spans="1:9">
       <c r="A831" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C831" t="s">
-        <v>1084</v>
+        <v>1155</v>
       </c>
       <c r="D831" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="E831" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F831" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="832" spans="1:9">
       <c r="A832" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C832" t="s">
-        <v>1084</v>
+        <v>1155</v>
       </c>
       <c r="D832" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="E832" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F832" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>1170</v>
+        <v>572</v>
       </c>
     </row>
     <row r="833" spans="1:9">
@@ -19007,16 +19007,16 @@
         <v>1084</v>
       </c>
       <c r="D833" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="E833" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F833" t="s">
         <v>1167</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="834" spans="1:9">
@@ -19027,70 +19027,70 @@
         <v>1084</v>
       </c>
       <c r="D834" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E834" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F834" t="s">
         <v>1167</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>535</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="835" spans="1:9">
       <c r="A835" t="s">
         <v>1165</v>
       </c>
-      <c r="G835" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H835" t="s">
-        <v>1174</v>
+      <c r="C835" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E835" t="s">
+        <v>345</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1167</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="836" spans="1:9">
       <c r="A836" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="C836" t="s">
         <v>1084</v>
       </c>
       <c r="D836" t="s">
-        <v>1166</v>
+        <v>1173</v>
       </c>
       <c r="E836" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F836" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>23</v>
+        <v>535</v>
       </c>
     </row>
     <row r="837" spans="1:9">
       <c r="A837" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C837" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D837" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E837" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F837" t="s">
-        <v>1177</v>
+        <v>1165</v>
+      </c>
+      <c r="G837" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H837" t="s">
+        <v>1174</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>225</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="838" spans="1:9">
@@ -19101,16 +19101,16 @@
         <v>1084</v>
       </c>
       <c r="D838" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="E838" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F838" t="s">
         <v>1177</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>1178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="839" spans="1:9">
@@ -19121,70 +19121,70 @@
         <v>1084</v>
       </c>
       <c r="D839" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="E839" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F839" t="s">
         <v>1177</v>
       </c>
       <c r="I839" s="1" t="s">
-        <v>527</v>
+        <v>225</v>
       </c>
     </row>
     <row r="840" spans="1:9">
       <c r="A840" t="s">
         <v>1176</v>
       </c>
-      <c r="G840" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H840" t="s">
-        <v>1174</v>
+      <c r="C840" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E840" t="s">
+        <v>345</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1177</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="841" spans="1:9">
       <c r="A841" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C841" t="s">
-        <v>1181</v>
+        <v>1084</v>
       </c>
       <c r="D841" t="s">
-        <v>1156</v>
+        <v>1173</v>
       </c>
       <c r="E841" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F841" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I841" t="s">
-        <v>35</v>
+        <v>1177</v>
+      </c>
+      <c r="I841" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="842" spans="1:9">
       <c r="A842" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C842" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D842" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E842" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F842" t="s">
-        <v>1182</v>
+        <v>1176</v>
+      </c>
+      <c r="G842" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H842" t="s">
+        <v>1174</v>
       </c>
       <c r="I842" s="1" t="s">
-        <v>171</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="843" spans="1:9">
@@ -19195,16 +19195,16 @@
         <v>1181</v>
       </c>
       <c r="D843" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="E843" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F843" t="s">
         <v>1182</v>
       </c>
       <c r="I843" t="s">
-        <v>358</v>
+        <v>35</v>
       </c>
     </row>
     <row r="844" spans="1:9">
@@ -19215,16 +19215,16 @@
         <v>1181</v>
       </c>
       <c r="D844" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E844" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F844" t="s">
         <v>1182</v>
       </c>
-      <c r="I844" t="s">
-        <v>412</v>
+      <c r="I844" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="845" spans="1:9">
@@ -19232,16 +19232,19 @@
         <v>1180</v>
       </c>
       <c r="C845" t="s">
-        <v>1183</v>
+        <v>1181</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1160</v>
       </c>
       <c r="E845" t="s">
-        <v>1070</v>
+        <v>345</v>
       </c>
       <c r="F845" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I845" t="s">
-        <v>1072</v>
+        <v>358</v>
       </c>
     </row>
     <row r="846" spans="1:9">
@@ -19249,16 +19252,19 @@
         <v>1180</v>
       </c>
       <c r="C846" t="s">
-        <v>1185</v>
+        <v>1181</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1161</v>
       </c>
       <c r="E846" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F846" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I846" s="1" t="s">
-        <v>139</v>
+        <v>1182</v>
+      </c>
+      <c r="I846" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="847" spans="1:9">
@@ -19266,16 +19272,16 @@
         <v>1180</v>
       </c>
       <c r="C847" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E847" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F847" t="s">
         <v>1184</v>
       </c>
       <c r="I847" t="s">
-        <v>1187</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="848" spans="1:9">
@@ -19283,50 +19289,50 @@
         <v>1180</v>
       </c>
       <c r="C848" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E848" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F848" t="s">
         <v>1184</v>
       </c>
-      <c r="I848" t="s">
-        <v>427</v>
+      <c r="I848" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9">
+      <c r="A849" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E849" t="s">
+        <v>345</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I849" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="850" spans="1:9">
       <c r="A850" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="C850" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E850" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F850" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="I850" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="851" spans="1:9">
-      <c r="A851" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C851" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E851" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F851" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I851" s="1" t="s">
-        <v>304</v>
+        <v>427</v>
       </c>
     </row>
     <row r="852" spans="1:9">
@@ -19334,110 +19340,107 @@
         <v>1189</v>
       </c>
       <c r="C852" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E852" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F852" t="s">
         <v>1191</v>
       </c>
       <c r="I852" t="s">
-        <v>352</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="853" spans="1:9">
       <c r="A853" t="s">
         <v>1189</v>
       </c>
-      <c r="B853" t="s">
-        <v>20</v>
-      </c>
       <c r="C853" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E853" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F853" t="s">
         <v>1191</v>
       </c>
-      <c r="I853" t="s">
-        <v>432</v>
+      <c r="I853" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="854" spans="1:9">
       <c r="A854" t="s">
         <v>1189</v>
       </c>
-      <c r="B854" t="s">
-        <v>20</v>
-      </c>
       <c r="C854" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E854" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F854" t="s">
         <v>1191</v>
       </c>
       <c r="I854" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
     </row>
     <row r="855" spans="1:9">
       <c r="A855" t="s">
         <v>1189</v>
       </c>
+      <c r="B855" t="s">
+        <v>20</v>
+      </c>
       <c r="C855" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E855" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F855" t="s">
         <v>1191</v>
       </c>
       <c r="I855" t="s">
-        <v>962</v>
+        <v>432</v>
       </c>
     </row>
     <row r="856" spans="1:9">
       <c r="A856" t="s">
         <v>1189</v>
       </c>
+      <c r="B856" t="s">
+        <v>20</v>
+      </c>
       <c r="C856" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="E856" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F856" t="s">
         <v>1191</v>
       </c>
       <c r="I856" t="s">
-        <v>990</v>
+        <v>436</v>
       </c>
     </row>
     <row r="857" spans="1:9">
       <c r="A857" t="s">
         <v>1189</v>
       </c>
-      <c r="B857" t="s">
-        <v>20</v>
-      </c>
       <c r="C857" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E857" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F857" t="s">
         <v>1191</v>
       </c>
       <c r="I857" t="s">
-        <v>1024</v>
+        <v>962</v>
       </c>
     </row>
     <row r="858" spans="1:9">
@@ -19445,19 +19448,16 @@
         <v>1189</v>
       </c>
       <c r="C858" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D858" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E858" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F858" t="s">
         <v>1191</v>
       </c>
       <c r="I858" t="s">
-        <v>1205</v>
+        <v>990</v>
       </c>
     </row>
     <row r="859" spans="1:9">
@@ -19468,59 +19468,59 @@
         <v>20</v>
       </c>
       <c r="C859" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D859" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E859" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F859" t="s">
         <v>1191</v>
       </c>
       <c r="I859" t="s">
-        <v>1207</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="860" spans="1:9">
       <c r="A860" t="s">
-        <v>1208</v>
+        <v>1189</v>
       </c>
       <c r="C860" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="D860" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="E860" t="s">
-        <v>1070</v>
+        <v>1204</v>
       </c>
       <c r="F860" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
       <c r="I860" t="s">
-        <v>1192</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="861" spans="1:9">
       <c r="A861" t="s">
-        <v>1208</v>
+        <v>1189</v>
+      </c>
+      <c r="B861" t="s">
+        <v>20</v>
       </c>
       <c r="C861" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="D861" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="E861" t="s">
-        <v>1074</v>
+        <v>1206</v>
       </c>
       <c r="F861" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I861" s="1" t="s">
-        <v>153</v>
+        <v>1191</v>
+      </c>
+      <c r="I861" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="862" spans="1:9">
@@ -19531,125 +19531,122 @@
         <v>1209</v>
       </c>
       <c r="D862" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E862" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F862" t="s">
         <v>1211</v>
       </c>
       <c r="I862" t="s">
-        <v>1187</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="863" spans="1:9">
       <c r="A863" t="s">
         <v>1208</v>
       </c>
-      <c r="B863" t="s">
-        <v>20</v>
-      </c>
       <c r="C863" t="s">
         <v>1209</v>
       </c>
       <c r="D863" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E863" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F863" t="s">
         <v>1211</v>
       </c>
-      <c r="I863" t="s">
-        <v>419</v>
+      <c r="I863" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="864" spans="1:9">
       <c r="A864" t="s">
         <v>1208</v>
       </c>
-      <c r="B864" t="s">
-        <v>20</v>
-      </c>
       <c r="C864" t="s">
         <v>1209</v>
       </c>
       <c r="D864" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E864" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F864" t="s">
         <v>1211</v>
       </c>
       <c r="I864" t="s">
-        <v>708</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="865" spans="1:9">
       <c r="A865" t="s">
         <v>1208</v>
       </c>
+      <c r="B865" t="s">
+        <v>20</v>
+      </c>
       <c r="C865" t="s">
         <v>1209</v>
       </c>
       <c r="D865" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E865" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F865" t="s">
         <v>1211</v>
       </c>
       <c r="I865" t="s">
-        <v>962</v>
+        <v>419</v>
       </c>
     </row>
     <row r="866" spans="1:9">
       <c r="A866" t="s">
         <v>1208</v>
       </c>
+      <c r="B866" t="s">
+        <v>20</v>
+      </c>
       <c r="C866" t="s">
         <v>1209</v>
       </c>
       <c r="D866" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E866" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F866" t="s">
         <v>1211</v>
       </c>
       <c r="I866" t="s">
-        <v>990</v>
+        <v>708</v>
       </c>
     </row>
     <row r="867" spans="1:9">
       <c r="A867" t="s">
         <v>1208</v>
       </c>
-      <c r="B867" t="s">
-        <v>20</v>
-      </c>
       <c r="C867" t="s">
         <v>1209</v>
       </c>
       <c r="D867" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E867" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F867" t="s">
         <v>1211</v>
       </c>
       <c r="I867" t="s">
-        <v>1082</v>
+        <v>962</v>
       </c>
     </row>
     <row r="868" spans="1:9">
@@ -19660,16 +19657,16 @@
         <v>1209</v>
       </c>
       <c r="D868" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E868" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F868" t="s">
         <v>1211</v>
       </c>
       <c r="I868" t="s">
-        <v>1205</v>
+        <v>990</v>
       </c>
     </row>
     <row r="869" spans="1:9">
@@ -19683,73 +19680,76 @@
         <v>1209</v>
       </c>
       <c r="D869" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E869" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F869" t="s">
         <v>1211</v>
       </c>
       <c r="I869" t="s">
-        <v>1207</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="870" spans="1:9">
       <c r="A870" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B870" t="s">
-        <v>20</v>
+        <v>1208</v>
       </c>
       <c r="C870" t="s">
-        <v>252</v>
+        <v>1209</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1219</v>
       </c>
       <c r="E870" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I870" s="1" t="s">
-        <v>1221</v>
+        <v>1204</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I870" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="871" spans="1:9">
       <c r="A871" t="s">
-        <v>1222</v>
+        <v>1208</v>
+      </c>
+      <c r="B871" t="s">
+        <v>20</v>
       </c>
       <c r="C871" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D871" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E871" t="s">
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="F871" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I871" s="1" t="s">
-        <v>1087</v>
+        <v>1211</v>
+      </c>
+      <c r="I871" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="872" spans="1:9">
       <c r="A872" t="s">
-        <v>1222</v>
+        <v>1220</v>
+      </c>
+      <c r="B872" t="s">
+        <v>20</v>
       </c>
       <c r="C872" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D872" t="s">
-        <v>1225</v>
+        <v>252</v>
       </c>
       <c r="E872" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F872" t="s">
-        <v>1224</v>
+        <v>1077</v>
       </c>
       <c r="I872" s="1" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="873" spans="1:9">
@@ -19760,125 +19760,122 @@
         <v>1084</v>
       </c>
       <c r="D873" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E873" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F873" t="s">
         <v>1224</v>
       </c>
       <c r="I873" s="1" t="s">
-        <v>1228</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="874" spans="1:9">
       <c r="A874" t="s">
         <v>1222</v>
       </c>
-      <c r="B874" t="s">
-        <v>20</v>
-      </c>
       <c r="C874" t="s">
         <v>1084</v>
       </c>
       <c r="D874" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E874" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F874" t="s">
         <v>1224</v>
       </c>
       <c r="I874" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="875" spans="1:9">
       <c r="A875" t="s">
         <v>1222</v>
       </c>
-      <c r="B875" t="s">
-        <v>20</v>
-      </c>
       <c r="C875" t="s">
         <v>1084</v>
       </c>
       <c r="D875" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E875" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F875" t="s">
         <v>1224</v>
       </c>
-      <c r="I875" t="s">
-        <v>855</v>
+      <c r="I875" s="1" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="876" spans="1:9">
       <c r="A876" t="s">
         <v>1222</v>
       </c>
+      <c r="B876" t="s">
+        <v>20</v>
+      </c>
       <c r="C876" t="s">
         <v>1084</v>
       </c>
       <c r="D876" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E876" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F876" t="s">
         <v>1224</v>
       </c>
-      <c r="I876" t="s">
-        <v>962</v>
+      <c r="I876" s="1" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="877" spans="1:9">
       <c r="A877" t="s">
         <v>1222</v>
       </c>
+      <c r="B877" t="s">
+        <v>20</v>
+      </c>
       <c r="C877" t="s">
         <v>1084</v>
       </c>
       <c r="D877" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E877" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F877" t="s">
         <v>1224</v>
       </c>
       <c r="I877" t="s">
-        <v>1000</v>
+        <v>855</v>
       </c>
     </row>
     <row r="878" spans="1:9">
       <c r="A878" t="s">
         <v>1222</v>
       </c>
-      <c r="B878" t="s">
-        <v>20</v>
-      </c>
       <c r="C878" t="s">
         <v>1084</v>
       </c>
       <c r="D878" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E878" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F878" t="s">
         <v>1224</v>
       </c>
-      <c r="I878" s="1" t="s">
-        <v>1235</v>
+      <c r="I878" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="879" spans="1:9">
@@ -19889,16 +19886,16 @@
         <v>1084</v>
       </c>
       <c r="D879" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E879" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F879" t="s">
         <v>1224</v>
       </c>
-      <c r="I879" s="1" t="s">
-        <v>1237</v>
+      <c r="I879" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="880" spans="1:9">
@@ -19912,116 +19909,119 @@
         <v>1084</v>
       </c>
       <c r="D880" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E880" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F880" t="s">
         <v>1224</v>
       </c>
-      <c r="I880" t="s">
-        <v>1238</v>
+      <c r="I880" s="1" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="881" spans="1:9">
       <c r="A881" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B881" t="s">
-        <v>20</v>
+        <v>1222</v>
       </c>
       <c r="C881" t="s">
-        <v>1240</v>
+        <v>1084</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1236</v>
       </c>
       <c r="E881" t="s">
-        <v>965</v>
-      </c>
-      <c r="I881" t="s">
-        <v>962</v>
+        <v>1204</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I881" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="882" spans="1:9">
       <c r="A882" t="s">
-        <v>1241</v>
+        <v>1222</v>
+      </c>
+      <c r="B882" t="s">
+        <v>20</v>
       </c>
       <c r="C882" t="s">
-        <v>1242</v>
+        <v>1084</v>
       </c>
       <c r="D882" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="E882" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F882" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I882" s="1" t="s">
-        <v>1245</v>
+        <v>1224</v>
+      </c>
+      <c r="I882" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="883" spans="1:9">
       <c r="A883" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B883" t="s">
         <v>20</v>
       </c>
       <c r="C883" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D883" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E883" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F883" t="s">
-        <v>1244</v>
+        <v>965</v>
       </c>
       <c r="I883" t="s">
-        <v>1238</v>
+        <v>962</v>
       </c>
     </row>
     <row r="884" spans="1:9">
       <c r="A884" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C884" t="s">
-        <v>1084</v>
+        <v>1242</v>
       </c>
       <c r="D884" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="E884" t="s">
-        <v>1070</v>
+        <v>1204</v>
       </c>
       <c r="F884" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I884" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="885" spans="1:9">
       <c r="A885" t="s">
-        <v>1246</v>
+        <v>1241</v>
+      </c>
+      <c r="B885" t="s">
+        <v>20</v>
       </c>
       <c r="C885" t="s">
-        <v>1084</v>
+        <v>1242</v>
       </c>
       <c r="D885" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="E885" t="s">
-        <v>1074</v>
+        <v>1206</v>
       </c>
       <c r="F885" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I885" s="1" t="s">
-        <v>1249</v>
+        <v>1244</v>
+      </c>
+      <c r="I885" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="886" spans="1:9">
@@ -20032,125 +20032,122 @@
         <v>1084</v>
       </c>
       <c r="D886" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E886" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F886" t="s">
         <v>1247</v>
       </c>
       <c r="I886" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="887" spans="1:9">
       <c r="A887" t="s">
         <v>1246</v>
       </c>
-      <c r="B887" t="s">
-        <v>20</v>
-      </c>
       <c r="C887" t="s">
         <v>1084</v>
       </c>
       <c r="D887" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E887" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F887" t="s">
         <v>1247</v>
       </c>
       <c r="I887" s="1" t="s">
-        <v>543</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="888" spans="1:9">
       <c r="A888" t="s">
         <v>1246</v>
       </c>
-      <c r="B888" t="s">
-        <v>20</v>
-      </c>
       <c r="C888" t="s">
         <v>1084</v>
       </c>
       <c r="D888" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E888" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F888" t="s">
         <v>1247</v>
       </c>
-      <c r="I888" t="s">
-        <v>841</v>
+      <c r="I888" s="1" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="889" spans="1:9">
       <c r="A889" t="s">
         <v>1246</v>
       </c>
+      <c r="B889" t="s">
+        <v>20</v>
+      </c>
       <c r="C889" t="s">
         <v>1084</v>
       </c>
       <c r="D889" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E889" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F889" t="s">
         <v>1247</v>
       </c>
-      <c r="I889" t="s">
-        <v>962</v>
+      <c r="I889" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="890" spans="1:9">
       <c r="A890" t="s">
         <v>1246</v>
       </c>
+      <c r="B890" t="s">
+        <v>20</v>
+      </c>
       <c r="C890" t="s">
         <v>1084</v>
       </c>
       <c r="D890" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E890" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F890" t="s">
         <v>1247</v>
       </c>
       <c r="I890" t="s">
-        <v>994</v>
+        <v>841</v>
       </c>
     </row>
     <row r="891" spans="1:9">
       <c r="A891" t="s">
         <v>1246</v>
       </c>
-      <c r="B891" t="s">
-        <v>20</v>
-      </c>
       <c r="C891" t="s">
         <v>1084</v>
       </c>
       <c r="D891" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E891" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F891" t="s">
         <v>1247</v>
       </c>
-      <c r="I891" s="1" t="s">
-        <v>1235</v>
+      <c r="I891" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="892" spans="1:9">
@@ -20161,16 +20158,16 @@
         <v>1084</v>
       </c>
       <c r="D892" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E892" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F892" t="s">
         <v>1247</v>
       </c>
-      <c r="I892" s="1" t="s">
-        <v>1251</v>
+      <c r="I892" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="893" spans="1:9">
@@ -20184,56 +20181,59 @@
         <v>1084</v>
       </c>
       <c r="D893" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E893" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F893" t="s">
         <v>1247</v>
       </c>
-      <c r="I893" t="s">
-        <v>1252</v>
+      <c r="I893" s="1" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="894" spans="1:9">
       <c r="A894" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="C894" t="s">
         <v>1084</v>
       </c>
       <c r="D894" t="s">
-        <v>1223</v>
+        <v>1236</v>
       </c>
       <c r="E894" t="s">
-        <v>1070</v>
+        <v>1204</v>
       </c>
       <c r="F894" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="I894" s="1" t="s">
-        <v>90</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="895" spans="1:9">
       <c r="A895" t="s">
-        <v>1253</v>
+        <v>1246</v>
+      </c>
+      <c r="B895" t="s">
+        <v>20</v>
       </c>
       <c r="C895" t="s">
         <v>1084</v>
       </c>
       <c r="D895" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
       <c r="E895" t="s">
-        <v>1074</v>
+        <v>1206</v>
       </c>
       <c r="F895" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I895" s="1" t="s">
-        <v>1255</v>
+        <v>1247</v>
+      </c>
+      <c r="I895" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="896" spans="1:9">
@@ -20244,16 +20244,16 @@
         <v>1084</v>
       </c>
       <c r="D896" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E896" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F896" t="s">
         <v>1254</v>
       </c>
       <c r="I896" s="1" t="s">
-        <v>1256</v>
+        <v>90</v>
       </c>
     </row>
     <row r="897" spans="1:9">
@@ -20264,16 +20264,16 @@
         <v>1084</v>
       </c>
       <c r="D897" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E897" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F897" t="s">
         <v>1254</v>
       </c>
       <c r="I897" s="1" t="s">
-        <v>584</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="898" spans="1:9">
@@ -20284,16 +20284,16 @@
         <v>1084</v>
       </c>
       <c r="D898" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E898" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F898" t="s">
         <v>1254</v>
       </c>
-      <c r="I898" t="s">
-        <v>841</v>
+      <c r="I898" s="1" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="899" spans="1:9">
@@ -20304,16 +20304,16 @@
         <v>1084</v>
       </c>
       <c r="D899" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E899" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F899" t="s">
         <v>1254</v>
       </c>
-      <c r="I899" t="s">
-        <v>962</v>
+      <c r="I899" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="900" spans="1:9">
@@ -20324,16 +20324,16 @@
         <v>1084</v>
       </c>
       <c r="D900" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E900" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F900" t="s">
         <v>1254</v>
       </c>
       <c r="I900" t="s">
-        <v>994</v>
+        <v>841</v>
       </c>
     </row>
     <row r="901" spans="1:9">
@@ -20344,16 +20344,16 @@
         <v>1084</v>
       </c>
       <c r="D901" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E901" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F901" t="s">
         <v>1254</v>
       </c>
-      <c r="I901" s="1" t="s">
-        <v>1257</v>
+      <c r="I901" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="902" spans="1:9">
@@ -20364,56 +20364,56 @@
         <v>1084</v>
       </c>
       <c r="D902" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E902" t="s">
-        <v>1258</v>
+        <v>1200</v>
       </c>
       <c r="F902" t="s">
         <v>1254</v>
       </c>
-      <c r="I902" s="1" t="s">
-        <v>1259</v>
+      <c r="I902" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="903" spans="1:9">
       <c r="A903" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C903" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D903" t="s">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="E903" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F903" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="I903" s="1" t="s">
-        <v>92</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="904" spans="1:9">
       <c r="A904" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C904" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D904" t="s">
-        <v>1212</v>
+        <v>1236</v>
       </c>
       <c r="E904" t="s">
-        <v>1074</v>
+        <v>1258</v>
       </c>
       <c r="F904" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="I904" s="1" t="s">
-        <v>270</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="905" spans="1:9">
@@ -20424,125 +20424,122 @@
         <v>1209</v>
       </c>
       <c r="D905" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E905" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F905" t="s">
         <v>1261</v>
       </c>
       <c r="I905" s="1" t="s">
-        <v>1262</v>
+        <v>92</v>
       </c>
     </row>
     <row r="906" spans="1:9">
       <c r="A906" t="s">
         <v>1260</v>
       </c>
-      <c r="B906" t="s">
-        <v>20</v>
-      </c>
       <c r="C906" t="s">
         <v>1209</v>
       </c>
       <c r="D906" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E906" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F906" t="s">
         <v>1261</v>
       </c>
       <c r="I906" s="1" t="s">
-        <v>608</v>
+        <v>270</v>
       </c>
     </row>
     <row r="907" spans="1:9">
       <c r="A907" t="s">
         <v>1260</v>
       </c>
-      <c r="B907" t="s">
-        <v>20</v>
-      </c>
       <c r="C907" t="s">
         <v>1209</v>
       </c>
       <c r="D907" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E907" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F907" t="s">
         <v>1261</v>
       </c>
-      <c r="I907" t="s">
-        <v>862</v>
+      <c r="I907" s="1" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="908" spans="1:9">
       <c r="A908" t="s">
         <v>1260</v>
       </c>
+      <c r="B908" t="s">
+        <v>20</v>
+      </c>
       <c r="C908" t="s">
         <v>1209</v>
       </c>
       <c r="D908" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E908" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F908" t="s">
         <v>1261</v>
       </c>
-      <c r="I908" t="s">
-        <v>962</v>
+      <c r="I908" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="909" spans="1:9">
       <c r="A909" t="s">
         <v>1260</v>
       </c>
+      <c r="B909" t="s">
+        <v>20</v>
+      </c>
       <c r="C909" t="s">
         <v>1209</v>
       </c>
       <c r="D909" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E909" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F909" t="s">
         <v>1261</v>
       </c>
       <c r="I909" t="s">
-        <v>994</v>
+        <v>862</v>
       </c>
     </row>
     <row r="910" spans="1:9">
       <c r="A910" t="s">
         <v>1260</v>
       </c>
-      <c r="B910" t="s">
-        <v>20</v>
-      </c>
       <c r="C910" t="s">
         <v>1209</v>
       </c>
       <c r="D910" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E910" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F910" t="s">
         <v>1261</v>
       </c>
-      <c r="I910" s="1" t="s">
-        <v>1128</v>
+      <c r="I910" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="911" spans="1:9">
@@ -20553,16 +20550,16 @@
         <v>1209</v>
       </c>
       <c r="D911" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E911" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F911" t="s">
         <v>1261</v>
       </c>
-      <c r="I911" s="1" t="s">
-        <v>1263</v>
+      <c r="I911" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="912" spans="1:9">
@@ -20576,56 +20573,59 @@
         <v>1209</v>
       </c>
       <c r="D912" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E912" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F912" t="s">
         <v>1261</v>
       </c>
-      <c r="I912" t="s">
-        <v>1238</v>
+      <c r="I912" s="1" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="913" spans="1:9">
       <c r="A913" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C913" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D913" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E913" t="s">
-        <v>1070</v>
+        <v>1204</v>
       </c>
       <c r="F913" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>23</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="914" spans="1:9">
       <c r="A914" t="s">
-        <v>1264</v>
+        <v>1260</v>
+      </c>
+      <c r="B914" t="s">
+        <v>20</v>
       </c>
       <c r="C914" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D914" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="E914" t="s">
-        <v>1074</v>
+        <v>1206</v>
       </c>
       <c r="F914" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I914" s="1" t="s">
-        <v>1266</v>
+        <v>1261</v>
+      </c>
+      <c r="I914" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="915" spans="1:9">
@@ -20636,125 +20636,122 @@
         <v>1084</v>
       </c>
       <c r="D915" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="E915" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F915" t="s">
         <v>1265</v>
       </c>
       <c r="I915" s="1" t="s">
-        <v>1267</v>
+        <v>23</v>
       </c>
     </row>
     <row r="916" spans="1:9">
       <c r="A916" t="s">
         <v>1264</v>
       </c>
-      <c r="B916" t="s">
-        <v>20</v>
-      </c>
       <c r="C916" t="s">
         <v>1084</v>
       </c>
       <c r="D916" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="E916" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F916" t="s">
         <v>1265</v>
       </c>
       <c r="I916" s="1" t="s">
-        <v>550</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="917" spans="1:9">
       <c r="A917" t="s">
         <v>1264</v>
       </c>
-      <c r="B917" t="s">
-        <v>20</v>
-      </c>
       <c r="C917" t="s">
         <v>1084</v>
       </c>
       <c r="D917" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E917" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F917" t="s">
         <v>1265</v>
       </c>
-      <c r="I917" t="s">
-        <v>841</v>
+      <c r="I917" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="918" spans="1:9">
       <c r="A918" t="s">
         <v>1264</v>
       </c>
+      <c r="B918" t="s">
+        <v>20</v>
+      </c>
       <c r="C918" t="s">
         <v>1084</v>
       </c>
       <c r="D918" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E918" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F918" t="s">
         <v>1265</v>
       </c>
-      <c r="I918" t="s">
-        <v>962</v>
+      <c r="I918" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="919" spans="1:9">
       <c r="A919" t="s">
         <v>1264</v>
       </c>
+      <c r="B919" t="s">
+        <v>20</v>
+      </c>
       <c r="C919" t="s">
         <v>1084</v>
       </c>
       <c r="D919" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E919" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F919" t="s">
         <v>1265</v>
       </c>
       <c r="I919" t="s">
-        <v>994</v>
+        <v>841</v>
       </c>
     </row>
     <row r="920" spans="1:9">
       <c r="A920" t="s">
         <v>1264</v>
       </c>
-      <c r="B920" t="s">
-        <v>20</v>
-      </c>
       <c r="C920" t="s">
         <v>1084</v>
       </c>
       <c r="D920" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E920" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F920" t="s">
         <v>1265</v>
       </c>
-      <c r="I920" s="1" t="s">
-        <v>1257</v>
+      <c r="I920" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="921" spans="1:9">
@@ -20765,16 +20762,16 @@
         <v>1084</v>
       </c>
       <c r="D921" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E921" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F921" t="s">
         <v>1265</v>
       </c>
-      <c r="I921" s="1" t="s">
-        <v>1268</v>
+      <c r="I921" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="922" spans="1:9">
@@ -20788,73 +20785,76 @@
         <v>1084</v>
       </c>
       <c r="D922" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E922" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F922" t="s">
         <v>1265</v>
       </c>
-      <c r="I922" t="s">
-        <v>1238</v>
+      <c r="I922" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="923" spans="1:9">
       <c r="A923" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B923" t="s">
-        <v>20</v>
+        <v>1264</v>
       </c>
       <c r="C923" t="s">
-        <v>1240</v>
+        <v>1084</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1236</v>
       </c>
       <c r="E923" t="s">
-        <v>965</v>
-      </c>
-      <c r="I923" t="s">
-        <v>972</v>
+        <v>1204</v>
+      </c>
+      <c r="F923" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I923" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="924" spans="1:9">
       <c r="A924" t="s">
-        <v>1270</v>
+        <v>1264</v>
+      </c>
+      <c r="B924" t="s">
+        <v>20</v>
       </c>
       <c r="C924" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D924" t="s">
-        <v>1210</v>
+        <v>1236</v>
       </c>
       <c r="E924" t="s">
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="F924" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="I924" t="s">
-        <v>35</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="925" spans="1:9">
       <c r="A925" t="s">
-        <v>1270</v>
+        <v>1269</v>
+      </c>
+      <c r="B925" t="s">
+        <v>20</v>
       </c>
       <c r="C925" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D925" t="s">
-        <v>1212</v>
+        <v>1240</v>
       </c>
       <c r="E925" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F925" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I925" s="1" t="s">
-        <v>139</v>
+        <v>965</v>
+      </c>
+      <c r="I925" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="926" spans="1:9">
@@ -20865,125 +20865,122 @@
         <v>1271</v>
       </c>
       <c r="D926" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E926" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F926" t="s">
         <v>1272</v>
       </c>
       <c r="I926" t="s">
-        <v>1187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="927" spans="1:9">
       <c r="A927" t="s">
         <v>1270</v>
       </c>
-      <c r="B927" t="s">
-        <v>20</v>
-      </c>
       <c r="C927" t="s">
         <v>1271</v>
       </c>
       <c r="D927" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E927" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F927" t="s">
         <v>1272</v>
       </c>
-      <c r="I927" t="s">
-        <v>412</v>
+      <c r="I927" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="928" spans="1:9">
       <c r="A928" t="s">
         <v>1270</v>
       </c>
-      <c r="B928" t="s">
-        <v>20</v>
-      </c>
       <c r="C928" t="s">
         <v>1271</v>
       </c>
       <c r="D928" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E928" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F928" t="s">
         <v>1272</v>
       </c>
       <c r="I928" t="s">
-        <v>422</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="929" spans="1:9">
       <c r="A929" t="s">
         <v>1270</v>
       </c>
+      <c r="B929" t="s">
+        <v>20</v>
+      </c>
       <c r="C929" t="s">
         <v>1271</v>
       </c>
       <c r="D929" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E929" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F929" t="s">
         <v>1272</v>
       </c>
       <c r="I929" t="s">
-        <v>962</v>
+        <v>412</v>
       </c>
     </row>
     <row r="930" spans="1:9">
       <c r="A930" t="s">
         <v>1270</v>
       </c>
+      <c r="B930" t="s">
+        <v>20</v>
+      </c>
       <c r="C930" t="s">
         <v>1271</v>
       </c>
       <c r="D930" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E930" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F930" t="s">
         <v>1272</v>
       </c>
       <c r="I930" t="s">
-        <v>990</v>
+        <v>422</v>
       </c>
     </row>
     <row r="931" spans="1:9">
       <c r="A931" t="s">
         <v>1270</v>
       </c>
-      <c r="B931" t="s">
-        <v>20</v>
-      </c>
       <c r="C931" t="s">
         <v>1271</v>
       </c>
       <c r="D931" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E931" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F931" t="s">
         <v>1272</v>
       </c>
       <c r="I931" t="s">
-        <v>1024</v>
+        <v>962</v>
       </c>
     </row>
     <row r="932" spans="1:9">
@@ -20994,16 +20991,16 @@
         <v>1271</v>
       </c>
       <c r="D932" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E932" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F932" t="s">
         <v>1272</v>
       </c>
       <c r="I932" t="s">
-        <v>1205</v>
+        <v>990</v>
       </c>
     </row>
     <row r="933" spans="1:9">
@@ -21017,16 +21014,16 @@
         <v>1271</v>
       </c>
       <c r="D933" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E933" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F933" t="s">
         <v>1272</v>
       </c>
       <c r="I933" t="s">
-        <v>1207</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="934" spans="1:9">
@@ -21034,33 +21031,42 @@
         <v>1270</v>
       </c>
       <c r="C934" t="s">
-        <v>1273</v>
+        <v>1271</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1219</v>
       </c>
       <c r="E934" t="s">
-        <v>1070</v>
+        <v>1204</v>
       </c>
       <c r="F934" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I934" t="s">
-        <v>1072</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="935" spans="1:9">
       <c r="A935" t="s">
         <v>1270</v>
       </c>
+      <c r="B935" t="s">
+        <v>20</v>
+      </c>
       <c r="C935" t="s">
-        <v>1275</v>
+        <v>1271</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1219</v>
       </c>
       <c r="E935" t="s">
-        <v>1074</v>
+        <v>1206</v>
       </c>
       <c r="F935" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I935" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
+      </c>
+      <c r="I935" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="936" spans="1:9">
@@ -21068,110 +21074,107 @@
         <v>1270</v>
       </c>
       <c r="C936" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="E936" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F936" t="s">
         <v>1274</v>
       </c>
       <c r="I936" t="s">
-        <v>352</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="937" spans="1:9">
       <c r="A937" t="s">
         <v>1270</v>
       </c>
-      <c r="B937" t="s">
-        <v>20</v>
-      </c>
       <c r="C937" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E937" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F937" t="s">
         <v>1274</v>
       </c>
-      <c r="I937" t="s">
-        <v>419</v>
+      <c r="I937" s="1" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="938" spans="1:9">
       <c r="A938" t="s">
         <v>1270</v>
       </c>
-      <c r="B938" t="s">
-        <v>20</v>
-      </c>
       <c r="C938" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E938" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F938" t="s">
         <v>1274</v>
       </c>
       <c r="I938" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
     </row>
     <row r="939" spans="1:9">
       <c r="A939" t="s">
         <v>1270</v>
       </c>
+      <c r="B939" t="s">
+        <v>20</v>
+      </c>
       <c r="C939" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E939" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F939" t="s">
         <v>1274</v>
       </c>
       <c r="I939" t="s">
-        <v>962</v>
+        <v>419</v>
       </c>
     </row>
     <row r="940" spans="1:9">
       <c r="A940" t="s">
         <v>1270</v>
       </c>
+      <c r="B940" t="s">
+        <v>20</v>
+      </c>
       <c r="C940" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E940" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F940" t="s">
         <v>1274</v>
       </c>
       <c r="I940" t="s">
-        <v>990</v>
+        <v>436</v>
       </c>
     </row>
     <row r="941" spans="1:9">
       <c r="A941" t="s">
         <v>1270</v>
       </c>
-      <c r="B941" t="s">
-        <v>20</v>
-      </c>
       <c r="C941" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E941" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F941" t="s">
         <v>1274</v>
       </c>
       <c r="I941" t="s">
-        <v>1082</v>
+        <v>962</v>
       </c>
     </row>
     <row r="942" spans="1:9">
@@ -21179,19 +21182,16 @@
         <v>1270</v>
       </c>
       <c r="C942" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D942" t="s">
-        <v>1203</v>
+        <v>1281</v>
       </c>
       <c r="E942" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F942" t="s">
         <v>1274</v>
       </c>
       <c r="I942" t="s">
-        <v>1205</v>
+        <v>990</v>
       </c>
     </row>
     <row r="943" spans="1:9">
@@ -21202,73 +21202,73 @@
         <v>20</v>
       </c>
       <c r="C943" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1203</v>
+        <v>1282</v>
       </c>
       <c r="E943" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F943" t="s">
         <v>1274</v>
       </c>
       <c r="I943" t="s">
-        <v>1207</v>
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9">
+      <c r="A944" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C944" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I944" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="945" spans="1:9">
       <c r="A945" t="s">
-        <v>1284</v>
+        <v>1270</v>
+      </c>
+      <c r="B945" t="s">
+        <v>20</v>
       </c>
       <c r="C945" t="s">
-        <v>1285</v>
+        <v>1283</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1203</v>
       </c>
       <c r="E945" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F945" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="I945" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="946" spans="1:9">
-      <c r="A946" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B946" t="s">
-        <v>20</v>
-      </c>
-      <c r="C946" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E946" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F946" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I946" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="947" spans="1:9">
       <c r="A947" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C947" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D947" t="s">
-        <v>1203</v>
+        <v>1285</v>
       </c>
       <c r="E947" t="s">
         <v>1204</v>
       </c>
       <c r="F947" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I947" t="s">
         <v>1205</v>
@@ -21276,22 +21276,19 @@
     </row>
     <row r="948" spans="1:9">
       <c r="A948" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B948" t="s">
         <v>20</v>
       </c>
       <c r="C948" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D948" t="s">
-        <v>1203</v>
+        <v>1285</v>
       </c>
       <c r="E948" t="s">
         <v>1206</v>
       </c>
       <c r="F948" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I948" t="s">
         <v>1207</v>
@@ -21299,35 +21296,50 @@
     </row>
     <row r="949" spans="1:9">
       <c r="A949" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C949" t="s">
-        <v>1291</v>
+        <v>1288</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1203</v>
       </c>
       <c r="E949" t="s">
-        <v>1292</v>
+        <v>1204</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1289</v>
       </c>
       <c r="I949" t="s">
-        <v>1293</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="950" spans="1:9">
       <c r="A950" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G950" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H950" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I950" s="1" t="s">
-        <v>1296</v>
+        <v>1287</v>
+      </c>
+      <c r="B950" t="s">
+        <v>20</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I950" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="951" spans="1:9">
       <c r="A951" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="C951" t="s">
         <v>1291</v>
@@ -21336,40 +21348,40 @@
         <v>1292</v>
       </c>
       <c r="I951" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="952" spans="1:9">
       <c r="A952" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C952" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E952" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I952" t="s">
-        <v>1300</v>
+        <v>1290</v>
+      </c>
+      <c r="G952" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H952" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I952" s="1" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="953" spans="1:9">
       <c r="A953" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G953" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H953" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I953" s="1" t="s">
-        <v>90</v>
+        <v>1297</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E953" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I953" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="954" spans="1:9">
       <c r="A954" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C954" t="s">
         <v>1291</v>
@@ -21378,12 +21390,12 @@
         <v>1292</v>
       </c>
       <c r="I954" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="955" spans="1:9">
       <c r="A955" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G955" t="s">
         <v>1294</v>
@@ -21392,15 +21404,12 @@
         <v>1295</v>
       </c>
       <c r="I955" s="1" t="s">
-        <v>1037</v>
+        <v>90</v>
       </c>
     </row>
     <row r="956" spans="1:9">
       <c r="A956" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B956" t="s">
-        <v>20</v>
+        <v>1301</v>
       </c>
       <c r="C956" t="s">
         <v>1291</v>
@@ -21409,29 +21418,29 @@
         <v>1292</v>
       </c>
       <c r="I956" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="957" spans="1:9">
       <c r="A957" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B957" t="s">
-        <v>20</v>
+        <v>1301</v>
       </c>
       <c r="G957" t="s">
         <v>1294</v>
       </c>
       <c r="H957" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I957" t="s">
-        <v>1306</v>
+        <v>1295</v>
+      </c>
+      <c r="I957" s="1" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="958" spans="1:9">
       <c r="A958" t="s">
-        <v>1307</v>
+        <v>1303</v>
+      </c>
+      <c r="B958" t="s">
+        <v>20</v>
       </c>
       <c r="C958" t="s">
         <v>1291</v>
@@ -21440,26 +21449,29 @@
         <v>1292</v>
       </c>
       <c r="I958" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="959" spans="1:9">
       <c r="A959" t="s">
-        <v>1307</v>
+        <v>1303</v>
+      </c>
+      <c r="B959" t="s">
+        <v>20</v>
       </c>
       <c r="G959" t="s">
         <v>1294</v>
       </c>
       <c r="H959" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I959" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
+      </c>
+      <c r="I959" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="960" spans="1:9">
       <c r="A960" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C960" t="s">
         <v>1291</v>
@@ -21468,12 +21480,12 @@
         <v>1292</v>
       </c>
       <c r="I960" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="961" spans="1:9">
       <c r="A961" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="G961" t="s">
         <v>1294</v>
@@ -21482,12 +21494,12 @@
         <v>1295</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="962" spans="1:9">
       <c r="A962" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C962" t="s">
         <v>1291</v>
@@ -21496,12 +21508,12 @@
         <v>1292</v>
       </c>
       <c r="I962" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="963" spans="1:9">
       <c r="A963" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="G963" t="s">
         <v>1294</v>
@@ -21509,85 +21521,76 @@
       <c r="H963" t="s">
         <v>1295</v>
       </c>
-      <c r="I963" t="s">
-        <v>962</v>
+      <c r="I963" s="1" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="964" spans="1:9">
       <c r="A964" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C964" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D964" t="s">
-        <v>1203</v>
+        <v>1291</v>
       </c>
       <c r="E964" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F964" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I964" s="1" t="s">
-        <v>1317</v>
+        <v>1292</v>
+      </c>
+      <c r="I964" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="965" spans="1:9">
       <c r="A965" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B965" t="s">
-        <v>20</v>
-      </c>
-      <c r="C965" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D965" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E965" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F965" t="s">
-        <v>1316</v>
+        <v>1313</v>
+      </c>
+      <c r="G965" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H965" t="s">
+        <v>1295</v>
       </c>
       <c r="I965" t="s">
-        <v>1238</v>
+        <v>962</v>
       </c>
     </row>
     <row r="966" spans="1:9">
       <c r="A966" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C966" t="s">
-        <v>1242</v>
+        <v>1288</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1203</v>
       </c>
       <c r="E966" t="s">
         <v>1204</v>
       </c>
       <c r="F966" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="967" spans="1:9">
       <c r="A967" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B967" t="s">
         <v>20</v>
       </c>
       <c r="C967" t="s">
-        <v>1242</v>
+        <v>1288</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1203</v>
       </c>
       <c r="E967" t="s">
         <v>1206</v>
       </c>
       <c r="F967" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I967" t="s">
         <v>1238</v>
@@ -21595,7 +21598,7 @@
     </row>
     <row r="968" spans="1:9">
       <c r="A968" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C968" t="s">
         <v>1242</v>
@@ -21604,7 +21607,7 @@
         <v>1204</v>
       </c>
       <c r="F968" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I968" s="1" t="s">
         <v>1320</v>
@@ -21612,7 +21615,7 @@
     </row>
     <row r="969" spans="1:9">
       <c r="A969" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B969" t="s">
         <v>20</v>
@@ -21624,7 +21627,7 @@
         <v>1206</v>
       </c>
       <c r="F969" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I969" t="s">
         <v>1238</v>
@@ -21632,7 +21635,7 @@
     </row>
     <row r="970" spans="1:9">
       <c r="A970" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C970" t="s">
         <v>1242</v>
@@ -21641,15 +21644,15 @@
         <v>1204</v>
       </c>
       <c r="F970" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I970" s="1" t="s">
-        <v>1237</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B971" t="s">
         <v>20</v>
@@ -21661,15 +21664,15 @@
         <v>1206</v>
       </c>
       <c r="F971" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="I971" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C972" t="s">
         <v>1242</v>
@@ -21678,15 +21681,15 @@
         <v>1204</v>
       </c>
       <c r="F972" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>1327</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="973" spans="1:9">
       <c r="A973" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B973" t="s">
         <v>20</v>
@@ -21698,123 +21701,132 @@
         <v>1206</v>
       </c>
       <c r="F973" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="I973" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="974" spans="1:9">
       <c r="A974" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C974" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D974" t="s">
-        <v>1203</v>
+        <v>1242</v>
       </c>
       <c r="E974" t="s">
         <v>1204</v>
       </c>
       <c r="F974" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="975" spans="1:9">
       <c r="A975" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B975" t="s">
         <v>20</v>
       </c>
       <c r="C975" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D975" t="s">
-        <v>1203</v>
+        <v>1242</v>
       </c>
       <c r="E975" t="s">
         <v>1206</v>
       </c>
       <c r="F975" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I975" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="976" spans="1:9">
       <c r="A976" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C976" t="s">
-        <v>1242</v>
+        <v>1288</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1203</v>
       </c>
       <c r="E976" t="s">
         <v>1204</v>
       </c>
       <c r="F976" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I976" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="977" spans="1:9">
       <c r="A977" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B977" t="s">
         <v>20</v>
       </c>
       <c r="C977" t="s">
-        <v>1242</v>
+        <v>1288</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1203</v>
       </c>
       <c r="E977" t="s">
         <v>1206</v>
       </c>
       <c r="F977" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I977" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="978" spans="1:9">
       <c r="A978" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C978" t="s">
-        <v>1291</v>
+        <v>1242</v>
       </c>
       <c r="E978" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I978" t="s">
-        <v>1293</v>
+        <v>1204</v>
+      </c>
+      <c r="F978" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I978" s="1" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="979" spans="1:9">
       <c r="A979" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G979" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H979" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I979" s="1" t="s">
-        <v>1335</v>
+        <v>1331</v>
+      </c>
+      <c r="B979" t="s">
+        <v>20</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E979" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F979" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I979" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C980" t="s">
         <v>1291</v>
@@ -21823,12 +21835,12 @@
         <v>1292</v>
       </c>
       <c r="I980" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="981" spans="1:9">
       <c r="A981" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G981" t="s">
         <v>1294</v>
@@ -21837,15 +21849,12 @@
         <v>1295</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B982" t="s">
-        <v>20</v>
+        <v>1336</v>
       </c>
       <c r="C982" t="s">
         <v>1291</v>
@@ -21854,29 +21863,29 @@
         <v>1292</v>
       </c>
       <c r="I982" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="983" spans="1:9">
       <c r="A983" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B983" t="s">
-        <v>20</v>
+        <v>1336</v>
       </c>
       <c r="G983" t="s">
         <v>1294</v>
       </c>
       <c r="H983" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I983" t="s">
-        <v>563</v>
+        <v>1295</v>
+      </c>
+      <c r="I983" s="1" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="984" spans="1:9">
       <c r="A984" t="s">
-        <v>1339</v>
+        <v>1338</v>
+      </c>
+      <c r="B984" t="s">
+        <v>20</v>
       </c>
       <c r="C984" t="s">
         <v>1291</v>
@@ -21885,29 +21894,32 @@
         <v>1292</v>
       </c>
       <c r="I984" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" t="s">
-        <v>1339</v>
+        <v>1338</v>
+      </c>
+      <c r="B985" t="s">
+        <v>20</v>
       </c>
       <c r="G985" t="s">
         <v>1294</v>
       </c>
       <c r="H985" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I985" s="1" t="s">
-        <v>1340</v>
+        <v>1305</v>
+      </c>
+      <c r="I985" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="986" spans="1:9">
       <c r="A986" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C986" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E986" t="s">
         <v>1292</v>
@@ -21918,7 +21930,7 @@
     </row>
     <row r="987" spans="1:9">
       <c r="A987" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G987" t="s">
         <v>1294</v>
@@ -21927,40 +21939,40 @@
         <v>1295</v>
       </c>
       <c r="I987" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="988" spans="1:9">
       <c r="A988" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C988" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E988" t="s">
         <v>1292</v>
       </c>
       <c r="I988" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="989" spans="1:9">
       <c r="A989" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C989" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E989" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I989" t="s">
-        <v>1298</v>
+        <v>1341</v>
+      </c>
+      <c r="G989" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H989" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I989" s="1" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="990" spans="1:9">
       <c r="A990" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C990" t="s">
         <v>1291</v>
@@ -21969,29 +21981,29 @@
         <v>1292</v>
       </c>
       <c r="I990" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="991" spans="1:9">
       <c r="A991" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G991" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H991" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I991" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E991" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I991" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C992" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E992" t="s">
         <v>1292</v>
@@ -22002,7 +22014,7 @@
     </row>
     <row r="993" spans="1:9">
       <c r="A993" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G993" t="s">
         <v>1294</v>
@@ -22011,26 +22023,26 @@
         <v>1295</v>
       </c>
       <c r="I993" s="1" t="s">
-        <v>81</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="994" spans="1:9">
       <c r="A994" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C994" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E994" t="s">
         <v>1292</v>
       </c>
       <c r="I994" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="995" spans="1:9">
       <c r="A995" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G995" t="s">
         <v>1294</v>
@@ -22039,15 +22051,15 @@
         <v>1295</v>
       </c>
       <c r="I995" s="1" t="s">
-        <v>1349</v>
+        <v>81</v>
       </c>
     </row>
     <row r="996" spans="1:9">
       <c r="A996" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C996" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E996" t="s">
         <v>1292</v>
@@ -22058,7 +22070,7 @@
     </row>
     <row r="997" spans="1:9">
       <c r="A997" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G997" t="s">
         <v>1294</v>
@@ -22067,52 +22079,46 @@
         <v>1295</v>
       </c>
       <c r="I997" s="1" t="s">
-        <v>1128</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="998" spans="1:9">
       <c r="A998" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B998" t="s">
-        <v>20</v>
+        <v>1350</v>
       </c>
       <c r="C998" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E998" t="s">
         <v>1292</v>
       </c>
       <c r="I998" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B999" t="s">
-        <v>20</v>
+        <v>1350</v>
       </c>
       <c r="G999" t="s">
         <v>1294</v>
       </c>
       <c r="H999" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I999" t="s">
-        <v>1352</v>
+        <v>1295</v>
+      </c>
+      <c r="I999" s="1" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
       <c r="A1000" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B1000" t="s">
         <v>20</v>
       </c>
       <c r="C1000" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E1000" t="s">
         <v>1292</v>
@@ -22123,7 +22129,7 @@
     </row>
     <row r="1001" spans="1:9">
       <c r="A1001" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B1001" t="s">
         <v>20</v>
@@ -22135,43 +22141,49 @@
         <v>1305</v>
       </c>
       <c r="I1001" t="s">
-        <v>563</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
       <c r="A1002" t="s">
-        <v>1354</v>
+        <v>1353</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>20</v>
       </c>
       <c r="C1002" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E1002" t="s">
         <v>1292</v>
       </c>
       <c r="I1002" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
       <c r="A1003" t="s">
-        <v>1354</v>
+        <v>1353</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>20</v>
       </c>
       <c r="G1003" t="s">
         <v>1294</v>
       </c>
       <c r="H1003" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1003" s="1" t="s">
-        <v>1355</v>
+        <v>1305</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C1004" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E1004" t="s">
         <v>1292</v>
@@ -22182,7 +22194,7 @@
     </row>
     <row r="1005" spans="1:9">
       <c r="A1005" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G1005" t="s">
         <v>1294</v>
@@ -22196,21 +22208,21 @@
     </row>
     <row r="1006" spans="1:9">
       <c r="A1006" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C1006" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E1006" t="s">
         <v>1292</v>
       </c>
       <c r="I1006" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
       <c r="A1007" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G1007" t="s">
         <v>1294</v>
@@ -22219,15 +22231,15 @@
         <v>1295</v>
       </c>
       <c r="I1007" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
       <c r="A1008" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C1008" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E1008" t="s">
         <v>1292</v>
@@ -22238,7 +22250,7 @@
     </row>
     <row r="1009" spans="1:9">
       <c r="A1009" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G1009" t="s">
         <v>1294</v>
@@ -22247,26 +22259,26 @@
         <v>1295</v>
       </c>
       <c r="I1009" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C1010" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E1010" t="s">
         <v>1292</v>
       </c>
       <c r="I1010" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1011" spans="1:9">
       <c r="A1011" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="G1011" t="s">
         <v>1294</v>
@@ -22274,16 +22286,16 @@
       <c r="H1011" t="s">
         <v>1295</v>
       </c>
-      <c r="I1011" t="s">
-        <v>962</v>
+      <c r="I1011" s="1" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
       <c r="A1012" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C1012" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E1012" t="s">
         <v>1292</v>
@@ -22294,7 +22306,7 @@
     </row>
     <row r="1013" spans="1:9">
       <c r="A1013" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G1013" t="s">
         <v>1294</v>
@@ -22308,45 +22320,30 @@
     </row>
     <row r="1014" spans="1:9">
       <c r="A1014" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C1014" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D1014" t="s">
-        <v>1203</v>
+        <v>1288</v>
       </c>
       <c r="E1014" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F1014" t="s">
-        <v>1365</v>
+        <v>1292</v>
       </c>
       <c r="I1014" t="s">
-        <v>1205</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1015" spans="1:9">
       <c r="A1015" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D1015" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E1015" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F1015" t="s">
-        <v>1365</v>
+        <v>1362</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>1295</v>
       </c>
       <c r="I1015" t="s">
-        <v>1207</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1016" spans="1:9">
@@ -22354,15 +22351,58 @@
         <v>1363</v>
       </c>
       <c r="C1016" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I1016" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9">
+      <c r="A1017" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I1017" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9">
+      <c r="A1018" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1018" t="s">
         <v>1366</v>
       </c>
-      <c r="E1016" t="s">
+      <c r="E1018" t="s">
         <v>1258</v>
       </c>
-      <c r="F1016" t="s">
+      <c r="F1018" t="s">
         <v>1367</v>
       </c>
-      <c r="I1016" t="s">
+      <c r="I1018" t="s">
         <v>1368</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5093" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5316" uniqueCount="1439">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4250,6 +4250,87 @@
   </si>
   <si>
     <t>newDepartmentId</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.addJob</t>
+  </si>
+  <si>
+    <t>newJob.getTrialId</t>
+  </si>
+  <si>
+    <t>newJob.getProbandId</t>
+  </si>
+  <si>
+    <t>newJob.getInputFieldId</t>
+  </si>
+  <si>
+    <t>newJob.getCriteriaId</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.addJob:newJob</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.deleteJob</t>
+  </si>
+  <si>
+    <t>jobId</t>
+  </si>
+  <si>
+    <t>JOB_ID_TO_TRIAL_ID</t>
+  </si>
+  <si>
+    <t>JOB_ID_TO_PROBAND_ID</t>
+  </si>
+  <si>
+    <t>JOB_ID_TO_INPUT_FIELD_ID</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.deleteJob:jobId</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJob</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJob:jobId</t>
+  </si>
+  <si>
+    <t>JOB_MODULE_AND_ID_TO_TRIAL_ID</t>
+  </si>
+  <si>
+    <t>JOB_MODULE_AND_ID_TO_PROBAND_ID</t>
+  </si>
+  <si>
+    <t>JOB_MODULE_AND_ID_TO_INPUT_FIELD_ID</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJobCount</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJobCount:module, id</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJobs</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJobs:module, id</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJobFile</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.getJobFile:jobId</t>
+  </si>
+  <si>
+    <t>CRITERIA_JOB_ID_TO_DB_MODULE</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.updateJob</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JobService.updateJob:modifiedJob</t>
+  </si>
+  <si>
+    <t>modifiedJob.getId</t>
   </si>
 </sst>
 </file>
@@ -5074,10 +5155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1018"/>
+  <dimension ref="A1:I1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="A638" sqref="A638"/>
+    <sheetView tabSelected="1" topLeftCell="F858" workbookViewId="0">
+      <selection activeCell="F880" sqref="F880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19335,1362 +19416,1355 @@
         <v>427</v>
       </c>
     </row>
-    <row r="852" spans="1:9">
-      <c r="A852" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C852" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E852" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F852" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I852" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="853" spans="1:9">
-      <c r="A853" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C853" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E853" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F853" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I853" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="854" spans="1:9">
-      <c r="A854" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C854" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E854" t="s">
-        <v>345</v>
-      </c>
-      <c r="F854" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I854" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="855" spans="1:9">
-      <c r="A855" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B855" t="s">
-        <v>20</v>
-      </c>
-      <c r="C855" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E855" t="s">
+    <row r="851" spans="1:9" s="2" customFormat="1"/>
+    <row r="852" spans="1:9" s="2" customFormat="1">
+      <c r="A852" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C852" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E852" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="F855" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I855" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="856" spans="1:9">
-      <c r="A856" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B856" t="s">
-        <v>20</v>
-      </c>
-      <c r="C856" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E856" t="s">
+      <c r="F852" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I852" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" s="2" customFormat="1">
+      <c r="A853" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E853" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="F856" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I856" t="s">
+      <c r="F853" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I853" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="857" spans="1:9">
-      <c r="A857" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C857" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E857" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F857" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I857" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="858" spans="1:9">
-      <c r="A858" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C858" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E858" t="s">
+    <row r="854" spans="1:9" s="2" customFormat="1">
+      <c r="A854" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C854" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E854" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="F858" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I858" t="s">
+      <c r="F854" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I854" s="2" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="859" spans="1:9">
-      <c r="A859" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B859" t="s">
-        <v>20</v>
-      </c>
-      <c r="C859" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E859" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F859" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I859" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="860" spans="1:9">
-      <c r="A860" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C860" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D860" t="s">
+    <row r="855" spans="1:9" s="2" customFormat="1">
+      <c r="A855" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C855" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D855" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="E860" t="s">
+      <c r="E855" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="F860" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I860" t="s">
+      <c r="F855" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I855" s="3" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="861" spans="1:9">
-      <c r="A861" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B861" t="s">
-        <v>20</v>
-      </c>
-      <c r="C861" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D861" t="s">
+    <row r="856" spans="1:9" s="2" customFormat="1">
+      <c r="A856" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C856" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D856" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="E861" t="s">
+      <c r="E856" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="F861" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I861" t="s">
+      <c r="F856" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I856" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="862" spans="1:9">
-      <c r="A862" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C862" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D862" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E862" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F862" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I862" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="863" spans="1:9">
-      <c r="A863" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C863" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D863" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E863" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F863" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I863" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="864" spans="1:9">
-      <c r="A864" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C864" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D864" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E864" t="s">
-        <v>345</v>
-      </c>
-      <c r="F864" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I864" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="865" spans="1:9">
-      <c r="A865" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B865" t="s">
-        <v>20</v>
-      </c>
-      <c r="C865" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D865" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E865" t="s">
+    <row r="857" spans="1:9" s="2" customFormat="1">
+      <c r="A857" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E857" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="F865" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I865" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="866" spans="1:9">
-      <c r="A866" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B866" t="s">
-        <v>20</v>
-      </c>
-      <c r="C866" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D866" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E866" t="s">
+      <c r="F857" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I857" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" s="2" customFormat="1">
+      <c r="A858" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C858" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E858" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="F866" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I866" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="867" spans="1:9">
-      <c r="A867" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C867" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D867" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E867" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F867" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I867" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="868" spans="1:9">
-      <c r="A868" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C868" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D868" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E868" t="s">
+      <c r="F858" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I858" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" s="2" customFormat="1">
+      <c r="A859" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E859" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="F868" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I868" t="s">
+      <c r="F859" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I859" s="2" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="869" spans="1:9">
-      <c r="A869" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B869" t="s">
-        <v>20</v>
-      </c>
-      <c r="C869" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D869" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E869" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F869" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I869" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="870" spans="1:9">
-      <c r="A870" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C870" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D870" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E870" t="s">
+    <row r="860" spans="1:9" s="2" customFormat="1">
+      <c r="A860" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C860" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E860" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="F870" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I870" t="s">
+      <c r="F860" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I860" s="3" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="871" spans="1:9">
-      <c r="A871" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B871" t="s">
-        <v>20</v>
-      </c>
-      <c r="C871" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D871" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E871" t="s">
+    <row r="861" spans="1:9" s="2" customFormat="1">
+      <c r="A861" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E861" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="F871" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I871" t="s">
+      <c r="F861" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I861" s="2" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="872" spans="1:9">
-      <c r="A872" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B872" t="s">
-        <v>20</v>
-      </c>
-      <c r="C872" t="s">
-        <v>252</v>
-      </c>
-      <c r="E872" t="s">
+    <row r="862" spans="1:9" s="2" customFormat="1">
+      <c r="A862" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C862" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E862" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="I872" s="1" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="873" spans="1:9">
-      <c r="A873" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C873" t="s">
+      <c r="F862" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I862" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" s="2" customFormat="1">
+      <c r="A863" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C863" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E863" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F863" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I863" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" s="2" customFormat="1">
+      <c r="A864" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E864" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F864" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I864" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" s="2" customFormat="1">
+      <c r="A865" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C865" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E865" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F865" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I865" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" s="2" customFormat="1">
+      <c r="A866" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C866" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E866" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I866" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" s="2" customFormat="1">
+      <c r="A867" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C867" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E867" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F867" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I867" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" s="2" customFormat="1">
+      <c r="A868" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C868" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E868" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F868" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I868" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" s="2" customFormat="1">
+      <c r="A869" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C869" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E869" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F869" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I869" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" s="2" customFormat="1">
+      <c r="A870" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E870" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F870" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I870" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" s="2" customFormat="1">
+      <c r="A871" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C871" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E871" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F871" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I871" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" s="2" customFormat="1">
+      <c r="A872" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C872" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D873" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E873" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F873" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I873" s="1" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="874" spans="1:9">
-      <c r="A874" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C874" t="s">
+      <c r="D872" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E872" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F872" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I872" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" s="2" customFormat="1">
+      <c r="A873" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C873" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D874" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E874" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F874" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I874" s="1" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="875" spans="1:9">
-      <c r="A875" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C875" t="s">
+      <c r="D873" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E873" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F873" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I873" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" s="2" customFormat="1">
+      <c r="A874" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C874" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D875" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E875" t="s">
-        <v>345</v>
-      </c>
-      <c r="F875" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I875" s="1" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="876" spans="1:9">
-      <c r="A876" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B876" t="s">
-        <v>20</v>
-      </c>
-      <c r="C876" t="s">
+      <c r="D874" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E874" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F874" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I874" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" s="2" customFormat="1">
+      <c r="A875" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E875" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I875" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" s="2" customFormat="1">
+      <c r="A876" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E876" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F876" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I876" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" s="2" customFormat="1">
+      <c r="A877" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C877" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D876" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E876" t="s">
+      <c r="D877" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E877" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="F876" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I876" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="877" spans="1:9">
-      <c r="A877" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B877" t="s">
-        <v>20</v>
-      </c>
-      <c r="C877" t="s">
+      <c r="F877" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I877" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" s="2" customFormat="1">
+      <c r="A878" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C878" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D877" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E877" t="s">
+      <c r="D878" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E878" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="F877" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I877" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="878" spans="1:9">
-      <c r="A878" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C878" t="s">
+      <c r="F878" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I878" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" s="2" customFormat="1">
+      <c r="A879" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C879" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="D878" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E878" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F878" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I878" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="879" spans="1:9">
-      <c r="A879" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C879" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D879" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E879" t="s">
+      <c r="D879" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E879" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="F879" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I879" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="880" spans="1:9">
-      <c r="A880" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B880" t="s">
-        <v>20</v>
-      </c>
-      <c r="C880" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D880" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E880" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F880" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I880" s="1" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="881" spans="1:9">
-      <c r="A881" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C881" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D881" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E881" t="s">
+      <c r="F879" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I879" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" s="2" customFormat="1">
+      <c r="A880" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E880" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="F881" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I881" s="1" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="882" spans="1:9">
-      <c r="A882" t="s">
-        <v>1222</v>
-      </c>
-      <c r="B882" t="s">
-        <v>20</v>
-      </c>
-      <c r="C882" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D882" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E882" t="s">
+      <c r="F880" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I880" s="3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" s="2" customFormat="1">
+      <c r="A881" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E881" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="F882" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I882" t="s">
+      <c r="F881" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I881" s="2" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="883" spans="1:9">
-      <c r="A883" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B883" t="s">
-        <v>20</v>
-      </c>
-      <c r="C883" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E883" t="s">
-        <v>965</v>
-      </c>
-      <c r="I883" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="884" spans="1:9">
-      <c r="A884" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C884" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D884" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E884" t="s">
+    <row r="882" spans="1:9" s="2" customFormat="1">
+      <c r="A882" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E882" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F882" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I882" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" s="2" customFormat="1">
+      <c r="A883" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E883" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F883" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I883" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" s="2" customFormat="1">
+      <c r="A884" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E884" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F884" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I884" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" s="2" customFormat="1">
+      <c r="A885" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C885" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E885" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="F884" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I884" s="1" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="885" spans="1:9">
-      <c r="A885" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B885" t="s">
-        <v>20</v>
-      </c>
-      <c r="C885" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D885" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E885" t="s">
+      <c r="F885" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I885" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" s="2" customFormat="1">
+      <c r="A886" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E886" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="F885" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I885" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="886" spans="1:9">
-      <c r="A886" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C886" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D886" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E886" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F886" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I886" s="1" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="887" spans="1:9">
-      <c r="A887" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C887" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D887" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E887" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F887" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I887" s="1" t="s">
-        <v>1249</v>
+      <c r="F886" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I886" s="2" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="888" spans="1:9">
       <c r="A888" t="s">
-        <v>1246</v>
+        <v>1189</v>
       </c>
       <c r="C888" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D888" t="s">
-        <v>1227</v>
+        <v>1190</v>
       </c>
       <c r="E888" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F888" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I888" s="1" t="s">
-        <v>1250</v>
+        <v>1191</v>
+      </c>
+      <c r="I888" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="889" spans="1:9">
       <c r="A889" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B889" t="s">
-        <v>20</v>
+        <v>1189</v>
       </c>
       <c r="C889" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D889" t="s">
-        <v>1229</v>
+        <v>1193</v>
       </c>
       <c r="E889" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F889" t="s">
-        <v>1247</v>
+        <v>1191</v>
       </c>
       <c r="I889" s="1" t="s">
-        <v>543</v>
+        <v>304</v>
       </c>
     </row>
     <row r="890" spans="1:9">
       <c r="A890" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B890" t="s">
-        <v>20</v>
+        <v>1189</v>
       </c>
       <c r="C890" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D890" t="s">
-        <v>1231</v>
+        <v>1194</v>
       </c>
       <c r="E890" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F890" t="s">
-        <v>1247</v>
+        <v>1191</v>
       </c>
       <c r="I890" t="s">
-        <v>841</v>
+        <v>352</v>
       </c>
     </row>
     <row r="891" spans="1:9">
       <c r="A891" t="s">
-        <v>1246</v>
+        <v>1189</v>
+      </c>
+      <c r="B891" t="s">
+        <v>20</v>
       </c>
       <c r="C891" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D891" t="s">
-        <v>1232</v>
+        <v>1195</v>
       </c>
       <c r="E891" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F891" t="s">
-        <v>1247</v>
+        <v>1191</v>
       </c>
       <c r="I891" t="s">
-        <v>962</v>
+        <v>432</v>
       </c>
     </row>
     <row r="892" spans="1:9">
       <c r="A892" t="s">
-        <v>1246</v>
+        <v>1189</v>
+      </c>
+      <c r="B892" t="s">
+        <v>20</v>
       </c>
       <c r="C892" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D892" t="s">
-        <v>1233</v>
+        <v>1196</v>
       </c>
       <c r="E892" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F892" t="s">
-        <v>1247</v>
+        <v>1191</v>
       </c>
       <c r="I892" t="s">
-        <v>994</v>
+        <v>436</v>
       </c>
     </row>
     <row r="893" spans="1:9">
       <c r="A893" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B893" t="s">
-        <v>20</v>
+        <v>1189</v>
       </c>
       <c r="C893" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D893" t="s">
-        <v>1234</v>
+        <v>1197</v>
       </c>
       <c r="E893" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F893" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I893" s="1" t="s">
-        <v>1235</v>
+        <v>1191</v>
+      </c>
+      <c r="I893" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="894" spans="1:9">
       <c r="A894" t="s">
-        <v>1246</v>
+        <v>1189</v>
       </c>
       <c r="C894" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D894" t="s">
-        <v>1236</v>
+        <v>1199</v>
       </c>
       <c r="E894" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F894" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I894" s="1" t="s">
-        <v>1251</v>
+        <v>1191</v>
+      </c>
+      <c r="I894" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="895" spans="1:9">
       <c r="A895" t="s">
-        <v>1246</v>
+        <v>1189</v>
       </c>
       <c r="B895" t="s">
         <v>20</v>
       </c>
       <c r="C895" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D895" t="s">
-        <v>1236</v>
+        <v>1201</v>
       </c>
       <c r="E895" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F895" t="s">
-        <v>1247</v>
+        <v>1191</v>
       </c>
       <c r="I895" t="s">
-        <v>1252</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="896" spans="1:9">
       <c r="A896" t="s">
-        <v>1253</v>
+        <v>1189</v>
       </c>
       <c r="C896" t="s">
-        <v>1084</v>
+        <v>1202</v>
       </c>
       <c r="D896" t="s">
-        <v>1223</v>
+        <v>1203</v>
       </c>
       <c r="E896" t="s">
-        <v>1070</v>
+        <v>1204</v>
       </c>
       <c r="F896" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I896" s="1" t="s">
-        <v>90</v>
+        <v>1191</v>
+      </c>
+      <c r="I896" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="897" spans="1:9">
       <c r="A897" t="s">
-        <v>1253</v>
+        <v>1189</v>
+      </c>
+      <c r="B897" t="s">
+        <v>20</v>
       </c>
       <c r="C897" t="s">
-        <v>1084</v>
+        <v>1202</v>
       </c>
       <c r="D897" t="s">
-        <v>1225</v>
+        <v>1203</v>
       </c>
       <c r="E897" t="s">
-        <v>1074</v>
+        <v>1206</v>
       </c>
       <c r="F897" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I897" s="1" t="s">
-        <v>1255</v>
+        <v>1191</v>
+      </c>
+      <c r="I897" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="898" spans="1:9">
       <c r="A898" t="s">
-        <v>1253</v>
+        <v>1208</v>
       </c>
       <c r="C898" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D898" t="s">
-        <v>1227</v>
+        <v>1210</v>
       </c>
       <c r="E898" t="s">
-        <v>345</v>
+        <v>1070</v>
       </c>
       <c r="F898" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I898" s="1" t="s">
-        <v>1256</v>
+        <v>1211</v>
+      </c>
+      <c r="I898" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="899" spans="1:9">
       <c r="A899" t="s">
-        <v>1253</v>
+        <v>1208</v>
       </c>
       <c r="C899" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D899" t="s">
-        <v>1229</v>
+        <v>1212</v>
       </c>
       <c r="E899" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F899" t="s">
-        <v>1254</v>
+        <v>1211</v>
       </c>
       <c r="I899" s="1" t="s">
-        <v>584</v>
+        <v>153</v>
       </c>
     </row>
     <row r="900" spans="1:9">
       <c r="A900" t="s">
-        <v>1253</v>
+        <v>1208</v>
       </c>
       <c r="C900" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D900" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="E900" t="s">
-        <v>1079</v>
+        <v>345</v>
       </c>
       <c r="F900" t="s">
-        <v>1254</v>
+        <v>1211</v>
       </c>
       <c r="I900" t="s">
-        <v>841</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="901" spans="1:9">
       <c r="A901" t="s">
-        <v>1253</v>
+        <v>1208</v>
+      </c>
+      <c r="B901" t="s">
+        <v>20</v>
       </c>
       <c r="C901" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D901" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
       <c r="E901" t="s">
-        <v>1198</v>
+        <v>1077</v>
       </c>
       <c r="F901" t="s">
-        <v>1254</v>
+        <v>1211</v>
       </c>
       <c r="I901" t="s">
-        <v>962</v>
+        <v>419</v>
       </c>
     </row>
     <row r="902" spans="1:9">
       <c r="A902" t="s">
-        <v>1253</v>
+        <v>1208</v>
+      </c>
+      <c r="B902" t="s">
+        <v>20</v>
       </c>
       <c r="C902" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D902" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="E902" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F902" t="s">
-        <v>1254</v>
+        <v>1211</v>
       </c>
       <c r="I902" t="s">
-        <v>994</v>
+        <v>708</v>
       </c>
     </row>
     <row r="903" spans="1:9">
       <c r="A903" t="s">
-        <v>1253</v>
+        <v>1208</v>
       </c>
       <c r="C903" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D903" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="E903" t="s">
-        <v>1081</v>
+        <v>1198</v>
       </c>
       <c r="F903" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I903" s="1" t="s">
-        <v>1257</v>
+        <v>1211</v>
+      </c>
+      <c r="I903" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="904" spans="1:9">
       <c r="A904" t="s">
-        <v>1253</v>
+        <v>1208</v>
       </c>
       <c r="C904" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D904" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="E904" t="s">
-        <v>1258</v>
+        <v>1200</v>
       </c>
       <c r="F904" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I904" s="1" t="s">
-        <v>1259</v>
+        <v>1211</v>
+      </c>
+      <c r="I904" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="905" spans="1:9">
       <c r="A905" t="s">
-        <v>1260</v>
+        <v>1208</v>
+      </c>
+      <c r="B905" t="s">
+        <v>20</v>
       </c>
       <c r="C905" t="s">
         <v>1209</v>
       </c>
       <c r="D905" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="E905" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F905" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I905" s="1" t="s">
-        <v>92</v>
+        <v>1211</v>
+      </c>
+      <c r="I905" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="906" spans="1:9">
       <c r="A906" t="s">
-        <v>1260</v>
+        <v>1208</v>
       </c>
       <c r="C906" t="s">
         <v>1209</v>
       </c>
       <c r="D906" t="s">
-        <v>1212</v>
+        <v>1219</v>
       </c>
       <c r="E906" t="s">
-        <v>1074</v>
+        <v>1204</v>
       </c>
       <c r="F906" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I906" s="1" t="s">
-        <v>270</v>
+        <v>1211</v>
+      </c>
+      <c r="I906" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="907" spans="1:9">
       <c r="A907" t="s">
-        <v>1260</v>
+        <v>1208</v>
+      </c>
+      <c r="B907" t="s">
+        <v>20</v>
       </c>
       <c r="C907" t="s">
         <v>1209</v>
       </c>
       <c r="D907" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="E907" t="s">
-        <v>345</v>
+        <v>1206</v>
       </c>
       <c r="F907" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I907" s="1" t="s">
-        <v>1262</v>
+        <v>1211</v>
+      </c>
+      <c r="I907" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="908" spans="1:9">
       <c r="A908" t="s">
-        <v>1260</v>
+        <v>1220</v>
       </c>
       <c r="B908" t="s">
         <v>20</v>
       </c>
       <c r="C908" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D908" t="s">
-        <v>1214</v>
+        <v>252</v>
       </c>
       <c r="E908" t="s">
         <v>1077</v>
       </c>
-      <c r="F908" t="s">
-        <v>1261</v>
-      </c>
       <c r="I908" s="1" t="s">
-        <v>608</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="909" spans="1:9">
       <c r="A909" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B909" t="s">
-        <v>20</v>
+        <v>1222</v>
       </c>
       <c r="C909" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D909" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="E909" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="F909" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I909" t="s">
-        <v>862</v>
+        <v>1224</v>
+      </c>
+      <c r="I909" s="1" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="910" spans="1:9">
       <c r="A910" t="s">
-        <v>1260</v>
+        <v>1222</v>
       </c>
       <c r="C910" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D910" t="s">
-        <v>1216</v>
+        <v>1225</v>
       </c>
       <c r="E910" t="s">
-        <v>1198</v>
+        <v>1074</v>
       </c>
       <c r="F910" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I910" t="s">
-        <v>962</v>
+        <v>1224</v>
+      </c>
+      <c r="I910" s="1" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="911" spans="1:9">
       <c r="A911" t="s">
-        <v>1260</v>
+        <v>1222</v>
       </c>
       <c r="C911" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D911" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="E911" t="s">
-        <v>1200</v>
+        <v>345</v>
       </c>
       <c r="F911" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I911" t="s">
-        <v>994</v>
+        <v>1224</v>
+      </c>
+      <c r="I911" s="1" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="912" spans="1:9">
       <c r="A912" t="s">
-        <v>1260</v>
+        <v>1222</v>
       </c>
       <c r="B912" t="s">
         <v>20</v>
       </c>
       <c r="C912" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D912" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="E912" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F912" t="s">
-        <v>1261</v>
+        <v>1224</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>1128</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="913" spans="1:9">
       <c r="A913" t="s">
-        <v>1260</v>
+        <v>1222</v>
+      </c>
+      <c r="B913" t="s">
+        <v>20</v>
       </c>
       <c r="C913" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D913" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
       <c r="E913" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="F913" t="s">
-        <v>1261</v>
-      </c>
-      <c r="I913" s="1" t="s">
-        <v>1263</v>
+        <v>1224</v>
+      </c>
+      <c r="I913" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="914" spans="1:9">
       <c r="A914" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B914" t="s">
-        <v>20</v>
+        <v>1222</v>
       </c>
       <c r="C914" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D914" t="s">
-        <v>1219</v>
+        <v>1232</v>
       </c>
       <c r="E914" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F914" t="s">
-        <v>1261</v>
+        <v>1224</v>
       </c>
       <c r="I914" t="s">
-        <v>1238</v>
+        <v>962</v>
       </c>
     </row>
     <row r="915" spans="1:9">
       <c r="A915" t="s">
-        <v>1264</v>
+        <v>1222</v>
       </c>
       <c r="C915" t="s">
         <v>1084</v>
       </c>
       <c r="D915" t="s">
-        <v>1223</v>
+        <v>1233</v>
       </c>
       <c r="E915" t="s">
-        <v>1070</v>
+        <v>1200</v>
       </c>
       <c r="F915" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I915" s="1" t="s">
-        <v>23</v>
+        <v>1224</v>
+      </c>
+      <c r="I915" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="916" spans="1:9">
       <c r="A916" t="s">
-        <v>1264</v>
+        <v>1222</v>
+      </c>
+      <c r="B916" t="s">
+        <v>20</v>
       </c>
       <c r="C916" t="s">
         <v>1084</v>
       </c>
       <c r="D916" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="E916" t="s">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="F916" t="s">
-        <v>1265</v>
+        <v>1224</v>
       </c>
       <c r="I916" s="1" t="s">
-        <v>1266</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="917" spans="1:9">
       <c r="A917" t="s">
-        <v>1264</v>
+        <v>1222</v>
       </c>
       <c r="C917" t="s">
         <v>1084</v>
       </c>
       <c r="D917" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="E917" t="s">
-        <v>345</v>
+        <v>1204</v>
       </c>
       <c r="F917" t="s">
-        <v>1265</v>
+        <v>1224</v>
       </c>
       <c r="I917" s="1" t="s">
-        <v>1267</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="918" spans="1:9">
       <c r="A918" t="s">
-        <v>1264</v>
+        <v>1222</v>
       </c>
       <c r="B918" t="s">
         <v>20</v>
@@ -20699,1280 +20773,1436 @@
         <v>1084</v>
       </c>
       <c r="D918" t="s">
-        <v>1229</v>
+        <v>1236</v>
       </c>
       <c r="E918" t="s">
-        <v>1077</v>
+        <v>1206</v>
       </c>
       <c r="F918" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I918" s="1" t="s">
-        <v>550</v>
+        <v>1224</v>
+      </c>
+      <c r="I918" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="919" spans="1:9">
       <c r="A919" t="s">
-        <v>1264</v>
+        <v>1239</v>
       </c>
       <c r="B919" t="s">
         <v>20</v>
       </c>
       <c r="C919" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D919" t="s">
-        <v>1231</v>
+        <v>1240</v>
       </c>
       <c r="E919" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F919" t="s">
-        <v>1265</v>
+        <v>965</v>
       </c>
       <c r="I919" t="s">
-        <v>841</v>
+        <v>962</v>
       </c>
     </row>
     <row r="920" spans="1:9">
       <c r="A920" t="s">
-        <v>1264</v>
+        <v>1241</v>
       </c>
       <c r="C920" t="s">
-        <v>1084</v>
+        <v>1242</v>
       </c>
       <c r="D920" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="E920" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="F920" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I920" t="s">
-        <v>962</v>
+        <v>1244</v>
+      </c>
+      <c r="I920" s="1" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="921" spans="1:9">
       <c r="A921" t="s">
-        <v>1264</v>
+        <v>1241</v>
+      </c>
+      <c r="B921" t="s">
+        <v>20</v>
       </c>
       <c r="C921" t="s">
-        <v>1084</v>
+        <v>1242</v>
       </c>
       <c r="D921" t="s">
-        <v>1233</v>
+        <v>1243</v>
       </c>
       <c r="E921" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="F921" t="s">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="I921" t="s">
-        <v>994</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="922" spans="1:9">
       <c r="A922" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B922" t="s">
-        <v>20</v>
+        <v>1246</v>
       </c>
       <c r="C922" t="s">
         <v>1084</v>
       </c>
       <c r="D922" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="E922" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="F922" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="I922" s="1" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="923" spans="1:9">
       <c r="A923" t="s">
-        <v>1264</v>
+        <v>1246</v>
       </c>
       <c r="C923" t="s">
         <v>1084</v>
       </c>
       <c r="D923" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="E923" t="s">
-        <v>1204</v>
+        <v>1074</v>
       </c>
       <c r="F923" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="I923" s="1" t="s">
-        <v>1268</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="924" spans="1:9">
       <c r="A924" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B924" t="s">
-        <v>20</v>
+        <v>1246</v>
       </c>
       <c r="C924" t="s">
         <v>1084</v>
       </c>
       <c r="D924" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="E924" t="s">
-        <v>1206</v>
+        <v>345</v>
       </c>
       <c r="F924" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I924" t="s">
-        <v>1238</v>
+        <v>1247</v>
+      </c>
+      <c r="I924" s="1" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="925" spans="1:9">
       <c r="A925" t="s">
-        <v>1269</v>
+        <v>1246</v>
       </c>
       <c r="B925" t="s">
         <v>20</v>
       </c>
       <c r="C925" t="s">
-        <v>1240</v>
+        <v>1084</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1229</v>
       </c>
       <c r="E925" t="s">
-        <v>965</v>
-      </c>
-      <c r="I925" t="s">
-        <v>972</v>
+        <v>1077</v>
+      </c>
+      <c r="F925" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I925" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="926" spans="1:9">
       <c r="A926" t="s">
-        <v>1270</v>
+        <v>1246</v>
+      </c>
+      <c r="B926" t="s">
+        <v>20</v>
       </c>
       <c r="C926" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D926" t="s">
-        <v>1210</v>
+        <v>1231</v>
       </c>
       <c r="E926" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F926" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="I926" t="s">
-        <v>35</v>
+        <v>841</v>
       </c>
     </row>
     <row r="927" spans="1:9">
       <c r="A927" t="s">
-        <v>1270</v>
+        <v>1246</v>
       </c>
       <c r="C927" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D927" t="s">
-        <v>1212</v>
+        <v>1232</v>
       </c>
       <c r="E927" t="s">
-        <v>1074</v>
+        <v>1198</v>
       </c>
       <c r="F927" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I927" s="1" t="s">
-        <v>139</v>
+        <v>1247</v>
+      </c>
+      <c r="I927" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="928" spans="1:9">
       <c r="A928" t="s">
-        <v>1270</v>
+        <v>1246</v>
       </c>
       <c r="C928" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D928" t="s">
-        <v>1213</v>
+        <v>1233</v>
       </c>
       <c r="E928" t="s">
-        <v>345</v>
+        <v>1200</v>
       </c>
       <c r="F928" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="I928" t="s">
-        <v>1187</v>
+        <v>994</v>
       </c>
     </row>
     <row r="929" spans="1:9">
       <c r="A929" t="s">
-        <v>1270</v>
+        <v>1246</v>
       </c>
       <c r="B929" t="s">
         <v>20</v>
       </c>
       <c r="C929" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D929" t="s">
-        <v>1214</v>
+        <v>1234</v>
       </c>
       <c r="E929" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="F929" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I929" t="s">
-        <v>412</v>
+        <v>1247</v>
+      </c>
+      <c r="I929" s="1" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="930" spans="1:9">
       <c r="A930" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B930" t="s">
-        <v>20</v>
+        <v>1246</v>
       </c>
       <c r="C930" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D930" t="s">
-        <v>1215</v>
+        <v>1236</v>
       </c>
       <c r="E930" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="F930" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I930" t="s">
-        <v>422</v>
+        <v>1247</v>
+      </c>
+      <c r="I930" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="931" spans="1:9">
       <c r="A931" t="s">
-        <v>1270</v>
+        <v>1246</v>
+      </c>
+      <c r="B931" t="s">
+        <v>20</v>
       </c>
       <c r="C931" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D931" t="s">
-        <v>1216</v>
+        <v>1236</v>
       </c>
       <c r="E931" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="F931" t="s">
-        <v>1272</v>
+        <v>1247</v>
       </c>
       <c r="I931" t="s">
-        <v>962</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="932" spans="1:9">
       <c r="A932" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C932" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D932" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="E932" t="s">
-        <v>1200</v>
+        <v>1070</v>
       </c>
       <c r="F932" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I932" t="s">
-        <v>990</v>
+        <v>1254</v>
+      </c>
+      <c r="I932" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="933" spans="1:9">
       <c r="A933" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B933" t="s">
-        <v>20</v>
+        <v>1253</v>
       </c>
       <c r="C933" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D933" t="s">
-        <v>1218</v>
+        <v>1225</v>
       </c>
       <c r="E933" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="F933" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I933" t="s">
-        <v>1024</v>
+        <v>1254</v>
+      </c>
+      <c r="I933" s="1" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="934" spans="1:9">
       <c r="A934" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C934" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D934" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="E934" t="s">
-        <v>1204</v>
+        <v>345</v>
       </c>
       <c r="F934" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I934" t="s">
-        <v>1205</v>
+        <v>1254</v>
+      </c>
+      <c r="I934" s="1" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="935" spans="1:9">
       <c r="A935" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B935" t="s">
-        <v>20</v>
+        <v>1253</v>
       </c>
       <c r="C935" t="s">
-        <v>1271</v>
+        <v>1084</v>
       </c>
       <c r="D935" t="s">
-        <v>1219</v>
+        <v>1229</v>
       </c>
       <c r="E935" t="s">
-        <v>1206</v>
+        <v>1077</v>
       </c>
       <c r="F935" t="s">
-        <v>1272</v>
-      </c>
-      <c r="I935" t="s">
-        <v>1207</v>
+        <v>1254</v>
+      </c>
+      <c r="I935" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="936" spans="1:9">
       <c r="A936" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C936" t="s">
-        <v>1273</v>
+        <v>1084</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1231</v>
       </c>
       <c r="E936" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="F936" t="s">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="I936" t="s">
-        <v>1072</v>
+        <v>841</v>
       </c>
     </row>
     <row r="937" spans="1:9">
       <c r="A937" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C937" t="s">
-        <v>1275</v>
+        <v>1084</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1232</v>
       </c>
       <c r="E937" t="s">
-        <v>1074</v>
+        <v>1198</v>
       </c>
       <c r="F937" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I937" s="1" t="s">
-        <v>1276</v>
+        <v>1254</v>
+      </c>
+      <c r="I937" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="938" spans="1:9">
       <c r="A938" t="s">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="C938" t="s">
-        <v>1277</v>
+        <v>1084</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1233</v>
       </c>
       <c r="E938" t="s">
-        <v>345</v>
+        <v>1200</v>
       </c>
       <c r="F938" t="s">
-        <v>1274</v>
+        <v>1254</v>
       </c>
       <c r="I938" t="s">
-        <v>352</v>
+        <v>994</v>
       </c>
     </row>
     <row r="939" spans="1:9">
       <c r="A939" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B939" t="s">
-        <v>20</v>
+        <v>1253</v>
       </c>
       <c r="C939" t="s">
-        <v>1278</v>
+        <v>1084</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1234</v>
       </c>
       <c r="E939" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="F939" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I939" t="s">
-        <v>419</v>
+        <v>1254</v>
+      </c>
+      <c r="I939" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="940" spans="1:9">
       <c r="A940" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B940" t="s">
-        <v>20</v>
+        <v>1253</v>
       </c>
       <c r="C940" t="s">
-        <v>1279</v>
+        <v>1084</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1236</v>
       </c>
       <c r="E940" t="s">
-        <v>1079</v>
+        <v>1258</v>
       </c>
       <c r="F940" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I940" t="s">
-        <v>436</v>
+        <v>1254</v>
+      </c>
+      <c r="I940" s="1" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="941" spans="1:9">
       <c r="A941" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="C941" t="s">
-        <v>1280</v>
+        <v>1209</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1210</v>
       </c>
       <c r="E941" t="s">
-        <v>1198</v>
+        <v>1070</v>
       </c>
       <c r="F941" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I941" t="s">
-        <v>962</v>
+        <v>1261</v>
+      </c>
+      <c r="I941" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="942" spans="1:9">
       <c r="A942" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="C942" t="s">
-        <v>1281</v>
+        <v>1209</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1212</v>
       </c>
       <c r="E942" t="s">
-        <v>1200</v>
+        <v>1074</v>
       </c>
       <c r="F942" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I942" t="s">
-        <v>990</v>
+        <v>1261</v>
+      </c>
+      <c r="I942" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="943" spans="1:9">
       <c r="A943" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B943" t="s">
-        <v>20</v>
+        <v>1260</v>
       </c>
       <c r="C943" t="s">
-        <v>1282</v>
+        <v>1209</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1213</v>
       </c>
       <c r="E943" t="s">
-        <v>1081</v>
+        <v>345</v>
       </c>
       <c r="F943" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I943" t="s">
-        <v>1082</v>
+        <v>1261</v>
+      </c>
+      <c r="I943" s="1" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="944" spans="1:9">
       <c r="A944" t="s">
-        <v>1270</v>
+        <v>1260</v>
+      </c>
+      <c r="B944" t="s">
+        <v>20</v>
       </c>
       <c r="C944" t="s">
-        <v>1283</v>
+        <v>1209</v>
       </c>
       <c r="D944" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="E944" t="s">
-        <v>1204</v>
+        <v>1077</v>
       </c>
       <c r="F944" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I944" t="s">
-        <v>1205</v>
+        <v>1261</v>
+      </c>
+      <c r="I944" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="945" spans="1:9">
       <c r="A945" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="B945" t="s">
         <v>20</v>
       </c>
       <c r="C945" t="s">
-        <v>1283</v>
+        <v>1209</v>
       </c>
       <c r="D945" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="E945" t="s">
-        <v>1206</v>
+        <v>1079</v>
       </c>
       <c r="F945" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="I945" t="s">
-        <v>1207</v>
+        <v>862</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9">
+      <c r="A946" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E946" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I946" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="947" spans="1:9">
       <c r="A947" t="s">
-        <v>1284</v>
+        <v>1260</v>
       </c>
       <c r="C947" t="s">
-        <v>1285</v>
+        <v>1209</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1217</v>
       </c>
       <c r="E947" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F947" t="s">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="I947" t="s">
-        <v>1205</v>
+        <v>994</v>
       </c>
     </row>
     <row r="948" spans="1:9">
       <c r="A948" t="s">
-        <v>1284</v>
+        <v>1260</v>
       </c>
       <c r="B948" t="s">
         <v>20</v>
       </c>
       <c r="C948" t="s">
-        <v>1285</v>
+        <v>1209</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1218</v>
       </c>
       <c r="E948" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F948" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I948" t="s">
-        <v>1207</v>
+        <v>1261</v>
+      </c>
+      <c r="I948" s="1" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="949" spans="1:9">
       <c r="A949" t="s">
-        <v>1287</v>
+        <v>1260</v>
       </c>
       <c r="C949" t="s">
-        <v>1288</v>
+        <v>1209</v>
       </c>
       <c r="D949" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="E949" t="s">
         <v>1204</v>
       </c>
       <c r="F949" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I949" t="s">
-        <v>1205</v>
+        <v>1261</v>
+      </c>
+      <c r="I949" s="1" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="950" spans="1:9">
       <c r="A950" t="s">
-        <v>1287</v>
+        <v>1260</v>
       </c>
       <c r="B950" t="s">
         <v>20</v>
       </c>
       <c r="C950" t="s">
-        <v>1288</v>
+        <v>1209</v>
       </c>
       <c r="D950" t="s">
-        <v>1203</v>
+        <v>1219</v>
       </c>
       <c r="E950" t="s">
         <v>1206</v>
       </c>
       <c r="F950" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
       <c r="I950" t="s">
-        <v>1207</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="951" spans="1:9">
       <c r="A951" t="s">
-        <v>1290</v>
+        <v>1264</v>
       </c>
       <c r="C951" t="s">
-        <v>1291</v>
+        <v>1084</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1223</v>
       </c>
       <c r="E951" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I951" t="s">
-        <v>1293</v>
+        <v>1070</v>
+      </c>
+      <c r="F951" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I951" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="952" spans="1:9">
       <c r="A952" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G952" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H952" t="s">
-        <v>1295</v>
+        <v>1264</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1265</v>
       </c>
       <c r="I952" s="1" t="s">
-        <v>1296</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="953" spans="1:9">
       <c r="A953" t="s">
-        <v>1297</v>
+        <v>1264</v>
       </c>
       <c r="C953" t="s">
-        <v>1291</v>
+        <v>1084</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1227</v>
       </c>
       <c r="E953" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I953" t="s">
-        <v>1298</v>
+        <v>345</v>
+      </c>
+      <c r="F953" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I953" s="1" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="954" spans="1:9">
       <c r="A954" t="s">
-        <v>1299</v>
+        <v>1264</v>
+      </c>
+      <c r="B954" t="s">
+        <v>20</v>
       </c>
       <c r="C954" t="s">
-        <v>1291</v>
+        <v>1084</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1229</v>
       </c>
       <c r="E954" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I954" t="s">
-        <v>1300</v>
+        <v>1077</v>
+      </c>
+      <c r="F954" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I954" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="955" spans="1:9">
       <c r="A955" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G955" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H955" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I955" s="1" t="s">
-        <v>90</v>
+        <v>1264</v>
+      </c>
+      <c r="B955" t="s">
+        <v>20</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F955" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I955" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="956" spans="1:9">
       <c r="A956" t="s">
-        <v>1301</v>
+        <v>1264</v>
       </c>
       <c r="C956" t="s">
-        <v>1291</v>
+        <v>1084</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1232</v>
       </c>
       <c r="E956" t="s">
-        <v>1292</v>
+        <v>1198</v>
+      </c>
+      <c r="F956" t="s">
+        <v>1265</v>
       </c>
       <c r="I956" t="s">
-        <v>1302</v>
+        <v>962</v>
       </c>
     </row>
     <row r="957" spans="1:9">
       <c r="A957" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G957" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H957" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I957" s="1" t="s">
-        <v>1037</v>
+        <v>1264</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E957" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F957" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I957" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="958" spans="1:9">
       <c r="A958" t="s">
-        <v>1303</v>
+        <v>1264</v>
       </c>
       <c r="B958" t="s">
         <v>20</v>
       </c>
       <c r="C958" t="s">
-        <v>1291</v>
+        <v>1084</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1234</v>
       </c>
       <c r="E958" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I958" t="s">
-        <v>1304</v>
+        <v>1081</v>
+      </c>
+      <c r="F958" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I958" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="959" spans="1:9">
       <c r="A959" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B959" t="s">
-        <v>20</v>
-      </c>
-      <c r="G959" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H959" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I959" t="s">
-        <v>1306</v>
+        <v>1264</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F959" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I959" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="960" spans="1:9">
       <c r="A960" t="s">
-        <v>1307</v>
+        <v>1264</v>
+      </c>
+      <c r="B960" t="s">
+        <v>20</v>
       </c>
       <c r="C960" t="s">
-        <v>1291</v>
+        <v>1084</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1236</v>
       </c>
       <c r="E960" t="s">
-        <v>1292</v>
+        <v>1206</v>
+      </c>
+      <c r="F960" t="s">
+        <v>1265</v>
       </c>
       <c r="I960" t="s">
-        <v>1308</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="961" spans="1:9">
       <c r="A961" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G961" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H961" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I961" s="1" t="s">
-        <v>1309</v>
+        <v>1269</v>
+      </c>
+      <c r="B961" t="s">
+        <v>20</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E961" t="s">
+        <v>965</v>
+      </c>
+      <c r="I961" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="962" spans="1:9">
       <c r="A962" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C962" t="s">
-        <v>1291</v>
+        <v>1270</v>
+      </c>
+      <c r="C962" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1210</v>
       </c>
       <c r="E962" t="s">
-        <v>1292</v>
+        <v>1070</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1272</v>
       </c>
       <c r="I962" t="s">
-        <v>1311</v>
+        <v>35</v>
       </c>
     </row>
     <row r="963" spans="1:9">
       <c r="A963" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G963" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H963" t="s">
-        <v>1295</v>
+        <v>1270</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E963" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F963" t="s">
+        <v>1272</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>1312</v>
+        <v>139</v>
       </c>
     </row>
     <row r="964" spans="1:9">
       <c r="A964" t="s">
-        <v>1313</v>
+        <v>1270</v>
       </c>
       <c r="C964" t="s">
-        <v>1291</v>
+        <v>1271</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1213</v>
       </c>
       <c r="E964" t="s">
-        <v>1292</v>
+        <v>345</v>
+      </c>
+      <c r="F964" t="s">
+        <v>1272</v>
       </c>
       <c r="I964" t="s">
-        <v>1314</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="965" spans="1:9">
       <c r="A965" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G965" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H965" t="s">
-        <v>1295</v>
+        <v>1270</v>
+      </c>
+      <c r="B965" t="s">
+        <v>20</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E965" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F965" t="s">
+        <v>1272</v>
       </c>
       <c r="I965" t="s">
-        <v>962</v>
+        <v>412</v>
       </c>
     </row>
     <row r="966" spans="1:9">
       <c r="A966" t="s">
-        <v>1315</v>
+        <v>1270</v>
+      </c>
+      <c r="B966" t="s">
+        <v>20</v>
       </c>
       <c r="C966" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="D966" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
       <c r="E966" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="F966" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I966" s="1" t="s">
-        <v>1317</v>
+        <v>1272</v>
+      </c>
+      <c r="I966" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="967" spans="1:9">
       <c r="A967" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B967" t="s">
-        <v>20</v>
+        <v>1270</v>
       </c>
       <c r="C967" t="s">
-        <v>1288</v>
+        <v>1271</v>
       </c>
       <c r="D967" t="s">
-        <v>1203</v>
+        <v>1216</v>
       </c>
       <c r="E967" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F967" t="s">
-        <v>1316</v>
+        <v>1272</v>
       </c>
       <c r="I967" t="s">
-        <v>1238</v>
+        <v>962</v>
       </c>
     </row>
     <row r="968" spans="1:9">
       <c r="A968" t="s">
-        <v>1318</v>
+        <v>1270</v>
       </c>
       <c r="C968" t="s">
-        <v>1242</v>
+        <v>1271</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1217</v>
       </c>
       <c r="E968" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F968" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I968" s="1" t="s">
-        <v>1320</v>
+        <v>1272</v>
+      </c>
+      <c r="I968" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="969" spans="1:9">
       <c r="A969" t="s">
-        <v>1318</v>
+        <v>1270</v>
       </c>
       <c r="B969" t="s">
         <v>20</v>
       </c>
       <c r="C969" t="s">
-        <v>1242</v>
+        <v>1271</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1218</v>
       </c>
       <c r="E969" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F969" t="s">
-        <v>1319</v>
+        <v>1272</v>
       </c>
       <c r="I969" t="s">
-        <v>1238</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="970" spans="1:9">
       <c r="A970" t="s">
-        <v>1321</v>
+        <v>1270</v>
       </c>
       <c r="C970" t="s">
-        <v>1242</v>
+        <v>1271</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1219</v>
       </c>
       <c r="E970" t="s">
         <v>1204</v>
       </c>
       <c r="F970" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I970" s="1" t="s">
-        <v>1320</v>
+        <v>1272</v>
+      </c>
+      <c r="I970" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" t="s">
-        <v>1321</v>
+        <v>1270</v>
       </c>
       <c r="B971" t="s">
         <v>20</v>
       </c>
       <c r="C971" t="s">
-        <v>1242</v>
+        <v>1271</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1219</v>
       </c>
       <c r="E971" t="s">
         <v>1206</v>
       </c>
       <c r="F971" t="s">
-        <v>1322</v>
+        <v>1272</v>
       </c>
       <c r="I971" t="s">
-        <v>1238</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" t="s">
-        <v>1323</v>
+        <v>1270</v>
       </c>
       <c r="C972" t="s">
-        <v>1242</v>
+        <v>1273</v>
       </c>
       <c r="E972" t="s">
-        <v>1204</v>
+        <v>1070</v>
       </c>
       <c r="F972" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I972" s="1" t="s">
-        <v>1237</v>
+        <v>1274</v>
+      </c>
+      <c r="I972" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="973" spans="1:9">
       <c r="A973" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B973" t="s">
-        <v>20</v>
+        <v>1270</v>
       </c>
       <c r="C973" t="s">
-        <v>1242</v>
+        <v>1275</v>
       </c>
       <c r="E973" t="s">
-        <v>1206</v>
+        <v>1074</v>
       </c>
       <c r="F973" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I973" t="s">
-        <v>1252</v>
+        <v>1274</v>
+      </c>
+      <c r="I973" s="1" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="974" spans="1:9">
       <c r="A974" t="s">
-        <v>1325</v>
+        <v>1270</v>
       </c>
       <c r="C974" t="s">
-        <v>1242</v>
+        <v>1277</v>
       </c>
       <c r="E974" t="s">
-        <v>1204</v>
+        <v>345</v>
       </c>
       <c r="F974" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I974" s="1" t="s">
-        <v>1327</v>
+        <v>1274</v>
+      </c>
+      <c r="I974" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="975" spans="1:9">
       <c r="A975" t="s">
-        <v>1325</v>
+        <v>1270</v>
       </c>
       <c r="B975" t="s">
         <v>20</v>
       </c>
       <c r="C975" t="s">
-        <v>1242</v>
+        <v>1278</v>
       </c>
       <c r="E975" t="s">
-        <v>1206</v>
+        <v>1077</v>
       </c>
       <c r="F975" t="s">
-        <v>1326</v>
+        <v>1274</v>
       </c>
       <c r="I975" t="s">
-        <v>1238</v>
+        <v>419</v>
       </c>
     </row>
     <row r="976" spans="1:9">
       <c r="A976" t="s">
-        <v>1328</v>
+        <v>1270</v>
+      </c>
+      <c r="B976" t="s">
+        <v>20</v>
       </c>
       <c r="C976" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D976" t="s">
-        <v>1203</v>
+        <v>1279</v>
       </c>
       <c r="E976" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="F976" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I976" s="1" t="s">
-        <v>1330</v>
+        <v>1274</v>
+      </c>
+      <c r="I976" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="977" spans="1:9">
       <c r="A977" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B977" t="s">
-        <v>20</v>
+        <v>1270</v>
       </c>
       <c r="C977" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D977" t="s">
-        <v>1203</v>
+        <v>1280</v>
       </c>
       <c r="E977" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="F977" t="s">
-        <v>1329</v>
+        <v>1274</v>
       </c>
       <c r="I977" t="s">
-        <v>1252</v>
+        <v>962</v>
       </c>
     </row>
     <row r="978" spans="1:9">
       <c r="A978" t="s">
-        <v>1331</v>
+        <v>1270</v>
       </c>
       <c r="C978" t="s">
-        <v>1242</v>
+        <v>1281</v>
       </c>
       <c r="E978" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F978" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I978" s="1" t="s">
-        <v>1333</v>
+        <v>1274</v>
+      </c>
+      <c r="I978" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="979" spans="1:9">
       <c r="A979" t="s">
-        <v>1331</v>
+        <v>1270</v>
       </c>
       <c r="B979" t="s">
         <v>20</v>
       </c>
       <c r="C979" t="s">
-        <v>1242</v>
+        <v>1282</v>
       </c>
       <c r="E979" t="s">
-        <v>1206</v>
+        <v>1081</v>
       </c>
       <c r="F979" t="s">
-        <v>1332</v>
+        <v>1274</v>
       </c>
       <c r="I979" t="s">
-        <v>1238</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" t="s">
-        <v>1334</v>
+        <v>1270</v>
       </c>
       <c r="C980" t="s">
-        <v>1291</v>
+        <v>1283</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1203</v>
       </c>
       <c r="E980" t="s">
-        <v>1292</v>
+        <v>1204</v>
+      </c>
+      <c r="F980" t="s">
+        <v>1274</v>
       </c>
       <c r="I980" t="s">
-        <v>1293</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="981" spans="1:9">
       <c r="A981" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G981" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H981" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I981" s="1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="982" spans="1:9">
-      <c r="A982" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C982" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E982" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I982" t="s">
-        <v>1308</v>
+        <v>1270</v>
+      </c>
+      <c r="B981" t="s">
+        <v>20</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E981" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F981" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I981" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="983" spans="1:9">
       <c r="A983" t="s">
-        <v>1336</v>
-      </c>
-      <c r="G983" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H983" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I983" s="1" t="s">
-        <v>1337</v>
+        <v>1284</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F983" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I983" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="984" spans="1:9">
       <c r="A984" t="s">
-        <v>1338</v>
+        <v>1284</v>
       </c>
       <c r="B984" t="s">
         <v>20</v>
       </c>
       <c r="C984" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="E984" t="s">
-        <v>1292</v>
+        <v>1206</v>
+      </c>
+      <c r="F984" t="s">
+        <v>1286</v>
       </c>
       <c r="I984" t="s">
-        <v>1304</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B985" t="s">
-        <v>20</v>
-      </c>
-      <c r="G985" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H985" t="s">
-        <v>1305</v>
+        <v>1287</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E985" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F985" t="s">
+        <v>1289</v>
       </c>
       <c r="I985" t="s">
-        <v>563</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="986" spans="1:9">
       <c r="A986" t="s">
-        <v>1339</v>
+        <v>1287</v>
+      </c>
+      <c r="B986" t="s">
+        <v>20</v>
       </c>
       <c r="C986" t="s">
-        <v>1291</v>
+        <v>1288</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1203</v>
       </c>
       <c r="E986" t="s">
-        <v>1292</v>
+        <v>1206</v>
+      </c>
+      <c r="F986" t="s">
+        <v>1289</v>
       </c>
       <c r="I986" t="s">
-        <v>1293</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="987" spans="1:9">
       <c r="A987" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G987" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H987" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I987" s="1" t="s">
-        <v>1340</v>
+        <v>1290</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E987" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I987" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="988" spans="1:9">
       <c r="A988" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C988" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E988" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I988" t="s">
-        <v>1293</v>
+        <v>1290</v>
+      </c>
+      <c r="G988" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H988" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I988" s="1" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="989" spans="1:9">
       <c r="A989" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G989" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H989" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I989" s="1" t="s">
-        <v>1342</v>
+        <v>1297</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I989" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="990" spans="1:9">
       <c r="A990" t="s">
-        <v>1343</v>
+        <v>1299</v>
       </c>
       <c r="C990" t="s">
         <v>1291</v>
@@ -21981,26 +22211,26 @@
         <v>1292</v>
       </c>
       <c r="I990" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="991" spans="1:9">
       <c r="A991" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C991" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E991" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I991" t="s">
-        <v>1298</v>
+        <v>1299</v>
+      </c>
+      <c r="G991" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H991" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I991" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" t="s">
-        <v>1345</v>
+        <v>1301</v>
       </c>
       <c r="C992" t="s">
         <v>1291</v>
@@ -22009,12 +22239,12 @@
         <v>1292</v>
       </c>
       <c r="I992" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="993" spans="1:9">
       <c r="A993" t="s">
-        <v>1345</v>
+        <v>1301</v>
       </c>
       <c r="G993" t="s">
         <v>1294</v>
@@ -22023,40 +22253,46 @@
         <v>1295</v>
       </c>
       <c r="I993" s="1" t="s">
-        <v>1346</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="994" spans="1:9">
       <c r="A994" t="s">
-        <v>1347</v>
+        <v>1303</v>
+      </c>
+      <c r="B994" t="s">
+        <v>20</v>
       </c>
       <c r="C994" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E994" t="s">
         <v>1292</v>
       </c>
       <c r="I994" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="995" spans="1:9">
       <c r="A995" t="s">
-        <v>1347</v>
+        <v>1303</v>
+      </c>
+      <c r="B995" t="s">
+        <v>20</v>
       </c>
       <c r="G995" t="s">
         <v>1294</v>
       </c>
       <c r="H995" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I995" s="1" t="s">
-        <v>81</v>
+        <v>1305</v>
+      </c>
+      <c r="I995" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="996" spans="1:9">
       <c r="A996" t="s">
-        <v>1348</v>
+        <v>1307</v>
       </c>
       <c r="C996" t="s">
         <v>1291</v>
@@ -22065,12 +22301,12 @@
         <v>1292</v>
       </c>
       <c r="I996" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="997" spans="1:9">
       <c r="A997" t="s">
-        <v>1348</v>
+        <v>1307</v>
       </c>
       <c r="G997" t="s">
         <v>1294</v>
@@ -22079,26 +22315,26 @@
         <v>1295</v>
       </c>
       <c r="I997" s="1" t="s">
-        <v>1349</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="998" spans="1:9">
       <c r="A998" t="s">
-        <v>1350</v>
+        <v>1310</v>
       </c>
       <c r="C998" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E998" t="s">
         <v>1292</v>
       </c>
       <c r="I998" t="s">
-        <v>1302</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" t="s">
-        <v>1350</v>
+        <v>1310</v>
       </c>
       <c r="G999" t="s">
         <v>1294</v>
@@ -22107,15 +22343,12 @@
         <v>1295</v>
       </c>
       <c r="I999" s="1" t="s">
-        <v>1128</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
       <c r="A1000" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>20</v>
+        <v>1313</v>
       </c>
       <c r="C1000" t="s">
         <v>1291</v>
@@ -22124,285 +22357,873 @@
         <v>1292</v>
       </c>
       <c r="I1000" t="s">
-        <v>1304</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
       <c r="A1001" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>20</v>
+        <v>1313</v>
       </c>
       <c r="G1001" t="s">
         <v>1294</v>
       </c>
       <c r="H1001" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="I1001" t="s">
-        <v>1352</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
       <c r="A1002" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>20</v>
+        <v>1315</v>
       </c>
       <c r="C1002" t="s">
         <v>1288</v>
       </c>
+      <c r="D1002" t="s">
+        <v>1203</v>
+      </c>
       <c r="E1002" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1002" t="s">
-        <v>1304</v>
+        <v>1204</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I1002" s="1" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
       <c r="A1003" t="s">
-        <v>1353</v>
+        <v>1315</v>
       </c>
       <c r="B1003" t="s">
         <v>20</v>
       </c>
-      <c r="G1003" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1003" t="s">
-        <v>1305</v>
+      <c r="C1003" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>1316</v>
       </c>
       <c r="I1003" t="s">
-        <v>563</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" t="s">
-        <v>1354</v>
+        <v>1318</v>
       </c>
       <c r="C1004" t="s">
-        <v>1291</v>
+        <v>1242</v>
       </c>
       <c r="E1004" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1004" t="s">
-        <v>1308</v>
+        <v>1204</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I1004" s="1" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="1005" spans="1:9">
       <c r="A1005" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G1005" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1005" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1005" s="1" t="s">
-        <v>1355</v>
+        <v>1318</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
       <c r="A1006" t="s">
-        <v>1356</v>
+        <v>1321</v>
       </c>
       <c r="C1006" t="s">
-        <v>1288</v>
+        <v>1242</v>
       </c>
       <c r="E1006" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1006" t="s">
-        <v>1308</v>
+        <v>1204</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I1006" s="1" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
       <c r="A1007" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G1007" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1007" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1007" s="1" t="s">
-        <v>1355</v>
+        <v>1321</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
       <c r="A1008" t="s">
-        <v>1357</v>
+        <v>1323</v>
       </c>
       <c r="C1008" t="s">
-        <v>1291</v>
+        <v>1242</v>
       </c>
       <c r="E1008" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1008" t="s">
-        <v>1311</v>
+        <v>1204</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I1008" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="1009" spans="1:9">
       <c r="A1009" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G1009" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1009" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1009" s="1" t="s">
-        <v>1358</v>
+        <v>1323</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" t="s">
-        <v>1359</v>
+        <v>1325</v>
       </c>
       <c r="C1010" t="s">
-        <v>1288</v>
+        <v>1242</v>
       </c>
       <c r="E1010" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1010" t="s">
-        <v>1311</v>
+        <v>1204</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I1010" s="1" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="1011" spans="1:9">
       <c r="A1011" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G1011" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1011" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1011" s="1" t="s">
-        <v>1360</v>
+        <v>1325</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I1011" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
       <c r="A1012" t="s">
-        <v>1361</v>
+        <v>1328</v>
       </c>
       <c r="C1012" t="s">
-        <v>1291</v>
+        <v>1288</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1203</v>
       </c>
       <c r="E1012" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1012" t="s">
-        <v>1314</v>
+        <v>1204</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I1012" s="1" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="1013" spans="1:9">
       <c r="A1013" t="s">
-        <v>1361</v>
-      </c>
-      <c r="G1013" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1013" t="s">
-        <v>1295</v>
+        <v>1328</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1329</v>
       </c>
       <c r="I1013" t="s">
-        <v>962</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1014" spans="1:9">
       <c r="A1014" t="s">
-        <v>1362</v>
+        <v>1331</v>
       </c>
       <c r="C1014" t="s">
-        <v>1288</v>
+        <v>1242</v>
       </c>
       <c r="E1014" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1014" t="s">
-        <v>1314</v>
+        <v>1204</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I1014" s="1" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="1015" spans="1:9">
       <c r="A1015" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G1015" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1015" t="s">
-        <v>1295</v>
+        <v>1331</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1332</v>
       </c>
       <c r="I1015" t="s">
-        <v>962</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1016" spans="1:9">
       <c r="A1016" t="s">
-        <v>1363</v>
+        <v>1334</v>
       </c>
       <c r="C1016" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>1203</v>
+        <v>1291</v>
       </c>
       <c r="E1016" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F1016" t="s">
-        <v>1365</v>
+        <v>1292</v>
       </c>
       <c r="I1016" t="s">
-        <v>1205</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1017" spans="1:9">
       <c r="A1017" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D1017" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E1017" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F1017" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I1017" t="s">
-        <v>1207</v>
+        <v>1334</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1017" s="1" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="1018" spans="1:9">
       <c r="A1018" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9">
+      <c r="A1019" t="s">
+        <v>1336</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1019" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9">
+      <c r="A1020" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9">
+      <c r="A1021" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I1021" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9">
+      <c r="A1022" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1022" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9">
+      <c r="A1023" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1023" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9">
+      <c r="A1024" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1024" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9">
+      <c r="A1025" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1025" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9">
+      <c r="A1026" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9">
+      <c r="A1027" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9">
+      <c r="A1028" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1028" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9">
+      <c r="A1029" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1029" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9">
+      <c r="A1030" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9">
+      <c r="A1031" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1031" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9">
+      <c r="A1032" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9">
+      <c r="A1033" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1033" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:9">
+      <c r="A1034" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1034" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:9">
+      <c r="A1035" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1035" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:9">
+      <c r="A1036" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:9">
+      <c r="A1037" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I1037" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:9">
+      <c r="A1038" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1038" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:9">
+      <c r="A1039" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:9">
+      <c r="A1040" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1040" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9">
+      <c r="A1041" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1041" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9">
+      <c r="A1042" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9">
+      <c r="A1043" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1043" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9">
+      <c r="A1044" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9">
+      <c r="A1045" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1045" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9">
+      <c r="A1046" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9">
+      <c r="A1047" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1047" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9">
+      <c r="A1048" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9">
+      <c r="A1049" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9">
+      <c r="A1050" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1050" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9">
+      <c r="A1051" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1051" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9">
+      <c r="A1052" t="s">
         <v>1363</v>
       </c>
-      <c r="C1018" t="s">
+      <c r="C1052" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9">
+      <c r="A1053" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I1053" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9">
+      <c r="A1054" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1054" t="s">
         <v>1366</v>
       </c>
-      <c r="E1018" t="s">
+      <c r="E1054" t="s">
         <v>1258</v>
       </c>
-      <c r="F1018" t="s">
+      <c r="F1054" t="s">
         <v>1367</v>
       </c>
-      <c r="I1018" t="s">
+      <c r="I1054" t="s">
         <v>1368</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5323" uniqueCount="1441">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4334,6 +4334,9 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.trial.TrialService.getInquiryProbandList</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.InputFieldService.getInquiryMaxSelectionSetValueCount</t>
   </si>
 </sst>
 </file>
@@ -5158,10 +5161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1055"/>
+  <dimension ref="A1:I1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="A519" sqref="A519"/>
+    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="A685" sqref="A685"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16456,17 +16459,17 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="685" spans="1:9">
-      <c r="A685" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I685" t="s">
-        <v>994</v>
+    <row r="685" spans="1:9" s="2" customFormat="1">
+      <c r="A685" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I685" s="2" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="686" spans="1:9">
       <c r="A686" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I686" t="s">
         <v>994</v>
@@ -16474,23 +16477,23 @@
     </row>
     <row r="687" spans="1:9">
       <c r="A687" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I687" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="688" spans="1:9">
       <c r="A688" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I688" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="689" spans="1:9">
       <c r="A689" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I689" t="s">
         <v>994</v>
@@ -16498,7 +16501,7 @@
     </row>
     <row r="690" spans="1:9">
       <c r="A690" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I690" t="s">
         <v>994</v>
@@ -16506,7 +16509,7 @@
     </row>
     <row r="691" spans="1:9">
       <c r="A691" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I691" t="s">
         <v>994</v>
@@ -16514,7 +16517,7 @@
     </row>
     <row r="692" spans="1:9">
       <c r="A692" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I692" t="s">
         <v>994</v>
@@ -16522,7 +16525,7 @@
     </row>
     <row r="693" spans="1:9">
       <c r="A693" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I693" t="s">
         <v>994</v>
@@ -16530,7 +16533,7 @@
     </row>
     <row r="694" spans="1:9">
       <c r="A694" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I694" t="s">
         <v>994</v>
@@ -16538,57 +16541,48 @@
     </row>
     <row r="695" spans="1:9">
       <c r="A695" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I695" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="696" spans="1:9">
       <c r="A696" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I696" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="697" spans="1:9">
       <c r="A697" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I697" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="699" spans="1:9">
-      <c r="A699" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C699" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E699" t="s">
-        <v>11</v>
-      </c>
-      <c r="I699" t="s">
-        <v>1016</v>
+    <row r="698" spans="1:9">
+      <c r="A698" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I698" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="700" spans="1:9">
       <c r="A700" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B700" t="s">
-        <v>20</v>
+        <v>1014</v>
       </c>
       <c r="C700" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E700" t="s">
-        <v>1019</v>
+        <v>11</v>
       </c>
       <c r="I700" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="701" spans="1:9">
@@ -16599,30 +16593,30 @@
         <v>20</v>
       </c>
       <c r="C701" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E701" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="I701" t="s">
-        <v>945</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="702" spans="1:9">
       <c r="A702" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B702" t="s">
         <v>20</v>
       </c>
       <c r="C702" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E702" t="s">
-        <v>1019</v>
+        <v>421</v>
       </c>
       <c r="I702" t="s">
-        <v>1024</v>
+        <v>945</v>
       </c>
     </row>
     <row r="703" spans="1:9">
@@ -16633,47 +16627,44 @@
         <v>20</v>
       </c>
       <c r="C703" t="s">
-        <v>435</v>
+        <v>1023</v>
       </c>
       <c r="E703" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="I703" t="s">
-        <v>436</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="704" spans="1:9">
       <c r="A704" t="s">
-        <v>1025</v>
+        <v>1022</v>
+      </c>
+      <c r="B704" t="s">
+        <v>20</v>
       </c>
       <c r="C704" t="s">
-        <v>1023</v>
+        <v>435</v>
       </c>
       <c r="E704" t="s">
-        <v>1019</v>
+        <v>421</v>
       </c>
       <c r="I704" t="s">
-        <v>1016</v>
+        <v>436</v>
       </c>
     </row>
     <row r="705" spans="1:9">
       <c r="A705" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B705" t="s">
-        <v>20</v>
+        <v>1025</v>
       </c>
       <c r="C705" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D705" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E705" t="s">
         <v>1019</v>
       </c>
       <c r="I705" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="706" spans="1:9">
@@ -16687,30 +16678,33 @@
         <v>1027</v>
       </c>
       <c r="D706" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E706" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="I706" t="s">
-        <v>708</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="707" spans="1:9">
       <c r="A707" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B707" t="s">
         <v>20</v>
       </c>
       <c r="C707" t="s">
-        <v>1023</v>
+        <v>1027</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1029</v>
       </c>
       <c r="E707" t="s">
-        <v>1019</v>
+        <v>421</v>
       </c>
       <c r="I707" t="s">
-        <v>1024</v>
+        <v>708</v>
       </c>
     </row>
     <row r="708" spans="1:9">
@@ -16721,33 +16715,30 @@
         <v>20</v>
       </c>
       <c r="C708" t="s">
-        <v>435</v>
+        <v>1023</v>
       </c>
       <c r="E708" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="I708" t="s">
-        <v>436</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="709" spans="1:9">
       <c r="A709" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B709" t="s">
         <v>20</v>
       </c>
       <c r="C709" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D709" t="s">
-        <v>1028</v>
+        <v>435</v>
       </c>
       <c r="E709" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I709" s="1" t="s">
-        <v>1032</v>
+        <v>421</v>
+      </c>
+      <c r="I709" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="710" spans="1:9">
@@ -16761,89 +16752,89 @@
         <v>1027</v>
       </c>
       <c r="D710" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E710" t="s">
-        <v>421</v>
-      </c>
-      <c r="I710" t="s">
-        <v>905</v>
+        <v>1019</v>
+      </c>
+      <c r="I710" s="1" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="711" spans="1:9">
       <c r="A711" t="s">
-        <v>1033</v>
+        <v>1031</v>
+      </c>
+      <c r="B711" t="s">
+        <v>20</v>
       </c>
       <c r="C711" t="s">
-        <v>1023</v>
+        <v>1027</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1029</v>
       </c>
       <c r="E711" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I711" s="1" t="s">
-        <v>1034</v>
+        <v>421</v>
+      </c>
+      <c r="I711" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="712" spans="1:9">
       <c r="A712" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C712" t="s">
-        <v>252</v>
+        <v>1023</v>
       </c>
       <c r="E712" t="s">
-        <v>253</v>
+        <v>1019</v>
       </c>
       <c r="I712" s="1" t="s">
-        <v>904</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="713" spans="1:9">
       <c r="A713" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G713" t="s">
-        <v>96</v>
-      </c>
-      <c r="H713" t="s">
-        <v>70</v>
+        <v>1035</v>
+      </c>
+      <c r="C713" t="s">
+        <v>252</v>
+      </c>
+      <c r="E713" t="s">
+        <v>253</v>
       </c>
       <c r="I713" s="1" t="s">
-        <v>1037</v>
+        <v>904</v>
       </c>
     </row>
     <row r="714" spans="1:9">
       <c r="A714" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C714" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E714" t="s">
-        <v>1019</v>
+        <v>1036</v>
+      </c>
+      <c r="G714" t="s">
+        <v>96</v>
+      </c>
+      <c r="H714" t="s">
+        <v>70</v>
       </c>
       <c r="I714" s="1" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="715" spans="1:9">
       <c r="A715" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B715" t="s">
-        <v>20</v>
+        <v>1038</v>
       </c>
       <c r="C715" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D715" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="E715" t="s">
         <v>1019</v>
       </c>
       <c r="I715" s="1" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="716" spans="1:9">
@@ -16857,30 +16848,33 @@
         <v>1027</v>
       </c>
       <c r="D716" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E716" t="s">
-        <v>421</v>
-      </c>
-      <c r="I716" t="s">
-        <v>1041</v>
+        <v>1019</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="717" spans="1:9">
       <c r="A717" t="s">
-        <v>1042</v>
+        <v>1039</v>
+      </c>
+      <c r="B717" t="s">
+        <v>20</v>
       </c>
       <c r="C717" t="s">
-        <v>1023</v>
+        <v>1027</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1029</v>
       </c>
       <c r="E717" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F717" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I717" s="1" t="s">
-        <v>1043</v>
+        <v>421</v>
+      </c>
+      <c r="I717" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="718" spans="1:9">
@@ -16888,36 +16882,33 @@
         <v>1042</v>
       </c>
       <c r="C718" t="s">
-        <v>533</v>
+        <v>1023</v>
       </c>
       <c r="E718" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="F718" t="s">
         <v>1042</v>
       </c>
-      <c r="I718" t="s">
-        <v>534</v>
+      <c r="I718" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="719" spans="1:9">
       <c r="A719" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B719" t="s">
-        <v>20</v>
+        <v>1042</v>
       </c>
       <c r="C719" t="s">
-        <v>1023</v>
+        <v>533</v>
       </c>
       <c r="E719" t="s">
-        <v>1019</v>
+        <v>421</v>
       </c>
       <c r="F719" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I719" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
+      </c>
+      <c r="I719" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="720" spans="1:9">
@@ -16928,70 +16919,73 @@
         <v>20</v>
       </c>
       <c r="C720" t="s">
-        <v>533</v>
+        <v>1023</v>
       </c>
       <c r="E720" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="F720" t="s">
         <v>1044</v>
       </c>
-      <c r="I720" t="s">
-        <v>1046</v>
+      <c r="I720" s="1" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="721" spans="1:9">
       <c r="A721" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B721" t="s">
         <v>20</v>
       </c>
-      <c r="G721" t="s">
-        <v>96</v>
-      </c>
-      <c r="H721" t="s">
-        <v>70</v>
-      </c>
-      <c r="I721" s="1" t="s">
-        <v>1043</v>
+      <c r="C721" t="s">
+        <v>533</v>
+      </c>
+      <c r="E721" t="s">
+        <v>421</v>
+      </c>
+      <c r="F721" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I721" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="722" spans="1:9">
       <c r="A722" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B722" t="s">
         <v>20</v>
       </c>
-      <c r="C722" t="s">
-        <v>533</v>
-      </c>
-      <c r="E722" t="s">
-        <v>421</v>
-      </c>
-      <c r="F722" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I722" t="s">
-        <v>1050</v>
+      <c r="G722" t="s">
+        <v>96</v>
+      </c>
+      <c r="H722" t="s">
+        <v>70</v>
+      </c>
+      <c r="I722" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="723" spans="1:9">
       <c r="A723" t="s">
         <v>1048</v>
       </c>
+      <c r="B723" t="s">
+        <v>20</v>
+      </c>
       <c r="C723" t="s">
         <v>533</v>
       </c>
       <c r="E723" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="F723" t="s">
         <v>1049</v>
       </c>
       <c r="I723" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="724" spans="1:9">
@@ -16999,53 +16993,53 @@
         <v>1048</v>
       </c>
       <c r="C724" t="s">
-        <v>1052</v>
+        <v>533</v>
       </c>
       <c r="E724" t="s">
-        <v>1053</v>
+        <v>463</v>
       </c>
       <c r="F724" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I724" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
+      </c>
+      <c r="I724" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="725" spans="1:9">
       <c r="A725" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B725" t="s">
-        <v>20</v>
+        <v>1048</v>
       </c>
       <c r="C725" t="s">
-        <v>533</v>
+        <v>1052</v>
       </c>
       <c r="E725" t="s">
-        <v>421</v>
+        <v>1053</v>
       </c>
       <c r="F725" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I725" t="s">
-        <v>1058</v>
+        <v>1054</v>
+      </c>
+      <c r="I725" s="1" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="726" spans="1:9">
       <c r="A726" t="s">
         <v>1056</v>
       </c>
+      <c r="B726" t="s">
+        <v>20</v>
+      </c>
       <c r="C726" t="s">
         <v>533</v>
       </c>
       <c r="E726" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="F726" t="s">
         <v>1057</v>
       </c>
       <c r="I726" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="727" spans="1:9">
@@ -17053,53 +17047,50 @@
         <v>1056</v>
       </c>
       <c r="C727" t="s">
-        <v>1052</v>
+        <v>533</v>
       </c>
       <c r="E727" t="s">
-        <v>1053</v>
+        <v>463</v>
       </c>
       <c r="F727" t="s">
-        <v>1060</v>
-      </c>
-      <c r="I727" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
+      </c>
+      <c r="I727" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="728" spans="1:9">
       <c r="A728" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B728" t="s">
-        <v>20</v>
-      </c>
-      <c r="G728" t="s">
-        <v>96</v>
-      </c>
-      <c r="H728" t="s">
-        <v>70</v>
+        <v>1056</v>
+      </c>
+      <c r="C728" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F728" t="s">
+        <v>1060</v>
       </c>
       <c r="I728" s="1" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="729" spans="1:9">
       <c r="A729" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B729" t="s">
         <v>20</v>
       </c>
-      <c r="C729" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D729" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E729" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I729" t="s">
-        <v>1020</v>
+      <c r="G729" t="s">
+        <v>96</v>
+      </c>
+      <c r="H729" t="s">
+        <v>70</v>
+      </c>
+      <c r="I729" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="730" spans="1:9">
@@ -17113,27 +17104,33 @@
         <v>1027</v>
       </c>
       <c r="D730" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E730" t="s">
-        <v>421</v>
+        <v>1019</v>
       </c>
       <c r="I730" t="s">
-        <v>1064</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="731" spans="1:9">
       <c r="A731" t="s">
-        <v>1065</v>
+        <v>1063</v>
+      </c>
+      <c r="B731" t="s">
+        <v>20</v>
       </c>
       <c r="C731" t="s">
-        <v>1066</v>
+        <v>1027</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1029</v>
       </c>
       <c r="E731" t="s">
-        <v>1019</v>
+        <v>421</v>
       </c>
       <c r="I731" t="s">
-        <v>1016</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="732" spans="1:9">
@@ -17141,30 +17138,27 @@
         <v>1065</v>
       </c>
       <c r="C732" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E732" t="s">
-        <v>11</v>
+        <v>1019</v>
       </c>
       <c r="I732" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="734" spans="1:9">
-      <c r="A734" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C734" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E734" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F734" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I734" t="s">
-        <v>1072</v>
+    <row r="733" spans="1:9">
+      <c r="A733" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E733" t="s">
+        <v>11</v>
+      </c>
+      <c r="I733" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="735" spans="1:9">
@@ -17172,16 +17166,16 @@
         <v>1068</v>
       </c>
       <c r="C735" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E735" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F735" t="s">
         <v>1071</v>
       </c>
-      <c r="I735" s="1" t="s">
-        <v>335</v>
+      <c r="I735" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="736" spans="1:9">
@@ -17189,92 +17183,89 @@
         <v>1068</v>
       </c>
       <c r="C736" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E736" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F736" t="s">
         <v>1071</v>
       </c>
-      <c r="I736" t="s">
-        <v>366</v>
+      <c r="I736" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="737" spans="1:9">
       <c r="A737" t="s">
         <v>1068</v>
       </c>
-      <c r="B737" s="2"/>
       <c r="C737" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E737" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F737" t="s">
         <v>1071</v>
       </c>
       <c r="I737" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
     </row>
     <row r="738" spans="1:9">
       <c r="A738" t="s">
         <v>1068</v>
       </c>
-      <c r="B738" t="s">
-        <v>20</v>
-      </c>
+      <c r="B738" s="2"/>
       <c r="C738" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E738" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F738" t="s">
         <v>1071</v>
       </c>
       <c r="I738" t="s">
-        <v>708</v>
+        <v>419</v>
       </c>
     </row>
     <row r="739" spans="1:9">
       <c r="A739" t="s">
         <v>1068</v>
       </c>
-      <c r="B739" s="2"/>
+      <c r="B739" t="s">
+        <v>20</v>
+      </c>
       <c r="C739" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E739" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F739" t="s">
         <v>1071</v>
       </c>
       <c r="I739" t="s">
-        <v>1082</v>
+        <v>708</v>
       </c>
     </row>
     <row r="740" spans="1:9">
       <c r="A740" t="s">
-        <v>1083</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="B740" s="2"/>
       <c r="C740" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D740" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="E740" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F740" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I740" s="1" t="s">
-        <v>1087</v>
+        <v>1071</v>
+      </c>
+      <c r="I740" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="741" spans="1:9">
@@ -17285,16 +17276,16 @@
         <v>1084</v>
       </c>
       <c r="D741" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E741" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F741" t="s">
         <v>1086</v>
       </c>
       <c r="I741" s="1" t="s">
-        <v>236</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="742" spans="1:9">
@@ -17305,115 +17296,115 @@
         <v>1084</v>
       </c>
       <c r="D742" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E742" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F742" t="s">
         <v>1086</v>
       </c>
       <c r="I742" s="1" t="s">
-        <v>1090</v>
+        <v>236</v>
       </c>
     </row>
     <row r="743" spans="1:9">
       <c r="A743" t="s">
         <v>1083</v>
       </c>
-      <c r="B743" s="2"/>
       <c r="C743" t="s">
         <v>1084</v>
       </c>
       <c r="D743" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E743" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F743" t="s">
         <v>1086</v>
       </c>
       <c r="I743" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="744" spans="1:9">
       <c r="A744" t="s">
         <v>1083</v>
       </c>
-      <c r="B744" t="s">
-        <v>20</v>
-      </c>
+      <c r="B744" s="2"/>
       <c r="C744" t="s">
         <v>1084</v>
       </c>
       <c r="D744" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E744" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F744" t="s">
         <v>1086</v>
       </c>
-      <c r="I744" t="s">
-        <v>863</v>
+      <c r="I744" s="1" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="745" spans="1:9">
       <c r="A745" t="s">
         <v>1083</v>
       </c>
-      <c r="B745" s="2"/>
+      <c r="B745" t="s">
+        <v>20</v>
+      </c>
       <c r="C745" t="s">
         <v>1084</v>
       </c>
       <c r="D745" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E745" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F745" t="s">
         <v>1086</v>
       </c>
-      <c r="I745" s="1" t="s">
-        <v>1045</v>
+      <c r="I745" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="746" spans="1:9">
       <c r="A746" t="s">
         <v>1083</v>
       </c>
-      <c r="G746" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H746" t="s">
-        <v>1096</v>
+      <c r="B746" s="2"/>
+      <c r="C746" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F746" t="s">
+        <v>1086</v>
       </c>
       <c r="I746" s="1" t="s">
-        <v>1097</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="747" spans="1:9">
       <c r="A747" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C747" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D747" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E747" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F747" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I747" t="s">
-        <v>35</v>
+        <v>1083</v>
+      </c>
+      <c r="G747" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H747" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I747" s="1" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="748" spans="1:9">
@@ -17424,16 +17415,16 @@
         <v>1099</v>
       </c>
       <c r="D748" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E748" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F748" t="s">
         <v>1101</v>
       </c>
-      <c r="I748" s="1" t="s">
-        <v>335</v>
+      <c r="I748" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="749" spans="1:9">
@@ -17444,101 +17435,101 @@
         <v>1099</v>
       </c>
       <c r="D749" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E749" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F749" t="s">
         <v>1101</v>
       </c>
-      <c r="I749" t="s">
-        <v>352</v>
+      <c r="I749" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="750" spans="1:9">
       <c r="A750" t="s">
         <v>1098</v>
       </c>
-      <c r="B750" s="2"/>
       <c r="C750" t="s">
         <v>1099</v>
       </c>
       <c r="D750" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E750" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F750" t="s">
         <v>1101</v>
       </c>
       <c r="I750" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
     </row>
     <row r="751" spans="1:9">
       <c r="A751" t="s">
         <v>1098</v>
       </c>
-      <c r="B751" t="s">
-        <v>20</v>
-      </c>
+      <c r="B751" s="2"/>
       <c r="C751" t="s">
         <v>1099</v>
       </c>
       <c r="D751" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E751" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F751" t="s">
         <v>1101</v>
       </c>
       <c r="I751" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="752" spans="1:9">
       <c r="A752" t="s">
         <v>1098</v>
       </c>
-      <c r="B752" s="2"/>
+      <c r="B752" t="s">
+        <v>20</v>
+      </c>
       <c r="C752" t="s">
         <v>1099</v>
       </c>
       <c r="D752" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E752" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F752" t="s">
         <v>1101</v>
       </c>
       <c r="I752" t="s">
-        <v>1024</v>
+        <v>422</v>
       </c>
     </row>
     <row r="753" spans="1:9">
       <c r="A753" t="s">
-        <v>1107</v>
-      </c>
+        <v>1098</v>
+      </c>
+      <c r="B753" s="2"/>
       <c r="C753" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D753" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
       <c r="E753" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F753" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="I753" t="s">
-        <v>35</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="754" spans="1:9">
@@ -17549,16 +17540,16 @@
         <v>1084</v>
       </c>
       <c r="D754" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E754" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F754" t="s">
         <v>1108</v>
       </c>
-      <c r="I754" s="1" t="s">
-        <v>139</v>
+      <c r="I754" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="755" spans="1:9">
@@ -17569,101 +17560,101 @@
         <v>1084</v>
       </c>
       <c r="D755" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E755" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F755" t="s">
         <v>1108</v>
       </c>
-      <c r="I755" t="s">
-        <v>352</v>
+      <c r="I755" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="756" spans="1:9">
       <c r="A756" t="s">
         <v>1107</v>
       </c>
-      <c r="B756" s="2"/>
       <c r="C756" t="s">
         <v>1084</v>
       </c>
       <c r="D756" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E756" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F756" t="s">
         <v>1108</v>
       </c>
       <c r="I756" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
     </row>
     <row r="757" spans="1:9">
       <c r="A757" t="s">
         <v>1107</v>
       </c>
-      <c r="B757" t="s">
-        <v>20</v>
-      </c>
+      <c r="B757" s="2"/>
       <c r="C757" t="s">
         <v>1084</v>
       </c>
       <c r="D757" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E757" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F757" t="s">
         <v>1108</v>
       </c>
       <c r="I757" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="758" spans="1:9">
       <c r="A758" t="s">
         <v>1107</v>
       </c>
-      <c r="B758" s="2"/>
+      <c r="B758" t="s">
+        <v>20</v>
+      </c>
       <c r="C758" t="s">
         <v>1084</v>
       </c>
       <c r="D758" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E758" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F758" t="s">
         <v>1108</v>
       </c>
       <c r="I758" t="s">
-        <v>1024</v>
+        <v>422</v>
       </c>
     </row>
     <row r="759" spans="1:9">
       <c r="A759" t="s">
-        <v>1109</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="B759" s="2"/>
       <c r="C759" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="D759" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E759" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F759" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I759" s="1" t="s">
-        <v>23</v>
+        <v>1108</v>
+      </c>
+      <c r="I759" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="760" spans="1:9">
@@ -17674,16 +17665,16 @@
         <v>1099</v>
       </c>
       <c r="D760" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E760" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F760" t="s">
         <v>1110</v>
       </c>
       <c r="I760" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="761" spans="1:9">
@@ -17694,16 +17685,16 @@
         <v>1099</v>
       </c>
       <c r="D761" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E761" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F761" t="s">
         <v>1110</v>
       </c>
       <c r="I761" s="1" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
     </row>
     <row r="762" spans="1:9">
@@ -17714,98 +17705,98 @@
         <v>1099</v>
       </c>
       <c r="D762" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E762" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F762" t="s">
         <v>1110</v>
       </c>
       <c r="I762" s="1" t="s">
-        <v>527</v>
+        <v>371</v>
       </c>
     </row>
     <row r="763" spans="1:9">
       <c r="A763" t="s">
         <v>1109</v>
       </c>
-      <c r="B763" s="2"/>
       <c r="C763" t="s">
         <v>1099</v>
       </c>
+      <c r="D763" t="s">
+        <v>1104</v>
+      </c>
       <c r="E763" t="s">
-        <v>1111</v>
+        <v>1077</v>
       </c>
       <c r="F763" t="s">
         <v>1110</v>
       </c>
-      <c r="I763" t="s">
-        <v>1112</v>
+      <c r="I763" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="764" spans="1:9">
       <c r="A764" t="s">
         <v>1109</v>
       </c>
-      <c r="B764" t="s">
-        <v>20</v>
-      </c>
+      <c r="B764" s="2"/>
       <c r="C764" t="s">
         <v>1099</v>
       </c>
-      <c r="D764" t="s">
-        <v>1105</v>
-      </c>
       <c r="E764" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
       <c r="F764" t="s">
         <v>1110</v>
       </c>
       <c r="I764" t="s">
-        <v>788</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="765" spans="1:9">
       <c r="A765" t="s">
         <v>1109</v>
       </c>
-      <c r="B765" s="2"/>
+      <c r="B765" t="s">
+        <v>20</v>
+      </c>
       <c r="C765" t="s">
         <v>1099</v>
       </c>
       <c r="D765" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E765" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F765" t="s">
         <v>1110</v>
       </c>
-      <c r="I765" s="1" t="s">
-        <v>1032</v>
+      <c r="I765" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="766" spans="1:9">
       <c r="A766" t="s">
-        <v>1113</v>
-      </c>
+        <v>1109</v>
+      </c>
+      <c r="B766" s="2"/>
       <c r="C766" t="s">
         <v>1099</v>
       </c>
       <c r="D766" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="E766" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F766" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="I766" s="1" t="s">
-        <v>23</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="767" spans="1:9">
@@ -17816,16 +17807,16 @@
         <v>1099</v>
       </c>
       <c r="D767" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E767" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F767" t="s">
         <v>1114</v>
       </c>
       <c r="I767" s="1" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="768" spans="1:9">
@@ -17836,121 +17827,121 @@
         <v>1099</v>
       </c>
       <c r="D768" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E768" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F768" t="s">
         <v>1114</v>
       </c>
       <c r="I768" s="1" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
     </row>
     <row r="769" spans="1:9">
       <c r="A769" t="s">
         <v>1113</v>
       </c>
-      <c r="B769" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C769" t="s">
         <v>1099</v>
       </c>
       <c r="D769" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E769" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F769" t="s">
         <v>1114</v>
       </c>
       <c r="I769" s="1" t="s">
-        <v>1115</v>
+        <v>371</v>
       </c>
     </row>
     <row r="770" spans="1:9">
       <c r="A770" t="s">
         <v>1113</v>
       </c>
-      <c r="B770" s="2"/>
+      <c r="B770" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C770" t="s">
         <v>1099</v>
       </c>
+      <c r="D770" t="s">
+        <v>1104</v>
+      </c>
       <c r="E770" t="s">
-        <v>1111</v>
+        <v>1077</v>
       </c>
       <c r="F770" t="s">
         <v>1114</v>
       </c>
-      <c r="I770" t="s">
-        <v>1112</v>
+      <c r="I770" s="1" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="771" spans="1:9">
       <c r="A771" t="s">
         <v>1113</v>
       </c>
-      <c r="B771" t="s">
-        <v>20</v>
-      </c>
+      <c r="B771" s="2"/>
       <c r="C771" t="s">
         <v>1099</v>
       </c>
-      <c r="D771" t="s">
-        <v>1105</v>
-      </c>
       <c r="E771" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
       <c r="F771" t="s">
         <v>1114</v>
       </c>
       <c r="I771" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="772" spans="1:9">
       <c r="A772" t="s">
         <v>1113</v>
       </c>
-      <c r="B772" s="2"/>
+      <c r="B772" t="s">
+        <v>20</v>
+      </c>
       <c r="C772" t="s">
         <v>1099</v>
       </c>
       <c r="D772" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E772" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F772" t="s">
         <v>1114</v>
       </c>
-      <c r="I772" s="1" t="s">
-        <v>1032</v>
+      <c r="I772" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="773" spans="1:9">
       <c r="A773" t="s">
-        <v>1117</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="B773" s="2"/>
       <c r="C773" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D773" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
       <c r="E773" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F773" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="I773" s="1" t="s">
-        <v>23</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="774" spans="1:9">
@@ -17961,16 +17952,16 @@
         <v>1084</v>
       </c>
       <c r="D774" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E774" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F774" t="s">
         <v>1118</v>
       </c>
       <c r="I774" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="775" spans="1:9">
@@ -17981,16 +17972,16 @@
         <v>1084</v>
       </c>
       <c r="D775" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E775" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F775" t="s">
         <v>1118</v>
       </c>
       <c r="I775" s="1" t="s">
-        <v>376</v>
+        <v>223</v>
       </c>
     </row>
     <row r="776" spans="1:9">
@@ -18001,16 +17992,16 @@
         <v>1084</v>
       </c>
       <c r="D776" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E776" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F776" t="s">
         <v>1118</v>
       </c>
       <c r="I776" s="1" t="s">
-        <v>527</v>
+        <v>376</v>
       </c>
     </row>
     <row r="777" spans="1:9">
@@ -18021,16 +18012,16 @@
         <v>1084</v>
       </c>
       <c r="D777" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E777" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F777" t="s">
         <v>1118</v>
       </c>
-      <c r="I777" t="s">
-        <v>788</v>
+      <c r="I777" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="778" spans="1:9">
@@ -18041,50 +18032,50 @@
         <v>1084</v>
       </c>
       <c r="D778" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E778" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F778" t="s">
         <v>1118</v>
       </c>
-      <c r="I778" s="1" t="s">
-        <v>1032</v>
+      <c r="I778" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="779" spans="1:9">
       <c r="A779" t="s">
         <v>1117</v>
       </c>
-      <c r="G779" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H779" t="s">
-        <v>1096</v>
+      <c r="C779" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1118</v>
       </c>
       <c r="I779" s="1" t="s">
-        <v>1119</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="780" spans="1:9">
       <c r="A780" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C780" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D780" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E780" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F780" t="s">
-        <v>1121</v>
+        <v>1117</v>
+      </c>
+      <c r="G780" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H780" t="s">
+        <v>1096</v>
       </c>
       <c r="I780" s="1" t="s">
-        <v>23</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="781" spans="1:9">
@@ -18095,16 +18086,16 @@
         <v>1084</v>
       </c>
       <c r="D781" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E781" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F781" t="s">
         <v>1121</v>
       </c>
       <c r="I781" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="782" spans="1:9">
@@ -18115,132 +18106,132 @@
         <v>1084</v>
       </c>
       <c r="D782" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E782" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F782" t="s">
         <v>1121</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
     </row>
     <row r="783" spans="1:9">
       <c r="A783" t="s">
         <v>1120</v>
       </c>
-      <c r="B783" s="2"/>
       <c r="C783" t="s">
         <v>1084</v>
       </c>
       <c r="D783" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E783" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F783" t="s">
         <v>1121</v>
       </c>
       <c r="I783" s="1" t="s">
-        <v>518</v>
+        <v>371</v>
       </c>
     </row>
     <row r="784" spans="1:9">
       <c r="A784" t="s">
         <v>1120</v>
       </c>
-      <c r="B784" t="s">
-        <v>20</v>
-      </c>
+      <c r="B784" s="2"/>
       <c r="C784" t="s">
         <v>1084</v>
       </c>
       <c r="D784" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E784" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F784" t="s">
         <v>1121</v>
       </c>
-      <c r="I784" t="s">
-        <v>788</v>
+      <c r="I784" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="785" spans="1:9">
       <c r="A785" t="s">
         <v>1120</v>
       </c>
-      <c r="B785" s="2"/>
+      <c r="B785" t="s">
+        <v>20</v>
+      </c>
       <c r="C785" t="s">
         <v>1084</v>
       </c>
       <c r="D785" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E785" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F785" t="s">
         <v>1121</v>
       </c>
-      <c r="I785" s="1" t="s">
-        <v>1032</v>
+      <c r="I785" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="786" spans="1:9">
       <c r="A786" t="s">
         <v>1120</v>
       </c>
+      <c r="B786" s="2"/>
       <c r="C786" t="s">
-        <v>1122</v>
+        <v>1084</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1094</v>
       </c>
       <c r="E786" t="s">
-        <v>463</v>
+        <v>1081</v>
       </c>
       <c r="F786" t="s">
         <v>1121</v>
       </c>
       <c r="I786" s="1" t="s">
-        <v>1123</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="787" spans="1:9">
       <c r="A787" t="s">
         <v>1120</v>
       </c>
-      <c r="G787" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H787" t="s">
-        <v>1096</v>
+      <c r="C787" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E787" t="s">
+        <v>463</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1121</v>
       </c>
       <c r="I787" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="788" spans="1:9">
       <c r="A788" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C788" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D788" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E788" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F788" t="s">
-        <v>1126</v>
+        <v>1120</v>
+      </c>
+      <c r="G788" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H788" t="s">
+        <v>1096</v>
       </c>
       <c r="I788" s="1" t="s">
-        <v>23</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="789" spans="1:9">
@@ -18251,16 +18242,16 @@
         <v>1099</v>
       </c>
       <c r="D789" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E789" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F789" t="s">
         <v>1126</v>
       </c>
       <c r="I789" s="1" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
     </row>
     <row r="790" spans="1:9">
@@ -18271,120 +18262,120 @@
         <v>1099</v>
       </c>
       <c r="D790" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E790" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F790" t="s">
         <v>1126</v>
       </c>
       <c r="I790" s="1" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
     </row>
     <row r="791" spans="1:9">
       <c r="A791" t="s">
         <v>1125</v>
       </c>
-      <c r="B791" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C791" t="s">
         <v>1099</v>
       </c>
       <c r="D791" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E791" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F791" t="s">
         <v>1126</v>
       </c>
       <c r="I791" s="1" t="s">
-        <v>1127</v>
+        <v>371</v>
       </c>
     </row>
     <row r="792" spans="1:9">
       <c r="A792" t="s">
         <v>1125</v>
       </c>
+      <c r="B792" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C792" t="s">
         <v>1099</v>
       </c>
+      <c r="D792" t="s">
+        <v>1104</v>
+      </c>
       <c r="E792" t="s">
-        <v>1111</v>
+        <v>1077</v>
       </c>
       <c r="F792" t="s">
         <v>1126</v>
       </c>
-      <c r="I792" t="s">
-        <v>1112</v>
+      <c r="I792" s="1" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="793" spans="1:9">
       <c r="A793" t="s">
         <v>1125</v>
       </c>
-      <c r="B793" t="s">
-        <v>20</v>
-      </c>
       <c r="C793" t="s">
         <v>1099</v>
       </c>
-      <c r="D793" t="s">
-        <v>1105</v>
-      </c>
       <c r="E793" t="s">
-        <v>1079</v>
+        <v>1111</v>
       </c>
       <c r="F793" t="s">
         <v>1126</v>
       </c>
       <c r="I793" t="s">
-        <v>892</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="794" spans="1:9">
       <c r="A794" t="s">
         <v>1125</v>
       </c>
-      <c r="B794" s="2"/>
+      <c r="B794" t="s">
+        <v>20</v>
+      </c>
       <c r="C794" t="s">
         <v>1099</v>
       </c>
       <c r="D794" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E794" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F794" t="s">
         <v>1126</v>
       </c>
-      <c r="I794" s="1" t="s">
-        <v>1128</v>
+      <c r="I794" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="795" spans="1:9">
       <c r="A795" t="s">
-        <v>1129</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="B795" s="2"/>
       <c r="C795" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="D795" t="s">
-        <v>1085</v>
+        <v>1106</v>
       </c>
       <c r="E795" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F795" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>75</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="796" spans="1:9">
@@ -18395,16 +18386,16 @@
         <v>1084</v>
       </c>
       <c r="D796" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E796" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F796" t="s">
         <v>1130</v>
       </c>
       <c r="I796" s="1" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="797" spans="1:9">
@@ -18415,115 +18406,115 @@
         <v>1084</v>
       </c>
       <c r="D797" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E797" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F797" t="s">
         <v>1130</v>
       </c>
       <c r="I797" s="1" t="s">
-        <v>371</v>
+        <v>225</v>
       </c>
     </row>
     <row r="798" spans="1:9">
       <c r="A798" t="s">
         <v>1129</v>
       </c>
-      <c r="B798" s="2"/>
       <c r="C798" t="s">
         <v>1084</v>
       </c>
       <c r="D798" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E798" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F798" t="s">
         <v>1130</v>
       </c>
       <c r="I798" s="1" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
     </row>
     <row r="799" spans="1:9">
       <c r="A799" t="s">
         <v>1129</v>
       </c>
-      <c r="B799" t="s">
-        <v>20</v>
-      </c>
+      <c r="B799" s="2"/>
       <c r="C799" t="s">
         <v>1084</v>
       </c>
       <c r="D799" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E799" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F799" t="s">
         <v>1130</v>
       </c>
-      <c r="I799" t="s">
-        <v>788</v>
+      <c r="I799" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="800" spans="1:9">
       <c r="A800" t="s">
         <v>1129</v>
       </c>
-      <c r="B800" s="2"/>
+      <c r="B800" t="s">
+        <v>20</v>
+      </c>
       <c r="C800" t="s">
         <v>1084</v>
       </c>
       <c r="D800" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E800" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F800" t="s">
         <v>1130</v>
       </c>
-      <c r="I800" s="1" t="s">
-        <v>1032</v>
+      <c r="I800" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="801" spans="1:9">
       <c r="A801" t="s">
         <v>1129</v>
       </c>
-      <c r="G801" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H801" t="s">
-        <v>1096</v>
+      <c r="B801" s="2"/>
+      <c r="C801" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1130</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>1131</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="802" spans="1:9">
       <c r="A802" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D802" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E802" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F802" t="s">
-        <v>1133</v>
+        <v>1129</v>
+      </c>
+      <c r="G802" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H802" t="s">
+        <v>1096</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>23</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="803" spans="1:9">
@@ -18534,16 +18525,16 @@
         <v>1084</v>
       </c>
       <c r="D803" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E803" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F803" t="s">
         <v>1133</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
     </row>
     <row r="804" spans="1:9">
@@ -18554,16 +18545,16 @@
         <v>1084</v>
       </c>
       <c r="D804" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E804" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F804" t="s">
         <v>1133</v>
       </c>
       <c r="I804" s="1" t="s">
-        <v>371</v>
+        <v>240</v>
       </c>
     </row>
     <row r="805" spans="1:9">
@@ -18574,16 +18565,16 @@
         <v>1084</v>
       </c>
       <c r="D805" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E805" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F805" t="s">
         <v>1133</v>
       </c>
       <c r="I805" s="1" t="s">
-        <v>527</v>
+        <v>371</v>
       </c>
     </row>
     <row r="806" spans="1:9">
@@ -18594,16 +18585,16 @@
         <v>1084</v>
       </c>
       <c r="D806" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E806" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F806" t="s">
         <v>1133</v>
       </c>
-      <c r="I806" t="s">
-        <v>788</v>
+      <c r="I806" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="807" spans="1:9">
@@ -18614,50 +18605,50 @@
         <v>1084</v>
       </c>
       <c r="D807" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E807" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F807" t="s">
         <v>1133</v>
       </c>
-      <c r="I807" s="1" t="s">
-        <v>1032</v>
+      <c r="I807" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="808" spans="1:9">
       <c r="A808" t="s">
         <v>1132</v>
       </c>
-      <c r="G808" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H808" t="s">
-        <v>1096</v>
+      <c r="C808" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F808" t="s">
+        <v>1133</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>1134</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="809" spans="1:9">
       <c r="A809" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C809" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D809" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E809" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F809" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I809" t="s">
-        <v>35</v>
+        <v>1132</v>
+      </c>
+      <c r="G809" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H809" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I809" s="1" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="810" spans="1:9">
@@ -18668,16 +18659,16 @@
         <v>1136</v>
       </c>
       <c r="D810" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E810" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F810" t="s">
         <v>1137</v>
       </c>
-      <c r="I810" s="1" t="s">
-        <v>153</v>
+      <c r="I810" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="811" spans="1:9">
@@ -18688,98 +18679,101 @@
         <v>1136</v>
       </c>
       <c r="D811" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E811" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F811" t="s">
         <v>1137</v>
       </c>
-      <c r="I811" t="s">
-        <v>358</v>
+      <c r="I811" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="812" spans="1:9">
       <c r="A812" t="s">
         <v>1135</v>
       </c>
-      <c r="B812" s="2"/>
       <c r="C812" t="s">
         <v>1136</v>
       </c>
       <c r="D812" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E812" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F812" t="s">
         <v>1137</v>
       </c>
       <c r="I812" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
     </row>
     <row r="813" spans="1:9">
       <c r="A813" t="s">
         <v>1135</v>
       </c>
-      <c r="B813" t="s">
-        <v>20</v>
-      </c>
+      <c r="B813" s="2"/>
       <c r="C813" t="s">
         <v>1136</v>
       </c>
       <c r="D813" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E813" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F813" t="s">
         <v>1137</v>
       </c>
       <c r="I813" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="814" spans="1:9">
       <c r="A814" t="s">
         <v>1135</v>
       </c>
-      <c r="B814" s="2"/>
+      <c r="B814" t="s">
+        <v>20</v>
+      </c>
       <c r="C814" t="s">
         <v>1136</v>
       </c>
       <c r="D814" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E814" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F814" t="s">
         <v>1137</v>
       </c>
       <c r="I814" t="s">
-        <v>1138</v>
+        <v>436</v>
       </c>
     </row>
     <row r="815" spans="1:9">
       <c r="A815" t="s">
         <v>1135</v>
       </c>
+      <c r="B815" s="2"/>
       <c r="C815" t="s">
-        <v>1139</v>
+        <v>1136</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1106</v>
       </c>
       <c r="E815" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="F815" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="I815" t="s">
-        <v>35</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="816" spans="1:9">
@@ -18787,16 +18781,16 @@
         <v>1135</v>
       </c>
       <c r="C816" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E816" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F816" t="s">
         <v>1140</v>
       </c>
-      <c r="I816" s="1" t="s">
-        <v>304</v>
+      <c r="I816" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="817" spans="1:9">
@@ -18804,89 +18798,89 @@
         <v>1135</v>
       </c>
       <c r="C817" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E817" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F817" t="s">
         <v>1140</v>
       </c>
-      <c r="I817" t="s">
-        <v>1143</v>
+      <c r="I817" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="818" spans="1:9">
       <c r="A818" t="s">
         <v>1135</v>
       </c>
-      <c r="B818" s="2"/>
       <c r="C818" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E818" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F818" t="s">
         <v>1140</v>
       </c>
       <c r="I818" t="s">
-        <v>432</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="819" spans="1:9">
       <c r="A819" t="s">
         <v>1135</v>
       </c>
-      <c r="B819" t="s">
-        <v>20</v>
-      </c>
+      <c r="B819" s="2"/>
       <c r="C819" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E819" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F819" t="s">
         <v>1140</v>
       </c>
       <c r="I819" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="820" spans="1:9">
       <c r="A820" t="s">
         <v>1135</v>
       </c>
-      <c r="B820" s="2"/>
+      <c r="B820" t="s">
+        <v>20</v>
+      </c>
       <c r="C820" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E820" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F820" t="s">
         <v>1140</v>
       </c>
       <c r="I820" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9">
+      <c r="A821" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B821" s="2"/>
+      <c r="C821" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F821" t="s">
+        <v>1140</v>
+      </c>
+      <c r="I821" t="s">
         <v>1082</v>
-      </c>
-    </row>
-    <row r="822" spans="1:9">
-      <c r="A822" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C822" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E822" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F822" t="s">
-        <v>1149</v>
-      </c>
-      <c r="I822" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="823" spans="1:9">
@@ -18894,16 +18888,16 @@
         <v>1147</v>
       </c>
       <c r="C823" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E823" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F823" t="s">
         <v>1149</v>
       </c>
-      <c r="I823" s="1" t="s">
-        <v>335</v>
+      <c r="I823" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="824" spans="1:9">
@@ -18911,16 +18905,16 @@
         <v>1147</v>
       </c>
       <c r="C824" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E824" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F824" t="s">
         <v>1149</v>
       </c>
-      <c r="I824" t="s">
-        <v>1152</v>
+      <c r="I824" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="825" spans="1:9">
@@ -18928,36 +18922,33 @@
         <v>1147</v>
       </c>
       <c r="C825" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E825" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F825" t="s">
         <v>1149</v>
       </c>
       <c r="I825" t="s">
-        <v>434</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="826" spans="1:9">
       <c r="A826" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="C826" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D826" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E826" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F826" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="I826" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
     </row>
     <row r="827" spans="1:9">
@@ -18968,16 +18959,16 @@
         <v>1155</v>
       </c>
       <c r="D827" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E827" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F827" t="s">
         <v>1157</v>
       </c>
-      <c r="I827" s="1" t="s">
-        <v>1159</v>
+      <c r="I827" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="828" spans="1:9">
@@ -18988,16 +18979,16 @@
         <v>1155</v>
       </c>
       <c r="D828" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E828" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F828" t="s">
         <v>1157</v>
       </c>
-      <c r="I828" t="s">
-        <v>1143</v>
+      <c r="I828" s="1" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="829" spans="1:9">
@@ -19008,36 +18999,36 @@
         <v>1155</v>
       </c>
       <c r="D829" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E829" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F829" t="s">
         <v>1157</v>
       </c>
       <c r="I829" t="s">
-        <v>462</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="830" spans="1:9">
       <c r="A830" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C830" t="s">
         <v>1155</v>
       </c>
       <c r="D830" t="s">
-        <v>1156</v>
+        <v>1161</v>
       </c>
       <c r="E830" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F830" t="s">
-        <v>1163</v>
-      </c>
-      <c r="I830" s="1" t="s">
-        <v>92</v>
+        <v>1157</v>
+      </c>
+      <c r="I830" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="831" spans="1:9">
@@ -19048,16 +19039,16 @@
         <v>1155</v>
       </c>
       <c r="D831" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E831" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F831" t="s">
         <v>1163</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
     </row>
     <row r="832" spans="1:9">
@@ -19068,16 +19059,16 @@
         <v>1155</v>
       </c>
       <c r="D832" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E832" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F832" t="s">
         <v>1163</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>1164</v>
+        <v>203</v>
       </c>
     </row>
     <row r="833" spans="1:9">
@@ -19088,36 +19079,36 @@
         <v>1155</v>
       </c>
       <c r="D833" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E833" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F833" t="s">
         <v>1163</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>572</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="834" spans="1:9">
       <c r="A834" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C834" t="s">
-        <v>1084</v>
+        <v>1155</v>
       </c>
       <c r="D834" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="E834" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F834" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>1168</v>
+        <v>572</v>
       </c>
     </row>
     <row r="835" spans="1:9">
@@ -19128,16 +19119,16 @@
         <v>1084</v>
       </c>
       <c r="D835" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E835" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F835" t="s">
         <v>1167</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="836" spans="1:9">
@@ -19148,16 +19139,16 @@
         <v>1084</v>
       </c>
       <c r="D836" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E836" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F836" t="s">
         <v>1167</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="837" spans="1:9">
@@ -19168,50 +19159,50 @@
         <v>1084</v>
       </c>
       <c r="D837" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E837" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F837" t="s">
         <v>1167</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>535</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="838" spans="1:9">
       <c r="A838" t="s">
         <v>1165</v>
       </c>
-      <c r="G838" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H838" t="s">
-        <v>1174</v>
+      <c r="C838" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F838" t="s">
+        <v>1167</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>1175</v>
+        <v>535</v>
       </c>
     </row>
     <row r="839" spans="1:9">
       <c r="A839" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C839" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D839" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E839" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F839" t="s">
-        <v>1177</v>
+        <v>1165</v>
+      </c>
+      <c r="G839" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1174</v>
       </c>
       <c r="I839" s="1" t="s">
-        <v>23</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="840" spans="1:9">
@@ -19222,16 +19213,16 @@
         <v>1084</v>
       </c>
       <c r="D840" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="E840" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F840" t="s">
         <v>1177</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
     </row>
     <row r="841" spans="1:9">
@@ -19242,16 +19233,16 @@
         <v>1084</v>
       </c>
       <c r="D841" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E841" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F841" t="s">
         <v>1177</v>
       </c>
       <c r="I841" s="1" t="s">
-        <v>1178</v>
+        <v>225</v>
       </c>
     </row>
     <row r="842" spans="1:9">
@@ -19262,50 +19253,50 @@
         <v>1084</v>
       </c>
       <c r="D842" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E842" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F842" t="s">
         <v>1177</v>
       </c>
       <c r="I842" s="1" t="s">
-        <v>527</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="843" spans="1:9">
       <c r="A843" t="s">
         <v>1176</v>
       </c>
-      <c r="G843" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H843" t="s">
-        <v>1174</v>
+      <c r="C843" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F843" t="s">
+        <v>1177</v>
       </c>
       <c r="I843" s="1" t="s">
-        <v>1179</v>
+        <v>527</v>
       </c>
     </row>
     <row r="844" spans="1:9">
       <c r="A844" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C844" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D844" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E844" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F844" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I844" t="s">
-        <v>35</v>
+        <v>1176</v>
+      </c>
+      <c r="G844" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H844" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I844" s="1" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="845" spans="1:9">
@@ -19316,16 +19307,16 @@
         <v>1181</v>
       </c>
       <c r="D845" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E845" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F845" t="s">
         <v>1182</v>
       </c>
-      <c r="I845" s="1" t="s">
-        <v>171</v>
+      <c r="I845" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="846" spans="1:9">
@@ -19336,16 +19327,16 @@
         <v>1181</v>
       </c>
       <c r="D846" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E846" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F846" t="s">
         <v>1182</v>
       </c>
-      <c r="I846" t="s">
-        <v>358</v>
+      <c r="I846" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="847" spans="1:9">
@@ -19356,16 +19347,16 @@
         <v>1181</v>
       </c>
       <c r="D847" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E847" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F847" t="s">
         <v>1182</v>
       </c>
       <c r="I847" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
     </row>
     <row r="848" spans="1:9">
@@ -19373,16 +19364,19 @@
         <v>1180</v>
       </c>
       <c r="C848" t="s">
-        <v>1183</v>
+        <v>1181</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1161</v>
       </c>
       <c r="E848" t="s">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="F848" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I848" t="s">
-        <v>1072</v>
+        <v>412</v>
       </c>
     </row>
     <row r="849" spans="1:9">
@@ -19390,16 +19384,16 @@
         <v>1180</v>
       </c>
       <c r="C849" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E849" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F849" t="s">
         <v>1184</v>
       </c>
-      <c r="I849" s="1" t="s">
-        <v>139</v>
+      <c r="I849" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="850" spans="1:9">
@@ -19407,16 +19401,16 @@
         <v>1180</v>
       </c>
       <c r="C850" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E850" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F850" t="s">
         <v>1184</v>
       </c>
-      <c r="I850" t="s">
-        <v>1187</v>
+      <c r="I850" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -19424,71 +19418,71 @@
         <v>1180</v>
       </c>
       <c r="C851" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E851" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F851" t="s">
         <v>1184</v>
       </c>
       <c r="I851" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9">
+      <c r="A852" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F852" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I852" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="852" spans="1:9" s="2" customFormat="1"/>
-    <row r="853" spans="1:9" s="2" customFormat="1">
-      <c r="A853" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C853" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E853" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F853" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I853" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
+    <row r="853" spans="1:9" s="2" customFormat="1"/>
     <row r="854" spans="1:9" s="2" customFormat="1">
       <c r="A854" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="B854" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C854" s="2" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E854" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F854" s="2" t="s">
         <v>1417</v>
       </c>
       <c r="I854" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="855" spans="1:9" s="2" customFormat="1">
       <c r="A855" s="2" t="s">
         <v>1412</v>
       </c>
+      <c r="B855" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C855" s="2" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E855" s="2" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F855" s="2" t="s">
         <v>1417</v>
       </c>
       <c r="I855" s="2" t="s">
-        <v>990</v>
+        <v>436</v>
       </c>
     </row>
     <row r="856" spans="1:9" s="2" customFormat="1">
@@ -19496,28 +19490,22 @@
         <v>1412</v>
       </c>
       <c r="C856" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D856" s="2" t="s">
-        <v>1203</v>
+        <v>1415</v>
       </c>
       <c r="E856" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F856" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="I856" s="3" t="s">
-        <v>1205</v>
+      <c r="I856" s="2" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="857" spans="1:9" s="2" customFormat="1">
       <c r="A857" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="B857" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C857" s="2" t="s">
         <v>1416</v>
       </c>
@@ -19525,76 +19513,79 @@
         <v>1203</v>
       </c>
       <c r="E857" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F857" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="I857" s="2" t="s">
-        <v>1207</v>
+      <c r="I857" s="3" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="858" spans="1:9" s="2" customFormat="1">
       <c r="A858" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C858" s="2" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D858" s="2" t="s">
-        <v>1420</v>
+        <v>1203</v>
       </c>
       <c r="E858" s="2" t="s">
-        <v>1077</v>
+        <v>1206</v>
       </c>
       <c r="F858" s="2" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="I858" s="2" t="s">
-        <v>462</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="859" spans="1:9" s="2" customFormat="1">
       <c r="A859" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="B859" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C859" s="2" t="s">
         <v>1419</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E859" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F859" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="I859" s="2" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="860" spans="1:9" s="2" customFormat="1">
       <c r="A860" s="2" t="s">
         <v>1418</v>
       </c>
+      <c r="B860" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C860" s="2" t="s">
         <v>1419</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E860" s="2" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F860" s="2" t="s">
         <v>1423</v>
       </c>
       <c r="I860" s="2" t="s">
-        <v>990</v>
+        <v>436</v>
       </c>
     </row>
     <row r="861" spans="1:9" s="2" customFormat="1">
@@ -19605,25 +19596,22 @@
         <v>1419</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="E861" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F861" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="I861" s="3" t="s">
-        <v>1205</v>
+      <c r="I861" s="2" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="862" spans="1:9" s="2" customFormat="1">
       <c r="A862" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="B862" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C862" s="2" t="s">
         <v>1419</v>
       </c>
@@ -19631,18 +19619,18 @@
         <v>1435</v>
       </c>
       <c r="E862" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F862" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="I862" s="2" t="s">
-        <v>1207</v>
+      <c r="I862" s="3" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="863" spans="1:9" s="2" customFormat="1">
       <c r="A863" s="2" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="B863" s="2" t="s">
         <v>20</v>
@@ -19651,16 +19639,16 @@
         <v>1419</v>
       </c>
       <c r="D863" s="2" t="s">
-        <v>1420</v>
+        <v>1435</v>
       </c>
       <c r="E863" s="2" t="s">
-        <v>1077</v>
+        <v>1206</v>
       </c>
       <c r="F863" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I863" s="3" t="s">
-        <v>572</v>
+        <v>1423</v>
+      </c>
+      <c r="I863" s="2" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="864" spans="1:9" s="2" customFormat="1">
@@ -19674,36 +19662,39 @@
         <v>1419</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E864" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F864" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="I864" s="2" t="s">
-        <v>862</v>
+      <c r="I864" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="865" spans="1:9" s="2" customFormat="1">
       <c r="A865" s="2" t="s">
         <v>1424</v>
       </c>
+      <c r="B865" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C865" s="2" t="s">
         <v>1419</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E865" s="2" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F865" s="2" t="s">
         <v>1425</v>
       </c>
       <c r="I865" s="2" t="s">
-        <v>994</v>
+        <v>862</v>
       </c>
     </row>
     <row r="866" spans="1:9" s="2" customFormat="1">
@@ -19714,25 +19705,22 @@
         <v>1419</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="E866" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F866" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="I866" s="3" t="s">
-        <v>1263</v>
+      <c r="I866" s="2" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="867" spans="1:9" s="2" customFormat="1">
       <c r="A867" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="B867" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C867" s="2" t="s">
         <v>1419</v>
       </c>
@@ -19740,18 +19728,18 @@
         <v>1435</v>
       </c>
       <c r="E867" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F867" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="I867" s="2" t="s">
-        <v>1238</v>
+      <c r="I867" s="3" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="868" spans="1:9" s="2" customFormat="1">
       <c r="A868" s="2" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="B868" s="2" t="s">
         <v>20</v>
@@ -19760,16 +19748,16 @@
         <v>1419</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>1420</v>
+        <v>1435</v>
       </c>
       <c r="E868" s="2" t="s">
-        <v>1077</v>
+        <v>1206</v>
       </c>
       <c r="F868" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="I868" s="3" t="s">
-        <v>572</v>
+        <v>1425</v>
+      </c>
+      <c r="I868" s="2" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="869" spans="1:9" s="2" customFormat="1">
@@ -19783,36 +19771,39 @@
         <v>1419</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E869" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F869" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="I869" s="2" t="s">
-        <v>862</v>
+      <c r="I869" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="870" spans="1:9" s="2" customFormat="1">
       <c r="A870" s="2" t="s">
         <v>1433</v>
       </c>
+      <c r="B870" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C870" s="2" t="s">
         <v>1419</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E870" s="2" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F870" s="2" t="s">
         <v>1434</v>
       </c>
       <c r="I870" s="2" t="s">
-        <v>994</v>
+        <v>862</v>
       </c>
     </row>
     <row r="871" spans="1:9" s="2" customFormat="1">
@@ -19823,25 +19814,22 @@
         <v>1419</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="E871" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F871" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="I871" s="3" t="s">
-        <v>1263</v>
+      <c r="I871" s="2" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="872" spans="1:9" s="2" customFormat="1">
       <c r="A872" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="B872" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C872" s="2" t="s">
         <v>1419</v>
       </c>
@@ -19849,76 +19837,79 @@
         <v>1435</v>
       </c>
       <c r="E872" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F872" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="I872" s="2" t="s">
-        <v>1238</v>
+      <c r="I872" s="3" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="873" spans="1:9" s="2" customFormat="1">
       <c r="A873" s="2" t="s">
-        <v>1429</v>
+        <v>1433</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C873" s="2" t="s">
-        <v>1084</v>
+        <v>1419</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>1426</v>
+        <v>1435</v>
       </c>
       <c r="E873" s="2" t="s">
-        <v>1077</v>
+        <v>1206</v>
       </c>
       <c r="F873" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I873" s="3" t="s">
-        <v>535</v>
+        <v>1434</v>
+      </c>
+      <c r="I873" s="2" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="874" spans="1:9" s="2" customFormat="1">
       <c r="A874" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="B874" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C874" s="2" t="s">
         <v>1084</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E874" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F874" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="I874" s="2" t="s">
-        <v>841</v>
+      <c r="I874" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="875" spans="1:9" s="2" customFormat="1">
       <c r="A875" s="2" t="s">
         <v>1429</v>
       </c>
+      <c r="B875" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C875" s="2" t="s">
         <v>1084</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E875" s="2" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F875" s="2" t="s">
         <v>1430</v>
       </c>
       <c r="I875" s="2" t="s">
-        <v>994</v>
+        <v>841</v>
       </c>
     </row>
     <row r="876" spans="1:9" s="2" customFormat="1">
@@ -19926,28 +19917,25 @@
         <v>1429</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1122</v>
+        <v>1084</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>1203</v>
+        <v>1428</v>
       </c>
       <c r="E876" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F876" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="I876" s="3" t="s">
-        <v>1263</v>
+      <c r="I876" s="2" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="2" customFormat="1">
       <c r="A877" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="B877" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C877" s="2" t="s">
         <v>1122</v>
       </c>
@@ -19955,76 +19943,79 @@
         <v>1203</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F877" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="I877" s="2" t="s">
-        <v>1238</v>
+      <c r="I877" s="3" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="2" customFormat="1">
       <c r="A878" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>1426</v>
+        <v>1203</v>
       </c>
       <c r="E878" s="2" t="s">
-        <v>1077</v>
+        <v>1206</v>
       </c>
       <c r="F878" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="I878" s="3" t="s">
-        <v>535</v>
+        <v>1430</v>
+      </c>
+      <c r="I878" s="2" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="2" customFormat="1">
       <c r="A879" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="B879" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C879" s="2" t="s">
         <v>1084</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E879" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F879" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="I879" s="2" t="s">
-        <v>841</v>
+      <c r="I879" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="2" customFormat="1">
       <c r="A880" s="2" t="s">
         <v>1431</v>
       </c>
+      <c r="B880" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C880" s="2" t="s">
         <v>1084</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F880" s="2" t="s">
         <v>1432</v>
       </c>
       <c r="I880" s="2" t="s">
-        <v>994</v>
+        <v>841</v>
       </c>
     </row>
     <row r="881" spans="1:9" s="2" customFormat="1">
@@ -20032,28 +20023,25 @@
         <v>1431</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1122</v>
+        <v>1084</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>1203</v>
+        <v>1428</v>
       </c>
       <c r="E881" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F881" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="I881" s="3" t="s">
-        <v>1263</v>
+      <c r="I881" s="2" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="882" spans="1:9" s="2" customFormat="1">
       <c r="A882" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="B882" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C882" s="2" t="s">
         <v>1122</v>
       </c>
@@ -20061,76 +20049,79 @@
         <v>1203</v>
       </c>
       <c r="E882" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F882" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="I882" s="2" t="s">
-        <v>1238</v>
+      <c r="I882" s="3" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="883" spans="1:9" s="2" customFormat="1">
       <c r="A883" s="2" t="s">
-        <v>1436</v>
+        <v>1431</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>1438</v>
+        <v>1122</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>1420</v>
+        <v>1203</v>
       </c>
       <c r="E883" s="2" t="s">
-        <v>1077</v>
+        <v>1206</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="I883" s="2" t="s">
-        <v>462</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="2" customFormat="1">
       <c r="A884" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="B884" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C884" s="2" t="s">
         <v>1438</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E884" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F884" s="2" t="s">
         <v>1437</v>
       </c>
       <c r="I884" s="2" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
     </row>
     <row r="885" spans="1:9" s="2" customFormat="1">
       <c r="A885" s="2" t="s">
         <v>1436</v>
       </c>
+      <c r="B885" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C885" s="2" t="s">
         <v>1438</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E885" s="2" t="s">
-        <v>1200</v>
+        <v>1079</v>
       </c>
       <c r="F885" s="2" t="s">
         <v>1437</v>
       </c>
       <c r="I885" s="2" t="s">
-        <v>990</v>
+        <v>436</v>
       </c>
     </row>
     <row r="886" spans="1:9" s="2" customFormat="1">
@@ -20141,25 +20132,22 @@
         <v>1438</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1435</v>
+        <v>1422</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F886" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="I886" s="3" t="s">
-        <v>1205</v>
+      <c r="I886" s="2" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="887" spans="1:9" s="2" customFormat="1">
       <c r="A887" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="B887" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C887" s="2" t="s">
         <v>1438</v>
       </c>
@@ -20167,30 +20155,36 @@
         <v>1435</v>
       </c>
       <c r="E887" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F887" s="2" t="s">
         <v>1437</v>
       </c>
-      <c r="I887" s="2" t="s">
+      <c r="I887" s="3" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" s="2" customFormat="1">
+      <c r="A888" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E888" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="I888" s="2" t="s">
         <v>1207</v>
-      </c>
-    </row>
-    <row r="889" spans="1:9">
-      <c r="A889" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C889" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E889" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F889" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I889" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="890" spans="1:9">
@@ -20198,16 +20192,16 @@
         <v>1189</v>
       </c>
       <c r="C890" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="E890" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F890" t="s">
         <v>1191</v>
       </c>
-      <c r="I890" s="1" t="s">
-        <v>304</v>
+      <c r="I890" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="891" spans="1:9">
@@ -20215,36 +20209,33 @@
         <v>1189</v>
       </c>
       <c r="C891" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E891" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F891" t="s">
         <v>1191</v>
       </c>
-      <c r="I891" t="s">
-        <v>352</v>
+      <c r="I891" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="892" spans="1:9">
       <c r="A892" t="s">
         <v>1189</v>
       </c>
-      <c r="B892" t="s">
-        <v>20</v>
-      </c>
       <c r="C892" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E892" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F892" t="s">
         <v>1191</v>
       </c>
       <c r="I892" t="s">
-        <v>432</v>
+        <v>352</v>
       </c>
     </row>
     <row r="893" spans="1:9">
@@ -20255,33 +20246,36 @@
         <v>20</v>
       </c>
       <c r="C893" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E893" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F893" t="s">
         <v>1191</v>
       </c>
       <c r="I893" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="894" spans="1:9">
       <c r="A894" t="s">
         <v>1189</v>
       </c>
+      <c r="B894" t="s">
+        <v>20</v>
+      </c>
       <c r="C894" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E894" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F894" t="s">
         <v>1191</v>
       </c>
       <c r="I894" t="s">
-        <v>962</v>
+        <v>436</v>
       </c>
     </row>
     <row r="895" spans="1:9">
@@ -20289,65 +20283,59 @@
         <v>1189</v>
       </c>
       <c r="C895" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E895" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F895" t="s">
         <v>1191</v>
       </c>
       <c r="I895" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
     </row>
     <row r="896" spans="1:9">
       <c r="A896" t="s">
         <v>1189</v>
       </c>
-      <c r="B896" t="s">
-        <v>20</v>
-      </c>
       <c r="C896" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E896" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F896" t="s">
         <v>1191</v>
       </c>
       <c r="I896" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
     </row>
     <row r="897" spans="1:9">
       <c r="A897" t="s">
         <v>1189</v>
       </c>
+      <c r="B897" t="s">
+        <v>20</v>
+      </c>
       <c r="C897" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D897" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E897" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F897" t="s">
         <v>1191</v>
       </c>
       <c r="I897" t="s">
-        <v>1205</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="898" spans="1:9">
       <c r="A898" t="s">
         <v>1189</v>
       </c>
-      <c r="B898" t="s">
-        <v>20</v>
-      </c>
       <c r="C898" t="s">
         <v>1202</v>
       </c>
@@ -20355,33 +20343,36 @@
         <v>1203</v>
       </c>
       <c r="E898" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F898" t="s">
         <v>1191</v>
       </c>
       <c r="I898" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="899" spans="1:9">
       <c r="A899" t="s">
-        <v>1208</v>
+        <v>1189</v>
+      </c>
+      <c r="B899" t="s">
+        <v>20</v>
       </c>
       <c r="C899" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="D899" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="E899" t="s">
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="F899" t="s">
-        <v>1211</v>
+        <v>1191</v>
       </c>
       <c r="I899" t="s">
-        <v>1192</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="900" spans="1:9">
@@ -20392,16 +20383,16 @@
         <v>1209</v>
       </c>
       <c r="D900" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E900" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F900" t="s">
         <v>1211</v>
       </c>
-      <c r="I900" s="1" t="s">
-        <v>153</v>
+      <c r="I900" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="901" spans="1:9">
@@ -20412,39 +20403,36 @@
         <v>1209</v>
       </c>
       <c r="D901" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E901" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F901" t="s">
         <v>1211</v>
       </c>
-      <c r="I901" t="s">
-        <v>1187</v>
+      <c r="I901" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="902" spans="1:9">
       <c r="A902" t="s">
         <v>1208</v>
       </c>
-      <c r="B902" t="s">
-        <v>20</v>
-      </c>
       <c r="C902" t="s">
         <v>1209</v>
       </c>
       <c r="D902" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E902" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F902" t="s">
         <v>1211</v>
       </c>
       <c r="I902" t="s">
-        <v>419</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="903" spans="1:9">
@@ -20458,36 +20446,39 @@
         <v>1209</v>
       </c>
       <c r="D903" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E903" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F903" t="s">
         <v>1211</v>
       </c>
       <c r="I903" t="s">
-        <v>708</v>
+        <v>419</v>
       </c>
     </row>
     <row r="904" spans="1:9">
       <c r="A904" t="s">
         <v>1208</v>
       </c>
+      <c r="B904" t="s">
+        <v>20</v>
+      </c>
       <c r="C904" t="s">
         <v>1209</v>
       </c>
       <c r="D904" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E904" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F904" t="s">
         <v>1211</v>
       </c>
       <c r="I904" t="s">
-        <v>962</v>
+        <v>708</v>
       </c>
     </row>
     <row r="905" spans="1:9">
@@ -20498,68 +20489,65 @@
         <v>1209</v>
       </c>
       <c r="D905" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E905" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F905" t="s">
         <v>1211</v>
       </c>
       <c r="I905" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
     </row>
     <row r="906" spans="1:9">
       <c r="A906" t="s">
         <v>1208</v>
       </c>
-      <c r="B906" t="s">
-        <v>20</v>
-      </c>
       <c r="C906" t="s">
         <v>1209</v>
       </c>
       <c r="D906" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E906" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F906" t="s">
         <v>1211</v>
       </c>
       <c r="I906" t="s">
-        <v>1082</v>
+        <v>990</v>
       </c>
     </row>
     <row r="907" spans="1:9">
       <c r="A907" t="s">
         <v>1208</v>
       </c>
+      <c r="B907" t="s">
+        <v>20</v>
+      </c>
       <c r="C907" t="s">
         <v>1209</v>
       </c>
       <c r="D907" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E907" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F907" t="s">
         <v>1211</v>
       </c>
       <c r="I907" t="s">
-        <v>1205</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="908" spans="1:9">
       <c r="A908" t="s">
         <v>1208</v>
       </c>
-      <c r="B908" t="s">
-        <v>20</v>
-      </c>
       <c r="C908" t="s">
         <v>1209</v>
       </c>
@@ -20567,50 +20555,53 @@
         <v>1219</v>
       </c>
       <c r="E908" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F908" t="s">
         <v>1211</v>
       </c>
       <c r="I908" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="909" spans="1:9">
       <c r="A909" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="B909" t="s">
         <v>20</v>
       </c>
       <c r="C909" t="s">
-        <v>252</v>
+        <v>1209</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1219</v>
       </c>
       <c r="E909" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I909" s="1" t="s">
-        <v>1221</v>
+        <v>1206</v>
+      </c>
+      <c r="F909" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I909" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="910" spans="1:9">
       <c r="A910" t="s">
-        <v>1222</v>
+        <v>1220</v>
+      </c>
+      <c r="B910" t="s">
+        <v>20</v>
       </c>
       <c r="C910" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D910" t="s">
-        <v>1223</v>
+        <v>252</v>
       </c>
       <c r="E910" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F910" t="s">
-        <v>1224</v>
+        <v>1077</v>
       </c>
       <c r="I910" s="1" t="s">
-        <v>1087</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="911" spans="1:9">
@@ -20621,16 +20612,16 @@
         <v>1084</v>
       </c>
       <c r="D911" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E911" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F911" t="s">
         <v>1224</v>
       </c>
       <c r="I911" s="1" t="s">
-        <v>1226</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="912" spans="1:9">
@@ -20641,39 +20632,36 @@
         <v>1084</v>
       </c>
       <c r="D912" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E912" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F912" t="s">
         <v>1224</v>
       </c>
       <c r="I912" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="913" spans="1:9">
       <c r="A913" t="s">
         <v>1222</v>
       </c>
-      <c r="B913" t="s">
-        <v>20</v>
-      </c>
       <c r="C913" t="s">
         <v>1084</v>
       </c>
       <c r="D913" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E913" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F913" t="s">
         <v>1224</v>
       </c>
       <c r="I913" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="914" spans="1:9">
@@ -20687,36 +20675,39 @@
         <v>1084</v>
       </c>
       <c r="D914" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E914" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F914" t="s">
         <v>1224</v>
       </c>
-      <c r="I914" t="s">
-        <v>855</v>
+      <c r="I914" s="1" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="915" spans="1:9">
       <c r="A915" t="s">
         <v>1222</v>
       </c>
+      <c r="B915" t="s">
+        <v>20</v>
+      </c>
       <c r="C915" t="s">
         <v>1084</v>
       </c>
       <c r="D915" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E915" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F915" t="s">
         <v>1224</v>
       </c>
       <c r="I915" t="s">
-        <v>962</v>
+        <v>855</v>
       </c>
     </row>
     <row r="916" spans="1:9">
@@ -20727,68 +20718,65 @@
         <v>1084</v>
       </c>
       <c r="D916" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E916" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F916" t="s">
         <v>1224</v>
       </c>
       <c r="I916" t="s">
-        <v>1000</v>
+        <v>962</v>
       </c>
     </row>
     <row r="917" spans="1:9">
       <c r="A917" t="s">
         <v>1222</v>
       </c>
-      <c r="B917" t="s">
-        <v>20</v>
-      </c>
       <c r="C917" t="s">
         <v>1084</v>
       </c>
       <c r="D917" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E917" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F917" t="s">
         <v>1224</v>
       </c>
-      <c r="I917" s="1" t="s">
-        <v>1235</v>
+      <c r="I917" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="918" spans="1:9">
       <c r="A918" t="s">
         <v>1222</v>
       </c>
+      <c r="B918" t="s">
+        <v>20</v>
+      </c>
       <c r="C918" t="s">
         <v>1084</v>
       </c>
       <c r="D918" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E918" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F918" t="s">
         <v>1224</v>
       </c>
       <c r="I918" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="919" spans="1:9">
       <c r="A919" t="s">
         <v>1222</v>
       </c>
-      <c r="B919" t="s">
-        <v>20</v>
-      </c>
       <c r="C919" t="s">
         <v>1084</v>
       </c>
@@ -20796,59 +20784,59 @@
         <v>1236</v>
       </c>
       <c r="E919" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F919" t="s">
         <v>1224</v>
       </c>
-      <c r="I919" t="s">
-        <v>1238</v>
+      <c r="I919" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="920" spans="1:9">
       <c r="A920" t="s">
-        <v>1239</v>
+        <v>1222</v>
       </c>
       <c r="B920" t="s">
         <v>20</v>
       </c>
       <c r="C920" t="s">
-        <v>1240</v>
+        <v>1084</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1236</v>
       </c>
       <c r="E920" t="s">
-        <v>965</v>
+        <v>1206</v>
+      </c>
+      <c r="F920" t="s">
+        <v>1224</v>
       </c>
       <c r="I920" t="s">
-        <v>962</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="921" spans="1:9">
       <c r="A921" t="s">
-        <v>1241</v>
+        <v>1239</v>
+      </c>
+      <c r="B921" t="s">
+        <v>20</v>
       </c>
       <c r="C921" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D921" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="E921" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F921" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I921" s="1" t="s">
-        <v>1245</v>
+        <v>965</v>
+      </c>
+      <c r="I921" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="922" spans="1:9">
       <c r="A922" t="s">
         <v>1241</v>
       </c>
-      <c r="B922" t="s">
-        <v>20</v>
-      </c>
       <c r="C922" t="s">
         <v>1242</v>
       </c>
@@ -20856,33 +20844,36 @@
         <v>1243</v>
       </c>
       <c r="E922" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F922" t="s">
         <v>1244</v>
       </c>
-      <c r="I922" t="s">
-        <v>1238</v>
+      <c r="I922" s="1" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="923" spans="1:9">
       <c r="A923" t="s">
-        <v>1246</v>
+        <v>1241</v>
+      </c>
+      <c r="B923" t="s">
+        <v>20</v>
       </c>
       <c r="C923" t="s">
-        <v>1084</v>
+        <v>1242</v>
       </c>
       <c r="D923" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="E923" t="s">
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="F923" t="s">
-        <v>1247</v>
-      </c>
-      <c r="I923" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
+      </c>
+      <c r="I923" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="924" spans="1:9">
@@ -20893,16 +20884,16 @@
         <v>1084</v>
       </c>
       <c r="D924" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E924" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F924" t="s">
         <v>1247</v>
       </c>
       <c r="I924" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="925" spans="1:9">
@@ -20913,39 +20904,36 @@
         <v>1084</v>
       </c>
       <c r="D925" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E925" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F925" t="s">
         <v>1247</v>
       </c>
       <c r="I925" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="926" spans="1:9">
       <c r="A926" t="s">
         <v>1246</v>
       </c>
-      <c r="B926" t="s">
-        <v>20</v>
-      </c>
       <c r="C926" t="s">
         <v>1084</v>
       </c>
       <c r="D926" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E926" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F926" t="s">
         <v>1247</v>
       </c>
       <c r="I926" s="1" t="s">
-        <v>543</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="927" spans="1:9">
@@ -20959,36 +20947,39 @@
         <v>1084</v>
       </c>
       <c r="D927" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E927" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F927" t="s">
         <v>1247</v>
       </c>
-      <c r="I927" t="s">
-        <v>841</v>
+      <c r="I927" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="928" spans="1:9">
       <c r="A928" t="s">
         <v>1246</v>
       </c>
+      <c r="B928" t="s">
+        <v>20</v>
+      </c>
       <c r="C928" t="s">
         <v>1084</v>
       </c>
       <c r="D928" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E928" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F928" t="s">
         <v>1247</v>
       </c>
       <c r="I928" t="s">
-        <v>962</v>
+        <v>841</v>
       </c>
     </row>
     <row r="929" spans="1:9">
@@ -20999,68 +20990,65 @@
         <v>1084</v>
       </c>
       <c r="D929" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E929" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F929" t="s">
         <v>1247</v>
       </c>
       <c r="I929" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
     </row>
     <row r="930" spans="1:9">
       <c r="A930" t="s">
         <v>1246</v>
       </c>
-      <c r="B930" t="s">
-        <v>20</v>
-      </c>
       <c r="C930" t="s">
         <v>1084</v>
       </c>
       <c r="D930" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E930" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F930" t="s">
         <v>1247</v>
       </c>
-      <c r="I930" s="1" t="s">
-        <v>1235</v>
+      <c r="I930" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="931" spans="1:9">
       <c r="A931" t="s">
         <v>1246</v>
       </c>
+      <c r="B931" t="s">
+        <v>20</v>
+      </c>
       <c r="C931" t="s">
         <v>1084</v>
       </c>
       <c r="D931" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E931" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F931" t="s">
         <v>1247</v>
       </c>
       <c r="I931" s="1" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="932" spans="1:9">
       <c r="A932" t="s">
         <v>1246</v>
       </c>
-      <c r="B932" t="s">
-        <v>20</v>
-      </c>
       <c r="C932" t="s">
         <v>1084</v>
       </c>
@@ -21068,33 +21056,36 @@
         <v>1236</v>
       </c>
       <c r="E932" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F932" t="s">
         <v>1247</v>
       </c>
-      <c r="I932" t="s">
-        <v>1252</v>
+      <c r="I932" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="933" spans="1:9">
       <c r="A933" t="s">
-        <v>1253</v>
+        <v>1246</v>
+      </c>
+      <c r="B933" t="s">
+        <v>20</v>
       </c>
       <c r="C933" t="s">
         <v>1084</v>
       </c>
       <c r="D933" t="s">
-        <v>1223</v>
+        <v>1236</v>
       </c>
       <c r="E933" t="s">
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="F933" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I933" s="1" t="s">
-        <v>90</v>
+        <v>1247</v>
+      </c>
+      <c r="I933" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="934" spans="1:9">
@@ -21105,16 +21096,16 @@
         <v>1084</v>
       </c>
       <c r="D934" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E934" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F934" t="s">
         <v>1254</v>
       </c>
       <c r="I934" s="1" t="s">
-        <v>1255</v>
+        <v>90</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -21125,16 +21116,16 @@
         <v>1084</v>
       </c>
       <c r="D935" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E935" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F935" t="s">
         <v>1254</v>
       </c>
       <c r="I935" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="936" spans="1:9">
@@ -21145,16 +21136,16 @@
         <v>1084</v>
       </c>
       <c r="D936" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E936" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F936" t="s">
         <v>1254</v>
       </c>
       <c r="I936" s="1" t="s">
-        <v>584</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="937" spans="1:9">
@@ -21165,16 +21156,16 @@
         <v>1084</v>
       </c>
       <c r="D937" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E937" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F937" t="s">
         <v>1254</v>
       </c>
-      <c r="I937" t="s">
-        <v>841</v>
+      <c r="I937" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="938" spans="1:9">
@@ -21185,16 +21176,16 @@
         <v>1084</v>
       </c>
       <c r="D938" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E938" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F938" t="s">
         <v>1254</v>
       </c>
       <c r="I938" t="s">
-        <v>962</v>
+        <v>841</v>
       </c>
     </row>
     <row r="939" spans="1:9">
@@ -21205,16 +21196,16 @@
         <v>1084</v>
       </c>
       <c r="D939" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E939" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F939" t="s">
         <v>1254</v>
       </c>
       <c r="I939" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
     </row>
     <row r="940" spans="1:9">
@@ -21225,16 +21216,16 @@
         <v>1084</v>
       </c>
       <c r="D940" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E940" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F940" t="s">
         <v>1254</v>
       </c>
-      <c r="I940" s="1" t="s">
-        <v>1257</v>
+      <c r="I940" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="941" spans="1:9">
@@ -21245,36 +21236,36 @@
         <v>1084</v>
       </c>
       <c r="D941" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E941" t="s">
-        <v>1258</v>
+        <v>1081</v>
       </c>
       <c r="F941" t="s">
         <v>1254</v>
       </c>
       <c r="I941" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="942" spans="1:9">
       <c r="A942" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C942" t="s">
-        <v>1209</v>
+        <v>1084</v>
       </c>
       <c r="D942" t="s">
-        <v>1210</v>
+        <v>1236</v>
       </c>
       <c r="E942" t="s">
-        <v>1070</v>
+        <v>1258</v>
       </c>
       <c r="F942" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="I942" s="1" t="s">
-        <v>92</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="943" spans="1:9">
@@ -21285,16 +21276,16 @@
         <v>1209</v>
       </c>
       <c r="D943" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E943" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F943" t="s">
         <v>1261</v>
       </c>
       <c r="I943" s="1" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
     </row>
     <row r="944" spans="1:9">
@@ -21305,39 +21296,36 @@
         <v>1209</v>
       </c>
       <c r="D944" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E944" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F944" t="s">
         <v>1261</v>
       </c>
       <c r="I944" s="1" t="s">
-        <v>1262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="945" spans="1:9">
       <c r="A945" t="s">
         <v>1260</v>
       </c>
-      <c r="B945" t="s">
-        <v>20</v>
-      </c>
       <c r="C945" t="s">
         <v>1209</v>
       </c>
       <c r="D945" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E945" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F945" t="s">
         <v>1261</v>
       </c>
       <c r="I945" s="1" t="s">
-        <v>608</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="946" spans="1:9">
@@ -21351,36 +21339,39 @@
         <v>1209</v>
       </c>
       <c r="D946" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E946" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F946" t="s">
         <v>1261</v>
       </c>
-      <c r="I946" t="s">
-        <v>862</v>
+      <c r="I946" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="947" spans="1:9">
       <c r="A947" t="s">
         <v>1260</v>
       </c>
+      <c r="B947" t="s">
+        <v>20</v>
+      </c>
       <c r="C947" t="s">
         <v>1209</v>
       </c>
       <c r="D947" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E947" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F947" t="s">
         <v>1261</v>
       </c>
       <c r="I947" t="s">
-        <v>962</v>
+        <v>862</v>
       </c>
     </row>
     <row r="948" spans="1:9">
@@ -21391,68 +21382,65 @@
         <v>1209</v>
       </c>
       <c r="D948" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E948" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F948" t="s">
         <v>1261</v>
       </c>
       <c r="I948" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
     </row>
     <row r="949" spans="1:9">
       <c r="A949" t="s">
         <v>1260</v>
       </c>
-      <c r="B949" t="s">
-        <v>20</v>
-      </c>
       <c r="C949" t="s">
         <v>1209</v>
       </c>
       <c r="D949" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E949" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F949" t="s">
         <v>1261</v>
       </c>
-      <c r="I949" s="1" t="s">
-        <v>1128</v>
+      <c r="I949" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="950" spans="1:9">
       <c r="A950" t="s">
         <v>1260</v>
       </c>
+      <c r="B950" t="s">
+        <v>20</v>
+      </c>
       <c r="C950" t="s">
         <v>1209</v>
       </c>
       <c r="D950" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E950" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F950" t="s">
         <v>1261</v>
       </c>
       <c r="I950" s="1" t="s">
-        <v>1263</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="951" spans="1:9">
       <c r="A951" t="s">
         <v>1260</v>
       </c>
-      <c r="B951" t="s">
-        <v>20</v>
-      </c>
       <c r="C951" t="s">
         <v>1209</v>
       </c>
@@ -21460,33 +21448,36 @@
         <v>1219</v>
       </c>
       <c r="E951" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F951" t="s">
         <v>1261</v>
       </c>
-      <c r="I951" t="s">
-        <v>1238</v>
+      <c r="I951" s="1" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="952" spans="1:9">
       <c r="A952" t="s">
-        <v>1264</v>
+        <v>1260</v>
+      </c>
+      <c r="B952" t="s">
+        <v>20</v>
       </c>
       <c r="C952" t="s">
-        <v>1084</v>
+        <v>1209</v>
       </c>
       <c r="D952" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E952" t="s">
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="F952" t="s">
-        <v>1265</v>
-      </c>
-      <c r="I952" s="1" t="s">
-        <v>23</v>
+        <v>1261</v>
+      </c>
+      <c r="I952" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="953" spans="1:9">
@@ -21497,16 +21488,16 @@
         <v>1084</v>
       </c>
       <c r="D953" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E953" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F953" t="s">
         <v>1265</v>
       </c>
       <c r="I953" s="1" t="s">
-        <v>1266</v>
+        <v>23</v>
       </c>
     </row>
     <row r="954" spans="1:9">
@@ -21517,39 +21508,36 @@
         <v>1084</v>
       </c>
       <c r="D954" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E954" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F954" t="s">
         <v>1265</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="955" spans="1:9">
       <c r="A955" t="s">
         <v>1264</v>
       </c>
-      <c r="B955" t="s">
-        <v>20</v>
-      </c>
       <c r="C955" t="s">
         <v>1084</v>
       </c>
       <c r="D955" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E955" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F955" t="s">
         <v>1265</v>
       </c>
       <c r="I955" s="1" t="s">
-        <v>550</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="956" spans="1:9">
@@ -21563,36 +21551,39 @@
         <v>1084</v>
       </c>
       <c r="D956" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E956" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F956" t="s">
         <v>1265</v>
       </c>
-      <c r="I956" t="s">
-        <v>841</v>
+      <c r="I956" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="957" spans="1:9">
       <c r="A957" t="s">
         <v>1264</v>
       </c>
+      <c r="B957" t="s">
+        <v>20</v>
+      </c>
       <c r="C957" t="s">
         <v>1084</v>
       </c>
       <c r="D957" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E957" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F957" t="s">
         <v>1265</v>
       </c>
       <c r="I957" t="s">
-        <v>962</v>
+        <v>841</v>
       </c>
     </row>
     <row r="958" spans="1:9">
@@ -21603,68 +21594,65 @@
         <v>1084</v>
       </c>
       <c r="D958" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E958" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F958" t="s">
         <v>1265</v>
       </c>
       <c r="I958" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
     </row>
     <row r="959" spans="1:9">
       <c r="A959" t="s">
         <v>1264</v>
       </c>
-      <c r="B959" t="s">
-        <v>20</v>
-      </c>
       <c r="C959" t="s">
         <v>1084</v>
       </c>
       <c r="D959" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E959" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F959" t="s">
         <v>1265</v>
       </c>
-      <c r="I959" s="1" t="s">
-        <v>1257</v>
+      <c r="I959" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="960" spans="1:9">
       <c r="A960" t="s">
         <v>1264</v>
       </c>
+      <c r="B960" t="s">
+        <v>20</v>
+      </c>
       <c r="C960" t="s">
         <v>1084</v>
       </c>
       <c r="D960" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E960" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F960" t="s">
         <v>1265</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>1268</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="961" spans="1:9">
       <c r="A961" t="s">
         <v>1264</v>
       </c>
-      <c r="B961" t="s">
-        <v>20</v>
-      </c>
       <c r="C961" t="s">
         <v>1084</v>
       </c>
@@ -21672,70 +21660,73 @@
         <v>1236</v>
       </c>
       <c r="E961" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F961" t="s">
         <v>1265</v>
       </c>
-      <c r="I961" t="s">
-        <v>1238</v>
+      <c r="I961" s="1" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="962" spans="1:9">
       <c r="A962" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="B962" t="s">
         <v>20</v>
       </c>
       <c r="C962" t="s">
-        <v>1240</v>
+        <v>1084</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1236</v>
       </c>
       <c r="E962" t="s">
-        <v>965</v>
+        <v>1206</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1265</v>
       </c>
       <c r="I962" t="s">
-        <v>972</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="963" spans="1:9">
       <c r="A963" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C963" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D963" t="s">
-        <v>1210</v>
+        <v>1269</v>
+      </c>
+      <c r="B963" t="s">
+        <v>20</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1240</v>
       </c>
       <c r="E963" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F963" t="s">
-        <v>1272</v>
+        <v>965</v>
       </c>
       <c r="I963" t="s">
-        <v>35</v>
+        <v>972</v>
       </c>
     </row>
     <row r="964" spans="1:9">
       <c r="A964" t="s">
         <v>1270</v>
       </c>
-      <c r="C964" t="s">
+      <c r="C964" s="2" t="s">
         <v>1271</v>
       </c>
       <c r="D964" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E964" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F964" t="s">
         <v>1272</v>
       </c>
-      <c r="I964" s="1" t="s">
-        <v>139</v>
+      <c r="I964" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="965" spans="1:9">
@@ -21746,39 +21737,36 @@
         <v>1271</v>
       </c>
       <c r="D965" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E965" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F965" t="s">
         <v>1272</v>
       </c>
-      <c r="I965" t="s">
-        <v>1187</v>
+      <c r="I965" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="966" spans="1:9">
       <c r="A966" t="s">
         <v>1270</v>
       </c>
-      <c r="B966" t="s">
-        <v>20</v>
-      </c>
       <c r="C966" t="s">
         <v>1271</v>
       </c>
       <c r="D966" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E966" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F966" t="s">
         <v>1272</v>
       </c>
       <c r="I966" t="s">
-        <v>412</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="967" spans="1:9">
@@ -21792,36 +21780,39 @@
         <v>1271</v>
       </c>
       <c r="D967" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E967" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F967" t="s">
         <v>1272</v>
       </c>
       <c r="I967" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="968" spans="1:9">
       <c r="A968" t="s">
         <v>1270</v>
       </c>
+      <c r="B968" t="s">
+        <v>20</v>
+      </c>
       <c r="C968" t="s">
         <v>1271</v>
       </c>
       <c r="D968" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E968" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F968" t="s">
         <v>1272</v>
       </c>
       <c r="I968" t="s">
-        <v>962</v>
+        <v>422</v>
       </c>
     </row>
     <row r="969" spans="1:9">
@@ -21832,68 +21823,65 @@
         <v>1271</v>
       </c>
       <c r="D969" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E969" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F969" t="s">
         <v>1272</v>
       </c>
       <c r="I969" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
     </row>
     <row r="970" spans="1:9">
       <c r="A970" t="s">
         <v>1270</v>
       </c>
-      <c r="B970" t="s">
-        <v>20</v>
-      </c>
       <c r="C970" t="s">
         <v>1271</v>
       </c>
       <c r="D970" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E970" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F970" t="s">
         <v>1272</v>
       </c>
       <c r="I970" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" t="s">
         <v>1270</v>
       </c>
+      <c r="B971" t="s">
+        <v>20</v>
+      </c>
       <c r="C971" t="s">
         <v>1271</v>
       </c>
       <c r="D971" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E971" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F971" t="s">
         <v>1272</v>
       </c>
       <c r="I971" t="s">
-        <v>1205</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" t="s">
         <v>1270</v>
       </c>
-      <c r="B972" t="s">
-        <v>20</v>
-      </c>
       <c r="C972" t="s">
         <v>1271</v>
       </c>
@@ -21901,30 +21889,36 @@
         <v>1219</v>
       </c>
       <c r="E972" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F972" t="s">
         <v>1272</v>
       </c>
       <c r="I972" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="973" spans="1:9">
       <c r="A973" t="s">
         <v>1270</v>
       </c>
+      <c r="B973" t="s">
+        <v>20</v>
+      </c>
       <c r="C973" t="s">
-        <v>1273</v>
+        <v>1271</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1219</v>
       </c>
       <c r="E973" t="s">
-        <v>1070</v>
+        <v>1206</v>
       </c>
       <c r="F973" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I973" t="s">
-        <v>1072</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="974" spans="1:9">
@@ -21932,16 +21926,16 @@
         <v>1270</v>
       </c>
       <c r="C974" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E974" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F974" t="s">
         <v>1274</v>
       </c>
-      <c r="I974" s="1" t="s">
-        <v>1276</v>
+      <c r="I974" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="975" spans="1:9">
@@ -21949,36 +21943,33 @@
         <v>1270</v>
       </c>
       <c r="C975" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E975" t="s">
-        <v>345</v>
+        <v>1074</v>
       </c>
       <c r="F975" t="s">
         <v>1274</v>
       </c>
-      <c r="I975" t="s">
-        <v>352</v>
+      <c r="I975" s="1" t="s">
+        <v>1276</v>
       </c>
     </row>
     <row r="976" spans="1:9">
       <c r="A976" t="s">
         <v>1270</v>
       </c>
-      <c r="B976" t="s">
-        <v>20</v>
-      </c>
       <c r="C976" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E976" t="s">
-        <v>1077</v>
+        <v>345</v>
       </c>
       <c r="F976" t="s">
         <v>1274</v>
       </c>
       <c r="I976" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
     </row>
     <row r="977" spans="1:9">
@@ -21989,33 +21980,36 @@
         <v>20</v>
       </c>
       <c r="C977" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E977" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F977" t="s">
         <v>1274</v>
       </c>
       <c r="I977" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="978" spans="1:9">
       <c r="A978" t="s">
         <v>1270</v>
       </c>
+      <c r="B978" t="s">
+        <v>20</v>
+      </c>
       <c r="C978" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E978" t="s">
-        <v>1198</v>
+        <v>1079</v>
       </c>
       <c r="F978" t="s">
         <v>1274</v>
       </c>
       <c r="I978" t="s">
-        <v>962</v>
+        <v>436</v>
       </c>
     </row>
     <row r="979" spans="1:9">
@@ -22023,65 +22017,59 @@
         <v>1270</v>
       </c>
       <c r="C979" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E979" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F979" t="s">
         <v>1274</v>
       </c>
       <c r="I979" t="s">
-        <v>990</v>
+        <v>962</v>
       </c>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" t="s">
         <v>1270</v>
       </c>
-      <c r="B980" t="s">
-        <v>20</v>
-      </c>
       <c r="C980" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E980" t="s">
-        <v>1081</v>
+        <v>1200</v>
       </c>
       <c r="F980" t="s">
         <v>1274</v>
       </c>
       <c r="I980" t="s">
-        <v>1082</v>
+        <v>990</v>
       </c>
     </row>
     <row r="981" spans="1:9">
       <c r="A981" t="s">
         <v>1270</v>
       </c>
+      <c r="B981" t="s">
+        <v>20</v>
+      </c>
       <c r="C981" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D981" t="s">
-        <v>1203</v>
+        <v>1282</v>
       </c>
       <c r="E981" t="s">
-        <v>1204</v>
+        <v>1081</v>
       </c>
       <c r="F981" t="s">
         <v>1274</v>
       </c>
       <c r="I981" t="s">
-        <v>1205</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" t="s">
         <v>1270</v>
       </c>
-      <c r="B982" t="s">
-        <v>20</v>
-      </c>
       <c r="C982" t="s">
         <v>1283</v>
       </c>
@@ -22089,79 +22077,79 @@
         <v>1203</v>
       </c>
       <c r="E982" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F982" t="s">
         <v>1274</v>
       </c>
       <c r="I982" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9">
+      <c r="A983" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B983" t="s">
+        <v>20</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F983" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I983" t="s">
         <v>1207</v>
-      </c>
-    </row>
-    <row r="984" spans="1:9">
-      <c r="A984" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C984" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E984" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F984" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I984" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" t="s">
         <v>1284</v>
       </c>
-      <c r="B985" t="s">
-        <v>20</v>
-      </c>
       <c r="C985" t="s">
         <v>1285</v>
       </c>
       <c r="E985" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F985" t="s">
         <v>1286</v>
       </c>
       <c r="I985" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="986" spans="1:9">
       <c r="A986" t="s">
-        <v>1287</v>
+        <v>1284</v>
+      </c>
+      <c r="B986" t="s">
+        <v>20</v>
       </c>
       <c r="C986" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D986" t="s">
-        <v>1203</v>
+        <v>1285</v>
       </c>
       <c r="E986" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F986" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I986" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="987" spans="1:9">
       <c r="A987" t="s">
         <v>1287</v>
       </c>
-      <c r="B987" t="s">
-        <v>20</v>
-      </c>
       <c r="C987" t="s">
         <v>1288</v>
       </c>
@@ -22169,60 +22157,69 @@
         <v>1203</v>
       </c>
       <c r="E987" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F987" t="s">
         <v>1289</v>
       </c>
       <c r="I987" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="988" spans="1:9">
       <c r="A988" t="s">
-        <v>1290</v>
+        <v>1287</v>
+      </c>
+      <c r="B988" t="s">
+        <v>20</v>
       </c>
       <c r="C988" t="s">
-        <v>1291</v>
+        <v>1288</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1203</v>
       </c>
       <c r="E988" t="s">
-        <v>1292</v>
+        <v>1206</v>
+      </c>
+      <c r="F988" t="s">
+        <v>1289</v>
       </c>
       <c r="I988" t="s">
-        <v>1293</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="989" spans="1:9">
       <c r="A989" t="s">
         <v>1290</v>
       </c>
-      <c r="G989" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H989" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I989" s="1" t="s">
-        <v>1296</v>
+      <c r="C989" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I989" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="990" spans="1:9">
       <c r="A990" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C990" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E990" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I990" t="s">
-        <v>1298</v>
+        <v>1290</v>
+      </c>
+      <c r="G990" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H990" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I990" s="1" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="991" spans="1:9">
       <c r="A991" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C991" t="s">
         <v>1291</v>
@@ -22231,66 +22228,63 @@
         <v>1292</v>
       </c>
       <c r="I991" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" t="s">
         <v>1299</v>
       </c>
-      <c r="G992" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H992" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I992" s="1" t="s">
-        <v>90</v>
+      <c r="C992" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E992" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I992" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="993" spans="1:9">
       <c r="A993" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C993" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E993" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I993" t="s">
-        <v>1302</v>
+        <v>1299</v>
+      </c>
+      <c r="G993" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H993" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I993" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="994" spans="1:9">
       <c r="A994" t="s">
         <v>1301</v>
       </c>
-      <c r="G994" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H994" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I994" s="1" t="s">
-        <v>1037</v>
+      <c r="C994" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E994" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I994" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="995" spans="1:9">
       <c r="A995" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B995" t="s">
-        <v>20</v>
-      </c>
-      <c r="C995" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E995" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I995" t="s">
-        <v>1304</v>
+        <v>1301</v>
+      </c>
+      <c r="G995" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H995" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I995" s="1" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="996" spans="1:9">
@@ -22300,127 +22294,121 @@
       <c r="B996" t="s">
         <v>20</v>
       </c>
-      <c r="G996" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H996" t="s">
-        <v>1305</v>
+      <c r="C996" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E996" t="s">
+        <v>1292</v>
       </c>
       <c r="I996" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="997" spans="1:9">
       <c r="A997" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C997" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E997" t="s">
-        <v>1292</v>
+        <v>1303</v>
+      </c>
+      <c r="B997" t="s">
+        <v>20</v>
+      </c>
+      <c r="G997" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H997" t="s">
+        <v>1305</v>
       </c>
       <c r="I997" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="998" spans="1:9">
       <c r="A998" t="s">
         <v>1307</v>
       </c>
-      <c r="G998" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H998" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I998" s="1" t="s">
-        <v>1309</v>
+      <c r="C998" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I998" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C999" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E999" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I999" t="s">
-        <v>1311</v>
+        <v>1307</v>
+      </c>
+      <c r="G999" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H999" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I999" s="1" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
       <c r="A1000" t="s">
         <v>1310</v>
       </c>
-      <c r="G1000" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1000" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1000" s="1" t="s">
-        <v>1312</v>
+      <c r="C1000" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1000" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
       <c r="A1001" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C1001" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1001" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1001" t="s">
-        <v>1314</v>
+        <v>1310</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1001" s="1" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
       <c r="A1002" t="s">
         <v>1313</v>
       </c>
-      <c r="G1002" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1002" t="s">
-        <v>1295</v>
+      <c r="C1002" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1292</v>
       </c>
       <c r="I1002" t="s">
-        <v>962</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
       <c r="A1003" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C1003" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D1003" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E1003" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F1003" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I1003" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" t="s">
         <v>1315</v>
       </c>
-      <c r="B1004" t="s">
-        <v>20</v>
-      </c>
       <c r="C1004" t="s">
         <v>1288</v>
       </c>
@@ -22428,190 +22416,190 @@
         <v>1203</v>
       </c>
       <c r="E1004" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1004" t="s">
         <v>1316</v>
       </c>
-      <c r="I1004" t="s">
-        <v>1238</v>
+      <c r="I1004" s="1" t="s">
+        <v>1317</v>
       </c>
     </row>
     <row r="1005" spans="1:9">
       <c r="A1005" t="s">
-        <v>1318</v>
+        <v>1315</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>20</v>
       </c>
       <c r="C1005" t="s">
-        <v>1242</v>
+        <v>1288</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1203</v>
       </c>
       <c r="E1005" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F1005" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I1005" s="1" t="s">
-        <v>1320</v>
+        <v>1316</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1006" spans="1:9">
       <c r="A1006" t="s">
         <v>1318</v>
       </c>
-      <c r="B1006" t="s">
-        <v>20</v>
-      </c>
       <c r="C1006" t="s">
         <v>1242</v>
       </c>
       <c r="E1006" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1006" t="s">
         <v>1319</v>
       </c>
-      <c r="I1006" t="s">
-        <v>1238</v>
+      <c r="I1006" s="1" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
       <c r="A1007" t="s">
-        <v>1321</v>
+        <v>1318</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>20</v>
       </c>
       <c r="C1007" t="s">
         <v>1242</v>
       </c>
       <c r="E1007" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F1007" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I1007" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
       <c r="A1008" t="s">
         <v>1321</v>
       </c>
-      <c r="B1008" t="s">
-        <v>20</v>
-      </c>
       <c r="C1008" t="s">
         <v>1242</v>
       </c>
       <c r="E1008" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1008" t="s">
         <v>1322</v>
       </c>
-      <c r="I1008" t="s">
-        <v>1238</v>
+      <c r="I1008" s="1" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="1009" spans="1:9">
       <c r="A1009" t="s">
-        <v>1323</v>
+        <v>1321</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>20</v>
       </c>
       <c r="C1009" t="s">
         <v>1242</v>
       </c>
       <c r="E1009" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F1009" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I1009" s="1" t="s">
-        <v>1237</v>
+        <v>1322</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" t="s">
         <v>1323</v>
       </c>
-      <c r="B1010" t="s">
-        <v>20</v>
-      </c>
       <c r="C1010" t="s">
         <v>1242</v>
       </c>
       <c r="E1010" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1010" t="s">
         <v>1324</v>
       </c>
-      <c r="I1010" t="s">
-        <v>1252</v>
+      <c r="I1010" s="1" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="1011" spans="1:9">
       <c r="A1011" t="s">
-        <v>1325</v>
+        <v>1323</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>20</v>
       </c>
       <c r="C1011" t="s">
         <v>1242</v>
       </c>
       <c r="E1011" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F1011" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I1011" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
+      </c>
+      <c r="I1011" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
       <c r="A1012" t="s">
         <v>1325</v>
       </c>
-      <c r="B1012" t="s">
-        <v>20</v>
-      </c>
       <c r="C1012" t="s">
         <v>1242</v>
       </c>
       <c r="E1012" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1012" t="s">
         <v>1326</v>
       </c>
-      <c r="I1012" t="s">
-        <v>1238</v>
+      <c r="I1012" s="1" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="1013" spans="1:9">
       <c r="A1013" t="s">
-        <v>1328</v>
+        <v>1325</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>20</v>
       </c>
       <c r="C1013" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D1013" t="s">
-        <v>1203</v>
+        <v>1242</v>
       </c>
       <c r="E1013" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F1013" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I1013" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="1014" spans="1:9">
       <c r="A1014" t="s">
         <v>1328</v>
       </c>
-      <c r="B1014" t="s">
-        <v>20</v>
-      </c>
       <c r="C1014" t="s">
         <v>1288</v>
       </c>
@@ -22619,123 +22607,129 @@
         <v>1203</v>
       </c>
       <c r="E1014" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1014" t="s">
         <v>1329</v>
       </c>
-      <c r="I1014" t="s">
-        <v>1252</v>
+      <c r="I1014" s="1" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="1015" spans="1:9">
       <c r="A1015" t="s">
-        <v>1331</v>
+        <v>1328</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>20</v>
       </c>
       <c r="C1015" t="s">
-        <v>1242</v>
+        <v>1288</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1203</v>
       </c>
       <c r="E1015" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F1015" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I1015" s="1" t="s">
-        <v>1333</v>
+        <v>1329</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="1016" spans="1:9">
       <c r="A1016" t="s">
         <v>1331</v>
       </c>
-      <c r="B1016" t="s">
-        <v>20</v>
-      </c>
       <c r="C1016" t="s">
         <v>1242</v>
       </c>
       <c r="E1016" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1016" t="s">
         <v>1332</v>
       </c>
-      <c r="I1016" t="s">
-        <v>1238</v>
+      <c r="I1016" s="1" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="1017" spans="1:9">
       <c r="A1017" t="s">
-        <v>1334</v>
+        <v>1331</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>20</v>
       </c>
       <c r="C1017" t="s">
-        <v>1291</v>
+        <v>1242</v>
       </c>
       <c r="E1017" t="s">
-        <v>1292</v>
+        <v>1206</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>1332</v>
       </c>
       <c r="I1017" t="s">
-        <v>1293</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1018" spans="1:9">
       <c r="A1018" t="s">
         <v>1334</v>
       </c>
-      <c r="G1018" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1018" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1018" s="1" t="s">
-        <v>1335</v>
+      <c r="C1018" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1019" spans="1:9">
       <c r="A1019" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1019" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1019" t="s">
-        <v>1308</v>
+        <v>1334</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1019" s="1" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="1020" spans="1:9">
       <c r="A1020" t="s">
         <v>1336</v>
       </c>
-      <c r="G1020" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1020" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1020" s="1" t="s">
-        <v>1337</v>
+      <c r="C1020" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="1021" spans="1:9">
       <c r="A1021" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B1021" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1021" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1021" t="s">
-        <v>1304</v>
+        <v>1336</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1021" s="1" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="1022" spans="1:9">
@@ -22745,92 +22739,95 @@
       <c r="B1022" t="s">
         <v>20</v>
       </c>
-      <c r="G1022" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1022" t="s">
-        <v>1305</v>
+      <c r="C1022" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1292</v>
       </c>
       <c r="I1022" t="s">
-        <v>563</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1023" spans="1:9">
       <c r="A1023" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1023" t="s">
-        <v>1292</v>
+        <v>1338</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>1305</v>
       </c>
       <c r="I1023" t="s">
-        <v>1293</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1024" spans="1:9">
       <c r="A1024" t="s">
         <v>1339</v>
       </c>
-      <c r="G1024" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1024" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1024" s="1" t="s">
-        <v>1340</v>
+      <c r="C1024" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1024" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1025" spans="1:9">
       <c r="A1025" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1025" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1025" t="s">
-        <v>1293</v>
+        <v>1339</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1025" s="1" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="1026" spans="1:9">
       <c r="A1026" t="s">
         <v>1341</v>
       </c>
-      <c r="G1026" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1026" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1026" s="1" t="s">
-        <v>1342</v>
+      <c r="C1026" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1027" spans="1:9">
       <c r="A1027" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1027" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1027" t="s">
-        <v>1298</v>
+        <v>1341</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1027" s="1" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="1028" spans="1:9">
       <c r="A1028" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C1028" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E1028" t="s">
         <v>1292</v>
@@ -22841,131 +22838,128 @@
     </row>
     <row r="1029" spans="1:9">
       <c r="A1029" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C1029" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E1029" t="s">
         <v>1292</v>
       </c>
       <c r="I1029" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1030" spans="1:9">
       <c r="A1030" t="s">
         <v>1345</v>
       </c>
-      <c r="G1030" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1030" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1030" s="1" t="s">
-        <v>1346</v>
+      <c r="C1030" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="1031" spans="1:9">
       <c r="A1031" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1031" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1031" t="s">
-        <v>1300</v>
+        <v>1345</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1031" s="1" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="1032" spans="1:9">
       <c r="A1032" t="s">
         <v>1347</v>
       </c>
-      <c r="G1032" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1032" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1032" s="1" t="s">
-        <v>81</v>
+      <c r="C1032" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>1300</v>
       </c>
     </row>
     <row r="1033" spans="1:9">
       <c r="A1033" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C1033" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1033" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1033" t="s">
-        <v>1302</v>
+        <v>1347</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1033" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="1034" spans="1:9">
       <c r="A1034" t="s">
         <v>1348</v>
       </c>
-      <c r="G1034" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1034" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1034" s="1" t="s">
-        <v>1349</v>
+      <c r="C1034" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1034" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="1035" spans="1:9">
       <c r="A1035" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1035" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1035" t="s">
-        <v>1302</v>
+        <v>1348</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1035" s="1" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="1036" spans="1:9">
       <c r="A1036" t="s">
         <v>1350</v>
       </c>
-      <c r="G1036" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1036" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1036" s="1" t="s">
-        <v>1128</v>
+      <c r="C1036" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="1037" spans="1:9">
       <c r="A1037" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1037" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1037" t="s">
-        <v>1304</v>
+        <v>1350</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1037" s="1" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="1038" spans="1:9">
@@ -22975,31 +22969,31 @@
       <c r="B1038" t="s">
         <v>20</v>
       </c>
-      <c r="G1038" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1038" t="s">
-        <v>1305</v>
+      <c r="C1038" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1292</v>
       </c>
       <c r="I1038" t="s">
-        <v>1352</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1039" spans="1:9">
       <c r="A1039" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B1039" t="s">
         <v>20</v>
       </c>
-      <c r="C1039" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1039" t="s">
-        <v>1292</v>
+      <c r="G1039" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>1305</v>
       </c>
       <c r="I1039" t="s">
-        <v>1304</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1040" spans="1:9">
@@ -23009,211 +23003,205 @@
       <c r="B1040" t="s">
         <v>20</v>
       </c>
-      <c r="G1040" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1040" t="s">
-        <v>1305</v>
+      <c r="C1040" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1292</v>
       </c>
       <c r="I1040" t="s">
-        <v>563</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
       <c r="A1041" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1041" t="s">
-        <v>1292</v>
+        <v>1353</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>1305</v>
       </c>
       <c r="I1041" t="s">
-        <v>1308</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1042" spans="1:9">
       <c r="A1042" t="s">
         <v>1354</v>
       </c>
-      <c r="G1042" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1042" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1042" s="1" t="s">
-        <v>1355</v>
+      <c r="C1042" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="1043" spans="1:9">
       <c r="A1043" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1043" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1043" t="s">
-        <v>1308</v>
+        <v>1354</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1043" s="1" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="1044" spans="1:9">
       <c r="A1044" t="s">
         <v>1356</v>
       </c>
-      <c r="G1044" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1044" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1044" s="1" t="s">
-        <v>1355</v>
+      <c r="C1044" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="1045" spans="1:9">
       <c r="A1045" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1045" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1045" t="s">
-        <v>1311</v>
+        <v>1356</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1045" s="1" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="1046" spans="1:9">
       <c r="A1046" t="s">
         <v>1357</v>
       </c>
-      <c r="G1046" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1046" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1046" s="1" t="s">
-        <v>1358</v>
+      <c r="C1046" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="1047" spans="1:9">
       <c r="A1047" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1047" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1047" t="s">
-        <v>1311</v>
+        <v>1357</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1047" s="1" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="1048" spans="1:9">
       <c r="A1048" t="s">
         <v>1359</v>
       </c>
-      <c r="G1048" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1048" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I1048" s="1" t="s">
-        <v>1360</v>
+      <c r="C1048" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="1049" spans="1:9">
       <c r="A1049" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E1049" t="s">
-        <v>1292</v>
-      </c>
-      <c r="I1049" t="s">
-        <v>1314</v>
+        <v>1359</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I1049" s="1" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="1050" spans="1:9">
       <c r="A1050" t="s">
         <v>1361</v>
       </c>
-      <c r="G1050" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1050" t="s">
-        <v>1295</v>
+      <c r="C1050" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>1292</v>
       </c>
       <c r="I1050" t="s">
-        <v>962</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1051" spans="1:9">
       <c r="A1051" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>1288</v>
-      </c>
-      <c r="E1051" t="s">
-        <v>1292</v>
+        <v>1361</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>1295</v>
       </c>
       <c r="I1051" t="s">
-        <v>1314</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1052" spans="1:9">
       <c r="A1052" t="s">
         <v>1362</v>
       </c>
-      <c r="G1052" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H1052" t="s">
-        <v>1295</v>
+      <c r="C1052" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1292</v>
       </c>
       <c r="I1052" t="s">
-        <v>962</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1053" spans="1:9">
       <c r="A1053" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D1053" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E1053" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F1053" t="s">
-        <v>1365</v>
+        <v>1362</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>1295</v>
       </c>
       <c r="I1053" t="s">
-        <v>1205</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1054" spans="1:9">
       <c r="A1054" t="s">
         <v>1363</v>
       </c>
-      <c r="B1054" t="s">
-        <v>20</v>
-      </c>
       <c r="C1054" t="s">
         <v>1364</v>
       </c>
@@ -23221,29 +23209,52 @@
         <v>1203</v>
       </c>
       <c r="E1054" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F1054" t="s">
         <v>1365</v>
       </c>
       <c r="I1054" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1055" spans="1:9">
       <c r="A1055" t="s">
         <v>1363</v>
       </c>
+      <c r="B1055" t="s">
+        <v>20</v>
+      </c>
       <c r="C1055" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I1055" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:9">
+      <c r="A1056" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C1056" t="s">
         <v>1366</v>
       </c>
-      <c r="E1055" t="s">
+      <c r="E1056" t="s">
         <v>1258</v>
       </c>
-      <c r="F1055" t="s">
+      <c r="F1056" t="s">
         <v>1367</v>
       </c>
-      <c r="I1055" t="s">
+      <c r="I1056" t="s">
         <v>1368</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5428" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="1464">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4397,6 +4397,15 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.course.CourseService.getCourseParticipationStatusEntryFile:courseParticipationStatusEntryId</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.isPropertiesAncestor</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.isPermissionProfileGroupsAncestor</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.getInheritedUser</t>
   </si>
 </sst>
 </file>
@@ -5221,10 +5230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1077"/>
+  <dimension ref="A1:I1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E171" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
+      <selection activeCell="A696" sqref="A696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16778,42 +16787,60 @@
         <v>967</v>
       </c>
     </row>
-    <row r="694" spans="1:9" s="2" customFormat="1"/>
-    <row r="695" spans="1:9">
-      <c r="A695" t="s">
-        <v>984</v>
-      </c>
-      <c r="I695" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="696" spans="1:9">
-      <c r="A696" t="s">
-        <v>986</v>
-      </c>
-      <c r="I696" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="697" spans="1:9">
-      <c r="A697" t="s">
-        <v>987</v>
-      </c>
-      <c r="I697" t="s">
-        <v>985</v>
-      </c>
-    </row>
+    <row r="694" spans="1:9" s="2" customFormat="1">
+      <c r="A694" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E694" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="I694" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" s="2" customFormat="1">
+      <c r="A695" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E695" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="I695" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" s="2" customFormat="1">
+      <c r="A696" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E696" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I696" s="2" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" s="2" customFormat="1"/>
     <row r="698" spans="1:9">
       <c r="A698" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I698" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="699" spans="1:9">
       <c r="A699" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I699" t="s">
         <v>985</v>
@@ -16821,7 +16848,7 @@
     </row>
     <row r="700" spans="1:9">
       <c r="A700" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I700" t="s">
         <v>985</v>
@@ -16829,39 +16856,39 @@
     </row>
     <row r="701" spans="1:9">
       <c r="A701" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I701" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="702" spans="1:9">
       <c r="A702" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I702" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="703" spans="1:9">
       <c r="A703" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I703" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="704" spans="1:9" s="2" customFormat="1">
-      <c r="A704" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I704" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9">
+      <c r="A704" t="s">
+        <v>992</v>
+      </c>
+      <c r="I704" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="705" spans="1:9">
       <c r="A705" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I705" t="s">
         <v>989</v>
@@ -16869,23 +16896,23 @@
     </row>
     <row r="706" spans="1:9">
       <c r="A706" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I706" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="707" spans="1:9">
-      <c r="A707" t="s">
-        <v>998</v>
-      </c>
-      <c r="I707" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" s="2" customFormat="1">
+      <c r="A707" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I707" s="2" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="708" spans="1:9">
       <c r="A708" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I708" t="s">
         <v>989</v>
@@ -16893,7 +16920,7 @@
     </row>
     <row r="709" spans="1:9">
       <c r="A709" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I709" t="s">
         <v>989</v>
@@ -16901,15 +16928,15 @@
     </row>
     <row r="710" spans="1:9">
       <c r="A710" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I710" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="711" spans="1:9">
       <c r="A711" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I711" t="s">
         <v>989</v>
@@ -16917,7 +16944,7 @@
     </row>
     <row r="712" spans="1:9">
       <c r="A712" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I712" t="s">
         <v>989</v>
@@ -16925,7 +16952,7 @@
     </row>
     <row r="713" spans="1:9">
       <c r="A713" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I713" t="s">
         <v>989</v>
@@ -16933,7 +16960,7 @@
     </row>
     <row r="714" spans="1:9">
       <c r="A714" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I714" t="s">
         <v>989</v>
@@ -16941,136 +16968,109 @@
     </row>
     <row r="715" spans="1:9">
       <c r="A715" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I715" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="716" spans="1:9">
       <c r="A716" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I716" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="717" spans="1:9">
       <c r="A717" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I717" t="s">
-        <v>985</v>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9">
+      <c r="A718" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I718" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="719" spans="1:9">
       <c r="A719" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E719" t="s">
-        <v>11</v>
+        <v>1007</v>
       </c>
       <c r="I719" t="s">
-        <v>1011</v>
+        <v>985</v>
       </c>
     </row>
     <row r="720" spans="1:9">
       <c r="A720" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B720" t="s">
-        <v>20</v>
-      </c>
-      <c r="C720" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E720" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="I720" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="721" spans="1:9">
-      <c r="A721" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B721" t="s">
-        <v>20</v>
-      </c>
-      <c r="C721" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E721" t="s">
-        <v>421</v>
-      </c>
-      <c r="I721" t="s">
-        <v>940</v>
+        <v>985</v>
       </c>
     </row>
     <row r="722" spans="1:9">
       <c r="A722" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B722" t="s">
-        <v>20</v>
+        <v>1009</v>
       </c>
       <c r="C722" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="E722" t="s">
-        <v>1014</v>
+        <v>11</v>
       </c>
       <c r="I722" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="723" spans="1:9">
       <c r="A723" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B723" t="s">
         <v>20</v>
       </c>
       <c r="C723" t="s">
-        <v>435</v>
+        <v>1013</v>
       </c>
       <c r="E723" t="s">
-        <v>421</v>
+        <v>1014</v>
       </c>
       <c r="I723" t="s">
-        <v>436</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="724" spans="1:9">
       <c r="A724" t="s">
-        <v>1020</v>
+        <v>1012</v>
+      </c>
+      <c r="B724" t="s">
+        <v>20</v>
       </c>
       <c r="C724" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E724" t="s">
-        <v>1014</v>
+        <v>421</v>
       </c>
       <c r="I724" t="s">
-        <v>1011</v>
+        <v>940</v>
       </c>
     </row>
     <row r="725" spans="1:9">
       <c r="A725" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B725" t="s">
         <v>20</v>
       </c>
       <c r="C725" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D725" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E725" t="s">
         <v>1014</v>
@@ -17081,30 +17081,24 @@
     </row>
     <row r="726" spans="1:9">
       <c r="A726" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B726" t="s">
         <v>20</v>
       </c>
       <c r="C726" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D726" t="s">
-        <v>1024</v>
+        <v>435</v>
       </c>
       <c r="E726" t="s">
         <v>421</v>
       </c>
       <c r="I726" t="s">
-        <v>703</v>
+        <v>436</v>
       </c>
     </row>
     <row r="727" spans="1:9">
       <c r="A727" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B727" t="s">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="C727" t="s">
         <v>1018</v>
@@ -17113,29 +17107,32 @@
         <v>1014</v>
       </c>
       <c r="I727" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="728" spans="1:9">
       <c r="A728" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B728" t="s">
         <v>20</v>
       </c>
       <c r="C728" t="s">
-        <v>435</v>
+        <v>1022</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1023</v>
       </c>
       <c r="E728" t="s">
-        <v>421</v>
+        <v>1014</v>
       </c>
       <c r="I728" t="s">
-        <v>436</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="729" spans="1:9">
       <c r="A729" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B729" t="s">
         <v>20</v>
@@ -17144,80 +17141,92 @@
         <v>1022</v>
       </c>
       <c r="D729" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E729" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I729" s="1" t="s">
-        <v>1027</v>
+        <v>421</v>
+      </c>
+      <c r="I729" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="730" spans="1:9">
       <c r="A730" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B730" t="s">
         <v>20</v>
       </c>
       <c r="C730" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D730" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E730" t="s">
-        <v>421</v>
+        <v>1014</v>
       </c>
       <c r="I730" t="s">
-        <v>900</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="731" spans="1:9">
       <c r="A731" t="s">
-        <v>1028</v>
+        <v>1025</v>
+      </c>
+      <c r="B731" t="s">
+        <v>20</v>
       </c>
       <c r="C731" t="s">
-        <v>1018</v>
+        <v>435</v>
       </c>
       <c r="E731" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I731" s="1" t="s">
-        <v>1029</v>
+        <v>421</v>
+      </c>
+      <c r="I731" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="732" spans="1:9">
       <c r="A732" t="s">
-        <v>1030</v>
+        <v>1026</v>
+      </c>
+      <c r="B732" t="s">
+        <v>20</v>
       </c>
       <c r="C732" t="s">
-        <v>252</v>
+        <v>1022</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1023</v>
       </c>
       <c r="E732" t="s">
-        <v>253</v>
+        <v>1014</v>
       </c>
       <c r="I732" s="1" t="s">
-        <v>899</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="733" spans="1:9">
       <c r="A733" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G733" t="s">
-        <v>96</v>
-      </c>
-      <c r="H733" t="s">
-        <v>70</v>
-      </c>
-      <c r="I733" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
+      </c>
+      <c r="B733" t="s">
+        <v>20</v>
+      </c>
+      <c r="C733" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E733" t="s">
+        <v>421</v>
+      </c>
+      <c r="I733" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="734" spans="1:9">
       <c r="A734" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C734" t="s">
         <v>1018</v>
@@ -17226,52 +17235,40 @@
         <v>1014</v>
       </c>
       <c r="I734" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="735" spans="1:9">
       <c r="A735" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B735" t="s">
-        <v>20</v>
+        <v>1030</v>
       </c>
       <c r="C735" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D735" t="s">
-        <v>1023</v>
+        <v>252</v>
       </c>
       <c r="E735" t="s">
-        <v>1014</v>
+        <v>253</v>
       </c>
       <c r="I735" s="1" t="s">
-        <v>1035</v>
+        <v>899</v>
       </c>
     </row>
     <row r="736" spans="1:9">
       <c r="A736" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B736" t="s">
-        <v>20</v>
-      </c>
-      <c r="C736" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D736" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E736" t="s">
-        <v>421</v>
-      </c>
-      <c r="I736" t="s">
-        <v>1036</v>
+        <v>1031</v>
+      </c>
+      <c r="G736" t="s">
+        <v>96</v>
+      </c>
+      <c r="H736" t="s">
+        <v>70</v>
+      </c>
+      <c r="I736" s="1" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="737" spans="1:9">
       <c r="A737" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C737" t="s">
         <v>1018</v>
@@ -17279,144 +17276,144 @@
       <c r="E737" t="s">
         <v>1014</v>
       </c>
-      <c r="F737" t="s">
-        <v>1037</v>
-      </c>
       <c r="I737" s="1" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="738" spans="1:9">
       <c r="A738" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="B738" t="s">
+        <v>20</v>
       </c>
       <c r="C738" t="s">
-        <v>532</v>
+        <v>1022</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1023</v>
       </c>
       <c r="E738" t="s">
-        <v>421</v>
-      </c>
-      <c r="F738" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I738" t="s">
-        <v>533</v>
+        <v>1014</v>
+      </c>
+      <c r="I738" s="1" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="739" spans="1:9">
       <c r="A739" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B739" t="s">
         <v>20</v>
       </c>
       <c r="C739" t="s">
-        <v>1018</v>
+        <v>1022</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1024</v>
       </c>
       <c r="E739" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F739" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I739" s="1" t="s">
-        <v>1040</v>
+        <v>421</v>
+      </c>
+      <c r="I739" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="740" spans="1:9">
       <c r="A740" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B740" t="s">
-        <v>20</v>
+        <v>1037</v>
       </c>
       <c r="C740" t="s">
-        <v>532</v>
+        <v>1018</v>
       </c>
       <c r="E740" t="s">
-        <v>421</v>
+        <v>1014</v>
       </c>
       <c r="F740" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I740" t="s">
-        <v>1041</v>
+        <v>1037</v>
+      </c>
+      <c r="I740" s="1" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="741" spans="1:9">
       <c r="A741" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B741" t="s">
-        <v>20</v>
-      </c>
-      <c r="G741" t="s">
-        <v>96</v>
-      </c>
-      <c r="H741" t="s">
-        <v>70</v>
-      </c>
-      <c r="I741" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
+      </c>
+      <c r="C741" t="s">
+        <v>532</v>
+      </c>
+      <c r="E741" t="s">
+        <v>421</v>
+      </c>
+      <c r="F741" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I741" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="742" spans="1:9">
       <c r="A742" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B742" t="s">
         <v>20</v>
       </c>
       <c r="C742" t="s">
-        <v>532</v>
+        <v>1018</v>
       </c>
       <c r="E742" t="s">
-        <v>421</v>
+        <v>1014</v>
       </c>
       <c r="F742" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I742" t="s">
-        <v>1045</v>
+        <v>1039</v>
+      </c>
+      <c r="I742" s="1" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="743" spans="1:9">
       <c r="A743" t="s">
-        <v>1043</v>
+        <v>1039</v>
+      </c>
+      <c r="B743" t="s">
+        <v>20</v>
       </c>
       <c r="C743" t="s">
         <v>532</v>
       </c>
       <c r="E743" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="F743" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="I743" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="744" spans="1:9">
       <c r="A744" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C744" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E744" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F744" t="s">
-        <v>1049</v>
+        <v>1042</v>
+      </c>
+      <c r="B744" t="s">
+        <v>20</v>
+      </c>
+      <c r="G744" t="s">
+        <v>96</v>
+      </c>
+      <c r="H744" t="s">
+        <v>70</v>
       </c>
       <c r="I744" s="1" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="745" spans="1:9">
       <c r="A745" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="B745" t="s">
         <v>20</v>
@@ -17428,15 +17425,15 @@
         <v>421</v>
       </c>
       <c r="F745" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="I745" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="746" spans="1:9">
       <c r="A746" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="C746" t="s">
         <v>532</v>
@@ -17445,15 +17442,15 @@
         <v>463</v>
       </c>
       <c r="F746" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="I746" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="747" spans="1:9">
       <c r="A747" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="C747" t="s">
         <v>1047</v>
@@ -17462,651 +17459,645 @@
         <v>1048</v>
       </c>
       <c r="F747" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="I747" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="748" spans="1:9">
       <c r="A748" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B748" t="s">
         <v>20</v>
       </c>
-      <c r="G748" t="s">
-        <v>96</v>
-      </c>
-      <c r="H748" t="s">
-        <v>70</v>
-      </c>
-      <c r="I748" s="1" t="s">
-        <v>1038</v>
+      <c r="C748" t="s">
+        <v>532</v>
+      </c>
+      <c r="E748" t="s">
+        <v>421</v>
+      </c>
+      <c r="F748" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I748" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="749" spans="1:9">
       <c r="A749" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B749" t="s">
-        <v>20</v>
+        <v>1051</v>
       </c>
       <c r="C749" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D749" t="s">
-        <v>1023</v>
+        <v>532</v>
       </c>
       <c r="E749" t="s">
-        <v>1014</v>
+        <v>463</v>
+      </c>
+      <c r="F749" t="s">
+        <v>1052</v>
       </c>
       <c r="I749" t="s">
-        <v>1015</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="750" spans="1:9">
       <c r="A750" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B750" t="s">
-        <v>20</v>
+        <v>1051</v>
       </c>
       <c r="C750" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D750" t="s">
-        <v>1024</v>
+        <v>1047</v>
       </c>
       <c r="E750" t="s">
-        <v>421</v>
-      </c>
-      <c r="I750" t="s">
-        <v>1059</v>
+        <v>1048</v>
+      </c>
+      <c r="F750" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I750" s="1" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="751" spans="1:9">
       <c r="A751" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C751" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E751" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I751" t="s">
-        <v>1011</v>
+        <v>1057</v>
+      </c>
+      <c r="B751" t="s">
+        <v>20</v>
+      </c>
+      <c r="G751" t="s">
+        <v>96</v>
+      </c>
+      <c r="H751" t="s">
+        <v>70</v>
+      </c>
+      <c r="I751" s="1" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="752" spans="1:9">
       <c r="A752" t="s">
-        <v>1060</v>
+        <v>1058</v>
+      </c>
+      <c r="B752" t="s">
+        <v>20</v>
       </c>
       <c r="C752" t="s">
-        <v>1062</v>
+        <v>1022</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1023</v>
       </c>
       <c r="E752" t="s">
-        <v>11</v>
+        <v>1014</v>
       </c>
       <c r="I752" t="s">
-        <v>1011</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9">
+      <c r="A753" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B753" t="s">
+        <v>20</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E753" t="s">
+        <v>421</v>
+      </c>
+      <c r="I753" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="754" spans="1:9">
       <c r="A754" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C754" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E754" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F754" t="s">
-        <v>1066</v>
+        <v>1014</v>
       </c>
       <c r="I754" t="s">
-        <v>1067</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="755" spans="1:9">
       <c r="A755" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C755" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E755" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F755" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I755" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="756" spans="1:9">
-      <c r="A756" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C756" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E756" t="s">
-        <v>345</v>
-      </c>
-      <c r="F756" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I756" t="s">
-        <v>366</v>
+        <v>11</v>
+      </c>
+      <c r="I755" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="757" spans="1:9">
       <c r="A757" t="s">
         <v>1063</v>
       </c>
-      <c r="B757" s="2"/>
       <c r="C757" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="E757" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F757" t="s">
         <v>1066</v>
       </c>
       <c r="I757" t="s">
-        <v>419</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="758" spans="1:9">
       <c r="A758" t="s">
         <v>1063</v>
       </c>
-      <c r="B758" t="s">
-        <v>20</v>
-      </c>
       <c r="C758" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="E758" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F758" t="s">
         <v>1066</v>
       </c>
-      <c r="I758" t="s">
-        <v>703</v>
+      <c r="I758" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="759" spans="1:9">
       <c r="A759" t="s">
         <v>1063</v>
       </c>
-      <c r="B759" s="2"/>
       <c r="C759" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="E759" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F759" t="s">
         <v>1066</v>
       </c>
       <c r="I759" t="s">
-        <v>1077</v>
+        <v>366</v>
       </c>
     </row>
     <row r="760" spans="1:9">
       <c r="A760" t="s">
-        <v>1078</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="B760" s="2"/>
       <c r="C760" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D760" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="E760" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F760" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I760" s="1" t="s">
-        <v>1082</v>
+        <v>1066</v>
+      </c>
+      <c r="I760" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="761" spans="1:9">
       <c r="A761" t="s">
-        <v>1078</v>
+        <v>1063</v>
+      </c>
+      <c r="B761" t="s">
+        <v>20</v>
       </c>
       <c r="C761" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D761" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="E761" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="F761" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I761" s="1" t="s">
-        <v>236</v>
+        <v>1066</v>
+      </c>
+      <c r="I761" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="762" spans="1:9">
       <c r="A762" t="s">
-        <v>1078</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="B762" s="2"/>
       <c r="C762" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D762" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="E762" t="s">
-        <v>345</v>
+        <v>1076</v>
       </c>
       <c r="F762" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I762" s="1" t="s">
-        <v>1085</v>
+        <v>1066</v>
+      </c>
+      <c r="I762" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="763" spans="1:9">
       <c r="A763" t="s">
         <v>1078</v>
       </c>
-      <c r="B763" s="2"/>
       <c r="C763" t="s">
         <v>1079</v>
       </c>
       <c r="D763" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E763" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F763" t="s">
         <v>1081</v>
       </c>
       <c r="I763" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="764" spans="1:9">
       <c r="A764" t="s">
         <v>1078</v>
       </c>
-      <c r="B764" t="s">
-        <v>20</v>
-      </c>
       <c r="C764" t="s">
         <v>1079</v>
       </c>
       <c r="D764" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E764" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F764" t="s">
         <v>1081</v>
       </c>
-      <c r="I764" t="s">
-        <v>858</v>
+      <c r="I764" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="765" spans="1:9">
       <c r="A765" t="s">
         <v>1078</v>
       </c>
-      <c r="B765" s="2"/>
       <c r="C765" t="s">
         <v>1079</v>
       </c>
       <c r="D765" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E765" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F765" t="s">
         <v>1081</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>1040</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="766" spans="1:9">
       <c r="A766" t="s">
         <v>1078</v>
       </c>
-      <c r="G766" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H766" t="s">
-        <v>1091</v>
+      <c r="B766" s="2"/>
+      <c r="C766" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D766" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1081</v>
       </c>
       <c r="I766" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="767" spans="1:9">
       <c r="A767" t="s">
-        <v>1093</v>
+        <v>1078</v>
+      </c>
+      <c r="B767" t="s">
+        <v>20</v>
       </c>
       <c r="C767" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D767" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E767" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F767" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="I767" t="s">
-        <v>35</v>
+        <v>858</v>
       </c>
     </row>
     <row r="768" spans="1:9">
       <c r="A768" t="s">
-        <v>1093</v>
-      </c>
+        <v>1078</v>
+      </c>
+      <c r="B768" s="2"/>
       <c r="C768" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D768" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="E768" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F768" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="I768" s="1" t="s">
-        <v>335</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="769" spans="1:9">
       <c r="A769" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C769" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D769" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E769" t="s">
-        <v>345</v>
-      </c>
-      <c r="F769" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I769" t="s">
-        <v>352</v>
+        <v>1078</v>
+      </c>
+      <c r="G769" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H769" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I769" s="1" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="770" spans="1:9">
       <c r="A770" t="s">
         <v>1093</v>
       </c>
-      <c r="B770" s="2"/>
       <c r="C770" t="s">
         <v>1094</v>
       </c>
       <c r="D770" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E770" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F770" t="s">
         <v>1096</v>
       </c>
       <c r="I770" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
     </row>
     <row r="771" spans="1:9">
       <c r="A771" t="s">
         <v>1093</v>
       </c>
-      <c r="B771" t="s">
-        <v>20</v>
-      </c>
       <c r="C771" t="s">
         <v>1094</v>
       </c>
       <c r="D771" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E771" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F771" t="s">
         <v>1096</v>
       </c>
-      <c r="I771" t="s">
-        <v>422</v>
+      <c r="I771" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="772" spans="1:9">
       <c r="A772" t="s">
         <v>1093</v>
       </c>
-      <c r="B772" s="2"/>
       <c r="C772" t="s">
         <v>1094</v>
       </c>
       <c r="D772" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E772" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F772" t="s">
         <v>1096</v>
       </c>
       <c r="I772" t="s">
-        <v>1019</v>
+        <v>352</v>
       </c>
     </row>
     <row r="773" spans="1:9">
       <c r="A773" t="s">
-        <v>1102</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="B773" s="2"/>
       <c r="C773" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D773" t="s">
-        <v>1080</v>
+        <v>1099</v>
       </c>
       <c r="E773" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F773" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="I773" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
     </row>
     <row r="774" spans="1:9">
       <c r="A774" t="s">
-        <v>1102</v>
+        <v>1093</v>
+      </c>
+      <c r="B774" t="s">
+        <v>20</v>
       </c>
       <c r="C774" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D774" t="s">
-        <v>1083</v>
+        <v>1100</v>
       </c>
       <c r="E774" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="F774" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I774" s="1" t="s">
-        <v>139</v>
+        <v>1096</v>
+      </c>
+      <c r="I774" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="775" spans="1:9">
       <c r="A775" t="s">
-        <v>1102</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="B775" s="2"/>
       <c r="C775" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D775" t="s">
-        <v>1084</v>
+        <v>1101</v>
       </c>
       <c r="E775" t="s">
-        <v>345</v>
+        <v>1076</v>
       </c>
       <c r="F775" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="I775" t="s">
-        <v>352</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="776" spans="1:9">
       <c r="A776" t="s">
         <v>1102</v>
       </c>
-      <c r="B776" s="2"/>
       <c r="C776" t="s">
         <v>1079</v>
       </c>
       <c r="D776" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E776" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F776" t="s">
         <v>1103</v>
       </c>
       <c r="I776" t="s">
-        <v>427</v>
+        <v>35</v>
       </c>
     </row>
     <row r="777" spans="1:9">
       <c r="A777" t="s">
         <v>1102</v>
       </c>
-      <c r="B777" t="s">
-        <v>20</v>
-      </c>
       <c r="C777" t="s">
         <v>1079</v>
       </c>
       <c r="D777" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E777" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F777" t="s">
         <v>1103</v>
       </c>
-      <c r="I777" t="s">
-        <v>422</v>
+      <c r="I777" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="778" spans="1:9">
       <c r="A778" t="s">
         <v>1102</v>
       </c>
-      <c r="B778" s="2"/>
       <c r="C778" t="s">
         <v>1079</v>
       </c>
       <c r="D778" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E778" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F778" t="s">
         <v>1103</v>
       </c>
       <c r="I778" t="s">
-        <v>1019</v>
+        <v>352</v>
       </c>
     </row>
     <row r="779" spans="1:9">
       <c r="A779" t="s">
-        <v>1104</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="B779" s="2"/>
       <c r="C779" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D779" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="E779" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F779" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I779" s="1" t="s">
-        <v>23</v>
+        <v>1103</v>
+      </c>
+      <c r="I779" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="780" spans="1:9">
       <c r="A780" t="s">
-        <v>1104</v>
+        <v>1102</v>
+      </c>
+      <c r="B780" t="s">
+        <v>20</v>
       </c>
       <c r="C780" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D780" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="E780" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="F780" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I780" s="1" t="s">
-        <v>223</v>
+        <v>1103</v>
+      </c>
+      <c r="I780" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="781" spans="1:9">
       <c r="A781" t="s">
-        <v>1104</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="B781" s="2"/>
       <c r="C781" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D781" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="E781" t="s">
-        <v>345</v>
+        <v>1076</v>
       </c>
       <c r="F781" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I781" s="1" t="s">
-        <v>371</v>
+        <v>1103</v>
+      </c>
+      <c r="I781" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="782" spans="1:9">
@@ -18117,283 +18108,283 @@
         <v>1094</v>
       </c>
       <c r="D782" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E782" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F782" t="s">
         <v>1105</v>
       </c>
       <c r="I782" s="1" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
     </row>
     <row r="783" spans="1:9">
       <c r="A783" t="s">
         <v>1104</v>
       </c>
-      <c r="B783" s="2"/>
       <c r="C783" t="s">
         <v>1094</v>
       </c>
+      <c r="D783" t="s">
+        <v>1097</v>
+      </c>
       <c r="E783" t="s">
-        <v>1106</v>
+        <v>1069</v>
       </c>
       <c r="F783" t="s">
         <v>1105</v>
       </c>
-      <c r="I783" t="s">
-        <v>1107</v>
+      <c r="I783" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="784" spans="1:9">
       <c r="A784" t="s">
         <v>1104</v>
       </c>
-      <c r="B784" t="s">
-        <v>20</v>
-      </c>
       <c r="C784" t="s">
         <v>1094</v>
       </c>
       <c r="D784" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E784" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F784" t="s">
         <v>1105</v>
       </c>
-      <c r="I784" t="s">
-        <v>783</v>
+      <c r="I784" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="785" spans="1:9">
       <c r="A785" t="s">
         <v>1104</v>
       </c>
-      <c r="B785" s="2"/>
       <c r="C785" t="s">
         <v>1094</v>
       </c>
       <c r="D785" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E785" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F785" t="s">
         <v>1105</v>
       </c>
       <c r="I785" s="1" t="s">
-        <v>1027</v>
+        <v>526</v>
       </c>
     </row>
     <row r="786" spans="1:9">
       <c r="A786" t="s">
-        <v>1108</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="B786" s="2"/>
       <c r="C786" t="s">
         <v>1094</v>
       </c>
-      <c r="D786" t="s">
-        <v>1095</v>
-      </c>
       <c r="E786" t="s">
-        <v>1065</v>
+        <v>1106</v>
       </c>
       <c r="F786" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I786" s="1" t="s">
-        <v>23</v>
+        <v>1105</v>
+      </c>
+      <c r="I786" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="787" spans="1:9">
       <c r="A787" t="s">
-        <v>1108</v>
+        <v>1104</v>
+      </c>
+      <c r="B787" t="s">
+        <v>20</v>
       </c>
       <c r="C787" t="s">
         <v>1094</v>
       </c>
       <c r="D787" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E787" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="F787" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I787" s="1" t="s">
-        <v>234</v>
+        <v>1105</v>
+      </c>
+      <c r="I787" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="788" spans="1:9">
       <c r="A788" t="s">
-        <v>1108</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="B788" s="2"/>
       <c r="C788" t="s">
         <v>1094</v>
       </c>
       <c r="D788" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="E788" t="s">
-        <v>345</v>
+        <v>1076</v>
       </c>
       <c r="F788" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="I788" s="1" t="s">
-        <v>371</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="789" spans="1:9">
       <c r="A789" t="s">
         <v>1108</v>
       </c>
-      <c r="B789" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C789" t="s">
         <v>1094</v>
       </c>
       <c r="D789" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E789" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F789" t="s">
         <v>1109</v>
       </c>
       <c r="I789" s="1" t="s">
-        <v>1110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="790" spans="1:9">
       <c r="A790" t="s">
         <v>1108</v>
       </c>
-      <c r="B790" s="2"/>
       <c r="C790" t="s">
         <v>1094</v>
       </c>
+      <c r="D790" t="s">
+        <v>1097</v>
+      </c>
       <c r="E790" t="s">
-        <v>1106</v>
+        <v>1069</v>
       </c>
       <c r="F790" t="s">
         <v>1109</v>
       </c>
-      <c r="I790" t="s">
-        <v>1107</v>
+      <c r="I790" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="791" spans="1:9">
       <c r="A791" t="s">
         <v>1108</v>
       </c>
-      <c r="B791" t="s">
-        <v>20</v>
-      </c>
       <c r="C791" t="s">
         <v>1094</v>
       </c>
       <c r="D791" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E791" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F791" t="s">
         <v>1109</v>
       </c>
-      <c r="I791" t="s">
-        <v>1111</v>
+      <c r="I791" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="792" spans="1:9">
       <c r="A792" t="s">
         <v>1108</v>
       </c>
-      <c r="B792" s="2"/>
+      <c r="B792" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C792" t="s">
         <v>1094</v>
       </c>
       <c r="D792" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E792" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F792" t="s">
         <v>1109</v>
       </c>
       <c r="I792" s="1" t="s">
-        <v>1027</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="793" spans="1:9">
       <c r="A793" t="s">
-        <v>1112</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="B793" s="2"/>
       <c r="C793" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D793" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="E793" t="s">
-        <v>1065</v>
+        <v>1106</v>
       </c>
       <c r="F793" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I793" s="1" t="s">
-        <v>23</v>
+        <v>1109</v>
+      </c>
+      <c r="I793" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="794" spans="1:9">
       <c r="A794" t="s">
-        <v>1112</v>
+        <v>1108</v>
+      </c>
+      <c r="B794" t="s">
+        <v>20</v>
       </c>
       <c r="C794" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D794" t="s">
-        <v>1083</v>
+        <v>1100</v>
       </c>
       <c r="E794" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="F794" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I794" s="1" t="s">
-        <v>223</v>
+        <v>1109</v>
+      </c>
+      <c r="I794" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="795" spans="1:9">
       <c r="A795" t="s">
-        <v>1112</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="B795" s="2"/>
       <c r="C795" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D795" t="s">
-        <v>1084</v>
+        <v>1101</v>
       </c>
       <c r="E795" t="s">
-        <v>345</v>
+        <v>1076</v>
       </c>
       <c r="F795" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="I795" s="1" t="s">
-        <v>376</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="796" spans="1:9">
@@ -18404,16 +18395,16 @@
         <v>1079</v>
       </c>
       <c r="D796" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E796" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F796" t="s">
         <v>1113</v>
       </c>
       <c r="I796" s="1" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
     </row>
     <row r="797" spans="1:9">
@@ -18424,16 +18415,16 @@
         <v>1079</v>
       </c>
       <c r="D797" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E797" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F797" t="s">
         <v>1113</v>
       </c>
-      <c r="I797" t="s">
-        <v>783</v>
+      <c r="I797" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="798" spans="1:9">
@@ -18444,269 +18435,266 @@
         <v>1079</v>
       </c>
       <c r="D798" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E798" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F798" t="s">
         <v>1113</v>
       </c>
       <c r="I798" s="1" t="s">
-        <v>1027</v>
+        <v>376</v>
       </c>
     </row>
     <row r="799" spans="1:9">
       <c r="A799" t="s">
         <v>1112</v>
       </c>
-      <c r="G799" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H799" t="s">
-        <v>1091</v>
+      <c r="C799" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1113</v>
       </c>
       <c r="I799" s="1" t="s">
-        <v>1114</v>
+        <v>526</v>
       </c>
     </row>
     <row r="800" spans="1:9">
       <c r="A800" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C800" t="s">
         <v>1079</v>
       </c>
       <c r="D800" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="E800" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F800" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I800" s="1" t="s">
-        <v>23</v>
+        <v>1113</v>
+      </c>
+      <c r="I800" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="801" spans="1:9">
       <c r="A801" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C801" t="s">
         <v>1079</v>
       </c>
       <c r="D801" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="E801" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F801" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>223</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="802" spans="1:9">
       <c r="A802" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D802" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E802" t="s">
-        <v>345</v>
-      </c>
-      <c r="F802" t="s">
-        <v>1116</v>
+        <v>1112</v>
+      </c>
+      <c r="G802" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H802" t="s">
+        <v>1091</v>
       </c>
       <c r="I802" s="1" t="s">
-        <v>371</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="803" spans="1:9">
       <c r="A803" t="s">
         <v>1115</v>
       </c>
-      <c r="B803" s="2"/>
       <c r="C803" t="s">
         <v>1079</v>
       </c>
       <c r="D803" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E803" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F803" t="s">
         <v>1116</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>517</v>
+        <v>23</v>
       </c>
     </row>
     <row r="804" spans="1:9">
       <c r="A804" t="s">
         <v>1115</v>
       </c>
-      <c r="B804" t="s">
-        <v>20</v>
-      </c>
       <c r="C804" t="s">
         <v>1079</v>
       </c>
       <c r="D804" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E804" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F804" t="s">
         <v>1116</v>
       </c>
-      <c r="I804" t="s">
-        <v>783</v>
+      <c r="I804" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="805" spans="1:9">
       <c r="A805" t="s">
         <v>1115</v>
       </c>
-      <c r="B805" s="2"/>
       <c r="C805" t="s">
         <v>1079</v>
       </c>
       <c r="D805" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E805" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F805" t="s">
         <v>1116</v>
       </c>
       <c r="I805" s="1" t="s">
-        <v>1027</v>
+        <v>371</v>
       </c>
     </row>
     <row r="806" spans="1:9">
       <c r="A806" t="s">
         <v>1115</v>
       </c>
+      <c r="B806" s="2"/>
       <c r="C806" t="s">
-        <v>1117</v>
+        <v>1079</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1086</v>
       </c>
       <c r="E806" t="s">
-        <v>463</v>
+        <v>1072</v>
       </c>
       <c r="F806" t="s">
         <v>1116</v>
       </c>
       <c r="I806" s="1" t="s">
-        <v>1118</v>
+        <v>517</v>
       </c>
     </row>
     <row r="807" spans="1:9">
       <c r="A807" t="s">
         <v>1115</v>
       </c>
-      <c r="G807" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H807" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I807" s="1" t="s">
-        <v>1119</v>
+      <c r="B807" t="s">
+        <v>20</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I807" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="808" spans="1:9">
       <c r="A808" t="s">
-        <v>1120</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="B808" s="2"/>
       <c r="C808" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D808" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E808" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F808" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>23</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="809" spans="1:9">
       <c r="A809" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C809" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D809" t="s">
-        <v>1097</v>
+        <v>1117</v>
       </c>
       <c r="E809" t="s">
-        <v>1069</v>
+        <v>463</v>
       </c>
       <c r="F809" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I809" s="1" t="s">
-        <v>234</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="810" spans="1:9">
       <c r="A810" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C810" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D810" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E810" t="s">
-        <v>345</v>
-      </c>
-      <c r="F810" t="s">
-        <v>1121</v>
+        <v>1115</v>
+      </c>
+      <c r="G810" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H810" t="s">
+        <v>1091</v>
       </c>
       <c r="I810" s="1" t="s">
-        <v>371</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="811" spans="1:9">
       <c r="A811" t="s">
         <v>1120</v>
       </c>
-      <c r="B811" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C811" t="s">
         <v>1094</v>
       </c>
       <c r="D811" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E811" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F811" t="s">
         <v>1121</v>
       </c>
       <c r="I811" s="1" t="s">
-        <v>1122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="812" spans="1:9">
@@ -18716,257 +18704,260 @@
       <c r="C812" t="s">
         <v>1094</v>
       </c>
+      <c r="D812" t="s">
+        <v>1097</v>
+      </c>
       <c r="E812" t="s">
-        <v>1106</v>
+        <v>1069</v>
       </c>
       <c r="F812" t="s">
         <v>1121</v>
       </c>
-      <c r="I812" t="s">
-        <v>1107</v>
+      <c r="I812" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="813" spans="1:9">
       <c r="A813" t="s">
         <v>1120</v>
       </c>
-      <c r="B813" t="s">
-        <v>20</v>
-      </c>
       <c r="C813" t="s">
         <v>1094</v>
       </c>
       <c r="D813" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E813" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F813" t="s">
         <v>1121</v>
       </c>
-      <c r="I813" t="s">
-        <v>887</v>
+      <c r="I813" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="814" spans="1:9">
       <c r="A814" t="s">
         <v>1120</v>
       </c>
-      <c r="B814" s="2"/>
+      <c r="B814" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C814" t="s">
         <v>1094</v>
       </c>
       <c r="D814" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E814" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F814" t="s">
         <v>1121</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="815" spans="1:9">
       <c r="A815" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C815" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D815" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="E815" t="s">
-        <v>1065</v>
+        <v>1106</v>
       </c>
       <c r="F815" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I815" s="1" t="s">
-        <v>75</v>
+        <v>1121</v>
+      </c>
+      <c r="I815" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="816" spans="1:9">
       <c r="A816" t="s">
-        <v>1124</v>
+        <v>1120</v>
+      </c>
+      <c r="B816" t="s">
+        <v>20</v>
       </c>
       <c r="C816" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D816" t="s">
-        <v>1083</v>
+        <v>1100</v>
       </c>
       <c r="E816" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="F816" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I816" s="1" t="s">
-        <v>225</v>
+        <v>1121</v>
+      </c>
+      <c r="I816" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="817" spans="1:9">
       <c r="A817" t="s">
-        <v>1124</v>
-      </c>
+        <v>1120</v>
+      </c>
+      <c r="B817" s="2"/>
       <c r="C817" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D817" t="s">
-        <v>1084</v>
+        <v>1101</v>
       </c>
       <c r="E817" t="s">
-        <v>345</v>
+        <v>1076</v>
       </c>
       <c r="F817" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="I817" s="1" t="s">
-        <v>371</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="818" spans="1:9">
       <c r="A818" t="s">
         <v>1124</v>
       </c>
-      <c r="B818" s="2"/>
       <c r="C818" t="s">
         <v>1079</v>
       </c>
       <c r="D818" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E818" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F818" t="s">
         <v>1125</v>
       </c>
       <c r="I818" s="1" t="s">
-        <v>518</v>
+        <v>75</v>
       </c>
     </row>
     <row r="819" spans="1:9">
       <c r="A819" t="s">
         <v>1124</v>
       </c>
-      <c r="B819" t="s">
-        <v>20</v>
-      </c>
       <c r="C819" t="s">
         <v>1079</v>
       </c>
       <c r="D819" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E819" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F819" t="s">
         <v>1125</v>
       </c>
-      <c r="I819" t="s">
-        <v>783</v>
+      <c r="I819" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="820" spans="1:9">
       <c r="A820" t="s">
         <v>1124</v>
       </c>
-      <c r="B820" s="2"/>
       <c r="C820" t="s">
         <v>1079</v>
       </c>
       <c r="D820" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E820" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F820" t="s">
         <v>1125</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>1027</v>
+        <v>371</v>
       </c>
     </row>
     <row r="821" spans="1:9">
       <c r="A821" t="s">
         <v>1124</v>
       </c>
-      <c r="G821" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H821" t="s">
-        <v>1091</v>
+      <c r="B821" s="2"/>
+      <c r="C821" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F821" t="s">
+        <v>1125</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>1126</v>
+        <v>518</v>
       </c>
     </row>
     <row r="822" spans="1:9">
       <c r="A822" t="s">
-        <v>1127</v>
+        <v>1124</v>
+      </c>
+      <c r="B822" t="s">
+        <v>20</v>
       </c>
       <c r="C822" t="s">
         <v>1079</v>
       </c>
       <c r="D822" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="E822" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F822" t="s">
-        <v>1128</v>
-      </c>
-      <c r="I822" s="1" t="s">
-        <v>23</v>
+        <v>1125</v>
+      </c>
+      <c r="I822" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="823" spans="1:9">
       <c r="A823" t="s">
-        <v>1127</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="B823" s="2"/>
       <c r="C823" t="s">
         <v>1079</v>
       </c>
       <c r="D823" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="E823" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F823" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>240</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="824" spans="1:9">
       <c r="A824" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C824" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D824" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E824" t="s">
-        <v>345</v>
-      </c>
-      <c r="F824" t="s">
-        <v>1128</v>
+        <v>1124</v>
+      </c>
+      <c r="G824" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H824" t="s">
+        <v>1091</v>
       </c>
       <c r="I824" s="1" t="s">
-        <v>371</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="825" spans="1:9">
@@ -18977,16 +18968,16 @@
         <v>1079</v>
       </c>
       <c r="D825" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E825" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F825" t="s">
         <v>1128</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
     </row>
     <row r="826" spans="1:9">
@@ -18997,16 +18988,16 @@
         <v>1079</v>
       </c>
       <c r="D826" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E826" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F826" t="s">
         <v>1128</v>
       </c>
-      <c r="I826" t="s">
-        <v>783</v>
+      <c r="I826" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="827" spans="1:9">
@@ -19017,313 +19008,322 @@
         <v>1079</v>
       </c>
       <c r="D827" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="E827" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F827" t="s">
         <v>1128</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>1027</v>
+        <v>371</v>
       </c>
     </row>
     <row r="828" spans="1:9">
       <c r="A828" t="s">
         <v>1127</v>
       </c>
-      <c r="G828" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H828" t="s">
-        <v>1091</v>
+      <c r="C828" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F828" t="s">
+        <v>1128</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>1129</v>
+        <v>526</v>
       </c>
     </row>
     <row r="829" spans="1:9">
       <c r="A829" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C829" t="s">
-        <v>1131</v>
+        <v>1079</v>
       </c>
       <c r="D829" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E829" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F829" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="I829" t="s">
-        <v>35</v>
+        <v>783</v>
       </c>
     </row>
     <row r="830" spans="1:9">
       <c r="A830" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C830" t="s">
-        <v>1131</v>
+        <v>1079</v>
       </c>
       <c r="D830" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="E830" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F830" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>153</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="831" spans="1:9">
       <c r="A831" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C831" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D831" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E831" t="s">
-        <v>345</v>
-      </c>
-      <c r="F831" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I831" t="s">
-        <v>358</v>
+        <v>1127</v>
+      </c>
+      <c r="G831" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H831" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I831" s="1" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="832" spans="1:9">
       <c r="A832" t="s">
         <v>1130</v>
       </c>
-      <c r="B832" s="2"/>
       <c r="C832" t="s">
         <v>1131</v>
       </c>
       <c r="D832" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E832" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F832" t="s">
         <v>1132</v>
       </c>
       <c r="I832" t="s">
-        <v>434</v>
+        <v>35</v>
       </c>
     </row>
     <row r="833" spans="1:9">
       <c r="A833" t="s">
         <v>1130</v>
       </c>
-      <c r="B833" t="s">
-        <v>20</v>
-      </c>
       <c r="C833" t="s">
         <v>1131</v>
       </c>
       <c r="D833" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E833" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F833" t="s">
         <v>1132</v>
       </c>
-      <c r="I833" t="s">
-        <v>436</v>
+      <c r="I833" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="834" spans="1:9">
       <c r="A834" t="s">
         <v>1130</v>
       </c>
-      <c r="B834" s="2"/>
       <c r="C834" t="s">
         <v>1131</v>
       </c>
       <c r="D834" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E834" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F834" t="s">
         <v>1132</v>
       </c>
       <c r="I834" t="s">
-        <v>1133</v>
+        <v>358</v>
       </c>
     </row>
     <row r="835" spans="1:9">
       <c r="A835" t="s">
         <v>1130</v>
       </c>
+      <c r="B835" s="2"/>
       <c r="C835" t="s">
-        <v>1134</v>
+        <v>1131</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1099</v>
       </c>
       <c r="E835" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F835" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="I835" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
     </row>
     <row r="836" spans="1:9">
       <c r="A836" t="s">
         <v>1130</v>
       </c>
+      <c r="B836" t="s">
+        <v>20</v>
+      </c>
       <c r="C836" t="s">
-        <v>1136</v>
+        <v>1131</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1100</v>
       </c>
       <c r="E836" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="F836" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I836" s="1" t="s">
-        <v>304</v>
+        <v>1132</v>
+      </c>
+      <c r="I836" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="837" spans="1:9">
       <c r="A837" t="s">
         <v>1130</v>
       </c>
+      <c r="B837" s="2"/>
       <c r="C837" t="s">
-        <v>1137</v>
+        <v>1131</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1101</v>
       </c>
       <c r="E837" t="s">
-        <v>345</v>
+        <v>1076</v>
       </c>
       <c r="F837" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="I837" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="838" spans="1:9">
       <c r="A838" t="s">
         <v>1130</v>
       </c>
-      <c r="B838" s="2"/>
       <c r="C838" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E838" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F838" t="s">
         <v>1135</v>
       </c>
       <c r="I838" t="s">
-        <v>432</v>
+        <v>35</v>
       </c>
     </row>
     <row r="839" spans="1:9">
       <c r="A839" t="s">
         <v>1130</v>
       </c>
-      <c r="B839" t="s">
-        <v>20</v>
-      </c>
       <c r="C839" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E839" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F839" t="s">
         <v>1135</v>
       </c>
-      <c r="I839" t="s">
-        <v>422</v>
+      <c r="I839" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="840" spans="1:9">
       <c r="A840" t="s">
         <v>1130</v>
       </c>
-      <c r="B840" s="2"/>
       <c r="C840" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E840" t="s">
-        <v>1076</v>
+        <v>345</v>
       </c>
       <c r="F840" t="s">
         <v>1135</v>
       </c>
       <c r="I840" t="s">
-        <v>1077</v>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9">
+      <c r="A841" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B841" s="2"/>
+      <c r="C841" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I841" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="842" spans="1:9">
       <c r="A842" t="s">
-        <v>1142</v>
+        <v>1130</v>
+      </c>
+      <c r="B842" t="s">
+        <v>20</v>
       </c>
       <c r="C842" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E842" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F842" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="I842" t="s">
-        <v>35</v>
+        <v>422</v>
       </c>
     </row>
     <row r="843" spans="1:9">
       <c r="A843" t="s">
-        <v>1142</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="B843" s="2"/>
       <c r="C843" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E843" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F843" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I843" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="844" spans="1:9">
-      <c r="A844" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C844" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E844" t="s">
-        <v>345</v>
-      </c>
-      <c r="F844" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I844" t="s">
-        <v>1147</v>
+        <v>1135</v>
+      </c>
+      <c r="I843" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="845" spans="1:9">
@@ -19331,76 +19331,67 @@
         <v>1142</v>
       </c>
       <c r="C845" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="E845" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F845" t="s">
         <v>1144</v>
       </c>
       <c r="I845" t="s">
-        <v>434</v>
+        <v>35</v>
       </c>
     </row>
     <row r="846" spans="1:9">
       <c r="A846" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C846" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D846" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="E846" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="F846" t="s">
-        <v>1152</v>
-      </c>
-      <c r="I846" t="s">
-        <v>35</v>
+        <v>1144</v>
+      </c>
+      <c r="I846" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="847" spans="1:9">
       <c r="A847" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C847" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D847" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="E847" t="s">
-        <v>1069</v>
+        <v>345</v>
       </c>
       <c r="F847" t="s">
-        <v>1152</v>
-      </c>
-      <c r="I847" s="1" t="s">
-        <v>1154</v>
+        <v>1144</v>
+      </c>
+      <c r="I847" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="848" spans="1:9">
       <c r="A848" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C848" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D848" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="E848" t="s">
-        <v>345</v>
+        <v>1072</v>
       </c>
       <c r="F848" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="I848" t="s">
-        <v>1138</v>
+        <v>434</v>
       </c>
     </row>
     <row r="849" spans="1:9">
@@ -19411,76 +19402,76 @@
         <v>1150</v>
       </c>
       <c r="D849" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E849" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F849" t="s">
         <v>1152</v>
       </c>
       <c r="I849" t="s">
-        <v>462</v>
+        <v>35</v>
       </c>
     </row>
     <row r="850" spans="1:9">
       <c r="A850" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="C850" t="s">
         <v>1150</v>
       </c>
       <c r="D850" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="E850" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="F850" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="I850" s="1" t="s">
-        <v>92</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="851" spans="1:9">
       <c r="A851" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="C851" t="s">
         <v>1150</v>
       </c>
       <c r="D851" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E851" t="s">
-        <v>1069</v>
+        <v>345</v>
       </c>
       <c r="F851" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I851" s="1" t="s">
-        <v>203</v>
+        <v>1152</v>
+      </c>
+      <c r="I851" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="852" spans="1:9">
       <c r="A852" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="C852" t="s">
         <v>1150</v>
       </c>
       <c r="D852" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E852" t="s">
-        <v>345</v>
+        <v>1072</v>
       </c>
       <c r="F852" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I852" s="1" t="s">
-        <v>1159</v>
+        <v>1152</v>
+      </c>
+      <c r="I852" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="853" spans="1:9">
@@ -19491,76 +19482,76 @@
         <v>1150</v>
       </c>
       <c r="D853" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E853" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F853" t="s">
         <v>1158</v>
       </c>
       <c r="I853" s="1" t="s">
-        <v>571</v>
+        <v>92</v>
       </c>
     </row>
     <row r="854" spans="1:9">
       <c r="A854" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C854" t="s">
-        <v>1079</v>
+        <v>1150</v>
       </c>
       <c r="D854" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="E854" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="F854" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="I854" s="1" t="s">
-        <v>1163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="855" spans="1:9">
       <c r="A855" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C855" t="s">
-        <v>1079</v>
+        <v>1150</v>
       </c>
       <c r="D855" t="s">
-        <v>1164</v>
+        <v>1155</v>
       </c>
       <c r="E855" t="s">
-        <v>1069</v>
+        <v>345</v>
       </c>
       <c r="F855" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="I855" s="1" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="856" spans="1:9">
       <c r="A856" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C856" t="s">
-        <v>1079</v>
+        <v>1150</v>
       </c>
       <c r="D856" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="E856" t="s">
-        <v>345</v>
+        <v>1072</v>
       </c>
       <c r="F856" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="I856" s="1" t="s">
-        <v>1167</v>
+        <v>571</v>
       </c>
     </row>
     <row r="857" spans="1:9">
@@ -19571,90 +19562,90 @@
         <v>1079</v>
       </c>
       <c r="D857" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="E857" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F857" t="s">
         <v>1162</v>
       </c>
       <c r="I857" s="1" t="s">
-        <v>534</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="858" spans="1:9">
       <c r="A858" t="s">
         <v>1160</v>
       </c>
-      <c r="G858" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H858" t="s">
-        <v>1169</v>
+      <c r="C858" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F858" t="s">
+        <v>1162</v>
       </c>
       <c r="I858" s="1" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="859" spans="1:9">
       <c r="A859" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="C859" t="s">
         <v>1079</v>
       </c>
       <c r="D859" t="s">
-        <v>1161</v>
+        <v>1166</v>
       </c>
       <c r="E859" t="s">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="F859" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="I859" s="1" t="s">
-        <v>23</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="860" spans="1:9">
       <c r="A860" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="C860" t="s">
         <v>1079</v>
       </c>
       <c r="D860" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="E860" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="F860" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="I860" s="1" t="s">
-        <v>225</v>
+        <v>534</v>
       </c>
     </row>
     <row r="861" spans="1:9">
       <c r="A861" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C861" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D861" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E861" t="s">
-        <v>345</v>
-      </c>
-      <c r="F861" t="s">
-        <v>1172</v>
+        <v>1160</v>
+      </c>
+      <c r="G861" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H861" t="s">
+        <v>1169</v>
       </c>
       <c r="I861" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="862" spans="1:9">
@@ -19665,90 +19656,90 @@
         <v>1079</v>
       </c>
       <c r="D862" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="E862" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F862" t="s">
         <v>1172</v>
       </c>
       <c r="I862" s="1" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
     </row>
     <row r="863" spans="1:9">
       <c r="A863" t="s">
         <v>1171</v>
       </c>
-      <c r="G863" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H863" t="s">
-        <v>1169</v>
+      <c r="C863" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F863" t="s">
+        <v>1172</v>
       </c>
       <c r="I863" s="1" t="s">
-        <v>1174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="864" spans="1:9">
       <c r="A864" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C864" t="s">
-        <v>1176</v>
+        <v>1079</v>
       </c>
       <c r="D864" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="E864" t="s">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="F864" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I864" t="s">
-        <v>35</v>
+        <v>1172</v>
+      </c>
+      <c r="I864" s="1" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="865" spans="1:9">
       <c r="A865" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C865" t="s">
-        <v>1176</v>
+        <v>1079</v>
       </c>
       <c r="D865" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="E865" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="F865" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="I865" s="1" t="s">
-        <v>171</v>
+        <v>526</v>
       </c>
     </row>
     <row r="866" spans="1:9">
       <c r="A866" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C866" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D866" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E866" t="s">
-        <v>345</v>
-      </c>
-      <c r="F866" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I866" t="s">
-        <v>358</v>
+        <v>1171</v>
+      </c>
+      <c r="G866" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H866" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I866" s="1" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="867" spans="1:9">
@@ -19759,16 +19750,16 @@
         <v>1176</v>
       </c>
       <c r="D867" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="E867" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F867" t="s">
         <v>1177</v>
       </c>
       <c r="I867" t="s">
-        <v>412</v>
+        <v>35</v>
       </c>
     </row>
     <row r="868" spans="1:9">
@@ -19776,16 +19767,19 @@
         <v>1175</v>
       </c>
       <c r="C868" t="s">
-        <v>1178</v>
+        <v>1176</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1153</v>
       </c>
       <c r="E868" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="F868" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I868" t="s">
-        <v>1067</v>
+        <v>1177</v>
+      </c>
+      <c r="I868" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="869" spans="1:9">
@@ -19793,16 +19787,19 @@
         <v>1175</v>
       </c>
       <c r="C869" t="s">
-        <v>1180</v>
+        <v>1176</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1155</v>
       </c>
       <c r="E869" t="s">
-        <v>1069</v>
+        <v>345</v>
       </c>
       <c r="F869" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I869" s="1" t="s">
-        <v>139</v>
+        <v>1177</v>
+      </c>
+      <c r="I869" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="870" spans="1:9">
@@ -19810,16 +19807,19 @@
         <v>1175</v>
       </c>
       <c r="C870" t="s">
-        <v>1181</v>
+        <v>1176</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1156</v>
       </c>
       <c r="E870" t="s">
-        <v>345</v>
+        <v>1072</v>
       </c>
       <c r="F870" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I870" t="s">
-        <v>1182</v>
+        <v>412</v>
       </c>
     </row>
     <row r="871" spans="1:9">
@@ -19827,91 +19827,85 @@
         <v>1175</v>
       </c>
       <c r="C871" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="E871" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F871" t="s">
         <v>1179</v>
       </c>
       <c r="I871" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9">
+      <c r="A872" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C872" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F872" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I872" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9">
+      <c r="A873" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C873" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E873" t="s">
+        <v>345</v>
+      </c>
+      <c r="F873" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I873" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9">
+      <c r="A874" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C874" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E874" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F874" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I874" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="872" spans="1:9" s="2" customFormat="1"/>
-    <row r="873" spans="1:9" s="2" customFormat="1">
-      <c r="A873" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C873" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E873" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F873" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I873" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="874" spans="1:9" s="2" customFormat="1">
-      <c r="A874" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B874" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C874" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E874" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F874" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I874" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="875" spans="1:9" s="2" customFormat="1">
-      <c r="A875" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C875" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E875" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="F875" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I875" s="2" t="s">
-        <v>985</v>
-      </c>
-    </row>
+    <row r="875" spans="1:9" s="2" customFormat="1"/>
     <row r="876" spans="1:9" s="2" customFormat="1">
       <c r="A876" s="2" t="s">
         <v>1407</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D876" s="2" t="s">
-        <v>1198</v>
+        <v>1408</v>
       </c>
       <c r="E876" s="2" t="s">
-        <v>1199</v>
+        <v>1072</v>
       </c>
       <c r="F876" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="I876" s="3" t="s">
-        <v>1200</v>
+      <c r="I876" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="877" spans="1:9" s="2" customFormat="1">
@@ -19922,82 +19916,76 @@
         <v>20</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D877" s="2" t="s">
-        <v>1198</v>
+        <v>1409</v>
       </c>
       <c r="E877" s="2" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="F877" s="2" t="s">
         <v>1412</v>
       </c>
       <c r="I877" s="2" t="s">
-        <v>1202</v>
+        <v>436</v>
       </c>
     </row>
     <row r="878" spans="1:9" s="2" customFormat="1">
       <c r="A878" s="2" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D878" s="2" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="E878" s="2" t="s">
-        <v>1072</v>
+        <v>1195</v>
       </c>
       <c r="F878" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I878" s="2" t="s">
-        <v>462</v>
+        <v>985</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="2" customFormat="1">
       <c r="A879" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B879" s="2" t="s">
-        <v>20</v>
+        <v>1407</v>
       </c>
       <c r="C879" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>1416</v>
+        <v>1198</v>
       </c>
       <c r="E879" s="2" t="s">
-        <v>1074</v>
+        <v>1199</v>
       </c>
       <c r="F879" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I879" s="2" t="s">
-        <v>436</v>
+        <v>1412</v>
+      </c>
+      <c r="I879" s="3" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="2" customFormat="1">
       <c r="A880" s="2" t="s">
-        <v>1413</v>
+        <v>1407</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>1417</v>
+        <v>1198</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="F880" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I880" s="2" t="s">
-        <v>985</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="881" spans="1:9" s="2" customFormat="1">
@@ -20008,16 +19996,16 @@
         <v>1414</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="E881" s="2" t="s">
-        <v>1199</v>
+        <v>1072</v>
       </c>
       <c r="F881" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I881" s="3" t="s">
-        <v>1200</v>
+      <c r="I881" s="2" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="882" spans="1:9" s="2" customFormat="1">
@@ -20031,102 +20019,102 @@
         <v>1414</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E882" s="2" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="F882" s="2" t="s">
         <v>1418</v>
       </c>
       <c r="I882" s="2" t="s">
-        <v>1202</v>
+        <v>436</v>
       </c>
     </row>
     <row r="883" spans="1:9" s="2" customFormat="1">
       <c r="A883" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B883" s="2" t="s">
-        <v>20</v>
+        <v>1413</v>
       </c>
       <c r="C883" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="E883" s="2" t="s">
-        <v>1072</v>
+        <v>1195</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="I883" s="3" t="s">
-        <v>571</v>
+        <v>1418</v>
+      </c>
+      <c r="I883" s="2" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="2" customFormat="1">
       <c r="A884" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B884" s="2" t="s">
-        <v>20</v>
+        <v>1413</v>
       </c>
       <c r="C884" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="E884" s="2" t="s">
-        <v>1074</v>
+        <v>1199</v>
       </c>
       <c r="F884" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="I884" s="2" t="s">
-        <v>857</v>
+        <v>1418</v>
+      </c>
+      <c r="I884" s="3" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="885" spans="1:9" s="2" customFormat="1">
       <c r="A885" s="2" t="s">
-        <v>1419</v>
+        <v>1413</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C885" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>1417</v>
+        <v>1430</v>
       </c>
       <c r="E885" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="F885" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I885" s="2" t="s">
-        <v>989</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="886" spans="1:9" s="2" customFormat="1">
       <c r="A886" s="2" t="s">
         <v>1419</v>
       </c>
+      <c r="B886" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C886" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1199</v>
+        <v>1072</v>
       </c>
       <c r="F886" s="2" t="s">
         <v>1420</v>
       </c>
       <c r="I886" s="3" t="s">
-        <v>1258</v>
+        <v>571</v>
       </c>
     </row>
     <row r="887" spans="1:9" s="2" customFormat="1">
@@ -20140,102 +20128,102 @@
         <v>1414</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E887" s="2" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="F887" s="2" t="s">
         <v>1420</v>
       </c>
       <c r="I887" s="2" t="s">
-        <v>1233</v>
+        <v>857</v>
       </c>
     </row>
     <row r="888" spans="1:9" s="2" customFormat="1">
       <c r="A888" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B888" s="2" t="s">
-        <v>20</v>
+        <v>1419</v>
       </c>
       <c r="C888" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="E888" s="2" t="s">
-        <v>1072</v>
+        <v>1195</v>
       </c>
       <c r="F888" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="I888" s="3" t="s">
-        <v>571</v>
+        <v>1420</v>
+      </c>
+      <c r="I888" s="2" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="889" spans="1:9" s="2" customFormat="1">
       <c r="A889" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>20</v>
+        <v>1419</v>
       </c>
       <c r="C889" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="E889" s="2" t="s">
-        <v>1074</v>
+        <v>1199</v>
       </c>
       <c r="F889" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="I889" s="2" t="s">
-        <v>857</v>
+        <v>1420</v>
+      </c>
+      <c r="I889" s="3" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="890" spans="1:9" s="2" customFormat="1">
       <c r="A890" s="2" t="s">
-        <v>1428</v>
+        <v>1419</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C890" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>1417</v>
+        <v>1430</v>
       </c>
       <c r="E890" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="F890" s="2" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="I890" s="2" t="s">
-        <v>989</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="891" spans="1:9" s="2" customFormat="1">
       <c r="A891" s="2" t="s">
         <v>1428</v>
       </c>
+      <c r="B891" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C891" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="E891" s="2" t="s">
-        <v>1199</v>
+        <v>1072</v>
       </c>
       <c r="F891" s="2" t="s">
         <v>1429</v>
       </c>
       <c r="I891" s="3" t="s">
-        <v>1258</v>
+        <v>571</v>
       </c>
     </row>
     <row r="892" spans="1:9" s="2" customFormat="1">
@@ -20249,79 +20237,79 @@
         <v>1414</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E892" s="2" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="F892" s="2" t="s">
         <v>1429</v>
       </c>
       <c r="I892" s="2" t="s">
-        <v>1233</v>
+        <v>857</v>
       </c>
     </row>
     <row r="893" spans="1:9" s="2" customFormat="1">
       <c r="A893" s="2" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="C893" s="2" t="s">
-        <v>1079</v>
+        <v>1414</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="E893" s="2" t="s">
-        <v>1072</v>
+        <v>1195</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I893" s="3" t="s">
-        <v>534</v>
+        <v>1429</v>
+      </c>
+      <c r="I893" s="2" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="894" spans="1:9" s="2" customFormat="1">
       <c r="A894" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B894" s="2" t="s">
-        <v>20</v>
+        <v>1428</v>
       </c>
       <c r="C894" s="2" t="s">
-        <v>1079</v>
+        <v>1414</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>1074</v>
+        <v>1199</v>
       </c>
       <c r="F894" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I894" s="2" t="s">
-        <v>836</v>
+        <v>1429</v>
+      </c>
+      <c r="I894" s="3" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="895" spans="1:9" s="2" customFormat="1">
       <c r="A895" s="2" t="s">
-        <v>1424</v>
+        <v>1428</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C895" s="2" t="s">
-        <v>1079</v>
+        <v>1414</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="I895" s="2" t="s">
-        <v>989</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="896" spans="1:9" s="2" customFormat="1">
@@ -20329,19 +20317,19 @@
         <v>1424</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1198</v>
+        <v>1421</v>
       </c>
       <c r="E896" s="2" t="s">
-        <v>1199</v>
+        <v>1072</v>
       </c>
       <c r="F896" s="2" t="s">
         <v>1425</v>
       </c>
       <c r="I896" s="3" t="s">
-        <v>1258</v>
+        <v>534</v>
       </c>
     </row>
     <row r="897" spans="1:9" s="2" customFormat="1">
@@ -20352,82 +20340,82 @@
         <v>20</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1198</v>
+        <v>1422</v>
       </c>
       <c r="E897" s="2" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="F897" s="2" t="s">
         <v>1425</v>
       </c>
       <c r="I897" s="2" t="s">
-        <v>1233</v>
+        <v>836</v>
       </c>
     </row>
     <row r="898" spans="1:9" s="2" customFormat="1">
       <c r="A898" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>1079</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="E898" s="2" t="s">
-        <v>1072</v>
+        <v>1195</v>
       </c>
       <c r="F898" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="I898" s="3" t="s">
-        <v>534</v>
+        <v>1425</v>
+      </c>
+      <c r="I898" s="2" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="899" spans="1:9" s="2" customFormat="1">
       <c r="A899" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B899" s="2" t="s">
-        <v>20</v>
+        <v>1424</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>1079</v>
+        <v>1117</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1422</v>
+        <v>1198</v>
       </c>
       <c r="E899" s="2" t="s">
-        <v>1074</v>
+        <v>1199</v>
       </c>
       <c r="F899" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="I899" s="2" t="s">
-        <v>836</v>
+        <v>1425</v>
+      </c>
+      <c r="I899" s="3" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="900" spans="1:9" s="2" customFormat="1">
       <c r="A900" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1079</v>
+        <v>1117</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1423</v>
+        <v>1198</v>
       </c>
       <c r="E900" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="F900" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I900" s="2" t="s">
-        <v>989</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="901" spans="1:9" s="2" customFormat="1">
@@ -20435,19 +20423,19 @@
         <v>1426</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1198</v>
+        <v>1421</v>
       </c>
       <c r="E901" s="2" t="s">
-        <v>1199</v>
+        <v>1072</v>
       </c>
       <c r="F901" s="2" t="s">
         <v>1427</v>
       </c>
       <c r="I901" s="3" t="s">
-        <v>1258</v>
+        <v>534</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="2" customFormat="1">
@@ -20458,82 +20446,82 @@
         <v>20</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1198</v>
+        <v>1422</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="F902" s="2" t="s">
         <v>1427</v>
       </c>
       <c r="I902" s="2" t="s">
-        <v>1233</v>
+        <v>836</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="2" customFormat="1">
       <c r="A903" s="2" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="C903" s="2" t="s">
-        <v>1433</v>
+        <v>1079</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>1072</v>
+        <v>1195</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="I903" s="2" t="s">
-        <v>462</v>
+        <v>989</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="2" customFormat="1">
       <c r="A904" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B904" s="2" t="s">
-        <v>20</v>
+        <v>1426</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1433</v>
+        <v>1117</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1416</v>
+        <v>1198</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1074</v>
+        <v>1199</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="I904" s="2" t="s">
-        <v>436</v>
+        <v>1427</v>
+      </c>
+      <c r="I904" s="3" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="2" customFormat="1">
       <c r="A905" s="2" t="s">
-        <v>1431</v>
+        <v>1426</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1433</v>
+        <v>1117</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1417</v>
+        <v>1198</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="I905" s="2" t="s">
-        <v>985</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="2" customFormat="1">
@@ -20544,16 +20532,16 @@
         <v>1433</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="E906" s="2" t="s">
-        <v>1199</v>
+        <v>1072</v>
       </c>
       <c r="F906" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="I906" s="3" t="s">
-        <v>1200</v>
+      <c r="I906" s="2" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="2" customFormat="1">
@@ -20567,107 +20555,113 @@
         <v>1433</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E907" s="2" t="s">
-        <v>1201</v>
+        <v>1074</v>
       </c>
       <c r="F907" s="2" t="s">
         <v>1432</v>
       </c>
       <c r="I907" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" s="2" customFormat="1">
+      <c r="A908" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C908" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E908" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F908" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I908" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" s="2" customFormat="1">
+      <c r="A909" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C909" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E909" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I909" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" s="2" customFormat="1">
+      <c r="A910" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C910" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E910" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F910" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I910" s="2" t="s">
         <v>1202</v>
-      </c>
-    </row>
-    <row r="909" spans="1:9">
-      <c r="A909" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C909" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E909" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F909" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I909" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="910" spans="1:9">
-      <c r="A910" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C910" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E910" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F910" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I910" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="911" spans="1:9">
-      <c r="A911" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C911" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E911" t="s">
-        <v>345</v>
-      </c>
-      <c r="F911" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I911" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="912" spans="1:9">
       <c r="A912" t="s">
         <v>1184</v>
       </c>
-      <c r="B912" t="s">
-        <v>20</v>
-      </c>
       <c r="C912" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="E912" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F912" t="s">
         <v>1186</v>
       </c>
       <c r="I912" t="s">
-        <v>432</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="913" spans="1:9">
       <c r="A913" t="s">
         <v>1184</v>
       </c>
-      <c r="B913" t="s">
-        <v>20</v>
-      </c>
       <c r="C913" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E913" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F913" t="s">
         <v>1186</v>
       </c>
-      <c r="I913" t="s">
-        <v>436</v>
+      <c r="I913" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="914" spans="1:9">
@@ -20675,33 +20669,36 @@
         <v>1184</v>
       </c>
       <c r="C914" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E914" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F914" t="s">
         <v>1186</v>
       </c>
       <c r="I914" t="s">
-        <v>957</v>
+        <v>352</v>
       </c>
     </row>
     <row r="915" spans="1:9">
       <c r="A915" t="s">
         <v>1184</v>
       </c>
+      <c r="B915" t="s">
+        <v>20</v>
+      </c>
       <c r="C915" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="E915" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F915" t="s">
         <v>1186</v>
       </c>
       <c r="I915" t="s">
-        <v>985</v>
+        <v>432</v>
       </c>
     </row>
     <row r="916" spans="1:9">
@@ -20712,16 +20709,16 @@
         <v>20</v>
       </c>
       <c r="C916" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="E916" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F916" t="s">
         <v>1186</v>
       </c>
       <c r="I916" t="s">
-        <v>1019</v>
+        <v>436</v>
       </c>
     </row>
     <row r="917" spans="1:9">
@@ -20729,148 +20726,136 @@
         <v>1184</v>
       </c>
       <c r="C917" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D917" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="E917" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F917" t="s">
         <v>1186</v>
       </c>
       <c r="I917" t="s">
-        <v>1200</v>
+        <v>957</v>
       </c>
     </row>
     <row r="918" spans="1:9">
       <c r="A918" t="s">
         <v>1184</v>
       </c>
-      <c r="B918" t="s">
-        <v>20</v>
-      </c>
       <c r="C918" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D918" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E918" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F918" t="s">
         <v>1186</v>
       </c>
       <c r="I918" t="s">
-        <v>1202</v>
+        <v>985</v>
       </c>
     </row>
     <row r="919" spans="1:9">
       <c r="A919" t="s">
-        <v>1203</v>
+        <v>1184</v>
+      </c>
+      <c r="B919" t="s">
+        <v>20</v>
       </c>
       <c r="C919" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D919" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="E919" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F919" t="s">
-        <v>1206</v>
+        <v>1186</v>
       </c>
       <c r="I919" t="s">
-        <v>1187</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="920" spans="1:9">
       <c r="A920" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="C920" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D920" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="E920" t="s">
-        <v>1069</v>
+        <v>1199</v>
       </c>
       <c r="F920" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I920" s="1" t="s">
-        <v>153</v>
+        <v>1186</v>
+      </c>
+      <c r="I920" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="921" spans="1:9">
       <c r="A921" t="s">
-        <v>1203</v>
+        <v>1184</v>
+      </c>
+      <c r="B921" t="s">
+        <v>20</v>
       </c>
       <c r="C921" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D921" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="E921" t="s">
-        <v>345</v>
+        <v>1201</v>
       </c>
       <c r="F921" t="s">
-        <v>1206</v>
+        <v>1186</v>
       </c>
       <c r="I921" t="s">
-        <v>1182</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="922" spans="1:9">
       <c r="A922" t="s">
         <v>1203</v>
       </c>
-      <c r="B922" t="s">
-        <v>20</v>
-      </c>
       <c r="C922" t="s">
         <v>1204</v>
       </c>
       <c r="D922" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E922" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F922" t="s">
         <v>1206</v>
       </c>
       <c r="I922" t="s">
-        <v>419</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="923" spans="1:9">
       <c r="A923" t="s">
         <v>1203</v>
       </c>
-      <c r="B923" t="s">
-        <v>20</v>
-      </c>
       <c r="C923" t="s">
         <v>1204</v>
       </c>
       <c r="D923" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E923" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F923" t="s">
         <v>1206</v>
       </c>
-      <c r="I923" t="s">
-        <v>703</v>
+      <c r="I923" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="924" spans="1:9">
@@ -20881,36 +20866,39 @@
         <v>1204</v>
       </c>
       <c r="D924" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E924" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F924" t="s">
         <v>1206</v>
       </c>
       <c r="I924" t="s">
-        <v>957</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="925" spans="1:9">
       <c r="A925" t="s">
         <v>1203</v>
       </c>
+      <c r="B925" t="s">
+        <v>20</v>
+      </c>
       <c r="C925" t="s">
         <v>1204</v>
       </c>
       <c r="D925" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E925" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F925" t="s">
         <v>1206</v>
       </c>
       <c r="I925" t="s">
-        <v>985</v>
+        <v>419</v>
       </c>
     </row>
     <row r="926" spans="1:9">
@@ -20924,16 +20912,16 @@
         <v>1204</v>
       </c>
       <c r="D926" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E926" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F926" t="s">
         <v>1206</v>
       </c>
       <c r="I926" t="s">
-        <v>1077</v>
+        <v>703</v>
       </c>
     </row>
     <row r="927" spans="1:9">
@@ -20944,162 +20932,159 @@
         <v>1204</v>
       </c>
       <c r="D927" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E927" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F927" t="s">
         <v>1206</v>
       </c>
       <c r="I927" t="s">
-        <v>1200</v>
+        <v>957</v>
       </c>
     </row>
     <row r="928" spans="1:9">
       <c r="A928" t="s">
         <v>1203</v>
       </c>
-      <c r="B928" t="s">
-        <v>20</v>
-      </c>
       <c r="C928" t="s">
         <v>1204</v>
       </c>
       <c r="D928" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E928" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F928" t="s">
         <v>1206</v>
       </c>
       <c r="I928" t="s">
-        <v>1202</v>
+        <v>985</v>
       </c>
     </row>
     <row r="929" spans="1:9">
       <c r="A929" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="B929" t="s">
         <v>20</v>
       </c>
       <c r="C929" t="s">
-        <v>252</v>
+        <v>1204</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1213</v>
       </c>
       <c r="E929" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I929" s="1" t="s">
-        <v>1216</v>
+        <v>1076</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I929" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="930" spans="1:9">
       <c r="A930" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="C930" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D930" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E930" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="F930" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I930" s="1" t="s">
-        <v>1082</v>
+        <v>1206</v>
+      </c>
+      <c r="I930" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="931" spans="1:9">
       <c r="A931" t="s">
-        <v>1217</v>
+        <v>1203</v>
+      </c>
+      <c r="B931" t="s">
+        <v>20</v>
       </c>
       <c r="C931" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D931" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="E931" t="s">
-        <v>1069</v>
+        <v>1201</v>
       </c>
       <c r="F931" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I931" s="1" t="s">
-        <v>1221</v>
+        <v>1206</v>
+      </c>
+      <c r="I931" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="932" spans="1:9">
       <c r="A932" t="s">
-        <v>1217</v>
+        <v>1215</v>
+      </c>
+      <c r="B932" t="s">
+        <v>20</v>
       </c>
       <c r="C932" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D932" t="s">
-        <v>1222</v>
+        <v>252</v>
       </c>
       <c r="E932" t="s">
-        <v>345</v>
-      </c>
-      <c r="F932" t="s">
-        <v>1219</v>
+        <v>1072</v>
       </c>
       <c r="I932" s="1" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="933" spans="1:9">
       <c r="A933" t="s">
         <v>1217</v>
       </c>
-      <c r="B933" t="s">
-        <v>20</v>
-      </c>
       <c r="C933" t="s">
         <v>1079</v>
       </c>
       <c r="D933" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="E933" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F933" t="s">
         <v>1219</v>
       </c>
       <c r="I933" s="1" t="s">
-        <v>1225</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="934" spans="1:9">
       <c r="A934" t="s">
         <v>1217</v>
       </c>
-      <c r="B934" t="s">
-        <v>20</v>
-      </c>
       <c r="C934" t="s">
         <v>1079</v>
       </c>
       <c r="D934" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E934" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F934" t="s">
         <v>1219</v>
       </c>
-      <c r="I934" t="s">
-        <v>850</v>
+      <c r="I934" s="1" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -21110,36 +21095,39 @@
         <v>1079</v>
       </c>
       <c r="D935" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E935" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F935" t="s">
         <v>1219</v>
       </c>
-      <c r="I935" t="s">
-        <v>957</v>
+      <c r="I935" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="936" spans="1:9">
       <c r="A936" t="s">
         <v>1217</v>
       </c>
+      <c r="B936" t="s">
+        <v>20</v>
+      </c>
       <c r="C936" t="s">
         <v>1079</v>
       </c>
       <c r="D936" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E936" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F936" t="s">
         <v>1219</v>
       </c>
-      <c r="I936" t="s">
-        <v>995</v>
+      <c r="I936" s="1" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="937" spans="1:9">
@@ -21153,16 +21141,16 @@
         <v>1079</v>
       </c>
       <c r="D937" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E937" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F937" t="s">
         <v>1219</v>
       </c>
-      <c r="I937" s="1" t="s">
-        <v>1230</v>
+      <c r="I937" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="938" spans="1:9">
@@ -21173,96 +21161,99 @@
         <v>1079</v>
       </c>
       <c r="D938" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E938" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F938" t="s">
         <v>1219</v>
       </c>
-      <c r="I938" s="1" t="s">
-        <v>1232</v>
+      <c r="I938" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="939" spans="1:9">
       <c r="A939" t="s">
         <v>1217</v>
       </c>
-      <c r="B939" t="s">
-        <v>20</v>
-      </c>
       <c r="C939" t="s">
         <v>1079</v>
       </c>
       <c r="D939" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E939" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F939" t="s">
         <v>1219</v>
       </c>
       <c r="I939" t="s">
-        <v>1233</v>
+        <v>995</v>
       </c>
     </row>
     <row r="940" spans="1:9">
       <c r="A940" t="s">
-        <v>1234</v>
+        <v>1217</v>
       </c>
       <c r="B940" t="s">
         <v>20</v>
       </c>
       <c r="C940" t="s">
-        <v>1235</v>
+        <v>1079</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1229</v>
       </c>
       <c r="E940" t="s">
-        <v>960</v>
-      </c>
-      <c r="I940" t="s">
-        <v>957</v>
+        <v>1076</v>
+      </c>
+      <c r="F940" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I940" s="1" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="941" spans="1:9">
       <c r="A941" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="C941" t="s">
-        <v>1237</v>
+        <v>1079</v>
       </c>
       <c r="D941" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="E941" t="s">
         <v>1199</v>
       </c>
       <c r="F941" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="I941" s="1" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="942" spans="1:9">
       <c r="A942" t="s">
-        <v>1236</v>
+        <v>1217</v>
       </c>
       <c r="B942" t="s">
         <v>20</v>
       </c>
       <c r="C942" t="s">
-        <v>1237</v>
+        <v>1079</v>
       </c>
       <c r="D942" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="E942" t="s">
         <v>1201</v>
       </c>
       <c r="F942" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="I942" t="s">
         <v>1233</v>
@@ -21270,108 +21261,102 @@
     </row>
     <row r="943" spans="1:9">
       <c r="A943" t="s">
-        <v>1241</v>
+        <v>1234</v>
+      </c>
+      <c r="B943" t="s">
+        <v>20</v>
       </c>
       <c r="C943" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D943" t="s">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="E943" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F943" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I943" s="1" t="s">
-        <v>1243</v>
+        <v>960</v>
+      </c>
+      <c r="I943" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="944" spans="1:9">
       <c r="A944" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C944" t="s">
-        <v>1079</v>
+        <v>1237</v>
       </c>
       <c r="D944" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
       <c r="E944" t="s">
-        <v>1069</v>
+        <v>1199</v>
       </c>
       <c r="F944" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="I944" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="945" spans="1:9">
       <c r="A945" t="s">
-        <v>1241</v>
+        <v>1236</v>
+      </c>
+      <c r="B945" t="s">
+        <v>20</v>
       </c>
       <c r="C945" t="s">
-        <v>1079</v>
+        <v>1237</v>
       </c>
       <c r="D945" t="s">
-        <v>1222</v>
+        <v>1238</v>
       </c>
       <c r="E945" t="s">
-        <v>345</v>
+        <v>1201</v>
       </c>
       <c r="F945" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I945" s="1" t="s">
-        <v>1245</v>
+        <v>1239</v>
+      </c>
+      <c r="I945" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="946" spans="1:9">
       <c r="A946" t="s">
         <v>1241</v>
       </c>
-      <c r="B946" t="s">
-        <v>20</v>
-      </c>
       <c r="C946" t="s">
         <v>1079</v>
       </c>
       <c r="D946" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="E946" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F946" t="s">
         <v>1242</v>
       </c>
       <c r="I946" s="1" t="s">
-        <v>542</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="947" spans="1:9">
       <c r="A947" t="s">
         <v>1241</v>
       </c>
-      <c r="B947" t="s">
-        <v>20</v>
-      </c>
       <c r="C947" t="s">
         <v>1079</v>
       </c>
       <c r="D947" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E947" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F947" t="s">
         <v>1242</v>
       </c>
-      <c r="I947" t="s">
-        <v>836</v>
+      <c r="I947" s="1" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="948" spans="1:9">
@@ -21382,36 +21367,39 @@
         <v>1079</v>
       </c>
       <c r="D948" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E948" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F948" t="s">
         <v>1242</v>
       </c>
-      <c r="I948" t="s">
-        <v>957</v>
+      <c r="I948" s="1" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="949" spans="1:9">
       <c r="A949" t="s">
         <v>1241</v>
       </c>
+      <c r="B949" t="s">
+        <v>20</v>
+      </c>
       <c r="C949" t="s">
         <v>1079</v>
       </c>
       <c r="D949" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E949" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F949" t="s">
         <v>1242</v>
       </c>
-      <c r="I949" t="s">
-        <v>989</v>
+      <c r="I949" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="950" spans="1:9">
@@ -21425,16 +21413,16 @@
         <v>1079</v>
       </c>
       <c r="D950" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E950" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F950" t="s">
         <v>1242</v>
       </c>
-      <c r="I950" s="1" t="s">
-        <v>1230</v>
+      <c r="I950" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="951" spans="1:9">
@@ -21445,99 +21433,102 @@
         <v>1079</v>
       </c>
       <c r="D951" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E951" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F951" t="s">
         <v>1242</v>
       </c>
-      <c r="I951" s="1" t="s">
-        <v>1246</v>
+      <c r="I951" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="952" spans="1:9">
       <c r="A952" t="s">
         <v>1241</v>
       </c>
-      <c r="B952" t="s">
-        <v>20</v>
-      </c>
       <c r="C952" t="s">
         <v>1079</v>
       </c>
       <c r="D952" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E952" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F952" t="s">
         <v>1242</v>
       </c>
       <c r="I952" t="s">
-        <v>1247</v>
+        <v>989</v>
       </c>
     </row>
     <row r="953" spans="1:9">
       <c r="A953" t="s">
-        <v>1248</v>
+        <v>1241</v>
+      </c>
+      <c r="B953" t="s">
+        <v>20</v>
       </c>
       <c r="C953" t="s">
         <v>1079</v>
       </c>
       <c r="D953" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="E953" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F953" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="I953" s="1" t="s">
-        <v>90</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="954" spans="1:9">
       <c r="A954" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="C954" t="s">
         <v>1079</v>
       </c>
       <c r="D954" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="E954" t="s">
-        <v>1069</v>
+        <v>1199</v>
       </c>
       <c r="F954" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="955" spans="1:9">
       <c r="A955" t="s">
-        <v>1248</v>
+        <v>1241</v>
+      </c>
+      <c r="B955" t="s">
+        <v>20</v>
       </c>
       <c r="C955" t="s">
         <v>1079</v>
       </c>
       <c r="D955" t="s">
-        <v>1222</v>
+        <v>1231</v>
       </c>
       <c r="E955" t="s">
-        <v>345</v>
+        <v>1201</v>
       </c>
       <c r="F955" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I955" s="1" t="s">
-        <v>1251</v>
+        <v>1242</v>
+      </c>
+      <c r="I955" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="956" spans="1:9">
@@ -21548,16 +21539,16 @@
         <v>1079</v>
       </c>
       <c r="D956" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="E956" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F956" t="s">
         <v>1249</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>583</v>
+        <v>90</v>
       </c>
     </row>
     <row r="957" spans="1:9">
@@ -21568,16 +21559,16 @@
         <v>1079</v>
       </c>
       <c r="D957" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E957" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F957" t="s">
         <v>1249</v>
       </c>
-      <c r="I957" t="s">
-        <v>836</v>
+      <c r="I957" s="1" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="958" spans="1:9">
@@ -21588,16 +21579,16 @@
         <v>1079</v>
       </c>
       <c r="D958" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E958" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F958" t="s">
         <v>1249</v>
       </c>
-      <c r="I958" t="s">
-        <v>957</v>
+      <c r="I958" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="959" spans="1:9">
@@ -21608,16 +21599,16 @@
         <v>1079</v>
       </c>
       <c r="D959" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E959" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F959" t="s">
         <v>1249</v>
       </c>
-      <c r="I959" t="s">
-        <v>989</v>
+      <c r="I959" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="960" spans="1:9">
@@ -21628,16 +21619,16 @@
         <v>1079</v>
       </c>
       <c r="D960" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E960" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F960" t="s">
         <v>1249</v>
       </c>
-      <c r="I960" s="1" t="s">
-        <v>1252</v>
+      <c r="I960" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="961" spans="1:9">
@@ -21648,122 +21639,116 @@
         <v>1079</v>
       </c>
       <c r="D961" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E961" t="s">
-        <v>1253</v>
+        <v>1193</v>
       </c>
       <c r="F961" t="s">
         <v>1249</v>
       </c>
-      <c r="I961" s="1" t="s">
-        <v>1254</v>
+      <c r="I961" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="962" spans="1:9">
       <c r="A962" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C962" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="D962" t="s">
-        <v>1205</v>
+        <v>1228</v>
       </c>
       <c r="E962" t="s">
-        <v>1065</v>
+        <v>1195</v>
       </c>
       <c r="F962" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I962" s="1" t="s">
-        <v>92</v>
+        <v>1249</v>
+      </c>
+      <c r="I962" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="963" spans="1:9">
       <c r="A963" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C963" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="D963" t="s">
-        <v>1207</v>
+        <v>1229</v>
       </c>
       <c r="E963" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F963" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>270</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="964" spans="1:9">
       <c r="A964" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C964" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="D964" t="s">
-        <v>1208</v>
+        <v>1231</v>
       </c>
       <c r="E964" t="s">
-        <v>345</v>
+        <v>1253</v>
       </c>
       <c r="F964" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="965" spans="1:9">
       <c r="A965" t="s">
         <v>1255</v>
       </c>
-      <c r="B965" t="s">
-        <v>20</v>
-      </c>
       <c r="C965" t="s">
         <v>1204</v>
       </c>
       <c r="D965" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E965" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F965" t="s">
         <v>1256</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>606</v>
+        <v>92</v>
       </c>
     </row>
     <row r="966" spans="1:9">
       <c r="A966" t="s">
         <v>1255</v>
       </c>
-      <c r="B966" t="s">
-        <v>20</v>
-      </c>
       <c r="C966" t="s">
         <v>1204</v>
       </c>
       <c r="D966" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E966" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F966" t="s">
         <v>1256</v>
       </c>
-      <c r="I966" t="s">
-        <v>857</v>
+      <c r="I966" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="967" spans="1:9">
@@ -21774,36 +21759,39 @@
         <v>1204</v>
       </c>
       <c r="D967" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E967" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F967" t="s">
         <v>1256</v>
       </c>
-      <c r="I967" t="s">
-        <v>957</v>
+      <c r="I967" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="968" spans="1:9">
       <c r="A968" t="s">
         <v>1255</v>
       </c>
+      <c r="B968" t="s">
+        <v>20</v>
+      </c>
       <c r="C968" t="s">
         <v>1204</v>
       </c>
       <c r="D968" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E968" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F968" t="s">
         <v>1256</v>
       </c>
-      <c r="I968" t="s">
-        <v>989</v>
+      <c r="I968" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="969" spans="1:9">
@@ -21817,16 +21805,16 @@
         <v>1204</v>
       </c>
       <c r="D969" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E969" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F969" t="s">
         <v>1256</v>
       </c>
-      <c r="I969" s="1" t="s">
-        <v>1123</v>
+      <c r="I969" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="970" spans="1:9">
@@ -21837,145 +21825,142 @@
         <v>1204</v>
       </c>
       <c r="D970" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E970" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F970" t="s">
         <v>1256</v>
       </c>
-      <c r="I970" s="1" t="s">
-        <v>1258</v>
+      <c r="I970" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" t="s">
         <v>1255</v>
       </c>
-      <c r="B971" t="s">
-        <v>20</v>
-      </c>
       <c r="C971" t="s">
         <v>1204</v>
       </c>
       <c r="D971" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E971" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F971" t="s">
         <v>1256</v>
       </c>
       <c r="I971" t="s">
-        <v>1233</v>
+        <v>989</v>
       </c>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" t="s">
-        <v>1259</v>
+        <v>1255</v>
+      </c>
+      <c r="B972" t="s">
+        <v>20</v>
       </c>
       <c r="C972" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D972" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E972" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F972" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>23</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="973" spans="1:9">
       <c r="A973" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C973" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D973" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="E973" t="s">
-        <v>1069</v>
+        <v>1199</v>
       </c>
       <c r="F973" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="974" spans="1:9">
       <c r="A974" t="s">
-        <v>1259</v>
+        <v>1255</v>
+      </c>
+      <c r="B974" t="s">
+        <v>20</v>
       </c>
       <c r="C974" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D974" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="E974" t="s">
-        <v>345</v>
+        <v>1201</v>
       </c>
       <c r="F974" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I974" s="1" t="s">
-        <v>1262</v>
+        <v>1256</v>
+      </c>
+      <c r="I974" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="975" spans="1:9">
       <c r="A975" t="s">
         <v>1259</v>
       </c>
-      <c r="B975" t="s">
-        <v>20</v>
-      </c>
       <c r="C975" t="s">
         <v>1079</v>
       </c>
       <c r="D975" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="E975" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F975" t="s">
         <v>1260</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>549</v>
+        <v>23</v>
       </c>
     </row>
     <row r="976" spans="1:9">
       <c r="A976" t="s">
         <v>1259</v>
       </c>
-      <c r="B976" t="s">
-        <v>20</v>
-      </c>
       <c r="C976" t="s">
         <v>1079</v>
       </c>
       <c r="D976" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E976" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F976" t="s">
         <v>1260</v>
       </c>
-      <c r="I976" t="s">
-        <v>836</v>
+      <c r="I976" s="1" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="977" spans="1:9">
@@ -21986,36 +21971,39 @@
         <v>1079</v>
       </c>
       <c r="D977" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E977" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F977" t="s">
         <v>1260</v>
       </c>
-      <c r="I977" t="s">
-        <v>957</v>
+      <c r="I977" s="1" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="978" spans="1:9">
       <c r="A978" t="s">
         <v>1259</v>
       </c>
+      <c r="B978" t="s">
+        <v>20</v>
+      </c>
       <c r="C978" t="s">
         <v>1079</v>
       </c>
       <c r="D978" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="E978" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F978" t="s">
         <v>1260</v>
       </c>
-      <c r="I978" t="s">
-        <v>989</v>
+      <c r="I978" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="979" spans="1:9">
@@ -22029,16 +22017,16 @@
         <v>1079</v>
       </c>
       <c r="D979" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E979" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F979" t="s">
         <v>1260</v>
       </c>
-      <c r="I979" s="1" t="s">
-        <v>1252</v>
+      <c r="I979" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="980" spans="1:9">
@@ -22049,162 +22037,159 @@
         <v>1079</v>
       </c>
       <c r="D980" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="E980" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F980" t="s">
         <v>1260</v>
       </c>
-      <c r="I980" s="1" t="s">
-        <v>1263</v>
+      <c r="I980" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="981" spans="1:9">
       <c r="A981" t="s">
         <v>1259</v>
       </c>
-      <c r="B981" t="s">
-        <v>20</v>
-      </c>
       <c r="C981" t="s">
         <v>1079</v>
       </c>
       <c r="D981" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E981" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F981" t="s">
         <v>1260</v>
       </c>
       <c r="I981" t="s">
-        <v>1233</v>
+        <v>989</v>
       </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="B982" t="s">
         <v>20</v>
       </c>
       <c r="C982" t="s">
-        <v>1235</v>
+        <v>1079</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1229</v>
       </c>
       <c r="E982" t="s">
-        <v>960</v>
-      </c>
-      <c r="I982" t="s">
-        <v>967</v>
+        <v>1076</v>
+      </c>
+      <c r="F982" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I982" s="1" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="983" spans="1:9">
       <c r="A983" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C983" s="2" t="s">
-        <v>1266</v>
+        <v>1259</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1079</v>
       </c>
       <c r="D983" t="s">
-        <v>1205</v>
+        <v>1231</v>
       </c>
       <c r="E983" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="F983" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I983" t="s">
-        <v>35</v>
+        <v>1260</v>
+      </c>
+      <c r="I983" s="1" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="984" spans="1:9">
       <c r="A984" t="s">
-        <v>1265</v>
+        <v>1259</v>
+      </c>
+      <c r="B984" t="s">
+        <v>20</v>
       </c>
       <c r="C984" t="s">
-        <v>1266</v>
+        <v>1079</v>
       </c>
       <c r="D984" t="s">
-        <v>1207</v>
+        <v>1231</v>
       </c>
       <c r="E984" t="s">
-        <v>1069</v>
+        <v>1201</v>
       </c>
       <c r="F984" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I984" s="1" t="s">
-        <v>139</v>
+        <v>1260</v>
+      </c>
+      <c r="I984" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" t="s">
-        <v>1265</v>
+        <v>1264</v>
+      </c>
+      <c r="B985" t="s">
+        <v>20</v>
       </c>
       <c r="C985" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D985" t="s">
-        <v>1208</v>
+        <v>1235</v>
       </c>
       <c r="E985" t="s">
-        <v>345</v>
-      </c>
-      <c r="F985" t="s">
-        <v>1267</v>
+        <v>960</v>
       </c>
       <c r="I985" t="s">
-        <v>1182</v>
+        <v>967</v>
       </c>
     </row>
     <row r="986" spans="1:9">
       <c r="A986" t="s">
         <v>1265</v>
       </c>
-      <c r="B986" t="s">
-        <v>20</v>
-      </c>
-      <c r="C986" t="s">
+      <c r="C986" s="2" t="s">
         <v>1266</v>
       </c>
       <c r="D986" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E986" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F986" t="s">
         <v>1267</v>
       </c>
       <c r="I986" t="s">
-        <v>412</v>
+        <v>35</v>
       </c>
     </row>
     <row r="987" spans="1:9">
       <c r="A987" t="s">
         <v>1265</v>
       </c>
-      <c r="B987" t="s">
-        <v>20</v>
-      </c>
       <c r="C987" t="s">
         <v>1266</v>
       </c>
       <c r="D987" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="E987" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F987" t="s">
         <v>1267</v>
       </c>
-      <c r="I987" t="s">
-        <v>422</v>
+      <c r="I987" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="988" spans="1:9">
@@ -22215,36 +22200,39 @@
         <v>1266</v>
       </c>
       <c r="D988" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="E988" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F988" t="s">
         <v>1267</v>
       </c>
       <c r="I988" t="s">
-        <v>957</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="989" spans="1:9">
       <c r="A989" t="s">
         <v>1265</v>
       </c>
+      <c r="B989" t="s">
+        <v>20</v>
+      </c>
       <c r="C989" t="s">
         <v>1266</v>
       </c>
       <c r="D989" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="E989" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F989" t="s">
         <v>1267</v>
       </c>
       <c r="I989" t="s">
-        <v>985</v>
+        <v>412</v>
       </c>
     </row>
     <row r="990" spans="1:9">
@@ -22258,16 +22246,16 @@
         <v>1266</v>
       </c>
       <c r="D990" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="E990" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F990" t="s">
         <v>1267</v>
       </c>
       <c r="I990" t="s">
-        <v>1019</v>
+        <v>422</v>
       </c>
     </row>
     <row r="991" spans="1:9">
@@ -22278,56 +22266,59 @@
         <v>1266</v>
       </c>
       <c r="D991" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E991" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F991" t="s">
         <v>1267</v>
       </c>
       <c r="I991" t="s">
-        <v>1200</v>
+        <v>957</v>
       </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" t="s">
         <v>1265</v>
       </c>
-      <c r="B992" t="s">
-        <v>20</v>
-      </c>
       <c r="C992" t="s">
         <v>1266</v>
       </c>
       <c r="D992" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E992" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F992" t="s">
         <v>1267</v>
       </c>
       <c r="I992" t="s">
-        <v>1202</v>
+        <v>985</v>
       </c>
     </row>
     <row r="993" spans="1:9">
       <c r="A993" t="s">
         <v>1265</v>
       </c>
+      <c r="B993" t="s">
+        <v>20</v>
+      </c>
       <c r="C993" t="s">
-        <v>1268</v>
+        <v>1266</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1213</v>
       </c>
       <c r="E993" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F993" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I993" t="s">
-        <v>1067</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="994" spans="1:9">
@@ -22335,73 +22326,76 @@
         <v>1265</v>
       </c>
       <c r="C994" t="s">
-        <v>1270</v>
+        <v>1266</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1214</v>
       </c>
       <c r="E994" t="s">
-        <v>1069</v>
+        <v>1199</v>
       </c>
       <c r="F994" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I994" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
+      </c>
+      <c r="I994" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="995" spans="1:9">
       <c r="A995" t="s">
         <v>1265</v>
       </c>
+      <c r="B995" t="s">
+        <v>20</v>
+      </c>
       <c r="C995" t="s">
-        <v>1272</v>
+        <v>1266</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1214</v>
       </c>
       <c r="E995" t="s">
-        <v>345</v>
+        <v>1201</v>
       </c>
       <c r="F995" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I995" t="s">
-        <v>352</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="996" spans="1:9">
       <c r="A996" t="s">
         <v>1265</v>
       </c>
-      <c r="B996" t="s">
-        <v>20</v>
-      </c>
       <c r="C996" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="E996" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="F996" t="s">
         <v>1269</v>
       </c>
       <c r="I996" t="s">
-        <v>419</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="997" spans="1:9">
       <c r="A997" t="s">
         <v>1265</v>
       </c>
-      <c r="B997" t="s">
-        <v>20</v>
-      </c>
       <c r="C997" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="E997" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F997" t="s">
         <v>1269</v>
       </c>
-      <c r="I997" t="s">
-        <v>436</v>
+      <c r="I997" s="1" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="998" spans="1:9">
@@ -22409,33 +22403,36 @@
         <v>1265</v>
       </c>
       <c r="C998" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E998" t="s">
-        <v>1193</v>
+        <v>345</v>
       </c>
       <c r="F998" t="s">
         <v>1269</v>
       </c>
       <c r="I998" t="s">
-        <v>957</v>
+        <v>352</v>
       </c>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" t="s">
         <v>1265</v>
       </c>
+      <c r="B999" t="s">
+        <v>20</v>
+      </c>
       <c r="C999" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E999" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F999" t="s">
         <v>1269</v>
       </c>
       <c r="I999" t="s">
-        <v>985</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
@@ -22446,16 +22443,16 @@
         <v>20</v>
       </c>
       <c r="C1000" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E1000" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F1000" t="s">
         <v>1269</v>
       </c>
       <c r="I1000" t="s">
-        <v>1077</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
@@ -22463,56 +22460,70 @@
         <v>1265</v>
       </c>
       <c r="C1001" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D1001" t="s">
-        <v>1198</v>
+        <v>1275</v>
       </c>
       <c r="E1001" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F1001" t="s">
         <v>1269</v>
       </c>
       <c r="I1001" t="s">
-        <v>1200</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
       <c r="A1002" t="s">
         <v>1265</v>
       </c>
-      <c r="B1002" t="s">
-        <v>20</v>
-      </c>
       <c r="C1002" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>1198</v>
+        <v>1276</v>
       </c>
       <c r="E1002" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F1002" t="s">
         <v>1269</v>
       </c>
       <c r="I1002" t="s">
-        <v>1202</v>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9">
+      <c r="A1003" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="C1004" t="s">
-        <v>1280</v>
+        <v>1278</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1198</v>
       </c>
       <c r="E1004" t="s">
         <v>1199</v>
       </c>
       <c r="F1004" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="I1004" t="s">
         <v>1200</v>
@@ -22520,112 +22531,110 @@
     </row>
     <row r="1005" spans="1:9">
       <c r="A1005" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="B1005" t="s">
         <v>20</v>
       </c>
       <c r="C1005" t="s">
-        <v>1280</v>
+        <v>1278</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1198</v>
       </c>
       <c r="E1005" t="s">
         <v>1201</v>
       </c>
       <c r="F1005" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="I1005" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1006" spans="1:9">
-      <c r="A1006" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C1006" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1006" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1006" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1006" t="s">
-        <v>1284</v>
-      </c>
-      <c r="I1006" t="s">
-        <v>1200</v>
-      </c>
-    </row>
     <row r="1007" spans="1:9">
       <c r="A1007" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>20</v>
+        <v>1279</v>
       </c>
       <c r="C1007" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1007" t="s">
-        <v>1198</v>
+        <v>1280</v>
       </c>
       <c r="E1007" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F1007" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I1007" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1008" spans="1:9">
       <c r="A1008" t="s">
-        <v>1285</v>
+        <v>1279</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>20</v>
       </c>
       <c r="C1008" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="E1008" t="s">
-        <v>1287</v>
+        <v>1201</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>1281</v>
       </c>
       <c r="I1008" t="s">
-        <v>1288</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1009" spans="1:9">
       <c r="A1009" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G1009" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1009" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1009" s="1" t="s">
-        <v>1291</v>
+        <v>1282</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" t="s">
-        <v>1292</v>
+        <v>1282</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>20</v>
       </c>
       <c r="C1010" t="s">
-        <v>1286</v>
+        <v>1283</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1198</v>
       </c>
       <c r="E1010" t="s">
-        <v>1287</v>
+        <v>1201</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>1284</v>
       </c>
       <c r="I1010" t="s">
-        <v>1293</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1011" spans="1:9">
       <c r="A1011" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="C1011" t="s">
         <v>1286</v>
@@ -22634,12 +22643,12 @@
         <v>1287</v>
       </c>
       <c r="I1011" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
       <c r="A1012" t="s">
-        <v>1294</v>
+        <v>1285</v>
       </c>
       <c r="G1012" t="s">
         <v>1289</v>
@@ -22648,12 +22657,12 @@
         <v>1290</v>
       </c>
       <c r="I1012" s="1" t="s">
-        <v>90</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1013" spans="1:9">
       <c r="A1013" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C1013" t="s">
         <v>1286</v>
@@ -22662,603 +22671,603 @@
         <v>1287</v>
       </c>
       <c r="I1013" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1014" spans="1:9">
       <c r="A1014" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G1014" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1014" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1014" s="1" t="s">
-        <v>1032</v>
+        <v>1294</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="1015" spans="1:9">
       <c r="A1015" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B1015" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1015" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1015" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1015" t="s">
-        <v>1299</v>
+        <v>1294</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1015" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="1016" spans="1:9">
       <c r="A1016" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1016" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1016" t="s">
-        <v>1300</v>
+        <v>1296</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1287</v>
       </c>
       <c r="I1016" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1017" spans="1:9">
       <c r="A1017" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C1017" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1017" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1017" t="s">
-        <v>1303</v>
+        <v>1296</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1017" s="1" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="1018" spans="1:9">
       <c r="A1018" t="s">
-        <v>1302</v>
-      </c>
-      <c r="G1018" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1018" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1018" s="1" t="s">
-        <v>1304</v>
+        <v>1298</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="1019" spans="1:9">
       <c r="A1019" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C1019" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1019" t="s">
-        <v>1287</v>
+        <v>1298</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>1300</v>
       </c>
       <c r="I1019" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1020" spans="1:9">
       <c r="A1020" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G1020" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1020" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1020" s="1" t="s">
-        <v>1307</v>
+        <v>1302</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="1021" spans="1:9">
       <c r="A1021" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C1021" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1021" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1021" t="s">
-        <v>1309</v>
+        <v>1302</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1021" s="1" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="1022" spans="1:9">
       <c r="A1022" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G1022" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1022" t="s">
-        <v>1290</v>
+        <v>1305</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1287</v>
       </c>
       <c r="I1022" t="s">
-        <v>957</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1023" spans="1:9">
       <c r="A1023" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C1023" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1023" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1023" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1023" t="s">
-        <v>1311</v>
+        <v>1305</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>1290</v>
       </c>
       <c r="I1023" s="1" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1024" spans="1:9">
       <c r="A1024" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B1024" t="s">
-        <v>20</v>
+        <v>1308</v>
       </c>
       <c r="C1024" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1024" t="s">
-        <v>1198</v>
+        <v>1286</v>
       </c>
       <c r="E1024" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F1024" t="s">
-        <v>1311</v>
+        <v>1287</v>
       </c>
       <c r="I1024" t="s">
-        <v>1233</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1025" spans="1:9">
       <c r="A1025" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C1025" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E1025" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1025" t="s">
-        <v>1314</v>
-      </c>
-      <c r="I1025" s="1" t="s">
-        <v>1315</v>
+        <v>1308</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1025" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="1026" spans="1:9">
       <c r="A1026" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B1026" t="s">
-        <v>20</v>
+        <v>1310</v>
       </c>
       <c r="C1026" t="s">
-        <v>1237</v>
+        <v>1283</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1198</v>
       </c>
       <c r="E1026" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F1026" t="s">
-        <v>1314</v>
-      </c>
-      <c r="I1026" t="s">
-        <v>1233</v>
+        <v>1311</v>
+      </c>
+      <c r="I1026" s="1" t="s">
+        <v>1312</v>
       </c>
     </row>
     <row r="1027" spans="1:9">
       <c r="A1027" t="s">
-        <v>1316</v>
+        <v>1310</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>20</v>
       </c>
       <c r="C1027" t="s">
-        <v>1237</v>
+        <v>1283</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1198</v>
       </c>
       <c r="E1027" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F1027" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I1027" s="1" t="s">
-        <v>1315</v>
+        <v>1311</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="1028" spans="1:9">
       <c r="A1028" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B1028" t="s">
-        <v>20</v>
+        <v>1313</v>
       </c>
       <c r="C1028" t="s">
         <v>1237</v>
       </c>
       <c r="E1028" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F1028" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I1028" t="s">
-        <v>1233</v>
+        <v>1314</v>
+      </c>
+      <c r="I1028" s="1" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="1029" spans="1:9">
       <c r="A1029" t="s">
-        <v>1318</v>
+        <v>1313</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>20</v>
       </c>
       <c r="C1029" t="s">
         <v>1237</v>
       </c>
       <c r="E1029" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F1029" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I1029" s="1" t="s">
-        <v>1232</v>
+        <v>1314</v>
+      </c>
+      <c r="I1029" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="1030" spans="1:9">
       <c r="A1030" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1030" t="s">
-        <v>20</v>
+        <v>1316</v>
       </c>
       <c r="C1030" t="s">
         <v>1237</v>
       </c>
       <c r="E1030" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F1030" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I1030" t="s">
-        <v>1247</v>
+        <v>1317</v>
+      </c>
+      <c r="I1030" s="1" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="1031" spans="1:9">
       <c r="A1031" t="s">
-        <v>1320</v>
+        <v>1316</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>20</v>
       </c>
       <c r="C1031" t="s">
         <v>1237</v>
       </c>
       <c r="E1031" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F1031" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I1031" s="1" t="s">
-        <v>1322</v>
+        <v>1317</v>
+      </c>
+      <c r="I1031" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="1032" spans="1:9">
       <c r="A1032" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B1032" t="s">
-        <v>20</v>
+        <v>1318</v>
       </c>
       <c r="C1032" t="s">
         <v>1237</v>
       </c>
       <c r="E1032" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F1032" t="s">
-        <v>1321</v>
-      </c>
-      <c r="I1032" t="s">
-        <v>1233</v>
+        <v>1319</v>
+      </c>
+      <c r="I1032" s="1" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="1033" spans="1:9">
       <c r="A1033" t="s">
-        <v>1323</v>
+        <v>1318</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>20</v>
       </c>
       <c r="C1033" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1033" t="s">
-        <v>1198</v>
+        <v>1237</v>
       </c>
       <c r="E1033" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F1033" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I1033" s="1" t="s">
-        <v>1325</v>
+        <v>1319</v>
+      </c>
+      <c r="I1033" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="1034" spans="1:9">
       <c r="A1034" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>20</v>
+        <v>1320</v>
       </c>
       <c r="C1034" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1034" t="s">
-        <v>1198</v>
+        <v>1237</v>
       </c>
       <c r="E1034" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F1034" t="s">
-        <v>1324</v>
-      </c>
-      <c r="I1034" t="s">
-        <v>1247</v>
+        <v>1321</v>
+      </c>
+      <c r="I1034" s="1" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="1035" spans="1:9">
       <c r="A1035" t="s">
-        <v>1326</v>
+        <v>1320</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>20</v>
       </c>
       <c r="C1035" t="s">
         <v>1237</v>
       </c>
       <c r="E1035" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F1035" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I1035" s="1" t="s">
-        <v>1328</v>
+        <v>1321</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="1036" spans="1:9">
       <c r="A1036" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>20</v>
+        <v>1323</v>
       </c>
       <c r="C1036" t="s">
-        <v>1237</v>
+        <v>1283</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1198</v>
       </c>
       <c r="E1036" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="F1036" t="s">
-        <v>1327</v>
-      </c>
-      <c r="I1036" t="s">
-        <v>1233</v>
+        <v>1324</v>
+      </c>
+      <c r="I1036" s="1" t="s">
+        <v>1325</v>
       </c>
     </row>
     <row r="1037" spans="1:9">
       <c r="A1037" t="s">
-        <v>1329</v>
+        <v>1323</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>20</v>
       </c>
       <c r="C1037" t="s">
-        <v>1286</v>
+        <v>1283</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1198</v>
       </c>
       <c r="E1037" t="s">
-        <v>1287</v>
+        <v>1201</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>1324</v>
       </c>
       <c r="I1037" t="s">
-        <v>1288</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1038" spans="1:9">
       <c r="A1038" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G1038" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1038" t="s">
-        <v>1290</v>
+        <v>1326</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1327</v>
       </c>
       <c r="I1038" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="1039" spans="1:9">
       <c r="A1039" t="s">
-        <v>1331</v>
+        <v>1326</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>20</v>
       </c>
       <c r="C1039" t="s">
-        <v>1286</v>
+        <v>1237</v>
       </c>
       <c r="E1039" t="s">
-        <v>1287</v>
+        <v>1201</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1327</v>
       </c>
       <c r="I1039" t="s">
-        <v>1303</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1040" spans="1:9">
       <c r="A1040" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1040" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9">
+      <c r="A1041" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1041" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9">
+      <c r="A1042" t="s">
         <v>1331</v>
       </c>
-      <c r="G1040" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1040" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1040" s="1" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:9" s="2" customFormat="1">
-      <c r="A1041" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C1041" s="2" t="s">
+      <c r="C1042" t="s">
         <v>1286</v>
       </c>
-      <c r="E1041" s="2" t="s">
+      <c r="E1042" t="s">
         <v>1287</v>
       </c>
-      <c r="I1041" s="2" t="s">
+      <c r="I1042" t="s">
         <v>1303</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:9" s="2" customFormat="1">
-      <c r="A1042" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G1042" s="2" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1042" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1042" s="3" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="1043" spans="1:9">
       <c r="A1043" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B1043" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1043" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1043" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" s="2" customFormat="1">
+      <c r="A1044" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C1044" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="E1043" t="s">
+      <c r="E1044" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="I1043" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:9">
-      <c r="A1044" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B1044" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1044" t="s">
+      <c r="I1044" s="2" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" s="2" customFormat="1">
+      <c r="A1045" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G1045" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="H1044" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I1044" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:9">
-      <c r="A1045" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1045" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1045" t="s">
-        <v>1288</v>
+      <c r="H1045" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1045" s="3" t="s">
+        <v>1332</v>
       </c>
     </row>
     <row r="1046" spans="1:9">
       <c r="A1046" t="s">
-        <v>1334</v>
-      </c>
-      <c r="G1046" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1046" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1046" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="1047" spans="1:9">
       <c r="A1047" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1047" t="s">
-        <v>1287</v>
+        <v>1333</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>1300</v>
       </c>
       <c r="I1047" t="s">
-        <v>1288</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1048" spans="1:9">
       <c r="A1048" t="s">
-        <v>1336</v>
-      </c>
-      <c r="G1048" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1048" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1048" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>1288</v>
       </c>
     </row>
     <row r="1049" spans="1:9">
       <c r="A1049" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1049" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1049" t="s">
-        <v>1293</v>
+        <v>1334</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1049" s="1" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="1050" spans="1:9">
       <c r="A1050" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C1050" t="s">
         <v>1283</v>
@@ -23267,40 +23276,40 @@
         <v>1287</v>
       </c>
       <c r="I1050" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1051" spans="1:9">
       <c r="A1051" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1051" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1051" t="s">
-        <v>1295</v>
+        <v>1336</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1051" s="1" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="1052" spans="1:9">
       <c r="A1052" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G1052" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1052" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1052" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1053" spans="1:9">
       <c r="A1053" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C1053" t="s">
         <v>1283</v>
@@ -23309,372 +23318,414 @@
         <v>1287</v>
       </c>
       <c r="I1053" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1054" spans="1:9">
       <c r="A1054" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G1054" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1054" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1054" s="1" t="s">
-        <v>81</v>
+        <v>1340</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1054" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="1055" spans="1:9">
       <c r="A1055" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1055" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1055" t="s">
-        <v>1297</v>
+        <v>1340</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1055" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="1056" spans="1:9">
       <c r="A1056" t="s">
-        <v>1343</v>
-      </c>
-      <c r="G1056" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1056" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1056" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1056" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="1057" spans="1:9">
       <c r="A1057" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1057" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1057" t="s">
-        <v>1297</v>
+        <v>1342</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1057" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="1058" spans="1:9">
       <c r="A1058" t="s">
-        <v>1345</v>
-      </c>
-      <c r="G1058" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1058" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1058" s="1" t="s">
-        <v>1123</v>
+        <v>1343</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1058" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="1059" spans="1:9">
       <c r="A1059" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1059" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1059" t="s">
-        <v>1299</v>
+        <v>1343</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1059" s="1" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="1060" spans="1:9">
       <c r="A1060" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1060" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1060" t="s">
-        <v>1300</v>
+        <v>1345</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1287</v>
       </c>
       <c r="I1060" t="s">
-        <v>1347</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1061" spans="1:9">
       <c r="A1061" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1061" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1061" t="s">
-        <v>1299</v>
+        <v>1345</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1061" s="1" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="1062" spans="1:9">
       <c r="A1062" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B1062" t="s">
         <v>20</v>
       </c>
-      <c r="G1062" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1062" t="s">
-        <v>1300</v>
+      <c r="C1062" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>1287</v>
       </c>
       <c r="I1062" t="s">
-        <v>562</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1063" spans="1:9">
       <c r="A1063" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1063" t="s">
-        <v>1287</v>
+        <v>1346</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1063" t="s">
+        <v>1300</v>
       </c>
       <c r="I1063" t="s">
-        <v>1303</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1064" spans="1:9">
       <c r="A1064" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G1064" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1064" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1064" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1064" t="s">
+        <v>1299</v>
       </c>
     </row>
     <row r="1065" spans="1:9">
       <c r="A1065" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1065" t="s">
-        <v>1287</v>
+        <v>1348</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1065" t="s">
+        <v>1300</v>
       </c>
       <c r="I1065" t="s">
-        <v>1303</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1066" spans="1:9">
       <c r="A1066" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G1066" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1066" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1066" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1066" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="1067" spans="1:9">
       <c r="A1067" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C1067" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1067" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1067" t="s">
-        <v>1306</v>
+        <v>1349</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1067" s="1" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="1068" spans="1:9">
       <c r="A1068" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G1068" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1068" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1068" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1068" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="1069" spans="1:9">
       <c r="A1069" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1069" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1069" t="s">
-        <v>1306</v>
+        <v>1351</v>
+      </c>
+      <c r="G1069" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1069" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1069" s="1" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="1070" spans="1:9">
       <c r="A1070" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G1070" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1070" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1070" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1070" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="1071" spans="1:9">
       <c r="A1071" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1071" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1071" t="s">
-        <v>1309</v>
+        <v>1352</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1071" s="1" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="1072" spans="1:9">
       <c r="A1072" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G1072" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1072" t="s">
-        <v>1290</v>
+        <v>1354</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1287</v>
       </c>
       <c r="I1072" t="s">
-        <v>957</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1073" spans="1:9">
       <c r="A1073" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1073" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1073" t="s">
-        <v>1309</v>
+        <v>1354</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1073" s="1" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="1074" spans="1:9">
       <c r="A1074" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G1074" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1074" t="s">
-        <v>1290</v>
+        <v>1356</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1287</v>
       </c>
       <c r="I1074" t="s">
-        <v>957</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1075" spans="1:9">
       <c r="A1075" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C1075" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D1075" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1075" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1075" t="s">
-        <v>1360</v>
+        <v>1356</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>1290</v>
       </c>
       <c r="I1075" t="s">
-        <v>1200</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1076" spans="1:9">
       <c r="A1076" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>20</v>
+        <v>1357</v>
       </c>
       <c r="C1076" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D1076" t="s">
-        <v>1198</v>
+        <v>1283</v>
       </c>
       <c r="E1076" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F1076" t="s">
-        <v>1360</v>
+        <v>1287</v>
       </c>
       <c r="I1076" t="s">
-        <v>1202</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1077" spans="1:9">
       <c r="A1077" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1077" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1077" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:9">
+      <c r="A1078" t="s">
         <v>1358</v>
       </c>
-      <c r="C1077" t="s">
+      <c r="C1078" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:9">
+      <c r="A1079" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:9">
+      <c r="A1080" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1080" t="s">
         <v>1361</v>
       </c>
-      <c r="E1077" t="s">
+      <c r="E1080" t="s">
         <v>1253</v>
       </c>
-      <c r="F1077" t="s">
+      <c r="F1080" t="s">
         <v>1362</v>
       </c>
-      <c r="I1077" t="s">
+      <c r="I1080" t="s">
         <v>1363</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5440" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="1466">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4406,6 +4406,12 @@
   </si>
   <si>
     <t>org.phoenixctms.ctsms.service.user.UserService.getInheritedUser</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.getOTPRegistrationInfo</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.user.UserService.verifyOTP</t>
   </si>
 </sst>
 </file>
@@ -5230,10 +5236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1080"/>
+  <dimension ref="A1:I1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" workbookViewId="0">
-      <selection activeCell="A696" sqref="A696"/>
+    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="A699" sqref="A699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -16829,26 +16835,38 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="697" spans="1:9" s="2" customFormat="1"/>
-    <row r="698" spans="1:9">
-      <c r="A698" t="s">
-        <v>984</v>
-      </c>
-      <c r="I698" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9">
-      <c r="A699" t="s">
-        <v>986</v>
-      </c>
-      <c r="I699" t="s">
-        <v>985</v>
-      </c>
-    </row>
+    <row r="697" spans="1:9" s="2" customFormat="1">
+      <c r="A697" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E697" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="I697" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" s="2" customFormat="1">
+      <c r="A698" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="E698" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="I698" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" s="2" customFormat="1"/>
     <row r="700" spans="1:9">
       <c r="A700" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I700" t="s">
         <v>985</v>
@@ -16856,15 +16874,15 @@
     </row>
     <row r="701" spans="1:9">
       <c r="A701" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I701" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="702" spans="1:9">
       <c r="A702" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I702" t="s">
         <v>985</v>
@@ -16872,15 +16890,15 @@
     </row>
     <row r="703" spans="1:9">
       <c r="A703" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I703" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="704" spans="1:9">
       <c r="A704" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I704" t="s">
         <v>985</v>
@@ -16888,55 +16906,55 @@
     </row>
     <row r="705" spans="1:9">
       <c r="A705" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I705" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="706" spans="1:9">
       <c r="A706" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I706" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="707" spans="1:9" s="2" customFormat="1">
-      <c r="A707" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="I707" s="2" t="s">
-        <v>995</v>
+        <v>985</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9">
+      <c r="A707" t="s">
+        <v>993</v>
+      </c>
+      <c r="I707" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="708" spans="1:9">
       <c r="A708" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I708" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="709" spans="1:9">
-      <c r="A709" t="s">
-        <v>997</v>
-      </c>
-      <c r="I709" t="s">
-        <v>989</v>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" s="2" customFormat="1">
+      <c r="A709" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I709" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="710" spans="1:9">
       <c r="A710" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I710" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="711" spans="1:9">
       <c r="A711" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I711" t="s">
         <v>989</v>
@@ -16944,15 +16962,15 @@
     </row>
     <row r="712" spans="1:9">
       <c r="A712" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I712" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="713" spans="1:9">
       <c r="A713" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I713" t="s">
         <v>989</v>
@@ -16960,7 +16978,7 @@
     </row>
     <row r="714" spans="1:9">
       <c r="A714" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I714" t="s">
         <v>989</v>
@@ -16968,7 +16986,7 @@
     </row>
     <row r="715" spans="1:9">
       <c r="A715" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I715" t="s">
         <v>989</v>
@@ -16976,7 +16994,7 @@
     </row>
     <row r="716" spans="1:9">
       <c r="A716" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I716" t="s">
         <v>989</v>
@@ -16984,7 +17002,7 @@
     </row>
     <row r="717" spans="1:9">
       <c r="A717" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I717" t="s">
         <v>989</v>
@@ -16992,113 +17010,98 @@
     </row>
     <row r="718" spans="1:9">
       <c r="A718" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I718" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="719" spans="1:9">
       <c r="A719" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I719" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
     </row>
     <row r="720" spans="1:9">
       <c r="A720" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I720" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9">
+      <c r="A721" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I721" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="722" spans="1:9">
       <c r="A722" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C722" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E722" t="s">
-        <v>11</v>
+        <v>1008</v>
       </c>
       <c r="I722" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="723" spans="1:9">
-      <c r="A723" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B723" t="s">
-        <v>20</v>
-      </c>
-      <c r="C723" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E723" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I723" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
     </row>
     <row r="724" spans="1:9">
       <c r="A724" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B724" t="s">
-        <v>20</v>
+        <v>1009</v>
       </c>
       <c r="C724" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E724" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="I724" t="s">
-        <v>940</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="725" spans="1:9">
       <c r="A725" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B725" t="s">
         <v>20</v>
       </c>
       <c r="C725" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="E725" t="s">
         <v>1014</v>
       </c>
       <c r="I725" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="726" spans="1:9">
       <c r="A726" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B726" t="s">
         <v>20</v>
       </c>
       <c r="C726" t="s">
-        <v>435</v>
+        <v>1016</v>
       </c>
       <c r="E726" t="s">
         <v>421</v>
       </c>
       <c r="I726" t="s">
-        <v>436</v>
+        <v>940</v>
       </c>
     </row>
     <row r="727" spans="1:9">
       <c r="A727" t="s">
-        <v>1020</v>
+        <v>1017</v>
+      </c>
+      <c r="B727" t="s">
+        <v>20</v>
       </c>
       <c r="C727" t="s">
         <v>1018</v>
@@ -17107,58 +17110,52 @@
         <v>1014</v>
       </c>
       <c r="I727" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="728" spans="1:9">
       <c r="A728" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B728" t="s">
         <v>20</v>
       </c>
       <c r="C728" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D728" t="s">
-        <v>1023</v>
+        <v>435</v>
       </c>
       <c r="E728" t="s">
-        <v>1014</v>
+        <v>421</v>
       </c>
       <c r="I728" t="s">
-        <v>1019</v>
+        <v>436</v>
       </c>
     </row>
     <row r="729" spans="1:9">
       <c r="A729" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B729" t="s">
-        <v>20</v>
+        <v>1020</v>
       </c>
       <c r="C729" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D729" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E729" t="s">
-        <v>421</v>
+        <v>1014</v>
       </c>
       <c r="I729" t="s">
-        <v>703</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="730" spans="1:9">
       <c r="A730" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B730" t="s">
         <v>20</v>
       </c>
       <c r="C730" t="s">
-        <v>1018</v>
+        <v>1022</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1023</v>
       </c>
       <c r="E730" t="s">
         <v>1014</v>
@@ -17169,197 +17166,197 @@
     </row>
     <row r="731" spans="1:9">
       <c r="A731" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B731" t="s">
         <v>20</v>
       </c>
       <c r="C731" t="s">
-        <v>435</v>
+        <v>1022</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1024</v>
       </c>
       <c r="E731" t="s">
         <v>421</v>
       </c>
       <c r="I731" t="s">
-        <v>436</v>
+        <v>703</v>
       </c>
     </row>
     <row r="732" spans="1:9">
       <c r="A732" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B732" t="s">
         <v>20</v>
       </c>
       <c r="C732" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D732" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E732" t="s">
         <v>1014</v>
       </c>
-      <c r="I732" s="1" t="s">
-        <v>1027</v>
+      <c r="I732" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="733" spans="1:9">
       <c r="A733" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B733" t="s">
         <v>20</v>
       </c>
       <c r="C733" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D733" t="s">
-        <v>1024</v>
+        <v>435</v>
       </c>
       <c r="E733" t="s">
         <v>421</v>
       </c>
       <c r="I733" t="s">
-        <v>900</v>
+        <v>436</v>
       </c>
     </row>
     <row r="734" spans="1:9">
       <c r="A734" t="s">
-        <v>1028</v>
+        <v>1026</v>
+      </c>
+      <c r="B734" t="s">
+        <v>20</v>
       </c>
       <c r="C734" t="s">
-        <v>1018</v>
+        <v>1022</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1023</v>
       </c>
       <c r="E734" t="s">
         <v>1014</v>
       </c>
       <c r="I734" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="735" spans="1:9">
       <c r="A735" t="s">
-        <v>1030</v>
+        <v>1026</v>
+      </c>
+      <c r="B735" t="s">
+        <v>20</v>
       </c>
       <c r="C735" t="s">
-        <v>252</v>
+        <v>1022</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1024</v>
       </c>
       <c r="E735" t="s">
-        <v>253</v>
-      </c>
-      <c r="I735" s="1" t="s">
-        <v>899</v>
+        <v>421</v>
+      </c>
+      <c r="I735" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="736" spans="1:9">
       <c r="A736" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G736" t="s">
-        <v>96</v>
-      </c>
-      <c r="H736" t="s">
-        <v>70</v>
+        <v>1028</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1014</v>
       </c>
       <c r="I736" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="737" spans="1:9">
       <c r="A737" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C737" t="s">
-        <v>1018</v>
+        <v>252</v>
       </c>
       <c r="E737" t="s">
-        <v>1014</v>
+        <v>253</v>
       </c>
       <c r="I737" s="1" t="s">
-        <v>1027</v>
+        <v>899</v>
       </c>
     </row>
     <row r="738" spans="1:9">
       <c r="A738" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B738" t="s">
-        <v>20</v>
-      </c>
-      <c r="C738" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D738" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E738" t="s">
-        <v>1014</v>
+        <v>1031</v>
+      </c>
+      <c r="G738" t="s">
+        <v>96</v>
+      </c>
+      <c r="H738" t="s">
+        <v>70</v>
       </c>
       <c r="I738" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="739" spans="1:9">
       <c r="A739" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B739" t="s">
-        <v>20</v>
+        <v>1033</v>
       </c>
       <c r="C739" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D739" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="E739" t="s">
-        <v>421</v>
-      </c>
-      <c r="I739" t="s">
-        <v>1036</v>
+        <v>1014</v>
+      </c>
+      <c r="I739" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="740" spans="1:9">
       <c r="A740" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="B740" t="s">
+        <v>20</v>
       </c>
       <c r="C740" t="s">
-        <v>1018</v>
+        <v>1022</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1023</v>
       </c>
       <c r="E740" t="s">
         <v>1014</v>
       </c>
-      <c r="F740" t="s">
-        <v>1037</v>
-      </c>
       <c r="I740" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="741" spans="1:9">
       <c r="A741" t="s">
-        <v>1037</v>
+        <v>1034</v>
+      </c>
+      <c r="B741" t="s">
+        <v>20</v>
       </c>
       <c r="C741" t="s">
-        <v>532</v>
+        <v>1022</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1024</v>
       </c>
       <c r="E741" t="s">
         <v>421</v>
       </c>
-      <c r="F741" t="s">
-        <v>1037</v>
-      </c>
       <c r="I741" t="s">
-        <v>533</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="742" spans="1:9">
       <c r="A742" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B742" t="s">
-        <v>20</v>
+        <v>1037</v>
       </c>
       <c r="C742" t="s">
         <v>1018</v>
@@ -17368,18 +17365,15 @@
         <v>1014</v>
       </c>
       <c r="F742" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I742" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="743" spans="1:9">
       <c r="A743" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B743" t="s">
-        <v>20</v>
+        <v>1037</v>
       </c>
       <c r="C743" t="s">
         <v>532</v>
@@ -17388,32 +17382,35 @@
         <v>421</v>
       </c>
       <c r="F743" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="I743" t="s">
-        <v>1041</v>
+        <v>533</v>
       </c>
     </row>
     <row r="744" spans="1:9">
       <c r="A744" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B744" t="s">
         <v>20</v>
       </c>
-      <c r="G744" t="s">
-        <v>96</v>
-      </c>
-      <c r="H744" t="s">
-        <v>70</v>
+      <c r="C744" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F744" t="s">
+        <v>1039</v>
       </c>
       <c r="I744" s="1" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="745" spans="1:9">
       <c r="A745" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="B745" t="s">
         <v>20</v>
@@ -17425,217 +17422,220 @@
         <v>421</v>
       </c>
       <c r="F745" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="I745" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="746" spans="1:9">
       <c r="A746" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C746" t="s">
-        <v>532</v>
-      </c>
-      <c r="E746" t="s">
-        <v>463</v>
-      </c>
-      <c r="F746" t="s">
-        <v>1044</v>
-      </c>
-      <c r="I746" t="s">
-        <v>1046</v>
+        <v>1042</v>
+      </c>
+      <c r="B746" t="s">
+        <v>20</v>
+      </c>
+      <c r="G746" t="s">
+        <v>96</v>
+      </c>
+      <c r="H746" t="s">
+        <v>70</v>
+      </c>
+      <c r="I746" s="1" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="747" spans="1:9">
       <c r="A747" t="s">
         <v>1043</v>
       </c>
+      <c r="B747" t="s">
+        <v>20</v>
+      </c>
       <c r="C747" t="s">
-        <v>1047</v>
+        <v>532</v>
       </c>
       <c r="E747" t="s">
-        <v>1048</v>
+        <v>421</v>
       </c>
       <c r="F747" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I747" s="1" t="s">
-        <v>1050</v>
+        <v>1044</v>
+      </c>
+      <c r="I747" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="748" spans="1:9">
       <c r="A748" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B748" t="s">
-        <v>20</v>
+        <v>1043</v>
       </c>
       <c r="C748" t="s">
         <v>532</v>
       </c>
       <c r="E748" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="F748" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="I748" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="749" spans="1:9">
       <c r="A749" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="C749" t="s">
-        <v>532</v>
+        <v>1047</v>
       </c>
       <c r="E749" t="s">
-        <v>463</v>
+        <v>1048</v>
       </c>
       <c r="F749" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I749" t="s">
-        <v>1054</v>
+        <v>1049</v>
+      </c>
+      <c r="I749" s="1" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="750" spans="1:9">
       <c r="A750" t="s">
         <v>1051</v>
       </c>
+      <c r="B750" t="s">
+        <v>20</v>
+      </c>
       <c r="C750" t="s">
-        <v>1047</v>
+        <v>532</v>
       </c>
       <c r="E750" t="s">
-        <v>1048</v>
+        <v>421</v>
       </c>
       <c r="F750" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I750" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
+      </c>
+      <c r="I750" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="751" spans="1:9">
       <c r="A751" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B751" t="s">
-        <v>20</v>
-      </c>
-      <c r="G751" t="s">
-        <v>96</v>
-      </c>
-      <c r="H751" t="s">
-        <v>70</v>
-      </c>
-      <c r="I751" s="1" t="s">
-        <v>1038</v>
+        <v>1051</v>
+      </c>
+      <c r="C751" t="s">
+        <v>532</v>
+      </c>
+      <c r="E751" t="s">
+        <v>463</v>
+      </c>
+      <c r="F751" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I751" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="752" spans="1:9">
       <c r="A752" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B752" t="s">
-        <v>20</v>
+        <v>1051</v>
       </c>
       <c r="C752" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D752" t="s">
-        <v>1023</v>
+        <v>1047</v>
       </c>
       <c r="E752" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I752" t="s">
-        <v>1015</v>
+        <v>1048</v>
+      </c>
+      <c r="F752" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I752" s="1" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="753" spans="1:9">
       <c r="A753" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B753" t="s">
         <v>20</v>
       </c>
-      <c r="C753" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D753" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E753" t="s">
-        <v>421</v>
-      </c>
-      <c r="I753" t="s">
-        <v>1059</v>
+      <c r="G753" t="s">
+        <v>96</v>
+      </c>
+      <c r="H753" t="s">
+        <v>70</v>
+      </c>
+      <c r="I753" s="1" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="754" spans="1:9">
       <c r="A754" t="s">
-        <v>1060</v>
+        <v>1058</v>
+      </c>
+      <c r="B754" t="s">
+        <v>20</v>
       </c>
       <c r="C754" t="s">
-        <v>1061</v>
+        <v>1022</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1023</v>
       </c>
       <c r="E754" t="s">
         <v>1014</v>
       </c>
       <c r="I754" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="755" spans="1:9">
       <c r="A755" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B755" t="s">
+        <v>20</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E755" t="s">
+        <v>421</v>
+      </c>
+      <c r="I755" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="756" spans="1:9">
+      <c r="A756" t="s">
         <v>1060</v>
       </c>
-      <c r="C755" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E755" t="s">
-        <v>11</v>
-      </c>
-      <c r="I755" t="s">
+      <c r="C756" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I756" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="757" spans="1:9">
       <c r="A757" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C757" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E757" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F757" t="s">
-        <v>1066</v>
+        <v>11</v>
       </c>
       <c r="I757" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="758" spans="1:9">
-      <c r="A758" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C758" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E758" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F758" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I758" s="1" t="s">
-        <v>335</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="759" spans="1:9">
@@ -17643,54 +17643,50 @@
         <v>1063</v>
       </c>
       <c r="C759" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E759" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F759" t="s">
         <v>1066</v>
       </c>
       <c r="I759" t="s">
-        <v>366</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="760" spans="1:9">
       <c r="A760" t="s">
         <v>1063</v>
       </c>
-      <c r="B760" s="2"/>
       <c r="C760" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E760" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F760" t="s">
         <v>1066</v>
       </c>
-      <c r="I760" t="s">
-        <v>419</v>
+      <c r="I760" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="761" spans="1:9">
       <c r="A761" t="s">
         <v>1063</v>
       </c>
-      <c r="B761" t="s">
-        <v>20</v>
-      </c>
       <c r="C761" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E761" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F761" t="s">
         <v>1066</v>
       </c>
       <c r="I761" t="s">
-        <v>703</v>
+        <v>366</v>
       </c>
     </row>
     <row r="762" spans="1:9">
@@ -17699,56 +17695,54 @@
       </c>
       <c r="B762" s="2"/>
       <c r="C762" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E762" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F762" t="s">
         <v>1066</v>
       </c>
       <c r="I762" t="s">
-        <v>1077</v>
+        <v>419</v>
       </c>
     </row>
     <row r="763" spans="1:9">
       <c r="A763" t="s">
-        <v>1078</v>
+        <v>1063</v>
+      </c>
+      <c r="B763" t="s">
+        <v>20</v>
       </c>
       <c r="C763" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D763" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="E763" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F763" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I763" s="1" t="s">
-        <v>1082</v>
+        <v>1066</v>
+      </c>
+      <c r="I763" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="764" spans="1:9">
       <c r="A764" t="s">
-        <v>1078</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="B764" s="2"/>
       <c r="C764" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D764" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="E764" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F764" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I764" s="1" t="s">
-        <v>236</v>
+        <v>1066</v>
+      </c>
+      <c r="I764" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="765" spans="1:9">
@@ -17759,60 +17753,56 @@
         <v>1079</v>
       </c>
       <c r="D765" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E765" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F765" t="s">
         <v>1081</v>
       </c>
       <c r="I765" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="766" spans="1:9">
       <c r="A766" t="s">
         <v>1078</v>
       </c>
-      <c r="B766" s="2"/>
       <c r="C766" t="s">
         <v>1079</v>
       </c>
       <c r="D766" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E766" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F766" t="s">
         <v>1081</v>
       </c>
       <c r="I766" s="1" t="s">
-        <v>1087</v>
+        <v>236</v>
       </c>
     </row>
     <row r="767" spans="1:9">
       <c r="A767" t="s">
         <v>1078</v>
       </c>
-      <c r="B767" t="s">
-        <v>20</v>
-      </c>
       <c r="C767" t="s">
         <v>1079</v>
       </c>
       <c r="D767" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E767" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F767" t="s">
         <v>1081</v>
       </c>
-      <c r="I767" t="s">
-        <v>858</v>
+      <c r="I767" s="1" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="768" spans="1:9">
@@ -17824,70 +17814,74 @@
         <v>1079</v>
       </c>
       <c r="D768" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E768" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F768" t="s">
         <v>1081</v>
       </c>
       <c r="I768" s="1" t="s">
-        <v>1040</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="769" spans="1:9">
       <c r="A769" t="s">
         <v>1078</v>
       </c>
-      <c r="G769" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H769" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I769" s="1" t="s">
-        <v>1092</v>
+      <c r="B769" t="s">
+        <v>20</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D769" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I769" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="770" spans="1:9">
       <c r="A770" t="s">
-        <v>1093</v>
-      </c>
+        <v>1078</v>
+      </c>
+      <c r="B770" s="2"/>
       <c r="C770" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D770" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E770" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F770" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I770" t="s">
-        <v>35</v>
+        <v>1081</v>
+      </c>
+      <c r="I770" s="1" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="771" spans="1:9">
       <c r="A771" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C771" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D771" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E771" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F771" t="s">
-        <v>1096</v>
+        <v>1078</v>
+      </c>
+      <c r="G771" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H771" t="s">
+        <v>1091</v>
       </c>
       <c r="I771" s="1" t="s">
-        <v>335</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="772" spans="1:9">
@@ -17898,60 +17892,56 @@
         <v>1094</v>
       </c>
       <c r="D772" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E772" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F772" t="s">
         <v>1096</v>
       </c>
       <c r="I772" t="s">
-        <v>352</v>
+        <v>35</v>
       </c>
     </row>
     <row r="773" spans="1:9">
       <c r="A773" t="s">
         <v>1093</v>
       </c>
-      <c r="B773" s="2"/>
       <c r="C773" t="s">
         <v>1094</v>
       </c>
       <c r="D773" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E773" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F773" t="s">
         <v>1096</v>
       </c>
-      <c r="I773" t="s">
-        <v>419</v>
+      <c r="I773" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="774" spans="1:9">
       <c r="A774" t="s">
         <v>1093</v>
       </c>
-      <c r="B774" t="s">
-        <v>20</v>
-      </c>
       <c r="C774" t="s">
         <v>1094</v>
       </c>
       <c r="D774" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E774" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F774" t="s">
         <v>1096</v>
       </c>
       <c r="I774" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
     </row>
     <row r="775" spans="1:9">
@@ -17963,56 +17953,60 @@
         <v>1094</v>
       </c>
       <c r="D775" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E775" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F775" t="s">
         <v>1096</v>
       </c>
       <c r="I775" t="s">
-        <v>1019</v>
+        <v>419</v>
       </c>
     </row>
     <row r="776" spans="1:9">
       <c r="A776" t="s">
-        <v>1102</v>
+        <v>1093</v>
+      </c>
+      <c r="B776" t="s">
+        <v>20</v>
       </c>
       <c r="C776" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D776" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="E776" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F776" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="I776" t="s">
-        <v>35</v>
+        <v>422</v>
       </c>
     </row>
     <row r="777" spans="1:9">
       <c r="A777" t="s">
-        <v>1102</v>
-      </c>
+        <v>1093</v>
+      </c>
+      <c r="B777" s="2"/>
       <c r="C777" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D777" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="E777" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F777" t="s">
-        <v>1103</v>
-      </c>
-      <c r="I777" s="1" t="s">
-        <v>139</v>
+        <v>1096</v>
+      </c>
+      <c r="I777" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="778" spans="1:9">
@@ -18023,60 +18017,56 @@
         <v>1079</v>
       </c>
       <c r="D778" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E778" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F778" t="s">
         <v>1103</v>
       </c>
       <c r="I778" t="s">
-        <v>352</v>
+        <v>35</v>
       </c>
     </row>
     <row r="779" spans="1:9">
       <c r="A779" t="s">
         <v>1102</v>
       </c>
-      <c r="B779" s="2"/>
       <c r="C779" t="s">
         <v>1079</v>
       </c>
       <c r="D779" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E779" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F779" t="s">
         <v>1103</v>
       </c>
-      <c r="I779" t="s">
-        <v>427</v>
+      <c r="I779" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="780" spans="1:9">
       <c r="A780" t="s">
         <v>1102</v>
       </c>
-      <c r="B780" t="s">
-        <v>20</v>
-      </c>
       <c r="C780" t="s">
         <v>1079</v>
       </c>
       <c r="D780" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E780" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F780" t="s">
         <v>1103</v>
       </c>
       <c r="I780" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
     </row>
     <row r="781" spans="1:9">
@@ -18088,56 +18078,60 @@
         <v>1079</v>
       </c>
       <c r="D781" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E781" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F781" t="s">
         <v>1103</v>
       </c>
       <c r="I781" t="s">
-        <v>1019</v>
+        <v>427</v>
       </c>
     </row>
     <row r="782" spans="1:9">
       <c r="A782" t="s">
-        <v>1104</v>
+        <v>1102</v>
+      </c>
+      <c r="B782" t="s">
+        <v>20</v>
       </c>
       <c r="C782" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D782" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E782" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F782" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I782" s="1" t="s">
-        <v>23</v>
+        <v>1103</v>
+      </c>
+      <c r="I782" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="783" spans="1:9">
       <c r="A783" t="s">
-        <v>1104</v>
-      </c>
+        <v>1102</v>
+      </c>
+      <c r="B783" s="2"/>
       <c r="C783" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="D783" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="E783" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F783" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I783" s="1" t="s">
-        <v>223</v>
+        <v>1103</v>
+      </c>
+      <c r="I783" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="784" spans="1:9">
@@ -18148,16 +18142,16 @@
         <v>1094</v>
       </c>
       <c r="D784" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E784" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F784" t="s">
         <v>1105</v>
       </c>
       <c r="I784" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="785" spans="1:9">
@@ -18168,57 +18162,56 @@
         <v>1094</v>
       </c>
       <c r="D785" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E785" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F785" t="s">
         <v>1105</v>
       </c>
       <c r="I785" s="1" t="s">
-        <v>526</v>
+        <v>223</v>
       </c>
     </row>
     <row r="786" spans="1:9">
       <c r="A786" t="s">
         <v>1104</v>
       </c>
-      <c r="B786" s="2"/>
       <c r="C786" t="s">
         <v>1094</v>
       </c>
+      <c r="D786" t="s">
+        <v>1098</v>
+      </c>
       <c r="E786" t="s">
-        <v>1106</v>
+        <v>345</v>
       </c>
       <c r="F786" t="s">
         <v>1105</v>
       </c>
-      <c r="I786" t="s">
-        <v>1107</v>
+      <c r="I786" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="787" spans="1:9">
       <c r="A787" t="s">
         <v>1104</v>
       </c>
-      <c r="B787" t="s">
-        <v>20</v>
-      </c>
       <c r="C787" t="s">
         <v>1094</v>
       </c>
       <c r="D787" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E787" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F787" t="s">
         <v>1105</v>
       </c>
-      <c r="I787" t="s">
-        <v>783</v>
+      <c r="I787" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="788" spans="1:9">
@@ -18229,57 +18222,58 @@
       <c r="C788" t="s">
         <v>1094</v>
       </c>
-      <c r="D788" t="s">
-        <v>1101</v>
-      </c>
       <c r="E788" t="s">
-        <v>1076</v>
+        <v>1106</v>
       </c>
       <c r="F788" t="s">
         <v>1105</v>
       </c>
-      <c r="I788" s="1" t="s">
-        <v>1027</v>
+      <c r="I788" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="789" spans="1:9">
       <c r="A789" t="s">
-        <v>1108</v>
+        <v>1104</v>
+      </c>
+      <c r="B789" t="s">
+        <v>20</v>
       </c>
       <c r="C789" t="s">
         <v>1094</v>
       </c>
       <c r="D789" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="E789" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F789" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I789" s="1" t="s">
-        <v>23</v>
+        <v>1105</v>
+      </c>
+      <c r="I789" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="790" spans="1:9">
       <c r="A790" t="s">
-        <v>1108</v>
-      </c>
+        <v>1104</v>
+      </c>
+      <c r="B790" s="2"/>
       <c r="C790" t="s">
         <v>1094</v>
       </c>
       <c r="D790" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="E790" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F790" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="I790" s="1" t="s">
-        <v>234</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="791" spans="1:9">
@@ -18290,80 +18284,79 @@
         <v>1094</v>
       </c>
       <c r="D791" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E791" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F791" t="s">
         <v>1109</v>
       </c>
       <c r="I791" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="792" spans="1:9">
       <c r="A792" t="s">
         <v>1108</v>
       </c>
-      <c r="B792" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C792" t="s">
         <v>1094</v>
       </c>
       <c r="D792" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E792" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F792" t="s">
         <v>1109</v>
       </c>
       <c r="I792" s="1" t="s">
-        <v>1110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="793" spans="1:9">
       <c r="A793" t="s">
         <v>1108</v>
       </c>
-      <c r="B793" s="2"/>
       <c r="C793" t="s">
         <v>1094</v>
       </c>
+      <c r="D793" t="s">
+        <v>1098</v>
+      </c>
       <c r="E793" t="s">
-        <v>1106</v>
+        <v>345</v>
       </c>
       <c r="F793" t="s">
         <v>1109</v>
       </c>
-      <c r="I793" t="s">
-        <v>1107</v>
+      <c r="I793" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="794" spans="1:9">
       <c r="A794" t="s">
         <v>1108</v>
       </c>
-      <c r="B794" t="s">
+      <c r="B794" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C794" t="s">
         <v>1094</v>
       </c>
       <c r="D794" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E794" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F794" t="s">
         <v>1109</v>
       </c>
-      <c r="I794" t="s">
-        <v>1111</v>
+      <c r="I794" s="1" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="795" spans="1:9">
@@ -18374,57 +18367,58 @@
       <c r="C795" t="s">
         <v>1094</v>
       </c>
-      <c r="D795" t="s">
-        <v>1101</v>
-      </c>
       <c r="E795" t="s">
-        <v>1076</v>
+        <v>1106</v>
       </c>
       <c r="F795" t="s">
         <v>1109</v>
       </c>
-      <c r="I795" s="1" t="s">
-        <v>1027</v>
+      <c r="I795" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="796" spans="1:9">
       <c r="A796" t="s">
-        <v>1112</v>
+        <v>1108</v>
+      </c>
+      <c r="B796" t="s">
+        <v>20</v>
       </c>
       <c r="C796" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D796" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="E796" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F796" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I796" s="1" t="s">
-        <v>23</v>
+        <v>1109</v>
+      </c>
+      <c r="I796" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="797" spans="1:9">
       <c r="A797" t="s">
-        <v>1112</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="B797" s="2"/>
       <c r="C797" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D797" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="E797" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F797" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="I797" s="1" t="s">
-        <v>223</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="798" spans="1:9">
@@ -18435,16 +18429,16 @@
         <v>1079</v>
       </c>
       <c r="D798" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E798" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F798" t="s">
         <v>1113</v>
       </c>
       <c r="I798" s="1" t="s">
-        <v>376</v>
+        <v>23</v>
       </c>
     </row>
     <row r="799" spans="1:9">
@@ -18455,16 +18449,16 @@
         <v>1079</v>
       </c>
       <c r="D799" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E799" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F799" t="s">
         <v>1113</v>
       </c>
       <c r="I799" s="1" t="s">
-        <v>526</v>
+        <v>223</v>
       </c>
     </row>
     <row r="800" spans="1:9">
@@ -18475,16 +18469,16 @@
         <v>1079</v>
       </c>
       <c r="D800" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E800" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F800" t="s">
         <v>1113</v>
       </c>
-      <c r="I800" t="s">
-        <v>783</v>
+      <c r="I800" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="801" spans="1:9">
@@ -18495,70 +18489,70 @@
         <v>1079</v>
       </c>
       <c r="D801" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E801" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F801" t="s">
         <v>1113</v>
       </c>
       <c r="I801" s="1" t="s">
-        <v>1027</v>
+        <v>526</v>
       </c>
     </row>
     <row r="802" spans="1:9">
       <c r="A802" t="s">
         <v>1112</v>
       </c>
-      <c r="G802" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H802" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I802" s="1" t="s">
-        <v>1114</v>
+      <c r="C802" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I802" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="803" spans="1:9">
       <c r="A803" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C803" t="s">
         <v>1079</v>
       </c>
       <c r="D803" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="E803" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F803" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="I803" s="1" t="s">
-        <v>23</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="804" spans="1:9">
       <c r="A804" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C804" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D804" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E804" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F804" t="s">
-        <v>1116</v>
+        <v>1112</v>
+      </c>
+      <c r="G804" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H804" t="s">
+        <v>1091</v>
       </c>
       <c r="I804" s="1" t="s">
-        <v>223</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="805" spans="1:9">
@@ -18569,60 +18563,56 @@
         <v>1079</v>
       </c>
       <c r="D805" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E805" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F805" t="s">
         <v>1116</v>
       </c>
       <c r="I805" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="806" spans="1:9">
       <c r="A806" t="s">
         <v>1115</v>
       </c>
-      <c r="B806" s="2"/>
       <c r="C806" t="s">
         <v>1079</v>
       </c>
       <c r="D806" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E806" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F806" t="s">
         <v>1116</v>
       </c>
       <c r="I806" s="1" t="s">
-        <v>517</v>
+        <v>223</v>
       </c>
     </row>
     <row r="807" spans="1:9">
       <c r="A807" t="s">
         <v>1115</v>
       </c>
-      <c r="B807" t="s">
-        <v>20</v>
-      </c>
       <c r="C807" t="s">
         <v>1079</v>
       </c>
       <c r="D807" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E807" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F807" t="s">
         <v>1116</v>
       </c>
-      <c r="I807" t="s">
-        <v>783</v>
+      <c r="I807" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="808" spans="1:9">
@@ -18634,87 +18624,91 @@
         <v>1079</v>
       </c>
       <c r="D808" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E808" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F808" t="s">
         <v>1116</v>
       </c>
       <c r="I808" s="1" t="s">
-        <v>1027</v>
+        <v>517</v>
       </c>
     </row>
     <row r="809" spans="1:9">
       <c r="A809" t="s">
         <v>1115</v>
       </c>
+      <c r="B809" t="s">
+        <v>20</v>
+      </c>
       <c r="C809" t="s">
-        <v>1117</v>
+        <v>1079</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1088</v>
       </c>
       <c r="E809" t="s">
-        <v>463</v>
+        <v>1074</v>
       </c>
       <c r="F809" t="s">
         <v>1116</v>
       </c>
-      <c r="I809" s="1" t="s">
-        <v>1118</v>
+      <c r="I809" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="810" spans="1:9">
       <c r="A810" t="s">
         <v>1115</v>
       </c>
-      <c r="G810" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H810" t="s">
-        <v>1091</v>
+      <c r="B810" s="2"/>
+      <c r="C810" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F810" t="s">
+        <v>1116</v>
       </c>
       <c r="I810" s="1" t="s">
-        <v>1119</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="811" spans="1:9">
       <c r="A811" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C811" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D811" t="s">
-        <v>1095</v>
+        <v>1117</v>
       </c>
       <c r="E811" t="s">
-        <v>1065</v>
+        <v>463</v>
       </c>
       <c r="F811" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="I811" s="1" t="s">
-        <v>23</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="812" spans="1:9">
       <c r="A812" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C812" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D812" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E812" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F812" t="s">
-        <v>1121</v>
+        <v>1115</v>
+      </c>
+      <c r="G812" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H812" t="s">
+        <v>1091</v>
       </c>
       <c r="I812" s="1" t="s">
-        <v>234</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="813" spans="1:9">
@@ -18725,39 +18719,36 @@
         <v>1094</v>
       </c>
       <c r="D813" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E813" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F813" t="s">
         <v>1121</v>
       </c>
       <c r="I813" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="814" spans="1:9">
       <c r="A814" t="s">
         <v>1120</v>
       </c>
-      <c r="B814" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C814" t="s">
         <v>1094</v>
       </c>
       <c r="D814" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E814" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F814" t="s">
         <v>1121</v>
       </c>
       <c r="I814" s="1" t="s">
-        <v>1122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="815" spans="1:9">
@@ -18767,98 +18758,101 @@
       <c r="C815" t="s">
         <v>1094</v>
       </c>
+      <c r="D815" t="s">
+        <v>1098</v>
+      </c>
       <c r="E815" t="s">
-        <v>1106</v>
+        <v>345</v>
       </c>
       <c r="F815" t="s">
         <v>1121</v>
       </c>
-      <c r="I815" t="s">
-        <v>1107</v>
+      <c r="I815" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="816" spans="1:9">
       <c r="A816" t="s">
         <v>1120</v>
       </c>
-      <c r="B816" t="s">
+      <c r="B816" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C816" t="s">
         <v>1094</v>
       </c>
       <c r="D816" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E816" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F816" t="s">
         <v>1121</v>
       </c>
-      <c r="I816" t="s">
-        <v>887</v>
+      <c r="I816" s="1" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="817" spans="1:9">
       <c r="A817" t="s">
         <v>1120</v>
       </c>
-      <c r="B817" s="2"/>
       <c r="C817" t="s">
         <v>1094</v>
       </c>
-      <c r="D817" t="s">
-        <v>1101</v>
-      </c>
       <c r="E817" t="s">
-        <v>1076</v>
+        <v>1106</v>
       </c>
       <c r="F817" t="s">
         <v>1121</v>
       </c>
-      <c r="I817" s="1" t="s">
-        <v>1123</v>
+      <c r="I817" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="818" spans="1:9">
       <c r="A818" t="s">
-        <v>1124</v>
+        <v>1120</v>
+      </c>
+      <c r="B818" t="s">
+        <v>20</v>
       </c>
       <c r="C818" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D818" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="E818" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F818" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I818" s="1" t="s">
-        <v>75</v>
+        <v>1121</v>
+      </c>
+      <c r="I818" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="819" spans="1:9">
       <c r="A819" t="s">
-        <v>1124</v>
-      </c>
+        <v>1120</v>
+      </c>
+      <c r="B819" s="2"/>
       <c r="C819" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="D819" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="E819" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F819" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>225</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="820" spans="1:9">
@@ -18869,60 +18863,56 @@
         <v>1079</v>
       </c>
       <c r="D820" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E820" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F820" t="s">
         <v>1125</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>371</v>
+        <v>75</v>
       </c>
     </row>
     <row r="821" spans="1:9">
       <c r="A821" t="s">
         <v>1124</v>
       </c>
-      <c r="B821" s="2"/>
       <c r="C821" t="s">
         <v>1079</v>
       </c>
       <c r="D821" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E821" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F821" t="s">
         <v>1125</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>518</v>
+        <v>225</v>
       </c>
     </row>
     <row r="822" spans="1:9">
       <c r="A822" t="s">
         <v>1124</v>
       </c>
-      <c r="B822" t="s">
-        <v>20</v>
-      </c>
       <c r="C822" t="s">
         <v>1079</v>
       </c>
       <c r="D822" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E822" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F822" t="s">
         <v>1125</v>
       </c>
-      <c r="I822" t="s">
-        <v>783</v>
+      <c r="I822" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="823" spans="1:9">
@@ -18934,70 +18924,74 @@
         <v>1079</v>
       </c>
       <c r="D823" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E823" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F823" t="s">
         <v>1125</v>
       </c>
       <c r="I823" s="1" t="s">
-        <v>1027</v>
+        <v>518</v>
       </c>
     </row>
     <row r="824" spans="1:9">
       <c r="A824" t="s">
         <v>1124</v>
       </c>
-      <c r="G824" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H824" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I824" s="1" t="s">
-        <v>1126</v>
+      <c r="B824" t="s">
+        <v>20</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I824" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="825" spans="1:9">
       <c r="A825" t="s">
-        <v>1127</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="B825" s="2"/>
       <c r="C825" t="s">
         <v>1079</v>
       </c>
       <c r="D825" t="s">
-        <v>1080</v>
+        <v>1089</v>
       </c>
       <c r="E825" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F825" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I825" s="1" t="s">
-        <v>23</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="826" spans="1:9">
       <c r="A826" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C826" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D826" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E826" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F826" t="s">
-        <v>1128</v>
+        <v>1124</v>
+      </c>
+      <c r="G826" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H826" t="s">
+        <v>1091</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>240</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="827" spans="1:9">
@@ -19008,16 +19002,16 @@
         <v>1079</v>
       </c>
       <c r="D827" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E827" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F827" t="s">
         <v>1128</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
       </c>
     </row>
     <row r="828" spans="1:9">
@@ -19028,16 +19022,16 @@
         <v>1079</v>
       </c>
       <c r="D828" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E828" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F828" t="s">
         <v>1128</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>526</v>
+        <v>240</v>
       </c>
     </row>
     <row r="829" spans="1:9">
@@ -19048,16 +19042,16 @@
         <v>1079</v>
       </c>
       <c r="D829" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E829" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F829" t="s">
         <v>1128</v>
       </c>
-      <c r="I829" t="s">
-        <v>783</v>
+      <c r="I829" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="830" spans="1:9">
@@ -19068,70 +19062,70 @@
         <v>1079</v>
       </c>
       <c r="D830" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="E830" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F830" t="s">
         <v>1128</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>1027</v>
+        <v>526</v>
       </c>
     </row>
     <row r="831" spans="1:9">
       <c r="A831" t="s">
         <v>1127</v>
       </c>
-      <c r="G831" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H831" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I831" s="1" t="s">
-        <v>1129</v>
+      <c r="C831" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I831" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="832" spans="1:9">
       <c r="A832" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C832" t="s">
-        <v>1131</v>
+        <v>1079</v>
       </c>
       <c r="D832" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E832" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F832" t="s">
-        <v>1132</v>
-      </c>
-      <c r="I832" t="s">
-        <v>35</v>
+        <v>1128</v>
+      </c>
+      <c r="I832" s="1" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="833" spans="1:9">
       <c r="A833" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C833" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D833" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E833" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F833" t="s">
-        <v>1132</v>
+        <v>1127</v>
+      </c>
+      <c r="G833" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H833" t="s">
+        <v>1091</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>153</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="834" spans="1:9">
@@ -19142,60 +19136,56 @@
         <v>1131</v>
       </c>
       <c r="D834" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E834" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F834" t="s">
         <v>1132</v>
       </c>
       <c r="I834" t="s">
-        <v>358</v>
+        <v>35</v>
       </c>
     </row>
     <row r="835" spans="1:9">
       <c r="A835" t="s">
         <v>1130</v>
       </c>
-      <c r="B835" s="2"/>
       <c r="C835" t="s">
         <v>1131</v>
       </c>
       <c r="D835" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E835" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F835" t="s">
         <v>1132</v>
       </c>
-      <c r="I835" t="s">
-        <v>434</v>
+      <c r="I835" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="836" spans="1:9">
       <c r="A836" t="s">
         <v>1130</v>
       </c>
-      <c r="B836" t="s">
-        <v>20</v>
-      </c>
       <c r="C836" t="s">
         <v>1131</v>
       </c>
       <c r="D836" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E836" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F836" t="s">
         <v>1132</v>
       </c>
       <c r="I836" t="s">
-        <v>436</v>
+        <v>358</v>
       </c>
     </row>
     <row r="837" spans="1:9">
@@ -19207,50 +19197,60 @@
         <v>1131</v>
       </c>
       <c r="D837" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E837" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F837" t="s">
         <v>1132</v>
       </c>
       <c r="I837" t="s">
-        <v>1133</v>
+        <v>434</v>
       </c>
     </row>
     <row r="838" spans="1:9">
       <c r="A838" t="s">
         <v>1130</v>
       </c>
+      <c r="B838" t="s">
+        <v>20</v>
+      </c>
       <c r="C838" t="s">
-        <v>1134</v>
+        <v>1131</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1100</v>
       </c>
       <c r="E838" t="s">
-        <v>1065</v>
+        <v>1074</v>
       </c>
       <c r="F838" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="I838" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
     </row>
     <row r="839" spans="1:9">
       <c r="A839" t="s">
         <v>1130</v>
       </c>
+      <c r="B839" s="2"/>
       <c r="C839" t="s">
-        <v>1136</v>
+        <v>1131</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1101</v>
       </c>
       <c r="E839" t="s">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="F839" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I839" s="1" t="s">
-        <v>304</v>
+        <v>1132</v>
+      </c>
+      <c r="I839" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="840" spans="1:9">
@@ -19258,54 +19258,50 @@
         <v>1130</v>
       </c>
       <c r="C840" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="E840" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F840" t="s">
         <v>1135</v>
       </c>
       <c r="I840" t="s">
-        <v>1138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="841" spans="1:9">
       <c r="A841" t="s">
         <v>1130</v>
       </c>
-      <c r="B841" s="2"/>
       <c r="C841" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="E841" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F841" t="s">
         <v>1135</v>
       </c>
-      <c r="I841" t="s">
-        <v>432</v>
+      <c r="I841" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="842" spans="1:9">
       <c r="A842" t="s">
         <v>1130</v>
       </c>
-      <c r="B842" t="s">
-        <v>20</v>
-      </c>
       <c r="C842" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="E842" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F842" t="s">
         <v>1135</v>
       </c>
       <c r="I842" t="s">
-        <v>422</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="843" spans="1:9">
@@ -19314,50 +19310,54 @@
       </c>
       <c r="B843" s="2"/>
       <c r="C843" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E843" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="F843" t="s">
         <v>1135</v>
       </c>
       <c r="I843" t="s">
-        <v>1077</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9">
+      <c r="A844" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B844" t="s">
+        <v>20</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F844" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I844" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="845" spans="1:9">
       <c r="A845" t="s">
-        <v>1142</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="B845" s="2"/>
       <c r="C845" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E845" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F845" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="I845" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="846" spans="1:9">
-      <c r="A846" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C846" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E846" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F846" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I846" s="1" t="s">
-        <v>335</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="847" spans="1:9">
@@ -19365,16 +19365,16 @@
         <v>1142</v>
       </c>
       <c r="C847" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E847" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F847" t="s">
         <v>1144</v>
       </c>
       <c r="I847" t="s">
-        <v>1147</v>
+        <v>35</v>
       </c>
     </row>
     <row r="848" spans="1:9">
@@ -19382,56 +19382,50 @@
         <v>1142</v>
       </c>
       <c r="C848" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="E848" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F848" t="s">
         <v>1144</v>
       </c>
-      <c r="I848" t="s">
-        <v>434</v>
+      <c r="I848" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="849" spans="1:9">
       <c r="A849" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C849" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D849" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E849" t="s">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="F849" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="I849" t="s">
-        <v>35</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="850" spans="1:9">
       <c r="A850" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="C850" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D850" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="E850" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="F850" t="s">
-        <v>1152</v>
-      </c>
-      <c r="I850" s="1" t="s">
-        <v>1154</v>
+        <v>1144</v>
+      </c>
+      <c r="I850" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="851" spans="1:9">
@@ -19442,16 +19436,16 @@
         <v>1150</v>
       </c>
       <c r="D851" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E851" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F851" t="s">
         <v>1152</v>
       </c>
       <c r="I851" t="s">
-        <v>1138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="852" spans="1:9">
@@ -19462,56 +19456,56 @@
         <v>1150</v>
       </c>
       <c r="D852" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E852" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F852" t="s">
         <v>1152</v>
       </c>
-      <c r="I852" t="s">
-        <v>462</v>
+      <c r="I852" s="1" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="853" spans="1:9">
       <c r="A853" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="C853" t="s">
         <v>1150</v>
       </c>
       <c r="D853" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="E853" t="s">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="F853" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I853" s="1" t="s">
-        <v>92</v>
+        <v>1152</v>
+      </c>
+      <c r="I853" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="854" spans="1:9">
       <c r="A854" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="C854" t="s">
         <v>1150</v>
       </c>
       <c r="D854" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="E854" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="F854" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I854" s="1" t="s">
-        <v>203</v>
+        <v>1152</v>
+      </c>
+      <c r="I854" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="855" spans="1:9">
@@ -19522,16 +19516,16 @@
         <v>1150</v>
       </c>
       <c r="D855" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E855" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F855" t="s">
         <v>1158</v>
       </c>
       <c r="I855" s="1" t="s">
-        <v>1159</v>
+        <v>92</v>
       </c>
     </row>
     <row r="856" spans="1:9">
@@ -19542,56 +19536,56 @@
         <v>1150</v>
       </c>
       <c r="D856" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E856" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F856" t="s">
         <v>1158</v>
       </c>
       <c r="I856" s="1" t="s">
-        <v>571</v>
+        <v>203</v>
       </c>
     </row>
     <row r="857" spans="1:9">
       <c r="A857" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C857" t="s">
-        <v>1079</v>
+        <v>1150</v>
       </c>
       <c r="D857" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="E857" t="s">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="F857" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="I857" s="1" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="858" spans="1:9">
       <c r="A858" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C858" t="s">
-        <v>1079</v>
+        <v>1150</v>
       </c>
       <c r="D858" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="E858" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="F858" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="I858" s="1" t="s">
-        <v>1165</v>
+        <v>571</v>
       </c>
     </row>
     <row r="859" spans="1:9">
@@ -19602,16 +19596,16 @@
         <v>1079</v>
       </c>
       <c r="D859" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="E859" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F859" t="s">
         <v>1162</v>
       </c>
       <c r="I859" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="860" spans="1:9">
@@ -19622,70 +19616,70 @@
         <v>1079</v>
       </c>
       <c r="D860" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E860" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F860" t="s">
         <v>1162</v>
       </c>
       <c r="I860" s="1" t="s">
-        <v>534</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="861" spans="1:9">
       <c r="A861" t="s">
         <v>1160</v>
       </c>
-      <c r="G861" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H861" t="s">
-        <v>1169</v>
+      <c r="C861" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E861" t="s">
+        <v>345</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1162</v>
       </c>
       <c r="I861" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="862" spans="1:9">
       <c r="A862" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="C862" t="s">
         <v>1079</v>
       </c>
       <c r="D862" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="E862" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F862" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="I862" s="1" t="s">
-        <v>23</v>
+        <v>534</v>
       </c>
     </row>
     <row r="863" spans="1:9">
       <c r="A863" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C863" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D863" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E863" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F863" t="s">
-        <v>1172</v>
+        <v>1160</v>
+      </c>
+      <c r="G863" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H863" t="s">
+        <v>1169</v>
       </c>
       <c r="I863" s="1" t="s">
-        <v>225</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="864" spans="1:9">
@@ -19696,16 +19690,16 @@
         <v>1079</v>
       </c>
       <c r="D864" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="E864" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F864" t="s">
         <v>1172</v>
       </c>
       <c r="I864" s="1" t="s">
-        <v>1173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="865" spans="1:9">
@@ -19716,70 +19710,70 @@
         <v>1079</v>
       </c>
       <c r="D865" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E865" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F865" t="s">
         <v>1172</v>
       </c>
       <c r="I865" s="1" t="s">
-        <v>526</v>
+        <v>225</v>
       </c>
     </row>
     <row r="866" spans="1:9">
       <c r="A866" t="s">
         <v>1171</v>
       </c>
-      <c r="G866" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H866" t="s">
-        <v>1169</v>
+      <c r="C866" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E866" t="s">
+        <v>345</v>
+      </c>
+      <c r="F866" t="s">
+        <v>1172</v>
       </c>
       <c r="I866" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="867" spans="1:9">
       <c r="A867" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C867" t="s">
-        <v>1176</v>
+        <v>1079</v>
       </c>
       <c r="D867" t="s">
-        <v>1151</v>
+        <v>1168</v>
       </c>
       <c r="E867" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="F867" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I867" t="s">
-        <v>35</v>
+        <v>1172</v>
+      </c>
+      <c r="I867" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="868" spans="1:9">
       <c r="A868" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C868" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D868" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E868" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F868" t="s">
-        <v>1177</v>
+        <v>1171</v>
+      </c>
+      <c r="G868" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H868" t="s">
+        <v>1169</v>
       </c>
       <c r="I868" s="1" t="s">
-        <v>171</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="869" spans="1:9">
@@ -19790,16 +19784,16 @@
         <v>1176</v>
       </c>
       <c r="D869" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="E869" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F869" t="s">
         <v>1177</v>
       </c>
       <c r="I869" t="s">
-        <v>358</v>
+        <v>35</v>
       </c>
     </row>
     <row r="870" spans="1:9">
@@ -19810,16 +19804,16 @@
         <v>1176</v>
       </c>
       <c r="D870" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="E870" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F870" t="s">
         <v>1177</v>
       </c>
-      <c r="I870" t="s">
-        <v>412</v>
+      <c r="I870" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="871" spans="1:9">
@@ -19827,16 +19821,19 @@
         <v>1175</v>
       </c>
       <c r="C871" t="s">
-        <v>1178</v>
+        <v>1176</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1155</v>
       </c>
       <c r="E871" t="s">
-        <v>1065</v>
+        <v>345</v>
       </c>
       <c r="F871" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I871" t="s">
-        <v>1067</v>
+        <v>358</v>
       </c>
     </row>
     <row r="872" spans="1:9">
@@ -19844,16 +19841,19 @@
         <v>1175</v>
       </c>
       <c r="C872" t="s">
-        <v>1180</v>
+        <v>1176</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1156</v>
       </c>
       <c r="E872" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="F872" t="s">
-        <v>1179</v>
-      </c>
-      <c r="I872" s="1" t="s">
-        <v>139</v>
+        <v>1177</v>
+      </c>
+      <c r="I872" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="873" spans="1:9">
@@ -19861,16 +19861,16 @@
         <v>1175</v>
       </c>
       <c r="C873" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="E873" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F873" t="s">
         <v>1179</v>
       </c>
       <c r="I873" t="s">
-        <v>1182</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="874" spans="1:9">
@@ -19878,157 +19878,148 @@
         <v>1175</v>
       </c>
       <c r="C874" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E874" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F874" t="s">
         <v>1179</v>
       </c>
-      <c r="I874" t="s">
+      <c r="I874" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9">
+      <c r="A875" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E875" t="s">
+        <v>345</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I875" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9">
+      <c r="A876" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C876" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I876" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="875" spans="1:9" s="2" customFormat="1"/>
-    <row r="876" spans="1:9" s="2" customFormat="1">
-      <c r="A876" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C876" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E876" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F876" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I876" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="877" spans="1:9" s="2" customFormat="1">
-      <c r="A877" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B877" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C877" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E877" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F877" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I877" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
+    <row r="877" spans="1:9" s="2" customFormat="1"/>
     <row r="878" spans="1:9" s="2" customFormat="1">
       <c r="A878" s="2" t="s">
         <v>1407</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E878" s="2" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F878" s="2" t="s">
         <v>1412</v>
       </c>
       <c r="I878" s="2" t="s">
-        <v>985</v>
+        <v>434</v>
       </c>
     </row>
     <row r="879" spans="1:9" s="2" customFormat="1">
       <c r="A879" s="2" t="s">
         <v>1407</v>
       </c>
+      <c r="B879" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C879" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D879" s="2" t="s">
-        <v>1198</v>
+        <v>1409</v>
       </c>
       <c r="E879" s="2" t="s">
-        <v>1199</v>
+        <v>1074</v>
       </c>
       <c r="F879" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="I879" s="3" t="s">
-        <v>1200</v>
+      <c r="I879" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="880" spans="1:9" s="2" customFormat="1">
       <c r="A880" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="B880" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C880" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="D880" s="2" t="s">
-        <v>1198</v>
+        <v>1410</v>
       </c>
       <c r="E880" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F880" s="2" t="s">
         <v>1412</v>
       </c>
       <c r="I880" s="2" t="s">
-        <v>1202</v>
+        <v>985</v>
       </c>
     </row>
     <row r="881" spans="1:9" s="2" customFormat="1">
       <c r="A881" s="2" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>1415</v>
+        <v>1198</v>
       </c>
       <c r="E881" s="2" t="s">
-        <v>1072</v>
+        <v>1199</v>
       </c>
       <c r="F881" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I881" s="2" t="s">
-        <v>462</v>
+        <v>1412</v>
+      </c>
+      <c r="I881" s="3" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="882" spans="1:9" s="2" customFormat="1">
       <c r="A882" s="2" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="B882" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C882" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D882" s="2" t="s">
-        <v>1416</v>
+        <v>1198</v>
       </c>
       <c r="E882" s="2" t="s">
-        <v>1074</v>
+        <v>1201</v>
       </c>
       <c r="F882" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="I882" s="2" t="s">
-        <v>436</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="883" spans="1:9" s="2" customFormat="1">
@@ -20039,87 +20030,84 @@
         <v>1414</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E883" s="2" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F883" s="2" t="s">
         <v>1418</v>
       </c>
       <c r="I883" s="2" t="s">
-        <v>985</v>
+        <v>462</v>
       </c>
     </row>
     <row r="884" spans="1:9" s="2" customFormat="1">
       <c r="A884" s="2" t="s">
         <v>1413</v>
       </c>
+      <c r="B884" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C884" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D884" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E884" s="2" t="s">
-        <v>1199</v>
+        <v>1074</v>
       </c>
       <c r="F884" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="I884" s="3" t="s">
-        <v>1200</v>
+      <c r="I884" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="885" spans="1:9" s="2" customFormat="1">
       <c r="A885" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="B885" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C885" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D885" s="2" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="E885" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F885" s="2" t="s">
         <v>1418</v>
       </c>
       <c r="I885" s="2" t="s">
-        <v>1202</v>
+        <v>985</v>
       </c>
     </row>
     <row r="886" spans="1:9" s="2" customFormat="1">
       <c r="A886" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B886" s="2" t="s">
-        <v>20</v>
+        <v>1413</v>
       </c>
       <c r="C886" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D886" s="2" t="s">
-        <v>1415</v>
+        <v>1430</v>
       </c>
       <c r="E886" s="2" t="s">
-        <v>1072</v>
+        <v>1199</v>
       </c>
       <c r="F886" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I886" s="3" t="s">
-        <v>571</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="887" spans="1:9" s="2" customFormat="1">
       <c r="A887" s="2" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="B887" s="2" t="s">
         <v>20</v>
@@ -20128,107 +20116,107 @@
         <v>1414</v>
       </c>
       <c r="D887" s="2" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="E887" s="2" t="s">
-        <v>1074</v>
+        <v>1201</v>
       </c>
       <c r="F887" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I887" s="2" t="s">
-        <v>857</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="888" spans="1:9" s="2" customFormat="1">
       <c r="A888" s="2" t="s">
         <v>1419</v>
       </c>
+      <c r="B888" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C888" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D888" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E888" s="2" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F888" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I888" s="2" t="s">
-        <v>989</v>
+      <c r="I888" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="889" spans="1:9" s="2" customFormat="1">
       <c r="A889" s="2" t="s">
         <v>1419</v>
       </c>
+      <c r="B889" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C889" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D889" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E889" s="2" t="s">
-        <v>1199</v>
+        <v>1074</v>
       </c>
       <c r="F889" s="2" t="s">
         <v>1420</v>
       </c>
-      <c r="I889" s="3" t="s">
-        <v>1258</v>
+      <c r="I889" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="890" spans="1:9" s="2" customFormat="1">
       <c r="A890" s="2" t="s">
         <v>1419</v>
       </c>
-      <c r="B890" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C890" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D890" s="2" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="E890" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F890" s="2" t="s">
         <v>1420</v>
       </c>
       <c r="I890" s="2" t="s">
-        <v>1233</v>
+        <v>989</v>
       </c>
     </row>
     <row r="891" spans="1:9" s="2" customFormat="1">
       <c r="A891" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B891" s="2" t="s">
-        <v>20</v>
+        <v>1419</v>
       </c>
       <c r="C891" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D891" s="2" t="s">
-        <v>1415</v>
+        <v>1430</v>
       </c>
       <c r="E891" s="2" t="s">
-        <v>1072</v>
+        <v>1199</v>
       </c>
       <c r="F891" s="2" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="I891" s="3" t="s">
-        <v>571</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="892" spans="1:9" s="2" customFormat="1">
       <c r="A892" s="2" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="B892" s="2" t="s">
         <v>20</v>
@@ -20237,122 +20225,125 @@
         <v>1414</v>
       </c>
       <c r="D892" s="2" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="E892" s="2" t="s">
-        <v>1074</v>
+        <v>1201</v>
       </c>
       <c r="F892" s="2" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="I892" s="2" t="s">
-        <v>857</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="893" spans="1:9" s="2" customFormat="1">
       <c r="A893" s="2" t="s">
         <v>1428</v>
       </c>
+      <c r="B893" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C893" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D893" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E893" s="2" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F893" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="I893" s="2" t="s">
-        <v>989</v>
+      <c r="I893" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="894" spans="1:9" s="2" customFormat="1">
       <c r="A894" s="2" t="s">
         <v>1428</v>
       </c>
+      <c r="B894" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C894" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D894" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>1199</v>
+        <v>1074</v>
       </c>
       <c r="F894" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="I894" s="3" t="s">
-        <v>1258</v>
+      <c r="I894" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="895" spans="1:9" s="2" customFormat="1">
       <c r="A895" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="B895" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C895" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F895" s="2" t="s">
         <v>1429</v>
       </c>
       <c r="I895" s="2" t="s">
-        <v>1233</v>
+        <v>989</v>
       </c>
     </row>
     <row r="896" spans="1:9" s="2" customFormat="1">
       <c r="A896" s="2" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1079</v>
+        <v>1414</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="E896" s="2" t="s">
-        <v>1072</v>
+        <v>1199</v>
       </c>
       <c r="F896" s="2" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="I896" s="3" t="s">
-        <v>534</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="897" spans="1:9" s="2" customFormat="1">
       <c r="A897" s="2" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="B897" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>1079</v>
+        <v>1414</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="E897" s="2" t="s">
-        <v>1074</v>
+        <v>1201</v>
       </c>
       <c r="F897" s="2" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="I897" s="2" t="s">
-        <v>836</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="898" spans="1:9" s="2" customFormat="1">
@@ -20363,102 +20354,102 @@
         <v>1079</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E898" s="2" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F898" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="I898" s="2" t="s">
-        <v>989</v>
+      <c r="I898" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="899" spans="1:9" s="2" customFormat="1">
       <c r="A899" s="2" t="s">
         <v>1424</v>
       </c>
+      <c r="B899" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C899" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1198</v>
+        <v>1422</v>
       </c>
       <c r="E899" s="2" t="s">
-        <v>1199</v>
+        <v>1074</v>
       </c>
       <c r="F899" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="I899" s="3" t="s">
-        <v>1258</v>
+      <c r="I899" s="2" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="900" spans="1:9" s="2" customFormat="1">
       <c r="A900" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="B900" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C900" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1198</v>
+        <v>1423</v>
       </c>
       <c r="E900" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F900" s="2" t="s">
         <v>1425</v>
       </c>
       <c r="I900" s="2" t="s">
-        <v>1233</v>
+        <v>989</v>
       </c>
     </row>
     <row r="901" spans="1:9" s="2" customFormat="1">
       <c r="A901" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1079</v>
+        <v>1117</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1421</v>
+        <v>1198</v>
       </c>
       <c r="E901" s="2" t="s">
-        <v>1072</v>
+        <v>1199</v>
       </c>
       <c r="F901" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I901" s="3" t="s">
-        <v>534</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="2" customFormat="1">
       <c r="A902" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B902" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1079</v>
+        <v>1117</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1422</v>
+        <v>1198</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>1074</v>
+        <v>1201</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I902" s="2" t="s">
-        <v>836</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="2" customFormat="1">
@@ -20469,102 +20460,102 @@
         <v>1079</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F903" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="I903" s="2" t="s">
-        <v>989</v>
+      <c r="I903" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="2" customFormat="1">
       <c r="A904" s="2" t="s">
         <v>1426</v>
       </c>
+      <c r="B904" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C904" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1198</v>
+        <v>1422</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1199</v>
+        <v>1074</v>
       </c>
       <c r="F904" s="2" t="s">
         <v>1427</v>
       </c>
-      <c r="I904" s="3" t="s">
-        <v>1258</v>
+      <c r="I904" s="2" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="2" customFormat="1">
       <c r="A905" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="B905" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C905" s="2" t="s">
-        <v>1117</v>
+        <v>1079</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1198</v>
+        <v>1423</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F905" s="2" t="s">
         <v>1427</v>
       </c>
       <c r="I905" s="2" t="s">
-        <v>1233</v>
+        <v>989</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="2" customFormat="1">
       <c r="A906" s="2" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="C906" s="2" t="s">
-        <v>1433</v>
+        <v>1117</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1415</v>
+        <v>1198</v>
       </c>
       <c r="E906" s="2" t="s">
-        <v>1072</v>
+        <v>1199</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="I906" s="2" t="s">
-        <v>462</v>
+        <v>1427</v>
+      </c>
+      <c r="I906" s="3" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="2" customFormat="1">
       <c r="A907" s="2" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
       <c r="B907" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C907" s="2" t="s">
-        <v>1433</v>
+        <v>1117</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1416</v>
+        <v>1198</v>
       </c>
       <c r="E907" s="2" t="s">
-        <v>1074</v>
+        <v>1201</v>
       </c>
       <c r="F907" s="2" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="I907" s="2" t="s">
-        <v>436</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="2" customFormat="1">
@@ -20575,93 +20566,102 @@
         <v>1433</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>1195</v>
+        <v>1072</v>
       </c>
       <c r="F908" s="2" t="s">
         <v>1432</v>
       </c>
       <c r="I908" s="2" t="s">
-        <v>985</v>
+        <v>462</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="2" customFormat="1">
       <c r="A909" s="2" t="s">
         <v>1431</v>
       </c>
+      <c r="B909" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C909" s="2" t="s">
         <v>1433</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>1199</v>
+        <v>1074</v>
       </c>
       <c r="F909" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="I909" s="3" t="s">
-        <v>1200</v>
+      <c r="I909" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="2" customFormat="1">
       <c r="A910" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="B910" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C910" s="2" t="s">
         <v>1433</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1430</v>
+        <v>1417</v>
       </c>
       <c r="E910" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F910" s="2" t="s">
         <v>1432</v>
       </c>
       <c r="I910" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" s="2" customFormat="1">
+      <c r="A911" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C911" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E911" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F911" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I911" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" s="2" customFormat="1">
+      <c r="A912" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C912" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E912" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I912" s="2" t="s">
         <v>1202</v>
-      </c>
-    </row>
-    <row r="912" spans="1:9">
-      <c r="A912" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C912" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E912" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F912" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I912" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="913" spans="1:9">
-      <c r="A913" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C913" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E913" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F913" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I913" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="914" spans="1:9">
@@ -20669,110 +20669,107 @@
         <v>1184</v>
       </c>
       <c r="C914" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E914" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F914" t="s">
         <v>1186</v>
       </c>
       <c r="I914" t="s">
-        <v>352</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="915" spans="1:9">
       <c r="A915" t="s">
         <v>1184</v>
       </c>
-      <c r="B915" t="s">
-        <v>20</v>
-      </c>
       <c r="C915" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E915" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F915" t="s">
         <v>1186</v>
       </c>
-      <c r="I915" t="s">
-        <v>432</v>
+      <c r="I915" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="916" spans="1:9">
       <c r="A916" t="s">
         <v>1184</v>
       </c>
-      <c r="B916" t="s">
-        <v>20</v>
-      </c>
       <c r="C916" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E916" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F916" t="s">
         <v>1186</v>
       </c>
       <c r="I916" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
     </row>
     <row r="917" spans="1:9">
       <c r="A917" t="s">
         <v>1184</v>
       </c>
+      <c r="B917" t="s">
+        <v>20</v>
+      </c>
       <c r="C917" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E917" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F917" t="s">
         <v>1186</v>
       </c>
       <c r="I917" t="s">
-        <v>957</v>
+        <v>432</v>
       </c>
     </row>
     <row r="918" spans="1:9">
       <c r="A918" t="s">
         <v>1184</v>
       </c>
+      <c r="B918" t="s">
+        <v>20</v>
+      </c>
       <c r="C918" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="E918" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F918" t="s">
         <v>1186</v>
       </c>
       <c r="I918" t="s">
-        <v>985</v>
+        <v>436</v>
       </c>
     </row>
     <row r="919" spans="1:9">
       <c r="A919" t="s">
         <v>1184</v>
       </c>
-      <c r="B919" t="s">
-        <v>20</v>
-      </c>
       <c r="C919" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E919" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F919" t="s">
         <v>1186</v>
       </c>
       <c r="I919" t="s">
-        <v>1019</v>
+        <v>957</v>
       </c>
     </row>
     <row r="920" spans="1:9">
@@ -20780,19 +20777,16 @@
         <v>1184</v>
       </c>
       <c r="C920" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D920" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E920" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F920" t="s">
         <v>1186</v>
       </c>
       <c r="I920" t="s">
-        <v>1200</v>
+        <v>985</v>
       </c>
     </row>
     <row r="921" spans="1:9">
@@ -20803,59 +20797,59 @@
         <v>20</v>
       </c>
       <c r="C921" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D921" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E921" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F921" t="s">
         <v>1186</v>
       </c>
       <c r="I921" t="s">
-        <v>1202</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="922" spans="1:9">
       <c r="A922" t="s">
-        <v>1203</v>
+        <v>1184</v>
       </c>
       <c r="C922" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D922" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="E922" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="F922" t="s">
-        <v>1206</v>
+        <v>1186</v>
       </c>
       <c r="I922" t="s">
-        <v>1187</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="923" spans="1:9">
       <c r="A923" t="s">
-        <v>1203</v>
+        <v>1184</v>
+      </c>
+      <c r="B923" t="s">
+        <v>20</v>
       </c>
       <c r="C923" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D923" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="E923" t="s">
-        <v>1069</v>
+        <v>1201</v>
       </c>
       <c r="F923" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I923" s="1" t="s">
-        <v>153</v>
+        <v>1186</v>
+      </c>
+      <c r="I923" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="924" spans="1:9">
@@ -20866,125 +20860,122 @@
         <v>1204</v>
       </c>
       <c r="D924" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E924" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F924" t="s">
         <v>1206</v>
       </c>
       <c r="I924" t="s">
-        <v>1182</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="925" spans="1:9">
       <c r="A925" t="s">
         <v>1203</v>
       </c>
-      <c r="B925" t="s">
-        <v>20</v>
-      </c>
       <c r="C925" t="s">
         <v>1204</v>
       </c>
       <c r="D925" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E925" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F925" t="s">
         <v>1206</v>
       </c>
-      <c r="I925" t="s">
-        <v>419</v>
+      <c r="I925" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="926" spans="1:9">
       <c r="A926" t="s">
         <v>1203</v>
       </c>
-      <c r="B926" t="s">
-        <v>20</v>
-      </c>
       <c r="C926" t="s">
         <v>1204</v>
       </c>
       <c r="D926" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E926" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F926" t="s">
         <v>1206</v>
       </c>
       <c r="I926" t="s">
-        <v>703</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="927" spans="1:9">
       <c r="A927" t="s">
         <v>1203</v>
       </c>
+      <c r="B927" t="s">
+        <v>20</v>
+      </c>
       <c r="C927" t="s">
         <v>1204</v>
       </c>
       <c r="D927" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E927" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F927" t="s">
         <v>1206</v>
       </c>
       <c r="I927" t="s">
-        <v>957</v>
+        <v>419</v>
       </c>
     </row>
     <row r="928" spans="1:9">
       <c r="A928" t="s">
         <v>1203</v>
       </c>
+      <c r="B928" t="s">
+        <v>20</v>
+      </c>
       <c r="C928" t="s">
         <v>1204</v>
       </c>
       <c r="D928" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E928" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F928" t="s">
         <v>1206</v>
       </c>
       <c r="I928" t="s">
-        <v>985</v>
+        <v>703</v>
       </c>
     </row>
     <row r="929" spans="1:9">
       <c r="A929" t="s">
         <v>1203</v>
       </c>
-      <c r="B929" t="s">
-        <v>20</v>
-      </c>
       <c r="C929" t="s">
         <v>1204</v>
       </c>
       <c r="D929" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E929" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F929" t="s">
         <v>1206</v>
       </c>
       <c r="I929" t="s">
-        <v>1077</v>
+        <v>957</v>
       </c>
     </row>
     <row r="930" spans="1:9">
@@ -20995,16 +20986,16 @@
         <v>1204</v>
       </c>
       <c r="D930" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E930" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F930" t="s">
         <v>1206</v>
       </c>
       <c r="I930" t="s">
-        <v>1200</v>
+        <v>985</v>
       </c>
     </row>
     <row r="931" spans="1:9">
@@ -21018,73 +21009,76 @@
         <v>1204</v>
       </c>
       <c r="D931" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E931" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F931" t="s">
         <v>1206</v>
       </c>
       <c r="I931" t="s">
-        <v>1202</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="932" spans="1:9">
       <c r="A932" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B932" t="s">
-        <v>20</v>
+        <v>1203</v>
       </c>
       <c r="C932" t="s">
-        <v>252</v>
+        <v>1204</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1214</v>
       </c>
       <c r="E932" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I932" s="1" t="s">
-        <v>1216</v>
+        <v>1199</v>
+      </c>
+      <c r="F932" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I932" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="933" spans="1:9">
       <c r="A933" t="s">
-        <v>1217</v>
+        <v>1203</v>
+      </c>
+      <c r="B933" t="s">
+        <v>20</v>
       </c>
       <c r="C933" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D933" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E933" t="s">
-        <v>1065</v>
+        <v>1201</v>
       </c>
       <c r="F933" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I933" s="1" t="s">
-        <v>1082</v>
+        <v>1206</v>
+      </c>
+      <c r="I933" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="934" spans="1:9">
       <c r="A934" t="s">
-        <v>1217</v>
+        <v>1215</v>
+      </c>
+      <c r="B934" t="s">
+        <v>20</v>
       </c>
       <c r="C934" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D934" t="s">
-        <v>1220</v>
+        <v>252</v>
       </c>
       <c r="E934" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F934" t="s">
-        <v>1219</v>
+        <v>1072</v>
       </c>
       <c r="I934" s="1" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="935" spans="1:9">
@@ -21095,125 +21089,122 @@
         <v>1079</v>
       </c>
       <c r="D935" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E935" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F935" t="s">
         <v>1219</v>
       </c>
       <c r="I935" s="1" t="s">
-        <v>1223</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="936" spans="1:9">
       <c r="A936" t="s">
         <v>1217</v>
       </c>
-      <c r="B936" t="s">
-        <v>20</v>
-      </c>
       <c r="C936" t="s">
         <v>1079</v>
       </c>
       <c r="D936" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E936" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F936" t="s">
         <v>1219</v>
       </c>
       <c r="I936" s="1" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="937" spans="1:9">
       <c r="A937" t="s">
         <v>1217</v>
       </c>
-      <c r="B937" t="s">
-        <v>20</v>
-      </c>
       <c r="C937" t="s">
         <v>1079</v>
       </c>
       <c r="D937" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E937" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F937" t="s">
         <v>1219</v>
       </c>
-      <c r="I937" t="s">
-        <v>850</v>
+      <c r="I937" s="1" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="938" spans="1:9">
       <c r="A938" t="s">
         <v>1217</v>
       </c>
+      <c r="B938" t="s">
+        <v>20</v>
+      </c>
       <c r="C938" t="s">
         <v>1079</v>
       </c>
       <c r="D938" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E938" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F938" t="s">
         <v>1219</v>
       </c>
-      <c r="I938" t="s">
-        <v>957</v>
+      <c r="I938" s="1" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="939" spans="1:9">
       <c r="A939" t="s">
         <v>1217</v>
       </c>
+      <c r="B939" t="s">
+        <v>20</v>
+      </c>
       <c r="C939" t="s">
         <v>1079</v>
       </c>
       <c r="D939" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E939" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F939" t="s">
         <v>1219</v>
       </c>
       <c r="I939" t="s">
-        <v>995</v>
+        <v>850</v>
       </c>
     </row>
     <row r="940" spans="1:9">
       <c r="A940" t="s">
         <v>1217</v>
       </c>
-      <c r="B940" t="s">
-        <v>20</v>
-      </c>
       <c r="C940" t="s">
         <v>1079</v>
       </c>
       <c r="D940" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E940" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F940" t="s">
         <v>1219</v>
       </c>
-      <c r="I940" s="1" t="s">
-        <v>1230</v>
+      <c r="I940" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="941" spans="1:9">
@@ -21224,16 +21215,16 @@
         <v>1079</v>
       </c>
       <c r="D941" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E941" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F941" t="s">
         <v>1219</v>
       </c>
-      <c r="I941" s="1" t="s">
-        <v>1232</v>
+      <c r="I941" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="942" spans="1:9">
@@ -21247,116 +21238,119 @@
         <v>1079</v>
       </c>
       <c r="D942" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E942" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F942" t="s">
         <v>1219</v>
       </c>
-      <c r="I942" t="s">
-        <v>1233</v>
+      <c r="I942" s="1" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="943" spans="1:9">
       <c r="A943" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B943" t="s">
-        <v>20</v>
+        <v>1217</v>
       </c>
       <c r="C943" t="s">
-        <v>1235</v>
+        <v>1079</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1231</v>
       </c>
       <c r="E943" t="s">
-        <v>960</v>
-      </c>
-      <c r="I943" t="s">
-        <v>957</v>
+        <v>1199</v>
+      </c>
+      <c r="F943" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I943" s="1" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="944" spans="1:9">
       <c r="A944" t="s">
-        <v>1236</v>
+        <v>1217</v>
+      </c>
+      <c r="B944" t="s">
+        <v>20</v>
       </c>
       <c r="C944" t="s">
-        <v>1237</v>
+        <v>1079</v>
       </c>
       <c r="D944" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="E944" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F944" t="s">
-        <v>1239</v>
-      </c>
-      <c r="I944" s="1" t="s">
-        <v>1240</v>
+        <v>1219</v>
+      </c>
+      <c r="I944" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="945" spans="1:9">
       <c r="A945" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B945" t="s">
         <v>20</v>
       </c>
       <c r="C945" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D945" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E945" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F945" t="s">
-        <v>1239</v>
+        <v>960</v>
       </c>
       <c r="I945" t="s">
-        <v>1233</v>
+        <v>957</v>
       </c>
     </row>
     <row r="946" spans="1:9">
       <c r="A946" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C946" t="s">
-        <v>1079</v>
+        <v>1237</v>
       </c>
       <c r="D946" t="s">
-        <v>1218</v>
+        <v>1238</v>
       </c>
       <c r="E946" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="F946" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="I946" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="947" spans="1:9">
       <c r="A947" t="s">
-        <v>1241</v>
+        <v>1236</v>
+      </c>
+      <c r="B947" t="s">
+        <v>20</v>
       </c>
       <c r="C947" t="s">
-        <v>1079</v>
+        <v>1237</v>
       </c>
       <c r="D947" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
       <c r="E947" t="s">
-        <v>1069</v>
+        <v>1201</v>
       </c>
       <c r="F947" t="s">
-        <v>1242</v>
-      </c>
-      <c r="I947" s="1" t="s">
-        <v>1244</v>
+        <v>1239</v>
+      </c>
+      <c r="I947" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="948" spans="1:9">
@@ -21367,125 +21361,122 @@
         <v>1079</v>
       </c>
       <c r="D948" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E948" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F948" t="s">
         <v>1242</v>
       </c>
       <c r="I948" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="949" spans="1:9">
       <c r="A949" t="s">
         <v>1241</v>
       </c>
-      <c r="B949" t="s">
-        <v>20</v>
-      </c>
       <c r="C949" t="s">
         <v>1079</v>
       </c>
       <c r="D949" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E949" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F949" t="s">
         <v>1242</v>
       </c>
       <c r="I949" s="1" t="s">
-        <v>542</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="950" spans="1:9">
       <c r="A950" t="s">
         <v>1241</v>
       </c>
-      <c r="B950" t="s">
-        <v>20</v>
-      </c>
       <c r="C950" t="s">
         <v>1079</v>
       </c>
       <c r="D950" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E950" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F950" t="s">
         <v>1242</v>
       </c>
-      <c r="I950" t="s">
-        <v>836</v>
+      <c r="I950" s="1" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="951" spans="1:9">
       <c r="A951" t="s">
         <v>1241</v>
       </c>
+      <c r="B951" t="s">
+        <v>20</v>
+      </c>
       <c r="C951" t="s">
         <v>1079</v>
       </c>
       <c r="D951" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E951" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F951" t="s">
         <v>1242</v>
       </c>
-      <c r="I951" t="s">
-        <v>957</v>
+      <c r="I951" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="952" spans="1:9">
       <c r="A952" t="s">
         <v>1241</v>
       </c>
+      <c r="B952" t="s">
+        <v>20</v>
+      </c>
       <c r="C952" t="s">
         <v>1079</v>
       </c>
       <c r="D952" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E952" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F952" t="s">
         <v>1242</v>
       </c>
       <c r="I952" t="s">
-        <v>989</v>
+        <v>836</v>
       </c>
     </row>
     <row r="953" spans="1:9">
       <c r="A953" t="s">
         <v>1241</v>
       </c>
-      <c r="B953" t="s">
-        <v>20</v>
-      </c>
       <c r="C953" t="s">
         <v>1079</v>
       </c>
       <c r="D953" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E953" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F953" t="s">
         <v>1242</v>
       </c>
-      <c r="I953" s="1" t="s">
-        <v>1230</v>
+      <c r="I953" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="954" spans="1:9">
@@ -21496,16 +21487,16 @@
         <v>1079</v>
       </c>
       <c r="D954" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E954" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F954" t="s">
         <v>1242</v>
       </c>
-      <c r="I954" s="1" t="s">
-        <v>1246</v>
+      <c r="I954" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="955" spans="1:9">
@@ -21519,56 +21510,59 @@
         <v>1079</v>
       </c>
       <c r="D955" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E955" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F955" t="s">
         <v>1242</v>
       </c>
-      <c r="I955" t="s">
-        <v>1247</v>
+      <c r="I955" s="1" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="956" spans="1:9">
       <c r="A956" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="C956" t="s">
         <v>1079</v>
       </c>
       <c r="D956" t="s">
-        <v>1218</v>
+        <v>1231</v>
       </c>
       <c r="E956" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="F956" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>90</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="957" spans="1:9">
       <c r="A957" t="s">
-        <v>1248</v>
+        <v>1241</v>
+      </c>
+      <c r="B957" t="s">
+        <v>20</v>
       </c>
       <c r="C957" t="s">
         <v>1079</v>
       </c>
       <c r="D957" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="E957" t="s">
-        <v>1069</v>
+        <v>1201</v>
       </c>
       <c r="F957" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I957" s="1" t="s">
-        <v>1250</v>
+        <v>1242</v>
+      </c>
+      <c r="I957" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="958" spans="1:9">
@@ -21579,16 +21573,16 @@
         <v>1079</v>
       </c>
       <c r="D958" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E958" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F958" t="s">
         <v>1249</v>
       </c>
       <c r="I958" s="1" t="s">
-        <v>1251</v>
+        <v>90</v>
       </c>
     </row>
     <row r="959" spans="1:9">
@@ -21599,16 +21593,16 @@
         <v>1079</v>
       </c>
       <c r="D959" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E959" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F959" t="s">
         <v>1249</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>583</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="960" spans="1:9">
@@ -21619,16 +21613,16 @@
         <v>1079</v>
       </c>
       <c r="D960" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E960" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F960" t="s">
         <v>1249</v>
       </c>
-      <c r="I960" t="s">
-        <v>836</v>
+      <c r="I960" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="961" spans="1:9">
@@ -21639,16 +21633,16 @@
         <v>1079</v>
       </c>
       <c r="D961" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E961" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F961" t="s">
         <v>1249</v>
       </c>
-      <c r="I961" t="s">
-        <v>957</v>
+      <c r="I961" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="962" spans="1:9">
@@ -21659,16 +21653,16 @@
         <v>1079</v>
       </c>
       <c r="D962" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E962" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F962" t="s">
         <v>1249</v>
       </c>
       <c r="I962" t="s">
-        <v>989</v>
+        <v>836</v>
       </c>
     </row>
     <row r="963" spans="1:9">
@@ -21679,16 +21673,16 @@
         <v>1079</v>
       </c>
       <c r="D963" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E963" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F963" t="s">
         <v>1249</v>
       </c>
-      <c r="I963" s="1" t="s">
-        <v>1252</v>
+      <c r="I963" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="964" spans="1:9">
@@ -21699,56 +21693,56 @@
         <v>1079</v>
       </c>
       <c r="D964" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E964" t="s">
-        <v>1253</v>
+        <v>1195</v>
       </c>
       <c r="F964" t="s">
         <v>1249</v>
       </c>
-      <c r="I964" s="1" t="s">
-        <v>1254</v>
+      <c r="I964" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="965" spans="1:9">
       <c r="A965" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C965" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="D965" t="s">
-        <v>1205</v>
+        <v>1229</v>
       </c>
       <c r="E965" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="F965" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>92</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="966" spans="1:9">
       <c r="A966" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="C966" t="s">
-        <v>1204</v>
+        <v>1079</v>
       </c>
       <c r="D966" t="s">
-        <v>1207</v>
+        <v>1231</v>
       </c>
       <c r="E966" t="s">
-        <v>1069</v>
+        <v>1253</v>
       </c>
       <c r="F966" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>270</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="967" spans="1:9">
@@ -21759,125 +21753,122 @@
         <v>1204</v>
       </c>
       <c r="D967" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E967" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F967" t="s">
         <v>1256</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>1257</v>
+        <v>92</v>
       </c>
     </row>
     <row r="968" spans="1:9">
       <c r="A968" t="s">
         <v>1255</v>
       </c>
-      <c r="B968" t="s">
-        <v>20</v>
-      </c>
       <c r="C968" t="s">
         <v>1204</v>
       </c>
       <c r="D968" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E968" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F968" t="s">
         <v>1256</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>606</v>
+        <v>270</v>
       </c>
     </row>
     <row r="969" spans="1:9">
       <c r="A969" t="s">
         <v>1255</v>
       </c>
-      <c r="B969" t="s">
-        <v>20</v>
-      </c>
       <c r="C969" t="s">
         <v>1204</v>
       </c>
       <c r="D969" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E969" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F969" t="s">
         <v>1256</v>
       </c>
-      <c r="I969" t="s">
-        <v>857</v>
+      <c r="I969" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="970" spans="1:9">
       <c r="A970" t="s">
         <v>1255</v>
       </c>
+      <c r="B970" t="s">
+        <v>20</v>
+      </c>
       <c r="C970" t="s">
         <v>1204</v>
       </c>
       <c r="D970" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E970" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F970" t="s">
         <v>1256</v>
       </c>
-      <c r="I970" t="s">
-        <v>957</v>
+      <c r="I970" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="971" spans="1:9">
       <c r="A971" t="s">
         <v>1255</v>
       </c>
+      <c r="B971" t="s">
+        <v>20</v>
+      </c>
       <c r="C971" t="s">
         <v>1204</v>
       </c>
       <c r="D971" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E971" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F971" t="s">
         <v>1256</v>
       </c>
       <c r="I971" t="s">
-        <v>989</v>
+        <v>857</v>
       </c>
     </row>
     <row r="972" spans="1:9">
       <c r="A972" t="s">
         <v>1255</v>
       </c>
-      <c r="B972" t="s">
-        <v>20</v>
-      </c>
       <c r="C972" t="s">
         <v>1204</v>
       </c>
       <c r="D972" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E972" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F972" t="s">
         <v>1256</v>
       </c>
-      <c r="I972" s="1" t="s">
-        <v>1123</v>
+      <c r="I972" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="973" spans="1:9">
@@ -21888,16 +21879,16 @@
         <v>1204</v>
       </c>
       <c r="D973" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E973" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F973" t="s">
         <v>1256</v>
       </c>
-      <c r="I973" s="1" t="s">
-        <v>1258</v>
+      <c r="I973" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="974" spans="1:9">
@@ -21911,56 +21902,59 @@
         <v>1204</v>
       </c>
       <c r="D974" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E974" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F974" t="s">
         <v>1256</v>
       </c>
-      <c r="I974" t="s">
-        <v>1233</v>
+      <c r="I974" s="1" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="975" spans="1:9">
       <c r="A975" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="C975" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D975" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E975" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="F975" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>23</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="976" spans="1:9">
       <c r="A976" t="s">
-        <v>1259</v>
+        <v>1255</v>
+      </c>
+      <c r="B976" t="s">
+        <v>20</v>
       </c>
       <c r="C976" t="s">
-        <v>1079</v>
+        <v>1204</v>
       </c>
       <c r="D976" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="E976" t="s">
-        <v>1069</v>
+        <v>1201</v>
       </c>
       <c r="F976" t="s">
-        <v>1260</v>
-      </c>
-      <c r="I976" s="1" t="s">
-        <v>1261</v>
+        <v>1256</v>
+      </c>
+      <c r="I976" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="977" spans="1:9">
@@ -21971,125 +21965,122 @@
         <v>1079</v>
       </c>
       <c r="D977" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E977" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F977" t="s">
         <v>1260</v>
       </c>
       <c r="I977" s="1" t="s">
-        <v>1262</v>
+        <v>23</v>
       </c>
     </row>
     <row r="978" spans="1:9">
       <c r="A978" t="s">
         <v>1259</v>
       </c>
-      <c r="B978" t="s">
-        <v>20</v>
-      </c>
       <c r="C978" t="s">
         <v>1079</v>
       </c>
       <c r="D978" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E978" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F978" t="s">
         <v>1260</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>549</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="979" spans="1:9">
       <c r="A979" t="s">
         <v>1259</v>
       </c>
-      <c r="B979" t="s">
-        <v>20</v>
-      </c>
       <c r="C979" t="s">
         <v>1079</v>
       </c>
       <c r="D979" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="E979" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F979" t="s">
         <v>1260</v>
       </c>
-      <c r="I979" t="s">
-        <v>836</v>
+      <c r="I979" s="1" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="980" spans="1:9">
       <c r="A980" t="s">
         <v>1259</v>
       </c>
+      <c r="B980" t="s">
+        <v>20</v>
+      </c>
       <c r="C980" t="s">
         <v>1079</v>
       </c>
       <c r="D980" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="E980" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F980" t="s">
         <v>1260</v>
       </c>
-      <c r="I980" t="s">
-        <v>957</v>
+      <c r="I980" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="981" spans="1:9">
       <c r="A981" t="s">
         <v>1259</v>
       </c>
+      <c r="B981" t="s">
+        <v>20</v>
+      </c>
       <c r="C981" t="s">
         <v>1079</v>
       </c>
       <c r="D981" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E981" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F981" t="s">
         <v>1260</v>
       </c>
       <c r="I981" t="s">
-        <v>989</v>
+        <v>836</v>
       </c>
     </row>
     <row r="982" spans="1:9">
       <c r="A982" t="s">
         <v>1259</v>
       </c>
-      <c r="B982" t="s">
-        <v>20</v>
-      </c>
       <c r="C982" t="s">
         <v>1079</v>
       </c>
       <c r="D982" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E982" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F982" t="s">
         <v>1260</v>
       </c>
-      <c r="I982" s="1" t="s">
-        <v>1252</v>
+      <c r="I982" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="983" spans="1:9">
@@ -22100,16 +22091,16 @@
         <v>1079</v>
       </c>
       <c r="D983" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E983" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F983" t="s">
         <v>1260</v>
       </c>
-      <c r="I983" s="1" t="s">
-        <v>1263</v>
+      <c r="I983" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="984" spans="1:9">
@@ -22123,202 +22114,202 @@
         <v>1079</v>
       </c>
       <c r="D984" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="E984" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F984" t="s">
         <v>1260</v>
       </c>
-      <c r="I984" t="s">
-        <v>1233</v>
+      <c r="I984" s="1" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="985" spans="1:9">
       <c r="A985" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B985" t="s">
-        <v>20</v>
+        <v>1259</v>
       </c>
       <c r="C985" t="s">
-        <v>1235</v>
+        <v>1079</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1231</v>
       </c>
       <c r="E985" t="s">
-        <v>960</v>
-      </c>
-      <c r="I985" t="s">
-        <v>967</v>
+        <v>1199</v>
+      </c>
+      <c r="F985" t="s">
+        <v>1260</v>
+      </c>
+      <c r="I985" s="1" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="986" spans="1:9">
       <c r="A986" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C986" s="2" t="s">
-        <v>1266</v>
+        <v>1259</v>
+      </c>
+      <c r="B986" t="s">
+        <v>20</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1079</v>
       </c>
       <c r="D986" t="s">
-        <v>1205</v>
+        <v>1231</v>
       </c>
       <c r="E986" t="s">
-        <v>1065</v>
+        <v>1201</v>
       </c>
       <c r="F986" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="I986" t="s">
-        <v>35</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="987" spans="1:9">
       <c r="A987" t="s">
-        <v>1265</v>
+        <v>1264</v>
+      </c>
+      <c r="B987" t="s">
+        <v>20</v>
       </c>
       <c r="C987" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D987" t="s">
-        <v>1207</v>
+        <v>1235</v>
       </c>
       <c r="E987" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F987" t="s">
-        <v>1267</v>
-      </c>
-      <c r="I987" s="1" t="s">
-        <v>139</v>
+        <v>960</v>
+      </c>
+      <c r="I987" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="988" spans="1:9">
       <c r="A988" t="s">
         <v>1265</v>
       </c>
-      <c r="C988" t="s">
+      <c r="C988" s="2" t="s">
         <v>1266</v>
       </c>
       <c r="D988" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="E988" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F988" t="s">
         <v>1267</v>
       </c>
       <c r="I988" t="s">
-        <v>1182</v>
+        <v>35</v>
       </c>
     </row>
     <row r="989" spans="1:9">
       <c r="A989" t="s">
         <v>1265</v>
       </c>
-      <c r="B989" t="s">
-        <v>20</v>
-      </c>
       <c r="C989" t="s">
         <v>1266</v>
       </c>
       <c r="D989" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E989" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F989" t="s">
         <v>1267</v>
       </c>
-      <c r="I989" t="s">
-        <v>412</v>
+      <c r="I989" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="990" spans="1:9">
       <c r="A990" t="s">
         <v>1265</v>
       </c>
-      <c r="B990" t="s">
-        <v>20</v>
-      </c>
       <c r="C990" t="s">
         <v>1266</v>
       </c>
       <c r="D990" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E990" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F990" t="s">
         <v>1267</v>
       </c>
       <c r="I990" t="s">
-        <v>422</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="991" spans="1:9">
       <c r="A991" t="s">
         <v>1265</v>
       </c>
+      <c r="B991" t="s">
+        <v>20</v>
+      </c>
       <c r="C991" t="s">
         <v>1266</v>
       </c>
       <c r="D991" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="E991" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F991" t="s">
         <v>1267</v>
       </c>
       <c r="I991" t="s">
-        <v>957</v>
+        <v>412</v>
       </c>
     </row>
     <row r="992" spans="1:9">
       <c r="A992" t="s">
         <v>1265</v>
       </c>
+      <c r="B992" t="s">
+        <v>20</v>
+      </c>
       <c r="C992" t="s">
         <v>1266</v>
       </c>
       <c r="D992" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E992" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F992" t="s">
         <v>1267</v>
       </c>
       <c r="I992" t="s">
-        <v>985</v>
+        <v>422</v>
       </c>
     </row>
     <row r="993" spans="1:9">
       <c r="A993" t="s">
         <v>1265</v>
       </c>
-      <c r="B993" t="s">
-        <v>20</v>
-      </c>
       <c r="C993" t="s">
         <v>1266</v>
       </c>
       <c r="D993" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E993" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F993" t="s">
         <v>1267</v>
       </c>
       <c r="I993" t="s">
-        <v>1019</v>
+        <v>957</v>
       </c>
     </row>
     <row r="994" spans="1:9">
@@ -22329,16 +22320,16 @@
         <v>1266</v>
       </c>
       <c r="D994" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E994" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F994" t="s">
         <v>1267</v>
       </c>
       <c r="I994" t="s">
-        <v>1200</v>
+        <v>985</v>
       </c>
     </row>
     <row r="995" spans="1:9">
@@ -22352,16 +22343,16 @@
         <v>1266</v>
       </c>
       <c r="D995" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E995" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F995" t="s">
         <v>1267</v>
       </c>
       <c r="I995" t="s">
-        <v>1202</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="996" spans="1:9">
@@ -22369,33 +22360,42 @@
         <v>1265</v>
       </c>
       <c r="C996" t="s">
-        <v>1268</v>
+        <v>1266</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1214</v>
       </c>
       <c r="E996" t="s">
-        <v>1065</v>
+        <v>1199</v>
       </c>
       <c r="F996" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I996" t="s">
-        <v>1067</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="997" spans="1:9">
       <c r="A997" t="s">
         <v>1265</v>
       </c>
+      <c r="B997" t="s">
+        <v>20</v>
+      </c>
       <c r="C997" t="s">
-        <v>1270</v>
+        <v>1266</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1214</v>
       </c>
       <c r="E997" t="s">
-        <v>1069</v>
+        <v>1201</v>
       </c>
       <c r="F997" t="s">
-        <v>1269</v>
-      </c>
-      <c r="I997" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
+      </c>
+      <c r="I997" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="998" spans="1:9">
@@ -22403,110 +22403,107 @@
         <v>1265</v>
       </c>
       <c r="C998" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E998" t="s">
-        <v>345</v>
+        <v>1065</v>
       </c>
       <c r="F998" t="s">
         <v>1269</v>
       </c>
       <c r="I998" t="s">
-        <v>352</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="999" spans="1:9">
       <c r="A999" t="s">
         <v>1265</v>
       </c>
-      <c r="B999" t="s">
-        <v>20</v>
-      </c>
       <c r="C999" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E999" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="F999" t="s">
         <v>1269</v>
       </c>
-      <c r="I999" t="s">
-        <v>419</v>
+      <c r="I999" s="1" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
       <c r="A1000" t="s">
         <v>1265</v>
       </c>
-      <c r="B1000" t="s">
-        <v>20</v>
-      </c>
       <c r="C1000" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E1000" t="s">
-        <v>1074</v>
+        <v>345</v>
       </c>
       <c r="F1000" t="s">
         <v>1269</v>
       </c>
       <c r="I1000" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1001" spans="1:9">
       <c r="A1001" t="s">
         <v>1265</v>
       </c>
+      <c r="B1001" t="s">
+        <v>20</v>
+      </c>
       <c r="C1001" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E1001" t="s">
-        <v>1193</v>
+        <v>1072</v>
       </c>
       <c r="F1001" t="s">
         <v>1269</v>
       </c>
       <c r="I1001" t="s">
-        <v>957</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1002" spans="1:9">
       <c r="A1002" t="s">
         <v>1265</v>
       </c>
+      <c r="B1002" t="s">
+        <v>20</v>
+      </c>
       <c r="C1002" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E1002" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="F1002" t="s">
         <v>1269</v>
       </c>
       <c r="I1002" t="s">
-        <v>985</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1003" spans="1:9">
       <c r="A1003" t="s">
         <v>1265</v>
       </c>
-      <c r="B1003" t="s">
-        <v>20</v>
-      </c>
       <c r="C1003" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E1003" t="s">
-        <v>1076</v>
+        <v>1193</v>
       </c>
       <c r="F1003" t="s">
         <v>1269</v>
       </c>
       <c r="I1003" t="s">
-        <v>1077</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1004" spans="1:9">
@@ -22514,19 +22511,16 @@
         <v>1265</v>
       </c>
       <c r="C1004" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D1004" t="s">
-        <v>1198</v>
+        <v>1276</v>
       </c>
       <c r="E1004" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="F1004" t="s">
         <v>1269</v>
       </c>
       <c r="I1004" t="s">
-        <v>1200</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1005" spans="1:9">
@@ -22537,73 +22531,73 @@
         <v>20</v>
       </c>
       <c r="C1005" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D1005" t="s">
-        <v>1198</v>
+        <v>1277</v>
       </c>
       <c r="E1005" t="s">
-        <v>1201</v>
+        <v>1076</v>
       </c>
       <c r="F1005" t="s">
         <v>1269</v>
       </c>
       <c r="I1005" t="s">
-        <v>1202</v>
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9">
+      <c r="A1006" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="1007" spans="1:9">
       <c r="A1007" t="s">
-        <v>1279</v>
+        <v>1265</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>20</v>
       </c>
       <c r="C1007" t="s">
-        <v>1280</v>
+        <v>1278</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1198</v>
       </c>
       <c r="E1007" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F1007" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="I1007" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:9">
-      <c r="A1008" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1008" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E1008" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F1008" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I1008" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="1009" spans="1:9">
       <c r="A1009" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C1009" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1009" t="s">
-        <v>1198</v>
+        <v>1280</v>
       </c>
       <c r="E1009" t="s">
         <v>1199</v>
       </c>
       <c r="F1009" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I1009" t="s">
         <v>1200</v>
@@ -22611,22 +22605,19 @@
     </row>
     <row r="1010" spans="1:9">
       <c r="A1010" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B1010" t="s">
         <v>20</v>
       </c>
       <c r="C1010" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>1198</v>
+        <v>1280</v>
       </c>
       <c r="E1010" t="s">
         <v>1201</v>
       </c>
       <c r="F1010" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I1010" t="s">
         <v>1202</v>
@@ -22634,35 +22625,50 @@
     </row>
     <row r="1011" spans="1:9">
       <c r="A1011" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C1011" t="s">
-        <v>1286</v>
+        <v>1283</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1198</v>
       </c>
       <c r="E1011" t="s">
-        <v>1287</v>
+        <v>1199</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1284</v>
       </c>
       <c r="I1011" t="s">
-        <v>1288</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1012" spans="1:9">
       <c r="A1012" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G1012" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1012" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1012" s="1" t="s">
-        <v>1291</v>
+        <v>1282</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I1012" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="1013" spans="1:9">
       <c r="A1013" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="C1013" t="s">
         <v>1286</v>
@@ -22671,40 +22677,40 @@
         <v>1287</v>
       </c>
       <c r="I1013" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1014" spans="1:9">
       <c r="A1014" t="s">
-        <v>1294</v>
-      </c>
-      <c r="C1014" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1014" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1014" t="s">
-        <v>1295</v>
+        <v>1285</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1014" s="1" t="s">
+        <v>1291</v>
       </c>
     </row>
     <row r="1015" spans="1:9">
       <c r="A1015" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G1015" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1015" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1015" s="1" t="s">
-        <v>90</v>
+        <v>1292</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1016" spans="1:9">
       <c r="A1016" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C1016" t="s">
         <v>1286</v>
@@ -22713,12 +22719,12 @@
         <v>1287</v>
       </c>
       <c r="I1016" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1017" spans="1:9">
       <c r="A1017" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G1017" t="s">
         <v>1289</v>
@@ -22727,15 +22733,12 @@
         <v>1290</v>
       </c>
       <c r="I1017" s="1" t="s">
-        <v>1032</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1018" spans="1:9">
       <c r="A1018" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B1018" t="s">
-        <v>20</v>
+        <v>1296</v>
       </c>
       <c r="C1018" t="s">
         <v>1286</v>
@@ -22744,29 +22747,29 @@
         <v>1287</v>
       </c>
       <c r="I1018" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1019" spans="1:9">
       <c r="A1019" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>20</v>
+        <v>1296</v>
       </c>
       <c r="G1019" t="s">
         <v>1289</v>
       </c>
       <c r="H1019" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I1019" t="s">
-        <v>1301</v>
+        <v>1290</v>
+      </c>
+      <c r="I1019" s="1" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="1020" spans="1:9">
       <c r="A1020" t="s">
-        <v>1302</v>
+        <v>1298</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>20</v>
       </c>
       <c r="C1020" t="s">
         <v>1286</v>
@@ -22775,26 +22778,29 @@
         <v>1287</v>
       </c>
       <c r="I1020" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1021" spans="1:9">
       <c r="A1021" t="s">
-        <v>1302</v>
+        <v>1298</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>20</v>
       </c>
       <c r="G1021" t="s">
         <v>1289</v>
       </c>
       <c r="H1021" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1021" s="1" t="s">
-        <v>1304</v>
+        <v>1300</v>
+      </c>
+      <c r="I1021" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="1022" spans="1:9">
       <c r="A1022" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C1022" t="s">
         <v>1286</v>
@@ -22803,12 +22809,12 @@
         <v>1287</v>
       </c>
       <c r="I1022" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1023" spans="1:9">
       <c r="A1023" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="G1023" t="s">
         <v>1289</v>
@@ -22817,12 +22823,12 @@
         <v>1290</v>
       </c>
       <c r="I1023" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1024" spans="1:9">
       <c r="A1024" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C1024" t="s">
         <v>1286</v>
@@ -22831,12 +22837,12 @@
         <v>1287</v>
       </c>
       <c r="I1024" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1025" spans="1:9">
       <c r="A1025" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="G1025" t="s">
         <v>1289</v>
@@ -22844,85 +22850,76 @@
       <c r="H1025" t="s">
         <v>1290</v>
       </c>
-      <c r="I1025" t="s">
-        <v>957</v>
+      <c r="I1025" s="1" t="s">
+        <v>1307</v>
       </c>
     </row>
     <row r="1026" spans="1:9">
       <c r="A1026" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C1026" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1026" t="s">
-        <v>1198</v>
+        <v>1286</v>
       </c>
       <c r="E1026" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1026" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I1026" s="1" t="s">
-        <v>1312</v>
+        <v>1287</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="1027" spans="1:9">
       <c r="A1027" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1027" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1027" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1027" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F1027" t="s">
-        <v>1311</v>
+        <v>1308</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>1290</v>
       </c>
       <c r="I1027" t="s">
-        <v>1233</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1028" spans="1:9">
       <c r="A1028" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C1028" t="s">
-        <v>1237</v>
+        <v>1283</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1198</v>
       </c>
       <c r="E1028" t="s">
         <v>1199</v>
       </c>
       <c r="F1028" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I1028" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1029" spans="1:9">
       <c r="A1029" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B1029" t="s">
         <v>20</v>
       </c>
       <c r="C1029" t="s">
-        <v>1237</v>
+        <v>1283</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1198</v>
       </c>
       <c r="E1029" t="s">
         <v>1201</v>
       </c>
       <c r="F1029" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I1029" t="s">
         <v>1233</v>
@@ -22930,7 +22927,7 @@
     </row>
     <row r="1030" spans="1:9">
       <c r="A1030" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C1030" t="s">
         <v>1237</v>
@@ -22939,7 +22936,7 @@
         <v>1199</v>
       </c>
       <c r="F1030" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I1030" s="1" t="s">
         <v>1315</v>
@@ -22947,7 +22944,7 @@
     </row>
     <row r="1031" spans="1:9">
       <c r="A1031" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B1031" t="s">
         <v>20</v>
@@ -22959,7 +22956,7 @@
         <v>1201</v>
       </c>
       <c r="F1031" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I1031" t="s">
         <v>1233</v>
@@ -22967,7 +22964,7 @@
     </row>
     <row r="1032" spans="1:9">
       <c r="A1032" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C1032" t="s">
         <v>1237</v>
@@ -22976,15 +22973,15 @@
         <v>1199</v>
       </c>
       <c r="F1032" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I1032" s="1" t="s">
-        <v>1232</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1033" spans="1:9">
       <c r="A1033" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B1033" t="s">
         <v>20</v>
@@ -22996,15 +22993,15 @@
         <v>1201</v>
       </c>
       <c r="F1033" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="I1033" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1034" spans="1:9">
       <c r="A1034" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C1034" t="s">
         <v>1237</v>
@@ -23013,15 +23010,15 @@
         <v>1199</v>
       </c>
       <c r="F1034" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I1034" s="1" t="s">
-        <v>1322</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1035" spans="1:9">
       <c r="A1035" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B1035" t="s">
         <v>20</v>
@@ -23033,123 +23030,132 @@
         <v>1201</v>
       </c>
       <c r="F1035" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="I1035" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1036" spans="1:9">
       <c r="A1036" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C1036" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1036" t="s">
-        <v>1198</v>
+        <v>1237</v>
       </c>
       <c r="E1036" t="s">
         <v>1199</v>
       </c>
       <c r="F1036" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I1036" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1037" spans="1:9">
       <c r="A1037" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B1037" t="s">
         <v>20</v>
       </c>
       <c r="C1037" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D1037" t="s">
-        <v>1198</v>
+        <v>1237</v>
       </c>
       <c r="E1037" t="s">
         <v>1201</v>
       </c>
       <c r="F1037" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I1037" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1038" spans="1:9">
       <c r="A1038" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C1038" t="s">
-        <v>1237</v>
+        <v>1283</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1198</v>
       </c>
       <c r="E1038" t="s">
         <v>1199</v>
       </c>
       <c r="F1038" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I1038" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="1039" spans="1:9">
       <c r="A1039" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B1039" t="s">
         <v>20</v>
       </c>
       <c r="C1039" t="s">
-        <v>1237</v>
+        <v>1283</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1198</v>
       </c>
       <c r="E1039" t="s">
         <v>1201</v>
       </c>
       <c r="F1039" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I1039" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1040" spans="1:9">
       <c r="A1040" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C1040" t="s">
-        <v>1286</v>
+        <v>1237</v>
       </c>
       <c r="E1040" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1040" t="s">
-        <v>1288</v>
+        <v>1199</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I1040" s="1" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
       <c r="A1041" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G1041" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1041" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1041" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I1041" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="1042" spans="1:9">
       <c r="A1042" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C1042" t="s">
         <v>1286</v>
@@ -23158,12 +23164,12 @@
         <v>1287</v>
       </c>
       <c r="I1042" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1043" spans="1:9">
       <c r="A1043" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G1043" t="s">
         <v>1289</v>
@@ -23172,74 +23178,71 @@
         <v>1290</v>
       </c>
       <c r="I1043" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9">
+      <c r="A1044" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9">
+      <c r="A1045" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1045" s="1" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" s="2" customFormat="1">
-      <c r="A1044" s="2" t="s">
+    <row r="1046" spans="1:9" s="2" customFormat="1">
+      <c r="A1046" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="C1044" s="2" t="s">
+      <c r="C1046" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="E1044" s="2" t="s">
+      <c r="E1046" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="I1044" s="2" t="s">
+      <c r="I1046" s="2" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" s="2" customFormat="1">
-      <c r="A1045" s="2" t="s">
+    <row r="1047" spans="1:9" s="2" customFormat="1">
+      <c r="A1047" s="2" t="s">
         <v>1446</v>
       </c>
-      <c r="G1045" s="2" t="s">
+      <c r="G1047" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="H1045" s="2" t="s">
+      <c r="H1047" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="I1045" s="3" t="s">
+      <c r="I1047" s="3" t="s">
         <v>1332</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:9">
-      <c r="A1046" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1046" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:9">
-      <c r="A1047" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B1047" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1047" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1047" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I1047" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="1048" spans="1:9">
       <c r="A1048" t="s">
-        <v>1334</v>
+        <v>1333</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>20</v>
       </c>
       <c r="C1048" t="s">
         <v>1286</v>
@@ -23248,29 +23251,32 @@
         <v>1287</v>
       </c>
       <c r="I1048" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1049" spans="1:9">
       <c r="A1049" t="s">
-        <v>1334</v>
+        <v>1333</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>20</v>
       </c>
       <c r="G1049" t="s">
         <v>1289</v>
       </c>
       <c r="H1049" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1049" s="1" t="s">
-        <v>1335</v>
+        <v>1300</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="1050" spans="1:9">
       <c r="A1050" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C1050" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E1050" t="s">
         <v>1287</v>
@@ -23281,7 +23287,7 @@
     </row>
     <row r="1051" spans="1:9">
       <c r="A1051" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G1051" t="s">
         <v>1289</v>
@@ -23290,40 +23296,40 @@
         <v>1290</v>
       </c>
       <c r="I1051" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="1052" spans="1:9">
       <c r="A1052" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C1052" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E1052" t="s">
         <v>1287</v>
       </c>
       <c r="I1052" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1053" spans="1:9">
       <c r="A1053" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E1053" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I1053" t="s">
-        <v>1293</v>
+        <v>1336</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I1053" s="1" t="s">
+        <v>1337</v>
       </c>
     </row>
     <row r="1054" spans="1:9">
       <c r="A1054" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C1054" t="s">
         <v>1286</v>
@@ -23332,29 +23338,29 @@
         <v>1287</v>
       </c>
       <c r="I1054" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1055" spans="1:9">
       <c r="A1055" t="s">
-        <v>1340</v>
-      </c>
-      <c r="G1055" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H1055" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1055" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I1055" t="s">
+        <v>1293</v>
       </c>
     </row>
     <row r="1056" spans="1:9">
       <c r="A1056" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C1056" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E1056" t="s">
         <v>1287</v>
@@ -23365,7 +23371,7 @@
     </row>
     <row r="1057" spans="1:9">
       <c r="A1057" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G1057" t="s">
         <v>1289</v>
@@ -23374,26 +23380,26 @@
         <v>1290</v>
       </c>
       <c r="I1057" s="1" t="s">
-        <v>81</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1058" spans="1:9">
       <c r="A1058" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C1058" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E1058" t="s">
         <v>1287</v>
       </c>
       <c r="I1058" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1059" spans="1:9">
       <c r="A1059" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G1059" t="s">
         <v>1289</v>
@@ -23402,15 +23408,15 @@
         <v>1290</v>
       </c>
       <c r="I1059" s="1" t="s">
-        <v>1344</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1060" spans="1:9">
       <c r="A1060" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C1060" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E1060" t="s">
         <v>1287</v>
@@ -23421,7 +23427,7 @@
     </row>
     <row r="1061" spans="1:9">
       <c r="A1061" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G1061" t="s">
         <v>1289</v>
@@ -23430,52 +23436,46 @@
         <v>1290</v>
       </c>
       <c r="I1061" s="1" t="s">
-        <v>1123</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1062" spans="1:9">
       <c r="A1062" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>20</v>
+        <v>1345</v>
       </c>
       <c r="C1062" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E1062" t="s">
         <v>1287</v>
       </c>
       <c r="I1062" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1063" spans="1:9">
       <c r="A1063" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>20</v>
+        <v>1345</v>
       </c>
       <c r="G1063" t="s">
         <v>1289</v>
       </c>
       <c r="H1063" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I1063" t="s">
-        <v>1347</v>
+        <v>1290</v>
+      </c>
+      <c r="I1063" s="1" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="1064" spans="1:9">
       <c r="A1064" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B1064" t="s">
         <v>20</v>
       </c>
       <c r="C1064" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E1064" t="s">
         <v>1287</v>
@@ -23486,7 +23486,7 @@
     </row>
     <row r="1065" spans="1:9">
       <c r="A1065" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B1065" t="s">
         <v>20</v>
@@ -23498,43 +23498,49 @@
         <v>1300</v>
       </c>
       <c r="I1065" t="s">
-        <v>562</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1066" spans="1:9">
       <c r="A1066" t="s">
-        <v>1349</v>
+        <v>1348</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>20</v>
       </c>
       <c r="C1066" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E1066" t="s">
         <v>1287</v>
       </c>
       <c r="I1066" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1067" spans="1:9">
       <c r="A1067" t="s">
-        <v>1349</v>
+        <v>1348</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>20</v>
       </c>
       <c r="G1067" t="s">
         <v>1289</v>
       </c>
       <c r="H1067" t="s">
-        <v>1290</v>
-      </c>
-      <c r="I1067" s="1" t="s">
-        <v>1350</v>
+        <v>1300</v>
+      </c>
+      <c r="I1067" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="1068" spans="1:9">
       <c r="A1068" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C1068" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E1068" t="s">
         <v>1287</v>
@@ -23545,7 +23551,7 @@
     </row>
     <row r="1069" spans="1:9">
       <c r="A1069" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G1069" t="s">
         <v>1289</v>
@@ -23559,21 +23565,21 @@
     </row>
     <row r="1070" spans="1:9">
       <c r="A1070" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C1070" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E1070" t="s">
         <v>1287</v>
       </c>
       <c r="I1070" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1071" spans="1:9">
       <c r="A1071" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G1071" t="s">
         <v>1289</v>
@@ -23582,15 +23588,15 @@
         <v>1290</v>
       </c>
       <c r="I1071" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1072" spans="1:9">
       <c r="A1072" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C1072" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E1072" t="s">
         <v>1287</v>
@@ -23601,7 +23607,7 @@
     </row>
     <row r="1073" spans="1:9">
       <c r="A1073" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G1073" t="s">
         <v>1289</v>
@@ -23610,26 +23616,26 @@
         <v>1290</v>
       </c>
       <c r="I1073" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1074" spans="1:9">
       <c r="A1074" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C1074" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E1074" t="s">
         <v>1287</v>
       </c>
       <c r="I1074" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1075" spans="1:9">
       <c r="A1075" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G1075" t="s">
         <v>1289</v>
@@ -23637,16 +23643,16 @@
       <c r="H1075" t="s">
         <v>1290</v>
       </c>
-      <c r="I1075" t="s">
-        <v>957</v>
+      <c r="I1075" s="1" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="1076" spans="1:9">
       <c r="A1076" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C1076" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E1076" t="s">
         <v>1287</v>
@@ -23657,7 +23663,7 @@
     </row>
     <row r="1077" spans="1:9">
       <c r="A1077" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G1077" t="s">
         <v>1289</v>
@@ -23671,45 +23677,30 @@
     </row>
     <row r="1078" spans="1:9">
       <c r="A1078" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C1078" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D1078" t="s">
-        <v>1198</v>
+        <v>1283</v>
       </c>
       <c r="E1078" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F1078" t="s">
-        <v>1360</v>
+        <v>1287</v>
       </c>
       <c r="I1078" t="s">
-        <v>1200</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1079" spans="1:9">
       <c r="A1079" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D1079" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E1079" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F1079" t="s">
-        <v>1360</v>
+        <v>1357</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>1290</v>
       </c>
       <c r="I1079" t="s">
-        <v>1202</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1080" spans="1:9">
@@ -23717,15 +23708,58 @@
         <v>1358</v>
       </c>
       <c r="C1080" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I1080" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:9">
+      <c r="A1081" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I1081" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:9">
+      <c r="A1082" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1082" t="s">
         <v>1361</v>
       </c>
-      <c r="E1080" t="s">
+      <c r="E1082" t="s">
         <v>1253</v>
       </c>
-      <c r="F1080" t="s">
+      <c r="F1082" t="s">
         <v>1362</v>
       </c>
-      <c r="I1080" t="s">
+      <c r="I1082" t="s">
         <v>1363</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\configuration\master-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E6286F-DB92-4E4C-90EF-6B50EA144939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58071A51-188A-4CA3-A2E9-A0CE45EE033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="29685" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="960" windowWidth="26745" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permission_definitions_new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="1471">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4421,6 +4421,18 @@
   </si>
   <si>
     <t>PROBAND_MASTER_ALL_DEPARTMENTS:PROBAND_MASTER_USER_DEPARTMENT</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JournalService.getJournalCountSafe</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.JournalService.getJournalCountSafe:module, id</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.FileService.getFileCountSafe</t>
+  </si>
+  <si>
+    <t>org.phoenixctms.ctsms.service.shared.FileService.getFileCountSafe:module, id</t>
   </si>
 </sst>
 </file>
@@ -5289,10 +5301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1089"/>
+  <dimension ref="A1:I1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="A330" sqref="A330"/>
+    <sheetView tabSelected="1" topLeftCell="A791" workbookViewId="0">
+      <selection activeCell="A811" sqref="A811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18950,361 +18962,351 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C812" t="s">
+    <row r="812" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C812" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D812" t="s">
+      <c r="D812" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="E812" t="s">
+      <c r="E812" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="F812" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I812" s="1" t="s">
+      <c r="F812" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I812" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C813" t="s">
+    <row r="813" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C813" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D813" t="s">
+      <c r="D813" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="E813" t="s">
+      <c r="E813" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="F813" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I813" s="1" t="s">
+      <c r="F813" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I813" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C814" t="s">
+    <row r="814" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C814" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D814" t="s">
+      <c r="D814" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="E814" t="s">
+      <c r="E814" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F814" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I814" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B815" s="2"/>
-      <c r="C815" t="s">
+      <c r="F814" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I814" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A815" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C815" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D815" t="s">
+      <c r="D815" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="E815" t="s">
+      <c r="E815" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="F815" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I815" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B816" t="s">
-        <v>20</v>
-      </c>
-      <c r="C816" t="s">
+      <c r="F815" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I815" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A816" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C816" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D816" t="s">
+      <c r="D816" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="E816" t="s">
+      <c r="E816" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F816" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I816" t="s">
+      <c r="F816" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I816" s="2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B817" s="2"/>
-      <c r="C817" t="s">
+    <row r="817" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C817" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D817" t="s">
+      <c r="D817" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="E817" t="s">
+      <c r="E817" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="F817" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I817" s="1" t="s">
+      <c r="F817" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I817" s="3" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C818" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E818" t="s">
-        <v>463</v>
-      </c>
-      <c r="F818" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I818" s="1" t="s">
-        <v>1117</v>
+    <row r="818" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G818" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H818" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I818" s="3" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1114</v>
       </c>
-      <c r="G819" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H819" t="s">
-        <v>1090</v>
+      <c r="C819" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1115</v>
       </c>
       <c r="I819" s="1" t="s">
-        <v>1118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C820" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="D820" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="E820" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="F820" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I820" s="1" t="s">
-        <v>23</v>
+        <v>223</v>
       </c>
     </row>
     <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C821" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="D821" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="E821" t="s">
-        <v>1068</v>
+        <v>345</v>
       </c>
       <c r="F821" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I821" s="1" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
     </row>
     <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>1119</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="B822" s="2"/>
       <c r="C822" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="D822" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="E822" t="s">
-        <v>345</v>
+        <v>1071</v>
       </c>
       <c r="F822" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="I822" s="1" t="s">
-        <v>371</v>
+        <v>517</v>
       </c>
     </row>
     <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B823" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B823" t="s">
         <v>20</v>
       </c>
       <c r="C823" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="D823" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="E823" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F823" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I823" s="1" t="s">
-        <v>1121</v>
+        <v>1115</v>
+      </c>
+      <c r="I823" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1119</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="B824" s="2"/>
       <c r="C824" t="s">
-        <v>1093</v>
+        <v>1078</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1088</v>
       </c>
       <c r="E824" t="s">
-        <v>1105</v>
+        <v>1075</v>
       </c>
       <c r="F824" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I824" t="s">
-        <v>1106</v>
+        <v>1115</v>
+      </c>
+      <c r="I824" s="1" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B825" t="s">
-        <v>20</v>
+        <v>1114</v>
       </c>
       <c r="C825" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D825" t="s">
-        <v>1099</v>
+        <v>1116</v>
       </c>
       <c r="E825" t="s">
-        <v>1073</v>
+        <v>463</v>
       </c>
       <c r="F825" t="s">
-        <v>1120</v>
-      </c>
-      <c r="I825" t="s">
-        <v>887</v>
+        <v>1115</v>
+      </c>
+      <c r="I825" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B826" s="2"/>
-      <c r="C826" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D826" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E826" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F826" t="s">
-        <v>1120</v>
+        <v>1114</v>
+      </c>
+      <c r="G826" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H826" t="s">
+        <v>1090</v>
       </c>
       <c r="I826" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C827" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="D827" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="E827" t="s">
         <v>1064</v>
       </c>
       <c r="F827" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="I827" s="1" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C828" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="D828" t="s">
-        <v>1082</v>
+        <v>1096</v>
       </c>
       <c r="E828" t="s">
         <v>1068</v>
       </c>
       <c r="F828" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="C829" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="D829" t="s">
-        <v>1083</v>
+        <v>1097</v>
       </c>
       <c r="E829" t="s">
         <v>345</v>
       </c>
       <c r="F829" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="I829" s="1" t="s">
         <v>371</v>
@@ -19312,86 +19314,91 @@
     </row>
     <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B830" s="2"/>
+        <v>1119</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C830" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="D830" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
       <c r="E830" t="s">
         <v>1071</v>
       </c>
       <c r="F830" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>518</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B831" t="s">
-        <v>20</v>
+        <v>1119</v>
       </c>
       <c r="C831" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D831" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="E831" t="s">
-        <v>1073</v>
+        <v>1105</v>
       </c>
       <c r="F831" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="I831" t="s">
-        <v>783</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B832" s="2"/>
+        <v>1119</v>
+      </c>
+      <c r="B832" t="s">
+        <v>20</v>
+      </c>
       <c r="C832" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="D832" t="s">
-        <v>1088</v>
+        <v>1099</v>
       </c>
       <c r="E832" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F832" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I832" s="1" t="s">
-        <v>1026</v>
+        <v>1120</v>
+      </c>
+      <c r="I832" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1123</v>
-      </c>
-      <c r="G833" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H833" t="s">
-        <v>1090</v>
+        <v>1119</v>
+      </c>
+      <c r="B833" s="2"/>
+      <c r="C833" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F833" t="s">
+        <v>1120</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C834" t="s">
         <v>1078</v>
@@ -19403,15 +19410,15 @@
         <v>1064</v>
       </c>
       <c r="F834" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C835" t="s">
         <v>1078</v>
@@ -19423,15 +19430,15 @@
         <v>1068</v>
       </c>
       <c r="F835" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C836" t="s">
         <v>1078</v>
@@ -19443,7 +19450,7 @@
         <v>345</v>
       </c>
       <c r="F836" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I836" s="1" t="s">
         <v>371</v>
@@ -19451,8 +19458,9 @@
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1126</v>
-      </c>
+        <v>1123</v>
+      </c>
+      <c r="B837" s="2"/>
       <c r="C837" t="s">
         <v>1078</v>
       </c>
@@ -19463,15 +19471,18 @@
         <v>1071</v>
       </c>
       <c r="F837" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1126</v>
+        <v>1123</v>
+      </c>
+      <c r="B838" t="s">
+        <v>20</v>
       </c>
       <c r="C838" t="s">
         <v>1078</v>
@@ -19483,7 +19494,7 @@
         <v>1073</v>
       </c>
       <c r="F838" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I838" t="s">
         <v>783</v>
@@ -19491,8 +19502,9 @@
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1126</v>
-      </c>
+        <v>1123</v>
+      </c>
+      <c r="B839" s="2"/>
       <c r="C839" t="s">
         <v>1078</v>
       </c>
@@ -19503,7 +19515,7 @@
         <v>1075</v>
       </c>
       <c r="F839" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="I839" s="1" t="s">
         <v>1026</v>
@@ -19511,7 +19523,7 @@
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="G840" t="s">
         <v>1089</v>
@@ -19520,149 +19532,141 @@
         <v>1090</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C841" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="D841" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="E841" t="s">
         <v>1064</v>
       </c>
       <c r="F841" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I841" t="s">
-        <v>35</v>
+        <v>1127</v>
+      </c>
+      <c r="I841" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C842" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="D842" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="E842" t="s">
         <v>1068</v>
       </c>
       <c r="F842" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="I842" s="1" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C843" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="D843" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="E843" t="s">
         <v>345</v>
       </c>
       <c r="F843" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I843" t="s">
-        <v>358</v>
+        <v>1127</v>
+      </c>
+      <c r="I843" s="1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B844" s="2"/>
+        <v>1126</v>
+      </c>
       <c r="C844" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="D844" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="E844" t="s">
         <v>1071</v>
       </c>
       <c r="F844" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I844" t="s">
-        <v>434</v>
+        <v>1127</v>
+      </c>
+      <c r="I844" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B845" t="s">
-        <v>20</v>
+        <v>1126</v>
       </c>
       <c r="C845" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="D845" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="E845" t="s">
         <v>1073</v>
       </c>
       <c r="F845" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="I845" t="s">
-        <v>436</v>
+        <v>783</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B846" s="2"/>
+        <v>1126</v>
+      </c>
       <c r="C846" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="D846" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E846" t="s">
         <v>1075</v>
       </c>
       <c r="F846" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I846" t="s">
-        <v>1132</v>
+        <v>1127</v>
+      </c>
+      <c r="I846" s="1" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C847" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E847" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F847" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I847" t="s">
-        <v>35</v>
+        <v>1126</v>
+      </c>
+      <c r="G847" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H847" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I847" s="1" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.25">
@@ -19670,16 +19674,19 @@
         <v>1129</v>
       </c>
       <c r="C848" t="s">
-        <v>1135</v>
+        <v>1130</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1094</v>
       </c>
       <c r="E848" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F848" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I848" s="1" t="s">
-        <v>304</v>
+        <v>1131</v>
+      </c>
+      <c r="I848" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.25">
@@ -19687,86 +19694,118 @@
         <v>1129</v>
       </c>
       <c r="C849" t="s">
-        <v>1136</v>
+        <v>1130</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1096</v>
       </c>
       <c r="E849" t="s">
-        <v>345</v>
+        <v>1068</v>
       </c>
       <c r="F849" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I849" t="s">
-        <v>1137</v>
+        <v>1131</v>
+      </c>
+      <c r="I849" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>1129</v>
       </c>
-      <c r="B850" s="2"/>
       <c r="C850" t="s">
-        <v>1138</v>
+        <v>1130</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1097</v>
       </c>
       <c r="E850" t="s">
-        <v>1071</v>
+        <v>345</v>
       </c>
       <c r="F850" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I850" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>1129</v>
       </c>
-      <c r="B851" t="s">
-        <v>20</v>
-      </c>
+      <c r="B851" s="2"/>
       <c r="C851" t="s">
-        <v>1139</v>
+        <v>1130</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1098</v>
       </c>
       <c r="E851" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F851" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="I851" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>1129</v>
       </c>
-      <c r="B852" s="2"/>
+      <c r="B852" t="s">
+        <v>20</v>
+      </c>
       <c r="C852" t="s">
-        <v>1140</v>
+        <v>1130</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1099</v>
       </c>
       <c r="E852" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F852" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I852" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B853" s="2"/>
+      <c r="C853" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E853" t="s">
         <v>1075</v>
       </c>
-      <c r="F852" t="s">
-        <v>1134</v>
-      </c>
-      <c r="I852" t="s">
-        <v>1076</v>
+      <c r="F853" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I853" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="C854" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="E854" t="s">
         <v>1064</v>
       </c>
       <c r="F854" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="I854" t="s">
         <v>35</v>
@@ -19774,909 +19813,861 @@
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="C855" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="E855" t="s">
         <v>1068</v>
       </c>
       <c r="F855" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="I855" s="1" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="C856" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="E856" t="s">
         <v>345</v>
       </c>
       <c r="F856" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="I856" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1141</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="B857" s="2"/>
       <c r="C857" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="E857" t="s">
         <v>1071</v>
       </c>
       <c r="F857" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="I857" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1148</v>
+        <v>1129</v>
+      </c>
+      <c r="B858" t="s">
+        <v>20</v>
       </c>
       <c r="C858" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D858" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="E858" t="s">
-        <v>1064</v>
+        <v>1073</v>
       </c>
       <c r="F858" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
       <c r="I858" t="s">
-        <v>35</v>
+        <v>422</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1148</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="B859" s="2"/>
       <c r="C859" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D859" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="E859" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="F859" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I859" s="1" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C860" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D860" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E860" t="s">
-        <v>345</v>
-      </c>
-      <c r="F860" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I860" t="s">
-        <v>1137</v>
+        <v>1134</v>
+      </c>
+      <c r="I859" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="C861" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D861" t="s">
-        <v>1155</v>
+        <v>1142</v>
       </c>
       <c r="E861" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="F861" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="I861" t="s">
-        <v>462</v>
+        <v>35</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="C862" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D862" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="E862" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="F862" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="I862" s="1" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="C863" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D863" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="E863" t="s">
-        <v>1068</v>
+        <v>345</v>
       </c>
       <c r="F863" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I863" s="1" t="s">
-        <v>203</v>
+        <v>1143</v>
+      </c>
+      <c r="I863" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="C864" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D864" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="E864" t="s">
-        <v>345</v>
+        <v>1071</v>
       </c>
       <c r="F864" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I864" s="1" t="s">
-        <v>1158</v>
+        <v>1143</v>
+      </c>
+      <c r="I864" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="C865" t="s">
         <v>1149</v>
       </c>
       <c r="D865" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E865" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="F865" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I865" s="1" t="s">
-        <v>571</v>
+        <v>1151</v>
+      </c>
+      <c r="I865" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="C866" t="s">
-        <v>1078</v>
+        <v>1149</v>
       </c>
       <c r="D866" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="E866" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="F866" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="I866" s="1" t="s">
-        <v>1162</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="C867" t="s">
-        <v>1078</v>
+        <v>1149</v>
       </c>
       <c r="D867" t="s">
-        <v>1163</v>
+        <v>1154</v>
       </c>
       <c r="E867" t="s">
-        <v>1068</v>
+        <v>345</v>
       </c>
       <c r="F867" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I867" s="1" t="s">
-        <v>1164</v>
+        <v>1151</v>
+      </c>
+      <c r="I867" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="C868" t="s">
-        <v>1078</v>
+        <v>1149</v>
       </c>
       <c r="D868" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="E868" t="s">
-        <v>345</v>
+        <v>1071</v>
       </c>
       <c r="F868" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I868" s="1" t="s">
-        <v>1166</v>
+        <v>1151</v>
+      </c>
+      <c r="I868" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C869" t="s">
-        <v>1078</v>
+        <v>1149</v>
       </c>
       <c r="D869" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
       <c r="E869" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="F869" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="I869" s="1" t="s">
-        <v>534</v>
+        <v>92</v>
       </c>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G870" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H870" t="s">
-        <v>1168</v>
+        <v>1156</v>
+      </c>
+      <c r="C870" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1157</v>
       </c>
       <c r="I870" s="1" t="s">
-        <v>1169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="C871" t="s">
-        <v>1078</v>
+        <v>1149</v>
       </c>
       <c r="D871" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="E871" t="s">
-        <v>1064</v>
+        <v>345</v>
       </c>
       <c r="F871" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="I871" s="1" t="s">
-        <v>23</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="C872" t="s">
-        <v>1078</v>
+        <v>1149</v>
       </c>
       <c r="D872" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="E872" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="F872" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="I872" s="1" t="s">
-        <v>225</v>
+        <v>571</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="C873" t="s">
         <v>1078</v>
       </c>
       <c r="D873" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="E873" t="s">
-        <v>345</v>
+        <v>1064</v>
       </c>
       <c r="F873" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="I873" s="1" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="C874" t="s">
         <v>1078</v>
       </c>
       <c r="D874" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E874" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F874" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="I874" s="1" t="s">
-        <v>526</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G875" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H875" t="s">
-        <v>1168</v>
+        <v>1159</v>
+      </c>
+      <c r="C875" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E875" t="s">
+        <v>345</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1161</v>
       </c>
       <c r="I875" s="1" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C876" t="s">
-        <v>1175</v>
+        <v>1078</v>
       </c>
       <c r="D876" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="E876" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="F876" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I876" t="s">
-        <v>35</v>
+        <v>1161</v>
+      </c>
+      <c r="I876" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C877" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D877" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E877" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F877" t="s">
-        <v>1176</v>
+        <v>1159</v>
+      </c>
+      <c r="G877" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H877" t="s">
+        <v>1168</v>
       </c>
       <c r="I877" s="1" t="s">
-        <v>171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C878" t="s">
-        <v>1175</v>
+        <v>1078</v>
       </c>
       <c r="D878" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="E878" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F878" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I878" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C879" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F879" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I879" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C880" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E880" t="s">
         <v>345</v>
       </c>
-      <c r="F878" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I878" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="879" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B879"/>
-      <c r="C879" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D879" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E879" t="s">
+      <c r="F880" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I880" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C881" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E881" t="s">
         <v>1071</v>
       </c>
-      <c r="F879" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G879"/>
-      <c r="H879"/>
-      <c r="I879" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="880" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A880" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B880"/>
-      <c r="C880" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D880"/>
-      <c r="E880" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F880" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G880"/>
-      <c r="H880"/>
-      <c r="I880" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="881" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B881"/>
-      <c r="C881" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D881"/>
-      <c r="E881" t="s">
-        <v>1068</v>
-      </c>
       <c r="F881" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G881"/>
-      <c r="H881"/>
+        <v>1171</v>
+      </c>
       <c r="I881" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="882" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B882"/>
-      <c r="C882" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D882"/>
-      <c r="E882" t="s">
-        <v>345</v>
-      </c>
-      <c r="F882" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G882"/>
-      <c r="H882"/>
-      <c r="I882" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="883" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1170</v>
+      </c>
+      <c r="G882" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H882" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I882" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>1174</v>
       </c>
-      <c r="B883"/>
       <c r="C883" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F883" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I883" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F884" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I884" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C885" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E885" t="s">
+        <v>345</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I885" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B886"/>
+      <c r="C886" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G886"/>
+      <c r="H886"/>
+      <c r="I886" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B887"/>
+      <c r="C887" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D887"/>
+      <c r="E887" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F887" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G887"/>
+      <c r="H887"/>
+      <c r="I887" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B888"/>
+      <c r="C888" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D888"/>
+      <c r="E888" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F888" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G888"/>
+      <c r="H888"/>
+      <c r="I888" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B889"/>
+      <c r="C889" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D889"/>
+      <c r="E889" t="s">
+        <v>345</v>
+      </c>
+      <c r="F889" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G889"/>
+      <c r="H889"/>
+      <c r="I889" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B890"/>
+      <c r="C890" t="s">
         <v>1182</v>
       </c>
-      <c r="D883"/>
-      <c r="E883" t="s">
+      <c r="D890"/>
+      <c r="E890" t="s">
         <v>1071</v>
       </c>
-      <c r="F883" t="s">
+      <c r="F890" t="s">
         <v>1178</v>
       </c>
-      <c r="G883"/>
-      <c r="H883"/>
-      <c r="I883" t="s">
+      <c r="G890"/>
+      <c r="H890"/>
+      <c r="I890" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="884" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="885" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C885" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E885" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F885" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I885" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="886" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B886" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C886" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E886" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F886" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I886" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="887" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C887" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E887" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F887" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I887" s="2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="888" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C888" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D888" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E888" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F888" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I888" s="3" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="889" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B889" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C889" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D889" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E889" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F889" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="I889" s="2" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="890" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C890" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D890" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E890" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F890" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I890" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="891" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B891" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C891" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D891" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E891" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F891" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I891" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
+    <row r="891" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="892" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="C892" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D892" s="2" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="E892" s="2" t="s">
-        <v>1194</v>
+        <v>1071</v>
       </c>
       <c r="F892" s="2" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="I892" s="2" t="s">
-        <v>984</v>
+        <v>434</v>
       </c>
     </row>
     <row r="893" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2" t="s">
-        <v>1412</v>
+        <v>1406</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C893" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D893" s="2" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="E893" s="2" t="s">
-        <v>1198</v>
+        <v>1073</v>
       </c>
       <c r="F893" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I893" s="3" t="s">
-        <v>1199</v>
+        <v>1411</v>
+      </c>
+      <c r="I893" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="894" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B894" s="2" t="s">
-        <v>20</v>
+        <v>1406</v>
       </c>
       <c r="C894" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D894" s="2" t="s">
-        <v>1429</v>
+        <v>1409</v>
       </c>
       <c r="E894" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F894" s="2" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="I894" s="2" t="s">
-        <v>1201</v>
+        <v>984</v>
       </c>
     </row>
     <row r="895" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B895" s="2" t="s">
-        <v>20</v>
+        <v>1406</v>
       </c>
       <c r="C895" s="2" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D895" s="2" t="s">
-        <v>1414</v>
+        <v>1197</v>
       </c>
       <c r="E895" s="2" t="s">
-        <v>1071</v>
+        <v>1198</v>
       </c>
       <c r="F895" s="2" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="I895" s="3" t="s">
-        <v>571</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="896" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="B896" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D896" s="2" t="s">
-        <v>1415</v>
+        <v>1197</v>
       </c>
       <c r="E896" s="2" t="s">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="F896" s="2" t="s">
-        <v>1419</v>
+        <v>1411</v>
       </c>
       <c r="I896" s="2" t="s">
-        <v>857</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="897" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D897" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E897" s="2" t="s">
-        <v>1194</v>
+        <v>1071</v>
       </c>
       <c r="F897" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I897" s="2" t="s">
-        <v>988</v>
+        <v>462</v>
       </c>
     </row>
     <row r="898" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C898" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D898" s="2" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="E898" s="2" t="s">
-        <v>1198</v>
+        <v>1073</v>
       </c>
       <c r="F898" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I898" s="3" t="s">
-        <v>1257</v>
+        <v>1417</v>
+      </c>
+      <c r="I898" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="899" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B899" s="2" t="s">
-        <v>20</v>
+        <v>1412</v>
       </c>
       <c r="C899" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D899" s="2" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E899" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F899" s="2" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I899" s="2" t="s">
-        <v>1232</v>
+        <v>984</v>
       </c>
     </row>
     <row r="900" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B900" s="2" t="s">
-        <v>20</v>
+        <v>1412</v>
       </c>
       <c r="C900" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D900" s="2" t="s">
-        <v>1414</v>
+        <v>1429</v>
       </c>
       <c r="E900" s="2" t="s">
-        <v>1071</v>
+        <v>1198</v>
       </c>
       <c r="F900" s="2" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="I900" s="3" t="s">
-        <v>571</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="901" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="B901" s="2" t="s">
         <v>20</v>
@@ -20685,555 +20676,582 @@
         <v>1413</v>
       </c>
       <c r="D901" s="2" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
       <c r="E901" s="2" t="s">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="F901" s="2" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="I901" s="2" t="s">
-        <v>857</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="902" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2" t="s">
-        <v>1427</v>
+        <v>1418</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C902" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E902" s="2" t="s">
-        <v>1194</v>
+        <v>1071</v>
       </c>
       <c r="F902" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I902" s="2" t="s">
-        <v>988</v>
+        <v>1419</v>
+      </c>
+      <c r="I902" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="903" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2" t="s">
-        <v>1427</v>
+        <v>1418</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="E903" s="2" t="s">
-        <v>1198</v>
+        <v>1073</v>
       </c>
       <c r="F903" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I903" s="3" t="s">
-        <v>1257</v>
+        <v>1419</v>
+      </c>
+      <c r="I903" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="904" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B904" s="2" t="s">
-        <v>20</v>
+        <v>1418</v>
       </c>
       <c r="C904" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>1429</v>
+        <v>1416</v>
       </c>
       <c r="E904" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F904" s="2" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="I904" s="2" t="s">
-        <v>1232</v>
+        <v>988</v>
       </c>
     </row>
     <row r="905" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1078</v>
+        <v>1413</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="E905" s="2" t="s">
-        <v>1071</v>
+        <v>1198</v>
       </c>
       <c r="F905" s="2" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="I905" s="3" t="s">
-        <v>534</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="906" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B906" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C906" s="2" t="s">
-        <v>1078</v>
+        <v>1413</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="E906" s="2" t="s">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="F906" s="2" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="I906" s="2" t="s">
-        <v>836</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="907" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2" t="s">
-        <v>1423</v>
+        <v>1427</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C907" s="2" t="s">
-        <v>1078</v>
+        <v>1413</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="E907" s="2" t="s">
-        <v>1194</v>
+        <v>1071</v>
       </c>
       <c r="F907" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="I907" s="2" t="s">
-        <v>988</v>
+        <v>1428</v>
+      </c>
+      <c r="I907" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="908" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2" t="s">
-        <v>1423</v>
+        <v>1427</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C908" s="2" t="s">
-        <v>1116</v>
+        <v>1413</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>1197</v>
+        <v>1415</v>
       </c>
       <c r="E908" s="2" t="s">
-        <v>1198</v>
+        <v>1073</v>
       </c>
       <c r="F908" s="2" t="s">
-        <v>1424</v>
-      </c>
-      <c r="I908" s="3" t="s">
-        <v>1257</v>
+        <v>1428</v>
+      </c>
+      <c r="I908" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="909" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B909" s="2" t="s">
-        <v>20</v>
+        <v>1427</v>
       </c>
       <c r="C909" s="2" t="s">
-        <v>1116</v>
+        <v>1413</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>1197</v>
+        <v>1416</v>
       </c>
       <c r="E909" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F909" s="2" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="I909" s="2" t="s">
-        <v>1232</v>
+        <v>988</v>
       </c>
     </row>
     <row r="910" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C910" s="2" t="s">
-        <v>1078</v>
+        <v>1413</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="E910" s="2" t="s">
-        <v>1071</v>
+        <v>1198</v>
       </c>
       <c r="F910" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="I910" s="3" t="s">
-        <v>534</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="911" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B911" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C911" s="2" t="s">
-        <v>1078</v>
+        <v>1413</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="E911" s="2" t="s">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="F911" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="I911" s="2" t="s">
-        <v>836</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="912" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>1078</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E912" s="2" t="s">
-        <v>1194</v>
+        <v>1071</v>
       </c>
       <c r="F912" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I912" s="2" t="s">
-        <v>988</v>
+        <v>1424</v>
+      </c>
+      <c r="I912" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="913" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2" t="s">
-        <v>1425</v>
+        <v>1423</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1116</v>
+        <v>1078</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>1197</v>
+        <v>1421</v>
       </c>
       <c r="E913" s="2" t="s">
-        <v>1198</v>
+        <v>1073</v>
       </c>
       <c r="F913" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I913" s="3" t="s">
-        <v>1257</v>
+        <v>1424</v>
+      </c>
+      <c r="I913" s="2" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="914" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C914" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D914" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E914" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F914" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I914" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C915" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D915" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E915" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F915" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I915" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A916" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C916" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D916" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E916" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F916" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I916" s="2" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A917" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="B914" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C914" s="2" t="s">
+      <c r="C917" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D917" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E917" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F917" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I917" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A918" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C918" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E918" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F918" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I918" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A919" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C919" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D919" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E919" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F919" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I919" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A920" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C920" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="D914" s="2" t="s">
+      <c r="D920" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="E914" s="2" t="s">
+      <c r="E920" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F920" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I920" s="3" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A921" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C921" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D921" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E921" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="F914" s="2" t="s">
+      <c r="F921" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="I914" s="2" t="s">
+      <c r="I921" s="2" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A915" s="2" t="s">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="B915" s="2"/>
-      <c r="C915" s="2" t="s">
+      <c r="B922" s="2"/>
+      <c r="C922" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="D915" s="2" t="s">
+      <c r="D922" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="E915" s="2" t="s">
+      <c r="E922" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="F915" s="2" t="s">
+      <c r="F922" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="G915" s="2"/>
-      <c r="H915" s="2"/>
-      <c r="I915" s="2" t="s">
+      <c r="G922" s="2"/>
+      <c r="H922" s="2"/>
+      <c r="I922" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A916" s="2" t="s">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A923" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="B916" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C916" s="2" t="s">
+      <c r="B923" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C923" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="D916" s="2" t="s">
+      <c r="D923" s="2" t="s">
         <v>1415</v>
       </c>
-      <c r="E916" s="2" t="s">
+      <c r="E923" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F916" s="2" t="s">
+      <c r="F923" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="G916" s="2"/>
-      <c r="H916" s="2"/>
-      <c r="I916" s="2" t="s">
+      <c r="G923" s="2"/>
+      <c r="H923" s="2"/>
+      <c r="I923" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A917" s="2" t="s">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A924" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="B917" s="2"/>
-      <c r="C917" s="2" t="s">
+      <c r="B924" s="2"/>
+      <c r="C924" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="D917" s="2" t="s">
+      <c r="D924" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="E917" s="2" t="s">
+      <c r="E924" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="F917" s="2" t="s">
+      <c r="F924" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="G917" s="2"/>
-      <c r="H917" s="2"/>
-      <c r="I917" s="2" t="s">
+      <c r="G924" s="2"/>
+      <c r="H924" s="2"/>
+      <c r="I924" s="2" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A918" s="2" t="s">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A925" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="B918" s="2"/>
-      <c r="C918" s="2" t="s">
+      <c r="B925" s="2"/>
+      <c r="C925" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="D918" s="2" t="s">
+      <c r="D925" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="E918" s="2" t="s">
+      <c r="E925" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="F918" s="2" t="s">
+      <c r="F925" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="G918" s="2"/>
-      <c r="H918" s="2"/>
-      <c r="I918" s="3" t="s">
+      <c r="G925" s="2"/>
+      <c r="H925" s="2"/>
+      <c r="I925" s="3" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A919" s="2" t="s">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
         <v>1430</v>
       </c>
-      <c r="B919" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C919" s="2" t="s">
+      <c r="B926" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C926" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="D919" s="2" t="s">
+      <c r="D926" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="E919" s="2" t="s">
+      <c r="E926" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="F919" s="2" t="s">
+      <c r="F926" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="G919" s="2"/>
-      <c r="H919" s="2"/>
-      <c r="I919" s="2" t="s">
+      <c r="G926" s="2"/>
+      <c r="H926" s="2"/>
+      <c r="I926" s="2" t="s">
         <v>1201</v>
-      </c>
-    </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A921" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C921" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E921" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F921" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I921" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A922" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C922" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E922" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F922" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I922" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A923" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C923" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E923" t="s">
-        <v>345</v>
-      </c>
-      <c r="F923" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I923" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B924" t="s">
-        <v>20</v>
-      </c>
-      <c r="C924" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E924" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F924" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I924" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B925" t="s">
-        <v>20</v>
-      </c>
-      <c r="C925" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E925" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F925" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I925" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C926" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E926" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F926" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I926" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A927" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C927" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E927" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F927" t="s">
-        <v>1185</v>
-      </c>
-      <c r="I927" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="928" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>1183</v>
       </c>
-      <c r="B928" t="s">
-        <v>20</v>
-      </c>
       <c r="C928" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="E928" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F928" t="s">
         <v>1185</v>
       </c>
       <c r="I928" t="s">
-        <v>1018</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.25">
@@ -21241,211 +21259,190 @@
         <v>1183</v>
       </c>
       <c r="C929" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D929" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="E929" t="s">
-        <v>1198</v>
+        <v>1068</v>
       </c>
       <c r="F929" t="s">
         <v>1185</v>
       </c>
-      <c r="I929" t="s">
-        <v>1199</v>
+      <c r="I929" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>1183</v>
       </c>
-      <c r="B930" t="s">
-        <v>20</v>
-      </c>
       <c r="C930" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D930" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="E930" t="s">
-        <v>1200</v>
+        <v>345</v>
       </c>
       <c r="F930" t="s">
         <v>1185</v>
       </c>
       <c r="I930" t="s">
-        <v>1201</v>
+        <v>352</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1202</v>
+        <v>1183</v>
+      </c>
+      <c r="B931" t="s">
+        <v>20</v>
       </c>
       <c r="C931" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D931" t="s">
-        <v>1204</v>
+        <v>1189</v>
       </c>
       <c r="E931" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="F931" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="I931" t="s">
-        <v>1186</v>
+        <v>432</v>
       </c>
     </row>
     <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1202</v>
+        <v>1183</v>
+      </c>
+      <c r="B932" t="s">
+        <v>20</v>
       </c>
       <c r="C932" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D932" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="E932" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="F932" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I932" s="1" t="s">
-        <v>153</v>
+        <v>1185</v>
+      </c>
+      <c r="I932" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="C933" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D933" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="E933" t="s">
-        <v>345</v>
+        <v>1192</v>
       </c>
       <c r="F933" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="I933" t="s">
-        <v>1181</v>
+        <v>956</v>
       </c>
     </row>
     <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B934" t="s">
-        <v>20</v>
+        <v>1183</v>
       </c>
       <c r="C934" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D934" t="s">
-        <v>1208</v>
+        <v>1193</v>
       </c>
       <c r="E934" t="s">
-        <v>1071</v>
+        <v>1194</v>
       </c>
       <c r="F934" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="I934" t="s">
-        <v>419</v>
+        <v>984</v>
       </c>
     </row>
     <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="B935" t="s">
         <v>20</v>
       </c>
       <c r="C935" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D935" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="E935" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F935" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="I935" t="s">
-        <v>703</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="936" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1202</v>
+        <v>1183</v>
       </c>
       <c r="C936" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D936" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="E936" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="F936" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="I936" t="s">
-        <v>956</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="937" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>1202</v>
+        <v>1183</v>
+      </c>
+      <c r="B937" t="s">
+        <v>20</v>
       </c>
       <c r="C937" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D937" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="E937" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="F937" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="I937" t="s">
-        <v>984</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="938" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>1202</v>
       </c>
-      <c r="B938" t="s">
-        <v>20</v>
-      </c>
       <c r="C938" t="s">
         <v>1203</v>
       </c>
       <c r="D938" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="E938" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F938" t="s">
         <v>1205</v>
       </c>
       <c r="I938" t="s">
-        <v>1076</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
@@ -21456,225 +21453,225 @@
         <v>1203</v>
       </c>
       <c r="D939" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="E939" t="s">
-        <v>1198</v>
+        <v>1068</v>
       </c>
       <c r="F939" t="s">
         <v>1205</v>
       </c>
-      <c r="I939" t="s">
-        <v>1199</v>
+      <c r="I939" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>1202</v>
       </c>
-      <c r="B940" t="s">
-        <v>20</v>
-      </c>
       <c r="C940" t="s">
         <v>1203</v>
       </c>
       <c r="D940" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="E940" t="s">
-        <v>1200</v>
+        <v>345</v>
       </c>
       <c r="F940" t="s">
         <v>1205</v>
       </c>
       <c r="I940" t="s">
-        <v>1201</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="B941" t="s">
         <v>20</v>
       </c>
       <c r="C941" t="s">
-        <v>252</v>
+        <v>1203</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1208</v>
       </c>
       <c r="E941" t="s">
         <v>1071</v>
       </c>
-      <c r="I941" s="1" t="s">
-        <v>1215</v>
+      <c r="F941" t="s">
+        <v>1205</v>
+      </c>
+      <c r="I941" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>1216</v>
+        <v>1202</v>
+      </c>
+      <c r="B942" t="s">
+        <v>20</v>
       </c>
       <c r="C942" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D942" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="E942" t="s">
-        <v>1064</v>
+        <v>1073</v>
       </c>
       <c r="F942" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I942" s="1" t="s">
-        <v>1081</v>
+        <v>1205</v>
+      </c>
+      <c r="I942" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="C943" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D943" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="E943" t="s">
-        <v>1068</v>
+        <v>1192</v>
       </c>
       <c r="F943" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I943" s="1" t="s">
-        <v>1220</v>
+        <v>1205</v>
+      </c>
+      <c r="I943" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="C944" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D944" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="E944" t="s">
-        <v>345</v>
+        <v>1194</v>
       </c>
       <c r="F944" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I944" s="1" t="s">
-        <v>1222</v>
+        <v>1205</v>
+      </c>
+      <c r="I944" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="B945" t="s">
         <v>20</v>
       </c>
       <c r="C945" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D945" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="E945" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="F945" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I945" s="1" t="s">
-        <v>1224</v>
+        <v>1205</v>
+      </c>
+      <c r="I945" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B946" t="s">
-        <v>20</v>
+        <v>1202</v>
       </c>
       <c r="C946" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D946" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="E946" t="s">
-        <v>1073</v>
+        <v>1198</v>
       </c>
       <c r="F946" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="I946" t="s">
-        <v>850</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1216</v>
+        <v>1202</v>
+      </c>
+      <c r="B947" t="s">
+        <v>20</v>
       </c>
       <c r="C947" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D947" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="E947" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="F947" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="I947" t="s">
-        <v>956</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>1216</v>
+        <v>1214</v>
+      </c>
+      <c r="B948" t="s">
+        <v>20</v>
       </c>
       <c r="C948" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D948" t="s">
-        <v>1227</v>
+        <v>252</v>
       </c>
       <c r="E948" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F948" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I948" t="s">
-        <v>994</v>
+        <v>1071</v>
+      </c>
+      <c r="I948" s="1" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>1216</v>
       </c>
-      <c r="B949" t="s">
-        <v>20</v>
-      </c>
       <c r="C949" t="s">
         <v>1078</v>
       </c>
       <c r="D949" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="E949" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F949" t="s">
         <v>1218</v>
       </c>
       <c r="I949" s="1" t="s">
-        <v>1229</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="950" spans="1:9" x14ac:dyDescent="0.25">
@@ -21685,164 +21682,170 @@
         <v>1078</v>
       </c>
       <c r="D950" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E950" t="s">
-        <v>1198</v>
+        <v>1068</v>
       </c>
       <c r="F950" t="s">
         <v>1218</v>
       </c>
       <c r="I950" s="1" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>1216</v>
       </c>
-      <c r="B951" t="s">
-        <v>20</v>
-      </c>
       <c r="C951" t="s">
         <v>1078</v>
       </c>
       <c r="D951" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="E951" t="s">
-        <v>1200</v>
+        <v>345</v>
       </c>
       <c r="F951" t="s">
         <v>1218</v>
       </c>
-      <c r="I951" t="s">
-        <v>1232</v>
+      <c r="I951" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>1233</v>
+        <v>1216</v>
       </c>
       <c r="B952" t="s">
         <v>20</v>
       </c>
       <c r="C952" t="s">
-        <v>1234</v>
+        <v>1078</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1223</v>
       </c>
       <c r="E952" t="s">
-        <v>959</v>
-      </c>
-      <c r="I952" t="s">
-        <v>956</v>
+        <v>1071</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I952" s="1" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>1235</v>
+        <v>1216</v>
+      </c>
+      <c r="B953" t="s">
+        <v>20</v>
       </c>
       <c r="C953" t="s">
-        <v>1236</v>
+        <v>1078</v>
       </c>
       <c r="D953" t="s">
-        <v>1237</v>
+        <v>1225</v>
       </c>
       <c r="E953" t="s">
-        <v>1198</v>
+        <v>1073</v>
       </c>
       <c r="F953" t="s">
-        <v>1238</v>
-      </c>
-      <c r="I953" s="1" t="s">
-        <v>1239</v>
+        <v>1218</v>
+      </c>
+      <c r="I953" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B954" t="s">
-        <v>20</v>
+        <v>1216</v>
       </c>
       <c r="C954" t="s">
-        <v>1236</v>
+        <v>1078</v>
       </c>
       <c r="D954" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="E954" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="F954" t="s">
-        <v>1238</v>
+        <v>1218</v>
       </c>
       <c r="I954" t="s">
-        <v>1232</v>
+        <v>956</v>
       </c>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>1240</v>
+        <v>1216</v>
       </c>
       <c r="C955" t="s">
         <v>1078</v>
       </c>
       <c r="D955" t="s">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="E955" t="s">
-        <v>1064</v>
+        <v>1194</v>
       </c>
       <c r="F955" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I955" s="1" t="s">
-        <v>1242</v>
+        <v>1218</v>
+      </c>
+      <c r="I955" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1240</v>
+        <v>1216</v>
+      </c>
+      <c r="B956" t="s">
+        <v>20</v>
       </c>
       <c r="C956" t="s">
         <v>1078</v>
       </c>
       <c r="D956" t="s">
-        <v>1219</v>
+        <v>1228</v>
       </c>
       <c r="E956" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="F956" t="s">
-        <v>1241</v>
+        <v>1218</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1240</v>
+        <v>1216</v>
       </c>
       <c r="C957" t="s">
         <v>1078</v>
       </c>
       <c r="D957" t="s">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="E957" t="s">
-        <v>345</v>
+        <v>1198</v>
       </c>
       <c r="F957" t="s">
-        <v>1241</v>
+        <v>1218</v>
       </c>
       <c r="I957" s="1" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1240</v>
+        <v>1216</v>
       </c>
       <c r="B958" t="s">
         <v>20</v>
@@ -21851,102 +21854,96 @@
         <v>1078</v>
       </c>
       <c r="D958" t="s">
-        <v>1223</v>
+        <v>1230</v>
       </c>
       <c r="E958" t="s">
-        <v>1071</v>
+        <v>1200</v>
       </c>
       <c r="F958" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I958" s="1" t="s">
-        <v>542</v>
+        <v>1218</v>
+      </c>
+      <c r="I958" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="B959" t="s">
         <v>20</v>
       </c>
       <c r="C959" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D959" t="s">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="E959" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F959" t="s">
-        <v>1241</v>
+        <v>959</v>
       </c>
       <c r="I959" t="s">
-        <v>836</v>
+        <v>956</v>
       </c>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C960" t="s">
-        <v>1078</v>
+        <v>1236</v>
       </c>
       <c r="D960" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="E960" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="F960" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I960" t="s">
-        <v>956</v>
+        <v>1238</v>
+      </c>
+      <c r="I960" s="1" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="961" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1240</v>
+        <v>1235</v>
+      </c>
+      <c r="B961" t="s">
+        <v>20</v>
       </c>
       <c r="C961" t="s">
-        <v>1078</v>
+        <v>1236</v>
       </c>
       <c r="D961" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="E961" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="F961" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="I961" t="s">
-        <v>988</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>1240</v>
       </c>
-      <c r="B962" t="s">
-        <v>20</v>
-      </c>
       <c r="C962" t="s">
         <v>1078</v>
       </c>
       <c r="D962" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="E962" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F962" t="s">
         <v>1241</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>1229</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.25">
@@ -21957,179 +21954,188 @@
         <v>1078</v>
       </c>
       <c r="D963" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E963" t="s">
-        <v>1198</v>
+        <v>1068</v>
       </c>
       <c r="F963" t="s">
         <v>1241</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>1240</v>
       </c>
-      <c r="B964" t="s">
-        <v>20</v>
-      </c>
       <c r="C964" t="s">
         <v>1078</v>
       </c>
       <c r="D964" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="E964" t="s">
-        <v>1200</v>
+        <v>345</v>
       </c>
       <c r="F964" t="s">
         <v>1241</v>
       </c>
-      <c r="I964" t="s">
-        <v>1246</v>
+      <c r="I964" s="1" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1247</v>
+        <v>1240</v>
+      </c>
+      <c r="B965" t="s">
+        <v>20</v>
       </c>
       <c r="C965" t="s">
         <v>1078</v>
       </c>
       <c r="D965" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="E965" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="F965" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>90</v>
+        <v>542</v>
       </c>
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1247</v>
+        <v>1240</v>
+      </c>
+      <c r="B966" t="s">
+        <v>20</v>
       </c>
       <c r="C966" t="s">
         <v>1078</v>
       </c>
       <c r="D966" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="E966" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="F966" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I966" s="1" t="s">
-        <v>1249</v>
+        <v>1241</v>
+      </c>
+      <c r="I966" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C967" t="s">
         <v>1078</v>
       </c>
       <c r="D967" t="s">
-        <v>1221</v>
+        <v>1226</v>
       </c>
       <c r="E967" t="s">
-        <v>345</v>
+        <v>1192</v>
       </c>
       <c r="F967" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I967" s="1" t="s">
-        <v>1250</v>
+        <v>1241</v>
+      </c>
+      <c r="I967" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C968" t="s">
         <v>1078</v>
       </c>
       <c r="D968" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="E968" t="s">
-        <v>1071</v>
+        <v>1194</v>
       </c>
       <c r="F968" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I968" s="1" t="s">
-        <v>583</v>
+        <v>1241</v>
+      </c>
+      <c r="I968" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1247</v>
+        <v>1240</v>
+      </c>
+      <c r="B969" t="s">
+        <v>20</v>
       </c>
       <c r="C969" t="s">
         <v>1078</v>
       </c>
       <c r="D969" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="E969" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F969" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I969" t="s">
-        <v>836</v>
+        <v>1241</v>
+      </c>
+      <c r="I969" s="1" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C970" t="s">
         <v>1078</v>
       </c>
       <c r="D970" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="E970" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="F970" t="s">
-        <v>1248</v>
-      </c>
-      <c r="I970" t="s">
-        <v>956</v>
+        <v>1241</v>
+      </c>
+      <c r="I970" s="1" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1247</v>
+        <v>1240</v>
+      </c>
+      <c r="B971" t="s">
+        <v>20</v>
       </c>
       <c r="C971" t="s">
         <v>1078</v>
       </c>
       <c r="D971" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="E971" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="F971" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="I971" t="s">
-        <v>988</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.25">
@@ -22140,16 +22146,16 @@
         <v>1078</v>
       </c>
       <c r="D972" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="E972" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F972" t="s">
         <v>1248</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>1251</v>
+        <v>90</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.25">
@@ -22160,814 +22166,817 @@
         <v>1078</v>
       </c>
       <c r="D973" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="E973" t="s">
-        <v>1252</v>
+        <v>1068</v>
       </c>
       <c r="F973" t="s">
         <v>1248</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C974" t="s">
-        <v>1203</v>
+        <v>1078</v>
       </c>
       <c r="D974" t="s">
-        <v>1204</v>
+        <v>1221</v>
       </c>
       <c r="E974" t="s">
-        <v>1064</v>
+        <v>345</v>
       </c>
       <c r="F974" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>92</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C975" t="s">
-        <v>1203</v>
+        <v>1078</v>
       </c>
       <c r="D975" t="s">
-        <v>1206</v>
+        <v>1223</v>
       </c>
       <c r="E975" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="F975" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>270</v>
+        <v>583</v>
       </c>
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C976" t="s">
-        <v>1203</v>
+        <v>1078</v>
       </c>
       <c r="D976" t="s">
-        <v>1207</v>
+        <v>1225</v>
       </c>
       <c r="E976" t="s">
-        <v>345</v>
+        <v>1073</v>
       </c>
       <c r="F976" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I976" s="1" t="s">
-        <v>1256</v>
+        <v>1248</v>
+      </c>
+      <c r="I976" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="977" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B977" t="s">
-        <v>20</v>
+        <v>1247</v>
       </c>
       <c r="C977" t="s">
-        <v>1203</v>
+        <v>1078</v>
       </c>
       <c r="D977" t="s">
-        <v>1208</v>
+        <v>1226</v>
       </c>
       <c r="E977" t="s">
-        <v>1071</v>
+        <v>1192</v>
       </c>
       <c r="F977" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I977" s="1" t="s">
-        <v>606</v>
+        <v>1248</v>
+      </c>
+      <c r="I977" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="978" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B978" t="s">
-        <v>20</v>
+        <v>1247</v>
       </c>
       <c r="C978" t="s">
-        <v>1203</v>
+        <v>1078</v>
       </c>
       <c r="D978" t="s">
-        <v>1209</v>
+        <v>1227</v>
       </c>
       <c r="E978" t="s">
-        <v>1073</v>
+        <v>1194</v>
       </c>
       <c r="F978" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="I978" t="s">
-        <v>857</v>
+        <v>988</v>
       </c>
     </row>
     <row r="979" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C979" t="s">
-        <v>1203</v>
+        <v>1078</v>
       </c>
       <c r="D979" t="s">
-        <v>1210</v>
+        <v>1228</v>
       </c>
       <c r="E979" t="s">
-        <v>1192</v>
+        <v>1075</v>
       </c>
       <c r="F979" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I979" t="s">
-        <v>956</v>
+        <v>1248</v>
+      </c>
+      <c r="I979" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="980" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="C980" t="s">
-        <v>1203</v>
+        <v>1078</v>
       </c>
       <c r="D980" t="s">
-        <v>1211</v>
+        <v>1230</v>
       </c>
       <c r="E980" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F980" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I980" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C981" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D981" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E981" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F981" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I981" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C982" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D982" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E982" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F982" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I982" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C983" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D983" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E983" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F983" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I983" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C984" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D984" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E984" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F984" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I984" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C985" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D985" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E985" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F985" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I985" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C986" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D986" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E986" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F986" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I986" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C987" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D987" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E987" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="F980" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I980" t="s">
+      <c r="F987" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I987" s="2" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B981" t="s">
-        <v>20</v>
-      </c>
-      <c r="C981" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D981" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E981" t="s">
+    <row r="988" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C988" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D988" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E988" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="F981" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I981" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C982" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D982" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E982" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F982" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I982" s="1" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B983" t="s">
-        <v>20</v>
-      </c>
-      <c r="C983" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D983" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E983" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F983" t="s">
-        <v>1255</v>
-      </c>
-      <c r="I983" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C984" t="s">
+      <c r="F988" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I988" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C989" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="D984" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E984" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F984" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I984" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C985" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D985" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E985" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F985" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I985" s="1" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C986" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D986" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E986" t="s">
-        <v>345</v>
-      </c>
-      <c r="F986" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I986" s="1" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B987" t="s">
-        <v>20</v>
-      </c>
-      <c r="C987" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D987" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E987" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F987" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I987" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A988" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B988" t="s">
-        <v>20</v>
-      </c>
-      <c r="C988" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D988" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E988" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F988" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I988" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C989" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D989" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E989" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F989" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I989" t="s">
-        <v>956</v>
+      <c r="D989" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E989" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F989" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I989" s="3" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C990" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D990" t="s">
-        <v>1227</v>
+        <v>1204</v>
       </c>
       <c r="E990" t="s">
-        <v>1194</v>
+        <v>1064</v>
       </c>
       <c r="F990" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I990" t="s">
-        <v>988</v>
+        <v>1255</v>
+      </c>
+      <c r="I990" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="991" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B991" t="s">
-        <v>20</v>
+        <v>1254</v>
       </c>
       <c r="C991" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D991" t="s">
-        <v>1228</v>
+        <v>1206</v>
       </c>
       <c r="E991" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="F991" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="I991" s="1" t="s">
-        <v>1251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="992" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C992" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D992" t="s">
-        <v>1230</v>
+        <v>1207</v>
       </c>
       <c r="E992" t="s">
-        <v>1198</v>
+        <v>345</v>
       </c>
       <c r="F992" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="I992" s="1" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="993" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="B993" t="s">
         <v>20</v>
       </c>
       <c r="C993" t="s">
-        <v>1078</v>
+        <v>1203</v>
       </c>
       <c r="D993" t="s">
-        <v>1230</v>
+        <v>1208</v>
       </c>
       <c r="E993" t="s">
-        <v>1200</v>
+        <v>1071</v>
       </c>
       <c r="F993" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I993" t="s">
-        <v>1232</v>
+        <v>1255</v>
+      </c>
+      <c r="I993" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="994" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1263</v>
+        <v>1254</v>
       </c>
       <c r="B994" t="s">
         <v>20</v>
       </c>
       <c r="C994" t="s">
-        <v>1234</v>
+        <v>1203</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1209</v>
       </c>
       <c r="E994" t="s">
-        <v>959</v>
+        <v>1073</v>
+      </c>
+      <c r="F994" t="s">
+        <v>1255</v>
       </c>
       <c r="I994" t="s">
-        <v>966</v>
+        <v>857</v>
       </c>
     </row>
     <row r="995" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C995" s="2" t="s">
-        <v>1265</v>
+        <v>1254</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1203</v>
       </c>
       <c r="D995" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="E995" t="s">
-        <v>1064</v>
+        <v>1192</v>
       </c>
       <c r="F995" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="I995" t="s">
-        <v>35</v>
+        <v>956</v>
       </c>
     </row>
     <row r="996" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="C996" t="s">
-        <v>1265</v>
+        <v>1203</v>
       </c>
       <c r="D996" t="s">
-        <v>1206</v>
+        <v>1211</v>
       </c>
       <c r="E996" t="s">
-        <v>1068</v>
+        <v>1194</v>
       </c>
       <c r="F996" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I996" s="1" t="s">
-        <v>139</v>
+        <v>1255</v>
+      </c>
+      <c r="I996" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="997" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1264</v>
+        <v>1254</v>
+      </c>
+      <c r="B997" t="s">
+        <v>20</v>
       </c>
       <c r="C997" t="s">
-        <v>1265</v>
+        <v>1203</v>
       </c>
       <c r="D997" t="s">
-        <v>1207</v>
+        <v>1212</v>
       </c>
       <c r="E997" t="s">
-        <v>345</v>
+        <v>1075</v>
       </c>
       <c r="F997" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I997" t="s">
-        <v>1181</v>
+        <v>1255</v>
+      </c>
+      <c r="I997" s="1" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="998" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B998" t="s">
-        <v>20</v>
+        <v>1254</v>
       </c>
       <c r="C998" t="s">
-        <v>1265</v>
+        <v>1203</v>
       </c>
       <c r="D998" t="s">
-        <v>1208</v>
+        <v>1213</v>
       </c>
       <c r="E998" t="s">
-        <v>1071</v>
+        <v>1198</v>
       </c>
       <c r="F998" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I998" t="s">
-        <v>412</v>
+        <v>1255</v>
+      </c>
+      <c r="I998" s="1" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="999" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="B999" t="s">
         <v>20</v>
       </c>
       <c r="C999" t="s">
-        <v>1265</v>
+        <v>1203</v>
       </c>
       <c r="D999" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="E999" t="s">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="F999" t="s">
-        <v>1266</v>
+        <v>1255</v>
       </c>
       <c r="I999" t="s">
-        <v>422</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1000" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C1000" t="s">
-        <v>1265</v>
+        <v>1078</v>
       </c>
       <c r="D1000" t="s">
-        <v>1210</v>
+        <v>1217</v>
       </c>
       <c r="E1000" t="s">
-        <v>1192</v>
+        <v>1064</v>
       </c>
       <c r="F1000" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I1000" t="s">
-        <v>956</v>
+        <v>1259</v>
+      </c>
+      <c r="I1000" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1001" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C1001" t="s">
-        <v>1265</v>
+        <v>1078</v>
       </c>
       <c r="D1001" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="E1001" t="s">
-        <v>1194</v>
+        <v>1068</v>
       </c>
       <c r="F1001" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I1001" t="s">
-        <v>984</v>
+        <v>1259</v>
+      </c>
+      <c r="I1001" s="1" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="1002" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B1002" t="s">
-        <v>20</v>
+        <v>1258</v>
       </c>
       <c r="C1002" t="s">
-        <v>1265</v>
+        <v>1078</v>
       </c>
       <c r="D1002" t="s">
-        <v>1212</v>
+        <v>1221</v>
       </c>
       <c r="E1002" t="s">
-        <v>1075</v>
+        <v>345</v>
       </c>
       <c r="F1002" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I1002" t="s">
-        <v>1018</v>
+        <v>1259</v>
+      </c>
+      <c r="I1002" s="1" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="1003" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1264</v>
+        <v>1258</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>20</v>
       </c>
       <c r="C1003" t="s">
-        <v>1265</v>
+        <v>1078</v>
       </c>
       <c r="D1003" t="s">
-        <v>1213</v>
+        <v>1223</v>
       </c>
       <c r="E1003" t="s">
-        <v>1198</v>
+        <v>1071</v>
       </c>
       <c r="F1003" t="s">
-        <v>1266</v>
-      </c>
-      <c r="I1003" t="s">
-        <v>1199</v>
+        <v>1259</v>
+      </c>
+      <c r="I1003" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="1004" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B1004" t="s">
         <v>20</v>
       </c>
       <c r="C1004" t="s">
-        <v>1265</v>
+        <v>1078</v>
       </c>
       <c r="D1004" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
       <c r="E1004" t="s">
-        <v>1200</v>
+        <v>1073</v>
       </c>
       <c r="F1004" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
       <c r="I1004" t="s">
-        <v>1201</v>
+        <v>836</v>
       </c>
     </row>
     <row r="1005" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C1005" t="s">
-        <v>1267</v>
+        <v>1078</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1226</v>
       </c>
       <c r="E1005" t="s">
-        <v>1064</v>
+        <v>1192</v>
       </c>
       <c r="F1005" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="I1005" t="s">
-        <v>1066</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1006" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C1006" t="s">
-        <v>1269</v>
+        <v>1078</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1227</v>
       </c>
       <c r="E1006" t="s">
-        <v>1068</v>
+        <v>1194</v>
       </c>
       <c r="F1006" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I1006" s="1" t="s">
-        <v>1270</v>
+        <v>1259</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="1007" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1264</v>
+        <v>1258</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>20</v>
       </c>
       <c r="C1007" t="s">
-        <v>1271</v>
+        <v>1078</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1228</v>
       </c>
       <c r="E1007" t="s">
-        <v>345</v>
+        <v>1075</v>
       </c>
       <c r="F1007" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I1007" t="s">
-        <v>352</v>
+        <v>1259</v>
+      </c>
+      <c r="I1007" s="1" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="1008" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>20</v>
+        <v>1258</v>
       </c>
       <c r="C1008" t="s">
-        <v>1272</v>
+        <v>1078</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1230</v>
       </c>
       <c r="E1008" t="s">
-        <v>1071</v>
+        <v>1198</v>
       </c>
       <c r="F1008" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I1008" t="s">
-        <v>419</v>
+        <v>1259</v>
+      </c>
+      <c r="I1008" s="1" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="1009" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B1009" t="s">
         <v>20</v>
       </c>
       <c r="C1009" t="s">
-        <v>1273</v>
+        <v>1078</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1230</v>
       </c>
       <c r="E1009" t="s">
-        <v>1073</v>
+        <v>1200</v>
       </c>
       <c r="F1009" t="s">
-        <v>1268</v>
+        <v>1259</v>
       </c>
       <c r="I1009" t="s">
-        <v>436</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1010" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1264</v>
+        <v>1263</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>20</v>
       </c>
       <c r="C1010" t="s">
-        <v>1274</v>
+        <v>1234</v>
       </c>
       <c r="E1010" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F1010" t="s">
-        <v>1268</v>
+        <v>959</v>
       </c>
       <c r="I1010" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
     </row>
     <row r="1011" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>1264</v>
       </c>
-      <c r="C1011" t="s">
-        <v>1275</v>
+      <c r="C1011" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1204</v>
       </c>
       <c r="E1011" t="s">
-        <v>1194</v>
+        <v>1064</v>
       </c>
       <c r="F1011" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I1011" t="s">
-        <v>984</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1012" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>1264</v>
       </c>
-      <c r="B1012" t="s">
-        <v>20</v>
-      </c>
       <c r="C1012" t="s">
-        <v>1276</v>
+        <v>1265</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1206</v>
       </c>
       <c r="E1012" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="F1012" t="s">
-        <v>1268</v>
-      </c>
-      <c r="I1012" t="s">
-        <v>1076</v>
+        <v>1266</v>
+      </c>
+      <c r="I1012" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="1013" spans="1:9" x14ac:dyDescent="0.25">
@@ -22975,19 +22984,19 @@
         <v>1264</v>
       </c>
       <c r="C1013" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="D1013" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
       <c r="E1013" t="s">
-        <v>1198</v>
+        <v>345</v>
       </c>
       <c r="F1013" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I1013" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1014" spans="1:9" x14ac:dyDescent="0.25">
@@ -22998,320 +23007,401 @@
         <v>20</v>
       </c>
       <c r="C1014" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="D1014" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="E1014" t="s">
-        <v>1200</v>
+        <v>1071</v>
       </c>
       <c r="F1014" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I1014" t="s">
-        <v>1201</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="1016" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="C1016" t="s">
-        <v>1279</v>
+        <v>1265</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1210</v>
       </c>
       <c r="E1016" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="F1016" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="I1016" t="s">
-        <v>1199</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1017" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B1017" t="s">
-        <v>20</v>
+        <v>1264</v>
       </c>
       <c r="C1017" t="s">
-        <v>1279</v>
+        <v>1265</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1211</v>
       </c>
       <c r="E1017" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F1017" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="I1017" t="s">
-        <v>1201</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1018" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1281</v>
+        <v>1264</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>20</v>
       </c>
       <c r="C1018" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="D1018" t="s">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="E1018" t="s">
-        <v>1198</v>
+        <v>1075</v>
       </c>
       <c r="F1018" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="I1018" t="s">
-        <v>1199</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1019" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B1019" t="s">
-        <v>20</v>
+        <v>1264</v>
       </c>
       <c r="C1019" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="D1019" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="E1019" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="F1019" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="I1019" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1020" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1284</v>
+        <v>1264</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>20</v>
       </c>
       <c r="C1020" t="s">
-        <v>1285</v>
+        <v>1265</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1213</v>
       </c>
       <c r="E1020" t="s">
-        <v>1286</v>
+        <v>1200</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>1266</v>
       </c>
       <c r="I1020" t="s">
-        <v>1287</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1021" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G1021" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1021" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1021" s="1" t="s">
-        <v>1290</v>
+        <v>1264</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I1021" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="1022" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1291</v>
+        <v>1264</v>
       </c>
       <c r="C1022" t="s">
-        <v>1285</v>
+        <v>1269</v>
       </c>
       <c r="E1022" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1022" t="s">
-        <v>1292</v>
+        <v>1068</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I1022" s="1" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="1023" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1293</v>
+        <v>1264</v>
       </c>
       <c r="C1023" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="E1023" t="s">
-        <v>1286</v>
+        <v>345</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>1268</v>
       </c>
       <c r="I1023" t="s">
-        <v>1294</v>
+        <v>352</v>
       </c>
     </row>
     <row r="1024" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1293</v>
-      </c>
-      <c r="G1024" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1024" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1024" s="1" t="s">
-        <v>90</v>
+        <v>1264</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I1024" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1295</v>
+        <v>1264</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>20</v>
       </c>
       <c r="C1025" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="E1025" t="s">
-        <v>1286</v>
+        <v>1073</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>1268</v>
       </c>
       <c r="I1025" t="s">
-        <v>1296</v>
+        <v>436</v>
       </c>
     </row>
     <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1295</v>
-      </c>
-      <c r="G1026" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1026" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1026" s="1" t="s">
-        <v>1031</v>
+        <v>1264</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>20</v>
+        <v>1264</v>
       </c>
       <c r="C1027" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="E1027" t="s">
-        <v>1286</v>
+        <v>1194</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>1268</v>
       </c>
       <c r="I1027" t="s">
-        <v>1298</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1297</v>
+        <v>1264</v>
       </c>
       <c r="B1028" t="s">
         <v>20</v>
       </c>
-      <c r="G1028" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1028" t="s">
-        <v>1299</v>
+      <c r="C1028" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1268</v>
       </c>
       <c r="I1028" t="s">
-        <v>1300</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1301</v>
+        <v>1264</v>
       </c>
       <c r="C1029" t="s">
-        <v>1285</v>
+        <v>1277</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1197</v>
       </c>
       <c r="E1029" t="s">
-        <v>1286</v>
+        <v>1198</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1268</v>
       </c>
       <c r="I1029" t="s">
-        <v>1302</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G1030" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1030" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1030" s="1" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1031" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E1031" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1031" t="s">
-        <v>1305</v>
+        <v>1264</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G1032" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1032" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1032" s="1" t="s">
-        <v>1306</v>
+        <v>1278</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1307</v>
+        <v>1278</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>20</v>
       </c>
       <c r="C1033" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E1033" t="s">
-        <v>1286</v>
+        <v>1200</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1280</v>
       </c>
       <c r="I1033" t="s">
-        <v>1308</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G1034" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1034" t="s">
-        <v>1289</v>
+        <v>1281</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1283</v>
       </c>
       <c r="I1034" t="s">
-        <v>956</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1309</v>
+        <v>1281</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>20</v>
       </c>
       <c r="C1035" t="s">
         <v>1282</v>
@@ -23320,291 +23410,220 @@
         <v>1197</v>
       </c>
       <c r="E1035" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F1035" t="s">
-        <v>1310</v>
-      </c>
-      <c r="I1035" s="1" t="s">
-        <v>1311</v>
+        <v>1283</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>20</v>
+        <v>1284</v>
       </c>
       <c r="C1036" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D1036" t="s">
-        <v>1197</v>
+        <v>1285</v>
       </c>
       <c r="E1036" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1036" t="s">
-        <v>1310</v>
+        <v>1286</v>
       </c>
       <c r="I1036" t="s">
-        <v>1232</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E1037" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F1037" t="s">
-        <v>1313</v>
+        <v>1284</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>1289</v>
       </c>
       <c r="I1037" s="1" t="s">
-        <v>1314</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>20</v>
+        <v>1291</v>
       </c>
       <c r="C1038" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="E1038" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1038" t="s">
-        <v>1313</v>
+        <v>1286</v>
       </c>
       <c r="I1038" t="s">
-        <v>1232</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1315</v>
+        <v>1293</v>
       </c>
       <c r="C1039" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="E1039" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F1039" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I1039" s="1" t="s">
-        <v>1314</v>
+        <v>1286</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E1040" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1040" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I1040" t="s">
-        <v>1232</v>
+        <v>1293</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1040" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1317</v>
+        <v>1295</v>
       </c>
       <c r="C1041" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="E1041" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F1041" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I1041" s="1" t="s">
-        <v>1231</v>
+        <v>1286</v>
+      </c>
+      <c r="I1041" t="s">
+        <v>1296</v>
       </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B1042" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1042" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E1042" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1042" t="s">
-        <v>1318</v>
-      </c>
-      <c r="I1042" t="s">
-        <v>1246</v>
+        <v>1295</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1042" s="1" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1319</v>
+        <v>1297</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>20</v>
       </c>
       <c r="C1043" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="E1043" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F1043" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I1043" s="1" t="s">
-        <v>1321</v>
+        <v>1286</v>
+      </c>
+      <c r="I1043" t="s">
+        <v>1298</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1319</v>
+        <v>1297</v>
       </c>
       <c r="B1044" t="s">
         <v>20</v>
       </c>
-      <c r="C1044" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E1044" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1044" t="s">
-        <v>1320</v>
+      <c r="G1044" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>1299</v>
       </c>
       <c r="I1044" t="s">
-        <v>1232</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1322</v>
+        <v>1301</v>
       </c>
       <c r="C1045" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>1197</v>
+        <v>1285</v>
       </c>
       <c r="E1045" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F1045" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I1045" s="1" t="s">
-        <v>1324</v>
+        <v>1286</v>
+      </c>
+      <c r="I1045" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B1046" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D1046" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E1046" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1046" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I1046" t="s">
-        <v>1246</v>
+        <v>1301</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1046" s="1" t="s">
+        <v>1303</v>
       </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1325</v>
+        <v>1304</v>
       </c>
       <c r="C1047" t="s">
-        <v>1236</v>
+        <v>1285</v>
       </c>
       <c r="E1047" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F1047" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I1047" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+      <c r="I1047" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D1048"/>
-      <c r="E1048" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1048" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G1048"/>
-      <c r="H1048"/>
-      <c r="I1048" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1304</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1048" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B1049"/>
+        <v>1307</v>
+      </c>
       <c r="C1049" t="s">
         <v>1285</v>
       </c>
-      <c r="D1049"/>
       <c r="E1049" t="s">
         <v>1286</v>
       </c>
-      <c r="F1049"/>
-      <c r="G1049"/>
-      <c r="H1049"/>
       <c r="I1049" t="s">
-        <v>1287</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1328</v>
+        <v>1307</v>
       </c>
       <c r="G1050" t="s">
         <v>1288</v>
@@ -23612,239 +23631,306 @@
       <c r="H1050" t="s">
         <v>1289</v>
       </c>
-      <c r="I1050" s="1" t="s">
-        <v>1329</v>
+      <c r="I1050" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1330</v>
+        <v>1309</v>
       </c>
       <c r="C1051" t="s">
-        <v>1285</v>
+        <v>1282</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1197</v>
       </c>
       <c r="E1051" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1051" t="s">
-        <v>1302</v>
+        <v>1198</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I1051" s="1" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G1052" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1052" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1052" s="1" t="s">
-        <v>1331</v>
+        <v>1309</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1053" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B1053" s="2"/>
-      <c r="C1053" s="2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D1053" s="2"/>
-      <c r="E1053" s="2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F1053" s="2"/>
-      <c r="G1053" s="2"/>
-      <c r="H1053" s="2"/>
-      <c r="I1053" s="2" t="s">
-        <v>1302</v>
+      <c r="A1053" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I1053" s="1" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1054" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B1054" s="2"/>
-      <c r="C1054" s="2"/>
-      <c r="D1054" s="2"/>
-      <c r="E1054" s="2"/>
-      <c r="F1054" s="2"/>
-      <c r="G1054" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1054" s="2" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1054" s="3" t="s">
-        <v>1331</v>
+      <c r="A1054" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I1054" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>20</v>
+        <v>1315</v>
       </c>
       <c r="C1055" t="s">
-        <v>1285</v>
+        <v>1236</v>
       </c>
       <c r="E1055" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1055" t="s">
-        <v>1298</v>
+        <v>1198</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I1055" s="1" t="s">
+        <v>1314</v>
       </c>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
       <c r="B1056" t="s">
         <v>20</v>
       </c>
-      <c r="G1056" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1056" t="s">
-        <v>1299</v>
+      <c r="C1056" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1316</v>
       </c>
       <c r="I1056" t="s">
-        <v>562</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="C1057" t="s">
-        <v>1285</v>
+        <v>1236</v>
       </c>
       <c r="E1057" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1057" t="s">
-        <v>1287</v>
+        <v>1198</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I1057" s="1" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1333</v>
-      </c>
-      <c r="G1058" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1058" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1058" s="1" t="s">
-        <v>1334</v>
+        <v>1317</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I1058" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="C1059" t="s">
-        <v>1282</v>
+        <v>1236</v>
       </c>
       <c r="E1059" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1059" t="s">
-        <v>1287</v>
+        <v>1198</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I1059" s="1" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G1060" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1060" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1060" s="1" t="s">
-        <v>1336</v>
+        <v>1319</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I1060" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="C1061" t="s">
-        <v>1285</v>
+        <v>1282</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1197</v>
       </c>
       <c r="E1061" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1061" t="s">
-        <v>1292</v>
+        <v>1198</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I1061" s="1" t="s">
+        <v>1324</v>
       </c>
     </row>
     <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1338</v>
+        <v>1322</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>20</v>
       </c>
       <c r="C1062" t="s">
         <v>1282</v>
       </c>
+      <c r="D1062" t="s">
+        <v>1197</v>
+      </c>
       <c r="E1062" t="s">
-        <v>1286</v>
+        <v>1200</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>1323</v>
       </c>
       <c r="I1062" t="s">
-        <v>1292</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="C1063" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I1063" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D1064"/>
+      <c r="E1064" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G1064"/>
+      <c r="H1064"/>
+      <c r="I1064" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1065"/>
+      <c r="C1065" t="s">
         <v>1285</v>
       </c>
-      <c r="E1063" t="s">
-        <v>1286</v>
-      </c>
-      <c r="I1063" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G1064" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1064" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1064" s="1" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>1282</v>
-      </c>
+      <c r="D1065"/>
       <c r="E1065" t="s">
         <v>1286</v>
       </c>
+      <c r="F1065"/>
+      <c r="G1065"/>
+      <c r="H1065"/>
       <c r="I1065" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="G1066" t="s">
         <v>1288</v>
@@ -23853,12 +23939,12 @@
         <v>1289</v>
       </c>
       <c r="I1066" s="1" t="s">
-        <v>81</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="C1067" t="s">
         <v>1285</v>
@@ -23867,12 +23953,12 @@
         <v>1286</v>
       </c>
       <c r="I1067" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="G1068" t="s">
         <v>1288</v>
@@ -23881,40 +23967,50 @@
         <v>1289</v>
       </c>
       <c r="I1068" s="1" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E1069" t="s">
+      <c r="A1069" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1069" s="2"/>
+      <c r="C1069" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D1069" s="2"/>
+      <c r="E1069" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="I1069" t="s">
-        <v>1296</v>
+      <c r="F1069" s="2"/>
+      <c r="G1069" s="2"/>
+      <c r="H1069" s="2"/>
+      <c r="I1069" s="2" t="s">
+        <v>1302</v>
       </c>
     </row>
     <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G1070" t="s">
+      <c r="A1070" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B1070" s="2"/>
+      <c r="C1070" s="2"/>
+      <c r="D1070" s="2"/>
+      <c r="E1070" s="2"/>
+      <c r="F1070" s="2"/>
+      <c r="G1070" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="H1070" t="s">
+      <c r="H1070" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="I1070" s="1" t="s">
-        <v>1122</v>
+      <c r="I1070" s="3" t="s">
+        <v>1331</v>
       </c>
     </row>
     <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="B1071" t="s">
         <v>20</v>
@@ -23931,7 +24027,7 @@
     </row>
     <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1345</v>
+        <v>1332</v>
       </c>
       <c r="B1072" t="s">
         <v>20</v>
@@ -23943,60 +24039,54 @@
         <v>1299</v>
       </c>
       <c r="I1072" t="s">
-        <v>1346</v>
+        <v>562</v>
       </c>
     </row>
     <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>20</v>
+        <v>1333</v>
       </c>
       <c r="C1073" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E1073" t="s">
         <v>1286</v>
       </c>
       <c r="I1073" t="s">
-        <v>1298</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>20</v>
+        <v>1333</v>
       </c>
       <c r="G1074" t="s">
         <v>1288</v>
       </c>
       <c r="H1074" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I1074" t="s">
-        <v>562</v>
+        <v>1289</v>
+      </c>
+      <c r="I1074" s="1" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="C1075" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E1075" t="s">
         <v>1286</v>
       </c>
       <c r="I1075" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1348</v>
+        <v>1335</v>
       </c>
       <c r="G1076" t="s">
         <v>1288</v>
@@ -24005,40 +24095,40 @@
         <v>1289</v>
       </c>
       <c r="I1076" s="1" t="s">
-        <v>1349</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>1350</v>
+        <v>1337</v>
       </c>
       <c r="C1077" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E1077" t="s">
         <v>1286</v>
       </c>
       <c r="I1077" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G1078" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H1078" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I1078" s="1" t="s">
-        <v>1349</v>
+        <v>1338</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="C1079" t="s">
         <v>1285</v>
@@ -24047,12 +24137,12 @@
         <v>1286</v>
       </c>
       <c r="I1079" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="G1080" t="s">
         <v>1288</v>
@@ -24061,12 +24151,12 @@
         <v>1289</v>
       </c>
       <c r="I1080" s="1" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="C1081" t="s">
         <v>1282</v>
@@ -24075,12 +24165,12 @@
         <v>1286</v>
       </c>
       <c r="I1081" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1082" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="G1082" t="s">
         <v>1288</v>
@@ -24089,12 +24179,12 @@
         <v>1289</v>
       </c>
       <c r="I1082" s="1" t="s">
-        <v>1354</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1083" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="C1083" t="s">
         <v>1285</v>
@@ -24103,12 +24193,12 @@
         <v>1286</v>
       </c>
       <c r="I1083" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1084" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1355</v>
+        <v>1342</v>
       </c>
       <c r="G1084" t="s">
         <v>1288</v>
@@ -24116,13 +24206,13 @@
       <c r="H1084" t="s">
         <v>1289</v>
       </c>
-      <c r="I1084" t="s">
-        <v>956</v>
+      <c r="I1084" s="1" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="1085" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="C1085" t="s">
         <v>1282</v>
@@ -24131,12 +24221,12 @@
         <v>1286</v>
       </c>
       <c r="I1085" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1086" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="G1086" t="s">
         <v>1288</v>
@@ -24144,67 +24234,303 @@
       <c r="H1086" t="s">
         <v>1289</v>
       </c>
-      <c r="I1086" t="s">
-        <v>956</v>
+      <c r="I1086" s="1" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="1087" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>1357</v>
+        <v>1345</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>20</v>
       </c>
       <c r="C1087" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D1087" t="s">
-        <v>1197</v>
+        <v>1285</v>
       </c>
       <c r="E1087" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F1087" t="s">
-        <v>1359</v>
+        <v>1286</v>
       </c>
       <c r="I1087" t="s">
-        <v>1199</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1088" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B1088" t="s">
         <v>20</v>
       </c>
-      <c r="C1088" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D1088" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E1088" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F1088" t="s">
-        <v>1359</v>
+      <c r="G1088" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>1299</v>
       </c>
       <c r="I1088" t="s">
-        <v>1201</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1089" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1089" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I1090" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1091" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1092" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1093" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1094" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1096" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1097" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1098" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1099" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1100" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I1101" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I1102" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
         <v>1357</v>
       </c>
-      <c r="C1089" t="s">
+      <c r="C1103" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I1103" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I1104" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C1105" t="s">
         <v>1360</v>
       </c>
-      <c r="E1089" t="s">
+      <c r="E1105" t="s">
         <v>1252</v>
       </c>
-      <c r="F1089" t="s">
+      <c r="F1105" t="s">
         <v>1361</v>
       </c>
-      <c r="I1089" t="s">
+      <c r="I1105" t="s">
         <v>1362</v>
       </c>
     </row>

--- a/permission_definitions.xlsx
+++ b/permission_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\configuration\master-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CA33BB-CE56-4E09-9234-50F6D277A368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7570829-236A-4614-98CA-CD41ED2DC729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="450" windowWidth="53430" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="960" windowWidth="56010" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="permission_definitions_new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5580" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5580" uniqueCount="1472">
   <si>
     <t>#SERVICE_METHOD</t>
   </si>
@@ -4430,6 +4430,12 @@
   </si>
   <si>
     <t>INVENTORY_MASTER_USER_DEPARTMENT:INVENTORY_DETAIL_USER_DEPARTMENT:INVENTORY_MASTER_IDENTITY_DEPARTMENT:INVENTORY_DETAIL_IDENTITY_DEPARTMENT,STAFF_MASTER_USER_DEPARTMENT:STAFF_DETAIL_USER_DEPARTMENT:STAFF_MASTER_IDENTITY_DEPARTMENT:STAFF_DETAIL_IDENTITY_DEPARTMENT:STAFF_DETAIL_IDENTITY:STAFF_MASTER_IDENTITY:STAFF_MASTER_IDENTITY_CHILD:STAFF_DETAIL_IDENTITY_CHILD,COURSE_MASTER_USER_DEPARTMENT:COURSE_DETAIL_USER_DEPARTMENT:COURSE_MASTER_IDENTITY_DEPARTMENT:COURSE_DETAIL_IDENTITY_DEPARTMENT:COURSE_MASTER_LECTURER:COURSE_DETAIL_LECTURER,TRIAL_MASTER_USER_DEPARTMENT:TRIAL_DETAIL_USER_DEPARTMENT:TRIAL_MASTER_IDENTITY_DEPARTMENT:TRIAL_DETAIL_IDENTITY_DEPARTMENT:TRIAL_MASTER_TEAM_MEMBER:TRIAL_DETAIL_TEAM_MEMBER,PROBAND_DETAIL_USER_DEPARTMENT:PROBAND_MASTER_USER_DEPARTMENT,MASS_MAIL_MASTER_USER_DEPARTMENT:MASS_MAIL_DETAIL_USER_DEPARTMENT:MASS_MAIL_MASTER_IDENTITY_DEPARTMENT:MASS_MAIL_DETAIL_IDENTITY_DEPARTMENT</t>
+  </si>
+  <si>
+    <t>ANY_TRIAL,TRIAL_USER_DEPARTMENT,TRIAL_IDENTITY_DEPARTMENT,TRIAL_IDENTITY_TEAM_MEMBER,TRIAL_IDENTITY_TEAM_MEMBER_ECRF</t>
+  </si>
+  <si>
+    <t>NULL,ANY_TRIAL,TRIAL_USER_DEPARTMENT,TRIAL_IDENTITY_DEPARTMENT,TRIAL_IDENTITY_TEAM_MEMBER,TRIAL_IDENTITY_TEAM_MEMBER_ECRF</t>
   </si>
 </sst>
 </file>
@@ -5303,8 +5309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G784" workbookViewId="0">
-      <selection activeCell="I791" sqref="I791"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="A554" sqref="A554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8915,7 +8921,7 @@
         <v>411</v>
       </c>
       <c r="E234" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I234" t="s">
         <v>412</v>
@@ -8932,7 +8938,7 @@
         <v>415</v>
       </c>
       <c r="E235" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I235" t="s">
         <v>412</v>
@@ -8952,7 +8958,7 @@
         <v>418</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1381</v>
+        <v>1471</v>
       </c>
       <c r="I236" s="2" t="s">
         <v>1386</v>
@@ -8989,7 +8995,7 @@
         <v>415</v>
       </c>
       <c r="E238" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I238" t="s">
         <v>425</v>
@@ -9364,7 +9370,7 @@
         <v>415</v>
       </c>
       <c r="E262" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F262" t="s">
         <v>461</v>
@@ -9398,7 +9404,7 @@
         <v>464</v>
       </c>
       <c r="E264" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I264" t="s">
         <v>427</v>
@@ -9463,7 +9469,7 @@
         <v>418</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1381</v>
+        <v>1471</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>1385</v>
@@ -9500,7 +9506,7 @@
         <v>415</v>
       </c>
       <c r="E270" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I270" t="s">
         <v>419</v>
@@ -9514,7 +9520,7 @@
         <v>252</v>
       </c>
       <c r="E271" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I271" t="s">
         <v>434</v>
@@ -9531,7 +9537,7 @@
         <v>415</v>
       </c>
       <c r="E272" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I272" t="s">
         <v>412</v>
@@ -9548,7 +9554,7 @@
         <v>479</v>
       </c>
       <c r="E273" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I273" t="s">
         <v>427</v>
@@ -9568,7 +9574,7 @@
         <v>482</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1381</v>
+        <v>1471</v>
       </c>
       <c r="I274" s="2" t="s">
         <v>1383</v>
@@ -9900,7 +9906,7 @@
         <v>252</v>
       </c>
       <c r="E293" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F293" t="s">
         <v>516</v>
@@ -9923,7 +9929,7 @@
         <v>418</v>
       </c>
       <c r="E294" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F294" t="s">
         <v>516</v>
@@ -9946,7 +9952,7 @@
         <v>415</v>
       </c>
       <c r="E295" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F295" t="s">
         <v>516</v>
@@ -10297,7 +10303,7 @@
         <v>415</v>
       </c>
       <c r="E316" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I316" s="1" t="s">
         <v>519</v>
@@ -10311,7 +10317,7 @@
         <v>252</v>
       </c>
       <c r="E317" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F317" t="s">
         <v>548</v>
@@ -10331,7 +10337,7 @@
         <v>489</v>
       </c>
       <c r="E318" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F318" t="s">
         <v>548</v>
@@ -10351,7 +10357,7 @@
         <v>512</v>
       </c>
       <c r="E319" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F319" t="s">
         <v>548</v>
@@ -10371,7 +10377,7 @@
         <v>479</v>
       </c>
       <c r="E320" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I320" s="1" t="s">
         <v>519</v>
@@ -10384,8 +10390,8 @@
       <c r="C321" t="s">
         <v>252</v>
       </c>
-      <c r="E321" t="s">
-        <v>253</v>
+      <c r="E321" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F321" t="s">
         <v>553</v>
@@ -10404,8 +10410,8 @@
       <c r="D322" t="s">
         <v>415</v>
       </c>
-      <c r="E322" t="s">
-        <v>253</v>
+      <c r="E322" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F322" t="s">
         <v>553</v>
@@ -10422,7 +10428,7 @@
         <v>252</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>555</v>
@@ -10441,8 +10447,8 @@
       <c r="D324" t="s">
         <v>415</v>
       </c>
-      <c r="E324" t="s">
-        <v>253</v>
+      <c r="E324" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>555</v>
@@ -10461,8 +10467,8 @@
       <c r="D325" t="s">
         <v>415</v>
       </c>
-      <c r="E325" t="s">
-        <v>253</v>
+      <c r="E325" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I325" t="s">
         <v>427</v>
@@ -10478,8 +10484,8 @@
       <c r="D326" t="s">
         <v>415</v>
       </c>
-      <c r="E326" t="s">
-        <v>253</v>
+      <c r="E326" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>559</v>
@@ -10498,8 +10504,8 @@
       <c r="D327" t="s">
         <v>482</v>
       </c>
-      <c r="E327" t="s">
-        <v>253</v>
+      <c r="E327" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>561</v>
@@ -10532,8 +10538,8 @@
       <c r="C329" t="s">
         <v>252</v>
       </c>
-      <c r="E329" t="s">
-        <v>253</v>
+      <c r="E329" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F329" t="s">
         <v>563</v>
@@ -10566,8 +10572,8 @@
       <c r="D331" t="s">
         <v>418</v>
       </c>
-      <c r="E331" t="s">
-        <v>253</v>
+      <c r="E331" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F331" t="s">
         <v>563</v>
@@ -10606,8 +10612,8 @@
       <c r="D333" t="s">
         <v>415</v>
       </c>
-      <c r="E333" t="s">
-        <v>253</v>
+      <c r="E333" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F333" t="s">
         <v>563</v>
@@ -10629,8 +10635,8 @@
       <c r="D334" t="s">
         <v>418</v>
       </c>
-      <c r="E334" t="s">
-        <v>253</v>
+      <c r="E334" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F334" t="s">
         <v>568</v>
@@ -10672,8 +10678,8 @@
       <c r="C336" t="s">
         <v>252</v>
       </c>
-      <c r="E336" t="s">
-        <v>253</v>
+      <c r="E336" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F336" t="s">
         <v>570</v>
@@ -10716,8 +10722,8 @@
       <c r="D338" t="s">
         <v>418</v>
       </c>
-      <c r="E338" t="s">
-        <v>253</v>
+      <c r="E338" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F338" t="s">
         <v>570</v>
@@ -10739,8 +10745,8 @@
       <c r="D339" t="s">
         <v>415</v>
       </c>
-      <c r="E339" t="s">
-        <v>253</v>
+      <c r="E339" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F339" t="s">
         <v>570</v>
@@ -10762,8 +10768,8 @@
       <c r="D340" t="s">
         <v>418</v>
       </c>
-      <c r="E340" t="s">
-        <v>253</v>
+      <c r="E340" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>564</v>
@@ -10802,8 +10808,8 @@
       <c r="D342" t="s">
         <v>575</v>
       </c>
-      <c r="E342" t="s">
-        <v>253</v>
+      <c r="E342" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>564</v>
@@ -10839,8 +10845,8 @@
       <c r="D344" t="s">
         <v>418</v>
       </c>
-      <c r="E344" t="s">
-        <v>253</v>
+      <c r="E344" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>564</v>
@@ -10873,8 +10879,8 @@
       <c r="C346" t="s">
         <v>252</v>
       </c>
-      <c r="E346" t="s">
-        <v>253</v>
+      <c r="E346" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F346" t="s">
         <v>578</v>
@@ -10896,8 +10902,8 @@
       <c r="D347" t="s">
         <v>418</v>
       </c>
-      <c r="E347" t="s">
-        <v>253</v>
+      <c r="E347" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F347" t="s">
         <v>578</v>
@@ -10919,8 +10925,8 @@
       <c r="D348" t="s">
         <v>415</v>
       </c>
-      <c r="E348" t="s">
-        <v>253</v>
+      <c r="E348" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F348" t="s">
         <v>578</v>
@@ -10942,8 +10948,8 @@
       <c r="D349" t="s">
         <v>418</v>
       </c>
-      <c r="E349" t="s">
-        <v>253</v>
+      <c r="E349" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>564</v>
@@ -10979,8 +10985,8 @@
       <c r="D351" t="s">
         <v>415</v>
       </c>
-      <c r="E351" t="s">
-        <v>253</v>
+      <c r="E351" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>537</v>
@@ -10993,8 +10999,8 @@
       <c r="C352" t="s">
         <v>252</v>
       </c>
-      <c r="E352" t="s">
-        <v>253</v>
+      <c r="E352" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F352" t="s">
         <v>582</v>
@@ -11013,8 +11019,8 @@
       <c r="D353" t="s">
         <v>489</v>
       </c>
-      <c r="E353" t="s">
-        <v>253</v>
+      <c r="E353" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F353" t="s">
         <v>582</v>
@@ -11033,8 +11039,8 @@
       <c r="D354" t="s">
         <v>512</v>
       </c>
-      <c r="E354" t="s">
-        <v>253</v>
+      <c r="E354" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F354" t="s">
         <v>582</v>
@@ -11054,8 +11060,8 @@
       <c r="D355" t="s">
         <v>418</v>
       </c>
-      <c r="E355" t="s">
-        <v>253</v>
+      <c r="E355" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F355"/>
       <c r="G355"/>
@@ -11092,8 +11098,8 @@
       <c r="C357" t="s">
         <v>252</v>
       </c>
-      <c r="E357" t="s">
-        <v>253</v>
+      <c r="E357" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I357" t="s">
         <v>458</v>
@@ -11112,8 +11118,8 @@
       <c r="D358" t="s">
         <v>418</v>
       </c>
-      <c r="E358" t="s">
-        <v>253</v>
+      <c r="E358" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>585</v>
@@ -11152,8 +11158,8 @@
       <c r="D360" t="s">
         <v>418</v>
       </c>
-      <c r="E360" t="s">
-        <v>253</v>
+      <c r="E360" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>564</v>
@@ -11194,7 +11200,7 @@
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="2"/>
@@ -11216,8 +11222,8 @@
       <c r="D363" t="s">
         <v>418</v>
       </c>
-      <c r="E363" t="s">
-        <v>253</v>
+      <c r="E363" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>534</v>
@@ -11256,8 +11262,8 @@
       <c r="D365" t="s">
         <v>418</v>
       </c>
-      <c r="E365" t="s">
-        <v>253</v>
+      <c r="E365" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>591</v>
@@ -11293,8 +11299,8 @@
       <c r="D367" t="s">
         <v>415</v>
       </c>
-      <c r="E367" t="s">
-        <v>253</v>
+      <c r="E367" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F367" t="s">
         <v>592</v>
@@ -11313,8 +11319,8 @@
       <c r="D368" t="s">
         <v>418</v>
       </c>
-      <c r="E368" t="s">
-        <v>253</v>
+      <c r="E368" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F368" t="s">
         <v>592</v>
@@ -11449,8 +11455,8 @@
       <c r="D376" t="s">
         <v>418</v>
       </c>
-      <c r="E376" t="s">
-        <v>253</v>
+      <c r="E376" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F376" t="s">
         <v>601</v>
@@ -13224,8 +13230,8 @@
       <c r="D474" t="s">
         <v>415</v>
       </c>
-      <c r="E474" t="s">
-        <v>253</v>
+      <c r="E474" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I474" t="s">
         <v>425</v>
@@ -13241,8 +13247,8 @@
       <c r="D475" t="s">
         <v>479</v>
       </c>
-      <c r="E475" t="s">
-        <v>253</v>
+      <c r="E475" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I475" t="s">
         <v>427</v>
@@ -13258,8 +13264,8 @@
       <c r="D476" t="s">
         <v>479</v>
       </c>
-      <c r="E476" t="s">
-        <v>253</v>
+      <c r="E476" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I476" t="s">
         <v>425</v>
@@ -13275,8 +13281,8 @@
       <c r="D477" t="s">
         <v>415</v>
       </c>
-      <c r="E477" t="s">
-        <v>253</v>
+      <c r="E477" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I477" t="s">
         <v>432</v>
@@ -13440,8 +13446,8 @@
       <c r="D486" t="s">
         <v>479</v>
       </c>
-      <c r="E486" t="s">
-        <v>253</v>
+      <c r="E486" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I486" t="s">
         <v>425</v>
@@ -13454,8 +13460,8 @@
       <c r="C487" t="s">
         <v>252</v>
       </c>
-      <c r="E487" t="s">
-        <v>253</v>
+      <c r="E487" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I487" t="s">
         <v>419</v>
@@ -13522,8 +13528,8 @@
       <c r="D491" t="s">
         <v>418</v>
       </c>
-      <c r="E491" t="s">
-        <v>253</v>
+      <c r="E491" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F491" t="s">
         <v>694</v>
@@ -13565,8 +13571,8 @@
       <c r="C493" t="s">
         <v>252</v>
       </c>
-      <c r="E493" t="s">
-        <v>253</v>
+      <c r="E493" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F493" t="s">
         <v>695</v>
@@ -13588,8 +13594,8 @@
       <c r="D494" t="s">
         <v>418</v>
       </c>
-      <c r="E494" t="s">
-        <v>253</v>
+      <c r="E494" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F494" t="s">
         <v>695</v>
@@ -13689,7 +13695,7 @@
         <v>701</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1381</v>
+        <v>1471</v>
       </c>
       <c r="I499" s="2" t="s">
         <v>1387</v>
@@ -13749,7 +13755,7 @@
         <v>418</v>
       </c>
       <c r="E502" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="I502" t="s">
         <v>425</v>
@@ -13846,7 +13852,7 @@
         <v>418</v>
       </c>
       <c r="E507" t="s">
-        <v>253</v>
+        <v>1470</v>
       </c>
       <c r="F507" t="s">
         <v>711</v>
@@ -13865,8 +13871,8 @@
       <c r="D508" t="s">
         <v>415</v>
       </c>
-      <c r="E508" t="s">
-        <v>253</v>
+      <c r="E508" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I508" t="s">
         <v>427</v>
@@ -13879,8 +13885,8 @@
       <c r="C509" t="s">
         <v>464</v>
       </c>
-      <c r="E509" t="s">
-        <v>253</v>
+      <c r="E509" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I509" t="s">
         <v>432</v>
@@ -13896,8 +13902,8 @@
       <c r="D510" t="s">
         <v>479</v>
       </c>
-      <c r="E510" t="s">
-        <v>253</v>
+      <c r="E510" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I510" t="s">
         <v>427</v>
@@ -13913,8 +13919,8 @@
       <c r="D511" t="s">
         <v>415</v>
       </c>
-      <c r="E511" t="s">
-        <v>253</v>
+      <c r="E511" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I511" t="s">
         <v>412</v>
@@ -13930,8 +13936,8 @@
       <c r="D512" t="s">
         <v>415</v>
       </c>
-      <c r="E512" t="s">
-        <v>253</v>
+      <c r="E512" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I512" t="s">
         <v>425</v>
@@ -14372,8 +14378,8 @@
       <c r="C539" t="s">
         <v>252</v>
       </c>
-      <c r="E539" t="s">
-        <v>253</v>
+      <c r="E539" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F539" t="s">
         <v>750</v>
@@ -14395,8 +14401,8 @@
       <c r="D540" t="s">
         <v>418</v>
       </c>
-      <c r="E540" t="s">
-        <v>253</v>
+      <c r="E540" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F540" t="s">
         <v>750</v>
@@ -14420,8 +14426,8 @@
       <c r="D541" t="s">
         <v>415</v>
       </c>
-      <c r="E541" t="s">
-        <v>253</v>
+      <c r="E541" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="F541" t="s">
         <v>750</v>
@@ -14443,8 +14449,8 @@
       <c r="D542" t="s">
         <v>418</v>
       </c>
-      <c r="E542" t="s">
-        <v>253</v>
+      <c r="E542" s="2" t="s">
+        <v>1470</v>
       </c>
       <c r="I542" s="1" t="s">
         <v>534</v>
@@ -14477,7 +14483,7 @@
       <c r="C544" t="s">
         <v>252</v>
       </c>
-      <c r="E544" t="s">
+      <c r="E544" s="2" t="s">
         <v>253</v>
       </c>
       <c r="I544" s="1" t="s">
